--- a/gdcdictionary/xlsx/nodes_schema_impowr.xlsx
+++ b/gdcdictionary/xlsx/nodes_schema_impowr.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vithal\Documents\GitHub\dcfdictionary\gdcdictionary\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF136A9-C22D-4090-A565-A8D0A606A3B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CA96501-17D7-4A23-A9DE-9C5A4D70278C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5652" uniqueCount="1697">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5736" uniqueCount="1713">
   <si>
     <t>&lt;$schema&gt;</t>
   </si>
@@ -5118,6 +5118,54 @@
   </si>
   <si>
     <t>patients_baseline_implementation_science</t>
+  </si>
+  <si>
+    <t>pb_PROMIS_physical_function</t>
+  </si>
+  <si>
+    <t>Patient Baseline PROMIS Physical Function</t>
+  </si>
+  <si>
+    <t>Data describing patient baseline PROMIS physical function characteristics</t>
+  </si>
+  <si>
+    <t>patients_baseline_PROMIS_physical_function</t>
+  </si>
+  <si>
+    <t>pb_sleep_duration</t>
+  </si>
+  <si>
+    <t>Patient Baseline Sleep Duration</t>
+  </si>
+  <si>
+    <t>Data describing patient baseline sleep duration characteristics</t>
+  </si>
+  <si>
+    <t>patients_baseline_sleep_duration</t>
+  </si>
+  <si>
+    <t>pb_PROMIS_sleep</t>
+  </si>
+  <si>
+    <t>Patient Baseline PROMIS Sleep</t>
+  </si>
+  <si>
+    <t>Data describing patient baseline PROMIS sleep characteristics</t>
+  </si>
+  <si>
+    <t>patients_baseline_PROMIS_sleep</t>
+  </si>
+  <si>
+    <t>pb_PROMIS_fatigue</t>
+  </si>
+  <si>
+    <t>Patient Baseline PROMIS Fatigue</t>
+  </si>
+  <si>
+    <t>Data describing patient baseline PROMIS fatigue characteristics</t>
+  </si>
+  <si>
+    <t>patients_baseline_PROMIS_fatigue</t>
   </si>
 </sst>
 </file>
@@ -5532,40 +5580,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y71"/>
+  <dimension ref="A1:Y75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y71" sqref="Y71"/>
+    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="89" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="255.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="74.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="255.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="139.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="103" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="57" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="126.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="66.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="110.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="59.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
@@ -9664,10 +9689,10 @@
         <v>25</v>
       </c>
       <c r="B62" t="s">
-        <v>1657</v>
+        <v>1701</v>
       </c>
       <c r="C62" t="s">
-        <v>1658</v>
+        <v>1702</v>
       </c>
       <c r="D62" t="s">
         <v>126</v>
@@ -9685,7 +9710,7 @@
         <v>136</v>
       </c>
       <c r="J62" t="s">
-        <v>1659</v>
+        <v>1703</v>
       </c>
       <c r="K62" t="s">
         <v>186</v>
@@ -9703,16 +9728,16 @@
         <v>218</v>
       </c>
       <c r="Q62" t="s">
-        <v>1660</v>
+        <v>1704</v>
       </c>
       <c r="R62" t="s">
-        <v>1657</v>
+        <v>1701</v>
       </c>
       <c r="S62" t="s">
         <v>294</v>
       </c>
       <c r="T62" t="s">
-        <v>1624</v>
+        <v>1653</v>
       </c>
       <c r="U62" t="s">
         <v>334</v>
@@ -9729,10 +9754,10 @@
         <v>25</v>
       </c>
       <c r="B63" t="s">
-        <v>1661</v>
+        <v>1705</v>
       </c>
       <c r="C63" t="s">
-        <v>1662</v>
+        <v>1706</v>
       </c>
       <c r="D63" t="s">
         <v>126</v>
@@ -9750,7 +9775,7 @@
         <v>136</v>
       </c>
       <c r="J63" t="s">
-        <v>1679</v>
+        <v>1707</v>
       </c>
       <c r="K63" t="s">
         <v>186</v>
@@ -9768,16 +9793,16 @@
         <v>218</v>
       </c>
       <c r="Q63" t="s">
-        <v>1670</v>
+        <v>1708</v>
       </c>
       <c r="R63" t="s">
-        <v>1661</v>
+        <v>1705</v>
       </c>
       <c r="S63" t="s">
         <v>294</v>
       </c>
       <c r="T63" t="s">
-        <v>1624</v>
+        <v>1653</v>
       </c>
       <c r="U63" t="s">
         <v>334</v>
@@ -9794,10 +9819,10 @@
         <v>25</v>
       </c>
       <c r="B64" t="s">
-        <v>1663</v>
+        <v>1709</v>
       </c>
       <c r="C64" t="s">
-        <v>1664</v>
+        <v>1710</v>
       </c>
       <c r="D64" t="s">
         <v>126</v>
@@ -9815,7 +9840,7 @@
         <v>136</v>
       </c>
       <c r="J64" t="s">
-        <v>1665</v>
+        <v>1711</v>
       </c>
       <c r="K64" t="s">
         <v>186</v>
@@ -9833,16 +9858,16 @@
         <v>218</v>
       </c>
       <c r="Q64" t="s">
-        <v>1671</v>
+        <v>1712</v>
       </c>
       <c r="R64" t="s">
-        <v>1663</v>
+        <v>1709</v>
       </c>
       <c r="S64" t="s">
         <v>294</v>
       </c>
       <c r="T64" t="s">
-        <v>1624</v>
+        <v>1653</v>
       </c>
       <c r="U64" t="s">
         <v>334</v>
@@ -9859,10 +9884,10 @@
         <v>25</v>
       </c>
       <c r="B65" t="s">
-        <v>1666</v>
+        <v>1657</v>
       </c>
       <c r="C65" t="s">
-        <v>1667</v>
+        <v>1658</v>
       </c>
       <c r="D65" t="s">
         <v>126</v>
@@ -9880,7 +9905,7 @@
         <v>136</v>
       </c>
       <c r="J65" t="s">
-        <v>1678</v>
+        <v>1659</v>
       </c>
       <c r="K65" t="s">
         <v>186</v>
@@ -9898,10 +9923,10 @@
         <v>218</v>
       </c>
       <c r="Q65" t="s">
-        <v>1672</v>
+        <v>1660</v>
       </c>
       <c r="R65" t="s">
-        <v>1666</v>
+        <v>1657</v>
       </c>
       <c r="S65" t="s">
         <v>294</v>
@@ -9924,10 +9949,10 @@
         <v>25</v>
       </c>
       <c r="B66" t="s">
-        <v>1668</v>
+        <v>1697</v>
       </c>
       <c r="C66" t="s">
-        <v>1669</v>
+        <v>1698</v>
       </c>
       <c r="D66" t="s">
         <v>126</v>
@@ -9945,7 +9970,7 @@
         <v>136</v>
       </c>
       <c r="J66" t="s">
-        <v>1677</v>
+        <v>1699</v>
       </c>
       <c r="K66" t="s">
         <v>186</v>
@@ -9963,16 +9988,16 @@
         <v>218</v>
       </c>
       <c r="Q66" t="s">
-        <v>1673</v>
+        <v>1700</v>
       </c>
       <c r="R66" t="s">
-        <v>1668</v>
+        <v>1697</v>
       </c>
       <c r="S66" t="s">
         <v>294</v>
       </c>
       <c r="T66" t="s">
-        <v>1624</v>
+        <v>1657</v>
       </c>
       <c r="U66" t="s">
         <v>334</v>
@@ -9989,10 +10014,10 @@
         <v>25</v>
       </c>
       <c r="B67" t="s">
-        <v>1674</v>
+        <v>1661</v>
       </c>
       <c r="C67" t="s">
-        <v>1675</v>
+        <v>1662</v>
       </c>
       <c r="D67" t="s">
         <v>126</v>
@@ -10010,7 +10035,7 @@
         <v>136</v>
       </c>
       <c r="J67" t="s">
-        <v>1676</v>
+        <v>1679</v>
       </c>
       <c r="K67" t="s">
         <v>186</v>
@@ -10028,10 +10053,10 @@
         <v>218</v>
       </c>
       <c r="Q67" t="s">
-        <v>1680</v>
+        <v>1670</v>
       </c>
       <c r="R67" t="s">
-        <v>1674</v>
+        <v>1661</v>
       </c>
       <c r="S67" t="s">
         <v>294</v>
@@ -10054,10 +10079,10 @@
         <v>25</v>
       </c>
       <c r="B68" t="s">
-        <v>1681</v>
+        <v>1663</v>
       </c>
       <c r="C68" t="s">
-        <v>1682</v>
+        <v>1664</v>
       </c>
       <c r="D68" t="s">
         <v>126</v>
@@ -10075,7 +10100,7 @@
         <v>136</v>
       </c>
       <c r="J68" t="s">
-        <v>1683</v>
+        <v>1665</v>
       </c>
       <c r="K68" t="s">
         <v>186</v>
@@ -10093,10 +10118,10 @@
         <v>218</v>
       </c>
       <c r="Q68" t="s">
-        <v>1684</v>
+        <v>1671</v>
       </c>
       <c r="R68" t="s">
-        <v>1681</v>
+        <v>1663</v>
       </c>
       <c r="S68" t="s">
         <v>294</v>
@@ -10119,10 +10144,10 @@
         <v>25</v>
       </c>
       <c r="B69" t="s">
-        <v>1685</v>
+        <v>1666</v>
       </c>
       <c r="C69" t="s">
-        <v>1686</v>
+        <v>1667</v>
       </c>
       <c r="D69" t="s">
         <v>126</v>
@@ -10140,7 +10165,7 @@
         <v>136</v>
       </c>
       <c r="J69" t="s">
-        <v>1687</v>
+        <v>1678</v>
       </c>
       <c r="K69" t="s">
         <v>186</v>
@@ -10158,10 +10183,10 @@
         <v>218</v>
       </c>
       <c r="Q69" t="s">
-        <v>1688</v>
+        <v>1672</v>
       </c>
       <c r="R69" t="s">
-        <v>1685</v>
+        <v>1666</v>
       </c>
       <c r="S69" t="s">
         <v>294</v>
@@ -10184,10 +10209,10 @@
         <v>25</v>
       </c>
       <c r="B70" t="s">
-        <v>1689</v>
+        <v>1668</v>
       </c>
       <c r="C70" t="s">
-        <v>1690</v>
+        <v>1669</v>
       </c>
       <c r="D70" t="s">
         <v>126</v>
@@ -10205,7 +10230,7 @@
         <v>136</v>
       </c>
       <c r="J70" t="s">
-        <v>1691</v>
+        <v>1677</v>
       </c>
       <c r="K70" t="s">
         <v>186</v>
@@ -10223,10 +10248,10 @@
         <v>218</v>
       </c>
       <c r="Q70" t="s">
-        <v>1692</v>
+        <v>1673</v>
       </c>
       <c r="R70" t="s">
-        <v>1689</v>
+        <v>1668</v>
       </c>
       <c r="S70" t="s">
         <v>294</v>
@@ -10249,10 +10274,10 @@
         <v>25</v>
       </c>
       <c r="B71" t="s">
-        <v>1693</v>
+        <v>1674</v>
       </c>
       <c r="C71" t="s">
-        <v>1694</v>
+        <v>1675</v>
       </c>
       <c r="D71" t="s">
         <v>126</v>
@@ -10270,7 +10295,7 @@
         <v>136</v>
       </c>
       <c r="J71" t="s">
-        <v>1695</v>
+        <v>1676</v>
       </c>
       <c r="K71" t="s">
         <v>186</v>
@@ -10288,10 +10313,10 @@
         <v>218</v>
       </c>
       <c r="Q71" t="s">
-        <v>1696</v>
+        <v>1680</v>
       </c>
       <c r="R71" t="s">
-        <v>1693</v>
+        <v>1674</v>
       </c>
       <c r="S71" t="s">
         <v>294</v>
@@ -10306,6 +10331,266 @@
         <v>187</v>
       </c>
       <c r="Y71" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1681</v>
+      </c>
+      <c r="C72" t="s">
+        <v>1682</v>
+      </c>
+      <c r="D72" t="s">
+        <v>126</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G72" t="s">
+        <v>134</v>
+      </c>
+      <c r="H72" t="s">
+        <v>136</v>
+      </c>
+      <c r="I72" t="s">
+        <v>136</v>
+      </c>
+      <c r="J72" t="s">
+        <v>1683</v>
+      </c>
+      <c r="K72" t="s">
+        <v>186</v>
+      </c>
+      <c r="L72" t="s">
+        <v>187</v>
+      </c>
+      <c r="N72" t="s">
+        <v>188</v>
+      </c>
+      <c r="O72" t="s">
+        <v>209</v>
+      </c>
+      <c r="P72" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>1684</v>
+      </c>
+      <c r="R72" t="s">
+        <v>1681</v>
+      </c>
+      <c r="S72" t="s">
+        <v>294</v>
+      </c>
+      <c r="T72" t="s">
+        <v>1624</v>
+      </c>
+      <c r="U72" t="s">
+        <v>334</v>
+      </c>
+      <c r="V72" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C73" t="s">
+        <v>1686</v>
+      </c>
+      <c r="D73" t="s">
+        <v>126</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G73" t="s">
+        <v>134</v>
+      </c>
+      <c r="H73" t="s">
+        <v>136</v>
+      </c>
+      <c r="I73" t="s">
+        <v>136</v>
+      </c>
+      <c r="J73" t="s">
+        <v>1687</v>
+      </c>
+      <c r="K73" t="s">
+        <v>186</v>
+      </c>
+      <c r="L73" t="s">
+        <v>187</v>
+      </c>
+      <c r="N73" t="s">
+        <v>188</v>
+      </c>
+      <c r="O73" t="s">
+        <v>209</v>
+      </c>
+      <c r="P73" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>1688</v>
+      </c>
+      <c r="R73" t="s">
+        <v>1685</v>
+      </c>
+      <c r="S73" t="s">
+        <v>294</v>
+      </c>
+      <c r="T73" t="s">
+        <v>1624</v>
+      </c>
+      <c r="U73" t="s">
+        <v>334</v>
+      </c>
+      <c r="V73" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C74" t="s">
+        <v>1690</v>
+      </c>
+      <c r="D74" t="s">
+        <v>126</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G74" t="s">
+        <v>134</v>
+      </c>
+      <c r="H74" t="s">
+        <v>136</v>
+      </c>
+      <c r="I74" t="s">
+        <v>136</v>
+      </c>
+      <c r="J74" t="s">
+        <v>1691</v>
+      </c>
+      <c r="K74" t="s">
+        <v>186</v>
+      </c>
+      <c r="L74" t="s">
+        <v>187</v>
+      </c>
+      <c r="N74" t="s">
+        <v>188</v>
+      </c>
+      <c r="O74" t="s">
+        <v>209</v>
+      </c>
+      <c r="P74" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>1692</v>
+      </c>
+      <c r="R74" t="s">
+        <v>1689</v>
+      </c>
+      <c r="S74" t="s">
+        <v>294</v>
+      </c>
+      <c r="T74" t="s">
+        <v>1624</v>
+      </c>
+      <c r="U74" t="s">
+        <v>334</v>
+      </c>
+      <c r="V74" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1693</v>
+      </c>
+      <c r="C75" t="s">
+        <v>1694</v>
+      </c>
+      <c r="D75" t="s">
+        <v>126</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G75" t="s">
+        <v>134</v>
+      </c>
+      <c r="H75" t="s">
+        <v>136</v>
+      </c>
+      <c r="I75" t="s">
+        <v>136</v>
+      </c>
+      <c r="J75" t="s">
+        <v>1695</v>
+      </c>
+      <c r="K75" t="s">
+        <v>186</v>
+      </c>
+      <c r="L75" t="s">
+        <v>187</v>
+      </c>
+      <c r="N75" t="s">
+        <v>188</v>
+      </c>
+      <c r="O75" t="s">
+        <v>209</v>
+      </c>
+      <c r="P75" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>1696</v>
+      </c>
+      <c r="R75" t="s">
+        <v>1693</v>
+      </c>
+      <c r="S75" t="s">
+        <v>294</v>
+      </c>
+      <c r="T75" t="s">
+        <v>1624</v>
+      </c>
+      <c r="U75" t="s">
+        <v>334</v>
+      </c>
+      <c r="V75" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y75" t="s">
         <v>358</v>
       </c>
     </row>
@@ -10429,26 +10714,34 @@
     <hyperlink ref="F60" r:id="rId116" xr:uid="{31624641-B561-4CDE-AEA1-00DEC955F14E}"/>
     <hyperlink ref="A61" r:id="rId117" xr:uid="{5FB09BFB-7A13-4CD3-8799-DB6B2A58C80B}"/>
     <hyperlink ref="F61" r:id="rId118" xr:uid="{75CBB1A5-870D-44EA-A90E-108622004956}"/>
-    <hyperlink ref="A62" r:id="rId119" xr:uid="{22DE32DD-DBEF-473B-B27A-ED753D9E957A}"/>
-    <hyperlink ref="F62" r:id="rId120" xr:uid="{5EA32805-FC11-48CA-8106-05CF0267B69F}"/>
-    <hyperlink ref="A63" r:id="rId121" xr:uid="{EF0DC239-B763-4B69-9C07-0BE8DE4866B7}"/>
-    <hyperlink ref="F63" r:id="rId122" xr:uid="{3F3FBD8B-3B84-4DC3-BB37-254A7C650CA4}"/>
-    <hyperlink ref="A64" r:id="rId123" xr:uid="{73F438A0-57A6-4AFE-8AA2-FAE998BC7A3E}"/>
-    <hyperlink ref="F64" r:id="rId124" xr:uid="{4B8736D6-DDCD-47D3-9F86-CB87E9C6BECD}"/>
-    <hyperlink ref="A65" r:id="rId125" xr:uid="{7EDDCF7A-1239-4FBF-803F-78B60A4056BE}"/>
-    <hyperlink ref="F65" r:id="rId126" xr:uid="{7A69AFFF-509E-4229-B331-4F3A95F26DF8}"/>
-    <hyperlink ref="A66" r:id="rId127" xr:uid="{41E878D6-7796-4CBF-869C-DE1798024E29}"/>
-    <hyperlink ref="F66" r:id="rId128" xr:uid="{FC2957B2-26FD-433F-B1F7-6BD8A39745A9}"/>
-    <hyperlink ref="A67" r:id="rId129" xr:uid="{F90597B7-EC14-4677-8AAF-04D63A7D6816}"/>
-    <hyperlink ref="F67" r:id="rId130" xr:uid="{C27AC76A-DF8B-49B1-849E-9CE26BC71E7F}"/>
-    <hyperlink ref="A68" r:id="rId131" xr:uid="{065EBD1A-FDC6-4148-96F6-FAAF32031BC2}"/>
-    <hyperlink ref="F68" r:id="rId132" xr:uid="{8D984F70-2A1E-4CD6-ADF6-3AA69535C394}"/>
-    <hyperlink ref="A69" r:id="rId133" xr:uid="{3F096B9A-39D1-4171-81AA-CE1C40C06A5D}"/>
-    <hyperlink ref="F69" r:id="rId134" xr:uid="{355A335F-E42A-4493-A6EC-207B94209095}"/>
-    <hyperlink ref="A70" r:id="rId135" xr:uid="{D2E5002C-E865-4278-A85C-DB30757990A9}"/>
-    <hyperlink ref="F70" r:id="rId136" xr:uid="{8B2FA76A-6097-4B7A-AEBB-7F90AAD0787C}"/>
-    <hyperlink ref="A71" r:id="rId137" xr:uid="{3B3BD442-43AF-4D3D-922F-9B766B44EC84}"/>
-    <hyperlink ref="F71" r:id="rId138" xr:uid="{5F628BDB-3D91-4310-9B8D-1517D7F52010}"/>
+    <hyperlink ref="A65" r:id="rId119" xr:uid="{22DE32DD-DBEF-473B-B27A-ED753D9E957A}"/>
+    <hyperlink ref="F65" r:id="rId120" xr:uid="{5EA32805-FC11-48CA-8106-05CF0267B69F}"/>
+    <hyperlink ref="A67" r:id="rId121" xr:uid="{EF0DC239-B763-4B69-9C07-0BE8DE4866B7}"/>
+    <hyperlink ref="F67" r:id="rId122" xr:uid="{3F3FBD8B-3B84-4DC3-BB37-254A7C650CA4}"/>
+    <hyperlink ref="A68" r:id="rId123" xr:uid="{73F438A0-57A6-4AFE-8AA2-FAE998BC7A3E}"/>
+    <hyperlink ref="F68" r:id="rId124" xr:uid="{4B8736D6-DDCD-47D3-9F86-CB87E9C6BECD}"/>
+    <hyperlink ref="A69" r:id="rId125" xr:uid="{7EDDCF7A-1239-4FBF-803F-78B60A4056BE}"/>
+    <hyperlink ref="F69" r:id="rId126" xr:uid="{7A69AFFF-509E-4229-B331-4F3A95F26DF8}"/>
+    <hyperlink ref="A70" r:id="rId127" xr:uid="{41E878D6-7796-4CBF-869C-DE1798024E29}"/>
+    <hyperlink ref="F70" r:id="rId128" xr:uid="{FC2957B2-26FD-433F-B1F7-6BD8A39745A9}"/>
+    <hyperlink ref="A71" r:id="rId129" xr:uid="{F90597B7-EC14-4677-8AAF-04D63A7D6816}"/>
+    <hyperlink ref="F71" r:id="rId130" xr:uid="{C27AC76A-DF8B-49B1-849E-9CE26BC71E7F}"/>
+    <hyperlink ref="A72" r:id="rId131" xr:uid="{065EBD1A-FDC6-4148-96F6-FAAF32031BC2}"/>
+    <hyperlink ref="F72" r:id="rId132" xr:uid="{8D984F70-2A1E-4CD6-ADF6-3AA69535C394}"/>
+    <hyperlink ref="A73" r:id="rId133" xr:uid="{3F096B9A-39D1-4171-81AA-CE1C40C06A5D}"/>
+    <hyperlink ref="F73" r:id="rId134" xr:uid="{355A335F-E42A-4493-A6EC-207B94209095}"/>
+    <hyperlink ref="A74" r:id="rId135" xr:uid="{D2E5002C-E865-4278-A85C-DB30757990A9}"/>
+    <hyperlink ref="F74" r:id="rId136" xr:uid="{8B2FA76A-6097-4B7A-AEBB-7F90AAD0787C}"/>
+    <hyperlink ref="A75" r:id="rId137" xr:uid="{3B3BD442-43AF-4D3D-922F-9B766B44EC84}"/>
+    <hyperlink ref="F75" r:id="rId138" xr:uid="{5F628BDB-3D91-4310-9B8D-1517D7F52010}"/>
+    <hyperlink ref="A66" r:id="rId139" xr:uid="{4DD4C668-D79C-4AEA-88A6-AB81BD15CB60}"/>
+    <hyperlink ref="F66" r:id="rId140" xr:uid="{DAF97AB8-C82D-425C-BFC7-6D31AB8B31CD}"/>
+    <hyperlink ref="A62" r:id="rId141" xr:uid="{228F1E8F-5D03-41E2-8AE2-686600D91E30}"/>
+    <hyperlink ref="F62" r:id="rId142" xr:uid="{A607C960-5CD8-4E33-9B47-3B99B91D6A62}"/>
+    <hyperlink ref="A63" r:id="rId143" xr:uid="{4058BA39-D221-4B46-8D40-66F3D6BE2790}"/>
+    <hyperlink ref="F63" r:id="rId144" xr:uid="{548DE556-E89D-4034-9E8E-F4362DC4830C}"/>
+    <hyperlink ref="A64" r:id="rId145" xr:uid="{200784B3-9C51-475E-A236-F6C643A3FCA8}"/>
+    <hyperlink ref="F64" r:id="rId146" xr:uid="{FDE700C3-766D-4195-AEDF-EB6B7C4A439D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/gdcdictionary/xlsx/nodes_schema_impowr.xlsx
+++ b/gdcdictionary/xlsx/nodes_schema_impowr.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vithal\Documents\GitHub\dcfdictionary\gdcdictionary\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CA96501-17D7-4A23-A9DE-9C5A4D70278C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D7CBD4D-DFFE-4735-B4E2-C262E9901FC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5736" uniqueCount="1713">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6261" uniqueCount="1815">
   <si>
     <t>&lt;$schema&gt;</t>
   </si>
@@ -5166,6 +5166,312 @@
   </si>
   <si>
     <t>patients_baseline_PROMIS_fatigue</t>
+  </si>
+  <si>
+    <t>pb_PROMIS_anxiety</t>
+  </si>
+  <si>
+    <t>Patient Baseline PROMIS Anxiety</t>
+  </si>
+  <si>
+    <t>Data describing patient baseline PROMIS anxiety characteristics</t>
+  </si>
+  <si>
+    <t>patients_baseline_PROMIS_anxiety</t>
+  </si>
+  <si>
+    <t>pb_GAD-2</t>
+  </si>
+  <si>
+    <t>Patient Baseline GAD-2</t>
+  </si>
+  <si>
+    <t>Data describing patient baseline GAD-2 characteristics</t>
+  </si>
+  <si>
+    <t>patients_baseline_GAD-2</t>
+  </si>
+  <si>
+    <t>pb_GAD-7</t>
+  </si>
+  <si>
+    <t>Patient Baseline GAD-7</t>
+  </si>
+  <si>
+    <t>Data describing patient baseline GAD-7 characteristics</t>
+  </si>
+  <si>
+    <t>patients_baseline_GAD-7</t>
+  </si>
+  <si>
+    <t>pb_PROMIS_depression</t>
+  </si>
+  <si>
+    <t>Patient Baseline PROMIS Depression</t>
+  </si>
+  <si>
+    <t>Data describing patient baseline PROMIS Depression characteristics</t>
+  </si>
+  <si>
+    <t>patients_baseline_PROMIS_depression</t>
+  </si>
+  <si>
+    <t>pb_PHQ-3</t>
+  </si>
+  <si>
+    <t>Patient Baseline PHQ-3</t>
+  </si>
+  <si>
+    <t>Data describing patient baseline PHQ-3 characteristics</t>
+  </si>
+  <si>
+    <t>patients_baseline_PHQ-3</t>
+  </si>
+  <si>
+    <t>pb_PHQ-9</t>
+  </si>
+  <si>
+    <t>Patient Baseline PHQ-9</t>
+  </si>
+  <si>
+    <t>Data describing patient baseline PHQ-9 characteristics</t>
+  </si>
+  <si>
+    <t>patients_baseline_PHQ-9</t>
+  </si>
+  <si>
+    <t>pb_PROMIS_social_functioning</t>
+  </si>
+  <si>
+    <t>Patient Baseline PROMIS Social Functioning</t>
+  </si>
+  <si>
+    <t>Data describing patient baseline PROMIS social functioning characteristics</t>
+  </si>
+  <si>
+    <t>patients_baseline_PROMIS_social_functioning</t>
+  </si>
+  <si>
+    <t>pb_MMSSPSS</t>
+  </si>
+  <si>
+    <t>Patient Baseline MMSPSS</t>
+  </si>
+  <si>
+    <t>Data describing patient baseline MMSPSS characteristics</t>
+  </si>
+  <si>
+    <t>patients_baseline_MMSPSS</t>
+  </si>
+  <si>
+    <t>pb_MMSPSS</t>
+  </si>
+  <si>
+    <t>pb_MMSSPSS_supplemental</t>
+  </si>
+  <si>
+    <t>Patient Baseline MMSPSS Supplemental</t>
+  </si>
+  <si>
+    <t>Data describing patient baseline MMSPSS supplemental characteristics</t>
+  </si>
+  <si>
+    <t>patients_baseline_MMSPSS_supplemental</t>
+  </si>
+  <si>
+    <t>pb_MMSPSS_supplemental</t>
+  </si>
+  <si>
+    <t>pb_PROMIS_cognitive_function</t>
+  </si>
+  <si>
+    <t>Patient Baseline PROMIS Cognitive Function</t>
+  </si>
+  <si>
+    <t>Data describing patient baseline PROMIS cognitive function characteristics</t>
+  </si>
+  <si>
+    <t>patients_baseline_PROMIS_cognitive_function</t>
+  </si>
+  <si>
+    <t>pb_recovery_capital</t>
+  </si>
+  <si>
+    <t>Patient Baseline Recovery Capital</t>
+  </si>
+  <si>
+    <t>Data describing patient baseline recovery capital characteristics</t>
+  </si>
+  <si>
+    <t>patients_baseline_recovery_capital</t>
+  </si>
+  <si>
+    <t>pb_PROMIS_PROPr</t>
+  </si>
+  <si>
+    <t>Patient Baseline PROMIS PROPr</t>
+  </si>
+  <si>
+    <t>Data describing patient baseline PROMIS PROPr characteristics</t>
+  </si>
+  <si>
+    <t>patients_baseline_PROMIS_PROPr</t>
+  </si>
+  <si>
+    <t>pb_social_risk_assessment</t>
+  </si>
+  <si>
+    <t>Patient Baseline Social Risk Assessment</t>
+  </si>
+  <si>
+    <t>Data describing patient baseline Social Risk Assessment characteristics</t>
+  </si>
+  <si>
+    <t>patients_baseline_social_risk_assessment</t>
+  </si>
+  <si>
+    <t>pb_healthcare_utilization</t>
+  </si>
+  <si>
+    <t>Patient Baseline Healthcare Utilization</t>
+  </si>
+  <si>
+    <t>Data describing patient baseline Healthcare Utilization characteristics</t>
+  </si>
+  <si>
+    <t>patients_baseline_healthcare_utilization</t>
+  </si>
+  <si>
+    <t>pb_health_service_utilization</t>
+  </si>
+  <si>
+    <t>Patient Baseline Health Service Utilization</t>
+  </si>
+  <si>
+    <t>Data describing patient baseline Health Service Utilization characteristics</t>
+  </si>
+  <si>
+    <t>patients_baseline_health_service_utilization</t>
+  </si>
+  <si>
+    <t>pb_primarycare_PTSD_screening</t>
+  </si>
+  <si>
+    <t>Patient Baseline Primarycare PTSD Screening</t>
+  </si>
+  <si>
+    <t>Data describing patient baseline Primarycare PTSD Screening characteristics</t>
+  </si>
+  <si>
+    <t>patients_baseline_primarycare_PTSD_screening</t>
+  </si>
+  <si>
+    <t>pb_PTSD_supplemental_PCL-5</t>
+  </si>
+  <si>
+    <t>Patient Baseline PTSD Supplemental PCL-5</t>
+  </si>
+  <si>
+    <t>Data describing patient baseline PTSD supplemental PCL-5 characteristics</t>
+  </si>
+  <si>
+    <t>patients_baseline_PTSD_supplemental_PCL-5</t>
+  </si>
+  <si>
+    <t>pb_IMPOWR_COVID_impact</t>
+  </si>
+  <si>
+    <t>Patient Baseline IMPOWR COVID Impact</t>
+  </si>
+  <si>
+    <t>Data describing patient baseline IMPOWR COVID impact characteristics</t>
+  </si>
+  <si>
+    <t>patients_baseline_IMPOWR_COVID_impact</t>
+  </si>
+  <si>
+    <t>pb_Supplemental_COVID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patient Baseline Supplemental COVID </t>
+  </si>
+  <si>
+    <t>Data describing patient baseline Supplemental COVID characteristics</t>
+  </si>
+  <si>
+    <t>patients_baseline_Supplemental_COVID</t>
+  </si>
+  <si>
+    <t>pb_IMPOWR_perceived_discrimination</t>
+  </si>
+  <si>
+    <t>Patient Baseline IMPOWR Perceived Discrimination</t>
+  </si>
+  <si>
+    <t>Data describing patient baseline IMPOWR perceived discrimination characteristics</t>
+  </si>
+  <si>
+    <t>patients_baseline_IMPOWR_perceived_discrimination</t>
+  </si>
+  <si>
+    <t>pb_SUSMS</t>
+  </si>
+  <si>
+    <t>Patient Baseline Substance Use Stigma Mechanism Scale</t>
+  </si>
+  <si>
+    <t>Data describing patient baseline substance use stigma mechanism scale (SUSMS) characteristics</t>
+  </si>
+  <si>
+    <t>patients_baseline_substance_use_stigma_mechanism_scale_SUSMS</t>
+  </si>
+  <si>
+    <t>pb_supplemental_IMPOWR_stigma_discrimination</t>
+  </si>
+  <si>
+    <t>Patient Baseline supplemental IMPOWR stigma discrimination</t>
+  </si>
+  <si>
+    <t>Data describing patient baseline supplemental IMOWR stigma discrimination characteristics</t>
+  </si>
+  <si>
+    <t>patients_baseline_supplemental_IMPOWR_stigma_discrimination</t>
+  </si>
+  <si>
+    <t>pb_patient_satisfaction_survey</t>
+  </si>
+  <si>
+    <t>Patient Baseline Patient Satisfaction Survey</t>
+  </si>
+  <si>
+    <t>Data describing patient baseline Patient Satisfaction Survey characteristics</t>
+  </si>
+  <si>
+    <t>patients_baseline_patient_satisfaction_survey</t>
+  </si>
+  <si>
+    <t>pb_AIM_IAM_FIM</t>
+  </si>
+  <si>
+    <t>Patient Baseline AIM IAM FIM</t>
+  </si>
+  <si>
+    <t>Data describing patient baseline  AIM IAM FIM characteristics</t>
+  </si>
+  <si>
+    <t>patients_baseline_AIM_IAM_FIM</t>
+  </si>
+  <si>
+    <t>pb_readiness_for_organizational_change</t>
+  </si>
+  <si>
+    <t>Patient Baseline Readiness for Organizational Change</t>
+  </si>
+  <si>
+    <t>Data describing patient baseline  Readiness for Organizational Change characteristics</t>
+  </si>
+  <si>
+    <t>patients_baseline_readiness_for_organizational_change</t>
   </si>
 </sst>
 </file>
@@ -5580,15 +5886,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y75"/>
+  <dimension ref="A1:Y100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B66" sqref="B66"/>
+    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Y100" sqref="Y100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="89" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="10" max="10" width="100.85546875" customWidth="1"/>
     <col min="18" max="18" width="110.7109375" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="59.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -10079,10 +10386,10 @@
         <v>25</v>
       </c>
       <c r="B68" t="s">
-        <v>1663</v>
+        <v>1713</v>
       </c>
       <c r="C68" t="s">
-        <v>1664</v>
+        <v>1714</v>
       </c>
       <c r="D68" t="s">
         <v>126</v>
@@ -10100,7 +10407,7 @@
         <v>136</v>
       </c>
       <c r="J68" t="s">
-        <v>1665</v>
+        <v>1715</v>
       </c>
       <c r="K68" t="s">
         <v>186</v>
@@ -10118,16 +10425,16 @@
         <v>218</v>
       </c>
       <c r="Q68" t="s">
-        <v>1671</v>
+        <v>1716</v>
       </c>
       <c r="R68" t="s">
-        <v>1663</v>
+        <v>1713</v>
       </c>
       <c r="S68" t="s">
         <v>294</v>
       </c>
       <c r="T68" t="s">
-        <v>1624</v>
+        <v>1661</v>
       </c>
       <c r="U68" t="s">
         <v>334</v>
@@ -10144,10 +10451,10 @@
         <v>25</v>
       </c>
       <c r="B69" t="s">
-        <v>1666</v>
+        <v>1717</v>
       </c>
       <c r="C69" t="s">
-        <v>1667</v>
+        <v>1718</v>
       </c>
       <c r="D69" t="s">
         <v>126</v>
@@ -10165,7 +10472,7 @@
         <v>136</v>
       </c>
       <c r="J69" t="s">
-        <v>1678</v>
+        <v>1719</v>
       </c>
       <c r="K69" t="s">
         <v>186</v>
@@ -10183,16 +10490,16 @@
         <v>218</v>
       </c>
       <c r="Q69" t="s">
-        <v>1672</v>
+        <v>1720</v>
       </c>
       <c r="R69" t="s">
-        <v>1666</v>
+        <v>1717</v>
       </c>
       <c r="S69" t="s">
         <v>294</v>
       </c>
       <c r="T69" t="s">
-        <v>1624</v>
+        <v>1661</v>
       </c>
       <c r="U69" t="s">
         <v>334</v>
@@ -10209,10 +10516,10 @@
         <v>25</v>
       </c>
       <c r="B70" t="s">
-        <v>1668</v>
+        <v>1721</v>
       </c>
       <c r="C70" t="s">
-        <v>1669</v>
+        <v>1722</v>
       </c>
       <c r="D70" t="s">
         <v>126</v>
@@ -10230,7 +10537,7 @@
         <v>136</v>
       </c>
       <c r="J70" t="s">
-        <v>1677</v>
+        <v>1723</v>
       </c>
       <c r="K70" t="s">
         <v>186</v>
@@ -10248,16 +10555,16 @@
         <v>218</v>
       </c>
       <c r="Q70" t="s">
-        <v>1673</v>
+        <v>1724</v>
       </c>
       <c r="R70" t="s">
-        <v>1668</v>
+        <v>1721</v>
       </c>
       <c r="S70" t="s">
         <v>294</v>
       </c>
       <c r="T70" t="s">
-        <v>1624</v>
+        <v>1661</v>
       </c>
       <c r="U70" t="s">
         <v>334</v>
@@ -10274,10 +10581,10 @@
         <v>25</v>
       </c>
       <c r="B71" t="s">
-        <v>1674</v>
+        <v>1663</v>
       </c>
       <c r="C71" t="s">
-        <v>1675</v>
+        <v>1664</v>
       </c>
       <c r="D71" t="s">
         <v>126</v>
@@ -10295,7 +10602,7 @@
         <v>136</v>
       </c>
       <c r="J71" t="s">
-        <v>1676</v>
+        <v>1665</v>
       </c>
       <c r="K71" t="s">
         <v>186</v>
@@ -10313,10 +10620,10 @@
         <v>218</v>
       </c>
       <c r="Q71" t="s">
-        <v>1680</v>
+        <v>1671</v>
       </c>
       <c r="R71" t="s">
-        <v>1674</v>
+        <v>1663</v>
       </c>
       <c r="S71" t="s">
         <v>294</v>
@@ -10339,10 +10646,10 @@
         <v>25</v>
       </c>
       <c r="B72" t="s">
-        <v>1681</v>
+        <v>1725</v>
       </c>
       <c r="C72" t="s">
-        <v>1682</v>
+        <v>1726</v>
       </c>
       <c r="D72" t="s">
         <v>126</v>
@@ -10360,7 +10667,7 @@
         <v>136</v>
       </c>
       <c r="J72" t="s">
-        <v>1683</v>
+        <v>1727</v>
       </c>
       <c r="K72" t="s">
         <v>186</v>
@@ -10378,16 +10685,16 @@
         <v>218</v>
       </c>
       <c r="Q72" t="s">
-        <v>1684</v>
+        <v>1728</v>
       </c>
       <c r="R72" t="s">
-        <v>1681</v>
+        <v>1725</v>
       </c>
       <c r="S72" t="s">
         <v>294</v>
       </c>
       <c r="T72" t="s">
-        <v>1624</v>
+        <v>1663</v>
       </c>
       <c r="U72" t="s">
         <v>334</v>
@@ -10404,10 +10711,10 @@
         <v>25</v>
       </c>
       <c r="B73" t="s">
-        <v>1685</v>
+        <v>1729</v>
       </c>
       <c r="C73" t="s">
-        <v>1686</v>
+        <v>1730</v>
       </c>
       <c r="D73" t="s">
         <v>126</v>
@@ -10425,7 +10732,7 @@
         <v>136</v>
       </c>
       <c r="J73" t="s">
-        <v>1687</v>
+        <v>1731</v>
       </c>
       <c r="K73" t="s">
         <v>186</v>
@@ -10443,16 +10750,16 @@
         <v>218</v>
       </c>
       <c r="Q73" t="s">
-        <v>1688</v>
+        <v>1732</v>
       </c>
       <c r="R73" t="s">
-        <v>1685</v>
+        <v>1729</v>
       </c>
       <c r="S73" t="s">
         <v>294</v>
       </c>
       <c r="T73" t="s">
-        <v>1624</v>
+        <v>1663</v>
       </c>
       <c r="U73" t="s">
         <v>334</v>
@@ -10469,10 +10776,10 @@
         <v>25</v>
       </c>
       <c r="B74" t="s">
-        <v>1689</v>
+        <v>1733</v>
       </c>
       <c r="C74" t="s">
-        <v>1690</v>
+        <v>1734</v>
       </c>
       <c r="D74" t="s">
         <v>126</v>
@@ -10490,7 +10797,7 @@
         <v>136</v>
       </c>
       <c r="J74" t="s">
-        <v>1691</v>
+        <v>1735</v>
       </c>
       <c r="K74" t="s">
         <v>186</v>
@@ -10508,16 +10815,16 @@
         <v>218</v>
       </c>
       <c r="Q74" t="s">
-        <v>1692</v>
+        <v>1736</v>
       </c>
       <c r="R74" t="s">
-        <v>1689</v>
+        <v>1733</v>
       </c>
       <c r="S74" t="s">
         <v>294</v>
       </c>
       <c r="T74" t="s">
-        <v>1624</v>
+        <v>1663</v>
       </c>
       <c r="U74" t="s">
         <v>334</v>
@@ -10534,10 +10841,10 @@
         <v>25</v>
       </c>
       <c r="B75" t="s">
-        <v>1693</v>
+        <v>1666</v>
       </c>
       <c r="C75" t="s">
-        <v>1694</v>
+        <v>1667</v>
       </c>
       <c r="D75" t="s">
         <v>126</v>
@@ -10555,7 +10862,7 @@
         <v>136</v>
       </c>
       <c r="J75" t="s">
-        <v>1695</v>
+        <v>1678</v>
       </c>
       <c r="K75" t="s">
         <v>186</v>
@@ -10573,10 +10880,10 @@
         <v>218</v>
       </c>
       <c r="Q75" t="s">
-        <v>1696</v>
+        <v>1672</v>
       </c>
       <c r="R75" t="s">
-        <v>1693</v>
+        <v>1666</v>
       </c>
       <c r="S75" t="s">
         <v>294</v>
@@ -10591,6 +10898,1631 @@
         <v>187</v>
       </c>
       <c r="Y75" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1737</v>
+      </c>
+      <c r="C76" t="s">
+        <v>1738</v>
+      </c>
+      <c r="D76" t="s">
+        <v>126</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G76" t="s">
+        <v>134</v>
+      </c>
+      <c r="H76" t="s">
+        <v>136</v>
+      </c>
+      <c r="I76" t="s">
+        <v>136</v>
+      </c>
+      <c r="J76" t="s">
+        <v>1739</v>
+      </c>
+      <c r="K76" t="s">
+        <v>186</v>
+      </c>
+      <c r="L76" t="s">
+        <v>187</v>
+      </c>
+      <c r="N76" t="s">
+        <v>188</v>
+      </c>
+      <c r="O76" t="s">
+        <v>209</v>
+      </c>
+      <c r="P76" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>1740</v>
+      </c>
+      <c r="R76" t="s">
+        <v>1737</v>
+      </c>
+      <c r="S76" t="s">
+        <v>294</v>
+      </c>
+      <c r="T76" t="s">
+        <v>1666</v>
+      </c>
+      <c r="U76" t="s">
+        <v>334</v>
+      </c>
+      <c r="V76" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1741</v>
+      </c>
+      <c r="C77" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D77" t="s">
+        <v>126</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G77" t="s">
+        <v>134</v>
+      </c>
+      <c r="H77" t="s">
+        <v>136</v>
+      </c>
+      <c r="I77" t="s">
+        <v>136</v>
+      </c>
+      <c r="J77" t="s">
+        <v>1743</v>
+      </c>
+      <c r="K77" t="s">
+        <v>186</v>
+      </c>
+      <c r="L77" t="s">
+        <v>187</v>
+      </c>
+      <c r="N77" t="s">
+        <v>188</v>
+      </c>
+      <c r="O77" t="s">
+        <v>209</v>
+      </c>
+      <c r="P77" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>1744</v>
+      </c>
+      <c r="R77" t="s">
+        <v>1745</v>
+      </c>
+      <c r="S77" t="s">
+        <v>294</v>
+      </c>
+      <c r="T77" t="s">
+        <v>1666</v>
+      </c>
+      <c r="U77" t="s">
+        <v>334</v>
+      </c>
+      <c r="V77" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1746</v>
+      </c>
+      <c r="C78" t="s">
+        <v>1747</v>
+      </c>
+      <c r="D78" t="s">
+        <v>126</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G78" t="s">
+        <v>134</v>
+      </c>
+      <c r="H78" t="s">
+        <v>136</v>
+      </c>
+      <c r="I78" t="s">
+        <v>136</v>
+      </c>
+      <c r="J78" t="s">
+        <v>1748</v>
+      </c>
+      <c r="K78" t="s">
+        <v>186</v>
+      </c>
+      <c r="L78" t="s">
+        <v>187</v>
+      </c>
+      <c r="N78" t="s">
+        <v>188</v>
+      </c>
+      <c r="O78" t="s">
+        <v>209</v>
+      </c>
+      <c r="P78" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>1749</v>
+      </c>
+      <c r="R78" t="s">
+        <v>1750</v>
+      </c>
+      <c r="S78" t="s">
+        <v>294</v>
+      </c>
+      <c r="T78" t="s">
+        <v>1666</v>
+      </c>
+      <c r="U78" t="s">
+        <v>334</v>
+      </c>
+      <c r="V78" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1668</v>
+      </c>
+      <c r="C79" t="s">
+        <v>1669</v>
+      </c>
+      <c r="D79" t="s">
+        <v>126</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G79" t="s">
+        <v>134</v>
+      </c>
+      <c r="H79" t="s">
+        <v>136</v>
+      </c>
+      <c r="I79" t="s">
+        <v>136</v>
+      </c>
+      <c r="J79" t="s">
+        <v>1677</v>
+      </c>
+      <c r="K79" t="s">
+        <v>186</v>
+      </c>
+      <c r="L79" t="s">
+        <v>187</v>
+      </c>
+      <c r="N79" t="s">
+        <v>188</v>
+      </c>
+      <c r="O79" t="s">
+        <v>209</v>
+      </c>
+      <c r="P79" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>1673</v>
+      </c>
+      <c r="R79" t="s">
+        <v>1668</v>
+      </c>
+      <c r="S79" t="s">
+        <v>294</v>
+      </c>
+      <c r="T79" t="s">
+        <v>1624</v>
+      </c>
+      <c r="U79" t="s">
+        <v>334</v>
+      </c>
+      <c r="V79" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1751</v>
+      </c>
+      <c r="C80" t="s">
+        <v>1752</v>
+      </c>
+      <c r="D80" t="s">
+        <v>126</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G80" t="s">
+        <v>134</v>
+      </c>
+      <c r="H80" t="s">
+        <v>136</v>
+      </c>
+      <c r="I80" t="s">
+        <v>136</v>
+      </c>
+      <c r="J80" t="s">
+        <v>1753</v>
+      </c>
+      <c r="K80" t="s">
+        <v>186</v>
+      </c>
+      <c r="L80" t="s">
+        <v>187</v>
+      </c>
+      <c r="N80" t="s">
+        <v>188</v>
+      </c>
+      <c r="O80" t="s">
+        <v>209</v>
+      </c>
+      <c r="P80" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>1754</v>
+      </c>
+      <c r="R80" t="s">
+        <v>1751</v>
+      </c>
+      <c r="S80" t="s">
+        <v>294</v>
+      </c>
+      <c r="T80" t="s">
+        <v>1668</v>
+      </c>
+      <c r="U80" t="s">
+        <v>334</v>
+      </c>
+      <c r="V80" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1755</v>
+      </c>
+      <c r="C81" t="s">
+        <v>1756</v>
+      </c>
+      <c r="D81" t="s">
+        <v>126</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G81" t="s">
+        <v>134</v>
+      </c>
+      <c r="H81" t="s">
+        <v>136</v>
+      </c>
+      <c r="I81" t="s">
+        <v>136</v>
+      </c>
+      <c r="J81" t="s">
+        <v>1757</v>
+      </c>
+      <c r="K81" t="s">
+        <v>186</v>
+      </c>
+      <c r="L81" t="s">
+        <v>187</v>
+      </c>
+      <c r="N81" t="s">
+        <v>188</v>
+      </c>
+      <c r="O81" t="s">
+        <v>209</v>
+      </c>
+      <c r="P81" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>1758</v>
+      </c>
+      <c r="R81" t="s">
+        <v>1755</v>
+      </c>
+      <c r="S81" t="s">
+        <v>294</v>
+      </c>
+      <c r="T81" t="s">
+        <v>1668</v>
+      </c>
+      <c r="U81" t="s">
+        <v>334</v>
+      </c>
+      <c r="V81" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1674</v>
+      </c>
+      <c r="C82" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D82" t="s">
+        <v>126</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G82" t="s">
+        <v>134</v>
+      </c>
+      <c r="H82" t="s">
+        <v>136</v>
+      </c>
+      <c r="I82" t="s">
+        <v>136</v>
+      </c>
+      <c r="J82" t="s">
+        <v>1676</v>
+      </c>
+      <c r="K82" t="s">
+        <v>186</v>
+      </c>
+      <c r="L82" t="s">
+        <v>187</v>
+      </c>
+      <c r="N82" t="s">
+        <v>188</v>
+      </c>
+      <c r="O82" t="s">
+        <v>209</v>
+      </c>
+      <c r="P82" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>1680</v>
+      </c>
+      <c r="R82" t="s">
+        <v>1674</v>
+      </c>
+      <c r="S82" t="s">
+        <v>294</v>
+      </c>
+      <c r="T82" t="s">
+        <v>1624</v>
+      </c>
+      <c r="U82" t="s">
+        <v>334</v>
+      </c>
+      <c r="V82" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1759</v>
+      </c>
+      <c r="C83" t="s">
+        <v>1760</v>
+      </c>
+      <c r="D83" t="s">
+        <v>126</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G83" t="s">
+        <v>134</v>
+      </c>
+      <c r="H83" t="s">
+        <v>136</v>
+      </c>
+      <c r="I83" t="s">
+        <v>136</v>
+      </c>
+      <c r="J83" t="s">
+        <v>1761</v>
+      </c>
+      <c r="K83" t="s">
+        <v>186</v>
+      </c>
+      <c r="L83" t="s">
+        <v>187</v>
+      </c>
+      <c r="N83" t="s">
+        <v>188</v>
+      </c>
+      <c r="O83" t="s">
+        <v>209</v>
+      </c>
+      <c r="P83" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>1762</v>
+      </c>
+      <c r="R83" t="s">
+        <v>1759</v>
+      </c>
+      <c r="S83" t="s">
+        <v>294</v>
+      </c>
+      <c r="T83" t="s">
+        <v>1674</v>
+      </c>
+      <c r="U83" t="s">
+        <v>334</v>
+      </c>
+      <c r="V83" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1763</v>
+      </c>
+      <c r="C84" t="s">
+        <v>1764</v>
+      </c>
+      <c r="D84" t="s">
+        <v>126</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G84" t="s">
+        <v>134</v>
+      </c>
+      <c r="H84" t="s">
+        <v>136</v>
+      </c>
+      <c r="I84" t="s">
+        <v>136</v>
+      </c>
+      <c r="J84" t="s">
+        <v>1765</v>
+      </c>
+      <c r="K84" t="s">
+        <v>186</v>
+      </c>
+      <c r="L84" t="s">
+        <v>187</v>
+      </c>
+      <c r="N84" t="s">
+        <v>188</v>
+      </c>
+      <c r="O84" t="s">
+        <v>209</v>
+      </c>
+      <c r="P84" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>1766</v>
+      </c>
+      <c r="R84" t="s">
+        <v>1763</v>
+      </c>
+      <c r="S84" t="s">
+        <v>294</v>
+      </c>
+      <c r="T84" t="s">
+        <v>1674</v>
+      </c>
+      <c r="U84" t="s">
+        <v>334</v>
+      </c>
+      <c r="V84" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1767</v>
+      </c>
+      <c r="C85" t="s">
+        <v>1768</v>
+      </c>
+      <c r="D85" t="s">
+        <v>126</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G85" t="s">
+        <v>134</v>
+      </c>
+      <c r="H85" t="s">
+        <v>136</v>
+      </c>
+      <c r="I85" t="s">
+        <v>136</v>
+      </c>
+      <c r="J85" t="s">
+        <v>1769</v>
+      </c>
+      <c r="K85" t="s">
+        <v>186</v>
+      </c>
+      <c r="L85" t="s">
+        <v>187</v>
+      </c>
+      <c r="N85" t="s">
+        <v>188</v>
+      </c>
+      <c r="O85" t="s">
+        <v>209</v>
+      </c>
+      <c r="P85" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>1770</v>
+      </c>
+      <c r="R85" t="s">
+        <v>1767</v>
+      </c>
+      <c r="S85" t="s">
+        <v>294</v>
+      </c>
+      <c r="T85" t="s">
+        <v>1674</v>
+      </c>
+      <c r="U85" t="s">
+        <v>334</v>
+      </c>
+      <c r="V85" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1771</v>
+      </c>
+      <c r="C86" t="s">
+        <v>1772</v>
+      </c>
+      <c r="D86" t="s">
+        <v>126</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G86" t="s">
+        <v>134</v>
+      </c>
+      <c r="H86" t="s">
+        <v>136</v>
+      </c>
+      <c r="I86" t="s">
+        <v>136</v>
+      </c>
+      <c r="J86" t="s">
+        <v>1773</v>
+      </c>
+      <c r="K86" t="s">
+        <v>186</v>
+      </c>
+      <c r="L86" t="s">
+        <v>187</v>
+      </c>
+      <c r="N86" t="s">
+        <v>188</v>
+      </c>
+      <c r="O86" t="s">
+        <v>209</v>
+      </c>
+      <c r="P86" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>1774</v>
+      </c>
+      <c r="R86" t="s">
+        <v>1771</v>
+      </c>
+      <c r="S86" t="s">
+        <v>294</v>
+      </c>
+      <c r="T86" t="s">
+        <v>1674</v>
+      </c>
+      <c r="U86" t="s">
+        <v>334</v>
+      </c>
+      <c r="V86" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1681</v>
+      </c>
+      <c r="C87" t="s">
+        <v>1682</v>
+      </c>
+      <c r="D87" t="s">
+        <v>126</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G87" t="s">
+        <v>134</v>
+      </c>
+      <c r="H87" t="s">
+        <v>136</v>
+      </c>
+      <c r="I87" t="s">
+        <v>136</v>
+      </c>
+      <c r="J87" t="s">
+        <v>1683</v>
+      </c>
+      <c r="K87" t="s">
+        <v>186</v>
+      </c>
+      <c r="L87" t="s">
+        <v>187</v>
+      </c>
+      <c r="N87" t="s">
+        <v>188</v>
+      </c>
+      <c r="O87" t="s">
+        <v>209</v>
+      </c>
+      <c r="P87" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>1684</v>
+      </c>
+      <c r="R87" t="s">
+        <v>1681</v>
+      </c>
+      <c r="S87" t="s">
+        <v>294</v>
+      </c>
+      <c r="T87" t="s">
+        <v>1624</v>
+      </c>
+      <c r="U87" t="s">
+        <v>334</v>
+      </c>
+      <c r="V87" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1775</v>
+      </c>
+      <c r="C88" t="s">
+        <v>1776</v>
+      </c>
+      <c r="D88" t="s">
+        <v>126</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G88" t="s">
+        <v>134</v>
+      </c>
+      <c r="H88" t="s">
+        <v>136</v>
+      </c>
+      <c r="I88" t="s">
+        <v>136</v>
+      </c>
+      <c r="J88" t="s">
+        <v>1777</v>
+      </c>
+      <c r="K88" t="s">
+        <v>186</v>
+      </c>
+      <c r="L88" t="s">
+        <v>187</v>
+      </c>
+      <c r="N88" t="s">
+        <v>188</v>
+      </c>
+      <c r="O88" t="s">
+        <v>209</v>
+      </c>
+      <c r="P88" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>1778</v>
+      </c>
+      <c r="R88" t="s">
+        <v>1775</v>
+      </c>
+      <c r="S88" t="s">
+        <v>294</v>
+      </c>
+      <c r="T88" t="s">
+        <v>1681</v>
+      </c>
+      <c r="U88" t="s">
+        <v>334</v>
+      </c>
+      <c r="V88" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1779</v>
+      </c>
+      <c r="C89" t="s">
+        <v>1780</v>
+      </c>
+      <c r="D89" t="s">
+        <v>126</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G89" t="s">
+        <v>134</v>
+      </c>
+      <c r="H89" t="s">
+        <v>136</v>
+      </c>
+      <c r="I89" t="s">
+        <v>136</v>
+      </c>
+      <c r="J89" t="s">
+        <v>1781</v>
+      </c>
+      <c r="K89" t="s">
+        <v>186</v>
+      </c>
+      <c r="L89" t="s">
+        <v>187</v>
+      </c>
+      <c r="N89" t="s">
+        <v>188</v>
+      </c>
+      <c r="O89" t="s">
+        <v>209</v>
+      </c>
+      <c r="P89" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>1782</v>
+      </c>
+      <c r="R89" t="s">
+        <v>1779</v>
+      </c>
+      <c r="S89" t="s">
+        <v>294</v>
+      </c>
+      <c r="T89" t="s">
+        <v>1681</v>
+      </c>
+      <c r="U89" t="s">
+        <v>334</v>
+      </c>
+      <c r="V89" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C90" t="s">
+        <v>1686</v>
+      </c>
+      <c r="D90" t="s">
+        <v>126</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G90" t="s">
+        <v>134</v>
+      </c>
+      <c r="H90" t="s">
+        <v>136</v>
+      </c>
+      <c r="I90" t="s">
+        <v>136</v>
+      </c>
+      <c r="J90" t="s">
+        <v>1687</v>
+      </c>
+      <c r="K90" t="s">
+        <v>186</v>
+      </c>
+      <c r="L90" t="s">
+        <v>187</v>
+      </c>
+      <c r="N90" t="s">
+        <v>188</v>
+      </c>
+      <c r="O90" t="s">
+        <v>209</v>
+      </c>
+      <c r="P90" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>1688</v>
+      </c>
+      <c r="R90" t="s">
+        <v>1685</v>
+      </c>
+      <c r="S90" t="s">
+        <v>294</v>
+      </c>
+      <c r="T90" t="s">
+        <v>1624</v>
+      </c>
+      <c r="U90" t="s">
+        <v>334</v>
+      </c>
+      <c r="V90" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1783</v>
+      </c>
+      <c r="C91" t="s">
+        <v>1784</v>
+      </c>
+      <c r="D91" t="s">
+        <v>126</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G91" t="s">
+        <v>134</v>
+      </c>
+      <c r="H91" t="s">
+        <v>136</v>
+      </c>
+      <c r="I91" t="s">
+        <v>136</v>
+      </c>
+      <c r="J91" t="s">
+        <v>1785</v>
+      </c>
+      <c r="K91" t="s">
+        <v>186</v>
+      </c>
+      <c r="L91" t="s">
+        <v>187</v>
+      </c>
+      <c r="N91" t="s">
+        <v>188</v>
+      </c>
+      <c r="O91" t="s">
+        <v>209</v>
+      </c>
+      <c r="P91" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>1786</v>
+      </c>
+      <c r="R91" t="s">
+        <v>1783</v>
+      </c>
+      <c r="S91" t="s">
+        <v>294</v>
+      </c>
+      <c r="T91" t="s">
+        <v>1685</v>
+      </c>
+      <c r="U91" t="s">
+        <v>334</v>
+      </c>
+      <c r="V91" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1787</v>
+      </c>
+      <c r="C92" t="s">
+        <v>1788</v>
+      </c>
+      <c r="D92" t="s">
+        <v>126</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G92" t="s">
+        <v>134</v>
+      </c>
+      <c r="H92" t="s">
+        <v>136</v>
+      </c>
+      <c r="I92" t="s">
+        <v>136</v>
+      </c>
+      <c r="J92" t="s">
+        <v>1789</v>
+      </c>
+      <c r="K92" t="s">
+        <v>186</v>
+      </c>
+      <c r="L92" t="s">
+        <v>187</v>
+      </c>
+      <c r="N92" t="s">
+        <v>188</v>
+      </c>
+      <c r="O92" t="s">
+        <v>209</v>
+      </c>
+      <c r="P92" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>1790</v>
+      </c>
+      <c r="R92" t="s">
+        <v>1787</v>
+      </c>
+      <c r="S92" t="s">
+        <v>294</v>
+      </c>
+      <c r="T92" t="s">
+        <v>1685</v>
+      </c>
+      <c r="U92" t="s">
+        <v>334</v>
+      </c>
+      <c r="V92" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B93" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C93" t="s">
+        <v>1690</v>
+      </c>
+      <c r="D93" t="s">
+        <v>126</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G93" t="s">
+        <v>134</v>
+      </c>
+      <c r="H93" t="s">
+        <v>136</v>
+      </c>
+      <c r="I93" t="s">
+        <v>136</v>
+      </c>
+      <c r="J93" t="s">
+        <v>1691</v>
+      </c>
+      <c r="K93" t="s">
+        <v>186</v>
+      </c>
+      <c r="L93" t="s">
+        <v>187</v>
+      </c>
+      <c r="N93" t="s">
+        <v>188</v>
+      </c>
+      <c r="O93" t="s">
+        <v>209</v>
+      </c>
+      <c r="P93" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>1692</v>
+      </c>
+      <c r="R93" t="s">
+        <v>1689</v>
+      </c>
+      <c r="S93" t="s">
+        <v>294</v>
+      </c>
+      <c r="T93" t="s">
+        <v>1624</v>
+      </c>
+      <c r="U93" t="s">
+        <v>334</v>
+      </c>
+      <c r="V93" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y93" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1791</v>
+      </c>
+      <c r="C94" t="s">
+        <v>1792</v>
+      </c>
+      <c r="D94" t="s">
+        <v>126</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G94" t="s">
+        <v>134</v>
+      </c>
+      <c r="H94" t="s">
+        <v>136</v>
+      </c>
+      <c r="I94" t="s">
+        <v>136</v>
+      </c>
+      <c r="J94" t="s">
+        <v>1793</v>
+      </c>
+      <c r="K94" t="s">
+        <v>186</v>
+      </c>
+      <c r="L94" t="s">
+        <v>187</v>
+      </c>
+      <c r="N94" t="s">
+        <v>188</v>
+      </c>
+      <c r="O94" t="s">
+        <v>209</v>
+      </c>
+      <c r="P94" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q94" t="s">
+        <v>1794</v>
+      </c>
+      <c r="R94" t="s">
+        <v>1791</v>
+      </c>
+      <c r="S94" t="s">
+        <v>294</v>
+      </c>
+      <c r="T94" t="s">
+        <v>1689</v>
+      </c>
+      <c r="U94" t="s">
+        <v>334</v>
+      </c>
+      <c r="V94" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B95" t="s">
+        <v>1795</v>
+      </c>
+      <c r="C95" t="s">
+        <v>1796</v>
+      </c>
+      <c r="D95" t="s">
+        <v>126</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G95" t="s">
+        <v>134</v>
+      </c>
+      <c r="H95" t="s">
+        <v>136</v>
+      </c>
+      <c r="I95" t="s">
+        <v>136</v>
+      </c>
+      <c r="J95" t="s">
+        <v>1797</v>
+      </c>
+      <c r="K95" t="s">
+        <v>186</v>
+      </c>
+      <c r="L95" t="s">
+        <v>187</v>
+      </c>
+      <c r="N95" t="s">
+        <v>188</v>
+      </c>
+      <c r="O95" t="s">
+        <v>209</v>
+      </c>
+      <c r="P95" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>1798</v>
+      </c>
+      <c r="R95" t="s">
+        <v>1795</v>
+      </c>
+      <c r="S95" t="s">
+        <v>294</v>
+      </c>
+      <c r="T95" t="s">
+        <v>1689</v>
+      </c>
+      <c r="U95" t="s">
+        <v>334</v>
+      </c>
+      <c r="V95" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B96" t="s">
+        <v>1799</v>
+      </c>
+      <c r="C96" t="s">
+        <v>1800</v>
+      </c>
+      <c r="D96" t="s">
+        <v>126</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G96" t="s">
+        <v>134</v>
+      </c>
+      <c r="H96" t="s">
+        <v>136</v>
+      </c>
+      <c r="I96" t="s">
+        <v>136</v>
+      </c>
+      <c r="J96" t="s">
+        <v>1801</v>
+      </c>
+      <c r="K96" t="s">
+        <v>186</v>
+      </c>
+      <c r="L96" t="s">
+        <v>187</v>
+      </c>
+      <c r="N96" t="s">
+        <v>188</v>
+      </c>
+      <c r="O96" t="s">
+        <v>209</v>
+      </c>
+      <c r="P96" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q96" t="s">
+        <v>1802</v>
+      </c>
+      <c r="R96" t="s">
+        <v>1799</v>
+      </c>
+      <c r="S96" t="s">
+        <v>294</v>
+      </c>
+      <c r="T96" t="s">
+        <v>1689</v>
+      </c>
+      <c r="U96" t="s">
+        <v>334</v>
+      </c>
+      <c r="V96" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y96" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1693</v>
+      </c>
+      <c r="C97" t="s">
+        <v>1694</v>
+      </c>
+      <c r="D97" t="s">
+        <v>126</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G97" t="s">
+        <v>134</v>
+      </c>
+      <c r="H97" t="s">
+        <v>136</v>
+      </c>
+      <c r="I97" t="s">
+        <v>136</v>
+      </c>
+      <c r="J97" t="s">
+        <v>1695</v>
+      </c>
+      <c r="K97" t="s">
+        <v>186</v>
+      </c>
+      <c r="L97" t="s">
+        <v>187</v>
+      </c>
+      <c r="N97" t="s">
+        <v>188</v>
+      </c>
+      <c r="O97" t="s">
+        <v>209</v>
+      </c>
+      <c r="P97" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q97" t="s">
+        <v>1696</v>
+      </c>
+      <c r="R97" t="s">
+        <v>1693</v>
+      </c>
+      <c r="S97" t="s">
+        <v>294</v>
+      </c>
+      <c r="T97" t="s">
+        <v>1624</v>
+      </c>
+      <c r="U97" t="s">
+        <v>334</v>
+      </c>
+      <c r="V97" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="98" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1803</v>
+      </c>
+      <c r="C98" t="s">
+        <v>1804</v>
+      </c>
+      <c r="D98" t="s">
+        <v>126</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G98" t="s">
+        <v>134</v>
+      </c>
+      <c r="H98" t="s">
+        <v>136</v>
+      </c>
+      <c r="I98" t="s">
+        <v>136</v>
+      </c>
+      <c r="J98" t="s">
+        <v>1805</v>
+      </c>
+      <c r="K98" t="s">
+        <v>186</v>
+      </c>
+      <c r="L98" t="s">
+        <v>187</v>
+      </c>
+      <c r="N98" t="s">
+        <v>188</v>
+      </c>
+      <c r="O98" t="s">
+        <v>209</v>
+      </c>
+      <c r="P98" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q98" t="s">
+        <v>1806</v>
+      </c>
+      <c r="R98" t="s">
+        <v>1803</v>
+      </c>
+      <c r="S98" t="s">
+        <v>294</v>
+      </c>
+      <c r="T98" t="s">
+        <v>1693</v>
+      </c>
+      <c r="U98" t="s">
+        <v>334</v>
+      </c>
+      <c r="V98" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y98" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="99" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B99" t="s">
+        <v>1807</v>
+      </c>
+      <c r="C99" t="s">
+        <v>1808</v>
+      </c>
+      <c r="D99" t="s">
+        <v>126</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G99" t="s">
+        <v>134</v>
+      </c>
+      <c r="H99" t="s">
+        <v>136</v>
+      </c>
+      <c r="I99" t="s">
+        <v>136</v>
+      </c>
+      <c r="J99" t="s">
+        <v>1809</v>
+      </c>
+      <c r="K99" t="s">
+        <v>186</v>
+      </c>
+      <c r="L99" t="s">
+        <v>187</v>
+      </c>
+      <c r="N99" t="s">
+        <v>188</v>
+      </c>
+      <c r="O99" t="s">
+        <v>209</v>
+      </c>
+      <c r="P99" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q99" t="s">
+        <v>1810</v>
+      </c>
+      <c r="R99" t="s">
+        <v>1807</v>
+      </c>
+      <c r="S99" t="s">
+        <v>294</v>
+      </c>
+      <c r="T99" t="s">
+        <v>1693</v>
+      </c>
+      <c r="U99" t="s">
+        <v>334</v>
+      </c>
+      <c r="V99" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y99" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="100" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B100" t="s">
+        <v>1811</v>
+      </c>
+      <c r="C100" t="s">
+        <v>1812</v>
+      </c>
+      <c r="D100" t="s">
+        <v>126</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G100" t="s">
+        <v>134</v>
+      </c>
+      <c r="H100" t="s">
+        <v>136</v>
+      </c>
+      <c r="I100" t="s">
+        <v>136</v>
+      </c>
+      <c r="J100" t="s">
+        <v>1813</v>
+      </c>
+      <c r="K100" t="s">
+        <v>186</v>
+      </c>
+      <c r="L100" t="s">
+        <v>187</v>
+      </c>
+      <c r="N100" t="s">
+        <v>188</v>
+      </c>
+      <c r="O100" t="s">
+        <v>209</v>
+      </c>
+      <c r="P100" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q100" t="s">
+        <v>1814</v>
+      </c>
+      <c r="R100" t="s">
+        <v>1811</v>
+      </c>
+      <c r="S100" t="s">
+        <v>294</v>
+      </c>
+      <c r="T100" t="s">
+        <v>1693</v>
+      </c>
+      <c r="U100" t="s">
+        <v>334</v>
+      </c>
+      <c r="V100" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y100" t="s">
         <v>358</v>
       </c>
     </row>
@@ -10718,22 +12650,22 @@
     <hyperlink ref="F65" r:id="rId120" xr:uid="{5EA32805-FC11-48CA-8106-05CF0267B69F}"/>
     <hyperlink ref="A67" r:id="rId121" xr:uid="{EF0DC239-B763-4B69-9C07-0BE8DE4866B7}"/>
     <hyperlink ref="F67" r:id="rId122" xr:uid="{3F3FBD8B-3B84-4DC3-BB37-254A7C650CA4}"/>
-    <hyperlink ref="A68" r:id="rId123" xr:uid="{73F438A0-57A6-4AFE-8AA2-FAE998BC7A3E}"/>
-    <hyperlink ref="F68" r:id="rId124" xr:uid="{4B8736D6-DDCD-47D3-9F86-CB87E9C6BECD}"/>
-    <hyperlink ref="A69" r:id="rId125" xr:uid="{7EDDCF7A-1239-4FBF-803F-78B60A4056BE}"/>
-    <hyperlink ref="F69" r:id="rId126" xr:uid="{7A69AFFF-509E-4229-B331-4F3A95F26DF8}"/>
-    <hyperlink ref="A70" r:id="rId127" xr:uid="{41E878D6-7796-4CBF-869C-DE1798024E29}"/>
-    <hyperlink ref="F70" r:id="rId128" xr:uid="{FC2957B2-26FD-433F-B1F7-6BD8A39745A9}"/>
-    <hyperlink ref="A71" r:id="rId129" xr:uid="{F90597B7-EC14-4677-8AAF-04D63A7D6816}"/>
-    <hyperlink ref="F71" r:id="rId130" xr:uid="{C27AC76A-DF8B-49B1-849E-9CE26BC71E7F}"/>
-    <hyperlink ref="A72" r:id="rId131" xr:uid="{065EBD1A-FDC6-4148-96F6-FAAF32031BC2}"/>
-    <hyperlink ref="F72" r:id="rId132" xr:uid="{8D984F70-2A1E-4CD6-ADF6-3AA69535C394}"/>
-    <hyperlink ref="A73" r:id="rId133" xr:uid="{3F096B9A-39D1-4171-81AA-CE1C40C06A5D}"/>
-    <hyperlink ref="F73" r:id="rId134" xr:uid="{355A335F-E42A-4493-A6EC-207B94209095}"/>
-    <hyperlink ref="A74" r:id="rId135" xr:uid="{D2E5002C-E865-4278-A85C-DB30757990A9}"/>
-    <hyperlink ref="F74" r:id="rId136" xr:uid="{8B2FA76A-6097-4B7A-AEBB-7F90AAD0787C}"/>
-    <hyperlink ref="A75" r:id="rId137" xr:uid="{3B3BD442-43AF-4D3D-922F-9B766B44EC84}"/>
-    <hyperlink ref="F75" r:id="rId138" xr:uid="{5F628BDB-3D91-4310-9B8D-1517D7F52010}"/>
+    <hyperlink ref="A71" r:id="rId123" xr:uid="{73F438A0-57A6-4AFE-8AA2-FAE998BC7A3E}"/>
+    <hyperlink ref="F71" r:id="rId124" xr:uid="{4B8736D6-DDCD-47D3-9F86-CB87E9C6BECD}"/>
+    <hyperlink ref="A75" r:id="rId125" xr:uid="{7EDDCF7A-1239-4FBF-803F-78B60A4056BE}"/>
+    <hyperlink ref="F75" r:id="rId126" xr:uid="{7A69AFFF-509E-4229-B331-4F3A95F26DF8}"/>
+    <hyperlink ref="A79" r:id="rId127" xr:uid="{41E878D6-7796-4CBF-869C-DE1798024E29}"/>
+    <hyperlink ref="F79" r:id="rId128" xr:uid="{FC2957B2-26FD-433F-B1F7-6BD8A39745A9}"/>
+    <hyperlink ref="A82" r:id="rId129" xr:uid="{F90597B7-EC14-4677-8AAF-04D63A7D6816}"/>
+    <hyperlink ref="F82" r:id="rId130" xr:uid="{C27AC76A-DF8B-49B1-849E-9CE26BC71E7F}"/>
+    <hyperlink ref="A87" r:id="rId131" xr:uid="{065EBD1A-FDC6-4148-96F6-FAAF32031BC2}"/>
+    <hyperlink ref="F87" r:id="rId132" xr:uid="{8D984F70-2A1E-4CD6-ADF6-3AA69535C394}"/>
+    <hyperlink ref="A90" r:id="rId133" xr:uid="{3F096B9A-39D1-4171-81AA-CE1C40C06A5D}"/>
+    <hyperlink ref="F90" r:id="rId134" xr:uid="{355A335F-E42A-4493-A6EC-207B94209095}"/>
+    <hyperlink ref="A93" r:id="rId135" xr:uid="{D2E5002C-E865-4278-A85C-DB30757990A9}"/>
+    <hyperlink ref="F93" r:id="rId136" xr:uid="{8B2FA76A-6097-4B7A-AEBB-7F90AAD0787C}"/>
+    <hyperlink ref="A97" r:id="rId137" xr:uid="{3B3BD442-43AF-4D3D-922F-9B766B44EC84}"/>
+    <hyperlink ref="F97" r:id="rId138" xr:uid="{5F628BDB-3D91-4310-9B8D-1517D7F52010}"/>
     <hyperlink ref="A66" r:id="rId139" xr:uid="{4DD4C668-D79C-4AEA-88A6-AB81BD15CB60}"/>
     <hyperlink ref="F66" r:id="rId140" xr:uid="{DAF97AB8-C82D-425C-BFC7-6D31AB8B31CD}"/>
     <hyperlink ref="A62" r:id="rId141" xr:uid="{228F1E8F-5D03-41E2-8AE2-686600D91E30}"/>
@@ -10742,6 +12674,56 @@
     <hyperlink ref="F63" r:id="rId144" xr:uid="{548DE556-E89D-4034-9E8E-F4362DC4830C}"/>
     <hyperlink ref="A64" r:id="rId145" xr:uid="{200784B3-9C51-475E-A236-F6C643A3FCA8}"/>
     <hyperlink ref="F64" r:id="rId146" xr:uid="{FDE700C3-766D-4195-AEDF-EB6B7C4A439D}"/>
+    <hyperlink ref="A68" r:id="rId147" xr:uid="{CA3AE62D-6113-4AEC-8A9E-C5B52A4C2B8D}"/>
+    <hyperlink ref="F68" r:id="rId148" xr:uid="{0581DF5E-51D4-4620-9778-E81011C9CEC6}"/>
+    <hyperlink ref="A69" r:id="rId149" xr:uid="{5C9CD855-E2CB-4649-850A-5DCD8D881A02}"/>
+    <hyperlink ref="F69" r:id="rId150" xr:uid="{90E469CE-0AC4-4BCA-8773-22BBC91A16A5}"/>
+    <hyperlink ref="A70" r:id="rId151" xr:uid="{893C231E-A8B7-4267-97E6-E5207F4F1405}"/>
+    <hyperlink ref="F70" r:id="rId152" xr:uid="{2B5BDBC0-B48A-40E5-927A-C76C764B291D}"/>
+    <hyperlink ref="A72" r:id="rId153" xr:uid="{97E6CB68-DA2B-4D99-8BCF-865DC726F233}"/>
+    <hyperlink ref="F72" r:id="rId154" xr:uid="{4727CE7A-76CE-4F54-A04E-16F8CD95499B}"/>
+    <hyperlink ref="A73" r:id="rId155" xr:uid="{447D72CB-F597-4782-BA61-0795B7B95537}"/>
+    <hyperlink ref="F73" r:id="rId156" xr:uid="{BBE0F745-9D17-4EAE-BA0C-49C5878E051D}"/>
+    <hyperlink ref="A74" r:id="rId157" xr:uid="{25FC9B78-79F1-4C08-8B98-EAC5EA3F5DD5}"/>
+    <hyperlink ref="F74" r:id="rId158" xr:uid="{7AAE6938-76F0-469D-B4CF-BDD51377D211}"/>
+    <hyperlink ref="A76" r:id="rId159" xr:uid="{C9A8ACDA-0975-4B0E-96C5-BCF048A14CA7}"/>
+    <hyperlink ref="F76" r:id="rId160" xr:uid="{F04AF7F7-46D8-4126-A21E-C738DD017BE4}"/>
+    <hyperlink ref="A77" r:id="rId161" xr:uid="{A0A4752E-A03F-4498-B3E5-684A90E69CF8}"/>
+    <hyperlink ref="F77" r:id="rId162" xr:uid="{E4EA62ED-27D7-421A-9935-D6FF397082C6}"/>
+    <hyperlink ref="A78" r:id="rId163" xr:uid="{D29BA95F-5A63-40CD-956D-FBED672E1AEB}"/>
+    <hyperlink ref="F78" r:id="rId164" xr:uid="{501AAADA-7CE0-4DD0-A2FF-A53BAA1DB908}"/>
+    <hyperlink ref="A80" r:id="rId165" xr:uid="{1F8CE08B-F1F5-40EF-9437-0019EF398A69}"/>
+    <hyperlink ref="F80" r:id="rId166" xr:uid="{6C6B4D23-9944-4A9B-A20A-73F2D600EF41}"/>
+    <hyperlink ref="A81" r:id="rId167" xr:uid="{8E6B819D-334E-4389-B664-F0B8B435B5A2}"/>
+    <hyperlink ref="F81" r:id="rId168" xr:uid="{6B173F21-E96A-4708-8A32-B6FC1D8779D7}"/>
+    <hyperlink ref="A83" r:id="rId169" xr:uid="{C23C469F-BBB4-4FB7-8B94-90B2FD7E33FB}"/>
+    <hyperlink ref="F83" r:id="rId170" xr:uid="{8FB6367B-7870-47E7-AA41-6C5DF3A0FBA4}"/>
+    <hyperlink ref="A84" r:id="rId171" xr:uid="{0C1F1E1E-C5CD-4757-A30D-3EB003FE2A47}"/>
+    <hyperlink ref="F84" r:id="rId172" xr:uid="{0346CCE7-358D-4E83-B43C-CC990CBEA77B}"/>
+    <hyperlink ref="A85" r:id="rId173" xr:uid="{45E40DAA-1CAA-460F-8360-154B80A1D279}"/>
+    <hyperlink ref="F85" r:id="rId174" xr:uid="{DCA6DB98-ADBD-499C-A8EC-04002428C33C}"/>
+    <hyperlink ref="A86" r:id="rId175" xr:uid="{173FA111-A461-4156-817A-441B6CD23C42}"/>
+    <hyperlink ref="F86" r:id="rId176" xr:uid="{0689A9A1-97D1-4568-B27D-9C66ED1D6402}"/>
+    <hyperlink ref="A88" r:id="rId177" xr:uid="{B8AF87C3-C242-4A1A-BFF7-D14830BA0FBB}"/>
+    <hyperlink ref="F88" r:id="rId178" xr:uid="{4AD25628-13D0-444F-9509-D9092734800F}"/>
+    <hyperlink ref="A89" r:id="rId179" xr:uid="{77DD05D6-666F-49E6-AC12-A654C9DDEA91}"/>
+    <hyperlink ref="F89" r:id="rId180" xr:uid="{4D46345E-2727-4F80-9D05-B9F28FF08245}"/>
+    <hyperlink ref="A91" r:id="rId181" xr:uid="{0C87A302-8B3A-4600-9A06-124F1E077A10}"/>
+    <hyperlink ref="F91" r:id="rId182" xr:uid="{25BEC3A0-2048-49B5-A360-9197D5A2F717}"/>
+    <hyperlink ref="A92" r:id="rId183" xr:uid="{AC5A8FD6-123B-42F4-9751-D3BC6D90FFF6}"/>
+    <hyperlink ref="F92" r:id="rId184" xr:uid="{605E36F9-90EE-4A46-8813-06B7B073AA79}"/>
+    <hyperlink ref="A94" r:id="rId185" xr:uid="{7F7D5552-E58B-4A22-9A7E-A2F2609F075D}"/>
+    <hyperlink ref="F94" r:id="rId186" xr:uid="{9901FD35-1257-455A-91A9-5AEF00654FA3}"/>
+    <hyperlink ref="A95" r:id="rId187" xr:uid="{419AB216-A522-44C7-A3B3-19A09D948275}"/>
+    <hyperlink ref="F95" r:id="rId188" xr:uid="{87EAE9A4-AF89-4853-ACAB-8775ED9AA835}"/>
+    <hyperlink ref="A96" r:id="rId189" xr:uid="{409E7321-635E-4034-A93F-631FF36FC5F6}"/>
+    <hyperlink ref="F96" r:id="rId190" xr:uid="{908C9C37-DDDA-4B2E-A347-9628408E4563}"/>
+    <hyperlink ref="A98" r:id="rId191" xr:uid="{D5715C51-2BC9-45FE-A94C-860B413ABA4F}"/>
+    <hyperlink ref="F98" r:id="rId192" xr:uid="{8F19A868-A0BF-4BC2-B527-F248C5EB832C}"/>
+    <hyperlink ref="A99" r:id="rId193" xr:uid="{87C441F0-F3C4-4CF8-9080-5F0AAD3B355A}"/>
+    <hyperlink ref="F99" r:id="rId194" xr:uid="{5A4899BD-4585-4FBE-81B6-2645BCC8F8D0}"/>
+    <hyperlink ref="A100" r:id="rId195" xr:uid="{A8405BA9-51C4-49E3-8B0D-4A03CF1D1EFA}"/>
+    <hyperlink ref="F100" r:id="rId196" xr:uid="{1E1A151C-F690-4050-B544-DD21309265F2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/gdcdictionary/xlsx/nodes_schema_impowr.xlsx
+++ b/gdcdictionary/xlsx/nodes_schema_impowr.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vithal\Documents\GitHub\dcfdictionary\gdcdictionary\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D7CBD4D-DFFE-4735-B4E2-C262E9901FC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1663E41-53D4-42D5-B858-27C4740AF527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6261" uniqueCount="1815">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6744" uniqueCount="1908">
   <si>
     <t>&lt;$schema&gt;</t>
   </si>
@@ -5472,6 +5472,285 @@
   </si>
   <si>
     <t>patients_baseline_readiness_for_organizational_change</t>
+  </si>
+  <si>
+    <t>pb_chronic_pain_screening</t>
+  </si>
+  <si>
+    <t>Patient Baseline Chronic Pain Screening</t>
+  </si>
+  <si>
+    <t>Data describing patient baseline chronic pain screening characteristics</t>
+  </si>
+  <si>
+    <t>patients_baseline_chronic_pain_screening</t>
+  </si>
+  <si>
+    <t>pb_PEG</t>
+  </si>
+  <si>
+    <t>Patient Baseline PEG</t>
+  </si>
+  <si>
+    <t>Data describing patient baseline PEG characteristics</t>
+  </si>
+  <si>
+    <t>patients_baseline_PEG</t>
+  </si>
+  <si>
+    <t>Patient Baseline Michigan Body Map</t>
+  </si>
+  <si>
+    <t>patients_baseline_michigan_body_map</t>
+  </si>
+  <si>
+    <t>pb_michigan_body_map</t>
+  </si>
+  <si>
+    <t>pb_WPI</t>
+  </si>
+  <si>
+    <t>Patient Baseline WPI</t>
+  </si>
+  <si>
+    <t>Data describing patient baseline WPI characteristics</t>
+  </si>
+  <si>
+    <t>patients_baseline_WPI</t>
+  </si>
+  <si>
+    <t>pb_PGIC</t>
+  </si>
+  <si>
+    <t>Patient Baseline PGIC</t>
+  </si>
+  <si>
+    <t>Data describing patient baseline PGIC characteristics</t>
+  </si>
+  <si>
+    <t>patients_baseline_PGIC</t>
+  </si>
+  <si>
+    <t>pb_BPI</t>
+  </si>
+  <si>
+    <t>Patient Baseline BPI</t>
+  </si>
+  <si>
+    <t>Data describing patient baseline BPI characteristics</t>
+  </si>
+  <si>
+    <t>patients_baseline_BPI</t>
+  </si>
+  <si>
+    <t>pb_IMPOWR_pain_diagnosis</t>
+  </si>
+  <si>
+    <t>Data describing patient baseline michigan body map characteristics</t>
+  </si>
+  <si>
+    <t>Patient Baseline IMPOWR Pain Diagnosis</t>
+  </si>
+  <si>
+    <t>Data describing patient baseline IMPOWR pain diagnosis characteristics</t>
+  </si>
+  <si>
+    <t>patients_baseline_IMPOWR_pain_diagnosis</t>
+  </si>
+  <si>
+    <t>pb_pain_interference</t>
+  </si>
+  <si>
+    <t>Patient Baseline Pain Interference</t>
+  </si>
+  <si>
+    <t>Data describing patient baseline pain interference characteristics</t>
+  </si>
+  <si>
+    <t>patients_baseline_pain_interference</t>
+  </si>
+  <si>
+    <t>pb_pain_intensity</t>
+  </si>
+  <si>
+    <t>Patient Baseline Pain Intensity</t>
+  </si>
+  <si>
+    <t>Data describing patient baseline pain intensity characteristics</t>
+  </si>
+  <si>
+    <t>patients_baseline_pain_intensity</t>
+  </si>
+  <si>
+    <t>pb_pain_catastrophizing</t>
+  </si>
+  <si>
+    <t>Patient Baseline Pain Catastrophizing</t>
+  </si>
+  <si>
+    <t>Data describing patient baseline pain catastrophizing characteristics</t>
+  </si>
+  <si>
+    <t>patients_baseline_pain_catastrophizing</t>
+  </si>
+  <si>
+    <t>pb_opioid_misuse_screening</t>
+  </si>
+  <si>
+    <t>Patient Baseline Opioid Misuse Screening</t>
+  </si>
+  <si>
+    <t>Data describing patient baseline opioid misuse screening characteristics</t>
+  </si>
+  <si>
+    <t>patients_baseline_opioid_misuse_screening</t>
+  </si>
+  <si>
+    <t>pb_modified_addiction_severity_index</t>
+  </si>
+  <si>
+    <t>Patient Baseline Modified Addiction Severity Index</t>
+  </si>
+  <si>
+    <t>Data describing patient baseline modified addiction severity index characteristics</t>
+  </si>
+  <si>
+    <t>patients_baseline_modified_addiction_severity_index</t>
+  </si>
+  <si>
+    <t>pb_modified_TAPS-1</t>
+  </si>
+  <si>
+    <t>Patient Baseline Modified TAPS-1</t>
+  </si>
+  <si>
+    <t>Data describing patient baseline modified TAPS-1 characteristics</t>
+  </si>
+  <si>
+    <t>patients_baseline_modified_TAPS-1</t>
+  </si>
+  <si>
+    <t>pb_AUDIT-C</t>
+  </si>
+  <si>
+    <t>Patient Baseline AUDIT-C</t>
+  </si>
+  <si>
+    <t>Data describing patient baseline AUDIT-C characteristics</t>
+  </si>
+  <si>
+    <t>patients_baseline_AUDIT-C</t>
+  </si>
+  <si>
+    <t>pb_IMPOWR_overdose_screening</t>
+  </si>
+  <si>
+    <t>Patient Baseline IMPOWR Overdose Screening</t>
+  </si>
+  <si>
+    <t>Data describing patient baseline IMPOWR overdose screening characteristics</t>
+  </si>
+  <si>
+    <t>patients_baseline_IMPOWR_overdose_screening</t>
+  </si>
+  <si>
+    <t>pb_IMPOWR_MOUD</t>
+  </si>
+  <si>
+    <t>Patient Baseline IMPOWR MOUD</t>
+  </si>
+  <si>
+    <t>Data describing patient baseline IMPOWR MOUD characteristics</t>
+  </si>
+  <si>
+    <t>patients_baseline_IMPOWR_MOUD</t>
+  </si>
+  <si>
+    <t>pb_social_drug_use</t>
+  </si>
+  <si>
+    <t>Patient Baseline Social Drug Use</t>
+  </si>
+  <si>
+    <t>Data describing patient baseline social drug use characteristics</t>
+  </si>
+  <si>
+    <t>patients_baseline_social_drug_use</t>
+  </si>
+  <si>
+    <t>pb_supplemental_smoking</t>
+  </si>
+  <si>
+    <t>Patient Baseline Supplemental Smoking</t>
+  </si>
+  <si>
+    <t>Data describing patient baseline supplemental smoking characteristics</t>
+  </si>
+  <si>
+    <t>patients_baseline_supplemental_smoking</t>
+  </si>
+  <si>
+    <t>pb_PROMIS_acohol</t>
+  </si>
+  <si>
+    <t>Data describing patient baseline PROMIS acohol characteristics</t>
+  </si>
+  <si>
+    <t>patients_baseline_PROMIS_acohol</t>
+  </si>
+  <si>
+    <t>pb_PROMIS_severity_of_substance_use</t>
+  </si>
+  <si>
+    <t>Patient Baseline PROMIS severity of Substance Use</t>
+  </si>
+  <si>
+    <t>Patient Baseline PROMIS Acohol</t>
+  </si>
+  <si>
+    <t>Data describing patient baseline PROMIS severity of substance use characteristics</t>
+  </si>
+  <si>
+    <t>patients_baseline_PROMIS_severity_of_substance_use</t>
+  </si>
+  <si>
+    <t>pb_US_AUDIT</t>
+  </si>
+  <si>
+    <t>Patient Baseline US AUDIT</t>
+  </si>
+  <si>
+    <t>Data describing patient baseline US AUDIT characteristics</t>
+  </si>
+  <si>
+    <t>patients_baseline_US_AUDIT</t>
+  </si>
+  <si>
+    <t>Patient Baseline Supplemental Cannabis</t>
+  </si>
+  <si>
+    <t>Data describing patient baseline supplemental cannabis characteristics</t>
+  </si>
+  <si>
+    <t>patients_baseline_supplemental_cannabis</t>
+  </si>
+  <si>
+    <t>pb_supplemental_cannabis</t>
+  </si>
+  <si>
+    <t>pb_Supplemental_narcan</t>
+  </si>
+  <si>
+    <t>Patient Baseline Supplemental Narcan</t>
+  </si>
+  <si>
+    <t>Data describing patient baseline supplemental narcan characteristics</t>
+  </si>
+  <si>
+    <t>patients_baseline_supplemental_narcan</t>
+  </si>
+  <si>
+    <t>pb_supplemental_narcan</t>
   </si>
 </sst>
 </file>
@@ -5886,16 +6165,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y100"/>
+  <dimension ref="A1:Y123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y100" sqref="Y100"/>
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V83" sqref="V83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="89" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="10" width="100.85546875" customWidth="1"/>
+    <col min="1" max="1" width="41.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.140625" customWidth="1"/>
+    <col min="3" max="3" width="63" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="90.140625" customWidth="1"/>
+    <col min="11" max="11" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="80" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="28.5703125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="110.7109375" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="59.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -9866,10 +10159,10 @@
         <v>25</v>
       </c>
       <c r="B60" t="s">
-        <v>1649</v>
+        <v>1815</v>
       </c>
       <c r="C60" t="s">
-        <v>1650</v>
+        <v>1816</v>
       </c>
       <c r="D60" t="s">
         <v>126</v>
@@ -9887,7 +10180,7 @@
         <v>136</v>
       </c>
       <c r="J60" t="s">
-        <v>1651</v>
+        <v>1817</v>
       </c>
       <c r="K60" t="s">
         <v>186</v>
@@ -9905,16 +10198,16 @@
         <v>218</v>
       </c>
       <c r="Q60" t="s">
-        <v>1652</v>
+        <v>1818</v>
       </c>
       <c r="R60" t="s">
-        <v>1649</v>
+        <v>1815</v>
       </c>
       <c r="S60" t="s">
         <v>294</v>
       </c>
       <c r="T60" t="s">
-        <v>1624</v>
+        <v>1645</v>
       </c>
       <c r="U60" t="s">
         <v>334</v>
@@ -9931,10 +10224,10 @@
         <v>25</v>
       </c>
       <c r="B61" t="s">
-        <v>1653</v>
+        <v>1819</v>
       </c>
       <c r="C61" t="s">
-        <v>1654</v>
+        <v>1820</v>
       </c>
       <c r="D61" t="s">
         <v>126</v>
@@ -9952,7 +10245,7 @@
         <v>136</v>
       </c>
       <c r="J61" t="s">
-        <v>1655</v>
+        <v>1821</v>
       </c>
       <c r="K61" t="s">
         <v>186</v>
@@ -9970,16 +10263,16 @@
         <v>218</v>
       </c>
       <c r="Q61" t="s">
-        <v>1656</v>
+        <v>1822</v>
       </c>
       <c r="R61" t="s">
-        <v>1653</v>
+        <v>1819</v>
       </c>
       <c r="S61" t="s">
         <v>294</v>
       </c>
       <c r="T61" t="s">
-        <v>1624</v>
+        <v>1645</v>
       </c>
       <c r="U61" t="s">
         <v>334</v>
@@ -9996,10 +10289,10 @@
         <v>25</v>
       </c>
       <c r="B62" t="s">
-        <v>1701</v>
+        <v>1825</v>
       </c>
       <c r="C62" t="s">
-        <v>1702</v>
+        <v>1823</v>
       </c>
       <c r="D62" t="s">
         <v>126</v>
@@ -10017,7 +10310,7 @@
         <v>136</v>
       </c>
       <c r="J62" t="s">
-        <v>1703</v>
+        <v>1839</v>
       </c>
       <c r="K62" t="s">
         <v>186</v>
@@ -10035,16 +10328,16 @@
         <v>218</v>
       </c>
       <c r="Q62" t="s">
-        <v>1704</v>
+        <v>1824</v>
       </c>
       <c r="R62" t="s">
-        <v>1701</v>
+        <v>1825</v>
       </c>
       <c r="S62" t="s">
         <v>294</v>
       </c>
       <c r="T62" t="s">
-        <v>1653</v>
+        <v>1645</v>
       </c>
       <c r="U62" t="s">
         <v>334</v>
@@ -10061,10 +10354,10 @@
         <v>25</v>
       </c>
       <c r="B63" t="s">
-        <v>1705</v>
+        <v>1826</v>
       </c>
       <c r="C63" t="s">
-        <v>1706</v>
+        <v>1827</v>
       </c>
       <c r="D63" t="s">
         <v>126</v>
@@ -10082,7 +10375,7 @@
         <v>136</v>
       </c>
       <c r="J63" t="s">
-        <v>1707</v>
+        <v>1828</v>
       </c>
       <c r="K63" t="s">
         <v>186</v>
@@ -10100,16 +10393,16 @@
         <v>218</v>
       </c>
       <c r="Q63" t="s">
-        <v>1708</v>
+        <v>1829</v>
       </c>
       <c r="R63" t="s">
-        <v>1705</v>
+        <v>1826</v>
       </c>
       <c r="S63" t="s">
         <v>294</v>
       </c>
       <c r="T63" t="s">
-        <v>1653</v>
+        <v>1645</v>
       </c>
       <c r="U63" t="s">
         <v>334</v>
@@ -10126,10 +10419,10 @@
         <v>25</v>
       </c>
       <c r="B64" t="s">
-        <v>1709</v>
+        <v>1830</v>
       </c>
       <c r="C64" t="s">
-        <v>1710</v>
+        <v>1831</v>
       </c>
       <c r="D64" t="s">
         <v>126</v>
@@ -10147,7 +10440,7 @@
         <v>136</v>
       </c>
       <c r="J64" t="s">
-        <v>1711</v>
+        <v>1832</v>
       </c>
       <c r="K64" t="s">
         <v>186</v>
@@ -10165,16 +10458,16 @@
         <v>218</v>
       </c>
       <c r="Q64" t="s">
-        <v>1712</v>
+        <v>1833</v>
       </c>
       <c r="R64" t="s">
-        <v>1709</v>
+        <v>1830</v>
       </c>
       <c r="S64" t="s">
         <v>294</v>
       </c>
       <c r="T64" t="s">
-        <v>1653</v>
+        <v>1645</v>
       </c>
       <c r="U64" t="s">
         <v>334</v>
@@ -10191,10 +10484,10 @@
         <v>25</v>
       </c>
       <c r="B65" t="s">
-        <v>1657</v>
+        <v>1834</v>
       </c>
       <c r="C65" t="s">
-        <v>1658</v>
+        <v>1835</v>
       </c>
       <c r="D65" t="s">
         <v>126</v>
@@ -10212,7 +10505,7 @@
         <v>136</v>
       </c>
       <c r="J65" t="s">
-        <v>1659</v>
+        <v>1836</v>
       </c>
       <c r="K65" t="s">
         <v>186</v>
@@ -10230,16 +10523,16 @@
         <v>218</v>
       </c>
       <c r="Q65" t="s">
-        <v>1660</v>
+        <v>1837</v>
       </c>
       <c r="R65" t="s">
-        <v>1657</v>
+        <v>1834</v>
       </c>
       <c r="S65" t="s">
         <v>294</v>
       </c>
       <c r="T65" t="s">
-        <v>1624</v>
+        <v>1645</v>
       </c>
       <c r="U65" t="s">
         <v>334</v>
@@ -10256,10 +10549,10 @@
         <v>25</v>
       </c>
       <c r="B66" t="s">
-        <v>1697</v>
+        <v>1838</v>
       </c>
       <c r="C66" t="s">
-        <v>1698</v>
+        <v>1840</v>
       </c>
       <c r="D66" t="s">
         <v>126</v>
@@ -10277,7 +10570,7 @@
         <v>136</v>
       </c>
       <c r="J66" t="s">
-        <v>1699</v>
+        <v>1841</v>
       </c>
       <c r="K66" t="s">
         <v>186</v>
@@ -10295,16 +10588,16 @@
         <v>218</v>
       </c>
       <c r="Q66" t="s">
-        <v>1700</v>
+        <v>1842</v>
       </c>
       <c r="R66" t="s">
-        <v>1697</v>
+        <v>1838</v>
       </c>
       <c r="S66" t="s">
         <v>294</v>
       </c>
       <c r="T66" t="s">
-        <v>1657</v>
+        <v>1645</v>
       </c>
       <c r="U66" t="s">
         <v>334</v>
@@ -10321,10 +10614,10 @@
         <v>25</v>
       </c>
       <c r="B67" t="s">
-        <v>1661</v>
+        <v>1843</v>
       </c>
       <c r="C67" t="s">
-        <v>1662</v>
+        <v>1844</v>
       </c>
       <c r="D67" t="s">
         <v>126</v>
@@ -10342,7 +10635,7 @@
         <v>136</v>
       </c>
       <c r="J67" t="s">
-        <v>1679</v>
+        <v>1845</v>
       </c>
       <c r="K67" t="s">
         <v>186</v>
@@ -10360,16 +10653,16 @@
         <v>218</v>
       </c>
       <c r="Q67" t="s">
-        <v>1670</v>
+        <v>1846</v>
       </c>
       <c r="R67" t="s">
-        <v>1661</v>
+        <v>1843</v>
       </c>
       <c r="S67" t="s">
         <v>294</v>
       </c>
       <c r="T67" t="s">
-        <v>1624</v>
+        <v>1645</v>
       </c>
       <c r="U67" t="s">
         <v>334</v>
@@ -10386,10 +10679,10 @@
         <v>25</v>
       </c>
       <c r="B68" t="s">
-        <v>1713</v>
+        <v>1847</v>
       </c>
       <c r="C68" t="s">
-        <v>1714</v>
+        <v>1848</v>
       </c>
       <c r="D68" t="s">
         <v>126</v>
@@ -10407,7 +10700,7 @@
         <v>136</v>
       </c>
       <c r="J68" t="s">
-        <v>1715</v>
+        <v>1849</v>
       </c>
       <c r="K68" t="s">
         <v>186</v>
@@ -10425,16 +10718,16 @@
         <v>218</v>
       </c>
       <c r="Q68" t="s">
-        <v>1716</v>
+        <v>1850</v>
       </c>
       <c r="R68" t="s">
-        <v>1713</v>
+        <v>1847</v>
       </c>
       <c r="S68" t="s">
         <v>294</v>
       </c>
       <c r="T68" t="s">
-        <v>1661</v>
+        <v>1645</v>
       </c>
       <c r="U68" t="s">
         <v>334</v>
@@ -10451,10 +10744,10 @@
         <v>25</v>
       </c>
       <c r="B69" t="s">
-        <v>1717</v>
+        <v>1851</v>
       </c>
       <c r="C69" t="s">
-        <v>1718</v>
+        <v>1852</v>
       </c>
       <c r="D69" t="s">
         <v>126</v>
@@ -10472,7 +10765,7 @@
         <v>136</v>
       </c>
       <c r="J69" t="s">
-        <v>1719</v>
+        <v>1853</v>
       </c>
       <c r="K69" t="s">
         <v>186</v>
@@ -10490,16 +10783,16 @@
         <v>218</v>
       </c>
       <c r="Q69" t="s">
-        <v>1720</v>
+        <v>1854</v>
       </c>
       <c r="R69" t="s">
-        <v>1717</v>
+        <v>1851</v>
       </c>
       <c r="S69" t="s">
         <v>294</v>
       </c>
       <c r="T69" t="s">
-        <v>1661</v>
+        <v>1645</v>
       </c>
       <c r="U69" t="s">
         <v>334</v>
@@ -10516,10 +10809,10 @@
         <v>25</v>
       </c>
       <c r="B70" t="s">
-        <v>1721</v>
+        <v>1649</v>
       </c>
       <c r="C70" t="s">
-        <v>1722</v>
+        <v>1650</v>
       </c>
       <c r="D70" t="s">
         <v>126</v>
@@ -10537,7 +10830,7 @@
         <v>136</v>
       </c>
       <c r="J70" t="s">
-        <v>1723</v>
+        <v>1651</v>
       </c>
       <c r="K70" t="s">
         <v>186</v>
@@ -10555,16 +10848,16 @@
         <v>218</v>
       </c>
       <c r="Q70" t="s">
-        <v>1724</v>
+        <v>1652</v>
       </c>
       <c r="R70" t="s">
-        <v>1721</v>
+        <v>1649</v>
       </c>
       <c r="S70" t="s">
         <v>294</v>
       </c>
       <c r="T70" t="s">
-        <v>1661</v>
+        <v>1624</v>
       </c>
       <c r="U70" t="s">
         <v>334</v>
@@ -10581,10 +10874,10 @@
         <v>25</v>
       </c>
       <c r="B71" t="s">
-        <v>1663</v>
+        <v>1855</v>
       </c>
       <c r="C71" t="s">
-        <v>1664</v>
+        <v>1856</v>
       </c>
       <c r="D71" t="s">
         <v>126</v>
@@ -10602,7 +10895,7 @@
         <v>136</v>
       </c>
       <c r="J71" t="s">
-        <v>1665</v>
+        <v>1857</v>
       </c>
       <c r="K71" t="s">
         <v>186</v>
@@ -10620,16 +10913,16 @@
         <v>218</v>
       </c>
       <c r="Q71" t="s">
-        <v>1671</v>
+        <v>1858</v>
       </c>
       <c r="R71" t="s">
-        <v>1663</v>
+        <v>1855</v>
       </c>
       <c r="S71" t="s">
         <v>294</v>
       </c>
       <c r="T71" t="s">
-        <v>1624</v>
+        <v>1649</v>
       </c>
       <c r="U71" t="s">
         <v>334</v>
@@ -10646,10 +10939,10 @@
         <v>25</v>
       </c>
       <c r="B72" t="s">
-        <v>1725</v>
+        <v>1859</v>
       </c>
       <c r="C72" t="s">
-        <v>1726</v>
+        <v>1860</v>
       </c>
       <c r="D72" t="s">
         <v>126</v>
@@ -10667,7 +10960,7 @@
         <v>136</v>
       </c>
       <c r="J72" t="s">
-        <v>1727</v>
+        <v>1861</v>
       </c>
       <c r="K72" t="s">
         <v>186</v>
@@ -10685,16 +10978,16 @@
         <v>218</v>
       </c>
       <c r="Q72" t="s">
-        <v>1728</v>
+        <v>1862</v>
       </c>
       <c r="R72" t="s">
-        <v>1725</v>
+        <v>1859</v>
       </c>
       <c r="S72" t="s">
         <v>294</v>
       </c>
       <c r="T72" t="s">
-        <v>1663</v>
+        <v>1649</v>
       </c>
       <c r="U72" t="s">
         <v>334</v>
@@ -10711,10 +11004,10 @@
         <v>25</v>
       </c>
       <c r="B73" t="s">
-        <v>1729</v>
+        <v>1863</v>
       </c>
       <c r="C73" t="s">
-        <v>1730</v>
+        <v>1864</v>
       </c>
       <c r="D73" t="s">
         <v>126</v>
@@ -10732,7 +11025,7 @@
         <v>136</v>
       </c>
       <c r="J73" t="s">
-        <v>1731</v>
+        <v>1865</v>
       </c>
       <c r="K73" t="s">
         <v>186</v>
@@ -10750,16 +11043,16 @@
         <v>218</v>
       </c>
       <c r="Q73" t="s">
-        <v>1732</v>
+        <v>1866</v>
       </c>
       <c r="R73" t="s">
-        <v>1729</v>
+        <v>1863</v>
       </c>
       <c r="S73" t="s">
         <v>294</v>
       </c>
       <c r="T73" t="s">
-        <v>1663</v>
+        <v>1649</v>
       </c>
       <c r="U73" t="s">
         <v>334</v>
@@ -10776,10 +11069,10 @@
         <v>25</v>
       </c>
       <c r="B74" t="s">
-        <v>1733</v>
+        <v>1867</v>
       </c>
       <c r="C74" t="s">
-        <v>1734</v>
+        <v>1868</v>
       </c>
       <c r="D74" t="s">
         <v>126</v>
@@ -10797,7 +11090,7 @@
         <v>136</v>
       </c>
       <c r="J74" t="s">
-        <v>1735</v>
+        <v>1869</v>
       </c>
       <c r="K74" t="s">
         <v>186</v>
@@ -10815,16 +11108,16 @@
         <v>218</v>
       </c>
       <c r="Q74" t="s">
-        <v>1736</v>
+        <v>1870</v>
       </c>
       <c r="R74" t="s">
-        <v>1733</v>
+        <v>1867</v>
       </c>
       <c r="S74" t="s">
         <v>294</v>
       </c>
       <c r="T74" t="s">
-        <v>1663</v>
+        <v>1649</v>
       </c>
       <c r="U74" t="s">
         <v>334</v>
@@ -10841,10 +11134,10 @@
         <v>25</v>
       </c>
       <c r="B75" t="s">
-        <v>1666</v>
+        <v>1871</v>
       </c>
       <c r="C75" t="s">
-        <v>1667</v>
+        <v>1872</v>
       </c>
       <c r="D75" t="s">
         <v>126</v>
@@ -10862,7 +11155,7 @@
         <v>136</v>
       </c>
       <c r="J75" t="s">
-        <v>1678</v>
+        <v>1873</v>
       </c>
       <c r="K75" t="s">
         <v>186</v>
@@ -10880,16 +11173,16 @@
         <v>218</v>
       </c>
       <c r="Q75" t="s">
-        <v>1672</v>
+        <v>1874</v>
       </c>
       <c r="R75" t="s">
-        <v>1666</v>
+        <v>1871</v>
       </c>
       <c r="S75" t="s">
         <v>294</v>
       </c>
       <c r="T75" t="s">
-        <v>1624</v>
+        <v>1649</v>
       </c>
       <c r="U75" t="s">
         <v>334</v>
@@ -10906,10 +11199,10 @@
         <v>25</v>
       </c>
       <c r="B76" t="s">
-        <v>1737</v>
+        <v>1875</v>
       </c>
       <c r="C76" t="s">
-        <v>1738</v>
+        <v>1876</v>
       </c>
       <c r="D76" t="s">
         <v>126</v>
@@ -10927,7 +11220,7 @@
         <v>136</v>
       </c>
       <c r="J76" t="s">
-        <v>1739</v>
+        <v>1877</v>
       </c>
       <c r="K76" t="s">
         <v>186</v>
@@ -10945,16 +11238,16 @@
         <v>218</v>
       </c>
       <c r="Q76" t="s">
-        <v>1740</v>
+        <v>1878</v>
       </c>
       <c r="R76" t="s">
-        <v>1737</v>
+        <v>1875</v>
       </c>
       <c r="S76" t="s">
         <v>294</v>
       </c>
       <c r="T76" t="s">
-        <v>1666</v>
+        <v>1649</v>
       </c>
       <c r="U76" t="s">
         <v>334</v>
@@ -10971,10 +11264,10 @@
         <v>25</v>
       </c>
       <c r="B77" t="s">
-        <v>1741</v>
+        <v>1879</v>
       </c>
       <c r="C77" t="s">
-        <v>1742</v>
+        <v>1880</v>
       </c>
       <c r="D77" t="s">
         <v>126</v>
@@ -10992,7 +11285,7 @@
         <v>136</v>
       </c>
       <c r="J77" t="s">
-        <v>1743</v>
+        <v>1881</v>
       </c>
       <c r="K77" t="s">
         <v>186</v>
@@ -11010,16 +11303,16 @@
         <v>218</v>
       </c>
       <c r="Q77" t="s">
-        <v>1744</v>
+        <v>1882</v>
       </c>
       <c r="R77" t="s">
-        <v>1745</v>
+        <v>1879</v>
       </c>
       <c r="S77" t="s">
         <v>294</v>
       </c>
       <c r="T77" t="s">
-        <v>1666</v>
+        <v>1649</v>
       </c>
       <c r="U77" t="s">
         <v>334</v>
@@ -11036,10 +11329,10 @@
         <v>25</v>
       </c>
       <c r="B78" t="s">
-        <v>1746</v>
+        <v>1883</v>
       </c>
       <c r="C78" t="s">
-        <v>1747</v>
+        <v>1884</v>
       </c>
       <c r="D78" t="s">
         <v>126</v>
@@ -11057,7 +11350,7 @@
         <v>136</v>
       </c>
       <c r="J78" t="s">
-        <v>1748</v>
+        <v>1885</v>
       </c>
       <c r="K78" t="s">
         <v>186</v>
@@ -11075,16 +11368,16 @@
         <v>218</v>
       </c>
       <c r="Q78" t="s">
-        <v>1749</v>
+        <v>1886</v>
       </c>
       <c r="R78" t="s">
-        <v>1750</v>
+        <v>1883</v>
       </c>
       <c r="S78" t="s">
         <v>294</v>
       </c>
       <c r="T78" t="s">
-        <v>1666</v>
+        <v>1649</v>
       </c>
       <c r="U78" t="s">
         <v>334</v>
@@ -11101,10 +11394,10 @@
         <v>25</v>
       </c>
       <c r="B79" t="s">
-        <v>1668</v>
+        <v>1887</v>
       </c>
       <c r="C79" t="s">
-        <v>1669</v>
+        <v>1892</v>
       </c>
       <c r="D79" t="s">
         <v>126</v>
@@ -11122,7 +11415,7 @@
         <v>136</v>
       </c>
       <c r="J79" t="s">
-        <v>1677</v>
+        <v>1888</v>
       </c>
       <c r="K79" t="s">
         <v>186</v>
@@ -11140,16 +11433,16 @@
         <v>218</v>
       </c>
       <c r="Q79" t="s">
-        <v>1673</v>
+        <v>1889</v>
       </c>
       <c r="R79" t="s">
-        <v>1668</v>
+        <v>1887</v>
       </c>
       <c r="S79" t="s">
         <v>294</v>
       </c>
       <c r="T79" t="s">
-        <v>1624</v>
+        <v>1649</v>
       </c>
       <c r="U79" t="s">
         <v>334</v>
@@ -11166,10 +11459,10 @@
         <v>25</v>
       </c>
       <c r="B80" t="s">
-        <v>1751</v>
+        <v>1890</v>
       </c>
       <c r="C80" t="s">
-        <v>1752</v>
+        <v>1891</v>
       </c>
       <c r="D80" t="s">
         <v>126</v>
@@ -11187,7 +11480,7 @@
         <v>136</v>
       </c>
       <c r="J80" t="s">
-        <v>1753</v>
+        <v>1893</v>
       </c>
       <c r="K80" t="s">
         <v>186</v>
@@ -11205,16 +11498,16 @@
         <v>218</v>
       </c>
       <c r="Q80" t="s">
-        <v>1754</v>
+        <v>1894</v>
       </c>
       <c r="R80" t="s">
-        <v>1751</v>
+        <v>1890</v>
       </c>
       <c r="S80" t="s">
         <v>294</v>
       </c>
       <c r="T80" t="s">
-        <v>1668</v>
+        <v>1649</v>
       </c>
       <c r="U80" t="s">
         <v>334</v>
@@ -11231,10 +11524,10 @@
         <v>25</v>
       </c>
       <c r="B81" t="s">
-        <v>1755</v>
+        <v>1895</v>
       </c>
       <c r="C81" t="s">
-        <v>1756</v>
+        <v>1896</v>
       </c>
       <c r="D81" t="s">
         <v>126</v>
@@ -11252,7 +11545,7 @@
         <v>136</v>
       </c>
       <c r="J81" t="s">
-        <v>1757</v>
+        <v>1897</v>
       </c>
       <c r="K81" t="s">
         <v>186</v>
@@ -11270,16 +11563,16 @@
         <v>218</v>
       </c>
       <c r="Q81" t="s">
-        <v>1758</v>
+        <v>1898</v>
       </c>
       <c r="R81" t="s">
-        <v>1755</v>
+        <v>1895</v>
       </c>
       <c r="S81" t="s">
         <v>294</v>
       </c>
       <c r="T81" t="s">
-        <v>1668</v>
+        <v>1649</v>
       </c>
       <c r="U81" t="s">
         <v>334</v>
@@ -11296,10 +11589,10 @@
         <v>25</v>
       </c>
       <c r="B82" t="s">
-        <v>1674</v>
+        <v>1902</v>
       </c>
       <c r="C82" t="s">
-        <v>1675</v>
+        <v>1899</v>
       </c>
       <c r="D82" t="s">
         <v>126</v>
@@ -11317,7 +11610,7 @@
         <v>136</v>
       </c>
       <c r="J82" t="s">
-        <v>1676</v>
+        <v>1900</v>
       </c>
       <c r="K82" t="s">
         <v>186</v>
@@ -11335,16 +11628,16 @@
         <v>218</v>
       </c>
       <c r="Q82" t="s">
-        <v>1680</v>
+        <v>1901</v>
       </c>
       <c r="R82" t="s">
-        <v>1674</v>
+        <v>1902</v>
       </c>
       <c r="S82" t="s">
         <v>294</v>
       </c>
       <c r="T82" t="s">
-        <v>1624</v>
+        <v>1649</v>
       </c>
       <c r="U82" t="s">
         <v>334</v>
@@ -11361,10 +11654,10 @@
         <v>25</v>
       </c>
       <c r="B83" t="s">
-        <v>1759</v>
+        <v>1903</v>
       </c>
       <c r="C83" t="s">
-        <v>1760</v>
+        <v>1904</v>
       </c>
       <c r="D83" t="s">
         <v>126</v>
@@ -11382,7 +11675,7 @@
         <v>136</v>
       </c>
       <c r="J83" t="s">
-        <v>1761</v>
+        <v>1905</v>
       </c>
       <c r="K83" t="s">
         <v>186</v>
@@ -11400,16 +11693,16 @@
         <v>218</v>
       </c>
       <c r="Q83" t="s">
-        <v>1762</v>
+        <v>1906</v>
       </c>
       <c r="R83" t="s">
-        <v>1759</v>
+        <v>1907</v>
       </c>
       <c r="S83" t="s">
         <v>294</v>
       </c>
       <c r="T83" t="s">
-        <v>1674</v>
+        <v>1649</v>
       </c>
       <c r="U83" t="s">
         <v>334</v>
@@ -11426,10 +11719,10 @@
         <v>25</v>
       </c>
       <c r="B84" t="s">
-        <v>1763</v>
+        <v>1653</v>
       </c>
       <c r="C84" t="s">
-        <v>1764</v>
+        <v>1654</v>
       </c>
       <c r="D84" t="s">
         <v>126</v>
@@ -11447,7 +11740,7 @@
         <v>136</v>
       </c>
       <c r="J84" t="s">
-        <v>1765</v>
+        <v>1655</v>
       </c>
       <c r="K84" t="s">
         <v>186</v>
@@ -11465,16 +11758,16 @@
         <v>218</v>
       </c>
       <c r="Q84" t="s">
-        <v>1766</v>
+        <v>1656</v>
       </c>
       <c r="R84" t="s">
-        <v>1763</v>
+        <v>1653</v>
       </c>
       <c r="S84" t="s">
         <v>294</v>
       </c>
       <c r="T84" t="s">
-        <v>1674</v>
+        <v>1624</v>
       </c>
       <c r="U84" t="s">
         <v>334</v>
@@ -11491,10 +11784,10 @@
         <v>25</v>
       </c>
       <c r="B85" t="s">
-        <v>1767</v>
+        <v>1701</v>
       </c>
       <c r="C85" t="s">
-        <v>1768</v>
+        <v>1702</v>
       </c>
       <c r="D85" t="s">
         <v>126</v>
@@ -11512,7 +11805,7 @@
         <v>136</v>
       </c>
       <c r="J85" t="s">
-        <v>1769</v>
+        <v>1703</v>
       </c>
       <c r="K85" t="s">
         <v>186</v>
@@ -11530,16 +11823,16 @@
         <v>218</v>
       </c>
       <c r="Q85" t="s">
-        <v>1770</v>
+        <v>1704</v>
       </c>
       <c r="R85" t="s">
-        <v>1767</v>
+        <v>1701</v>
       </c>
       <c r="S85" t="s">
         <v>294</v>
       </c>
       <c r="T85" t="s">
-        <v>1674</v>
+        <v>1653</v>
       </c>
       <c r="U85" t="s">
         <v>334</v>
@@ -11556,10 +11849,10 @@
         <v>25</v>
       </c>
       <c r="B86" t="s">
-        <v>1771</v>
+        <v>1705</v>
       </c>
       <c r="C86" t="s">
-        <v>1772</v>
+        <v>1706</v>
       </c>
       <c r="D86" t="s">
         <v>126</v>
@@ -11577,7 +11870,7 @@
         <v>136</v>
       </c>
       <c r="J86" t="s">
-        <v>1773</v>
+        <v>1707</v>
       </c>
       <c r="K86" t="s">
         <v>186</v>
@@ -11595,16 +11888,16 @@
         <v>218</v>
       </c>
       <c r="Q86" t="s">
-        <v>1774</v>
+        <v>1708</v>
       </c>
       <c r="R86" t="s">
-        <v>1771</v>
+        <v>1705</v>
       </c>
       <c r="S86" t="s">
         <v>294</v>
       </c>
       <c r="T86" t="s">
-        <v>1674</v>
+        <v>1653</v>
       </c>
       <c r="U86" t="s">
         <v>334</v>
@@ -11621,10 +11914,10 @@
         <v>25</v>
       </c>
       <c r="B87" t="s">
-        <v>1681</v>
+        <v>1709</v>
       </c>
       <c r="C87" t="s">
-        <v>1682</v>
+        <v>1710</v>
       </c>
       <c r="D87" t="s">
         <v>126</v>
@@ -11642,7 +11935,7 @@
         <v>136</v>
       </c>
       <c r="J87" t="s">
-        <v>1683</v>
+        <v>1711</v>
       </c>
       <c r="K87" t="s">
         <v>186</v>
@@ -11660,16 +11953,16 @@
         <v>218</v>
       </c>
       <c r="Q87" t="s">
-        <v>1684</v>
+        <v>1712</v>
       </c>
       <c r="R87" t="s">
-        <v>1681</v>
+        <v>1709</v>
       </c>
       <c r="S87" t="s">
         <v>294</v>
       </c>
       <c r="T87" t="s">
-        <v>1624</v>
+        <v>1653</v>
       </c>
       <c r="U87" t="s">
         <v>334</v>
@@ -11686,10 +11979,10 @@
         <v>25</v>
       </c>
       <c r="B88" t="s">
-        <v>1775</v>
+        <v>1657</v>
       </c>
       <c r="C88" t="s">
-        <v>1776</v>
+        <v>1658</v>
       </c>
       <c r="D88" t="s">
         <v>126</v>
@@ -11707,7 +12000,7 @@
         <v>136</v>
       </c>
       <c r="J88" t="s">
-        <v>1777</v>
+        <v>1659</v>
       </c>
       <c r="K88" t="s">
         <v>186</v>
@@ -11725,16 +12018,16 @@
         <v>218</v>
       </c>
       <c r="Q88" t="s">
-        <v>1778</v>
+        <v>1660</v>
       </c>
       <c r="R88" t="s">
-        <v>1775</v>
+        <v>1657</v>
       </c>
       <c r="S88" t="s">
         <v>294</v>
       </c>
       <c r="T88" t="s">
-        <v>1681</v>
+        <v>1624</v>
       </c>
       <c r="U88" t="s">
         <v>334</v>
@@ -11751,10 +12044,10 @@
         <v>25</v>
       </c>
       <c r="B89" t="s">
-        <v>1779</v>
+        <v>1697</v>
       </c>
       <c r="C89" t="s">
-        <v>1780</v>
+        <v>1698</v>
       </c>
       <c r="D89" t="s">
         <v>126</v>
@@ -11772,7 +12065,7 @@
         <v>136</v>
       </c>
       <c r="J89" t="s">
-        <v>1781</v>
+        <v>1699</v>
       </c>
       <c r="K89" t="s">
         <v>186</v>
@@ -11790,16 +12083,16 @@
         <v>218</v>
       </c>
       <c r="Q89" t="s">
-        <v>1782</v>
+        <v>1700</v>
       </c>
       <c r="R89" t="s">
-        <v>1779</v>
+        <v>1697</v>
       </c>
       <c r="S89" t="s">
         <v>294</v>
       </c>
       <c r="T89" t="s">
-        <v>1681</v>
+        <v>1657</v>
       </c>
       <c r="U89" t="s">
         <v>334</v>
@@ -11816,10 +12109,10 @@
         <v>25</v>
       </c>
       <c r="B90" t="s">
-        <v>1685</v>
+        <v>1661</v>
       </c>
       <c r="C90" t="s">
-        <v>1686</v>
+        <v>1662</v>
       </c>
       <c r="D90" t="s">
         <v>126</v>
@@ -11837,7 +12130,7 @@
         <v>136</v>
       </c>
       <c r="J90" t="s">
-        <v>1687</v>
+        <v>1679</v>
       </c>
       <c r="K90" t="s">
         <v>186</v>
@@ -11855,10 +12148,10 @@
         <v>218</v>
       </c>
       <c r="Q90" t="s">
-        <v>1688</v>
+        <v>1670</v>
       </c>
       <c r="R90" t="s">
-        <v>1685</v>
+        <v>1661</v>
       </c>
       <c r="S90" t="s">
         <v>294</v>
@@ -11881,10 +12174,10 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>1783</v>
+        <v>1713</v>
       </c>
       <c r="C91" t="s">
-        <v>1784</v>
+        <v>1714</v>
       </c>
       <c r="D91" t="s">
         <v>126</v>
@@ -11902,7 +12195,7 @@
         <v>136</v>
       </c>
       <c r="J91" t="s">
-        <v>1785</v>
+        <v>1715</v>
       </c>
       <c r="K91" t="s">
         <v>186</v>
@@ -11920,16 +12213,16 @@
         <v>218</v>
       </c>
       <c r="Q91" t="s">
-        <v>1786</v>
+        <v>1716</v>
       </c>
       <c r="R91" t="s">
-        <v>1783</v>
+        <v>1713</v>
       </c>
       <c r="S91" t="s">
         <v>294</v>
       </c>
       <c r="T91" t="s">
-        <v>1685</v>
+        <v>1661</v>
       </c>
       <c r="U91" t="s">
         <v>334</v>
@@ -11946,10 +12239,10 @@
         <v>25</v>
       </c>
       <c r="B92" t="s">
-        <v>1787</v>
+        <v>1717</v>
       </c>
       <c r="C92" t="s">
-        <v>1788</v>
+        <v>1718</v>
       </c>
       <c r="D92" t="s">
         <v>126</v>
@@ -11967,7 +12260,7 @@
         <v>136</v>
       </c>
       <c r="J92" t="s">
-        <v>1789</v>
+        <v>1719</v>
       </c>
       <c r="K92" t="s">
         <v>186</v>
@@ -11985,16 +12278,16 @@
         <v>218</v>
       </c>
       <c r="Q92" t="s">
-        <v>1790</v>
+        <v>1720</v>
       </c>
       <c r="R92" t="s">
-        <v>1787</v>
+        <v>1717</v>
       </c>
       <c r="S92" t="s">
         <v>294</v>
       </c>
       <c r="T92" t="s">
-        <v>1685</v>
+        <v>1661</v>
       </c>
       <c r="U92" t="s">
         <v>334</v>
@@ -12011,10 +12304,10 @@
         <v>25</v>
       </c>
       <c r="B93" t="s">
-        <v>1689</v>
+        <v>1721</v>
       </c>
       <c r="C93" t="s">
-        <v>1690</v>
+        <v>1722</v>
       </c>
       <c r="D93" t="s">
         <v>126</v>
@@ -12032,7 +12325,7 @@
         <v>136</v>
       </c>
       <c r="J93" t="s">
-        <v>1691</v>
+        <v>1723</v>
       </c>
       <c r="K93" t="s">
         <v>186</v>
@@ -12050,16 +12343,16 @@
         <v>218</v>
       </c>
       <c r="Q93" t="s">
-        <v>1692</v>
+        <v>1724</v>
       </c>
       <c r="R93" t="s">
-        <v>1689</v>
+        <v>1721</v>
       </c>
       <c r="S93" t="s">
         <v>294</v>
       </c>
       <c r="T93" t="s">
-        <v>1624</v>
+        <v>1661</v>
       </c>
       <c r="U93" t="s">
         <v>334</v>
@@ -12076,10 +12369,10 @@
         <v>25</v>
       </c>
       <c r="B94" t="s">
-        <v>1791</v>
+        <v>1663</v>
       </c>
       <c r="C94" t="s">
-        <v>1792</v>
+        <v>1664</v>
       </c>
       <c r="D94" t="s">
         <v>126</v>
@@ -12097,7 +12390,7 @@
         <v>136</v>
       </c>
       <c r="J94" t="s">
-        <v>1793</v>
+        <v>1665</v>
       </c>
       <c r="K94" t="s">
         <v>186</v>
@@ -12115,16 +12408,16 @@
         <v>218</v>
       </c>
       <c r="Q94" t="s">
-        <v>1794</v>
+        <v>1671</v>
       </c>
       <c r="R94" t="s">
-        <v>1791</v>
+        <v>1663</v>
       </c>
       <c r="S94" t="s">
         <v>294</v>
       </c>
       <c r="T94" t="s">
-        <v>1689</v>
+        <v>1624</v>
       </c>
       <c r="U94" t="s">
         <v>334</v>
@@ -12141,10 +12434,10 @@
         <v>25</v>
       </c>
       <c r="B95" t="s">
-        <v>1795</v>
+        <v>1725</v>
       </c>
       <c r="C95" t="s">
-        <v>1796</v>
+        <v>1726</v>
       </c>
       <c r="D95" t="s">
         <v>126</v>
@@ -12162,7 +12455,7 @@
         <v>136</v>
       </c>
       <c r="J95" t="s">
-        <v>1797</v>
+        <v>1727</v>
       </c>
       <c r="K95" t="s">
         <v>186</v>
@@ -12180,16 +12473,16 @@
         <v>218</v>
       </c>
       <c r="Q95" t="s">
-        <v>1798</v>
+        <v>1728</v>
       </c>
       <c r="R95" t="s">
-        <v>1795</v>
+        <v>1725</v>
       </c>
       <c r="S95" t="s">
         <v>294</v>
       </c>
       <c r="T95" t="s">
-        <v>1689</v>
+        <v>1663</v>
       </c>
       <c r="U95" t="s">
         <v>334</v>
@@ -12206,10 +12499,10 @@
         <v>25</v>
       </c>
       <c r="B96" t="s">
-        <v>1799</v>
+        <v>1729</v>
       </c>
       <c r="C96" t="s">
-        <v>1800</v>
+        <v>1730</v>
       </c>
       <c r="D96" t="s">
         <v>126</v>
@@ -12227,7 +12520,7 @@
         <v>136</v>
       </c>
       <c r="J96" t="s">
-        <v>1801</v>
+        <v>1731</v>
       </c>
       <c r="K96" t="s">
         <v>186</v>
@@ -12245,16 +12538,16 @@
         <v>218</v>
       </c>
       <c r="Q96" t="s">
-        <v>1802</v>
+        <v>1732</v>
       </c>
       <c r="R96" t="s">
-        <v>1799</v>
+        <v>1729</v>
       </c>
       <c r="S96" t="s">
         <v>294</v>
       </c>
       <c r="T96" t="s">
-        <v>1689</v>
+        <v>1663</v>
       </c>
       <c r="U96" t="s">
         <v>334</v>
@@ -12271,10 +12564,10 @@
         <v>25</v>
       </c>
       <c r="B97" t="s">
-        <v>1693</v>
+        <v>1733</v>
       </c>
       <c r="C97" t="s">
-        <v>1694</v>
+        <v>1734</v>
       </c>
       <c r="D97" t="s">
         <v>126</v>
@@ -12292,7 +12585,7 @@
         <v>136</v>
       </c>
       <c r="J97" t="s">
-        <v>1695</v>
+        <v>1735</v>
       </c>
       <c r="K97" t="s">
         <v>186</v>
@@ -12310,16 +12603,16 @@
         <v>218</v>
       </c>
       <c r="Q97" t="s">
-        <v>1696</v>
+        <v>1736</v>
       </c>
       <c r="R97" t="s">
-        <v>1693</v>
+        <v>1733</v>
       </c>
       <c r="S97" t="s">
         <v>294</v>
       </c>
       <c r="T97" t="s">
-        <v>1624</v>
+        <v>1663</v>
       </c>
       <c r="U97" t="s">
         <v>334</v>
@@ -12336,10 +12629,10 @@
         <v>25</v>
       </c>
       <c r="B98" t="s">
-        <v>1803</v>
+        <v>1666</v>
       </c>
       <c r="C98" t="s">
-        <v>1804</v>
+        <v>1667</v>
       </c>
       <c r="D98" t="s">
         <v>126</v>
@@ -12357,7 +12650,7 @@
         <v>136</v>
       </c>
       <c r="J98" t="s">
-        <v>1805</v>
+        <v>1678</v>
       </c>
       <c r="K98" t="s">
         <v>186</v>
@@ -12375,16 +12668,16 @@
         <v>218</v>
       </c>
       <c r="Q98" t="s">
-        <v>1806</v>
+        <v>1672</v>
       </c>
       <c r="R98" t="s">
-        <v>1803</v>
+        <v>1666</v>
       </c>
       <c r="S98" t="s">
         <v>294</v>
       </c>
       <c r="T98" t="s">
-        <v>1693</v>
+        <v>1624</v>
       </c>
       <c r="U98" t="s">
         <v>334</v>
@@ -12401,10 +12694,10 @@
         <v>25</v>
       </c>
       <c r="B99" t="s">
-        <v>1807</v>
+        <v>1737</v>
       </c>
       <c r="C99" t="s">
-        <v>1808</v>
+        <v>1738</v>
       </c>
       <c r="D99" t="s">
         <v>126</v>
@@ -12422,7 +12715,7 @@
         <v>136</v>
       </c>
       <c r="J99" t="s">
-        <v>1809</v>
+        <v>1739</v>
       </c>
       <c r="K99" t="s">
         <v>186</v>
@@ -12440,16 +12733,16 @@
         <v>218</v>
       </c>
       <c r="Q99" t="s">
-        <v>1810</v>
+        <v>1740</v>
       </c>
       <c r="R99" t="s">
-        <v>1807</v>
+        <v>1737</v>
       </c>
       <c r="S99" t="s">
         <v>294</v>
       </c>
       <c r="T99" t="s">
-        <v>1693</v>
+        <v>1666</v>
       </c>
       <c r="U99" t="s">
         <v>334</v>
@@ -12466,10 +12759,10 @@
         <v>25</v>
       </c>
       <c r="B100" t="s">
-        <v>1811</v>
+        <v>1741</v>
       </c>
       <c r="C100" t="s">
-        <v>1812</v>
+        <v>1742</v>
       </c>
       <c r="D100" t="s">
         <v>126</v>
@@ -12487,7 +12780,7 @@
         <v>136</v>
       </c>
       <c r="J100" t="s">
-        <v>1813</v>
+        <v>1743</v>
       </c>
       <c r="K100" t="s">
         <v>186</v>
@@ -12505,16 +12798,16 @@
         <v>218</v>
       </c>
       <c r="Q100" t="s">
-        <v>1814</v>
+        <v>1744</v>
       </c>
       <c r="R100" t="s">
-        <v>1811</v>
+        <v>1745</v>
       </c>
       <c r="S100" t="s">
         <v>294</v>
       </c>
       <c r="T100" t="s">
-        <v>1693</v>
+        <v>1666</v>
       </c>
       <c r="U100" t="s">
         <v>334</v>
@@ -12523,6 +12816,1501 @@
         <v>187</v>
       </c>
       <c r="Y100" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="101" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B101" t="s">
+        <v>1746</v>
+      </c>
+      <c r="C101" t="s">
+        <v>1747</v>
+      </c>
+      <c r="D101" t="s">
+        <v>126</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G101" t="s">
+        <v>134</v>
+      </c>
+      <c r="H101" t="s">
+        <v>136</v>
+      </c>
+      <c r="I101" t="s">
+        <v>136</v>
+      </c>
+      <c r="J101" t="s">
+        <v>1748</v>
+      </c>
+      <c r="K101" t="s">
+        <v>186</v>
+      </c>
+      <c r="L101" t="s">
+        <v>187</v>
+      </c>
+      <c r="N101" t="s">
+        <v>188</v>
+      </c>
+      <c r="O101" t="s">
+        <v>209</v>
+      </c>
+      <c r="P101" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q101" t="s">
+        <v>1749</v>
+      </c>
+      <c r="R101" t="s">
+        <v>1750</v>
+      </c>
+      <c r="S101" t="s">
+        <v>294</v>
+      </c>
+      <c r="T101" t="s">
+        <v>1666</v>
+      </c>
+      <c r="U101" t="s">
+        <v>334</v>
+      </c>
+      <c r="V101" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y101" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="102" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B102" t="s">
+        <v>1668</v>
+      </c>
+      <c r="C102" t="s">
+        <v>1669</v>
+      </c>
+      <c r="D102" t="s">
+        <v>126</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G102" t="s">
+        <v>134</v>
+      </c>
+      <c r="H102" t="s">
+        <v>136</v>
+      </c>
+      <c r="I102" t="s">
+        <v>136</v>
+      </c>
+      <c r="J102" t="s">
+        <v>1677</v>
+      </c>
+      <c r="K102" t="s">
+        <v>186</v>
+      </c>
+      <c r="L102" t="s">
+        <v>187</v>
+      </c>
+      <c r="N102" t="s">
+        <v>188</v>
+      </c>
+      <c r="O102" t="s">
+        <v>209</v>
+      </c>
+      <c r="P102" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q102" t="s">
+        <v>1673</v>
+      </c>
+      <c r="R102" t="s">
+        <v>1668</v>
+      </c>
+      <c r="S102" t="s">
+        <v>294</v>
+      </c>
+      <c r="T102" t="s">
+        <v>1624</v>
+      </c>
+      <c r="U102" t="s">
+        <v>334</v>
+      </c>
+      <c r="V102" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y102" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="103" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B103" t="s">
+        <v>1751</v>
+      </c>
+      <c r="C103" t="s">
+        <v>1752</v>
+      </c>
+      <c r="D103" t="s">
+        <v>126</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G103" t="s">
+        <v>134</v>
+      </c>
+      <c r="H103" t="s">
+        <v>136</v>
+      </c>
+      <c r="I103" t="s">
+        <v>136</v>
+      </c>
+      <c r="J103" t="s">
+        <v>1753</v>
+      </c>
+      <c r="K103" t="s">
+        <v>186</v>
+      </c>
+      <c r="L103" t="s">
+        <v>187</v>
+      </c>
+      <c r="N103" t="s">
+        <v>188</v>
+      </c>
+      <c r="O103" t="s">
+        <v>209</v>
+      </c>
+      <c r="P103" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q103" t="s">
+        <v>1754</v>
+      </c>
+      <c r="R103" t="s">
+        <v>1751</v>
+      </c>
+      <c r="S103" t="s">
+        <v>294</v>
+      </c>
+      <c r="T103" t="s">
+        <v>1668</v>
+      </c>
+      <c r="U103" t="s">
+        <v>334</v>
+      </c>
+      <c r="V103" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y103" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="104" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B104" t="s">
+        <v>1755</v>
+      </c>
+      <c r="C104" t="s">
+        <v>1756</v>
+      </c>
+      <c r="D104" t="s">
+        <v>126</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G104" t="s">
+        <v>134</v>
+      </c>
+      <c r="H104" t="s">
+        <v>136</v>
+      </c>
+      <c r="I104" t="s">
+        <v>136</v>
+      </c>
+      <c r="J104" t="s">
+        <v>1757</v>
+      </c>
+      <c r="K104" t="s">
+        <v>186</v>
+      </c>
+      <c r="L104" t="s">
+        <v>187</v>
+      </c>
+      <c r="N104" t="s">
+        <v>188</v>
+      </c>
+      <c r="O104" t="s">
+        <v>209</v>
+      </c>
+      <c r="P104" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q104" t="s">
+        <v>1758</v>
+      </c>
+      <c r="R104" t="s">
+        <v>1755</v>
+      </c>
+      <c r="S104" t="s">
+        <v>294</v>
+      </c>
+      <c r="T104" t="s">
+        <v>1668</v>
+      </c>
+      <c r="U104" t="s">
+        <v>334</v>
+      </c>
+      <c r="V104" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y104" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="105" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B105" t="s">
+        <v>1674</v>
+      </c>
+      <c r="C105" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D105" t="s">
+        <v>126</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G105" t="s">
+        <v>134</v>
+      </c>
+      <c r="H105" t="s">
+        <v>136</v>
+      </c>
+      <c r="I105" t="s">
+        <v>136</v>
+      </c>
+      <c r="J105" t="s">
+        <v>1676</v>
+      </c>
+      <c r="K105" t="s">
+        <v>186</v>
+      </c>
+      <c r="L105" t="s">
+        <v>187</v>
+      </c>
+      <c r="N105" t="s">
+        <v>188</v>
+      </c>
+      <c r="O105" t="s">
+        <v>209</v>
+      </c>
+      <c r="P105" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q105" t="s">
+        <v>1680</v>
+      </c>
+      <c r="R105" t="s">
+        <v>1674</v>
+      </c>
+      <c r="S105" t="s">
+        <v>294</v>
+      </c>
+      <c r="T105" t="s">
+        <v>1624</v>
+      </c>
+      <c r="U105" t="s">
+        <v>334</v>
+      </c>
+      <c r="V105" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y105" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="106" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B106" t="s">
+        <v>1759</v>
+      </c>
+      <c r="C106" t="s">
+        <v>1760</v>
+      </c>
+      <c r="D106" t="s">
+        <v>126</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G106" t="s">
+        <v>134</v>
+      </c>
+      <c r="H106" t="s">
+        <v>136</v>
+      </c>
+      <c r="I106" t="s">
+        <v>136</v>
+      </c>
+      <c r="J106" t="s">
+        <v>1761</v>
+      </c>
+      <c r="K106" t="s">
+        <v>186</v>
+      </c>
+      <c r="L106" t="s">
+        <v>187</v>
+      </c>
+      <c r="N106" t="s">
+        <v>188</v>
+      </c>
+      <c r="O106" t="s">
+        <v>209</v>
+      </c>
+      <c r="P106" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q106" t="s">
+        <v>1762</v>
+      </c>
+      <c r="R106" t="s">
+        <v>1759</v>
+      </c>
+      <c r="S106" t="s">
+        <v>294</v>
+      </c>
+      <c r="T106" t="s">
+        <v>1674</v>
+      </c>
+      <c r="U106" t="s">
+        <v>334</v>
+      </c>
+      <c r="V106" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y106" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="107" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B107" t="s">
+        <v>1763</v>
+      </c>
+      <c r="C107" t="s">
+        <v>1764</v>
+      </c>
+      <c r="D107" t="s">
+        <v>126</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G107" t="s">
+        <v>134</v>
+      </c>
+      <c r="H107" t="s">
+        <v>136</v>
+      </c>
+      <c r="I107" t="s">
+        <v>136</v>
+      </c>
+      <c r="J107" t="s">
+        <v>1765</v>
+      </c>
+      <c r="K107" t="s">
+        <v>186</v>
+      </c>
+      <c r="L107" t="s">
+        <v>187</v>
+      </c>
+      <c r="N107" t="s">
+        <v>188</v>
+      </c>
+      <c r="O107" t="s">
+        <v>209</v>
+      </c>
+      <c r="P107" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q107" t="s">
+        <v>1766</v>
+      </c>
+      <c r="R107" t="s">
+        <v>1763</v>
+      </c>
+      <c r="S107" t="s">
+        <v>294</v>
+      </c>
+      <c r="T107" t="s">
+        <v>1674</v>
+      </c>
+      <c r="U107" t="s">
+        <v>334</v>
+      </c>
+      <c r="V107" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y107" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="108" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B108" t="s">
+        <v>1767</v>
+      </c>
+      <c r="C108" t="s">
+        <v>1768</v>
+      </c>
+      <c r="D108" t="s">
+        <v>126</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G108" t="s">
+        <v>134</v>
+      </c>
+      <c r="H108" t="s">
+        <v>136</v>
+      </c>
+      <c r="I108" t="s">
+        <v>136</v>
+      </c>
+      <c r="J108" t="s">
+        <v>1769</v>
+      </c>
+      <c r="K108" t="s">
+        <v>186</v>
+      </c>
+      <c r="L108" t="s">
+        <v>187</v>
+      </c>
+      <c r="N108" t="s">
+        <v>188</v>
+      </c>
+      <c r="O108" t="s">
+        <v>209</v>
+      </c>
+      <c r="P108" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q108" t="s">
+        <v>1770</v>
+      </c>
+      <c r="R108" t="s">
+        <v>1767</v>
+      </c>
+      <c r="S108" t="s">
+        <v>294</v>
+      </c>
+      <c r="T108" t="s">
+        <v>1674</v>
+      </c>
+      <c r="U108" t="s">
+        <v>334</v>
+      </c>
+      <c r="V108" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y108" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="109" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B109" t="s">
+        <v>1771</v>
+      </c>
+      <c r="C109" t="s">
+        <v>1772</v>
+      </c>
+      <c r="D109" t="s">
+        <v>126</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G109" t="s">
+        <v>134</v>
+      </c>
+      <c r="H109" t="s">
+        <v>136</v>
+      </c>
+      <c r="I109" t="s">
+        <v>136</v>
+      </c>
+      <c r="J109" t="s">
+        <v>1773</v>
+      </c>
+      <c r="K109" t="s">
+        <v>186</v>
+      </c>
+      <c r="L109" t="s">
+        <v>187</v>
+      </c>
+      <c r="N109" t="s">
+        <v>188</v>
+      </c>
+      <c r="O109" t="s">
+        <v>209</v>
+      </c>
+      <c r="P109" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q109" t="s">
+        <v>1774</v>
+      </c>
+      <c r="R109" t="s">
+        <v>1771</v>
+      </c>
+      <c r="S109" t="s">
+        <v>294</v>
+      </c>
+      <c r="T109" t="s">
+        <v>1674</v>
+      </c>
+      <c r="U109" t="s">
+        <v>334</v>
+      </c>
+      <c r="V109" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y109" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="110" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B110" t="s">
+        <v>1681</v>
+      </c>
+      <c r="C110" t="s">
+        <v>1682</v>
+      </c>
+      <c r="D110" t="s">
+        <v>126</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G110" t="s">
+        <v>134</v>
+      </c>
+      <c r="H110" t="s">
+        <v>136</v>
+      </c>
+      <c r="I110" t="s">
+        <v>136</v>
+      </c>
+      <c r="J110" t="s">
+        <v>1683</v>
+      </c>
+      <c r="K110" t="s">
+        <v>186</v>
+      </c>
+      <c r="L110" t="s">
+        <v>187</v>
+      </c>
+      <c r="N110" t="s">
+        <v>188</v>
+      </c>
+      <c r="O110" t="s">
+        <v>209</v>
+      </c>
+      <c r="P110" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q110" t="s">
+        <v>1684</v>
+      </c>
+      <c r="R110" t="s">
+        <v>1681</v>
+      </c>
+      <c r="S110" t="s">
+        <v>294</v>
+      </c>
+      <c r="T110" t="s">
+        <v>1624</v>
+      </c>
+      <c r="U110" t="s">
+        <v>334</v>
+      </c>
+      <c r="V110" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y110" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="111" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B111" t="s">
+        <v>1775</v>
+      </c>
+      <c r="C111" t="s">
+        <v>1776</v>
+      </c>
+      <c r="D111" t="s">
+        <v>126</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G111" t="s">
+        <v>134</v>
+      </c>
+      <c r="H111" t="s">
+        <v>136</v>
+      </c>
+      <c r="I111" t="s">
+        <v>136</v>
+      </c>
+      <c r="J111" t="s">
+        <v>1777</v>
+      </c>
+      <c r="K111" t="s">
+        <v>186</v>
+      </c>
+      <c r="L111" t="s">
+        <v>187</v>
+      </c>
+      <c r="N111" t="s">
+        <v>188</v>
+      </c>
+      <c r="O111" t="s">
+        <v>209</v>
+      </c>
+      <c r="P111" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q111" t="s">
+        <v>1778</v>
+      </c>
+      <c r="R111" t="s">
+        <v>1775</v>
+      </c>
+      <c r="S111" t="s">
+        <v>294</v>
+      </c>
+      <c r="T111" t="s">
+        <v>1681</v>
+      </c>
+      <c r="U111" t="s">
+        <v>334</v>
+      </c>
+      <c r="V111" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y111" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="112" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B112" t="s">
+        <v>1779</v>
+      </c>
+      <c r="C112" t="s">
+        <v>1780</v>
+      </c>
+      <c r="D112" t="s">
+        <v>126</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G112" t="s">
+        <v>134</v>
+      </c>
+      <c r="H112" t="s">
+        <v>136</v>
+      </c>
+      <c r="I112" t="s">
+        <v>136</v>
+      </c>
+      <c r="J112" t="s">
+        <v>1781</v>
+      </c>
+      <c r="K112" t="s">
+        <v>186</v>
+      </c>
+      <c r="L112" t="s">
+        <v>187</v>
+      </c>
+      <c r="N112" t="s">
+        <v>188</v>
+      </c>
+      <c r="O112" t="s">
+        <v>209</v>
+      </c>
+      <c r="P112" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q112" t="s">
+        <v>1782</v>
+      </c>
+      <c r="R112" t="s">
+        <v>1779</v>
+      </c>
+      <c r="S112" t="s">
+        <v>294</v>
+      </c>
+      <c r="T112" t="s">
+        <v>1681</v>
+      </c>
+      <c r="U112" t="s">
+        <v>334</v>
+      </c>
+      <c r="V112" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y112" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="113" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B113" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C113" t="s">
+        <v>1686</v>
+      </c>
+      <c r="D113" t="s">
+        <v>126</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G113" t="s">
+        <v>134</v>
+      </c>
+      <c r="H113" t="s">
+        <v>136</v>
+      </c>
+      <c r="I113" t="s">
+        <v>136</v>
+      </c>
+      <c r="J113" t="s">
+        <v>1687</v>
+      </c>
+      <c r="K113" t="s">
+        <v>186</v>
+      </c>
+      <c r="L113" t="s">
+        <v>187</v>
+      </c>
+      <c r="N113" t="s">
+        <v>188</v>
+      </c>
+      <c r="O113" t="s">
+        <v>209</v>
+      </c>
+      <c r="P113" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q113" t="s">
+        <v>1688</v>
+      </c>
+      <c r="R113" t="s">
+        <v>1685</v>
+      </c>
+      <c r="S113" t="s">
+        <v>294</v>
+      </c>
+      <c r="T113" t="s">
+        <v>1624</v>
+      </c>
+      <c r="U113" t="s">
+        <v>334</v>
+      </c>
+      <c r="V113" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y113" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="114" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B114" t="s">
+        <v>1783</v>
+      </c>
+      <c r="C114" t="s">
+        <v>1784</v>
+      </c>
+      <c r="D114" t="s">
+        <v>126</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G114" t="s">
+        <v>134</v>
+      </c>
+      <c r="H114" t="s">
+        <v>136</v>
+      </c>
+      <c r="I114" t="s">
+        <v>136</v>
+      </c>
+      <c r="J114" t="s">
+        <v>1785</v>
+      </c>
+      <c r="K114" t="s">
+        <v>186</v>
+      </c>
+      <c r="L114" t="s">
+        <v>187</v>
+      </c>
+      <c r="N114" t="s">
+        <v>188</v>
+      </c>
+      <c r="O114" t="s">
+        <v>209</v>
+      </c>
+      <c r="P114" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q114" t="s">
+        <v>1786</v>
+      </c>
+      <c r="R114" t="s">
+        <v>1783</v>
+      </c>
+      <c r="S114" t="s">
+        <v>294</v>
+      </c>
+      <c r="T114" t="s">
+        <v>1685</v>
+      </c>
+      <c r="U114" t="s">
+        <v>334</v>
+      </c>
+      <c r="V114" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y114" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="115" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B115" t="s">
+        <v>1787</v>
+      </c>
+      <c r="C115" t="s">
+        <v>1788</v>
+      </c>
+      <c r="D115" t="s">
+        <v>126</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G115" t="s">
+        <v>134</v>
+      </c>
+      <c r="H115" t="s">
+        <v>136</v>
+      </c>
+      <c r="I115" t="s">
+        <v>136</v>
+      </c>
+      <c r="J115" t="s">
+        <v>1789</v>
+      </c>
+      <c r="K115" t="s">
+        <v>186</v>
+      </c>
+      <c r="L115" t="s">
+        <v>187</v>
+      </c>
+      <c r="N115" t="s">
+        <v>188</v>
+      </c>
+      <c r="O115" t="s">
+        <v>209</v>
+      </c>
+      <c r="P115" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q115" t="s">
+        <v>1790</v>
+      </c>
+      <c r="R115" t="s">
+        <v>1787</v>
+      </c>
+      <c r="S115" t="s">
+        <v>294</v>
+      </c>
+      <c r="T115" t="s">
+        <v>1685</v>
+      </c>
+      <c r="U115" t="s">
+        <v>334</v>
+      </c>
+      <c r="V115" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y115" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="116" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B116" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C116" t="s">
+        <v>1690</v>
+      </c>
+      <c r="D116" t="s">
+        <v>126</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G116" t="s">
+        <v>134</v>
+      </c>
+      <c r="H116" t="s">
+        <v>136</v>
+      </c>
+      <c r="I116" t="s">
+        <v>136</v>
+      </c>
+      <c r="J116" t="s">
+        <v>1691</v>
+      </c>
+      <c r="K116" t="s">
+        <v>186</v>
+      </c>
+      <c r="L116" t="s">
+        <v>187</v>
+      </c>
+      <c r="N116" t="s">
+        <v>188</v>
+      </c>
+      <c r="O116" t="s">
+        <v>209</v>
+      </c>
+      <c r="P116" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q116" t="s">
+        <v>1692</v>
+      </c>
+      <c r="R116" t="s">
+        <v>1689</v>
+      </c>
+      <c r="S116" t="s">
+        <v>294</v>
+      </c>
+      <c r="T116" t="s">
+        <v>1624</v>
+      </c>
+      <c r="U116" t="s">
+        <v>334</v>
+      </c>
+      <c r="V116" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y116" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="117" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A117" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B117" t="s">
+        <v>1791</v>
+      </c>
+      <c r="C117" t="s">
+        <v>1792</v>
+      </c>
+      <c r="D117" t="s">
+        <v>126</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G117" t="s">
+        <v>134</v>
+      </c>
+      <c r="H117" t="s">
+        <v>136</v>
+      </c>
+      <c r="I117" t="s">
+        <v>136</v>
+      </c>
+      <c r="J117" t="s">
+        <v>1793</v>
+      </c>
+      <c r="K117" t="s">
+        <v>186</v>
+      </c>
+      <c r="L117" t="s">
+        <v>187</v>
+      </c>
+      <c r="N117" t="s">
+        <v>188</v>
+      </c>
+      <c r="O117" t="s">
+        <v>209</v>
+      </c>
+      <c r="P117" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q117" t="s">
+        <v>1794</v>
+      </c>
+      <c r="R117" t="s">
+        <v>1791</v>
+      </c>
+      <c r="S117" t="s">
+        <v>294</v>
+      </c>
+      <c r="T117" t="s">
+        <v>1689</v>
+      </c>
+      <c r="U117" t="s">
+        <v>334</v>
+      </c>
+      <c r="V117" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y117" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="118" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B118" t="s">
+        <v>1795</v>
+      </c>
+      <c r="C118" t="s">
+        <v>1796</v>
+      </c>
+      <c r="D118" t="s">
+        <v>126</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G118" t="s">
+        <v>134</v>
+      </c>
+      <c r="H118" t="s">
+        <v>136</v>
+      </c>
+      <c r="I118" t="s">
+        <v>136</v>
+      </c>
+      <c r="J118" t="s">
+        <v>1797</v>
+      </c>
+      <c r="K118" t="s">
+        <v>186</v>
+      </c>
+      <c r="L118" t="s">
+        <v>187</v>
+      </c>
+      <c r="N118" t="s">
+        <v>188</v>
+      </c>
+      <c r="O118" t="s">
+        <v>209</v>
+      </c>
+      <c r="P118" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q118" t="s">
+        <v>1798</v>
+      </c>
+      <c r="R118" t="s">
+        <v>1795</v>
+      </c>
+      <c r="S118" t="s">
+        <v>294</v>
+      </c>
+      <c r="T118" t="s">
+        <v>1689</v>
+      </c>
+      <c r="U118" t="s">
+        <v>334</v>
+      </c>
+      <c r="V118" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y118" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="119" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B119" t="s">
+        <v>1799</v>
+      </c>
+      <c r="C119" t="s">
+        <v>1800</v>
+      </c>
+      <c r="D119" t="s">
+        <v>126</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G119" t="s">
+        <v>134</v>
+      </c>
+      <c r="H119" t="s">
+        <v>136</v>
+      </c>
+      <c r="I119" t="s">
+        <v>136</v>
+      </c>
+      <c r="J119" t="s">
+        <v>1801</v>
+      </c>
+      <c r="K119" t="s">
+        <v>186</v>
+      </c>
+      <c r="L119" t="s">
+        <v>187</v>
+      </c>
+      <c r="N119" t="s">
+        <v>188</v>
+      </c>
+      <c r="O119" t="s">
+        <v>209</v>
+      </c>
+      <c r="P119" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q119" t="s">
+        <v>1802</v>
+      </c>
+      <c r="R119" t="s">
+        <v>1799</v>
+      </c>
+      <c r="S119" t="s">
+        <v>294</v>
+      </c>
+      <c r="T119" t="s">
+        <v>1689</v>
+      </c>
+      <c r="U119" t="s">
+        <v>334</v>
+      </c>
+      <c r="V119" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y119" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="120" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B120" t="s">
+        <v>1693</v>
+      </c>
+      <c r="C120" t="s">
+        <v>1694</v>
+      </c>
+      <c r="D120" t="s">
+        <v>126</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G120" t="s">
+        <v>134</v>
+      </c>
+      <c r="H120" t="s">
+        <v>136</v>
+      </c>
+      <c r="I120" t="s">
+        <v>136</v>
+      </c>
+      <c r="J120" t="s">
+        <v>1695</v>
+      </c>
+      <c r="K120" t="s">
+        <v>186</v>
+      </c>
+      <c r="L120" t="s">
+        <v>187</v>
+      </c>
+      <c r="N120" t="s">
+        <v>188</v>
+      </c>
+      <c r="O120" t="s">
+        <v>209</v>
+      </c>
+      <c r="P120" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q120" t="s">
+        <v>1696</v>
+      </c>
+      <c r="R120" t="s">
+        <v>1693</v>
+      </c>
+      <c r="S120" t="s">
+        <v>294</v>
+      </c>
+      <c r="T120" t="s">
+        <v>1624</v>
+      </c>
+      <c r="U120" t="s">
+        <v>334</v>
+      </c>
+      <c r="V120" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y120" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="121" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A121" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B121" t="s">
+        <v>1803</v>
+      </c>
+      <c r="C121" t="s">
+        <v>1804</v>
+      </c>
+      <c r="D121" t="s">
+        <v>126</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G121" t="s">
+        <v>134</v>
+      </c>
+      <c r="H121" t="s">
+        <v>136</v>
+      </c>
+      <c r="I121" t="s">
+        <v>136</v>
+      </c>
+      <c r="J121" t="s">
+        <v>1805</v>
+      </c>
+      <c r="K121" t="s">
+        <v>186</v>
+      </c>
+      <c r="L121" t="s">
+        <v>187</v>
+      </c>
+      <c r="N121" t="s">
+        <v>188</v>
+      </c>
+      <c r="O121" t="s">
+        <v>209</v>
+      </c>
+      <c r="P121" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q121" t="s">
+        <v>1806</v>
+      </c>
+      <c r="R121" t="s">
+        <v>1803</v>
+      </c>
+      <c r="S121" t="s">
+        <v>294</v>
+      </c>
+      <c r="T121" t="s">
+        <v>1693</v>
+      </c>
+      <c r="U121" t="s">
+        <v>334</v>
+      </c>
+      <c r="V121" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y121" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="122" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B122" t="s">
+        <v>1807</v>
+      </c>
+      <c r="C122" t="s">
+        <v>1808</v>
+      </c>
+      <c r="D122" t="s">
+        <v>126</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G122" t="s">
+        <v>134</v>
+      </c>
+      <c r="H122" t="s">
+        <v>136</v>
+      </c>
+      <c r="I122" t="s">
+        <v>136</v>
+      </c>
+      <c r="J122" t="s">
+        <v>1809</v>
+      </c>
+      <c r="K122" t="s">
+        <v>186</v>
+      </c>
+      <c r="L122" t="s">
+        <v>187</v>
+      </c>
+      <c r="N122" t="s">
+        <v>188</v>
+      </c>
+      <c r="O122" t="s">
+        <v>209</v>
+      </c>
+      <c r="P122" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q122" t="s">
+        <v>1810</v>
+      </c>
+      <c r="R122" t="s">
+        <v>1807</v>
+      </c>
+      <c r="S122" t="s">
+        <v>294</v>
+      </c>
+      <c r="T122" t="s">
+        <v>1693</v>
+      </c>
+      <c r="U122" t="s">
+        <v>334</v>
+      </c>
+      <c r="V122" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y122" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="123" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B123" t="s">
+        <v>1811</v>
+      </c>
+      <c r="C123" t="s">
+        <v>1812</v>
+      </c>
+      <c r="D123" t="s">
+        <v>126</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G123" t="s">
+        <v>134</v>
+      </c>
+      <c r="H123" t="s">
+        <v>136</v>
+      </c>
+      <c r="I123" t="s">
+        <v>136</v>
+      </c>
+      <c r="J123" t="s">
+        <v>1813</v>
+      </c>
+      <c r="K123" t="s">
+        <v>186</v>
+      </c>
+      <c r="L123" t="s">
+        <v>187</v>
+      </c>
+      <c r="N123" t="s">
+        <v>188</v>
+      </c>
+      <c r="O123" t="s">
+        <v>209</v>
+      </c>
+      <c r="P123" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q123" t="s">
+        <v>1814</v>
+      </c>
+      <c r="R123" t="s">
+        <v>1811</v>
+      </c>
+      <c r="S123" t="s">
+        <v>294</v>
+      </c>
+      <c r="T123" t="s">
+        <v>1693</v>
+      </c>
+      <c r="U123" t="s">
+        <v>334</v>
+      </c>
+      <c r="V123" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y123" t="s">
         <v>358</v>
       </c>
     </row>
@@ -12642,88 +14430,134 @@
     <hyperlink ref="F58" r:id="rId112" xr:uid="{B3C48343-014B-41CC-873C-574AF70C0852}"/>
     <hyperlink ref="A59" r:id="rId113" xr:uid="{DAA35D2A-DD60-4840-B9DC-AE6B468C9256}"/>
     <hyperlink ref="F59" r:id="rId114" xr:uid="{E47FBAA2-81B9-4775-BBE4-21A5EF89C452}"/>
-    <hyperlink ref="A60" r:id="rId115" xr:uid="{7CFFA8B6-FB0E-47C8-89F2-E6F6095B24BE}"/>
-    <hyperlink ref="F60" r:id="rId116" xr:uid="{31624641-B561-4CDE-AEA1-00DEC955F14E}"/>
-    <hyperlink ref="A61" r:id="rId117" xr:uid="{5FB09BFB-7A13-4CD3-8799-DB6B2A58C80B}"/>
-    <hyperlink ref="F61" r:id="rId118" xr:uid="{75CBB1A5-870D-44EA-A90E-108622004956}"/>
-    <hyperlink ref="A65" r:id="rId119" xr:uid="{22DE32DD-DBEF-473B-B27A-ED753D9E957A}"/>
-    <hyperlink ref="F65" r:id="rId120" xr:uid="{5EA32805-FC11-48CA-8106-05CF0267B69F}"/>
-    <hyperlink ref="A67" r:id="rId121" xr:uid="{EF0DC239-B763-4B69-9C07-0BE8DE4866B7}"/>
-    <hyperlink ref="F67" r:id="rId122" xr:uid="{3F3FBD8B-3B84-4DC3-BB37-254A7C650CA4}"/>
-    <hyperlink ref="A71" r:id="rId123" xr:uid="{73F438A0-57A6-4AFE-8AA2-FAE998BC7A3E}"/>
-    <hyperlink ref="F71" r:id="rId124" xr:uid="{4B8736D6-DDCD-47D3-9F86-CB87E9C6BECD}"/>
-    <hyperlink ref="A75" r:id="rId125" xr:uid="{7EDDCF7A-1239-4FBF-803F-78B60A4056BE}"/>
-    <hyperlink ref="F75" r:id="rId126" xr:uid="{7A69AFFF-509E-4229-B331-4F3A95F26DF8}"/>
-    <hyperlink ref="A79" r:id="rId127" xr:uid="{41E878D6-7796-4CBF-869C-DE1798024E29}"/>
-    <hyperlink ref="F79" r:id="rId128" xr:uid="{FC2957B2-26FD-433F-B1F7-6BD8A39745A9}"/>
-    <hyperlink ref="A82" r:id="rId129" xr:uid="{F90597B7-EC14-4677-8AAF-04D63A7D6816}"/>
-    <hyperlink ref="F82" r:id="rId130" xr:uid="{C27AC76A-DF8B-49B1-849E-9CE26BC71E7F}"/>
-    <hyperlink ref="A87" r:id="rId131" xr:uid="{065EBD1A-FDC6-4148-96F6-FAAF32031BC2}"/>
-    <hyperlink ref="F87" r:id="rId132" xr:uid="{8D984F70-2A1E-4CD6-ADF6-3AA69535C394}"/>
-    <hyperlink ref="A90" r:id="rId133" xr:uid="{3F096B9A-39D1-4171-81AA-CE1C40C06A5D}"/>
-    <hyperlink ref="F90" r:id="rId134" xr:uid="{355A335F-E42A-4493-A6EC-207B94209095}"/>
-    <hyperlink ref="A93" r:id="rId135" xr:uid="{D2E5002C-E865-4278-A85C-DB30757990A9}"/>
-    <hyperlink ref="F93" r:id="rId136" xr:uid="{8B2FA76A-6097-4B7A-AEBB-7F90AAD0787C}"/>
-    <hyperlink ref="A97" r:id="rId137" xr:uid="{3B3BD442-43AF-4D3D-922F-9B766B44EC84}"/>
-    <hyperlink ref="F97" r:id="rId138" xr:uid="{5F628BDB-3D91-4310-9B8D-1517D7F52010}"/>
-    <hyperlink ref="A66" r:id="rId139" xr:uid="{4DD4C668-D79C-4AEA-88A6-AB81BD15CB60}"/>
-    <hyperlink ref="F66" r:id="rId140" xr:uid="{DAF97AB8-C82D-425C-BFC7-6D31AB8B31CD}"/>
-    <hyperlink ref="A62" r:id="rId141" xr:uid="{228F1E8F-5D03-41E2-8AE2-686600D91E30}"/>
-    <hyperlink ref="F62" r:id="rId142" xr:uid="{A607C960-5CD8-4E33-9B47-3B99B91D6A62}"/>
-    <hyperlink ref="A63" r:id="rId143" xr:uid="{4058BA39-D221-4B46-8D40-66F3D6BE2790}"/>
-    <hyperlink ref="F63" r:id="rId144" xr:uid="{548DE556-E89D-4034-9E8E-F4362DC4830C}"/>
-    <hyperlink ref="A64" r:id="rId145" xr:uid="{200784B3-9C51-475E-A236-F6C643A3FCA8}"/>
-    <hyperlink ref="F64" r:id="rId146" xr:uid="{FDE700C3-766D-4195-AEDF-EB6B7C4A439D}"/>
-    <hyperlink ref="A68" r:id="rId147" xr:uid="{CA3AE62D-6113-4AEC-8A9E-C5B52A4C2B8D}"/>
-    <hyperlink ref="F68" r:id="rId148" xr:uid="{0581DF5E-51D4-4620-9778-E81011C9CEC6}"/>
-    <hyperlink ref="A69" r:id="rId149" xr:uid="{5C9CD855-E2CB-4649-850A-5DCD8D881A02}"/>
-    <hyperlink ref="F69" r:id="rId150" xr:uid="{90E469CE-0AC4-4BCA-8773-22BBC91A16A5}"/>
-    <hyperlink ref="A70" r:id="rId151" xr:uid="{893C231E-A8B7-4267-97E6-E5207F4F1405}"/>
-    <hyperlink ref="F70" r:id="rId152" xr:uid="{2B5BDBC0-B48A-40E5-927A-C76C764B291D}"/>
-    <hyperlink ref="A72" r:id="rId153" xr:uid="{97E6CB68-DA2B-4D99-8BCF-865DC726F233}"/>
-    <hyperlink ref="F72" r:id="rId154" xr:uid="{4727CE7A-76CE-4F54-A04E-16F8CD95499B}"/>
-    <hyperlink ref="A73" r:id="rId155" xr:uid="{447D72CB-F597-4782-BA61-0795B7B95537}"/>
-    <hyperlink ref="F73" r:id="rId156" xr:uid="{BBE0F745-9D17-4EAE-BA0C-49C5878E051D}"/>
-    <hyperlink ref="A74" r:id="rId157" xr:uid="{25FC9B78-79F1-4C08-8B98-EAC5EA3F5DD5}"/>
-    <hyperlink ref="F74" r:id="rId158" xr:uid="{7AAE6938-76F0-469D-B4CF-BDD51377D211}"/>
-    <hyperlink ref="A76" r:id="rId159" xr:uid="{C9A8ACDA-0975-4B0E-96C5-BCF048A14CA7}"/>
-    <hyperlink ref="F76" r:id="rId160" xr:uid="{F04AF7F7-46D8-4126-A21E-C738DD017BE4}"/>
-    <hyperlink ref="A77" r:id="rId161" xr:uid="{A0A4752E-A03F-4498-B3E5-684A90E69CF8}"/>
-    <hyperlink ref="F77" r:id="rId162" xr:uid="{E4EA62ED-27D7-421A-9935-D6FF397082C6}"/>
-    <hyperlink ref="A78" r:id="rId163" xr:uid="{D29BA95F-5A63-40CD-956D-FBED672E1AEB}"/>
-    <hyperlink ref="F78" r:id="rId164" xr:uid="{501AAADA-7CE0-4DD0-A2FF-A53BAA1DB908}"/>
-    <hyperlink ref="A80" r:id="rId165" xr:uid="{1F8CE08B-F1F5-40EF-9437-0019EF398A69}"/>
-    <hyperlink ref="F80" r:id="rId166" xr:uid="{6C6B4D23-9944-4A9B-A20A-73F2D600EF41}"/>
-    <hyperlink ref="A81" r:id="rId167" xr:uid="{8E6B819D-334E-4389-B664-F0B8B435B5A2}"/>
-    <hyperlink ref="F81" r:id="rId168" xr:uid="{6B173F21-E96A-4708-8A32-B6FC1D8779D7}"/>
-    <hyperlink ref="A83" r:id="rId169" xr:uid="{C23C469F-BBB4-4FB7-8B94-90B2FD7E33FB}"/>
-    <hyperlink ref="F83" r:id="rId170" xr:uid="{8FB6367B-7870-47E7-AA41-6C5DF3A0FBA4}"/>
-    <hyperlink ref="A84" r:id="rId171" xr:uid="{0C1F1E1E-C5CD-4757-A30D-3EB003FE2A47}"/>
-    <hyperlink ref="F84" r:id="rId172" xr:uid="{0346CCE7-358D-4E83-B43C-CC990CBEA77B}"/>
-    <hyperlink ref="A85" r:id="rId173" xr:uid="{45E40DAA-1CAA-460F-8360-154B80A1D279}"/>
-    <hyperlink ref="F85" r:id="rId174" xr:uid="{DCA6DB98-ADBD-499C-A8EC-04002428C33C}"/>
-    <hyperlink ref="A86" r:id="rId175" xr:uid="{173FA111-A461-4156-817A-441B6CD23C42}"/>
-    <hyperlink ref="F86" r:id="rId176" xr:uid="{0689A9A1-97D1-4568-B27D-9C66ED1D6402}"/>
-    <hyperlink ref="A88" r:id="rId177" xr:uid="{B8AF87C3-C242-4A1A-BFF7-D14830BA0FBB}"/>
-    <hyperlink ref="F88" r:id="rId178" xr:uid="{4AD25628-13D0-444F-9509-D9092734800F}"/>
-    <hyperlink ref="A89" r:id="rId179" xr:uid="{77DD05D6-666F-49E6-AC12-A654C9DDEA91}"/>
-    <hyperlink ref="F89" r:id="rId180" xr:uid="{4D46345E-2727-4F80-9D05-B9F28FF08245}"/>
-    <hyperlink ref="A91" r:id="rId181" xr:uid="{0C87A302-8B3A-4600-9A06-124F1E077A10}"/>
-    <hyperlink ref="F91" r:id="rId182" xr:uid="{25BEC3A0-2048-49B5-A360-9197D5A2F717}"/>
-    <hyperlink ref="A92" r:id="rId183" xr:uid="{AC5A8FD6-123B-42F4-9751-D3BC6D90FFF6}"/>
-    <hyperlink ref="F92" r:id="rId184" xr:uid="{605E36F9-90EE-4A46-8813-06B7B073AA79}"/>
-    <hyperlink ref="A94" r:id="rId185" xr:uid="{7F7D5552-E58B-4A22-9A7E-A2F2609F075D}"/>
-    <hyperlink ref="F94" r:id="rId186" xr:uid="{9901FD35-1257-455A-91A9-5AEF00654FA3}"/>
-    <hyperlink ref="A95" r:id="rId187" xr:uid="{419AB216-A522-44C7-A3B3-19A09D948275}"/>
-    <hyperlink ref="F95" r:id="rId188" xr:uid="{87EAE9A4-AF89-4853-ACAB-8775ED9AA835}"/>
-    <hyperlink ref="A96" r:id="rId189" xr:uid="{409E7321-635E-4034-A93F-631FF36FC5F6}"/>
-    <hyperlink ref="F96" r:id="rId190" xr:uid="{908C9C37-DDDA-4B2E-A347-9628408E4563}"/>
-    <hyperlink ref="A98" r:id="rId191" xr:uid="{D5715C51-2BC9-45FE-A94C-860B413ABA4F}"/>
-    <hyperlink ref="F98" r:id="rId192" xr:uid="{8F19A868-A0BF-4BC2-B527-F248C5EB832C}"/>
-    <hyperlink ref="A99" r:id="rId193" xr:uid="{87C441F0-F3C4-4CF8-9080-5F0AAD3B355A}"/>
-    <hyperlink ref="F99" r:id="rId194" xr:uid="{5A4899BD-4585-4FBE-81B6-2645BCC8F8D0}"/>
-    <hyperlink ref="A100" r:id="rId195" xr:uid="{A8405BA9-51C4-49E3-8B0D-4A03CF1D1EFA}"/>
-    <hyperlink ref="F100" r:id="rId196" xr:uid="{1E1A151C-F690-4050-B544-DD21309265F2}"/>
+    <hyperlink ref="A70" r:id="rId115" xr:uid="{7CFFA8B6-FB0E-47C8-89F2-E6F6095B24BE}"/>
+    <hyperlink ref="F70" r:id="rId116" xr:uid="{31624641-B561-4CDE-AEA1-00DEC955F14E}"/>
+    <hyperlink ref="A84" r:id="rId117" xr:uid="{5FB09BFB-7A13-4CD3-8799-DB6B2A58C80B}"/>
+    <hyperlink ref="F84" r:id="rId118" xr:uid="{75CBB1A5-870D-44EA-A90E-108622004956}"/>
+    <hyperlink ref="A88" r:id="rId119" xr:uid="{22DE32DD-DBEF-473B-B27A-ED753D9E957A}"/>
+    <hyperlink ref="F88" r:id="rId120" xr:uid="{5EA32805-FC11-48CA-8106-05CF0267B69F}"/>
+    <hyperlink ref="A90" r:id="rId121" xr:uid="{EF0DC239-B763-4B69-9C07-0BE8DE4866B7}"/>
+    <hyperlink ref="F90" r:id="rId122" xr:uid="{3F3FBD8B-3B84-4DC3-BB37-254A7C650CA4}"/>
+    <hyperlink ref="A94" r:id="rId123" xr:uid="{73F438A0-57A6-4AFE-8AA2-FAE998BC7A3E}"/>
+    <hyperlink ref="F94" r:id="rId124" xr:uid="{4B8736D6-DDCD-47D3-9F86-CB87E9C6BECD}"/>
+    <hyperlink ref="A98" r:id="rId125" xr:uid="{7EDDCF7A-1239-4FBF-803F-78B60A4056BE}"/>
+    <hyperlink ref="F98" r:id="rId126" xr:uid="{7A69AFFF-509E-4229-B331-4F3A95F26DF8}"/>
+    <hyperlink ref="A102" r:id="rId127" xr:uid="{41E878D6-7796-4CBF-869C-DE1798024E29}"/>
+    <hyperlink ref="F102" r:id="rId128" xr:uid="{FC2957B2-26FD-433F-B1F7-6BD8A39745A9}"/>
+    <hyperlink ref="A105" r:id="rId129" xr:uid="{F90597B7-EC14-4677-8AAF-04D63A7D6816}"/>
+    <hyperlink ref="F105" r:id="rId130" xr:uid="{C27AC76A-DF8B-49B1-849E-9CE26BC71E7F}"/>
+    <hyperlink ref="A110" r:id="rId131" xr:uid="{065EBD1A-FDC6-4148-96F6-FAAF32031BC2}"/>
+    <hyperlink ref="F110" r:id="rId132" xr:uid="{8D984F70-2A1E-4CD6-ADF6-3AA69535C394}"/>
+    <hyperlink ref="A113" r:id="rId133" xr:uid="{3F096B9A-39D1-4171-81AA-CE1C40C06A5D}"/>
+    <hyperlink ref="F113" r:id="rId134" xr:uid="{355A335F-E42A-4493-A6EC-207B94209095}"/>
+    <hyperlink ref="A116" r:id="rId135" xr:uid="{D2E5002C-E865-4278-A85C-DB30757990A9}"/>
+    <hyperlink ref="F116" r:id="rId136" xr:uid="{8B2FA76A-6097-4B7A-AEBB-7F90AAD0787C}"/>
+    <hyperlink ref="A120" r:id="rId137" xr:uid="{3B3BD442-43AF-4D3D-922F-9B766B44EC84}"/>
+    <hyperlink ref="F120" r:id="rId138" xr:uid="{5F628BDB-3D91-4310-9B8D-1517D7F52010}"/>
+    <hyperlink ref="A89" r:id="rId139" xr:uid="{4DD4C668-D79C-4AEA-88A6-AB81BD15CB60}"/>
+    <hyperlink ref="F89" r:id="rId140" xr:uid="{DAF97AB8-C82D-425C-BFC7-6D31AB8B31CD}"/>
+    <hyperlink ref="A85" r:id="rId141" xr:uid="{228F1E8F-5D03-41E2-8AE2-686600D91E30}"/>
+    <hyperlink ref="F85" r:id="rId142" xr:uid="{A607C960-5CD8-4E33-9B47-3B99B91D6A62}"/>
+    <hyperlink ref="A86" r:id="rId143" xr:uid="{4058BA39-D221-4B46-8D40-66F3D6BE2790}"/>
+    <hyperlink ref="F86" r:id="rId144" xr:uid="{548DE556-E89D-4034-9E8E-F4362DC4830C}"/>
+    <hyperlink ref="A87" r:id="rId145" xr:uid="{200784B3-9C51-475E-A236-F6C643A3FCA8}"/>
+    <hyperlink ref="F87" r:id="rId146" xr:uid="{FDE700C3-766D-4195-AEDF-EB6B7C4A439D}"/>
+    <hyperlink ref="A91" r:id="rId147" xr:uid="{CA3AE62D-6113-4AEC-8A9E-C5B52A4C2B8D}"/>
+    <hyperlink ref="F91" r:id="rId148" xr:uid="{0581DF5E-51D4-4620-9778-E81011C9CEC6}"/>
+    <hyperlink ref="A92" r:id="rId149" xr:uid="{5C9CD855-E2CB-4649-850A-5DCD8D881A02}"/>
+    <hyperlink ref="F92" r:id="rId150" xr:uid="{90E469CE-0AC4-4BCA-8773-22BBC91A16A5}"/>
+    <hyperlink ref="A93" r:id="rId151" xr:uid="{893C231E-A8B7-4267-97E6-E5207F4F1405}"/>
+    <hyperlink ref="F93" r:id="rId152" xr:uid="{2B5BDBC0-B48A-40E5-927A-C76C764B291D}"/>
+    <hyperlink ref="A95" r:id="rId153" xr:uid="{97E6CB68-DA2B-4D99-8BCF-865DC726F233}"/>
+    <hyperlink ref="F95" r:id="rId154" xr:uid="{4727CE7A-76CE-4F54-A04E-16F8CD95499B}"/>
+    <hyperlink ref="A96" r:id="rId155" xr:uid="{447D72CB-F597-4782-BA61-0795B7B95537}"/>
+    <hyperlink ref="F96" r:id="rId156" xr:uid="{BBE0F745-9D17-4EAE-BA0C-49C5878E051D}"/>
+    <hyperlink ref="A97" r:id="rId157" xr:uid="{25FC9B78-79F1-4C08-8B98-EAC5EA3F5DD5}"/>
+    <hyperlink ref="F97" r:id="rId158" xr:uid="{7AAE6938-76F0-469D-B4CF-BDD51377D211}"/>
+    <hyperlink ref="A99" r:id="rId159" xr:uid="{C9A8ACDA-0975-4B0E-96C5-BCF048A14CA7}"/>
+    <hyperlink ref="F99" r:id="rId160" xr:uid="{F04AF7F7-46D8-4126-A21E-C738DD017BE4}"/>
+    <hyperlink ref="A100" r:id="rId161" xr:uid="{A0A4752E-A03F-4498-B3E5-684A90E69CF8}"/>
+    <hyperlink ref="F100" r:id="rId162" xr:uid="{E4EA62ED-27D7-421A-9935-D6FF397082C6}"/>
+    <hyperlink ref="A101" r:id="rId163" xr:uid="{D29BA95F-5A63-40CD-956D-FBED672E1AEB}"/>
+    <hyperlink ref="F101" r:id="rId164" xr:uid="{501AAADA-7CE0-4DD0-A2FF-A53BAA1DB908}"/>
+    <hyperlink ref="A103" r:id="rId165" xr:uid="{1F8CE08B-F1F5-40EF-9437-0019EF398A69}"/>
+    <hyperlink ref="F103" r:id="rId166" xr:uid="{6C6B4D23-9944-4A9B-A20A-73F2D600EF41}"/>
+    <hyperlink ref="A104" r:id="rId167" xr:uid="{8E6B819D-334E-4389-B664-F0B8B435B5A2}"/>
+    <hyperlink ref="F104" r:id="rId168" xr:uid="{6B173F21-E96A-4708-8A32-B6FC1D8779D7}"/>
+    <hyperlink ref="A106" r:id="rId169" xr:uid="{C23C469F-BBB4-4FB7-8B94-90B2FD7E33FB}"/>
+    <hyperlink ref="F106" r:id="rId170" xr:uid="{8FB6367B-7870-47E7-AA41-6C5DF3A0FBA4}"/>
+    <hyperlink ref="A107" r:id="rId171" xr:uid="{0C1F1E1E-C5CD-4757-A30D-3EB003FE2A47}"/>
+    <hyperlink ref="F107" r:id="rId172" xr:uid="{0346CCE7-358D-4E83-B43C-CC990CBEA77B}"/>
+    <hyperlink ref="A108" r:id="rId173" xr:uid="{45E40DAA-1CAA-460F-8360-154B80A1D279}"/>
+    <hyperlink ref="F108" r:id="rId174" xr:uid="{DCA6DB98-ADBD-499C-A8EC-04002428C33C}"/>
+    <hyperlink ref="A109" r:id="rId175" xr:uid="{173FA111-A461-4156-817A-441B6CD23C42}"/>
+    <hyperlink ref="F109" r:id="rId176" xr:uid="{0689A9A1-97D1-4568-B27D-9C66ED1D6402}"/>
+    <hyperlink ref="A111" r:id="rId177" xr:uid="{B8AF87C3-C242-4A1A-BFF7-D14830BA0FBB}"/>
+    <hyperlink ref="F111" r:id="rId178" xr:uid="{4AD25628-13D0-444F-9509-D9092734800F}"/>
+    <hyperlink ref="A112" r:id="rId179" xr:uid="{77DD05D6-666F-49E6-AC12-A654C9DDEA91}"/>
+    <hyperlink ref="F112" r:id="rId180" xr:uid="{4D46345E-2727-4F80-9D05-B9F28FF08245}"/>
+    <hyperlink ref="A114" r:id="rId181" xr:uid="{0C87A302-8B3A-4600-9A06-124F1E077A10}"/>
+    <hyperlink ref="F114" r:id="rId182" xr:uid="{25BEC3A0-2048-49B5-A360-9197D5A2F717}"/>
+    <hyperlink ref="A115" r:id="rId183" xr:uid="{AC5A8FD6-123B-42F4-9751-D3BC6D90FFF6}"/>
+    <hyperlink ref="F115" r:id="rId184" xr:uid="{605E36F9-90EE-4A46-8813-06B7B073AA79}"/>
+    <hyperlink ref="A117" r:id="rId185" xr:uid="{7F7D5552-E58B-4A22-9A7E-A2F2609F075D}"/>
+    <hyperlink ref="F117" r:id="rId186" xr:uid="{9901FD35-1257-455A-91A9-5AEF00654FA3}"/>
+    <hyperlink ref="A118" r:id="rId187" xr:uid="{419AB216-A522-44C7-A3B3-19A09D948275}"/>
+    <hyperlink ref="F118" r:id="rId188" xr:uid="{87EAE9A4-AF89-4853-ACAB-8775ED9AA835}"/>
+    <hyperlink ref="A119" r:id="rId189" xr:uid="{409E7321-635E-4034-A93F-631FF36FC5F6}"/>
+    <hyperlink ref="F119" r:id="rId190" xr:uid="{908C9C37-DDDA-4B2E-A347-9628408E4563}"/>
+    <hyperlink ref="A121" r:id="rId191" xr:uid="{D5715C51-2BC9-45FE-A94C-860B413ABA4F}"/>
+    <hyperlink ref="F121" r:id="rId192" xr:uid="{8F19A868-A0BF-4BC2-B527-F248C5EB832C}"/>
+    <hyperlink ref="A122" r:id="rId193" xr:uid="{87C441F0-F3C4-4CF8-9080-5F0AAD3B355A}"/>
+    <hyperlink ref="F122" r:id="rId194" xr:uid="{5A4899BD-4585-4FBE-81B6-2645BCC8F8D0}"/>
+    <hyperlink ref="A123" r:id="rId195" xr:uid="{A8405BA9-51C4-49E3-8B0D-4A03CF1D1EFA}"/>
+    <hyperlink ref="F123" r:id="rId196" xr:uid="{1E1A151C-F690-4050-B544-DD21309265F2}"/>
+    <hyperlink ref="A60" r:id="rId197" xr:uid="{19C68C99-1C80-459C-AF19-004EF76129A8}"/>
+    <hyperlink ref="F60" r:id="rId198" xr:uid="{81A20B2A-C635-4DE9-ACE4-25CF636A1433}"/>
+    <hyperlink ref="A61" r:id="rId199" xr:uid="{3304C0D3-36AD-41C6-8707-97CC71DD3BC4}"/>
+    <hyperlink ref="F61" r:id="rId200" xr:uid="{AAA0B0CE-DA9D-418A-80B8-8495607E2445}"/>
+    <hyperlink ref="A62" r:id="rId201" xr:uid="{13957741-EE2F-42CE-9882-8905FDAA1ED7}"/>
+    <hyperlink ref="F62" r:id="rId202" xr:uid="{D37AB4DC-AD4C-4353-822D-803A45C710BC}"/>
+    <hyperlink ref="A63" r:id="rId203" xr:uid="{A8498C0C-9FB2-4A22-84D8-6131AAD5DFEB}"/>
+    <hyperlink ref="F63" r:id="rId204" xr:uid="{DD835200-09D1-4657-9CEE-CB10A941B29C}"/>
+    <hyperlink ref="A64" r:id="rId205" xr:uid="{06922658-35D6-491F-A4EC-94409CB4DD42}"/>
+    <hyperlink ref="F64" r:id="rId206" xr:uid="{07456F8B-22F8-4857-8A55-1B6E8C19ADEC}"/>
+    <hyperlink ref="A65" r:id="rId207" xr:uid="{5DB34799-9E18-4FBC-BF40-EC57495777C0}"/>
+    <hyperlink ref="F65" r:id="rId208" xr:uid="{DF6A3F0A-0A00-4E24-8E58-7ED0A227E439}"/>
+    <hyperlink ref="A66" r:id="rId209" xr:uid="{825DE57F-7227-42DE-99CE-37038FEB1358}"/>
+    <hyperlink ref="F66" r:id="rId210" xr:uid="{2B461AA2-F0B5-44FA-9EBE-DBDFAD57CEE3}"/>
+    <hyperlink ref="A67" r:id="rId211" xr:uid="{5BEB8561-3F78-4A7B-BB83-850E186C821F}"/>
+    <hyperlink ref="F67" r:id="rId212" xr:uid="{500CEB66-AEC6-4947-AED5-4067EE01C019}"/>
+    <hyperlink ref="A68" r:id="rId213" xr:uid="{0F6384F6-AFAF-431A-8454-7C81D53C9901}"/>
+    <hyperlink ref="F68" r:id="rId214" xr:uid="{E19CF04F-0B11-4DA9-9D44-AE12113C0E8F}"/>
+    <hyperlink ref="A69" r:id="rId215" xr:uid="{17246C0D-7768-4A51-A03F-E0B3743E6320}"/>
+    <hyperlink ref="F69" r:id="rId216" xr:uid="{53A49953-3D67-401B-87DA-156ADE687A28}"/>
+    <hyperlink ref="A71" r:id="rId217" xr:uid="{C22989A5-CC98-4C87-9600-2C1086A015CB}"/>
+    <hyperlink ref="F71" r:id="rId218" xr:uid="{59316F60-8E27-427F-9F58-01763BA45037}"/>
+    <hyperlink ref="A72" r:id="rId219" xr:uid="{710AD093-6832-4DD2-ADCF-482D4195D99A}"/>
+    <hyperlink ref="F72" r:id="rId220" xr:uid="{9021D51F-686F-4479-BD03-5E17A47F14D3}"/>
+    <hyperlink ref="A73" r:id="rId221" xr:uid="{800F4A58-4A74-4B4D-B1BA-E304371942AF}"/>
+    <hyperlink ref="F73" r:id="rId222" xr:uid="{1B04C1FA-6E23-4B43-A222-64242CD74E79}"/>
+    <hyperlink ref="A74" r:id="rId223" xr:uid="{B35D1097-D599-40B9-8F0C-1DFECA288C7E}"/>
+    <hyperlink ref="F74" r:id="rId224" xr:uid="{F3683D28-770A-4638-82DA-8DD8D027B796}"/>
+    <hyperlink ref="A75" r:id="rId225" xr:uid="{F6B0AF87-11A9-441F-B327-F483887733E0}"/>
+    <hyperlink ref="F75" r:id="rId226" xr:uid="{B2948917-5C02-4720-9E4F-1B0C7C2990EE}"/>
+    <hyperlink ref="A76" r:id="rId227" xr:uid="{A1C3E8D3-1EB8-4AE8-AAA4-E4691B3D7B7C}"/>
+    <hyperlink ref="F76" r:id="rId228" xr:uid="{431266B5-D7DA-4C13-81E8-B3AACCEAF270}"/>
+    <hyperlink ref="A77" r:id="rId229" xr:uid="{BF9CB79C-FDFB-41AC-A3FE-A32E3B6F438E}"/>
+    <hyperlink ref="F77" r:id="rId230" xr:uid="{C94FAD88-EC9C-42EE-8E9C-BC30DE33114C}"/>
+    <hyperlink ref="A78" r:id="rId231" xr:uid="{40E2631F-993E-43B1-BEAC-01BF268775EB}"/>
+    <hyperlink ref="F78" r:id="rId232" xr:uid="{3547B856-3192-4D0F-BFAE-8715702350FC}"/>
+    <hyperlink ref="A79" r:id="rId233" xr:uid="{6A268BE1-A117-4474-87A6-B916A899069F}"/>
+    <hyperlink ref="F79" r:id="rId234" xr:uid="{E05B72F1-FB8C-47C8-A3B2-DC70205F9ABD}"/>
+    <hyperlink ref="A80" r:id="rId235" xr:uid="{C328FAA7-95BF-4FEC-9B59-7F496FE182FA}"/>
+    <hyperlink ref="F80" r:id="rId236" xr:uid="{3DFE229B-54DE-4CAD-8836-5F7F23C2018D}"/>
+    <hyperlink ref="A81" r:id="rId237" xr:uid="{334F5207-BAE8-40B3-94A1-29593E92604C}"/>
+    <hyperlink ref="F81" r:id="rId238" xr:uid="{01918F5A-1C75-47E0-9AA7-B2B4B0202FC3}"/>
+    <hyperlink ref="A82" r:id="rId239" xr:uid="{60E06AA0-CF2C-4E1B-BCA2-26DD0067FA8C}"/>
+    <hyperlink ref="F82" r:id="rId240" xr:uid="{F9A82EF7-9F53-4180-A947-9F8C36CF2019}"/>
+    <hyperlink ref="A83" r:id="rId241" xr:uid="{76000270-0DE8-407D-B85B-6ABEBC63933B}"/>
+    <hyperlink ref="F83" r:id="rId242" xr:uid="{1BBB6A35-556A-4DCF-A843-05186533BECE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/gdcdictionary/xlsx/nodes_schema_impowr.xlsx
+++ b/gdcdictionary/xlsx/nodes_schema_impowr.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vithal\Documents\GitHub\dcfdictionary\gdcdictionary\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1663E41-53D4-42D5-B858-27C4740AF527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F29BA84-6CF8-4735-9629-FCCF89DFA15B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6744" uniqueCount="1908">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6744" uniqueCount="1906">
   <si>
     <t>&lt;$schema&gt;</t>
   </si>
@@ -5072,9 +5072,6 @@
     <t>patients_baseline_health_economics</t>
   </si>
   <si>
-    <t>pb_PTSD</t>
-  </si>
-  <si>
     <t>Patient Baseline PTSD</t>
   </si>
   <si>
@@ -5084,9 +5081,6 @@
     <t>patients_baseline_PTSD</t>
   </si>
   <si>
-    <t>pb_COVID</t>
-  </si>
-  <si>
     <t>Patient Baseline COVID</t>
   </si>
   <si>
@@ -5120,9 +5114,6 @@
     <t>patients_baseline_implementation_science</t>
   </si>
   <si>
-    <t>pb_PROMIS_physical_function</t>
-  </si>
-  <si>
     <t>Patient Baseline PROMIS Physical Function</t>
   </si>
   <si>
@@ -5144,9 +5135,6 @@
     <t>patients_baseline_sleep_duration</t>
   </si>
   <si>
-    <t>pb_PROMIS_sleep</t>
-  </si>
-  <si>
     <t>Patient Baseline PROMIS Sleep</t>
   </si>
   <si>
@@ -5156,9 +5144,6 @@
     <t>patients_baseline_PROMIS_sleep</t>
   </si>
   <si>
-    <t>pb_PROMIS_fatigue</t>
-  </si>
-  <si>
     <t>Patient Baseline PROMIS Fatigue</t>
   </si>
   <si>
@@ -5168,9 +5153,6 @@
     <t>patients_baseline_PROMIS_fatigue</t>
   </si>
   <si>
-    <t>pb_PROMIS_anxiety</t>
-  </si>
-  <si>
     <t>Patient Baseline PROMIS Anxiety</t>
   </si>
   <si>
@@ -5180,9 +5162,6 @@
     <t>patients_baseline_PROMIS_anxiety</t>
   </si>
   <si>
-    <t>pb_GAD-2</t>
-  </si>
-  <si>
     <t>Patient Baseline GAD-2</t>
   </si>
   <si>
@@ -5192,9 +5171,6 @@
     <t>patients_baseline_GAD-2</t>
   </si>
   <si>
-    <t>pb_GAD-7</t>
-  </si>
-  <si>
     <t>Patient Baseline GAD-7</t>
   </si>
   <si>
@@ -5204,9 +5180,6 @@
     <t>patients_baseline_GAD-7</t>
   </si>
   <si>
-    <t>pb_PROMIS_depression</t>
-  </si>
-  <si>
     <t>Patient Baseline PROMIS Depression</t>
   </si>
   <si>
@@ -5216,9 +5189,6 @@
     <t>patients_baseline_PROMIS_depression</t>
   </si>
   <si>
-    <t>pb_PHQ-3</t>
-  </si>
-  <si>
     <t>Patient Baseline PHQ-3</t>
   </si>
   <si>
@@ -5228,9 +5198,6 @@
     <t>patients_baseline_PHQ-3</t>
   </si>
   <si>
-    <t>pb_PHQ-9</t>
-  </si>
-  <si>
     <t>Patient Baseline PHQ-9</t>
   </si>
   <si>
@@ -5240,9 +5207,6 @@
     <t>patients_baseline_PHQ-9</t>
   </si>
   <si>
-    <t>pb_PROMIS_social_functioning</t>
-  </si>
-  <si>
     <t>Patient Baseline PROMIS Social Functioning</t>
   </si>
   <si>
@@ -5252,9 +5216,6 @@
     <t>patients_baseline_PROMIS_social_functioning</t>
   </si>
   <si>
-    <t>pb_MMSSPSS</t>
-  </si>
-  <si>
     <t>Patient Baseline MMSPSS</t>
   </si>
   <si>
@@ -5264,12 +5225,6 @@
     <t>patients_baseline_MMSPSS</t>
   </si>
   <si>
-    <t>pb_MMSPSS</t>
-  </si>
-  <si>
-    <t>pb_MMSSPSS_supplemental</t>
-  </si>
-  <si>
     <t>Patient Baseline MMSPSS Supplemental</t>
   </si>
   <si>
@@ -5279,12 +5234,6 @@
     <t>patients_baseline_MMSPSS_supplemental</t>
   </si>
   <si>
-    <t>pb_MMSPSS_supplemental</t>
-  </si>
-  <si>
-    <t>pb_PROMIS_cognitive_function</t>
-  </si>
-  <si>
     <t>Patient Baseline PROMIS Cognitive Function</t>
   </si>
   <si>
@@ -5306,9 +5255,6 @@
     <t>patients_baseline_recovery_capital</t>
   </si>
   <si>
-    <t>pb_PROMIS_PROPr</t>
-  </si>
-  <si>
     <t>Patient Baseline PROMIS PROPr</t>
   </si>
   <si>
@@ -5354,9 +5300,6 @@
     <t>patients_baseline_health_service_utilization</t>
   </si>
   <si>
-    <t>pb_primarycare_PTSD_screening</t>
-  </si>
-  <si>
     <t>Patient Baseline Primarycare PTSD Screening</t>
   </si>
   <si>
@@ -5366,9 +5309,6 @@
     <t>patients_baseline_primarycare_PTSD_screening</t>
   </si>
   <si>
-    <t>pb_PTSD_supplemental_PCL-5</t>
-  </si>
-  <si>
     <t>Patient Baseline PTSD Supplemental PCL-5</t>
   </si>
   <si>
@@ -5378,9 +5318,6 @@
     <t>patients_baseline_PTSD_supplemental_PCL-5</t>
   </si>
   <si>
-    <t>pb_IMPOWR_COVID_impact</t>
-  </si>
-  <si>
     <t>Patient Baseline IMPOWR COVID Impact</t>
   </si>
   <si>
@@ -5390,9 +5327,6 @@
     <t>patients_baseline_IMPOWR_COVID_impact</t>
   </si>
   <si>
-    <t>pb_Supplemental_COVID</t>
-  </si>
-  <si>
     <t xml:space="preserve">Patient Baseline Supplemental COVID </t>
   </si>
   <si>
@@ -5402,9 +5336,6 @@
     <t>patients_baseline_Supplemental_COVID</t>
   </si>
   <si>
-    <t>pb_IMPOWR_perceived_discrimination</t>
-  </si>
-  <si>
     <t>Patient Baseline IMPOWR Perceived Discrimination</t>
   </si>
   <si>
@@ -5414,9 +5345,6 @@
     <t>patients_baseline_IMPOWR_perceived_discrimination</t>
   </si>
   <si>
-    <t>pb_SUSMS</t>
-  </si>
-  <si>
     <t>Patient Baseline Substance Use Stigma Mechanism Scale</t>
   </si>
   <si>
@@ -5426,9 +5354,6 @@
     <t>patients_baseline_substance_use_stigma_mechanism_scale_SUSMS</t>
   </si>
   <si>
-    <t>pb_supplemental_IMPOWR_stigma_discrimination</t>
-  </si>
-  <si>
     <t>Patient Baseline supplemental IMPOWR stigma discrimination</t>
   </si>
   <si>
@@ -5450,9 +5375,6 @@
     <t>patients_baseline_patient_satisfaction_survey</t>
   </si>
   <si>
-    <t>pb_AIM_IAM_FIM</t>
-  </si>
-  <si>
     <t>Patient Baseline AIM IAM FIM</t>
   </si>
   <si>
@@ -5486,9 +5408,6 @@
     <t>patients_baseline_chronic_pain_screening</t>
   </si>
   <si>
-    <t>pb_PEG</t>
-  </si>
-  <si>
     <t>Patient Baseline PEG</t>
   </si>
   <si>
@@ -5507,9 +5426,6 @@
     <t>pb_michigan_body_map</t>
   </si>
   <si>
-    <t>pb_WPI</t>
-  </si>
-  <si>
     <t>Patient Baseline WPI</t>
   </si>
   <si>
@@ -5519,9 +5435,6 @@
     <t>patients_baseline_WPI</t>
   </si>
   <si>
-    <t>pb_PGIC</t>
-  </si>
-  <si>
     <t>Patient Baseline PGIC</t>
   </si>
   <si>
@@ -5531,9 +5444,6 @@
     <t>patients_baseline_PGIC</t>
   </si>
   <si>
-    <t>pb_BPI</t>
-  </si>
-  <si>
     <t>Patient Baseline BPI</t>
   </si>
   <si>
@@ -5543,9 +5453,6 @@
     <t>patients_baseline_BPI</t>
   </si>
   <si>
-    <t>pb_IMPOWR_pain_diagnosis</t>
-  </si>
-  <si>
     <t>Data describing patient baseline michigan body map characteristics</t>
   </si>
   <si>
@@ -5618,9 +5525,6 @@
     <t>patients_baseline_modified_addiction_severity_index</t>
   </si>
   <si>
-    <t>pb_modified_TAPS-1</t>
-  </si>
-  <si>
     <t>Patient Baseline Modified TAPS-1</t>
   </si>
   <si>
@@ -5630,9 +5534,6 @@
     <t>patients_baseline_modified_TAPS-1</t>
   </si>
   <si>
-    <t>pb_AUDIT-C</t>
-  </si>
-  <si>
     <t>Patient Baseline AUDIT-C</t>
   </si>
   <si>
@@ -5642,9 +5543,6 @@
     <t>patients_baseline_AUDIT-C</t>
   </si>
   <si>
-    <t>pb_IMPOWR_overdose_screening</t>
-  </si>
-  <si>
     <t>Patient Baseline IMPOWR Overdose Screening</t>
   </si>
   <si>
@@ -5654,9 +5552,6 @@
     <t>patients_baseline_IMPOWR_overdose_screening</t>
   </si>
   <si>
-    <t>pb_IMPOWR_MOUD</t>
-  </si>
-  <si>
     <t>Patient Baseline IMPOWR MOUD</t>
   </si>
   <si>
@@ -5690,18 +5585,12 @@
     <t>patients_baseline_supplemental_smoking</t>
   </si>
   <si>
-    <t>pb_PROMIS_acohol</t>
-  </si>
-  <si>
     <t>Data describing patient baseline PROMIS acohol characteristics</t>
   </si>
   <si>
     <t>patients_baseline_PROMIS_acohol</t>
   </si>
   <si>
-    <t>pb_PROMIS_severity_of_substance_use</t>
-  </si>
-  <si>
     <t>Patient Baseline PROMIS severity of Substance Use</t>
   </si>
   <si>
@@ -5714,9 +5603,6 @@
     <t>patients_baseline_PROMIS_severity_of_substance_use</t>
   </si>
   <si>
-    <t>pb_US_AUDIT</t>
-  </si>
-  <si>
     <t>Patient Baseline US AUDIT</t>
   </si>
   <si>
@@ -5751,6 +5637,114 @@
   </si>
   <si>
     <t>pb_supplemental_narcan</t>
+  </si>
+  <si>
+    <t>pb_peg</t>
+  </si>
+  <si>
+    <t>pb_wpi</t>
+  </si>
+  <si>
+    <t>pb_pgic</t>
+  </si>
+  <si>
+    <t>pb_bpi</t>
+  </si>
+  <si>
+    <t>pb_impowr_pain_diagnosis</t>
+  </si>
+  <si>
+    <t>pb_audit_c</t>
+  </si>
+  <si>
+    <t>pb_impowr_overdose_screening</t>
+  </si>
+  <si>
+    <t>pb_impowr_moud</t>
+  </si>
+  <si>
+    <t>pb_modified_taps_one</t>
+  </si>
+  <si>
+    <t>pb_promis_acohol</t>
+  </si>
+  <si>
+    <t>pb_promis_severity_of_substance_use</t>
+  </si>
+  <si>
+    <t>pb_us_audit</t>
+  </si>
+  <si>
+    <t>pb_promis_sleep</t>
+  </si>
+  <si>
+    <t>pb_promis_fatigue</t>
+  </si>
+  <si>
+    <t>pb_promis_physical_function</t>
+  </si>
+  <si>
+    <t>pb_promis_anxiety</t>
+  </si>
+  <si>
+    <t>pb_gad_two</t>
+  </si>
+  <si>
+    <t>pb_gad_seven</t>
+  </si>
+  <si>
+    <t>pb_promis_depression</t>
+  </si>
+  <si>
+    <t>pb_phq_three</t>
+  </si>
+  <si>
+    <t>pb_phq_nine</t>
+  </si>
+  <si>
+    <t>pb_promis_social_functioning</t>
+  </si>
+  <si>
+    <t>pb_mmspss</t>
+  </si>
+  <si>
+    <t>pb_mmspss_supplemental</t>
+  </si>
+  <si>
+    <t>pb_promis_cognitive_function</t>
+  </si>
+  <si>
+    <t>pb_promis_propr</t>
+  </si>
+  <si>
+    <t>pb_ptsd</t>
+  </si>
+  <si>
+    <t>pb_primarycare_ptsd_screening</t>
+  </si>
+  <si>
+    <t>pb_ptsd_supplemental_pcl_five</t>
+  </si>
+  <si>
+    <t>pb_covid</t>
+  </si>
+  <si>
+    <t>pb_impowr_covid_impact</t>
+  </si>
+  <si>
+    <t>pb_Supplemental_covid</t>
+  </si>
+  <si>
+    <t>pb_impowr_perceived_discrimination</t>
+  </si>
+  <si>
+    <t>pb_susms</t>
+  </si>
+  <si>
+    <t>pb_supplemental_impowr_stigma_discrimination</t>
+  </si>
+  <si>
+    <t>pb_aim_iam_fim</t>
   </si>
 </sst>
 </file>
@@ -6167,9 +6161,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V83" sqref="V83"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T137" sqref="T137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="89" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10159,10 +10153,10 @@
         <v>25</v>
       </c>
       <c r="B60" t="s">
-        <v>1815</v>
+        <v>1789</v>
       </c>
       <c r="C60" t="s">
-        <v>1816</v>
+        <v>1790</v>
       </c>
       <c r="D60" t="s">
         <v>126</v>
@@ -10180,7 +10174,7 @@
         <v>136</v>
       </c>
       <c r="J60" t="s">
-        <v>1817</v>
+        <v>1791</v>
       </c>
       <c r="K60" t="s">
         <v>186</v>
@@ -10198,10 +10192,10 @@
         <v>218</v>
       </c>
       <c r="Q60" t="s">
-        <v>1818</v>
+        <v>1792</v>
       </c>
       <c r="R60" t="s">
-        <v>1815</v>
+        <v>1789</v>
       </c>
       <c r="S60" t="s">
         <v>294</v>
@@ -10224,10 +10218,10 @@
         <v>25</v>
       </c>
       <c r="B61" t="s">
-        <v>1819</v>
+        <v>1870</v>
       </c>
       <c r="C61" t="s">
-        <v>1820</v>
+        <v>1793</v>
       </c>
       <c r="D61" t="s">
         <v>126</v>
@@ -10245,7 +10239,7 @@
         <v>136</v>
       </c>
       <c r="J61" t="s">
-        <v>1821</v>
+        <v>1794</v>
       </c>
       <c r="K61" t="s">
         <v>186</v>
@@ -10263,10 +10257,10 @@
         <v>218</v>
       </c>
       <c r="Q61" t="s">
-        <v>1822</v>
+        <v>1795</v>
       </c>
       <c r="R61" t="s">
-        <v>1819</v>
+        <v>1870</v>
       </c>
       <c r="S61" t="s">
         <v>294</v>
@@ -10289,10 +10283,10 @@
         <v>25</v>
       </c>
       <c r="B62" t="s">
-        <v>1825</v>
+        <v>1798</v>
       </c>
       <c r="C62" t="s">
-        <v>1823</v>
+        <v>1796</v>
       </c>
       <c r="D62" t="s">
         <v>126</v>
@@ -10310,7 +10304,7 @@
         <v>136</v>
       </c>
       <c r="J62" t="s">
-        <v>1839</v>
+        <v>1808</v>
       </c>
       <c r="K62" t="s">
         <v>186</v>
@@ -10328,10 +10322,10 @@
         <v>218</v>
       </c>
       <c r="Q62" t="s">
-        <v>1824</v>
+        <v>1797</v>
       </c>
       <c r="R62" t="s">
-        <v>1825</v>
+        <v>1798</v>
       </c>
       <c r="S62" t="s">
         <v>294</v>
@@ -10354,10 +10348,10 @@
         <v>25</v>
       </c>
       <c r="B63" t="s">
-        <v>1826</v>
+        <v>1871</v>
       </c>
       <c r="C63" t="s">
-        <v>1827</v>
+        <v>1799</v>
       </c>
       <c r="D63" t="s">
         <v>126</v>
@@ -10375,7 +10369,7 @@
         <v>136</v>
       </c>
       <c r="J63" t="s">
-        <v>1828</v>
+        <v>1800</v>
       </c>
       <c r="K63" t="s">
         <v>186</v>
@@ -10393,10 +10387,10 @@
         <v>218</v>
       </c>
       <c r="Q63" t="s">
-        <v>1829</v>
+        <v>1801</v>
       </c>
       <c r="R63" t="s">
-        <v>1826</v>
+        <v>1871</v>
       </c>
       <c r="S63" t="s">
         <v>294</v>
@@ -10419,10 +10413,10 @@
         <v>25</v>
       </c>
       <c r="B64" t="s">
-        <v>1830</v>
+        <v>1872</v>
       </c>
       <c r="C64" t="s">
-        <v>1831</v>
+        <v>1802</v>
       </c>
       <c r="D64" t="s">
         <v>126</v>
@@ -10440,7 +10434,7 @@
         <v>136</v>
       </c>
       <c r="J64" t="s">
-        <v>1832</v>
+        <v>1803</v>
       </c>
       <c r="K64" t="s">
         <v>186</v>
@@ -10458,10 +10452,10 @@
         <v>218</v>
       </c>
       <c r="Q64" t="s">
-        <v>1833</v>
+        <v>1804</v>
       </c>
       <c r="R64" t="s">
-        <v>1830</v>
+        <v>1872</v>
       </c>
       <c r="S64" t="s">
         <v>294</v>
@@ -10484,10 +10478,10 @@
         <v>25</v>
       </c>
       <c r="B65" t="s">
-        <v>1834</v>
+        <v>1873</v>
       </c>
       <c r="C65" t="s">
-        <v>1835</v>
+        <v>1805</v>
       </c>
       <c r="D65" t="s">
         <v>126</v>
@@ -10505,7 +10499,7 @@
         <v>136</v>
       </c>
       <c r="J65" t="s">
-        <v>1836</v>
+        <v>1806</v>
       </c>
       <c r="K65" t="s">
         <v>186</v>
@@ -10523,10 +10517,10 @@
         <v>218</v>
       </c>
       <c r="Q65" t="s">
-        <v>1837</v>
+        <v>1807</v>
       </c>
       <c r="R65" t="s">
-        <v>1834</v>
+        <v>1873</v>
       </c>
       <c r="S65" t="s">
         <v>294</v>
@@ -10549,10 +10543,10 @@
         <v>25</v>
       </c>
       <c r="B66" t="s">
-        <v>1838</v>
+        <v>1874</v>
       </c>
       <c r="C66" t="s">
-        <v>1840</v>
+        <v>1809</v>
       </c>
       <c r="D66" t="s">
         <v>126</v>
@@ -10570,7 +10564,7 @@
         <v>136</v>
       </c>
       <c r="J66" t="s">
-        <v>1841</v>
+        <v>1810</v>
       </c>
       <c r="K66" t="s">
         <v>186</v>
@@ -10588,10 +10582,10 @@
         <v>218</v>
       </c>
       <c r="Q66" t="s">
-        <v>1842</v>
+        <v>1811</v>
       </c>
       <c r="R66" t="s">
-        <v>1838</v>
+        <v>1874</v>
       </c>
       <c r="S66" t="s">
         <v>294</v>
@@ -10614,10 +10608,10 @@
         <v>25</v>
       </c>
       <c r="B67" t="s">
-        <v>1843</v>
+        <v>1812</v>
       </c>
       <c r="C67" t="s">
-        <v>1844</v>
+        <v>1813</v>
       </c>
       <c r="D67" t="s">
         <v>126</v>
@@ -10635,7 +10629,7 @@
         <v>136</v>
       </c>
       <c r="J67" t="s">
-        <v>1845</v>
+        <v>1814</v>
       </c>
       <c r="K67" t="s">
         <v>186</v>
@@ -10653,10 +10647,10 @@
         <v>218</v>
       </c>
       <c r="Q67" t="s">
-        <v>1846</v>
+        <v>1815</v>
       </c>
       <c r="R67" t="s">
-        <v>1843</v>
+        <v>1812</v>
       </c>
       <c r="S67" t="s">
         <v>294</v>
@@ -10679,10 +10673,10 @@
         <v>25</v>
       </c>
       <c r="B68" t="s">
-        <v>1847</v>
+        <v>1816</v>
       </c>
       <c r="C68" t="s">
-        <v>1848</v>
+        <v>1817</v>
       </c>
       <c r="D68" t="s">
         <v>126</v>
@@ -10700,7 +10694,7 @@
         <v>136</v>
       </c>
       <c r="J68" t="s">
-        <v>1849</v>
+        <v>1818</v>
       </c>
       <c r="K68" t="s">
         <v>186</v>
@@ -10718,10 +10712,10 @@
         <v>218</v>
       </c>
       <c r="Q68" t="s">
-        <v>1850</v>
+        <v>1819</v>
       </c>
       <c r="R68" t="s">
-        <v>1847</v>
+        <v>1816</v>
       </c>
       <c r="S68" t="s">
         <v>294</v>
@@ -10744,10 +10738,10 @@
         <v>25</v>
       </c>
       <c r="B69" t="s">
-        <v>1851</v>
+        <v>1820</v>
       </c>
       <c r="C69" t="s">
-        <v>1852</v>
+        <v>1821</v>
       </c>
       <c r="D69" t="s">
         <v>126</v>
@@ -10765,7 +10759,7 @@
         <v>136</v>
       </c>
       <c r="J69" t="s">
-        <v>1853</v>
+        <v>1822</v>
       </c>
       <c r="K69" t="s">
         <v>186</v>
@@ -10783,10 +10777,10 @@
         <v>218</v>
       </c>
       <c r="Q69" t="s">
-        <v>1854</v>
+        <v>1823</v>
       </c>
       <c r="R69" t="s">
-        <v>1851</v>
+        <v>1820</v>
       </c>
       <c r="S69" t="s">
         <v>294</v>
@@ -10874,10 +10868,10 @@
         <v>25</v>
       </c>
       <c r="B71" t="s">
-        <v>1855</v>
+        <v>1824</v>
       </c>
       <c r="C71" t="s">
-        <v>1856</v>
+        <v>1825</v>
       </c>
       <c r="D71" t="s">
         <v>126</v>
@@ -10895,7 +10889,7 @@
         <v>136</v>
       </c>
       <c r="J71" t="s">
-        <v>1857</v>
+        <v>1826</v>
       </c>
       <c r="K71" t="s">
         <v>186</v>
@@ -10913,10 +10907,10 @@
         <v>218</v>
       </c>
       <c r="Q71" t="s">
-        <v>1858</v>
+        <v>1827</v>
       </c>
       <c r="R71" t="s">
-        <v>1855</v>
+        <v>1824</v>
       </c>
       <c r="S71" t="s">
         <v>294</v>
@@ -10939,10 +10933,10 @@
         <v>25</v>
       </c>
       <c r="B72" t="s">
-        <v>1859</v>
+        <v>1828</v>
       </c>
       <c r="C72" t="s">
-        <v>1860</v>
+        <v>1829</v>
       </c>
       <c r="D72" t="s">
         <v>126</v>
@@ -10960,7 +10954,7 @@
         <v>136</v>
       </c>
       <c r="J72" t="s">
-        <v>1861</v>
+        <v>1830</v>
       </c>
       <c r="K72" t="s">
         <v>186</v>
@@ -10978,10 +10972,10 @@
         <v>218</v>
       </c>
       <c r="Q72" t="s">
-        <v>1862</v>
+        <v>1831</v>
       </c>
       <c r="R72" t="s">
-        <v>1859</v>
+        <v>1828</v>
       </c>
       <c r="S72" t="s">
         <v>294</v>
@@ -11004,10 +10998,10 @@
         <v>25</v>
       </c>
       <c r="B73" t="s">
-        <v>1863</v>
+        <v>1878</v>
       </c>
       <c r="C73" t="s">
-        <v>1864</v>
+        <v>1832</v>
       </c>
       <c r="D73" t="s">
         <v>126</v>
@@ -11025,7 +11019,7 @@
         <v>136</v>
       </c>
       <c r="J73" t="s">
-        <v>1865</v>
+        <v>1833</v>
       </c>
       <c r="K73" t="s">
         <v>186</v>
@@ -11043,10 +11037,10 @@
         <v>218</v>
       </c>
       <c r="Q73" t="s">
-        <v>1866</v>
+        <v>1834</v>
       </c>
       <c r="R73" t="s">
-        <v>1863</v>
+        <v>1878</v>
       </c>
       <c r="S73" t="s">
         <v>294</v>
@@ -11069,10 +11063,10 @@
         <v>25</v>
       </c>
       <c r="B74" t="s">
-        <v>1867</v>
+        <v>1875</v>
       </c>
       <c r="C74" t="s">
-        <v>1868</v>
+        <v>1835</v>
       </c>
       <c r="D74" t="s">
         <v>126</v>
@@ -11090,7 +11084,7 @@
         <v>136</v>
       </c>
       <c r="J74" t="s">
-        <v>1869</v>
+        <v>1836</v>
       </c>
       <c r="K74" t="s">
         <v>186</v>
@@ -11108,10 +11102,10 @@
         <v>218</v>
       </c>
       <c r="Q74" t="s">
-        <v>1870</v>
+        <v>1837</v>
       </c>
       <c r="R74" t="s">
-        <v>1867</v>
+        <v>1875</v>
       </c>
       <c r="S74" t="s">
         <v>294</v>
@@ -11134,10 +11128,10 @@
         <v>25</v>
       </c>
       <c r="B75" t="s">
-        <v>1871</v>
+        <v>1876</v>
       </c>
       <c r="C75" t="s">
-        <v>1872</v>
+        <v>1838</v>
       </c>
       <c r="D75" t="s">
         <v>126</v>
@@ -11155,7 +11149,7 @@
         <v>136</v>
       </c>
       <c r="J75" t="s">
-        <v>1873</v>
+        <v>1839</v>
       </c>
       <c r="K75" t="s">
         <v>186</v>
@@ -11173,10 +11167,10 @@
         <v>218</v>
       </c>
       <c r="Q75" t="s">
-        <v>1874</v>
+        <v>1840</v>
       </c>
       <c r="R75" t="s">
-        <v>1871</v>
+        <v>1876</v>
       </c>
       <c r="S75" t="s">
         <v>294</v>
@@ -11199,10 +11193,10 @@
         <v>25</v>
       </c>
       <c r="B76" t="s">
-        <v>1875</v>
+        <v>1877</v>
       </c>
       <c r="C76" t="s">
-        <v>1876</v>
+        <v>1841</v>
       </c>
       <c r="D76" t="s">
         <v>126</v>
@@ -11220,7 +11214,7 @@
         <v>136</v>
       </c>
       <c r="J76" t="s">
-        <v>1877</v>
+        <v>1842</v>
       </c>
       <c r="K76" t="s">
         <v>186</v>
@@ -11238,10 +11232,10 @@
         <v>218</v>
       </c>
       <c r="Q76" t="s">
-        <v>1878</v>
+        <v>1843</v>
       </c>
       <c r="R76" t="s">
-        <v>1875</v>
+        <v>1877</v>
       </c>
       <c r="S76" t="s">
         <v>294</v>
@@ -11264,10 +11258,10 @@
         <v>25</v>
       </c>
       <c r="B77" t="s">
-        <v>1879</v>
+        <v>1844</v>
       </c>
       <c r="C77" t="s">
-        <v>1880</v>
+        <v>1845</v>
       </c>
       <c r="D77" t="s">
         <v>126</v>
@@ -11285,7 +11279,7 @@
         <v>136</v>
       </c>
       <c r="J77" t="s">
-        <v>1881</v>
+        <v>1846</v>
       </c>
       <c r="K77" t="s">
         <v>186</v>
@@ -11303,10 +11297,10 @@
         <v>218</v>
       </c>
       <c r="Q77" t="s">
-        <v>1882</v>
+        <v>1847</v>
       </c>
       <c r="R77" t="s">
-        <v>1879</v>
+        <v>1844</v>
       </c>
       <c r="S77" t="s">
         <v>294</v>
@@ -11329,10 +11323,10 @@
         <v>25</v>
       </c>
       <c r="B78" t="s">
-        <v>1883</v>
+        <v>1848</v>
       </c>
       <c r="C78" t="s">
-        <v>1884</v>
+        <v>1849</v>
       </c>
       <c r="D78" t="s">
         <v>126</v>
@@ -11350,7 +11344,7 @@
         <v>136</v>
       </c>
       <c r="J78" t="s">
-        <v>1885</v>
+        <v>1850</v>
       </c>
       <c r="K78" t="s">
         <v>186</v>
@@ -11368,10 +11362,10 @@
         <v>218</v>
       </c>
       <c r="Q78" t="s">
-        <v>1886</v>
+        <v>1851</v>
       </c>
       <c r="R78" t="s">
-        <v>1883</v>
+        <v>1848</v>
       </c>
       <c r="S78" t="s">
         <v>294</v>
@@ -11394,10 +11388,10 @@
         <v>25</v>
       </c>
       <c r="B79" t="s">
-        <v>1887</v>
+        <v>1879</v>
       </c>
       <c r="C79" t="s">
-        <v>1892</v>
+        <v>1855</v>
       </c>
       <c r="D79" t="s">
         <v>126</v>
@@ -11415,7 +11409,7 @@
         <v>136</v>
       </c>
       <c r="J79" t="s">
-        <v>1888</v>
+        <v>1852</v>
       </c>
       <c r="K79" t="s">
         <v>186</v>
@@ -11433,10 +11427,10 @@
         <v>218</v>
       </c>
       <c r="Q79" t="s">
-        <v>1889</v>
+        <v>1853</v>
       </c>
       <c r="R79" t="s">
-        <v>1887</v>
+        <v>1879</v>
       </c>
       <c r="S79" t="s">
         <v>294</v>
@@ -11459,10 +11453,10 @@
         <v>25</v>
       </c>
       <c r="B80" t="s">
-        <v>1890</v>
+        <v>1880</v>
       </c>
       <c r="C80" t="s">
-        <v>1891</v>
+        <v>1854</v>
       </c>
       <c r="D80" t="s">
         <v>126</v>
@@ -11480,7 +11474,7 @@
         <v>136</v>
       </c>
       <c r="J80" t="s">
-        <v>1893</v>
+        <v>1856</v>
       </c>
       <c r="K80" t="s">
         <v>186</v>
@@ -11498,10 +11492,10 @@
         <v>218</v>
       </c>
       <c r="Q80" t="s">
-        <v>1894</v>
+        <v>1857</v>
       </c>
       <c r="R80" t="s">
-        <v>1890</v>
+        <v>1880</v>
       </c>
       <c r="S80" t="s">
         <v>294</v>
@@ -11524,10 +11518,10 @@
         <v>25</v>
       </c>
       <c r="B81" t="s">
-        <v>1895</v>
+        <v>1881</v>
       </c>
       <c r="C81" t="s">
-        <v>1896</v>
+        <v>1858</v>
       </c>
       <c r="D81" t="s">
         <v>126</v>
@@ -11545,7 +11539,7 @@
         <v>136</v>
       </c>
       <c r="J81" t="s">
-        <v>1897</v>
+        <v>1859</v>
       </c>
       <c r="K81" t="s">
         <v>186</v>
@@ -11563,10 +11557,10 @@
         <v>218</v>
       </c>
       <c r="Q81" t="s">
-        <v>1898</v>
+        <v>1860</v>
       </c>
       <c r="R81" t="s">
-        <v>1895</v>
+        <v>1881</v>
       </c>
       <c r="S81" t="s">
         <v>294</v>
@@ -11589,10 +11583,10 @@
         <v>25</v>
       </c>
       <c r="B82" t="s">
-        <v>1902</v>
+        <v>1864</v>
       </c>
       <c r="C82" t="s">
-        <v>1899</v>
+        <v>1861</v>
       </c>
       <c r="D82" t="s">
         <v>126</v>
@@ -11610,7 +11604,7 @@
         <v>136</v>
       </c>
       <c r="J82" t="s">
-        <v>1900</v>
+        <v>1862</v>
       </c>
       <c r="K82" t="s">
         <v>186</v>
@@ -11628,10 +11622,10 @@
         <v>218</v>
       </c>
       <c r="Q82" t="s">
-        <v>1901</v>
+        <v>1863</v>
       </c>
       <c r="R82" t="s">
-        <v>1902</v>
+        <v>1864</v>
       </c>
       <c r="S82" t="s">
         <v>294</v>
@@ -11654,10 +11648,10 @@
         <v>25</v>
       </c>
       <c r="B83" t="s">
-        <v>1903</v>
+        <v>1865</v>
       </c>
       <c r="C83" t="s">
-        <v>1904</v>
+        <v>1866</v>
       </c>
       <c r="D83" t="s">
         <v>126</v>
@@ -11675,7 +11669,7 @@
         <v>136</v>
       </c>
       <c r="J83" t="s">
-        <v>1905</v>
+        <v>1867</v>
       </c>
       <c r="K83" t="s">
         <v>186</v>
@@ -11693,10 +11687,10 @@
         <v>218</v>
       </c>
       <c r="Q83" t="s">
-        <v>1906</v>
+        <v>1868</v>
       </c>
       <c r="R83" t="s">
-        <v>1907</v>
+        <v>1869</v>
       </c>
       <c r="S83" t="s">
         <v>294</v>
@@ -11784,10 +11778,10 @@
         <v>25</v>
       </c>
       <c r="B85" t="s">
-        <v>1701</v>
+        <v>1698</v>
       </c>
       <c r="C85" t="s">
-        <v>1702</v>
+        <v>1699</v>
       </c>
       <c r="D85" t="s">
         <v>126</v>
@@ -11805,7 +11799,7 @@
         <v>136</v>
       </c>
       <c r="J85" t="s">
-        <v>1703</v>
+        <v>1700</v>
       </c>
       <c r="K85" t="s">
         <v>186</v>
@@ -11823,10 +11817,10 @@
         <v>218</v>
       </c>
       <c r="Q85" t="s">
-        <v>1704</v>
+        <v>1701</v>
       </c>
       <c r="R85" t="s">
-        <v>1701</v>
+        <v>1698</v>
       </c>
       <c r="S85" t="s">
         <v>294</v>
@@ -11849,10 +11843,10 @@
         <v>25</v>
       </c>
       <c r="B86" t="s">
-        <v>1705</v>
+        <v>1882</v>
       </c>
       <c r="C86" t="s">
-        <v>1706</v>
+        <v>1702</v>
       </c>
       <c r="D86" t="s">
         <v>126</v>
@@ -11870,7 +11864,7 @@
         <v>136</v>
       </c>
       <c r="J86" t="s">
-        <v>1707</v>
+        <v>1703</v>
       </c>
       <c r="K86" t="s">
         <v>186</v>
@@ -11888,10 +11882,10 @@
         <v>218</v>
       </c>
       <c r="Q86" t="s">
-        <v>1708</v>
+        <v>1704</v>
       </c>
       <c r="R86" t="s">
-        <v>1705</v>
+        <v>1882</v>
       </c>
       <c r="S86" t="s">
         <v>294</v>
@@ -11914,10 +11908,10 @@
         <v>25</v>
       </c>
       <c r="B87" t="s">
-        <v>1709</v>
+        <v>1883</v>
       </c>
       <c r="C87" t="s">
-        <v>1710</v>
+        <v>1705</v>
       </c>
       <c r="D87" t="s">
         <v>126</v>
@@ -11935,7 +11929,7 @@
         <v>136</v>
       </c>
       <c r="J87" t="s">
-        <v>1711</v>
+        <v>1706</v>
       </c>
       <c r="K87" t="s">
         <v>186</v>
@@ -11953,10 +11947,10 @@
         <v>218</v>
       </c>
       <c r="Q87" t="s">
-        <v>1712</v>
+        <v>1707</v>
       </c>
       <c r="R87" t="s">
-        <v>1709</v>
+        <v>1883</v>
       </c>
       <c r="S87" t="s">
         <v>294</v>
@@ -12044,10 +12038,10 @@
         <v>25</v>
       </c>
       <c r="B89" t="s">
-        <v>1697</v>
+        <v>1884</v>
       </c>
       <c r="C89" t="s">
-        <v>1698</v>
+        <v>1695</v>
       </c>
       <c r="D89" t="s">
         <v>126</v>
@@ -12065,7 +12059,7 @@
         <v>136</v>
       </c>
       <c r="J89" t="s">
-        <v>1699</v>
+        <v>1696</v>
       </c>
       <c r="K89" t="s">
         <v>186</v>
@@ -12083,10 +12077,10 @@
         <v>218</v>
       </c>
       <c r="Q89" t="s">
-        <v>1700</v>
+        <v>1697</v>
       </c>
       <c r="R89" t="s">
-        <v>1697</v>
+        <v>1884</v>
       </c>
       <c r="S89" t="s">
         <v>294</v>
@@ -12174,10 +12168,10 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>1713</v>
+        <v>1885</v>
       </c>
       <c r="C91" t="s">
-        <v>1714</v>
+        <v>1708</v>
       </c>
       <c r="D91" t="s">
         <v>126</v>
@@ -12195,7 +12189,7 @@
         <v>136</v>
       </c>
       <c r="J91" t="s">
-        <v>1715</v>
+        <v>1709</v>
       </c>
       <c r="K91" t="s">
         <v>186</v>
@@ -12213,10 +12207,10 @@
         <v>218</v>
       </c>
       <c r="Q91" t="s">
-        <v>1716</v>
+        <v>1710</v>
       </c>
       <c r="R91" t="s">
-        <v>1713</v>
+        <v>1885</v>
       </c>
       <c r="S91" t="s">
         <v>294</v>
@@ -12239,10 +12233,10 @@
         <v>25</v>
       </c>
       <c r="B92" t="s">
-        <v>1717</v>
+        <v>1886</v>
       </c>
       <c r="C92" t="s">
-        <v>1718</v>
+        <v>1711</v>
       </c>
       <c r="D92" t="s">
         <v>126</v>
@@ -12260,7 +12254,7 @@
         <v>136</v>
       </c>
       <c r="J92" t="s">
-        <v>1719</v>
+        <v>1712</v>
       </c>
       <c r="K92" t="s">
         <v>186</v>
@@ -12278,10 +12272,10 @@
         <v>218</v>
       </c>
       <c r="Q92" t="s">
-        <v>1720</v>
+        <v>1713</v>
       </c>
       <c r="R92" t="s">
-        <v>1717</v>
+        <v>1886</v>
       </c>
       <c r="S92" t="s">
         <v>294</v>
@@ -12304,10 +12298,10 @@
         <v>25</v>
       </c>
       <c r="B93" t="s">
-        <v>1721</v>
+        <v>1887</v>
       </c>
       <c r="C93" t="s">
-        <v>1722</v>
+        <v>1714</v>
       </c>
       <c r="D93" t="s">
         <v>126</v>
@@ -12325,7 +12319,7 @@
         <v>136</v>
       </c>
       <c r="J93" t="s">
-        <v>1723</v>
+        <v>1715</v>
       </c>
       <c r="K93" t="s">
         <v>186</v>
@@ -12343,10 +12337,10 @@
         <v>218</v>
       </c>
       <c r="Q93" t="s">
-        <v>1724</v>
+        <v>1716</v>
       </c>
       <c r="R93" t="s">
-        <v>1721</v>
+        <v>1887</v>
       </c>
       <c r="S93" t="s">
         <v>294</v>
@@ -12434,10 +12428,10 @@
         <v>25</v>
       </c>
       <c r="B95" t="s">
-        <v>1725</v>
+        <v>1888</v>
       </c>
       <c r="C95" t="s">
-        <v>1726</v>
+        <v>1717</v>
       </c>
       <c r="D95" t="s">
         <v>126</v>
@@ -12455,7 +12449,7 @@
         <v>136</v>
       </c>
       <c r="J95" t="s">
-        <v>1727</v>
+        <v>1718</v>
       </c>
       <c r="K95" t="s">
         <v>186</v>
@@ -12473,10 +12467,10 @@
         <v>218</v>
       </c>
       <c r="Q95" t="s">
-        <v>1728</v>
+        <v>1719</v>
       </c>
       <c r="R95" t="s">
-        <v>1725</v>
+        <v>1888</v>
       </c>
       <c r="S95" t="s">
         <v>294</v>
@@ -12499,10 +12493,10 @@
         <v>25</v>
       </c>
       <c r="B96" t="s">
-        <v>1729</v>
+        <v>1889</v>
       </c>
       <c r="C96" t="s">
-        <v>1730</v>
+        <v>1720</v>
       </c>
       <c r="D96" t="s">
         <v>126</v>
@@ -12520,7 +12514,7 @@
         <v>136</v>
       </c>
       <c r="J96" t="s">
-        <v>1731</v>
+        <v>1721</v>
       </c>
       <c r="K96" t="s">
         <v>186</v>
@@ -12538,10 +12532,10 @@
         <v>218</v>
       </c>
       <c r="Q96" t="s">
-        <v>1732</v>
+        <v>1722</v>
       </c>
       <c r="R96" t="s">
-        <v>1729</v>
+        <v>1889</v>
       </c>
       <c r="S96" t="s">
         <v>294</v>
@@ -12564,10 +12558,10 @@
         <v>25</v>
       </c>
       <c r="B97" t="s">
-        <v>1733</v>
+        <v>1890</v>
       </c>
       <c r="C97" t="s">
-        <v>1734</v>
+        <v>1723</v>
       </c>
       <c r="D97" t="s">
         <v>126</v>
@@ -12585,7 +12579,7 @@
         <v>136</v>
       </c>
       <c r="J97" t="s">
-        <v>1735</v>
+        <v>1724</v>
       </c>
       <c r="K97" t="s">
         <v>186</v>
@@ -12603,10 +12597,10 @@
         <v>218</v>
       </c>
       <c r="Q97" t="s">
-        <v>1736</v>
+        <v>1725</v>
       </c>
       <c r="R97" t="s">
-        <v>1733</v>
+        <v>1890</v>
       </c>
       <c r="S97" t="s">
         <v>294</v>
@@ -12694,10 +12688,10 @@
         <v>25</v>
       </c>
       <c r="B99" t="s">
-        <v>1737</v>
+        <v>1891</v>
       </c>
       <c r="C99" t="s">
-        <v>1738</v>
+        <v>1726</v>
       </c>
       <c r="D99" t="s">
         <v>126</v>
@@ -12715,7 +12709,7 @@
         <v>136</v>
       </c>
       <c r="J99" t="s">
-        <v>1739</v>
+        <v>1727</v>
       </c>
       <c r="K99" t="s">
         <v>186</v>
@@ -12733,10 +12727,10 @@
         <v>218</v>
       </c>
       <c r="Q99" t="s">
-        <v>1740</v>
+        <v>1728</v>
       </c>
       <c r="R99" t="s">
-        <v>1737</v>
+        <v>1891</v>
       </c>
       <c r="S99" t="s">
         <v>294</v>
@@ -12759,10 +12753,10 @@
         <v>25</v>
       </c>
       <c r="B100" t="s">
-        <v>1741</v>
+        <v>1892</v>
       </c>
       <c r="C100" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
       <c r="D100" t="s">
         <v>126</v>
@@ -12780,7 +12774,7 @@
         <v>136</v>
       </c>
       <c r="J100" t="s">
-        <v>1743</v>
+        <v>1730</v>
       </c>
       <c r="K100" t="s">
         <v>186</v>
@@ -12798,10 +12792,10 @@
         <v>218</v>
       </c>
       <c r="Q100" t="s">
-        <v>1744</v>
+        <v>1731</v>
       </c>
       <c r="R100" t="s">
-        <v>1745</v>
+        <v>1892</v>
       </c>
       <c r="S100" t="s">
         <v>294</v>
@@ -12824,10 +12818,10 @@
         <v>25</v>
       </c>
       <c r="B101" t="s">
-        <v>1746</v>
+        <v>1893</v>
       </c>
       <c r="C101" t="s">
-        <v>1747</v>
+        <v>1732</v>
       </c>
       <c r="D101" t="s">
         <v>126</v>
@@ -12845,7 +12839,7 @@
         <v>136</v>
       </c>
       <c r="J101" t="s">
-        <v>1748</v>
+        <v>1733</v>
       </c>
       <c r="K101" t="s">
         <v>186</v>
@@ -12863,10 +12857,10 @@
         <v>218</v>
       </c>
       <c r="Q101" t="s">
-        <v>1749</v>
+        <v>1734</v>
       </c>
       <c r="R101" t="s">
-        <v>1750</v>
+        <v>1893</v>
       </c>
       <c r="S101" t="s">
         <v>294</v>
@@ -12954,10 +12948,10 @@
         <v>25</v>
       </c>
       <c r="B103" t="s">
-        <v>1751</v>
+        <v>1894</v>
       </c>
       <c r="C103" t="s">
-        <v>1752</v>
+        <v>1735</v>
       </c>
       <c r="D103" t="s">
         <v>126</v>
@@ -12975,7 +12969,7 @@
         <v>136</v>
       </c>
       <c r="J103" t="s">
-        <v>1753</v>
+        <v>1736</v>
       </c>
       <c r="K103" t="s">
         <v>186</v>
@@ -12993,10 +12987,10 @@
         <v>218</v>
       </c>
       <c r="Q103" t="s">
-        <v>1754</v>
+        <v>1737</v>
       </c>
       <c r="R103" t="s">
-        <v>1751</v>
+        <v>1894</v>
       </c>
       <c r="S103" t="s">
         <v>294</v>
@@ -13019,10 +13013,10 @@
         <v>25</v>
       </c>
       <c r="B104" t="s">
-        <v>1755</v>
+        <v>1738</v>
       </c>
       <c r="C104" t="s">
-        <v>1756</v>
+        <v>1739</v>
       </c>
       <c r="D104" t="s">
         <v>126</v>
@@ -13040,7 +13034,7 @@
         <v>136</v>
       </c>
       <c r="J104" t="s">
-        <v>1757</v>
+        <v>1740</v>
       </c>
       <c r="K104" t="s">
         <v>186</v>
@@ -13058,10 +13052,10 @@
         <v>218</v>
       </c>
       <c r="Q104" t="s">
-        <v>1758</v>
+        <v>1741</v>
       </c>
       <c r="R104" t="s">
-        <v>1755</v>
+        <v>1738</v>
       </c>
       <c r="S104" t="s">
         <v>294</v>
@@ -13149,10 +13143,10 @@
         <v>25</v>
       </c>
       <c r="B106" t="s">
-        <v>1759</v>
+        <v>1895</v>
       </c>
       <c r="C106" t="s">
-        <v>1760</v>
+        <v>1742</v>
       </c>
       <c r="D106" t="s">
         <v>126</v>
@@ -13170,7 +13164,7 @@
         <v>136</v>
       </c>
       <c r="J106" t="s">
-        <v>1761</v>
+        <v>1743</v>
       </c>
       <c r="K106" t="s">
         <v>186</v>
@@ -13188,10 +13182,10 @@
         <v>218</v>
       </c>
       <c r="Q106" t="s">
-        <v>1762</v>
+        <v>1744</v>
       </c>
       <c r="R106" t="s">
-        <v>1759</v>
+        <v>1895</v>
       </c>
       <c r="S106" t="s">
         <v>294</v>
@@ -13214,10 +13208,10 @@
         <v>25</v>
       </c>
       <c r="B107" t="s">
-        <v>1763</v>
+        <v>1745</v>
       </c>
       <c r="C107" t="s">
-        <v>1764</v>
+        <v>1746</v>
       </c>
       <c r="D107" t="s">
         <v>126</v>
@@ -13235,7 +13229,7 @@
         <v>136</v>
       </c>
       <c r="J107" t="s">
-        <v>1765</v>
+        <v>1747</v>
       </c>
       <c r="K107" t="s">
         <v>186</v>
@@ -13253,10 +13247,10 @@
         <v>218</v>
       </c>
       <c r="Q107" t="s">
-        <v>1766</v>
+        <v>1748</v>
       </c>
       <c r="R107" t="s">
-        <v>1763</v>
+        <v>1745</v>
       </c>
       <c r="S107" t="s">
         <v>294</v>
@@ -13279,10 +13273,10 @@
         <v>25</v>
       </c>
       <c r="B108" t="s">
-        <v>1767</v>
+        <v>1749</v>
       </c>
       <c r="C108" t="s">
-        <v>1768</v>
+        <v>1750</v>
       </c>
       <c r="D108" t="s">
         <v>126</v>
@@ -13300,7 +13294,7 @@
         <v>136</v>
       </c>
       <c r="J108" t="s">
-        <v>1769</v>
+        <v>1751</v>
       </c>
       <c r="K108" t="s">
         <v>186</v>
@@ -13318,10 +13312,10 @@
         <v>218</v>
       </c>
       <c r="Q108" t="s">
-        <v>1770</v>
+        <v>1752</v>
       </c>
       <c r="R108" t="s">
-        <v>1767</v>
+        <v>1749</v>
       </c>
       <c r="S108" t="s">
         <v>294</v>
@@ -13344,10 +13338,10 @@
         <v>25</v>
       </c>
       <c r="B109" t="s">
-        <v>1771</v>
+        <v>1753</v>
       </c>
       <c r="C109" t="s">
-        <v>1772</v>
+        <v>1754</v>
       </c>
       <c r="D109" t="s">
         <v>126</v>
@@ -13365,7 +13359,7 @@
         <v>136</v>
       </c>
       <c r="J109" t="s">
-        <v>1773</v>
+        <v>1755</v>
       </c>
       <c r="K109" t="s">
         <v>186</v>
@@ -13383,10 +13377,10 @@
         <v>218</v>
       </c>
       <c r="Q109" t="s">
-        <v>1774</v>
+        <v>1756</v>
       </c>
       <c r="R109" t="s">
-        <v>1771</v>
+        <v>1753</v>
       </c>
       <c r="S109" t="s">
         <v>294</v>
@@ -13409,10 +13403,10 @@
         <v>25</v>
       </c>
       <c r="B110" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C110" t="s">
         <v>1681</v>
-      </c>
-      <c r="C110" t="s">
-        <v>1682</v>
       </c>
       <c r="D110" t="s">
         <v>126</v>
@@ -13430,7 +13424,7 @@
         <v>136</v>
       </c>
       <c r="J110" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="K110" t="s">
         <v>186</v>
@@ -13448,10 +13442,10 @@
         <v>218</v>
       </c>
       <c r="Q110" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="R110" t="s">
-        <v>1681</v>
+        <v>1896</v>
       </c>
       <c r="S110" t="s">
         <v>294</v>
@@ -13474,10 +13468,10 @@
         <v>25</v>
       </c>
       <c r="B111" t="s">
-        <v>1775</v>
+        <v>1897</v>
       </c>
       <c r="C111" t="s">
-        <v>1776</v>
+        <v>1757</v>
       </c>
       <c r="D111" t="s">
         <v>126</v>
@@ -13495,7 +13489,7 @@
         <v>136</v>
       </c>
       <c r="J111" t="s">
-        <v>1777</v>
+        <v>1758</v>
       </c>
       <c r="K111" t="s">
         <v>186</v>
@@ -13513,16 +13507,16 @@
         <v>218</v>
       </c>
       <c r="Q111" t="s">
-        <v>1778</v>
+        <v>1759</v>
       </c>
       <c r="R111" t="s">
-        <v>1775</v>
+        <v>1897</v>
       </c>
       <c r="S111" t="s">
         <v>294</v>
       </c>
       <c r="T111" t="s">
-        <v>1681</v>
+        <v>1896</v>
       </c>
       <c r="U111" t="s">
         <v>334</v>
@@ -13539,10 +13533,10 @@
         <v>25</v>
       </c>
       <c r="B112" t="s">
-        <v>1779</v>
+        <v>1898</v>
       </c>
       <c r="C112" t="s">
-        <v>1780</v>
+        <v>1760</v>
       </c>
       <c r="D112" t="s">
         <v>126</v>
@@ -13560,7 +13554,7 @@
         <v>136</v>
       </c>
       <c r="J112" t="s">
-        <v>1781</v>
+        <v>1761</v>
       </c>
       <c r="K112" t="s">
         <v>186</v>
@@ -13578,16 +13572,16 @@
         <v>218</v>
       </c>
       <c r="Q112" t="s">
-        <v>1782</v>
+        <v>1762</v>
       </c>
       <c r="R112" t="s">
-        <v>1779</v>
+        <v>1898</v>
       </c>
       <c r="S112" t="s">
         <v>294</v>
       </c>
       <c r="T112" t="s">
-        <v>1681</v>
+        <v>1896</v>
       </c>
       <c r="U112" t="s">
         <v>334</v>
@@ -13604,10 +13598,10 @@
         <v>25</v>
       </c>
       <c r="B113" t="s">
-        <v>1685</v>
+        <v>1899</v>
       </c>
       <c r="C113" t="s">
-        <v>1686</v>
+        <v>1684</v>
       </c>
       <c r="D113" t="s">
         <v>126</v>
@@ -13625,7 +13619,7 @@
         <v>136</v>
       </c>
       <c r="J113" t="s">
-        <v>1687</v>
+        <v>1685</v>
       </c>
       <c r="K113" t="s">
         <v>186</v>
@@ -13643,10 +13637,10 @@
         <v>218</v>
       </c>
       <c r="Q113" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="R113" t="s">
-        <v>1685</v>
+        <v>1899</v>
       </c>
       <c r="S113" t="s">
         <v>294</v>
@@ -13669,10 +13663,10 @@
         <v>25</v>
       </c>
       <c r="B114" t="s">
-        <v>1783</v>
+        <v>1900</v>
       </c>
       <c r="C114" t="s">
-        <v>1784</v>
+        <v>1763</v>
       </c>
       <c r="D114" t="s">
         <v>126</v>
@@ -13690,7 +13684,7 @@
         <v>136</v>
       </c>
       <c r="J114" t="s">
-        <v>1785</v>
+        <v>1764</v>
       </c>
       <c r="K114" t="s">
         <v>186</v>
@@ -13708,16 +13702,16 @@
         <v>218</v>
       </c>
       <c r="Q114" t="s">
-        <v>1786</v>
+        <v>1765</v>
       </c>
       <c r="R114" t="s">
-        <v>1783</v>
+        <v>1900</v>
       </c>
       <c r="S114" t="s">
         <v>294</v>
       </c>
       <c r="T114" t="s">
-        <v>1685</v>
+        <v>1899</v>
       </c>
       <c r="U114" t="s">
         <v>334</v>
@@ -13734,10 +13728,10 @@
         <v>25</v>
       </c>
       <c r="B115" t="s">
-        <v>1787</v>
+        <v>1901</v>
       </c>
       <c r="C115" t="s">
-        <v>1788</v>
+        <v>1766</v>
       </c>
       <c r="D115" t="s">
         <v>126</v>
@@ -13755,7 +13749,7 @@
         <v>136</v>
       </c>
       <c r="J115" t="s">
-        <v>1789</v>
+        <v>1767</v>
       </c>
       <c r="K115" t="s">
         <v>186</v>
@@ -13773,16 +13767,16 @@
         <v>218</v>
       </c>
       <c r="Q115" t="s">
-        <v>1790</v>
+        <v>1768</v>
       </c>
       <c r="R115" t="s">
-        <v>1787</v>
+        <v>1901</v>
       </c>
       <c r="S115" t="s">
         <v>294</v>
       </c>
       <c r="T115" t="s">
-        <v>1685</v>
+        <v>1899</v>
       </c>
       <c r="U115" t="s">
         <v>334</v>
@@ -13799,10 +13793,10 @@
         <v>25</v>
       </c>
       <c r="B116" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
       <c r="C116" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="D116" t="s">
         <v>126</v>
@@ -13820,7 +13814,7 @@
         <v>136</v>
       </c>
       <c r="J116" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="K116" t="s">
         <v>186</v>
@@ -13838,10 +13832,10 @@
         <v>218</v>
       </c>
       <c r="Q116" t="s">
-        <v>1692</v>
+        <v>1690</v>
       </c>
       <c r="R116" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
       <c r="S116" t="s">
         <v>294</v>
@@ -13864,10 +13858,10 @@
         <v>25</v>
       </c>
       <c r="B117" t="s">
-        <v>1791</v>
+        <v>1902</v>
       </c>
       <c r="C117" t="s">
-        <v>1792</v>
+        <v>1769</v>
       </c>
       <c r="D117" t="s">
         <v>126</v>
@@ -13885,7 +13879,7 @@
         <v>136</v>
       </c>
       <c r="J117" t="s">
-        <v>1793</v>
+        <v>1770</v>
       </c>
       <c r="K117" t="s">
         <v>186</v>
@@ -13903,16 +13897,16 @@
         <v>218</v>
       </c>
       <c r="Q117" t="s">
-        <v>1794</v>
+        <v>1771</v>
       </c>
       <c r="R117" t="s">
-        <v>1791</v>
+        <v>1902</v>
       </c>
       <c r="S117" t="s">
         <v>294</v>
       </c>
       <c r="T117" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
       <c r="U117" t="s">
         <v>334</v>
@@ -13929,10 +13923,10 @@
         <v>25</v>
       </c>
       <c r="B118" t="s">
-        <v>1795</v>
+        <v>1903</v>
       </c>
       <c r="C118" t="s">
-        <v>1796</v>
+        <v>1772</v>
       </c>
       <c r="D118" t="s">
         <v>126</v>
@@ -13950,7 +13944,7 @@
         <v>136</v>
       </c>
       <c r="J118" t="s">
-        <v>1797</v>
+        <v>1773</v>
       </c>
       <c r="K118" t="s">
         <v>186</v>
@@ -13968,16 +13962,16 @@
         <v>218</v>
       </c>
       <c r="Q118" t="s">
-        <v>1798</v>
+        <v>1774</v>
       </c>
       <c r="R118" t="s">
-        <v>1795</v>
+        <v>1903</v>
       </c>
       <c r="S118" t="s">
         <v>294</v>
       </c>
       <c r="T118" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
       <c r="U118" t="s">
         <v>334</v>
@@ -13994,10 +13988,10 @@
         <v>25</v>
       </c>
       <c r="B119" t="s">
-        <v>1799</v>
+        <v>1904</v>
       </c>
       <c r="C119" t="s">
-        <v>1800</v>
+        <v>1775</v>
       </c>
       <c r="D119" t="s">
         <v>126</v>
@@ -14015,7 +14009,7 @@
         <v>136</v>
       </c>
       <c r="J119" t="s">
-        <v>1801</v>
+        <v>1776</v>
       </c>
       <c r="K119" t="s">
         <v>186</v>
@@ -14033,16 +14027,16 @@
         <v>218</v>
       </c>
       <c r="Q119" t="s">
-        <v>1802</v>
+        <v>1777</v>
       </c>
       <c r="R119" t="s">
-        <v>1799</v>
+        <v>1904</v>
       </c>
       <c r="S119" t="s">
         <v>294</v>
       </c>
       <c r="T119" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
       <c r="U119" t="s">
         <v>334</v>
@@ -14059,10 +14053,10 @@
         <v>25</v>
       </c>
       <c r="B120" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
       <c r="C120" t="s">
-        <v>1694</v>
+        <v>1692</v>
       </c>
       <c r="D120" t="s">
         <v>126</v>
@@ -14080,7 +14074,7 @@
         <v>136</v>
       </c>
       <c r="J120" t="s">
-        <v>1695</v>
+        <v>1693</v>
       </c>
       <c r="K120" t="s">
         <v>186</v>
@@ -14098,10 +14092,10 @@
         <v>218</v>
       </c>
       <c r="Q120" t="s">
-        <v>1696</v>
+        <v>1694</v>
       </c>
       <c r="R120" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
       <c r="S120" t="s">
         <v>294</v>
@@ -14124,10 +14118,10 @@
         <v>25</v>
       </c>
       <c r="B121" t="s">
-        <v>1803</v>
+        <v>1778</v>
       </c>
       <c r="C121" t="s">
-        <v>1804</v>
+        <v>1779</v>
       </c>
       <c r="D121" t="s">
         <v>126</v>
@@ -14145,7 +14139,7 @@
         <v>136</v>
       </c>
       <c r="J121" t="s">
-        <v>1805</v>
+        <v>1780</v>
       </c>
       <c r="K121" t="s">
         <v>186</v>
@@ -14163,16 +14157,16 @@
         <v>218</v>
       </c>
       <c r="Q121" t="s">
-        <v>1806</v>
+        <v>1781</v>
       </c>
       <c r="R121" t="s">
-        <v>1803</v>
+        <v>1778</v>
       </c>
       <c r="S121" t="s">
         <v>294</v>
       </c>
       <c r="T121" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
       <c r="U121" t="s">
         <v>334</v>
@@ -14189,10 +14183,10 @@
         <v>25</v>
       </c>
       <c r="B122" t="s">
-        <v>1807</v>
+        <v>1905</v>
       </c>
       <c r="C122" t="s">
-        <v>1808</v>
+        <v>1782</v>
       </c>
       <c r="D122" t="s">
         <v>126</v>
@@ -14210,7 +14204,7 @@
         <v>136</v>
       </c>
       <c r="J122" t="s">
-        <v>1809</v>
+        <v>1783</v>
       </c>
       <c r="K122" t="s">
         <v>186</v>
@@ -14228,16 +14222,16 @@
         <v>218</v>
       </c>
       <c r="Q122" t="s">
-        <v>1810</v>
+        <v>1784</v>
       </c>
       <c r="R122" t="s">
-        <v>1807</v>
+        <v>1905</v>
       </c>
       <c r="S122" t="s">
         <v>294</v>
       </c>
       <c r="T122" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
       <c r="U122" t="s">
         <v>334</v>
@@ -14254,10 +14248,10 @@
         <v>25</v>
       </c>
       <c r="B123" t="s">
-        <v>1811</v>
+        <v>1785</v>
       </c>
       <c r="C123" t="s">
-        <v>1812</v>
+        <v>1786</v>
       </c>
       <c r="D123" t="s">
         <v>126</v>
@@ -14275,7 +14269,7 @@
         <v>136</v>
       </c>
       <c r="J123" t="s">
-        <v>1813</v>
+        <v>1787</v>
       </c>
       <c r="K123" t="s">
         <v>186</v>
@@ -14293,16 +14287,16 @@
         <v>218</v>
       </c>
       <c r="Q123" t="s">
-        <v>1814</v>
+        <v>1788</v>
       </c>
       <c r="R123" t="s">
-        <v>1811</v>
+        <v>1785</v>
       </c>
       <c r="S123" t="s">
         <v>294</v>
       </c>
       <c r="T123" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
       <c r="U123" t="s">
         <v>334</v>

--- a/gdcdictionary/xlsx/nodes_schema_impowr.xlsx
+++ b/gdcdictionary/xlsx/nodes_schema_impowr.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vithal\Documents\GitHub\dcfdictionary\gdcdictionary\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F29BA84-6CF8-4735-9629-FCCF89DFA15B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93ECECB2-C662-4FE9-A6A7-A33B73EB010D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6161,9 +6161,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T137" sqref="T137"/>
+    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="89" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/gdcdictionary/xlsx/nodes_schema_impowr.xlsx
+++ b/gdcdictionary/xlsx/nodes_schema_impowr.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vithal\Documents\GitHub\dcfdictionary\gdcdictionary\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93ECECB2-C662-4FE9-A6A7-A33B73EB010D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27121641-4F43-48A8-85E5-F34702B17FC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6744" uniqueCount="1906">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6961" uniqueCount="2011">
   <si>
     <t>&lt;$schema&gt;</t>
   </si>
@@ -5745,6 +5745,324 @@
   </si>
   <si>
     <t>pb_aim_iam_fim</t>
+  </si>
+  <si>
+    <t>impd_brthdtc</t>
+  </si>
+  <si>
+    <t>imp_age</t>
+  </si>
+  <si>
+    <t>impd_ethnic</t>
+  </si>
+  <si>
+    <t>impd_race</t>
+  </si>
+  <si>
+    <t>impdrace_white</t>
+  </si>
+  <si>
+    <t>impdrace_bl_aa</t>
+  </si>
+  <si>
+    <t>impdrace_ai_an</t>
+  </si>
+  <si>
+    <t>impdrace_asian</t>
+  </si>
+  <si>
+    <t>impdrace_nh_pi</t>
+  </si>
+  <si>
+    <t>impdrace_other</t>
+  </si>
+  <si>
+    <t>impdrace_unkn</t>
+  </si>
+  <si>
+    <t>impdrace_not_rep</t>
+  </si>
+  <si>
+    <t>impdrace_othertxt</t>
+  </si>
+  <si>
+    <t>impdgenid</t>
+  </si>
+  <si>
+    <t>impdgenid01_male</t>
+  </si>
+  <si>
+    <t>impdgenid02_female</t>
+  </si>
+  <si>
+    <t>impdgenid03_transman</t>
+  </si>
+  <si>
+    <t>impdgenid04_transwoman</t>
+  </si>
+  <si>
+    <t>impdgenid05_genderqueer</t>
+  </si>
+  <si>
+    <t>impdgenid06_nonbinary</t>
+  </si>
+  <si>
+    <t>impdgenid07_agender</t>
+  </si>
+  <si>
+    <t>impdgenid08_genfluid</t>
+  </si>
+  <si>
+    <t>impdgenid09_other</t>
+  </si>
+  <si>
+    <t>impdgenid10_not_rep</t>
+  </si>
+  <si>
+    <t>impdgenid09_othertxt</t>
+  </si>
+  <si>
+    <t>impdsex</t>
+  </si>
+  <si>
+    <t>impdsextxt</t>
+  </si>
+  <si>
+    <t>imp_sexual</t>
+  </si>
+  <si>
+    <t>impd_straight</t>
+  </si>
+  <si>
+    <t>impd_lesbiangay</t>
+  </si>
+  <si>
+    <t>impd_bisexual</t>
+  </si>
+  <si>
+    <t>impd_queer</t>
+  </si>
+  <si>
+    <t>impd_pansexual</t>
+  </si>
+  <si>
+    <t>impd_questioning</t>
+  </si>
+  <si>
+    <t>impd_asexual</t>
+  </si>
+  <si>
+    <t>impd_orientationother</t>
+  </si>
+  <si>
+    <t>impd_orientation_not_rep</t>
+  </si>
+  <si>
+    <t>impd_orientationothertxt</t>
+  </si>
+  <si>
+    <t>impd_pregnant</t>
+  </si>
+  <si>
+    <t>imp_relat</t>
+  </si>
+  <si>
+    <t>impd_divorced</t>
+  </si>
+  <si>
+    <t>impd_married</t>
+  </si>
+  <si>
+    <t>impd_nevermarried</t>
+  </si>
+  <si>
+    <t>impd_separated</t>
+  </si>
+  <si>
+    <t>impd_widow</t>
+  </si>
+  <si>
+    <t>impd_domestic</t>
+  </si>
+  <si>
+    <t>impd_relat_not_rep</t>
+  </si>
+  <si>
+    <t>impd_edulevel</t>
+  </si>
+  <si>
+    <t>impd_incmlvl</t>
+  </si>
+  <si>
+    <t>impd_empstat</t>
+  </si>
+  <si>
+    <t>disabinsind</t>
+  </si>
+  <si>
+    <t>impd_school</t>
+  </si>
+  <si>
+    <t>impd_schoolft</t>
+  </si>
+  <si>
+    <t>impd_address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is your birth date? </t>
+  </si>
+  <si>
+    <t>Age (yrs)</t>
+  </si>
+  <si>
+    <t>Are you of Hispanic, Latino, or Spanish origin?</t>
+  </si>
+  <si>
+    <t>What is your race?</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>Black/African American</t>
+  </si>
+  <si>
+    <t>American Indian or Alaska Native</t>
+  </si>
+  <si>
+    <t>Asian</t>
+  </si>
+  <si>
+    <t>Native Hawaiian or Other Pacific Islander</t>
+  </si>
+  <si>
+    <t>Some other race</t>
+  </si>
+  <si>
+    <t>Prefer not to answer</t>
+  </si>
+  <si>
+    <t>Some other race
+(SPECIFY)</t>
+  </si>
+  <si>
+    <t>Gender Identity - Do you think of yourself as . . .</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Transgender man/trans man/female-to-male (FTM)</t>
+  </si>
+  <si>
+    <t>Transgender woman/trans woman/male-to-female (MTF)</t>
+  </si>
+  <si>
+    <t>Genderqueer</t>
+  </si>
+  <si>
+    <t>Nonbinary</t>
+  </si>
+  <si>
+    <t>Agender</t>
+  </si>
+  <si>
+    <t>Gender Fluid</t>
+  </si>
+  <si>
+    <t>Some other gender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please specify for gender category </t>
+  </si>
+  <si>
+    <t>What was your sex assigned at birth?</t>
+  </si>
+  <si>
+    <t>What was your sex assigned at birth?
+Other (specify)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sexual Orientation- Do you think of yourself as... </t>
+  </si>
+  <si>
+    <t>Straight or heterosexual</t>
+  </si>
+  <si>
+    <t>Lesbian or gay</t>
+  </si>
+  <si>
+    <t>Bisexual</t>
+  </si>
+  <si>
+    <t>Queer</t>
+  </si>
+  <si>
+    <t>Pansexual</t>
+  </si>
+  <si>
+    <t>Questioning</t>
+  </si>
+  <si>
+    <t>Asexual</t>
+  </si>
+  <si>
+    <t>Something else</t>
+  </si>
+  <si>
+    <t>Something else (specify)</t>
+  </si>
+  <si>
+    <t>Are you currently pregnant?</t>
+  </si>
+  <si>
+    <t>What category best describes your current relationship
+status?</t>
+  </si>
+  <si>
+    <t>Divorced</t>
+  </si>
+  <si>
+    <t>Married</t>
+  </si>
+  <si>
+    <t>Never married</t>
+  </si>
+  <si>
+    <t>Separated</t>
+  </si>
+  <si>
+    <t>Widowed</t>
+  </si>
+  <si>
+    <t>Domestic partner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the highest grade or level of training/school you have completed or the highest degree you have received?  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is your annual income from all sources? </t>
+  </si>
+  <si>
+    <t>What is your current employment status?</t>
+  </si>
+  <si>
+    <t>Have you ever applied for, or received, disability insurance for your pain condition?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are you currently attending school (including vocational or trade school)? </t>
+  </si>
+  <si>
+    <t>Are you attending full time?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is your address and zip code? </t>
+  </si>
+  <si>
+    <t>text</t>
   </si>
 </sst>
 </file>
@@ -5775,12 +6093,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -5814,12 +6138,19 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -6162,8 +6493,8 @@
   <dimension ref="A1:Y123"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J40" sqref="J40"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="89" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14559,10 +14890,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K455"/>
+  <dimension ref="A1:K510"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58:XFD58"/>
+    <sheetView topLeftCell="A481" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="B510" sqref="B510"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14570,7 +14901,7 @@
     <col min="1" max="1" width="32.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="59.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="99.5703125" customWidth="1"/>
     <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
@@ -20966,6 +21297,767 @@
       </c>
       <c r="E455" t="s">
         <v>1037</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A456" s="4" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B456" s="5" t="s">
+        <v>1906</v>
+      </c>
+      <c r="D456" s="5" t="s">
+        <v>1960</v>
+      </c>
+      <c r="E456" s="5" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A457" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B457" s="3" t="s">
+        <v>1907</v>
+      </c>
+      <c r="D457" s="3" t="s">
+        <v>1961</v>
+      </c>
+      <c r="E457" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A458" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B458" s="3" t="s">
+        <v>1908</v>
+      </c>
+      <c r="D458" s="3" t="s">
+        <v>1962</v>
+      </c>
+      <c r="E458" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A459" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B459" s="3" t="s">
+        <v>1909</v>
+      </c>
+      <c r="D459" s="3" t="s">
+        <v>1963</v>
+      </c>
+      <c r="E459" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A460" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B460" s="3" t="s">
+        <v>1910</v>
+      </c>
+      <c r="D460" s="3" t="s">
+        <v>1964</v>
+      </c>
+      <c r="E460" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A461" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B461" s="3" t="s">
+        <v>1911</v>
+      </c>
+      <c r="D461" s="3" t="s">
+        <v>1965</v>
+      </c>
+      <c r="E461" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A462" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B462" s="3" t="s">
+        <v>1912</v>
+      </c>
+      <c r="D462" s="3" t="s">
+        <v>1966</v>
+      </c>
+      <c r="E462" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A463" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B463" s="3" t="s">
+        <v>1913</v>
+      </c>
+      <c r="D463" s="3" t="s">
+        <v>1967</v>
+      </c>
+      <c r="E463" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A464" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B464" s="3" t="s">
+        <v>1914</v>
+      </c>
+      <c r="D464" s="3" t="s">
+        <v>1968</v>
+      </c>
+      <c r="E464" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A465" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B465" s="3" t="s">
+        <v>1915</v>
+      </c>
+      <c r="D465" s="3" t="s">
+        <v>1969</v>
+      </c>
+      <c r="E465" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A466" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B466" s="3" t="s">
+        <v>1916</v>
+      </c>
+      <c r="D466" s="3" t="s">
+        <v>1105</v>
+      </c>
+      <c r="E466" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A467" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B467" s="3" t="s">
+        <v>1917</v>
+      </c>
+      <c r="D467" s="3" t="s">
+        <v>1970</v>
+      </c>
+      <c r="E467" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A468" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B468" s="3" t="s">
+        <v>1918</v>
+      </c>
+      <c r="D468" s="3" t="s">
+        <v>1971</v>
+      </c>
+      <c r="E468" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A469" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B469" s="3" t="s">
+        <v>1919</v>
+      </c>
+      <c r="D469" s="3" t="s">
+        <v>1972</v>
+      </c>
+      <c r="E469" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A470" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B470" s="3" t="s">
+        <v>1920</v>
+      </c>
+      <c r="D470" s="3" t="s">
+        <v>1973</v>
+      </c>
+      <c r="E470" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A471" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B471" s="3" t="s">
+        <v>1921</v>
+      </c>
+      <c r="D471" s="3" t="s">
+        <v>1974</v>
+      </c>
+      <c r="E471" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A472" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B472" s="3" t="s">
+        <v>1922</v>
+      </c>
+      <c r="D472" s="3" t="s">
+        <v>1975</v>
+      </c>
+      <c r="E472" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A473" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B473" s="3" t="s">
+        <v>1923</v>
+      </c>
+      <c r="D473" s="3" t="s">
+        <v>1976</v>
+      </c>
+      <c r="E473" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A474" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B474" s="3" t="s">
+        <v>1924</v>
+      </c>
+      <c r="D474" s="3" t="s">
+        <v>1977</v>
+      </c>
+      <c r="E474" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A475" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B475" s="3" t="s">
+        <v>1925</v>
+      </c>
+      <c r="D475" s="3" t="s">
+        <v>1978</v>
+      </c>
+      <c r="E475" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A476" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B476" s="3" t="s">
+        <v>1926</v>
+      </c>
+      <c r="D476" s="3" t="s">
+        <v>1979</v>
+      </c>
+      <c r="E476" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A477" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B477" s="3" t="s">
+        <v>1927</v>
+      </c>
+      <c r="D477" s="3" t="s">
+        <v>1980</v>
+      </c>
+      <c r="E477" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A478" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B478" s="3" t="s">
+        <v>1928</v>
+      </c>
+      <c r="D478" s="3" t="s">
+        <v>1981</v>
+      </c>
+      <c r="E478" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A479" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B479" s="3" t="s">
+        <v>1929</v>
+      </c>
+      <c r="D479" s="3" t="s">
+        <v>1970</v>
+      </c>
+      <c r="E479" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A480" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B480" s="3" t="s">
+        <v>1930</v>
+      </c>
+      <c r="D480" s="3" t="s">
+        <v>1982</v>
+      </c>
+      <c r="E480" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A481" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B481" s="3" t="s">
+        <v>1931</v>
+      </c>
+      <c r="D481" s="3" t="s">
+        <v>1983</v>
+      </c>
+      <c r="E481" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A482" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B482" s="3" t="s">
+        <v>1932</v>
+      </c>
+      <c r="D482" s="3" t="s">
+        <v>1984</v>
+      </c>
+      <c r="E482" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A483" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B483" s="3" t="s">
+        <v>1933</v>
+      </c>
+      <c r="D483" s="3" t="s">
+        <v>1985</v>
+      </c>
+      <c r="E483" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A484" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B484" s="3" t="s">
+        <v>1934</v>
+      </c>
+      <c r="D484" s="3" t="s">
+        <v>1986</v>
+      </c>
+      <c r="E484" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A485" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B485" s="3" t="s">
+        <v>1935</v>
+      </c>
+      <c r="D485" s="3" t="s">
+        <v>1987</v>
+      </c>
+      <c r="E485" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A486" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B486" s="3" t="s">
+        <v>1936</v>
+      </c>
+      <c r="D486" s="3" t="s">
+        <v>1988</v>
+      </c>
+      <c r="E486" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A487" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B487" s="3" t="s">
+        <v>1937</v>
+      </c>
+      <c r="D487" s="3" t="s">
+        <v>1989</v>
+      </c>
+      <c r="E487" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A488" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B488" s="3" t="s">
+        <v>1938</v>
+      </c>
+      <c r="D488" s="3" t="s">
+        <v>1990</v>
+      </c>
+      <c r="E488" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A489" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B489" s="3" t="s">
+        <v>1939</v>
+      </c>
+      <c r="D489" s="3" t="s">
+        <v>1991</v>
+      </c>
+      <c r="E489" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A490" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B490" s="3" t="s">
+        <v>1940</v>
+      </c>
+      <c r="D490" s="3" t="s">
+        <v>1992</v>
+      </c>
+      <c r="E490" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A491" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B491" s="3" t="s">
+        <v>1941</v>
+      </c>
+      <c r="D491" s="3" t="s">
+        <v>1993</v>
+      </c>
+      <c r="E491" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A492" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B492" s="3" t="s">
+        <v>1942</v>
+      </c>
+      <c r="D492" s="3" t="s">
+        <v>1970</v>
+      </c>
+      <c r="E492" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A493" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B493" s="3" t="s">
+        <v>1943</v>
+      </c>
+      <c r="D493" s="3" t="s">
+        <v>1994</v>
+      </c>
+      <c r="E493" s="3" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A494" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B494" s="3" t="s">
+        <v>1944</v>
+      </c>
+      <c r="D494" s="3" t="s">
+        <v>1995</v>
+      </c>
+      <c r="E494" s="3" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A495" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B495" s="3" t="s">
+        <v>1945</v>
+      </c>
+      <c r="D495" s="3" t="s">
+        <v>1996</v>
+      </c>
+      <c r="E495" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A496" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B496" s="3" t="s">
+        <v>1946</v>
+      </c>
+      <c r="D496" s="3" t="s">
+        <v>1997</v>
+      </c>
+      <c r="E496" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A497" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B497" s="3" t="s">
+        <v>1947</v>
+      </c>
+      <c r="D497" s="3" t="s">
+        <v>1998</v>
+      </c>
+      <c r="E497" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A498" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B498" s="3" t="s">
+        <v>1948</v>
+      </c>
+      <c r="D498" s="3" t="s">
+        <v>1999</v>
+      </c>
+      <c r="E498" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A499" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B499" s="3" t="s">
+        <v>1949</v>
+      </c>
+      <c r="D499" s="3" t="s">
+        <v>2000</v>
+      </c>
+      <c r="E499" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A500" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B500" s="3" t="s">
+        <v>1950</v>
+      </c>
+      <c r="D500" s="3" t="s">
+        <v>2001</v>
+      </c>
+      <c r="E500" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="501" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A501" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B501" s="3" t="s">
+        <v>1951</v>
+      </c>
+      <c r="D501" s="3" t="s">
+        <v>2002</v>
+      </c>
+      <c r="E501" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="502" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A502" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B502" s="3" t="s">
+        <v>1952</v>
+      </c>
+      <c r="D502" s="3" t="s">
+        <v>1970</v>
+      </c>
+      <c r="E502" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="503" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A503" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B503" s="3" t="s">
+        <v>1953</v>
+      </c>
+      <c r="D503" s="3" t="s">
+        <v>2003</v>
+      </c>
+      <c r="E503" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="504" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A504" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B504" s="3" t="s">
+        <v>1954</v>
+      </c>
+      <c r="D504" s="3" t="s">
+        <v>2004</v>
+      </c>
+      <c r="E504" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="505" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A505" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B505" s="3" t="s">
+        <v>1955</v>
+      </c>
+      <c r="D505" s="3" t="s">
+        <v>2005</v>
+      </c>
+      <c r="E505" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="506" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A506" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B506" s="3" t="s">
+        <v>1956</v>
+      </c>
+      <c r="D506" s="3" t="s">
+        <v>2006</v>
+      </c>
+      <c r="E506" s="3" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="507" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A507" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B507" s="3" t="s">
+        <v>1957</v>
+      </c>
+      <c r="D507" s="3" t="s">
+        <v>2007</v>
+      </c>
+      <c r="E507" s="3" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="508" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A508" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B508" s="3" t="s">
+        <v>1958</v>
+      </c>
+      <c r="D508" s="3" t="s">
+        <v>2008</v>
+      </c>
+      <c r="E508" s="3" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="509" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A509" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B509" s="3" t="s">
+        <v>1959</v>
+      </c>
+      <c r="D509" s="3" t="s">
+        <v>2009</v>
+      </c>
+      <c r="E509" s="3" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="510" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A510" t="s">
+        <v>1641</v>
       </c>
     </row>
   </sheetData>

--- a/gdcdictionary/xlsx/nodes_schema_impowr.xlsx
+++ b/gdcdictionary/xlsx/nodes_schema_impowr.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vithal\Documents\GitHub\dcfdictionary\gdcdictionary\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27121641-4F43-48A8-85E5-F34702B17FC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD7218B-439B-4E97-9662-B1BA2BD74A72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nodes_impowr" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6961" uniqueCount="2011">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7345" uniqueCount="2110">
   <si>
     <t>&lt;$schema&gt;</t>
   </si>
@@ -6063,13 +6063,310 @@
   </si>
   <si>
     <t>text</t>
+  </si>
+  <si>
+    <t>impowroptdemdayswork</t>
+  </si>
+  <si>
+    <t>impowroptdemdaysperwk</t>
+  </si>
+  <si>
+    <t>impowroptdemusualhrperwk</t>
+  </si>
+  <si>
+    <t>impowroptdemhrlywage</t>
+  </si>
+  <si>
+    <t>dem_benefits</t>
+  </si>
+  <si>
+    <t>impowroptdemhlthinsur</t>
+  </si>
+  <si>
+    <t>impowroptdempdtimeoff</t>
+  </si>
+  <si>
+    <t>impowroptdempension</t>
+  </si>
+  <si>
+    <t>impowroptdem401k</t>
+  </si>
+  <si>
+    <t>impowroptdemnone</t>
+  </si>
+  <si>
+    <t>impowroptdemoccup</t>
+  </si>
+  <si>
+    <t>impowroptdemhlthinsurance</t>
+  </si>
+  <si>
+    <t>insurance_type</t>
+  </si>
+  <si>
+    <t>impowroptdeminstype_1</t>
+  </si>
+  <si>
+    <t>impowroptdeminstype_2</t>
+  </si>
+  <si>
+    <t>impowroptdeminstype_3</t>
+  </si>
+  <si>
+    <t>impowroptdeminstype_4</t>
+  </si>
+  <si>
+    <t>impowroptdeminstype_5</t>
+  </si>
+  <si>
+    <t>impowroptdeminstype_6</t>
+  </si>
+  <si>
+    <t>impowroptdeminstype_7</t>
+  </si>
+  <si>
+    <t>impowroptdeminstype_8</t>
+  </si>
+  <si>
+    <t>impowroptdeminstype_9</t>
+  </si>
+  <si>
+    <t>impowroptdeminstype_10</t>
+  </si>
+  <si>
+    <t>impowroptdeminstype_11</t>
+  </si>
+  <si>
+    <t>impowroptdeminstype_12</t>
+  </si>
+  <si>
+    <t>How many days per week do you typically work?</t>
+  </si>
+  <si>
+    <t>How many hours per week do you usually work?</t>
+  </si>
+  <si>
+    <t>Approximately how much do you make per hour?</t>
+  </si>
+  <si>
+    <t>Do any of the places that you work offer you the following benefits? (MARK ALL THAT APPLY)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Health Insurance </t>
+  </si>
+  <si>
+    <t>Paid Time Off</t>
+  </si>
+  <si>
+    <t>Defined benefit plan or pension</t>
+  </si>
+  <si>
+    <t>401(k) or 403(b) Plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No Benefits </t>
+  </si>
+  <si>
+    <t>What is your occupation?</t>
+  </si>
+  <si>
+    <t>Are you currently covered by health insurance or some other kind of health care plan?</t>
+  </si>
+  <si>
+    <t>Private health insurance</t>
+  </si>
+  <si>
+    <t>Medicare</t>
+  </si>
+  <si>
+    <t>Medigap</t>
+  </si>
+  <si>
+    <t>Medicaid/Medicaid managed care plans</t>
+  </si>
+  <si>
+    <t>SCHIP (CHIP/Children's Health Insurance Program)</t>
+  </si>
+  <si>
+    <t>Military Health Care (Tricare/VA/CHAMP-VA)</t>
+  </si>
+  <si>
+    <t>Indian Health Service</t>
+  </si>
+  <si>
+    <t>State-Sponsored Health Plan/Affordable Care Act</t>
+  </si>
+  <si>
+    <t>Other government program</t>
+  </si>
+  <si>
+    <t>Single service plan (e.g., dental, vision, prescriptions)</t>
+  </si>
+  <si>
+    <t>Don't Know</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What kind of health insurance or health care coverage (did/do) you have? Include those that pay for only one type of service (such as nursing home care, accidents, or dental care). Exclude private plans that only provide extra cash while hospitalized. If you have more than one kind of health insurance, tell me all plans that you have. </t>
+  </si>
+  <si>
+    <t>During the last 90 days (since your last assessment), on how many days have you worked?</t>
+  </si>
+  <si>
+    <t>0, Not Hispanic or Latino | 1, Yes Hispanic or Latino | 2, Unknown | 3, Decline to answer</t>
+  </si>
+  <si>
+    <t>Not Hispanic or Latino</t>
+  </si>
+  <si>
+    <t>Yes Hispanic or Latino</t>
+  </si>
+  <si>
+    <t>Decline to answer</t>
+  </si>
+  <si>
+    <t>1, White | 2, Black/African American | 3, American Indian or Alaska Native | 4, Asian | 5, Native Hawaiian or Other Pacific Islander | 6, Some other race | 7, Unknown | 8, Prefer not to answer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">American Indian or Alaska Native </t>
+  </si>
+  <si>
+    <t>1, Male | 2, Female | 3, Transgender man/trans man/female-to-male (FTM) | 4, Transgender woman/trans woman/male-to-female (MTF) | 5, Genderqueer | 6, Nonbinary | 7, Agender | 8, Gender Fluid | 9, Some other gender | 10, Prefer not to answer</t>
+  </si>
+  <si>
+    <t>1, Male | 2, Female | 3, Intersex | 4, Unknown | 5, Other | 6, Prefer not to answer</t>
+  </si>
+  <si>
+    <t>1, Straight or heterosexual | 2, Lesbian or gay | 3, Bisexual | 4, Queer | 5, Pansexual | 6, Questioning | 7, Asexual | 8, Something else | 9, Prefer not to answer</t>
+  </si>
+  <si>
+    <t>1, Divorced | 2, Married | 3, Never married | 4, Separated | 5, Widowed | 6, Domestic partner | 7, Prefer not to answer</t>
+  </si>
+  <si>
+    <t>1, Did not complete high school | 2, GED or equivalent | 3, High school diploma | 4, Some college credit, but less than 1 year of college credit | 5, 1 or more years of college credit, but no degree | 6, Associate's Degree or Vocational Training Program (e.g., AA or AS) | 7, Bachelor's Degree (e.g., BA or BS) | 8, Graduate degree (MSW, MA, MS, JD, MD, DSW, EdD, Ph.D, etc.) | 99, Other</t>
+  </si>
+  <si>
+    <t>1, Less than $10,000 | 2, $10,000 --- $24,999 | 3, $25,000--- $34,999 | 4, $35,000--- $49,999 | 5, $50,000--- $74,999 | 6, $75,000---$99,999 | 7, $100,000--- $149,999 | 8, $150,000--- $199,999 | 9, $200,000 or more | 10, Prefer not to answer</t>
+  </si>
+  <si>
+    <t>1, Full-time employment | 2, Not employed | 3, Part-time employment</t>
+  </si>
+  <si>
+    <t>Intersex</t>
+  </si>
+  <si>
+    <t>Did not complete high school</t>
+  </si>
+  <si>
+    <t>GED or equivalent</t>
+  </si>
+  <si>
+    <t>High school diploma</t>
+  </si>
+  <si>
+    <t>Some college credit, but less than 1 year of college credit</t>
+  </si>
+  <si>
+    <t>1 or more years of college credit, but no degree</t>
+  </si>
+  <si>
+    <t>Associate's Degree or Vocational Training Program (e.g., AA or AS)</t>
+  </si>
+  <si>
+    <t>Bachelor's Degree (e.g., BA or BS)</t>
+  </si>
+  <si>
+    <t>Graduate degree (MSW, MA, MS, JD, MD, DSW, EdD, Ph.D, etc.)</t>
+  </si>
+  <si>
+    <t>Less than $10,000</t>
+  </si>
+  <si>
+    <t>$10,000 --- $24,999</t>
+  </si>
+  <si>
+    <t>$25,000--- $34,999</t>
+  </si>
+  <si>
+    <t>$35,000--- $49,999</t>
+  </si>
+  <si>
+    <t>$50,000--- $74,999</t>
+  </si>
+  <si>
+    <t>$75,000---$99,999</t>
+  </si>
+  <si>
+    <t>$100,000--- $149,999</t>
+  </si>
+  <si>
+    <t>$150,000--- $199,999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$200,000 or more </t>
+  </si>
+  <si>
+    <t>Full-time employment</t>
+  </si>
+  <si>
+    <t>Not employed</t>
+  </si>
+  <si>
+    <t>Part-time employment</t>
+  </si>
+  <si>
+    <t>1, I don't typically work at all|2, 1 day a week|3, 2 days a week|4, 3 days a week|5, 4 days a week|6, 5 days a week|7, 6 days a week|8, I typically work every day of the week</t>
+  </si>
+  <si>
+    <t>1, Health Insurance | 2, Paid time off | 3, Defined benefit plan or pension | 4, An arrangement such as a 401(k) or 403(b) plan, under which your employer contributes money towards your retirement every pay period | 5, None of the above</t>
+  </si>
+  <si>
+    <t>1, Private health insurance | 2, Medicare | 3, Medigap | 4, Medicaid/Medicaid managed care plans | 5, SCHIP (CHIP/Children's Health Insurance Program) | 6, Military Health Care (Tricare/VA/CHAMP-VA) | 7, Indian Health Service | 8, State-Sponsored Health Plan/Affordable Care Act | 9, Other government program | 10, Single service plan (e.g., dental, vision, prescriptions) | 11, Other | 12, Don't Know</t>
+  </si>
+  <si>
+    <t>I don't typically work at all</t>
+  </si>
+  <si>
+    <t>1 day a week</t>
+  </si>
+  <si>
+    <t>2 day a week</t>
+  </si>
+  <si>
+    <t>3 day a week</t>
+  </si>
+  <si>
+    <t>4 day a week</t>
+  </si>
+  <si>
+    <t>5 day a week</t>
+  </si>
+  <si>
+    <t>6 day a week</t>
+  </si>
+  <si>
+    <t>I typically work every day of the week</t>
+  </si>
+  <si>
+    <t>Health Insurance</t>
+  </si>
+  <si>
+    <t>Paid time off</t>
+  </si>
+  <si>
+    <t>An arrangement such as a 401(k) or 403(b) plan, under which your employer contributes money towards your retirement every pay period</t>
+  </si>
+  <si>
+    <t>None of the above</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Private health insurance </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6092,8 +6389,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6102,7 +6405,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6138,7 +6447,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -6147,9 +6456,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6492,7 +6815,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y123"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+    <sheetView zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B58" sqref="B58"/>
     </sheetView>
@@ -14890,19 +15213,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K510"/>
+  <dimension ref="A1:K534"/>
   <sheetViews>
-    <sheetView topLeftCell="A481" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="B510" sqref="B510"/>
+    <sheetView topLeftCell="A499" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="B522" sqref="A522:B522"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="59.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46" customWidth="1"/>
     <col min="4" max="4" width="99.5703125" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
@@ -21299,17 +21622,18 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="456" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A456" s="4" t="s">
+    <row r="456" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A456" s="5" t="s">
         <v>1637</v>
       </c>
-      <c r="B456" s="5" t="s">
+      <c r="B456" s="6" t="s">
         <v>1906</v>
       </c>
-      <c r="D456" s="5" t="s">
+      <c r="C456" s="7"/>
+      <c r="D456" s="6" t="s">
         <v>1960</v>
       </c>
-      <c r="E456" s="5" t="s">
+      <c r="E456" s="6" t="s">
         <v>2010</v>
       </c>
     </row>
@@ -22045,19 +22369,367 @@
       <c r="A509" t="s">
         <v>1637</v>
       </c>
-      <c r="B509" s="3" t="s">
+      <c r="B509" s="8" t="s">
         <v>1959</v>
       </c>
-      <c r="D509" s="3" t="s">
+      <c r="C509" s="9"/>
+      <c r="D509" s="8" t="s">
         <v>2009</v>
       </c>
-      <c r="E509" s="3" t="s">
+      <c r="E509" s="8" t="s">
         <v>1036</v>
       </c>
     </row>
     <row r="510" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>1641</v>
+      </c>
+      <c r="B510" s="3" t="s">
+        <v>2011</v>
+      </c>
+      <c r="D510" s="3" t="s">
+        <v>2059</v>
+      </c>
+      <c r="E510" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="511" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A511" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B511" s="3" t="s">
+        <v>2012</v>
+      </c>
+      <c r="D511" s="3" t="s">
+        <v>2036</v>
+      </c>
+      <c r="E511" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="512" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A512" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B512" s="3" t="s">
+        <v>2013</v>
+      </c>
+      <c r="D512" s="3" t="s">
+        <v>2037</v>
+      </c>
+      <c r="E512" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="513" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A513" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B513" s="3" t="s">
+        <v>2014</v>
+      </c>
+      <c r="D513" s="3" t="s">
+        <v>2038</v>
+      </c>
+      <c r="E513" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="514" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A514" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B514" s="3" t="s">
+        <v>2015</v>
+      </c>
+      <c r="D514" s="3" t="s">
+        <v>2039</v>
+      </c>
+      <c r="E514" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="515" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A515" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B515" s="3" t="s">
+        <v>2016</v>
+      </c>
+      <c r="D515" s="3" t="s">
+        <v>2040</v>
+      </c>
+      <c r="E515" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="516" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A516" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B516" s="3" t="s">
+        <v>2017</v>
+      </c>
+      <c r="D516" s="3" t="s">
+        <v>2041</v>
+      </c>
+      <c r="E516" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="517" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A517" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B517" s="3" t="s">
+        <v>2018</v>
+      </c>
+      <c r="D517" s="3" t="s">
+        <v>2042</v>
+      </c>
+      <c r="E517" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="518" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A518" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B518" s="3" t="s">
+        <v>2019</v>
+      </c>
+      <c r="D518" s="3" t="s">
+        <v>2043</v>
+      </c>
+      <c r="E518" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="519" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A519" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B519" s="3" t="s">
+        <v>2020</v>
+      </c>
+      <c r="D519" s="3" t="s">
+        <v>2044</v>
+      </c>
+      <c r="E519" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="520" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A520" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B520" s="3" t="s">
+        <v>2021</v>
+      </c>
+      <c r="D520" s="3" t="s">
+        <v>2045</v>
+      </c>
+      <c r="E520" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="521" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A521" s="3" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B521" s="3" t="s">
+        <v>2022</v>
+      </c>
+      <c r="C521" s="3"/>
+      <c r="D521" s="3" t="s">
+        <v>2046</v>
+      </c>
+      <c r="E521" s="3" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="522" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A522" s="4" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B522" s="4" t="s">
+        <v>2023</v>
+      </c>
+      <c r="C522" s="4"/>
+      <c r="D522" s="4" t="s">
+        <v>2058</v>
+      </c>
+      <c r="E522" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="523" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A523" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B523" s="3" t="s">
+        <v>2024</v>
+      </c>
+      <c r="D523" s="3" t="s">
+        <v>2047</v>
+      </c>
+      <c r="E523" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="524" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A524" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B524" s="3" t="s">
+        <v>2025</v>
+      </c>
+      <c r="D524" s="3" t="s">
+        <v>2048</v>
+      </c>
+      <c r="E524" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="525" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A525" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B525" s="3" t="s">
+        <v>2026</v>
+      </c>
+      <c r="D525" s="3" t="s">
+        <v>2049</v>
+      </c>
+      <c r="E525" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="526" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A526" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B526" s="3" t="s">
+        <v>2027</v>
+      </c>
+      <c r="D526" s="3" t="s">
+        <v>2050</v>
+      </c>
+      <c r="E526" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="527" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A527" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B527" s="3" t="s">
+        <v>2028</v>
+      </c>
+      <c r="D527" s="3" t="s">
+        <v>2051</v>
+      </c>
+      <c r="E527" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="528" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A528" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B528" s="3" t="s">
+        <v>2029</v>
+      </c>
+      <c r="D528" s="3" t="s">
+        <v>2052</v>
+      </c>
+      <c r="E528" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="529" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A529" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B529" s="3" t="s">
+        <v>2030</v>
+      </c>
+      <c r="D529" s="3" t="s">
+        <v>2053</v>
+      </c>
+      <c r="E529" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="530" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A530" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B530" s="3" t="s">
+        <v>2031</v>
+      </c>
+      <c r="D530" s="3" t="s">
+        <v>2054</v>
+      </c>
+      <c r="E530" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="531" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A531" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B531" s="3" t="s">
+        <v>2032</v>
+      </c>
+      <c r="D531" s="3" t="s">
+        <v>2055</v>
+      </c>
+      <c r="E531" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="532" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A532" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B532" s="3" t="s">
+        <v>2033</v>
+      </c>
+      <c r="D532" s="3" t="s">
+        <v>2056</v>
+      </c>
+      <c r="E532" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="533" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A533" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B533" s="3" t="s">
+        <v>2034</v>
+      </c>
+      <c r="D533" s="3" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E533" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="534" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A534" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B534" s="3" t="s">
+        <v>2035</v>
+      </c>
+      <c r="D534" s="3" t="s">
+        <v>2057</v>
+      </c>
+      <c r="E534" s="3" t="s">
+        <v>2010</v>
       </c>
     </row>
   </sheetData>
@@ -22067,18 +22739,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E769"/>
+  <dimension ref="A1:E860"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A86" sqref="A86:XFD94"/>
+    <sheetView tabSelected="1" topLeftCell="B831" workbookViewId="0">
+      <selection activeCell="C849" sqref="C849"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="71.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="125.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="102.28515625" style="10" customWidth="1"/>
     <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -22092,7 +22764,7 @@
       <c r="C1" s="1" t="s">
         <v>1044</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="11" t="s">
         <v>1045</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -30536,7 +31208,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="769" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A769" t="s">
         <v>75</v>
       </c>
@@ -30547,7 +31219,1110 @@
         <v>1057</v>
       </c>
     </row>
+    <row r="770" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A770" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B770" s="3" t="s">
+        <v>1908</v>
+      </c>
+      <c r="C770" t="s">
+        <v>2061</v>
+      </c>
+      <c r="D770" s="4" t="s">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="771" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A771" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B771" s="3" t="s">
+        <v>1908</v>
+      </c>
+      <c r="C771" t="s">
+        <v>2062</v>
+      </c>
+    </row>
+    <row r="772" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A772" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B772" s="3" t="s">
+        <v>1908</v>
+      </c>
+      <c r="C772" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="773" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A773" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B773" s="3" t="s">
+        <v>1908</v>
+      </c>
+      <c r="C773" t="s">
+        <v>2063</v>
+      </c>
+    </row>
+    <row r="774" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A774" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B774" s="3" t="s">
+        <v>1909</v>
+      </c>
+      <c r="C774" t="s">
+        <v>1964</v>
+      </c>
+      <c r="D774" s="4" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="775" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A775" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B775" s="3" t="s">
+        <v>1909</v>
+      </c>
+      <c r="C775" t="s">
+        <v>1965</v>
+      </c>
+      <c r="D775" s="4"/>
+    </row>
+    <row r="776" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A776" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B776" s="3" t="s">
+        <v>1909</v>
+      </c>
+      <c r="C776" t="s">
+        <v>2065</v>
+      </c>
+      <c r="D776" s="4"/>
+    </row>
+    <row r="777" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A777" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B777" s="3" t="s">
+        <v>1909</v>
+      </c>
+      <c r="C777" t="s">
+        <v>1967</v>
+      </c>
+      <c r="D777" s="4"/>
+    </row>
+    <row r="778" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A778" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B778" s="3" t="s">
+        <v>1909</v>
+      </c>
+      <c r="C778" t="s">
+        <v>1968</v>
+      </c>
+      <c r="D778" s="4"/>
+    </row>
+    <row r="779" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A779" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B779" s="3" t="s">
+        <v>1909</v>
+      </c>
+      <c r="C779" t="s">
+        <v>1969</v>
+      </c>
+      <c r="D779" s="4"/>
+    </row>
+    <row r="780" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A780" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B780" s="3" t="s">
+        <v>1909</v>
+      </c>
+      <c r="C780" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D780" s="4"/>
+    </row>
+    <row r="781" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A781" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B781" s="3" t="s">
+        <v>1909</v>
+      </c>
+      <c r="C781" t="s">
+        <v>1970</v>
+      </c>
+      <c r="D781" s="4"/>
+    </row>
+    <row r="782" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A782" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B782" s="3" t="s">
+        <v>1919</v>
+      </c>
+      <c r="C782" t="s">
+        <v>1973</v>
+      </c>
+      <c r="D782" s="4" t="s">
+        <v>2066</v>
+      </c>
+    </row>
+    <row r="783" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A783" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B783" s="3" t="s">
+        <v>1919</v>
+      </c>
+      <c r="C783" t="s">
+        <v>1974</v>
+      </c>
+      <c r="D783" s="4"/>
+    </row>
+    <row r="784" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A784" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B784" s="3" t="s">
+        <v>1919</v>
+      </c>
+      <c r="C784" t="s">
+        <v>1975</v>
+      </c>
+      <c r="D784" s="4"/>
+    </row>
+    <row r="785" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A785" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B785" s="3" t="s">
+        <v>1919</v>
+      </c>
+      <c r="C785" t="s">
+        <v>1976</v>
+      </c>
+      <c r="D785" s="4"/>
+    </row>
+    <row r="786" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A786" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B786" s="3" t="s">
+        <v>1919</v>
+      </c>
+      <c r="C786" t="s">
+        <v>1977</v>
+      </c>
+      <c r="D786" s="4"/>
+    </row>
+    <row r="787" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A787" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B787" s="3" t="s">
+        <v>1919</v>
+      </c>
+      <c r="C787" t="s">
+        <v>1978</v>
+      </c>
+      <c r="D787" s="4"/>
+    </row>
+    <row r="788" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A788" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B788" s="3" t="s">
+        <v>1919</v>
+      </c>
+      <c r="C788" t="s">
+        <v>1979</v>
+      </c>
+      <c r="D788" s="4"/>
+    </row>
+    <row r="789" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A789" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B789" s="3" t="s">
+        <v>1919</v>
+      </c>
+      <c r="C789" t="s">
+        <v>1980</v>
+      </c>
+      <c r="D789" s="4"/>
+    </row>
+    <row r="790" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A790" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B790" s="3" t="s">
+        <v>1919</v>
+      </c>
+      <c r="C790" t="s">
+        <v>1981</v>
+      </c>
+      <c r="D790" s="4"/>
+    </row>
+    <row r="791" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A791" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B791" s="3" t="s">
+        <v>1919</v>
+      </c>
+      <c r="C791" t="s">
+        <v>1970</v>
+      </c>
+      <c r="D791" s="4"/>
+    </row>
+    <row r="792" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A792" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B792" s="3" t="s">
+        <v>1931</v>
+      </c>
+      <c r="C792" t="s">
+        <v>1973</v>
+      </c>
+      <c r="D792" s="4" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="793" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A793" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B793" s="3" t="s">
+        <v>1931</v>
+      </c>
+      <c r="C793" t="s">
+        <v>1974</v>
+      </c>
+      <c r="D793" s="4"/>
+    </row>
+    <row r="794" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A794" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B794" s="3" t="s">
+        <v>1931</v>
+      </c>
+      <c r="C794" t="s">
+        <v>2073</v>
+      </c>
+      <c r="D794" s="4"/>
+    </row>
+    <row r="795" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A795" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B795" s="3" t="s">
+        <v>1931</v>
+      </c>
+      <c r="C795" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D795" s="4"/>
+    </row>
+    <row r="796" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A796" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B796" s="3" t="s">
+        <v>1931</v>
+      </c>
+      <c r="C796" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D796" s="4"/>
+    </row>
+    <row r="797" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A797" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B797" s="3" t="s">
+        <v>1931</v>
+      </c>
+      <c r="C797" t="s">
+        <v>1970</v>
+      </c>
+      <c r="D797" s="4"/>
+    </row>
+    <row r="798" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A798" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B798" s="3" t="s">
+        <v>1933</v>
+      </c>
+      <c r="C798" t="s">
+        <v>1986</v>
+      </c>
+      <c r="D798" s="4" t="s">
+        <v>2068</v>
+      </c>
+    </row>
+    <row r="799" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A799" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B799" s="3" t="s">
+        <v>1933</v>
+      </c>
+      <c r="C799" t="s">
+        <v>1987</v>
+      </c>
+      <c r="D799" s="4"/>
+    </row>
+    <row r="800" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A800" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B800" s="3" t="s">
+        <v>1933</v>
+      </c>
+      <c r="C800" t="s">
+        <v>1988</v>
+      </c>
+      <c r="D800" s="4"/>
+    </row>
+    <row r="801" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A801" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B801" s="3" t="s">
+        <v>1933</v>
+      </c>
+      <c r="C801" t="s">
+        <v>1989</v>
+      </c>
+      <c r="D801" s="4"/>
+    </row>
+    <row r="802" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A802" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B802" s="3" t="s">
+        <v>1933</v>
+      </c>
+      <c r="C802" t="s">
+        <v>1990</v>
+      </c>
+      <c r="D802" s="4"/>
+    </row>
+    <row r="803" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A803" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B803" s="3" t="s">
+        <v>1933</v>
+      </c>
+      <c r="C803" t="s">
+        <v>1991</v>
+      </c>
+      <c r="D803" s="4"/>
+    </row>
+    <row r="804" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A804" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B804" s="3" t="s">
+        <v>1933</v>
+      </c>
+      <c r="C804" t="s">
+        <v>1992</v>
+      </c>
+      <c r="D804" s="4"/>
+    </row>
+    <row r="805" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A805" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B805" s="3" t="s">
+        <v>1933</v>
+      </c>
+      <c r="C805" t="s">
+        <v>1993</v>
+      </c>
+      <c r="D805" s="4"/>
+    </row>
+    <row r="806" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A806" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B806" s="3" t="s">
+        <v>1933</v>
+      </c>
+      <c r="C806" t="s">
+        <v>1970</v>
+      </c>
+      <c r="D806" s="4"/>
+    </row>
+    <row r="807" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A807" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B807" s="3" t="s">
+        <v>1945</v>
+      </c>
+      <c r="C807" t="s">
+        <v>1997</v>
+      </c>
+      <c r="D807" s="4" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="808" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A808" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B808" s="3" t="s">
+        <v>1945</v>
+      </c>
+      <c r="C808" t="s">
+        <v>1998</v>
+      </c>
+      <c r="D808" s="4"/>
+    </row>
+    <row r="809" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A809" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B809" s="3" t="s">
+        <v>1945</v>
+      </c>
+      <c r="C809" t="s">
+        <v>1999</v>
+      </c>
+      <c r="D809" s="4"/>
+    </row>
+    <row r="810" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A810" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B810" s="3" t="s">
+        <v>1945</v>
+      </c>
+      <c r="C810" t="s">
+        <v>2000</v>
+      </c>
+      <c r="D810" s="4"/>
+    </row>
+    <row r="811" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A811" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B811" s="3" t="s">
+        <v>1945</v>
+      </c>
+      <c r="C811" t="s">
+        <v>2001</v>
+      </c>
+      <c r="D811" s="4"/>
+    </row>
+    <row r="812" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A812" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B812" s="3" t="s">
+        <v>1945</v>
+      </c>
+      <c r="C812" t="s">
+        <v>2002</v>
+      </c>
+      <c r="D812" s="4"/>
+    </row>
+    <row r="813" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A813" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B813" s="3" t="s">
+        <v>1945</v>
+      </c>
+      <c r="C813" t="s">
+        <v>1970</v>
+      </c>
+      <c r="D813" s="4"/>
+    </row>
+    <row r="814" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A814" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B814" s="3" t="s">
+        <v>1953</v>
+      </c>
+      <c r="C814" t="s">
+        <v>2074</v>
+      </c>
+      <c r="D814" s="4" t="s">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="815" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A815" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B815" s="3" t="s">
+        <v>1953</v>
+      </c>
+      <c r="C815" t="s">
+        <v>2075</v>
+      </c>
+      <c r="D815" s="4"/>
+    </row>
+    <row r="816" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A816" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B816" s="3" t="s">
+        <v>1953</v>
+      </c>
+      <c r="C816" t="s">
+        <v>2076</v>
+      </c>
+      <c r="D816" s="4"/>
+    </row>
+    <row r="817" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A817" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B817" s="3" t="s">
+        <v>1953</v>
+      </c>
+      <c r="C817" t="s">
+        <v>2077</v>
+      </c>
+      <c r="D817" s="4"/>
+    </row>
+    <row r="818" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A818" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B818" s="3" t="s">
+        <v>1953</v>
+      </c>
+      <c r="C818" t="s">
+        <v>2078</v>
+      </c>
+      <c r="D818" s="4"/>
+    </row>
+    <row r="819" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A819" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B819" s="3" t="s">
+        <v>1953</v>
+      </c>
+      <c r="C819" t="s">
+        <v>2079</v>
+      </c>
+      <c r="D819" s="4"/>
+    </row>
+    <row r="820" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A820" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B820" s="3" t="s">
+        <v>1953</v>
+      </c>
+      <c r="C820" t="s">
+        <v>2080</v>
+      </c>
+      <c r="D820" s="4"/>
+    </row>
+    <row r="821" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A821" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B821" s="3" t="s">
+        <v>1953</v>
+      </c>
+      <c r="C821" t="s">
+        <v>2081</v>
+      </c>
+      <c r="D821" s="4"/>
+    </row>
+    <row r="822" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A822" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B822" s="3" t="s">
+        <v>1953</v>
+      </c>
+      <c r="C822" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D822" s="4"/>
+    </row>
+    <row r="823" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A823" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B823" s="3" t="s">
+        <v>1954</v>
+      </c>
+      <c r="C823" t="s">
+        <v>2082</v>
+      </c>
+      <c r="D823" s="4" t="s">
+        <v>2071</v>
+      </c>
+    </row>
+    <row r="824" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A824" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B824" s="3" t="s">
+        <v>1954</v>
+      </c>
+      <c r="C824" t="s">
+        <v>2083</v>
+      </c>
+      <c r="D824" s="4"/>
+    </row>
+    <row r="825" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A825" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B825" s="3" t="s">
+        <v>1954</v>
+      </c>
+      <c r="C825" t="s">
+        <v>2084</v>
+      </c>
+      <c r="D825" s="4"/>
+    </row>
+    <row r="826" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A826" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B826" s="3" t="s">
+        <v>1954</v>
+      </c>
+      <c r="C826" t="s">
+        <v>2085</v>
+      </c>
+      <c r="D826" s="4"/>
+    </row>
+    <row r="827" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A827" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B827" s="3" t="s">
+        <v>1954</v>
+      </c>
+      <c r="C827" t="s">
+        <v>2086</v>
+      </c>
+      <c r="D827" s="4"/>
+    </row>
+    <row r="828" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A828" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B828" s="3" t="s">
+        <v>1954</v>
+      </c>
+      <c r="C828" t="s">
+        <v>2087</v>
+      </c>
+      <c r="D828" s="4"/>
+    </row>
+    <row r="829" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A829" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B829" s="3" t="s">
+        <v>1954</v>
+      </c>
+      <c r="C829" t="s">
+        <v>2088</v>
+      </c>
+      <c r="D829" s="4"/>
+    </row>
+    <row r="830" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A830" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B830" s="3" t="s">
+        <v>1954</v>
+      </c>
+      <c r="C830" t="s">
+        <v>2089</v>
+      </c>
+      <c r="D830" s="4"/>
+    </row>
+    <row r="831" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A831" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B831" s="3" t="s">
+        <v>1954</v>
+      </c>
+      <c r="C831" t="s">
+        <v>2090</v>
+      </c>
+      <c r="D831" s="4"/>
+    </row>
+    <row r="832" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A832" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B832" s="3" t="s">
+        <v>1954</v>
+      </c>
+      <c r="C832" t="s">
+        <v>1970</v>
+      </c>
+      <c r="D832" s="4"/>
+    </row>
+    <row r="833" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A833" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B833" s="3" t="s">
+        <v>1955</v>
+      </c>
+      <c r="C833" t="s">
+        <v>2091</v>
+      </c>
+      <c r="D833" s="4" t="s">
+        <v>2072</v>
+      </c>
+    </row>
+    <row r="834" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A834" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B834" s="3" t="s">
+        <v>1955</v>
+      </c>
+      <c r="C834" t="s">
+        <v>2092</v>
+      </c>
+      <c r="D834" s="4"/>
+    </row>
+    <row r="835" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A835" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B835" s="3" t="s">
+        <v>1955</v>
+      </c>
+      <c r="C835" t="s">
+        <v>2093</v>
+      </c>
+      <c r="D835" s="4"/>
+    </row>
+    <row r="836" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A836" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B836" s="3" t="s">
+        <v>2012</v>
+      </c>
+      <c r="C836" t="s">
+        <v>2097</v>
+      </c>
+      <c r="D836" s="4" t="s">
+        <v>2094</v>
+      </c>
+    </row>
+    <row r="837" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A837" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B837" s="3" t="s">
+        <v>2012</v>
+      </c>
+      <c r="C837" t="s">
+        <v>2098</v>
+      </c>
+      <c r="D837" s="4"/>
+    </row>
+    <row r="838" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A838" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B838" s="3" t="s">
+        <v>2012</v>
+      </c>
+      <c r="C838" t="s">
+        <v>2099</v>
+      </c>
+      <c r="D838" s="4"/>
+    </row>
+    <row r="839" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A839" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B839" s="3" t="s">
+        <v>2012</v>
+      </c>
+      <c r="C839" t="s">
+        <v>2100</v>
+      </c>
+      <c r="D839" s="4"/>
+    </row>
+    <row r="840" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A840" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B840" s="3" t="s">
+        <v>2012</v>
+      </c>
+      <c r="C840" t="s">
+        <v>2101</v>
+      </c>
+      <c r="D840" s="4"/>
+    </row>
+    <row r="841" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A841" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B841" s="3" t="s">
+        <v>2012</v>
+      </c>
+      <c r="C841" t="s">
+        <v>2102</v>
+      </c>
+      <c r="D841" s="4"/>
+    </row>
+    <row r="842" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A842" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B842" s="3" t="s">
+        <v>2012</v>
+      </c>
+      <c r="C842" t="s">
+        <v>2103</v>
+      </c>
+      <c r="D842" s="4"/>
+    </row>
+    <row r="843" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A843" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B843" s="3" t="s">
+        <v>2012</v>
+      </c>
+      <c r="C843" t="s">
+        <v>2104</v>
+      </c>
+      <c r="D843" s="4"/>
+    </row>
+    <row r="844" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A844" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B844" s="3" t="s">
+        <v>2015</v>
+      </c>
+      <c r="C844" t="s">
+        <v>2105</v>
+      </c>
+      <c r="D844" s="4" t="s">
+        <v>2095</v>
+      </c>
+    </row>
+    <row r="845" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A845" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B845" s="3" t="s">
+        <v>2015</v>
+      </c>
+      <c r="C845" t="s">
+        <v>2106</v>
+      </c>
+      <c r="D845" s="4"/>
+    </row>
+    <row r="846" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A846" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B846" s="3" t="s">
+        <v>2015</v>
+      </c>
+      <c r="C846" t="s">
+        <v>2042</v>
+      </c>
+      <c r="D846" s="4"/>
+    </row>
+    <row r="847" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A847" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B847" s="3" t="s">
+        <v>2015</v>
+      </c>
+      <c r="C847" t="s">
+        <v>2107</v>
+      </c>
+      <c r="D847" s="4"/>
+    </row>
+    <row r="848" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A848" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B848" s="3" t="s">
+        <v>2015</v>
+      </c>
+      <c r="C848" t="s">
+        <v>2108</v>
+      </c>
+      <c r="D848" s="4"/>
+    </row>
+    <row r="849" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A849" s="4" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B849" s="4" t="s">
+        <v>2023</v>
+      </c>
+      <c r="C849" s="3" t="s">
+        <v>2109</v>
+      </c>
+      <c r="D849" s="4" t="s">
+        <v>2096</v>
+      </c>
+    </row>
+    <row r="850" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A850" s="4" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B850" s="4" t="s">
+        <v>2023</v>
+      </c>
+      <c r="C850" t="s">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="851" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A851" s="4" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B851" s="4" t="s">
+        <v>2023</v>
+      </c>
+      <c r="C851" t="s">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="852" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A852" s="4" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B852" s="4" t="s">
+        <v>2023</v>
+      </c>
+      <c r="C852" t="s">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="853" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A853" s="4" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B853" s="4" t="s">
+        <v>2023</v>
+      </c>
+      <c r="C853" t="s">
+        <v>2051</v>
+      </c>
+    </row>
+    <row r="854" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A854" s="4" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B854" s="4" t="s">
+        <v>2023</v>
+      </c>
+      <c r="C854" t="s">
+        <v>2052</v>
+      </c>
+    </row>
+    <row r="855" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A855" s="4" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B855" s="4" t="s">
+        <v>2023</v>
+      </c>
+      <c r="C855" t="s">
+        <v>2053</v>
+      </c>
+    </row>
+    <row r="856" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A856" s="4" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B856" s="4" t="s">
+        <v>2023</v>
+      </c>
+      <c r="C856" t="s">
+        <v>2054</v>
+      </c>
+    </row>
+    <row r="857" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A857" s="4" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B857" s="4" t="s">
+        <v>2023</v>
+      </c>
+      <c r="C857" t="s">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="858" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A858" s="4" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B858" s="4" t="s">
+        <v>2023</v>
+      </c>
+      <c r="C858" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="859" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A859" s="4" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B859" s="4" t="s">
+        <v>2023</v>
+      </c>
+      <c r="C859" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="860" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A860" s="4" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B860" s="4" t="s">
+        <v>2023</v>
+      </c>
+      <c r="C860" t="s">
+        <v>2057</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/gdcdictionary/xlsx/nodes_schema_impowr.xlsx
+++ b/gdcdictionary/xlsx/nodes_schema_impowr.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vithal\Documents\GitHub\dcfdictionary\gdcdictionary\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD7218B-439B-4E97-9662-B1BA2BD74A72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9063B147-F979-4C4E-9C54-D7A46A2BF8AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nodes_impowr" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7345" uniqueCount="2110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7405" uniqueCount="2138">
   <si>
     <t>&lt;$schema&gt;</t>
   </si>
@@ -6360,6 +6360,90 @@
   </si>
   <si>
     <t xml:space="preserve">Private health insurance </t>
+  </si>
+  <si>
+    <t>sleep_duration_hours</t>
+  </si>
+  <si>
+    <t>sleep_duration_minutes</t>
+  </si>
+  <si>
+    <t>sleepnighthourmindur</t>
+  </si>
+  <si>
+    <t>PROMIS Sleep</t>
+  </si>
+  <si>
+    <t>promissleepwasrefreshscl</t>
+  </si>
+  <si>
+    <t>promissleepqualityscl</t>
+  </si>
+  <si>
+    <t>promisproblemwithslpscl</t>
+  </si>
+  <si>
+    <t>promisdifficltfallaslpscl</t>
+  </si>
+  <si>
+    <t>promisslpwasrestlessscl</t>
+  </si>
+  <si>
+    <t>promistryhardgettoslpscl</t>
+  </si>
+  <si>
+    <t>promisslpdist6totalscore</t>
+  </si>
+  <si>
+    <t>During the past month, how many hours and minutes of actual sleep did you get at night? (This may be different than the number of hours and minutes you spent in bed).  Hours per night</t>
+  </si>
+  <si>
+    <t>During the past month, how many hours and minutes of actual sleep did you get at night? (This may be different than the number of hours and minutes you spent in bed).  minutes per night</t>
+  </si>
+  <si>
+    <t>Total sleep time in minutes</t>
+  </si>
+  <si>
+    <t>Total Score</t>
+  </si>
+  <si>
+    <t>In the past 7 days, My sleep was refreshing.</t>
+  </si>
+  <si>
+    <t>In the past 7 days, My sleep quality was...</t>
+  </si>
+  <si>
+    <t>In the past 7 days, I had a problem with my sleep.</t>
+  </si>
+  <si>
+    <t>In the past 7 days, I had difficulty falling asleep.</t>
+  </si>
+  <si>
+    <t>In the past 7 days, My sleep was restless.</t>
+  </si>
+  <si>
+    <t>In the past 7 days, I tried hard to get to sleep.</t>
+  </si>
+  <si>
+    <t>promis_sf_v10_fatigue_4a_heal</t>
+  </si>
+  <si>
+    <t>PROMIS Fatigue</t>
+  </si>
+  <si>
+    <t>Calculated raw total score for the PROMIS Fatigue 4a items</t>
+  </si>
+  <si>
+    <t>During the past 7 days… I feel fatigued</t>
+  </si>
+  <si>
+    <t>During the past 7 days… I have trouble starting things because I am tired</t>
+  </si>
+  <si>
+    <t>During the past 7 days… How fatigued were you on average?</t>
+  </si>
+  <si>
+    <t>During the past 7 days… How run-down did you feel on average?</t>
   </si>
 </sst>
 </file>
@@ -6447,7 +6531,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -6459,7 +6543,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -6473,6 +6556,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6816,8 +6905,8 @@
   <dimension ref="A1:Y123"/>
   <sheetViews>
     <sheetView zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B58" sqref="B58"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="89" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15213,10 +15302,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K534"/>
+  <dimension ref="A1:K549"/>
   <sheetViews>
-    <sheetView topLeftCell="A499" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="B522" sqref="A522:B522"/>
+    <sheetView tabSelected="1" topLeftCell="A523" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="E550" sqref="E550"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15224,7 +15313,7 @@
     <col min="1" max="1" width="32.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="46" customWidth="1"/>
-    <col min="4" max="4" width="99.5703125" customWidth="1"/>
+    <col min="4" max="4" width="99.5703125" style="9" customWidth="1"/>
     <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
@@ -15244,7 +15333,7 @@
       <c r="C1" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="10" t="s">
         <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -15276,7 +15365,7 @@
       <c r="B2" t="s">
         <v>370</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="9" t="s">
         <v>765</v>
       </c>
       <c r="E2" t="s">
@@ -15767,56 +15856,56 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>36</v>
       </c>
       <c r="B38" t="s">
         <v>386</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="9" t="s">
         <v>766</v>
       </c>
       <c r="E38" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>36</v>
       </c>
       <c r="B39" t="s">
         <v>387</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="9" t="s">
         <v>767</v>
       </c>
       <c r="E39" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>36</v>
       </c>
       <c r="B40" t="s">
         <v>388</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="9" t="s">
         <v>768</v>
       </c>
       <c r="E40" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>36</v>
       </c>
       <c r="B41" t="s">
         <v>373</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="9" t="s">
         <v>769</v>
       </c>
       <c r="E41" t="s">
@@ -15834,112 +15923,112 @@
         <v>720</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>36</v>
       </c>
       <c r="B43" t="s">
         <v>390</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="9" t="s">
         <v>770</v>
       </c>
       <c r="E43" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>36</v>
       </c>
       <c r="B44" t="s">
         <v>391</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="9" t="s">
         <v>771</v>
       </c>
       <c r="E44" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>36</v>
       </c>
       <c r="B45" t="s">
         <v>392</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="9" t="s">
         <v>772</v>
       </c>
       <c r="E45" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>36</v>
       </c>
       <c r="B46" t="s">
         <v>393</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="9" t="s">
         <v>773</v>
       </c>
       <c r="E46" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>36</v>
       </c>
       <c r="B47" t="s">
         <v>394</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="9" t="s">
         <v>774</v>
       </c>
       <c r="E47" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>36</v>
       </c>
       <c r="B48" t="s">
         <v>395</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="9" t="s">
         <v>775</v>
       </c>
       <c r="E48" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>36</v>
       </c>
       <c r="B49" t="s">
         <v>396</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="9" t="s">
         <v>776</v>
       </c>
       <c r="E49" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>36</v>
       </c>
       <c r="B50" t="s">
         <v>69</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="9" t="s">
         <v>777</v>
       </c>
       <c r="E50" t="s">
@@ -15953,7 +16042,7 @@
       <c r="B51" t="s">
         <v>397</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="9" t="s">
         <v>778</v>
       </c>
       <c r="E51" t="s">
@@ -15967,7 +16056,7 @@
       <c r="B52" t="s">
         <v>398</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="9" t="s">
         <v>779</v>
       </c>
       <c r="E52" t="s">
@@ -15981,21 +16070,21 @@
       <c r="B53" t="s">
         <v>399</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="9" t="s">
         <v>780</v>
       </c>
       <c r="E53" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>37</v>
       </c>
       <c r="B54" t="s">
         <v>400</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="9" t="s">
         <v>781</v>
       </c>
       <c r="E54" t="s">
@@ -16008,14 +16097,14 @@
         <v>-32872</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>37</v>
       </c>
       <c r="B55" t="s">
         <v>401</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="9" t="s">
         <v>782</v>
       </c>
       <c r="E55" t="s">
@@ -16071,7 +16160,7 @@
       <c r="B59" t="s">
         <v>405</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="9" t="s">
         <v>783</v>
       </c>
       <c r="E59" t="s">
@@ -16106,14 +16195,14 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>38</v>
       </c>
       <c r="B62" t="s">
         <v>408</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" s="9" t="s">
         <v>784</v>
       </c>
       <c r="E62" t="s">
@@ -16126,126 +16215,126 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>38</v>
       </c>
       <c r="B63" t="s">
         <v>409</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" s="9" t="s">
         <v>785</v>
       </c>
       <c r="E63" t="s">
         <v>1037</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>38</v>
       </c>
       <c r="B64" t="s">
         <v>410</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="9" t="s">
         <v>786</v>
       </c>
       <c r="E64" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>38</v>
       </c>
       <c r="B65" t="s">
         <v>411</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" s="9" t="s">
         <v>787</v>
       </c>
       <c r="E65" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>38</v>
       </c>
       <c r="B66" t="s">
         <v>412</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" s="9" t="s">
         <v>788</v>
       </c>
       <c r="E66" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>38</v>
       </c>
       <c r="B67" t="s">
         <v>413</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" s="9" t="s">
         <v>789</v>
       </c>
       <c r="E67" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>38</v>
       </c>
       <c r="B68" t="s">
         <v>414</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68" s="9" t="s">
         <v>790</v>
       </c>
       <c r="E68" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>38</v>
       </c>
       <c r="B69" t="s">
         <v>415</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D69" s="9" t="s">
         <v>791</v>
       </c>
       <c r="E69" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>38</v>
       </c>
       <c r="B70" t="s">
         <v>416</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D70" s="9" t="s">
         <v>792</v>
       </c>
       <c r="E70" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>38</v>
       </c>
       <c r="B71" t="s">
         <v>417</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D71" s="9" t="s">
         <v>793</v>
       </c>
       <c r="E71" t="s">
@@ -16259,49 +16348,49 @@
       <c r="B72" t="s">
         <v>418</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D72" s="9" t="s">
         <v>794</v>
       </c>
       <c r="E72" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>38</v>
       </c>
       <c r="B73" t="s">
         <v>419</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D73" s="9" t="s">
         <v>795</v>
       </c>
       <c r="E73" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>38</v>
       </c>
       <c r="B74" t="s">
         <v>420</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D74" s="9" t="s">
         <v>796</v>
       </c>
       <c r="E74" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>38</v>
       </c>
       <c r="B75" t="s">
         <v>421</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D75" s="9" t="s">
         <v>797</v>
       </c>
       <c r="E75" t="s">
@@ -16315,21 +16404,21 @@
       <c r="B76" t="s">
         <v>422</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D76" s="9" t="s">
         <v>798</v>
       </c>
       <c r="E76" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>38</v>
       </c>
       <c r="B77" t="s">
         <v>423</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D77" s="9" t="s">
         <v>799</v>
       </c>
       <c r="E77" t="s">
@@ -16343,21 +16432,21 @@
       <c r="B78" t="s">
         <v>399</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D78" s="9" t="s">
         <v>780</v>
       </c>
       <c r="E78" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>38</v>
       </c>
       <c r="B79" t="s">
         <v>424</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D79" s="9" t="s">
         <v>800</v>
       </c>
       <c r="E79" t="s">
@@ -16371,21 +16460,21 @@
       <c r="B80" t="s">
         <v>425</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D80" s="9" t="s">
         <v>801</v>
       </c>
       <c r="E80" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>38</v>
       </c>
       <c r="B81" t="s">
         <v>426</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D81" s="9" t="s">
         <v>802</v>
       </c>
       <c r="E81" t="s">
@@ -16399,21 +16488,21 @@
       <c r="B82" t="s">
         <v>427</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D82" s="9" t="s">
         <v>803</v>
       </c>
       <c r="E82" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>38</v>
       </c>
       <c r="B83" t="s">
         <v>400</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D83" s="9" t="s">
         <v>781</v>
       </c>
       <c r="E83" t="s">
@@ -16426,14 +16515,14 @@
         <v>-32872</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>38</v>
       </c>
       <c r="B84" t="s">
         <v>401</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D84" s="9" t="s">
         <v>782</v>
       </c>
       <c r="E84" t="s">
@@ -16447,91 +16536,91 @@
       <c r="B85" t="s">
         <v>428</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D85" s="9" t="s">
         <v>804</v>
       </c>
       <c r="E85" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>38</v>
       </c>
       <c r="B86" t="s">
         <v>429</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D86" s="9" t="s">
         <v>805</v>
       </c>
       <c r="E86" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>38</v>
       </c>
       <c r="B87" t="s">
         <v>430</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D87" s="9" t="s">
         <v>806</v>
       </c>
       <c r="E87" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>38</v>
       </c>
       <c r="B88" t="s">
         <v>431</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D88" s="9" t="s">
         <v>807</v>
       </c>
       <c r="E88" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>38</v>
       </c>
       <c r="B89" t="s">
         <v>432</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D89" s="9" t="s">
         <v>808</v>
       </c>
       <c r="E89" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>38</v>
       </c>
       <c r="B90" t="s">
         <v>433</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D90" s="9" t="s">
         <v>809</v>
       </c>
       <c r="E90" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>38</v>
       </c>
       <c r="B91" t="s">
         <v>434</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D91" s="9" t="s">
         <v>810</v>
       </c>
       <c r="E91" t="s">
@@ -16545,7 +16634,7 @@
       <c r="B92" t="s">
         <v>435</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D92" s="9" t="s">
         <v>811</v>
       </c>
       <c r="E92" t="s">
@@ -16559,7 +16648,7 @@
       <c r="B93" t="s">
         <v>436</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D93" s="9" t="s">
         <v>812</v>
       </c>
       <c r="E93" t="s">
@@ -16573,7 +16662,7 @@
       <c r="B94" t="s">
         <v>437</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D94" s="9" t="s">
         <v>813</v>
       </c>
       <c r="E94" t="s">
@@ -16587,7 +16676,7 @@
       <c r="B95" t="s">
         <v>438</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D95" s="9" t="s">
         <v>814</v>
       </c>
       <c r="E95" t="s">
@@ -16601,7 +16690,7 @@
       <c r="B96" t="s">
         <v>439</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D96" s="9" t="s">
         <v>815</v>
       </c>
       <c r="E96" t="s">
@@ -16615,7 +16704,7 @@
       <c r="B97" t="s">
         <v>440</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D97" s="9" t="s">
         <v>816</v>
       </c>
       <c r="E97" t="s">
@@ -16629,7 +16718,7 @@
       <c r="B98" t="s">
         <v>441</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D98" s="9" t="s">
         <v>817</v>
       </c>
       <c r="E98" t="s">
@@ -16643,35 +16732,35 @@
       <c r="B99" t="s">
         <v>442</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D99" s="9" t="s">
         <v>818</v>
       </c>
       <c r="E99" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>38</v>
       </c>
       <c r="B100" t="s">
         <v>443</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D100" s="9" t="s">
         <v>819</v>
       </c>
       <c r="E100" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>38</v>
       </c>
       <c r="B101" t="s">
         <v>444</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D101" s="9" t="s">
         <v>820</v>
       </c>
       <c r="E101" t="s">
@@ -16685,21 +16774,21 @@
       <c r="B102" t="s">
         <v>445</v>
       </c>
-      <c r="D102" t="s">
+      <c r="D102" s="9" t="s">
         <v>821</v>
       </c>
       <c r="E102" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>38</v>
       </c>
       <c r="B103" t="s">
         <v>446</v>
       </c>
-      <c r="D103" t="s">
+      <c r="D103" s="9" t="s">
         <v>822</v>
       </c>
       <c r="E103" t="s">
@@ -16713,21 +16802,21 @@
       <c r="B104" t="s">
         <v>447</v>
       </c>
-      <c r="D104" t="s">
+      <c r="D104" s="9" t="s">
         <v>823</v>
       </c>
       <c r="E104" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>38</v>
       </c>
       <c r="B105" t="s">
         <v>448</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D105" s="9" t="s">
         <v>824</v>
       </c>
       <c r="E105" t="s">
@@ -16741,7 +16830,7 @@
       <c r="B106" t="s">
         <v>449</v>
       </c>
-      <c r="D106" t="s">
+      <c r="D106" s="9" t="s">
         <v>825</v>
       </c>
       <c r="E106" t="s">
@@ -16755,21 +16844,21 @@
       <c r="B107" t="s">
         <v>450</v>
       </c>
-      <c r="D107" t="s">
+      <c r="D107" s="9" t="s">
         <v>826</v>
       </c>
       <c r="E107" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>38</v>
       </c>
       <c r="B108" t="s">
         <v>451</v>
       </c>
-      <c r="D108" t="s">
+      <c r="D108" s="9" t="s">
         <v>827</v>
       </c>
       <c r="E108" t="s">
@@ -16783,7 +16872,7 @@
       <c r="B109" t="s">
         <v>452</v>
       </c>
-      <c r="D109" t="s">
+      <c r="D109" s="9" t="s">
         <v>828</v>
       </c>
       <c r="E109" t="s">
@@ -16797,49 +16886,49 @@
       <c r="B110" t="s">
         <v>453</v>
       </c>
-      <c r="D110" t="s">
+      <c r="D110" s="9" t="s">
         <v>829</v>
       </c>
       <c r="E110" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>38</v>
       </c>
       <c r="B111" t="s">
         <v>454</v>
       </c>
-      <c r="D111" t="s">
+      <c r="D111" s="9" t="s">
         <v>830</v>
       </c>
       <c r="E111" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>38</v>
       </c>
       <c r="B112" t="s">
         <v>455</v>
       </c>
-      <c r="D112" t="s">
+      <c r="D112" s="9" t="s">
         <v>831</v>
       </c>
       <c r="E112" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>38</v>
       </c>
       <c r="B113" t="s">
         <v>456</v>
       </c>
-      <c r="D113" t="s">
+      <c r="D113" s="9" t="s">
         <v>832</v>
       </c>
       <c r="E113" t="s">
@@ -16853,7 +16942,7 @@
       <c r="B114" t="s">
         <v>457</v>
       </c>
-      <c r="D114" t="s">
+      <c r="D114" s="9" t="s">
         <v>833</v>
       </c>
       <c r="E114" t="s">
@@ -16867,7 +16956,7 @@
       <c r="B115" t="s">
         <v>458</v>
       </c>
-      <c r="D115" t="s">
+      <c r="D115" s="9" t="s">
         <v>834</v>
       </c>
       <c r="E115" t="s">
@@ -16881,21 +16970,21 @@
       <c r="B116" t="s">
         <v>459</v>
       </c>
-      <c r="D116" t="s">
+      <c r="D116" s="9" t="s">
         <v>835</v>
       </c>
       <c r="E116" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>38</v>
       </c>
       <c r="B117" t="s">
         <v>460</v>
       </c>
-      <c r="D117" t="s">
+      <c r="D117" s="9" t="s">
         <v>836</v>
       </c>
       <c r="E117" t="s">
@@ -16909,49 +16998,49 @@
       <c r="B118" t="s">
         <v>461</v>
       </c>
-      <c r="D118" t="s">
+      <c r="D118" s="9" t="s">
         <v>837</v>
       </c>
       <c r="E118" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>38</v>
       </c>
       <c r="B119" t="s">
         <v>462</v>
       </c>
-      <c r="D119" t="s">
+      <c r="D119" s="9" t="s">
         <v>838</v>
       </c>
       <c r="E119" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>38</v>
       </c>
       <c r="B120" t="s">
         <v>463</v>
       </c>
-      <c r="D120" t="s">
+      <c r="D120" s="9" t="s">
         <v>839</v>
       </c>
       <c r="E120" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>38</v>
       </c>
       <c r="B121" t="s">
         <v>464</v>
       </c>
-      <c r="D121" t="s">
+      <c r="D121" s="9" t="s">
         <v>840</v>
       </c>
       <c r="E121" t="s">
@@ -16965,7 +17054,7 @@
       <c r="B122" t="s">
         <v>405</v>
       </c>
-      <c r="D122" t="s">
+      <c r="D122" s="9" t="s">
         <v>783</v>
       </c>
       <c r="E122" t="s">
@@ -16979,7 +17068,7 @@
       <c r="B123" t="s">
         <v>465</v>
       </c>
-      <c r="D123" t="s">
+      <c r="D123" s="9" t="s">
         <v>841</v>
       </c>
       <c r="E123" t="s">
@@ -16993,7 +17082,7 @@
       <c r="B124" t="s">
         <v>466</v>
       </c>
-      <c r="D124" t="s">
+      <c r="D124" s="9" t="s">
         <v>842</v>
       </c>
       <c r="E124" t="s">
@@ -17007,7 +17096,7 @@
       <c r="B125" t="s">
         <v>467</v>
       </c>
-      <c r="D125" t="s">
+      <c r="D125" s="9" t="s">
         <v>843</v>
       </c>
       <c r="E125" t="s">
@@ -17021,7 +17110,7 @@
       <c r="B126" t="s">
         <v>468</v>
       </c>
-      <c r="D126" t="s">
+      <c r="D126" s="9" t="s">
         <v>844</v>
       </c>
       <c r="E126" t="s">
@@ -17035,7 +17124,7 @@
       <c r="B127" t="s">
         <v>469</v>
       </c>
-      <c r="D127" t="s">
+      <c r="D127" s="9" t="s">
         <v>845</v>
       </c>
       <c r="E127" t="s">
@@ -17049,21 +17138,21 @@
       <c r="B128" t="s">
         <v>470</v>
       </c>
-      <c r="D128" t="s">
+      <c r="D128" s="9" t="s">
         <v>846</v>
       </c>
       <c r="E128" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>39</v>
       </c>
       <c r="B129" t="s">
         <v>471</v>
       </c>
-      <c r="D129" t="s">
+      <c r="D129" s="9" t="s">
         <v>847</v>
       </c>
       <c r="E129" t="s">
@@ -17077,7 +17166,7 @@
       <c r="B130" t="s">
         <v>472</v>
       </c>
-      <c r="D130" t="s">
+      <c r="D130" s="9" t="s">
         <v>848</v>
       </c>
       <c r="E130" t="s">
@@ -17091,7 +17180,7 @@
       <c r="B131" t="s">
         <v>473</v>
       </c>
-      <c r="D131" t="s">
+      <c r="D131" s="9" t="s">
         <v>849</v>
       </c>
       <c r="E131" t="s">
@@ -17105,7 +17194,7 @@
       <c r="B132" t="s">
         <v>474</v>
       </c>
-      <c r="D132" t="s">
+      <c r="D132" s="9" t="s">
         <v>850</v>
       </c>
       <c r="E132" t="s">
@@ -17119,7 +17208,7 @@
       <c r="B133" t="s">
         <v>475</v>
       </c>
-      <c r="D133" t="s">
+      <c r="D133" s="9" t="s">
         <v>851</v>
       </c>
       <c r="E133" t="s">
@@ -17245,7 +17334,7 @@
       <c r="B142" t="s">
         <v>476</v>
       </c>
-      <c r="D142" t="s">
+      <c r="D142" s="9" t="s">
         <v>852</v>
       </c>
       <c r="E142" t="s">
@@ -17259,7 +17348,7 @@
       <c r="B143" t="s">
         <v>477</v>
       </c>
-      <c r="D143" t="s">
+      <c r="D143" s="9" t="s">
         <v>853</v>
       </c>
       <c r="E143" t="s">
@@ -17301,7 +17390,7 @@
       <c r="B146" t="s">
         <v>478</v>
       </c>
-      <c r="D146" t="s">
+      <c r="D146" s="9" t="s">
         <v>854</v>
       </c>
       <c r="E146" t="s">
@@ -17371,7 +17460,7 @@
       <c r="B151" t="s">
         <v>479</v>
       </c>
-      <c r="D151" t="s">
+      <c r="D151" s="9" t="s">
         <v>855</v>
       </c>
       <c r="E151" t="s">
@@ -17441,7 +17530,7 @@
       <c r="B156" t="s">
         <v>371</v>
       </c>
-      <c r="D156" t="s">
+      <c r="D156" s="9" t="s">
         <v>856</v>
       </c>
       <c r="E156" t="s">
@@ -17455,7 +17544,7 @@
       <c r="B157" t="s">
         <v>372</v>
       </c>
-      <c r="D157" t="s">
+      <c r="D157" s="9" t="s">
         <v>857</v>
       </c>
       <c r="E157" t="s">
@@ -17469,7 +17558,7 @@
       <c r="B158" t="s">
         <v>373</v>
       </c>
-      <c r="D158" t="s">
+      <c r="D158" s="9" t="s">
         <v>858</v>
       </c>
       <c r="E158" t="s">
@@ -17483,7 +17572,7 @@
       <c r="B159" t="s">
         <v>374</v>
       </c>
-      <c r="D159" t="s">
+      <c r="D159" s="9" t="s">
         <v>859</v>
       </c>
       <c r="E159" t="s">
@@ -17497,7 +17586,7 @@
       <c r="B160" t="s">
         <v>480</v>
       </c>
-      <c r="D160" t="s">
+      <c r="D160" s="9" t="s">
         <v>860</v>
       </c>
       <c r="E160" t="s">
@@ -17511,7 +17600,7 @@
       <c r="B161" t="s">
         <v>481</v>
       </c>
-      <c r="D161" t="s">
+      <c r="D161" s="9" t="s">
         <v>861</v>
       </c>
       <c r="E161" t="s">
@@ -17525,21 +17614,21 @@
       <c r="B162" t="s">
         <v>482</v>
       </c>
-      <c r="D162" t="s">
+      <c r="D162" s="9" t="s">
         <v>862</v>
       </c>
       <c r="E162" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>47</v>
       </c>
       <c r="B163" t="s">
         <v>483</v>
       </c>
-      <c r="D163" t="s">
+      <c r="D163" s="9" t="s">
         <v>863</v>
       </c>
       <c r="E163" t="s">
@@ -17553,7 +17642,7 @@
       <c r="B164" t="s">
         <v>484</v>
       </c>
-      <c r="D164" t="s">
+      <c r="D164" s="9" t="s">
         <v>864</v>
       </c>
       <c r="E164" t="s">
@@ -17567,7 +17656,7 @@
       <c r="B165" t="s">
         <v>485</v>
       </c>
-      <c r="D165" t="s">
+      <c r="D165" s="9" t="s">
         <v>865</v>
       </c>
       <c r="E165" t="s">
@@ -17581,7 +17670,7 @@
       <c r="B166" t="s">
         <v>486</v>
       </c>
-      <c r="D166" t="s">
+      <c r="D166" s="9" t="s">
         <v>866</v>
       </c>
       <c r="E166" t="s">
@@ -17595,21 +17684,21 @@
       <c r="B167" t="s">
         <v>487</v>
       </c>
-      <c r="D167" t="s">
+      <c r="D167" s="9" t="s">
         <v>867</v>
       </c>
       <c r="E167" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>48</v>
       </c>
       <c r="B168" t="s">
         <v>488</v>
       </c>
-      <c r="D168" t="s">
+      <c r="D168" s="9" t="s">
         <v>868</v>
       </c>
       <c r="E168" t="s">
@@ -17623,7 +17712,7 @@
       <c r="B169" t="s">
         <v>489</v>
       </c>
-      <c r="D169" t="s">
+      <c r="D169" s="9" t="s">
         <v>869</v>
       </c>
       <c r="E169" t="s">
@@ -17637,7 +17726,7 @@
       <c r="B170" t="s">
         <v>490</v>
       </c>
-      <c r="D170" t="s">
+      <c r="D170" s="9" t="s">
         <v>870</v>
       </c>
       <c r="E170" t="s">
@@ -17651,21 +17740,21 @@
       <c r="B171" t="s">
         <v>491</v>
       </c>
-      <c r="D171" t="s">
+      <c r="D171" s="9" t="s">
         <v>871</v>
       </c>
       <c r="E171" t="s">
         <v>1038</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>48</v>
       </c>
       <c r="B172" t="s">
         <v>492</v>
       </c>
-      <c r="D172" t="s">
+      <c r="D172" s="9" t="s">
         <v>872</v>
       </c>
       <c r="E172" t="s">
@@ -17679,7 +17768,7 @@
       <c r="B173" t="s">
         <v>493</v>
       </c>
-      <c r="D173" t="s">
+      <c r="D173" s="9" t="s">
         <v>873</v>
       </c>
       <c r="E173" t="s">
@@ -17693,7 +17782,7 @@
       <c r="B174" t="s">
         <v>494</v>
       </c>
-      <c r="D174" t="s">
+      <c r="D174" s="9" t="s">
         <v>874</v>
       </c>
       <c r="E174" t="s">
@@ -17707,7 +17796,7 @@
       <c r="B175" t="s">
         <v>495</v>
       </c>
-      <c r="D175" t="s">
+      <c r="D175" s="9" t="s">
         <v>875</v>
       </c>
       <c r="E175" t="s">
@@ -17721,7 +17810,7 @@
       <c r="B176" t="s">
         <v>496</v>
       </c>
-      <c r="D176" t="s">
+      <c r="D176" s="9" t="s">
         <v>876</v>
       </c>
       <c r="E176" t="s">
@@ -17735,7 +17824,7 @@
       <c r="B177" t="s">
         <v>497</v>
       </c>
-      <c r="D177" t="s">
+      <c r="D177" s="9" t="s">
         <v>877</v>
       </c>
       <c r="E177" t="s">
@@ -17749,7 +17838,7 @@
       <c r="B178" t="s">
         <v>498</v>
       </c>
-      <c r="D178" t="s">
+      <c r="D178" s="9" t="s">
         <v>878</v>
       </c>
       <c r="E178" t="s">
@@ -17763,7 +17852,7 @@
       <c r="B179" t="s">
         <v>499</v>
       </c>
-      <c r="D179" t="s">
+      <c r="D179" s="9" t="s">
         <v>879</v>
       </c>
       <c r="E179" t="s">
@@ -17777,7 +17866,7 @@
       <c r="B180" t="s">
         <v>500</v>
       </c>
-      <c r="D180" t="s">
+      <c r="D180" s="9" t="s">
         <v>880</v>
       </c>
       <c r="E180" t="s">
@@ -17791,7 +17880,7 @@
       <c r="B181" t="s">
         <v>501</v>
       </c>
-      <c r="D181" t="s">
+      <c r="D181" s="9" t="s">
         <v>881</v>
       </c>
       <c r="E181" t="s">
@@ -17805,7 +17894,7 @@
       <c r="B182" t="s">
         <v>502</v>
       </c>
-      <c r="D182" t="s">
+      <c r="D182" s="9" t="s">
         <v>882</v>
       </c>
       <c r="E182" t="s">
@@ -17819,7 +17908,7 @@
       <c r="B183" t="s">
         <v>503</v>
       </c>
-      <c r="D183" t="s">
+      <c r="D183" s="9" t="s">
         <v>883</v>
       </c>
       <c r="E183" t="s">
@@ -17833,7 +17922,7 @@
       <c r="B184" t="s">
         <v>504</v>
       </c>
-      <c r="D184" t="s">
+      <c r="D184" s="9" t="s">
         <v>884</v>
       </c>
       <c r="E184" t="s">
@@ -17847,7 +17936,7 @@
       <c r="B185" t="s">
         <v>505</v>
       </c>
-      <c r="D185" t="s">
+      <c r="D185" s="9" t="s">
         <v>885</v>
       </c>
       <c r="E185" t="s">
@@ -17861,7 +17950,7 @@
       <c r="B186" t="s">
         <v>506</v>
       </c>
-      <c r="D186" t="s">
+      <c r="D186" s="9" t="s">
         <v>886</v>
       </c>
       <c r="E186" t="s">
@@ -17875,7 +17964,7 @@
       <c r="B187" t="s">
         <v>507</v>
       </c>
-      <c r="D187" t="s">
+      <c r="D187" s="9" t="s">
         <v>887</v>
       </c>
       <c r="E187" t="s">
@@ -17889,7 +17978,7 @@
       <c r="B188" t="s">
         <v>489</v>
       </c>
-      <c r="D188" t="s">
+      <c r="D188" s="9" t="s">
         <v>869</v>
       </c>
       <c r="E188" t="s">
@@ -17903,7 +17992,7 @@
       <c r="B189" t="s">
         <v>508</v>
       </c>
-      <c r="D189" t="s">
+      <c r="D189" s="9" t="s">
         <v>888</v>
       </c>
       <c r="E189" t="s">
@@ -17917,7 +18006,7 @@
       <c r="B190" t="s">
         <v>509</v>
       </c>
-      <c r="D190" t="s">
+      <c r="D190" s="9" t="s">
         <v>889</v>
       </c>
       <c r="E190" t="s">
@@ -17931,7 +18020,7 @@
       <c r="B191" t="s">
         <v>510</v>
       </c>
-      <c r="D191" t="s">
+      <c r="D191" s="9" t="s">
         <v>890</v>
       </c>
       <c r="E191" t="s">
@@ -17945,7 +18034,7 @@
       <c r="B192" t="s">
         <v>511</v>
       </c>
-      <c r="D192" t="s">
+      <c r="D192" s="9" t="s">
         <v>891</v>
       </c>
       <c r="E192" t="s">
@@ -17959,7 +18048,7 @@
       <c r="B193" t="s">
         <v>512</v>
       </c>
-      <c r="D193" t="s">
+      <c r="D193" s="9" t="s">
         <v>892</v>
       </c>
       <c r="E193" t="s">
@@ -17973,7 +18062,7 @@
       <c r="B194" t="s">
         <v>513</v>
       </c>
-      <c r="D194" t="s">
+      <c r="D194" s="9" t="s">
         <v>893</v>
       </c>
       <c r="E194" t="s">
@@ -17987,7 +18076,7 @@
       <c r="B195" t="s">
         <v>514</v>
       </c>
-      <c r="D195" t="s">
+      <c r="D195" s="9" t="s">
         <v>894</v>
       </c>
       <c r="E195" t="s">
@@ -18001,7 +18090,7 @@
       <c r="B196" t="s">
         <v>515</v>
       </c>
-      <c r="D196" t="s">
+      <c r="D196" s="9" t="s">
         <v>895</v>
       </c>
       <c r="E196" t="s">
@@ -18015,7 +18104,7 @@
       <c r="B197" t="s">
         <v>516</v>
       </c>
-      <c r="D197" t="s">
+      <c r="D197" s="9" t="s">
         <v>896</v>
       </c>
       <c r="E197" t="s">
@@ -18029,7 +18118,7 @@
       <c r="B198" t="s">
         <v>517</v>
       </c>
-      <c r="D198" t="s">
+      <c r="D198" s="9" t="s">
         <v>897</v>
       </c>
       <c r="E198" t="s">
@@ -18043,7 +18132,7 @@
       <c r="B199" t="s">
         <v>518</v>
       </c>
-      <c r="D199" t="s">
+      <c r="D199" s="9" t="s">
         <v>898</v>
       </c>
       <c r="E199" t="s">
@@ -18082,7 +18171,7 @@
       <c r="B202" t="s">
         <v>520</v>
       </c>
-      <c r="D202" t="s">
+      <c r="D202" s="9" t="s">
         <v>899</v>
       </c>
       <c r="E202" t="s">
@@ -18096,7 +18185,7 @@
       <c r="B203" t="s">
         <v>521</v>
       </c>
-      <c r="D203" t="s">
+      <c r="D203" s="9" t="s">
         <v>900</v>
       </c>
       <c r="E203" t="s">
@@ -18124,7 +18213,7 @@
       <c r="C205" t="s">
         <v>726</v>
       </c>
-      <c r="D205" t="s">
+      <c r="D205" s="9" t="s">
         <v>901</v>
       </c>
       <c r="I205" t="s">
@@ -18138,7 +18227,7 @@
       <c r="B206" t="s">
         <v>520</v>
       </c>
-      <c r="D206" t="s">
+      <c r="D206" s="9" t="s">
         <v>902</v>
       </c>
       <c r="E206" t="s">
@@ -18152,7 +18241,7 @@
       <c r="B207" t="s">
         <v>522</v>
       </c>
-      <c r="D207" t="s">
+      <c r="D207" s="9" t="s">
         <v>903</v>
       </c>
       <c r="E207" t="s">
@@ -18166,7 +18255,7 @@
       <c r="B208" t="s">
         <v>523</v>
       </c>
-      <c r="D208" t="s">
+      <c r="D208" s="9" t="s">
         <v>904</v>
       </c>
       <c r="E208" t="s">
@@ -18180,7 +18269,7 @@
       <c r="B209" t="s">
         <v>524</v>
       </c>
-      <c r="D209" t="s">
+      <c r="D209" s="9" t="s">
         <v>905</v>
       </c>
       <c r="E209" t="s">
@@ -18194,7 +18283,7 @@
       <c r="B210" t="s">
         <v>525</v>
       </c>
-      <c r="D210" t="s">
+      <c r="D210" s="9" t="s">
         <v>906</v>
       </c>
       <c r="E210" t="s">
@@ -18208,7 +18297,7 @@
       <c r="B211" t="s">
         <v>526</v>
       </c>
-      <c r="D211" t="s">
+      <c r="D211" s="9" t="s">
         <v>907</v>
       </c>
       <c r="E211" t="s">
@@ -18222,7 +18311,7 @@
       <c r="B212" t="s">
         <v>527</v>
       </c>
-      <c r="D212" t="s">
+      <c r="D212" s="9" t="s">
         <v>908</v>
       </c>
       <c r="E212" t="s">
@@ -18236,7 +18325,7 @@
       <c r="B213" t="s">
         <v>528</v>
       </c>
-      <c r="D213" t="s">
+      <c r="D213" s="9" t="s">
         <v>909</v>
       </c>
       <c r="E213" t="s">
@@ -18250,21 +18339,21 @@
       <c r="B214" t="s">
         <v>529</v>
       </c>
-      <c r="D214" t="s">
+      <c r="D214" s="9" t="s">
         <v>910</v>
       </c>
       <c r="E214" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>52</v>
       </c>
       <c r="B215" t="s">
         <v>530</v>
       </c>
-      <c r="D215" t="s">
+      <c r="D215" s="9" t="s">
         <v>911</v>
       </c>
       <c r="E215" t="s">
@@ -18274,14 +18363,14 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>52</v>
       </c>
       <c r="B216" t="s">
         <v>531</v>
       </c>
-      <c r="D216" t="s">
+      <c r="D216" s="9" t="s">
         <v>912</v>
       </c>
       <c r="E216" t="s">
@@ -18291,14 +18380,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>52</v>
       </c>
       <c r="B217" t="s">
         <v>532</v>
       </c>
-      <c r="D217" t="s">
+      <c r="D217" s="9" t="s">
         <v>913</v>
       </c>
       <c r="E217" t="s">
@@ -18315,7 +18404,7 @@
       <c r="B218" t="s">
         <v>533</v>
       </c>
-      <c r="D218" t="s">
+      <c r="D218" s="9" t="s">
         <v>914</v>
       </c>
       <c r="E218" t="s">
@@ -18332,7 +18421,7 @@
       <c r="B219" t="s">
         <v>521</v>
       </c>
-      <c r="D219" t="s">
+      <c r="D219" s="9" t="s">
         <v>915</v>
       </c>
       <c r="E219" t="s">
@@ -18346,7 +18435,7 @@
       <c r="B220" t="s">
         <v>371</v>
       </c>
-      <c r="D220" t="s">
+      <c r="D220" s="9" t="s">
         <v>856</v>
       </c>
       <c r="E220" t="s">
@@ -18360,7 +18449,7 @@
       <c r="B221" t="s">
         <v>372</v>
       </c>
-      <c r="D221" t="s">
+      <c r="D221" s="9" t="s">
         <v>857</v>
       </c>
       <c r="E221" t="s">
@@ -18374,7 +18463,7 @@
       <c r="B222" t="s">
         <v>373</v>
       </c>
-      <c r="D222" t="s">
+      <c r="D222" s="9" t="s">
         <v>858</v>
       </c>
       <c r="E222" t="s">
@@ -18388,21 +18477,21 @@
       <c r="B223" t="s">
         <v>374</v>
       </c>
-      <c r="D223" t="s">
+      <c r="D223" s="9" t="s">
         <v>859</v>
       </c>
       <c r="E223" t="s">
         <v>1037</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>53</v>
       </c>
       <c r="B224" t="s">
         <v>483</v>
       </c>
-      <c r="D224" t="s">
+      <c r="D224" s="9" t="s">
         <v>863</v>
       </c>
       <c r="E224" t="s">
@@ -18416,7 +18505,7 @@
       <c r="B225" t="s">
         <v>534</v>
       </c>
-      <c r="D225" t="s">
+      <c r="D225" s="9" t="s">
         <v>916</v>
       </c>
       <c r="E225" t="s">
@@ -18430,7 +18519,7 @@
       <c r="B226" t="s">
         <v>535</v>
       </c>
-      <c r="D226" t="s">
+      <c r="D226" s="9" t="s">
         <v>917</v>
       </c>
       <c r="E226" t="s">
@@ -18444,7 +18533,7 @@
       <c r="B227" t="s">
         <v>536</v>
       </c>
-      <c r="D227" t="s">
+      <c r="D227" s="9" t="s">
         <v>918</v>
       </c>
       <c r="E227" t="s">
@@ -18458,7 +18547,7 @@
       <c r="B228" t="s">
         <v>537</v>
       </c>
-      <c r="D228" t="s">
+      <c r="D228" s="9" t="s">
         <v>918</v>
       </c>
       <c r="E228" t="s">
@@ -18472,7 +18561,7 @@
       <c r="B229" t="s">
         <v>538</v>
       </c>
-      <c r="D229" t="s">
+      <c r="D229" s="9" t="s">
         <v>919</v>
       </c>
       <c r="E229" t="s">
@@ -18486,7 +18575,7 @@
       <c r="B230" t="s">
         <v>539</v>
       </c>
-      <c r="D230" t="s">
+      <c r="D230" s="9" t="s">
         <v>920</v>
       </c>
       <c r="E230" t="s">
@@ -18500,7 +18589,7 @@
       <c r="B231" t="s">
         <v>540</v>
       </c>
-      <c r="D231" t="s">
+      <c r="D231" s="9" t="s">
         <v>921</v>
       </c>
       <c r="E231" t="s">
@@ -18514,7 +18603,7 @@
       <c r="B232" t="s">
         <v>541</v>
       </c>
-      <c r="D232" t="s">
+      <c r="D232" s="9" t="s">
         <v>922</v>
       </c>
       <c r="E232" t="s">
@@ -18528,7 +18617,7 @@
       <c r="B233" t="s">
         <v>542</v>
       </c>
-      <c r="D233" t="s">
+      <c r="D233" s="9" t="s">
         <v>923</v>
       </c>
       <c r="E233" t="s">
@@ -18542,7 +18631,7 @@
       <c r="B234" t="s">
         <v>543</v>
       </c>
-      <c r="D234" t="s">
+      <c r="D234" s="9" t="s">
         <v>924</v>
       </c>
       <c r="E234" t="s">
@@ -18556,7 +18645,7 @@
       <c r="B235" t="s">
         <v>544</v>
       </c>
-      <c r="D235" t="s">
+      <c r="D235" s="9" t="s">
         <v>925</v>
       </c>
       <c r="E235" t="s">
@@ -18570,7 +18659,7 @@
       <c r="B236" t="s">
         <v>545</v>
       </c>
-      <c r="D236" t="s">
+      <c r="D236" s="9" t="s">
         <v>926</v>
       </c>
       <c r="E236" t="s">
@@ -18584,7 +18673,7 @@
       <c r="B237" t="s">
         <v>546</v>
       </c>
-      <c r="D237" t="s">
+      <c r="D237" s="9" t="s">
         <v>927</v>
       </c>
       <c r="E237" t="s">
@@ -18598,7 +18687,7 @@
       <c r="B238" t="s">
         <v>547</v>
       </c>
-      <c r="D238" t="s">
+      <c r="D238" s="9" t="s">
         <v>928</v>
       </c>
       <c r="E238" t="s">
@@ -18612,7 +18701,7 @@
       <c r="B239" t="s">
         <v>548</v>
       </c>
-      <c r="D239" t="s">
+      <c r="D239" s="9" t="s">
         <v>929</v>
       </c>
       <c r="E239" t="s">
@@ -18626,21 +18715,21 @@
       <c r="B240" t="s">
         <v>549</v>
       </c>
-      <c r="D240" t="s">
+      <c r="D240" s="9" t="s">
         <v>930</v>
       </c>
       <c r="E240" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>54</v>
       </c>
       <c r="B241" t="s">
         <v>550</v>
       </c>
-      <c r="D241" t="s">
+      <c r="D241" s="9" t="s">
         <v>931</v>
       </c>
       <c r="E241" t="s">
@@ -18654,7 +18743,7 @@
       <c r="B242" t="s">
         <v>551</v>
       </c>
-      <c r="D242" t="s">
+      <c r="D242" s="9" t="s">
         <v>932</v>
       </c>
       <c r="E242" t="s">
@@ -18668,7 +18757,7 @@
       <c r="B243" t="s">
         <v>552</v>
       </c>
-      <c r="D243" t="s">
+      <c r="D243" s="9" t="s">
         <v>933</v>
       </c>
       <c r="E243" t="s">
@@ -18682,7 +18771,7 @@
       <c r="B244" t="s">
         <v>553</v>
       </c>
-      <c r="D244" t="s">
+      <c r="D244" s="9" t="s">
         <v>934</v>
       </c>
       <c r="E244" t="s">
@@ -18696,7 +18785,7 @@
       <c r="B245" t="s">
         <v>554</v>
       </c>
-      <c r="D245" t="s">
+      <c r="D245" s="9" t="s">
         <v>935</v>
       </c>
       <c r="E245" t="s">
@@ -18710,7 +18799,7 @@
       <c r="B246" t="s">
         <v>555</v>
       </c>
-      <c r="D246" t="s">
+      <c r="D246" s="9" t="s">
         <v>936</v>
       </c>
       <c r="E246" t="s">
@@ -18724,7 +18813,7 @@
       <c r="B247" t="s">
         <v>556</v>
       </c>
-      <c r="D247" t="s">
+      <c r="D247" s="9" t="s">
         <v>937</v>
       </c>
       <c r="E247" t="s">
@@ -18738,7 +18827,7 @@
       <c r="B248" t="s">
         <v>557</v>
       </c>
-      <c r="D248" t="s">
+      <c r="D248" s="9" t="s">
         <v>938</v>
       </c>
       <c r="E248" t="s">
@@ -18752,7 +18841,7 @@
       <c r="B249" t="s">
         <v>558</v>
       </c>
-      <c r="D249" t="s">
+      <c r="D249" s="9" t="s">
         <v>939</v>
       </c>
       <c r="E249" t="s">
@@ -18766,7 +18855,7 @@
       <c r="B250" t="s">
         <v>559</v>
       </c>
-      <c r="D250" t="s">
+      <c r="D250" s="9" t="s">
         <v>940</v>
       </c>
       <c r="E250" t="s">
@@ -18780,7 +18869,7 @@
       <c r="B251" t="s">
         <v>560</v>
       </c>
-      <c r="D251" t="s">
+      <c r="D251" s="9" t="s">
         <v>940</v>
       </c>
       <c r="E251" t="s">
@@ -18794,7 +18883,7 @@
       <c r="B252" t="s">
         <v>561</v>
       </c>
-      <c r="D252" t="s">
+      <c r="D252" s="9" t="s">
         <v>941</v>
       </c>
       <c r="E252" t="s">
@@ -18808,7 +18897,7 @@
       <c r="B253" t="s">
         <v>562</v>
       </c>
-      <c r="D253" t="s">
+      <c r="D253" s="9" t="s">
         <v>942</v>
       </c>
       <c r="E253" t="s">
@@ -18822,7 +18911,7 @@
       <c r="B254" t="s">
         <v>563</v>
       </c>
-      <c r="D254" t="s">
+      <c r="D254" s="9" t="s">
         <v>943</v>
       </c>
       <c r="E254" t="s">
@@ -18836,7 +18925,7 @@
       <c r="B255" t="s">
         <v>564</v>
       </c>
-      <c r="D255" t="s">
+      <c r="D255" s="9" t="s">
         <v>944</v>
       </c>
       <c r="E255" t="s">
@@ -18850,7 +18939,7 @@
       <c r="B256" t="s">
         <v>565</v>
       </c>
-      <c r="D256" t="s">
+      <c r="D256" s="9" t="s">
         <v>945</v>
       </c>
       <c r="E256" t="s">
@@ -18864,7 +18953,7 @@
       <c r="B257" t="s">
         <v>566</v>
       </c>
-      <c r="D257" t="s">
+      <c r="D257" s="9" t="s">
         <v>946</v>
       </c>
       <c r="E257" t="s">
@@ -18878,7 +18967,7 @@
       <c r="B258" t="s">
         <v>567</v>
       </c>
-      <c r="D258" t="s">
+      <c r="D258" s="9" t="s">
         <v>947</v>
       </c>
       <c r="E258" t="s">
@@ -18892,7 +18981,7 @@
       <c r="B259" t="s">
         <v>568</v>
       </c>
-      <c r="D259" t="s">
+      <c r="D259" s="9" t="s">
         <v>948</v>
       </c>
       <c r="E259" t="s">
@@ -18906,7 +18995,7 @@
       <c r="B260" t="s">
         <v>569</v>
       </c>
-      <c r="D260" t="s">
+      <c r="D260" s="9" t="s">
         <v>949</v>
       </c>
       <c r="E260" t="s">
@@ -18920,7 +19009,7 @@
       <c r="B261" t="s">
         <v>570</v>
       </c>
-      <c r="D261" t="s">
+      <c r="D261" s="9" t="s">
         <v>950</v>
       </c>
       <c r="E261" t="s">
@@ -18934,7 +19023,7 @@
       <c r="B262" t="s">
         <v>571</v>
       </c>
-      <c r="D262" t="s">
+      <c r="D262" s="9" t="s">
         <v>951</v>
       </c>
       <c r="E262" t="s">
@@ -18948,7 +19037,7 @@
       <c r="B263" t="s">
         <v>572</v>
       </c>
-      <c r="D263" t="s">
+      <c r="D263" s="9" t="s">
         <v>952</v>
       </c>
       <c r="E263" t="s">
@@ -18962,7 +19051,7 @@
       <c r="B264" t="s">
         <v>573</v>
       </c>
-      <c r="D264" t="s">
+      <c r="D264" s="9" t="s">
         <v>953</v>
       </c>
       <c r="E264" t="s">
@@ -18976,7 +19065,7 @@
       <c r="B265" t="s">
         <v>574</v>
       </c>
-      <c r="D265" t="s">
+      <c r="D265" s="9" t="s">
         <v>954</v>
       </c>
       <c r="E265" t="s">
@@ -18990,7 +19079,7 @@
       <c r="B266" t="s">
         <v>575</v>
       </c>
-      <c r="D266" t="s">
+      <c r="D266" s="9" t="s">
         <v>955</v>
       </c>
       <c r="E266" t="s">
@@ -19004,7 +19093,7 @@
       <c r="B267" t="s">
         <v>576</v>
       </c>
-      <c r="D267" t="s">
+      <c r="D267" s="9" t="s">
         <v>956</v>
       </c>
       <c r="E267" t="s">
@@ -19018,7 +19107,7 @@
       <c r="B268" t="s">
         <v>577</v>
       </c>
-      <c r="D268" t="s">
+      <c r="D268" s="9" t="s">
         <v>957</v>
       </c>
       <c r="E268" t="s">
@@ -19032,7 +19121,7 @@
       <c r="B269" t="s">
         <v>578</v>
       </c>
-      <c r="D269" t="s">
+      <c r="D269" s="9" t="s">
         <v>958</v>
       </c>
       <c r="E269" t="s">
@@ -19046,7 +19135,7 @@
       <c r="B270" t="s">
         <v>579</v>
       </c>
-      <c r="D270" t="s">
+      <c r="D270" s="9" t="s">
         <v>959</v>
       </c>
       <c r="E270" t="s">
@@ -19060,7 +19149,7 @@
       <c r="B271" t="s">
         <v>580</v>
       </c>
-      <c r="D271" t="s">
+      <c r="D271" s="9" t="s">
         <v>940</v>
       </c>
       <c r="E271" t="s">
@@ -19074,7 +19163,7 @@
       <c r="B272" t="s">
         <v>581</v>
       </c>
-      <c r="D272" t="s">
+      <c r="D272" s="9" t="s">
         <v>960</v>
       </c>
       <c r="E272" t="s">
@@ -19088,7 +19177,7 @@
       <c r="B273" t="s">
         <v>582</v>
       </c>
-      <c r="D273" t="s">
+      <c r="D273" s="9" t="s">
         <v>961</v>
       </c>
       <c r="E273" t="s">
@@ -19102,7 +19191,7 @@
       <c r="B274" t="s">
         <v>583</v>
       </c>
-      <c r="D274" t="s">
+      <c r="D274" s="9" t="s">
         <v>962</v>
       </c>
       <c r="E274" t="s">
@@ -19116,7 +19205,7 @@
       <c r="B275" t="s">
         <v>584</v>
       </c>
-      <c r="D275" t="s">
+      <c r="D275" s="9" t="s">
         <v>963</v>
       </c>
       <c r="E275" t="s">
@@ -19130,7 +19219,7 @@
       <c r="B276" t="s">
         <v>585</v>
       </c>
-      <c r="D276" t="s">
+      <c r="D276" s="9" t="s">
         <v>964</v>
       </c>
       <c r="E276" t="s">
@@ -19144,7 +19233,7 @@
       <c r="B277" t="s">
         <v>586</v>
       </c>
-      <c r="D277" t="s">
+      <c r="D277" s="9" t="s">
         <v>965</v>
       </c>
       <c r="E277" t="s">
@@ -19158,7 +19247,7 @@
       <c r="B278" t="s">
         <v>518</v>
       </c>
-      <c r="D278" t="s">
+      <c r="D278" s="9" t="s">
         <v>898</v>
       </c>
       <c r="E278" t="s">
@@ -19172,7 +19261,7 @@
       <c r="B279" t="s">
         <v>518</v>
       </c>
-      <c r="D279" t="s">
+      <c r="D279" s="9" t="s">
         <v>898</v>
       </c>
       <c r="E279" t="s">
@@ -19186,7 +19275,7 @@
       <c r="B280" t="s">
         <v>398</v>
       </c>
-      <c r="D280" t="s">
+      <c r="D280" s="9" t="s">
         <v>779</v>
       </c>
       <c r="E280" t="s">
@@ -19200,21 +19289,21 @@
       <c r="B281" t="s">
         <v>399</v>
       </c>
-      <c r="D281" t="s">
+      <c r="D281" s="9" t="s">
         <v>780</v>
       </c>
       <c r="E281" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>58</v>
       </c>
       <c r="B282" t="s">
         <v>400</v>
       </c>
-      <c r="D282" t="s">
+      <c r="D282" s="9" t="s">
         <v>781</v>
       </c>
       <c r="E282" t="s">
@@ -19227,14 +19316,14 @@
         <v>-32872</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>58</v>
       </c>
       <c r="B283" t="s">
         <v>401</v>
       </c>
-      <c r="D283" t="s">
+      <c r="D283" s="9" t="s">
         <v>782</v>
       </c>
       <c r="E283" t="s">
@@ -19290,7 +19379,7 @@
       <c r="B287" t="s">
         <v>405</v>
       </c>
-      <c r="D287" t="s">
+      <c r="D287" s="9" t="s">
         <v>783</v>
       </c>
       <c r="E287" t="s">
@@ -19332,7 +19421,7 @@
       <c r="B290" t="s">
         <v>371</v>
       </c>
-      <c r="D290" t="s">
+      <c r="D290" s="9" t="s">
         <v>856</v>
       </c>
       <c r="E290" t="s">
@@ -19346,7 +19435,7 @@
       <c r="B291" t="s">
         <v>372</v>
       </c>
-      <c r="D291" t="s">
+      <c r="D291" s="9" t="s">
         <v>857</v>
       </c>
       <c r="E291" t="s">
@@ -19360,7 +19449,7 @@
       <c r="B292" t="s">
         <v>373</v>
       </c>
-      <c r="D292" t="s">
+      <c r="D292" s="9" t="s">
         <v>858</v>
       </c>
       <c r="E292" t="s">
@@ -19374,21 +19463,21 @@
       <c r="B293" t="s">
         <v>374</v>
       </c>
-      <c r="D293" t="s">
+      <c r="D293" s="9" t="s">
         <v>859</v>
       </c>
       <c r="E293" t="s">
         <v>1037</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>59</v>
       </c>
       <c r="B294" t="s">
         <v>483</v>
       </c>
-      <c r="D294" t="s">
+      <c r="D294" s="9" t="s">
         <v>863</v>
       </c>
       <c r="E294" t="s">
@@ -19424,7 +19513,7 @@
       <c r="B297" t="s">
         <v>371</v>
       </c>
-      <c r="D297" t="s">
+      <c r="D297" s="9" t="s">
         <v>856</v>
       </c>
       <c r="E297" t="s">
@@ -19438,7 +19527,7 @@
       <c r="B298" t="s">
         <v>372</v>
       </c>
-      <c r="D298" t="s">
+      <c r="D298" s="9" t="s">
         <v>857</v>
       </c>
       <c r="E298" t="s">
@@ -19452,7 +19541,7 @@
       <c r="B299" t="s">
         <v>373</v>
       </c>
-      <c r="D299" t="s">
+      <c r="D299" s="9" t="s">
         <v>858</v>
       </c>
       <c r="E299" t="s">
@@ -19466,21 +19555,21 @@
       <c r="B300" t="s">
         <v>374</v>
       </c>
-      <c r="D300" t="s">
+      <c r="D300" s="9" t="s">
         <v>859</v>
       </c>
       <c r="E300" t="s">
         <v>1037</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>61</v>
       </c>
       <c r="B301" t="s">
         <v>483</v>
       </c>
-      <c r="D301" t="s">
+      <c r="D301" s="9" t="s">
         <v>863</v>
       </c>
       <c r="E301" t="s">
@@ -19844,7 +19933,7 @@
       <c r="B327" t="s">
         <v>612</v>
       </c>
-      <c r="D327" t="s">
+      <c r="D327" s="9" t="s">
         <v>966</v>
       </c>
       <c r="E327" t="s">
@@ -19858,7 +19947,7 @@
       <c r="B328" t="s">
         <v>613</v>
       </c>
-      <c r="D328" t="s">
+      <c r="D328" s="9" t="s">
         <v>967</v>
       </c>
       <c r="E328" t="s">
@@ -20105,7 +20194,7 @@
       <c r="B348" t="s">
         <v>633</v>
       </c>
-      <c r="D348" t="s">
+      <c r="D348" s="9" t="s">
         <v>968</v>
       </c>
       <c r="E348" t="s">
@@ -20167,7 +20256,7 @@
       <c r="B352" t="s">
         <v>637</v>
       </c>
-      <c r="D352" t="s">
+      <c r="D352" s="9" t="s">
         <v>969</v>
       </c>
       <c r="E352" t="s">
@@ -20237,7 +20326,7 @@
       <c r="B357" t="s">
         <v>640</v>
       </c>
-      <c r="D357" t="s">
+      <c r="D357" s="9" t="s">
         <v>970</v>
       </c>
       <c r="E357" t="s">
@@ -20251,7 +20340,7 @@
       <c r="B358" t="s">
         <v>641</v>
       </c>
-      <c r="D358" t="s">
+      <c r="D358" s="9" t="s">
         <v>971</v>
       </c>
       <c r="E358" t="s">
@@ -20279,49 +20368,49 @@
       <c r="B360" t="s">
         <v>643</v>
       </c>
-      <c r="D360" t="s">
+      <c r="D360" s="9" t="s">
         <v>972</v>
       </c>
       <c r="E360" t="s">
         <v>1038</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>65</v>
       </c>
       <c r="B361" t="s">
         <v>644</v>
       </c>
-      <c r="D361" t="s">
+      <c r="D361" s="9" t="s">
         <v>973</v>
       </c>
       <c r="E361" t="s">
         <v>1039</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>65</v>
       </c>
       <c r="B362" t="s">
         <v>645</v>
       </c>
-      <c r="D362" t="s">
+      <c r="D362" s="9" t="s">
         <v>974</v>
       </c>
       <c r="E362" t="s">
         <v>1039</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>65</v>
       </c>
       <c r="B363" t="s">
         <v>646</v>
       </c>
-      <c r="D363" t="s">
+      <c r="D363" s="9" t="s">
         <v>975</v>
       </c>
       <c r="E363" t="s">
@@ -20335,7 +20424,7 @@
       <c r="B364" t="s">
         <v>647</v>
       </c>
-      <c r="D364" t="s">
+      <c r="D364" s="9" t="s">
         <v>976</v>
       </c>
       <c r="E364" t="s">
@@ -20349,7 +20438,7 @@
       <c r="B365" t="s">
         <v>648</v>
       </c>
-      <c r="D365" t="s">
+      <c r="D365" s="9" t="s">
         <v>977</v>
       </c>
       <c r="E365" t="s">
@@ -20363,7 +20452,7 @@
       <c r="B366" t="s">
         <v>649</v>
       </c>
-      <c r="D366" t="s">
+      <c r="D366" s="9" t="s">
         <v>978</v>
       </c>
       <c r="E366" t="s">
@@ -20377,7 +20466,7 @@
       <c r="B367" t="s">
         <v>650</v>
       </c>
-      <c r="D367" t="s">
+      <c r="D367" s="9" t="s">
         <v>979</v>
       </c>
       <c r="E367" t="s">
@@ -20391,7 +20480,7 @@
       <c r="B368" t="s">
         <v>651</v>
       </c>
-      <c r="D368" t="s">
+      <c r="D368" s="9" t="s">
         <v>980</v>
       </c>
       <c r="E368" t="s">
@@ -20405,7 +20494,7 @@
       <c r="B369" t="s">
         <v>652</v>
       </c>
-      <c r="D369" t="s">
+      <c r="D369" s="9" t="s">
         <v>981</v>
       </c>
       <c r="E369" t="s">
@@ -20419,7 +20508,7 @@
       <c r="B370" t="s">
         <v>653</v>
       </c>
-      <c r="D370" t="s">
+      <c r="D370" s="9" t="s">
         <v>982</v>
       </c>
       <c r="E370" t="s">
@@ -20433,7 +20522,7 @@
       <c r="B371" t="s">
         <v>654</v>
       </c>
-      <c r="D371" t="s">
+      <c r="D371" s="9" t="s">
         <v>983</v>
       </c>
       <c r="E371" t="s">
@@ -20447,7 +20536,7 @@
       <c r="B372" t="s">
         <v>655</v>
       </c>
-      <c r="D372" t="s">
+      <c r="D372" s="9" t="s">
         <v>984</v>
       </c>
       <c r="E372" t="s">
@@ -20461,7 +20550,7 @@
       <c r="B373" t="s">
         <v>656</v>
       </c>
-      <c r="D373" t="s">
+      <c r="D373" s="9" t="s">
         <v>985</v>
       </c>
       <c r="E373" t="s">
@@ -20475,7 +20564,7 @@
       <c r="B374" t="s">
         <v>657</v>
       </c>
-      <c r="D374" t="s">
+      <c r="D374" s="9" t="s">
         <v>986</v>
       </c>
       <c r="E374" t="s">
@@ -20489,7 +20578,7 @@
       <c r="B375" t="s">
         <v>658</v>
       </c>
-      <c r="D375" t="s">
+      <c r="D375" s="9" t="s">
         <v>987</v>
       </c>
       <c r="E375" t="s">
@@ -20503,7 +20592,7 @@
       <c r="B376" t="s">
         <v>659</v>
       </c>
-      <c r="D376" t="s">
+      <c r="D376" s="9" t="s">
         <v>988</v>
       </c>
       <c r="E376" t="s">
@@ -20517,7 +20606,7 @@
       <c r="B377" t="s">
         <v>660</v>
       </c>
-      <c r="D377" t="s">
+      <c r="D377" s="9" t="s">
         <v>989</v>
       </c>
       <c r="E377" t="s">
@@ -20531,7 +20620,7 @@
       <c r="B378" t="s">
         <v>661</v>
       </c>
-      <c r="D378" t="s">
+      <c r="D378" s="9" t="s">
         <v>990</v>
       </c>
       <c r="E378" t="s">
@@ -20545,49 +20634,49 @@
       <c r="B379" t="s">
         <v>396</v>
       </c>
-      <c r="D379" t="s">
+      <c r="D379" s="9" t="s">
         <v>991</v>
       </c>
       <c r="E379" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>65</v>
       </c>
       <c r="B380" t="s">
         <v>662</v>
       </c>
-      <c r="D380" t="s">
+      <c r="D380" s="9" t="s">
         <v>992</v>
       </c>
       <c r="E380" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>65</v>
       </c>
       <c r="B381" t="s">
         <v>663</v>
       </c>
-      <c r="D381" t="s">
+      <c r="D381" s="9" t="s">
         <v>993</v>
       </c>
       <c r="E381" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>65</v>
       </c>
       <c r="B382" t="s">
         <v>664</v>
       </c>
-      <c r="D382" t="s">
+      <c r="D382" s="9" t="s">
         <v>994</v>
       </c>
       <c r="E382" t="s">
@@ -20601,7 +20690,7 @@
       <c r="B383" t="s">
         <v>665</v>
       </c>
-      <c r="D383" t="s">
+      <c r="D383" s="9" t="s">
         <v>995</v>
       </c>
       <c r="E383" t="s">
@@ -20615,7 +20704,7 @@
       <c r="B384" t="s">
         <v>666</v>
       </c>
-      <c r="D384" t="s">
+      <c r="D384" s="9" t="s">
         <v>996</v>
       </c>
       <c r="E384" t="s">
@@ -20629,7 +20718,7 @@
       <c r="B385" t="s">
         <v>667</v>
       </c>
-      <c r="D385" t="s">
+      <c r="D385" s="9" t="s">
         <v>801</v>
       </c>
       <c r="E385" t="s">
@@ -20643,7 +20732,7 @@
       <c r="B386" t="s">
         <v>398</v>
       </c>
-      <c r="D386" t="s">
+      <c r="D386" s="9" t="s">
         <v>779</v>
       </c>
       <c r="E386" t="s">
@@ -20657,21 +20746,21 @@
       <c r="B387" t="s">
         <v>399</v>
       </c>
-      <c r="D387" t="s">
+      <c r="D387" s="9" t="s">
         <v>780</v>
       </c>
       <c r="E387" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>66</v>
       </c>
       <c r="B388" t="s">
         <v>400</v>
       </c>
-      <c r="D388" t="s">
+      <c r="D388" s="9" t="s">
         <v>781</v>
       </c>
       <c r="E388" t="s">
@@ -20684,14 +20773,14 @@
         <v>-32872</v>
       </c>
     </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>66</v>
       </c>
       <c r="B389" t="s">
         <v>401</v>
       </c>
-      <c r="D389" t="s">
+      <c r="D389" s="9" t="s">
         <v>782</v>
       </c>
       <c r="E389" t="s">
@@ -20747,7 +20836,7 @@
       <c r="B393" t="s">
         <v>405</v>
       </c>
-      <c r="D393" t="s">
+      <c r="D393" s="9" t="s">
         <v>783</v>
       </c>
       <c r="E393" t="s">
@@ -20789,7 +20878,7 @@
       <c r="B396" t="s">
         <v>668</v>
       </c>
-      <c r="D396" t="s">
+      <c r="D396" s="9" t="s">
         <v>997</v>
       </c>
       <c r="E396" t="s">
@@ -20803,7 +20892,7 @@
       <c r="B397" t="s">
         <v>669</v>
       </c>
-      <c r="D397" t="s">
+      <c r="D397" s="9" t="s">
         <v>998</v>
       </c>
       <c r="E397" t="s">
@@ -20817,7 +20906,7 @@
       <c r="B398" t="s">
         <v>670</v>
       </c>
-      <c r="D398" t="s">
+      <c r="D398" s="9" t="s">
         <v>999</v>
       </c>
       <c r="E398" t="s">
@@ -20831,21 +20920,21 @@
       <c r="B399" t="s">
         <v>671</v>
       </c>
-      <c r="D399" t="s">
+      <c r="D399" s="9" t="s">
         <v>1000</v>
       </c>
       <c r="E399" t="s">
         <v>1040</v>
       </c>
     </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>67</v>
       </c>
       <c r="B400" t="s">
         <v>672</v>
       </c>
-      <c r="D400" t="s">
+      <c r="D400" s="9" t="s">
         <v>1001</v>
       </c>
       <c r="E400" t="s">
@@ -20859,21 +20948,21 @@
       <c r="B401" t="s">
         <v>673</v>
       </c>
-      <c r="D401" t="s">
+      <c r="D401" s="9" t="s">
         <v>1002</v>
       </c>
       <c r="E401" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>67</v>
       </c>
       <c r="B402" t="s">
         <v>674</v>
       </c>
-      <c r="D402" t="s">
+      <c r="D402" s="9" t="s">
         <v>1003</v>
       </c>
       <c r="E402" t="s">
@@ -20887,7 +20976,7 @@
       <c r="B403" t="s">
         <v>675</v>
       </c>
-      <c r="D403" t="s">
+      <c r="D403" s="9" t="s">
         <v>1004</v>
       </c>
       <c r="E403" t="s">
@@ -20901,7 +20990,7 @@
       <c r="B404" t="s">
         <v>676</v>
       </c>
-      <c r="D404" t="s">
+      <c r="D404" s="9" t="s">
         <v>1005</v>
       </c>
       <c r="E404" t="s">
@@ -20915,7 +21004,7 @@
       <c r="B405" t="s">
         <v>677</v>
       </c>
-      <c r="D405" t="s">
+      <c r="D405" s="9" t="s">
         <v>1006</v>
       </c>
       <c r="E405" t="s">
@@ -20929,7 +21018,7 @@
       <c r="B406" t="s">
         <v>678</v>
       </c>
-      <c r="D406" t="s">
+      <c r="D406" s="9" t="s">
         <v>1007</v>
       </c>
       <c r="E406" t="s">
@@ -20943,7 +21032,7 @@
       <c r="B407" t="s">
         <v>679</v>
       </c>
-      <c r="D407" t="s">
+      <c r="D407" s="9" t="s">
         <v>1008</v>
       </c>
       <c r="E407" t="s">
@@ -20957,7 +21046,7 @@
       <c r="B408" t="s">
         <v>680</v>
       </c>
-      <c r="D408" t="s">
+      <c r="D408" s="9" t="s">
         <v>1009</v>
       </c>
       <c r="E408" t="s">
@@ -20971,7 +21060,7 @@
       <c r="B409" t="s">
         <v>681</v>
       </c>
-      <c r="D409" t="s">
+      <c r="D409" s="9" t="s">
         <v>1010</v>
       </c>
       <c r="E409" t="s">
@@ -20985,7 +21074,7 @@
       <c r="B410" t="s">
         <v>682</v>
       </c>
-      <c r="D410" t="s">
+      <c r="D410" s="9" t="s">
         <v>1011</v>
       </c>
       <c r="E410" t="s">
@@ -20999,7 +21088,7 @@
       <c r="B411" t="s">
         <v>389</v>
       </c>
-      <c r="D411" t="s">
+      <c r="D411" s="9" t="s">
         <v>1012</v>
       </c>
       <c r="E411" t="s">
@@ -21013,7 +21102,7 @@
       <c r="B412" t="s">
         <v>683</v>
       </c>
-      <c r="D412" t="s">
+      <c r="D412" s="9" t="s">
         <v>1013</v>
       </c>
       <c r="E412" t="s">
@@ -21027,7 +21116,7 @@
       <c r="B413" t="s">
         <v>670</v>
       </c>
-      <c r="D413" t="s">
+      <c r="D413" s="9" t="s">
         <v>1014</v>
       </c>
       <c r="E413" t="s">
@@ -21041,7 +21130,7 @@
       <c r="B414" t="s">
         <v>684</v>
       </c>
-      <c r="D414" t="s">
+      <c r="D414" s="9" t="s">
         <v>1015</v>
       </c>
       <c r="E414" t="s">
@@ -21055,7 +21144,7 @@
       <c r="B415" t="s">
         <v>685</v>
       </c>
-      <c r="D415" t="s">
+      <c r="D415" s="9" t="s">
         <v>1016</v>
       </c>
       <c r="E415" t="s">
@@ -21069,7 +21158,7 @@
       <c r="B416" t="s">
         <v>686</v>
       </c>
-      <c r="D416" t="s">
+      <c r="D416" s="9" t="s">
         <v>1017</v>
       </c>
       <c r="E416" t="s">
@@ -21083,7 +21172,7 @@
       <c r="B417" t="s">
         <v>687</v>
       </c>
-      <c r="D417" t="s">
+      <c r="D417" s="9" t="s">
         <v>1018</v>
       </c>
       <c r="E417" t="s">
@@ -21097,7 +21186,7 @@
       <c r="B418" t="s">
         <v>688</v>
       </c>
-      <c r="D418" t="s">
+      <c r="D418" s="9" t="s">
         <v>1019</v>
       </c>
       <c r="E418" t="s">
@@ -21111,21 +21200,21 @@
       <c r="B419" t="s">
         <v>689</v>
       </c>
-      <c r="D419" t="s">
+      <c r="D419" s="9" t="s">
         <v>1020</v>
       </c>
       <c r="E419" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>69</v>
       </c>
       <c r="B420" t="s">
         <v>690</v>
       </c>
-      <c r="D420" t="s">
+      <c r="D420" s="9" t="s">
         <v>1021</v>
       </c>
       <c r="E420" t="s">
@@ -21139,7 +21228,7 @@
       <c r="B421" t="s">
         <v>691</v>
       </c>
-      <c r="D421" t="s">
+      <c r="D421" s="9" t="s">
         <v>1022</v>
       </c>
       <c r="E421" t="s">
@@ -21153,7 +21242,7 @@
       <c r="B422" t="s">
         <v>692</v>
       </c>
-      <c r="D422" t="s">
+      <c r="D422" s="9" t="s">
         <v>1023</v>
       </c>
       <c r="E422" t="s">
@@ -21167,21 +21256,21 @@
       <c r="B423" t="s">
         <v>693</v>
       </c>
-      <c r="D423" t="s">
+      <c r="D423" s="9" t="s">
         <v>1024</v>
       </c>
       <c r="E423" t="s">
         <v>1037</v>
       </c>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>69</v>
       </c>
       <c r="B424" t="s">
         <v>694</v>
       </c>
-      <c r="D424" t="s">
+      <c r="D424" s="9" t="s">
         <v>1025</v>
       </c>
       <c r="E424" t="s">
@@ -21195,7 +21284,7 @@
       <c r="B425" t="s">
         <v>695</v>
       </c>
-      <c r="D425" t="s">
+      <c r="D425" s="9" t="s">
         <v>1026</v>
       </c>
       <c r="E425" t="s">
@@ -21321,7 +21410,7 @@
       <c r="B434" t="s">
         <v>696</v>
       </c>
-      <c r="D434" t="s">
+      <c r="D434" s="9" t="s">
         <v>1027</v>
       </c>
       <c r="E434" t="s">
@@ -21335,7 +21424,7 @@
       <c r="B435" t="s">
         <v>697</v>
       </c>
-      <c r="D435" t="s">
+      <c r="D435" s="9" t="s">
         <v>1028</v>
       </c>
       <c r="E435" t="s">
@@ -21349,7 +21438,7 @@
       <c r="B436" t="s">
         <v>698</v>
       </c>
-      <c r="D436" t="s">
+      <c r="D436" s="9" t="s">
         <v>1029</v>
       </c>
       <c r="E436" t="s">
@@ -21468,28 +21557,28 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>74</v>
       </c>
       <c r="B445" t="s">
         <v>700</v>
       </c>
-      <c r="D445" t="s">
+      <c r="D445" s="9" t="s">
         <v>1030</v>
       </c>
       <c r="E445" t="s">
         <v>1038</v>
       </c>
     </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>74</v>
       </c>
       <c r="B446" t="s">
         <v>701</v>
       </c>
-      <c r="D446" t="s">
+      <c r="D446" s="9" t="s">
         <v>1031</v>
       </c>
       <c r="E446" t="s">
@@ -21503,7 +21592,7 @@
       <c r="B447" t="s">
         <v>702</v>
       </c>
-      <c r="D447" t="s">
+      <c r="D447" s="9" t="s">
         <v>1032</v>
       </c>
       <c r="E447" t="s">
@@ -21517,7 +21606,7 @@
       <c r="B448" t="s">
         <v>473</v>
       </c>
-      <c r="D448" t="s">
+      <c r="D448" s="9" t="s">
         <v>1033</v>
       </c>
       <c r="E448" t="s">
@@ -21531,7 +21620,7 @@
       <c r="B449" t="s">
         <v>703</v>
       </c>
-      <c r="D449" t="s">
+      <c r="D449" s="9" t="s">
         <v>1034</v>
       </c>
       <c r="E449" t="s">
@@ -21545,7 +21634,7 @@
       <c r="B450" t="s">
         <v>704</v>
       </c>
-      <c r="D450" t="s">
+      <c r="D450" s="9" t="s">
         <v>1035</v>
       </c>
       <c r="E450" t="s">
@@ -21622,18 +21711,18 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="456" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A456" s="5" t="s">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A456" t="s">
         <v>1637</v>
       </c>
-      <c r="B456" s="6" t="s">
+      <c r="B456" s="5" t="s">
         <v>1906</v>
       </c>
-      <c r="C456" s="7"/>
-      <c r="D456" s="6" t="s">
+      <c r="C456" s="6"/>
+      <c r="D456" s="11" t="s">
         <v>1960</v>
       </c>
-      <c r="E456" s="6" t="s">
+      <c r="E456" s="5" t="s">
         <v>2010</v>
       </c>
     </row>
@@ -21644,7 +21733,7 @@
       <c r="B457" s="3" t="s">
         <v>1907</v>
       </c>
-      <c r="D457" s="3" t="s">
+      <c r="D457" s="4" t="s">
         <v>1961</v>
       </c>
       <c r="E457" s="3" t="s">
@@ -21658,7 +21747,7 @@
       <c r="B458" s="3" t="s">
         <v>1908</v>
       </c>
-      <c r="D458" s="3" t="s">
+      <c r="D458" s="4" t="s">
         <v>1962</v>
       </c>
       <c r="E458" s="3" t="s">
@@ -21672,7 +21761,7 @@
       <c r="B459" s="3" t="s">
         <v>1909</v>
       </c>
-      <c r="D459" s="3" t="s">
+      <c r="D459" s="4" t="s">
         <v>1963</v>
       </c>
       <c r="E459" s="3" t="s">
@@ -21686,7 +21775,7 @@
       <c r="B460" s="3" t="s">
         <v>1910</v>
       </c>
-      <c r="D460" s="3" t="s">
+      <c r="D460" s="4" t="s">
         <v>1964</v>
       </c>
       <c r="E460" s="3" t="s">
@@ -21700,7 +21789,7 @@
       <c r="B461" s="3" t="s">
         <v>1911</v>
       </c>
-      <c r="D461" s="3" t="s">
+      <c r="D461" s="4" t="s">
         <v>1965</v>
       </c>
       <c r="E461" s="3" t="s">
@@ -21714,7 +21803,7 @@
       <c r="B462" s="3" t="s">
         <v>1912</v>
       </c>
-      <c r="D462" s="3" t="s">
+      <c r="D462" s="4" t="s">
         <v>1966</v>
       </c>
       <c r="E462" s="3" t="s">
@@ -21728,7 +21817,7 @@
       <c r="B463" s="3" t="s">
         <v>1913</v>
       </c>
-      <c r="D463" s="3" t="s">
+      <c r="D463" s="4" t="s">
         <v>1967</v>
       </c>
       <c r="E463" s="3" t="s">
@@ -21742,7 +21831,7 @@
       <c r="B464" s="3" t="s">
         <v>1914</v>
       </c>
-      <c r="D464" s="3" t="s">
+      <c r="D464" s="4" t="s">
         <v>1968</v>
       </c>
       <c r="E464" s="3" t="s">
@@ -21756,7 +21845,7 @@
       <c r="B465" s="3" t="s">
         <v>1915</v>
       </c>
-      <c r="D465" s="3" t="s">
+      <c r="D465" s="4" t="s">
         <v>1969</v>
       </c>
       <c r="E465" s="3" t="s">
@@ -21770,7 +21859,7 @@
       <c r="B466" s="3" t="s">
         <v>1916</v>
       </c>
-      <c r="D466" s="3" t="s">
+      <c r="D466" s="4" t="s">
         <v>1105</v>
       </c>
       <c r="E466" s="3" t="s">
@@ -21784,21 +21873,21 @@
       <c r="B467" s="3" t="s">
         <v>1917</v>
       </c>
-      <c r="D467" s="3" t="s">
+      <c r="D467" s="4" t="s">
         <v>1970</v>
       </c>
       <c r="E467" s="3" t="s">
         <v>2010</v>
       </c>
     </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>1637</v>
       </c>
       <c r="B468" s="3" t="s">
         <v>1918</v>
       </c>
-      <c r="D468" s="3" t="s">
+      <c r="D468" s="4" t="s">
         <v>1971</v>
       </c>
       <c r="E468" s="3" t="s">
@@ -21812,7 +21901,7 @@
       <c r="B469" s="3" t="s">
         <v>1919</v>
       </c>
-      <c r="D469" s="3" t="s">
+      <c r="D469" s="4" t="s">
         <v>1972</v>
       </c>
       <c r="E469" s="3" t="s">
@@ -21826,7 +21915,7 @@
       <c r="B470" s="3" t="s">
         <v>1920</v>
       </c>
-      <c r="D470" s="3" t="s">
+      <c r="D470" s="4" t="s">
         <v>1973</v>
       </c>
       <c r="E470" s="3" t="s">
@@ -21840,7 +21929,7 @@
       <c r="B471" s="3" t="s">
         <v>1921</v>
       </c>
-      <c r="D471" s="3" t="s">
+      <c r="D471" s="4" t="s">
         <v>1974</v>
       </c>
       <c r="E471" s="3" t="s">
@@ -21854,7 +21943,7 @@
       <c r="B472" s="3" t="s">
         <v>1922</v>
       </c>
-      <c r="D472" s="3" t="s">
+      <c r="D472" s="4" t="s">
         <v>1975</v>
       </c>
       <c r="E472" s="3" t="s">
@@ -21868,7 +21957,7 @@
       <c r="B473" s="3" t="s">
         <v>1923</v>
       </c>
-      <c r="D473" s="3" t="s">
+      <c r="D473" s="4" t="s">
         <v>1976</v>
       </c>
       <c r="E473" s="3" t="s">
@@ -21882,7 +21971,7 @@
       <c r="B474" s="3" t="s">
         <v>1924</v>
       </c>
-      <c r="D474" s="3" t="s">
+      <c r="D474" s="4" t="s">
         <v>1977</v>
       </c>
       <c r="E474" s="3" t="s">
@@ -21896,7 +21985,7 @@
       <c r="B475" s="3" t="s">
         <v>1925</v>
       </c>
-      <c r="D475" s="3" t="s">
+      <c r="D475" s="4" t="s">
         <v>1978</v>
       </c>
       <c r="E475" s="3" t="s">
@@ -21910,7 +21999,7 @@
       <c r="B476" s="3" t="s">
         <v>1926</v>
       </c>
-      <c r="D476" s="3" t="s">
+      <c r="D476" s="4" t="s">
         <v>1979</v>
       </c>
       <c r="E476" s="3" t="s">
@@ -21924,7 +22013,7 @@
       <c r="B477" s="3" t="s">
         <v>1927</v>
       </c>
-      <c r="D477" s="3" t="s">
+      <c r="D477" s="4" t="s">
         <v>1980</v>
       </c>
       <c r="E477" s="3" t="s">
@@ -21938,7 +22027,7 @@
       <c r="B478" s="3" t="s">
         <v>1928</v>
       </c>
-      <c r="D478" s="3" t="s">
+      <c r="D478" s="4" t="s">
         <v>1981</v>
       </c>
       <c r="E478" s="3" t="s">
@@ -21952,7 +22041,7 @@
       <c r="B479" s="3" t="s">
         <v>1929</v>
       </c>
-      <c r="D479" s="3" t="s">
+      <c r="D479" s="4" t="s">
         <v>1970</v>
       </c>
       <c r="E479" s="3" t="s">
@@ -21966,7 +22055,7 @@
       <c r="B480" s="3" t="s">
         <v>1930</v>
       </c>
-      <c r="D480" s="3" t="s">
+      <c r="D480" s="4" t="s">
         <v>1982</v>
       </c>
       <c r="E480" s="3" t="s">
@@ -21980,21 +22069,21 @@
       <c r="B481" s="3" t="s">
         <v>1931</v>
       </c>
-      <c r="D481" s="3" t="s">
+      <c r="D481" s="4" t="s">
         <v>1983</v>
       </c>
       <c r="E481" s="3" t="s">
         <v>1037</v>
       </c>
     </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>1637</v>
       </c>
       <c r="B482" s="3" t="s">
         <v>1932</v>
       </c>
-      <c r="D482" s="3" t="s">
+      <c r="D482" s="4" t="s">
         <v>1984</v>
       </c>
       <c r="E482" s="3" t="s">
@@ -22008,7 +22097,7 @@
       <c r="B483" s="3" t="s">
         <v>1933</v>
       </c>
-      <c r="D483" s="3" t="s">
+      <c r="D483" s="4" t="s">
         <v>1985</v>
       </c>
       <c r="E483" s="3" t="s">
@@ -22022,7 +22111,7 @@
       <c r="B484" s="3" t="s">
         <v>1934</v>
       </c>
-      <c r="D484" s="3" t="s">
+      <c r="D484" s="4" t="s">
         <v>1986</v>
       </c>
       <c r="E484" s="3" t="s">
@@ -22036,7 +22125,7 @@
       <c r="B485" s="3" t="s">
         <v>1935</v>
       </c>
-      <c r="D485" s="3" t="s">
+      <c r="D485" s="4" t="s">
         <v>1987</v>
       </c>
       <c r="E485" s="3" t="s">
@@ -22050,7 +22139,7 @@
       <c r="B486" s="3" t="s">
         <v>1936</v>
       </c>
-      <c r="D486" s="3" t="s">
+      <c r="D486" s="4" t="s">
         <v>1988</v>
       </c>
       <c r="E486" s="3" t="s">
@@ -22064,7 +22153,7 @@
       <c r="B487" s="3" t="s">
         <v>1937</v>
       </c>
-      <c r="D487" s="3" t="s">
+      <c r="D487" s="4" t="s">
         <v>1989</v>
       </c>
       <c r="E487" s="3" t="s">
@@ -22078,7 +22167,7 @@
       <c r="B488" s="3" t="s">
         <v>1938</v>
       </c>
-      <c r="D488" s="3" t="s">
+      <c r="D488" s="4" t="s">
         <v>1990</v>
       </c>
       <c r="E488" s="3" t="s">
@@ -22092,7 +22181,7 @@
       <c r="B489" s="3" t="s">
         <v>1939</v>
       </c>
-      <c r="D489" s="3" t="s">
+      <c r="D489" s="4" t="s">
         <v>1991</v>
       </c>
       <c r="E489" s="3" t="s">
@@ -22106,7 +22195,7 @@
       <c r="B490" s="3" t="s">
         <v>1940</v>
       </c>
-      <c r="D490" s="3" t="s">
+      <c r="D490" s="4" t="s">
         <v>1992</v>
       </c>
       <c r="E490" s="3" t="s">
@@ -22120,7 +22209,7 @@
       <c r="B491" s="3" t="s">
         <v>1941</v>
       </c>
-      <c r="D491" s="3" t="s">
+      <c r="D491" s="4" t="s">
         <v>1993</v>
       </c>
       <c r="E491" s="3" t="s">
@@ -22134,7 +22223,7 @@
       <c r="B492" s="3" t="s">
         <v>1942</v>
       </c>
-      <c r="D492" s="3" t="s">
+      <c r="D492" s="4" t="s">
         <v>1970</v>
       </c>
       <c r="E492" s="3" t="s">
@@ -22148,7 +22237,7 @@
       <c r="B493" s="3" t="s">
         <v>1943</v>
       </c>
-      <c r="D493" s="3" t="s">
+      <c r="D493" s="4" t="s">
         <v>1994</v>
       </c>
       <c r="E493" s="3" t="s">
@@ -22162,21 +22251,21 @@
       <c r="B494" s="3" t="s">
         <v>1944</v>
       </c>
-      <c r="D494" s="3" t="s">
+      <c r="D494" s="4" t="s">
         <v>1995</v>
       </c>
       <c r="E494" s="3" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>1637</v>
       </c>
       <c r="B495" s="3" t="s">
         <v>1945</v>
       </c>
-      <c r="D495" s="3" t="s">
+      <c r="D495" s="4" t="s">
         <v>1996</v>
       </c>
       <c r="E495" s="3" t="s">
@@ -22190,7 +22279,7 @@
       <c r="B496" s="3" t="s">
         <v>1946</v>
       </c>
-      <c r="D496" s="3" t="s">
+      <c r="D496" s="4" t="s">
         <v>1997</v>
       </c>
       <c r="E496" s="3" t="s">
@@ -22204,7 +22293,7 @@
       <c r="B497" s="3" t="s">
         <v>1947</v>
       </c>
-      <c r="D497" s="3" t="s">
+      <c r="D497" s="4" t="s">
         <v>1998</v>
       </c>
       <c r="E497" s="3" t="s">
@@ -22218,7 +22307,7 @@
       <c r="B498" s="3" t="s">
         <v>1948</v>
       </c>
-      <c r="D498" s="3" t="s">
+      <c r="D498" s="4" t="s">
         <v>1999</v>
       </c>
       <c r="E498" s="3" t="s">
@@ -22232,7 +22321,7 @@
       <c r="B499" s="3" t="s">
         <v>1949</v>
       </c>
-      <c r="D499" s="3" t="s">
+      <c r="D499" s="4" t="s">
         <v>2000</v>
       </c>
       <c r="E499" s="3" t="s">
@@ -22246,7 +22335,7 @@
       <c r="B500" s="3" t="s">
         <v>1950</v>
       </c>
-      <c r="D500" s="3" t="s">
+      <c r="D500" s="4" t="s">
         <v>2001</v>
       </c>
       <c r="E500" s="3" t="s">
@@ -22260,7 +22349,7 @@
       <c r="B501" s="3" t="s">
         <v>1951</v>
       </c>
-      <c r="D501" s="3" t="s">
+      <c r="D501" s="4" t="s">
         <v>2002</v>
       </c>
       <c r="E501" s="3" t="s">
@@ -22274,21 +22363,21 @@
       <c r="B502" s="3" t="s">
         <v>1952</v>
       </c>
-      <c r="D502" s="3" t="s">
+      <c r="D502" s="4" t="s">
         <v>1970</v>
       </c>
       <c r="E502" s="3" t="s">
         <v>2010</v>
       </c>
     </row>
-    <row r="503" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>1637</v>
       </c>
       <c r="B503" s="3" t="s">
         <v>1953</v>
       </c>
-      <c r="D503" s="3" t="s">
+      <c r="D503" s="4" t="s">
         <v>2003</v>
       </c>
       <c r="E503" s="3" t="s">
@@ -22302,7 +22391,7 @@
       <c r="B504" s="3" t="s">
         <v>1954</v>
       </c>
-      <c r="D504" s="3" t="s">
+      <c r="D504" s="4" t="s">
         <v>2004</v>
       </c>
       <c r="E504" s="3" t="s">
@@ -22316,7 +22405,7 @@
       <c r="B505" s="3" t="s">
         <v>1955</v>
       </c>
-      <c r="D505" s="3" t="s">
+      <c r="D505" s="4" t="s">
         <v>2005</v>
       </c>
       <c r="E505" s="3" t="s">
@@ -22330,7 +22419,7 @@
       <c r="B506" s="3" t="s">
         <v>1956</v>
       </c>
-      <c r="D506" s="3" t="s">
+      <c r="D506" s="4" t="s">
         <v>2006</v>
       </c>
       <c r="E506" s="3" t="s">
@@ -22344,7 +22433,7 @@
       <c r="B507" s="3" t="s">
         <v>1957</v>
       </c>
-      <c r="D507" s="3" t="s">
+      <c r="D507" s="4" t="s">
         <v>2007</v>
       </c>
       <c r="E507" s="3" t="s">
@@ -22358,7 +22447,7 @@
       <c r="B508" s="3" t="s">
         <v>1958</v>
       </c>
-      <c r="D508" s="3" t="s">
+      <c r="D508" s="4" t="s">
         <v>2008</v>
       </c>
       <c r="E508" s="3" t="s">
@@ -22369,14 +22458,14 @@
       <c r="A509" t="s">
         <v>1637</v>
       </c>
-      <c r="B509" s="8" t="s">
+      <c r="B509" s="7" t="s">
         <v>1959</v>
       </c>
-      <c r="C509" s="9"/>
-      <c r="D509" s="8" t="s">
+      <c r="C509" s="8"/>
+      <c r="D509" s="12" t="s">
         <v>2009</v>
       </c>
-      <c r="E509" s="8" t="s">
+      <c r="E509" s="7" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -22387,7 +22476,7 @@
       <c r="B510" s="3" t="s">
         <v>2011</v>
       </c>
-      <c r="D510" s="3" t="s">
+      <c r="D510" s="4" t="s">
         <v>2059</v>
       </c>
       <c r="E510" s="3" t="s">
@@ -22401,7 +22490,7 @@
       <c r="B511" s="3" t="s">
         <v>2012</v>
       </c>
-      <c r="D511" s="3" t="s">
+      <c r="D511" s="4" t="s">
         <v>2036</v>
       </c>
       <c r="E511" s="3" t="s">
@@ -22415,7 +22504,7 @@
       <c r="B512" s="3" t="s">
         <v>2013</v>
       </c>
-      <c r="D512" s="3" t="s">
+      <c r="D512" s="4" t="s">
         <v>2037</v>
       </c>
       <c r="E512" s="3" t="s">
@@ -22429,7 +22518,7 @@
       <c r="B513" s="3" t="s">
         <v>2014</v>
       </c>
-      <c r="D513" s="3" t="s">
+      <c r="D513" s="4" t="s">
         <v>2038</v>
       </c>
       <c r="E513" s="3" t="s">
@@ -22443,7 +22532,7 @@
       <c r="B514" s="3" t="s">
         <v>2015</v>
       </c>
-      <c r="D514" s="3" t="s">
+      <c r="D514" s="4" t="s">
         <v>2039</v>
       </c>
       <c r="E514" s="3" t="s">
@@ -22457,7 +22546,7 @@
       <c r="B515" s="3" t="s">
         <v>2016</v>
       </c>
-      <c r="D515" s="3" t="s">
+      <c r="D515" s="4" t="s">
         <v>2040</v>
       </c>
       <c r="E515" s="3" t="s">
@@ -22471,7 +22560,7 @@
       <c r="B516" s="3" t="s">
         <v>2017</v>
       </c>
-      <c r="D516" s="3" t="s">
+      <c r="D516" s="4" t="s">
         <v>2041</v>
       </c>
       <c r="E516" s="3" t="s">
@@ -22485,7 +22574,7 @@
       <c r="B517" s="3" t="s">
         <v>2018</v>
       </c>
-      <c r="D517" s="3" t="s">
+      <c r="D517" s="4" t="s">
         <v>2042</v>
       </c>
       <c r="E517" s="3" t="s">
@@ -22499,7 +22588,7 @@
       <c r="B518" s="3" t="s">
         <v>2019</v>
       </c>
-      <c r="D518" s="3" t="s">
+      <c r="D518" s="4" t="s">
         <v>2043</v>
       </c>
       <c r="E518" s="3" t="s">
@@ -22513,7 +22602,7 @@
       <c r="B519" s="3" t="s">
         <v>2020</v>
       </c>
-      <c r="D519" s="3" t="s">
+      <c r="D519" s="4" t="s">
         <v>2044</v>
       </c>
       <c r="E519" s="3" t="s">
@@ -22527,7 +22616,7 @@
       <c r="B520" s="3" t="s">
         <v>2021</v>
       </c>
-      <c r="D520" s="3" t="s">
+      <c r="D520" s="4" t="s">
         <v>2045</v>
       </c>
       <c r="E520" s="3" t="s">
@@ -22542,7 +22631,7 @@
         <v>2022</v>
       </c>
       <c r="C521" s="3"/>
-      <c r="D521" s="3" t="s">
+      <c r="D521" s="4" t="s">
         <v>2046</v>
       </c>
       <c r="E521" s="3" t="s">
@@ -22571,7 +22660,7 @@
       <c r="B523" s="3" t="s">
         <v>2024</v>
       </c>
-      <c r="D523" s="3" t="s">
+      <c r="D523" s="4" t="s">
         <v>2047</v>
       </c>
       <c r="E523" s="3" t="s">
@@ -22585,7 +22674,7 @@
       <c r="B524" s="3" t="s">
         <v>2025</v>
       </c>
-      <c r="D524" s="3" t="s">
+      <c r="D524" s="4" t="s">
         <v>2048</v>
       </c>
       <c r="E524" s="3" t="s">
@@ -22599,7 +22688,7 @@
       <c r="B525" s="3" t="s">
         <v>2026</v>
       </c>
-      <c r="D525" s="3" t="s">
+      <c r="D525" s="4" t="s">
         <v>2049</v>
       </c>
       <c r="E525" s="3" t="s">
@@ -22613,7 +22702,7 @@
       <c r="B526" s="3" t="s">
         <v>2027</v>
       </c>
-      <c r="D526" s="3" t="s">
+      <c r="D526" s="4" t="s">
         <v>2050</v>
       </c>
       <c r="E526" s="3" t="s">
@@ -22627,7 +22716,7 @@
       <c r="B527" s="3" t="s">
         <v>2028</v>
       </c>
-      <c r="D527" s="3" t="s">
+      <c r="D527" s="4" t="s">
         <v>2051</v>
       </c>
       <c r="E527" s="3" t="s">
@@ -22641,7 +22730,7 @@
       <c r="B528" s="3" t="s">
         <v>2029</v>
       </c>
-      <c r="D528" s="3" t="s">
+      <c r="D528" s="4" t="s">
         <v>2052</v>
       </c>
       <c r="E528" s="3" t="s">
@@ -22655,7 +22744,7 @@
       <c r="B529" s="3" t="s">
         <v>2030</v>
       </c>
-      <c r="D529" s="3" t="s">
+      <c r="D529" s="4" t="s">
         <v>2053</v>
       </c>
       <c r="E529" s="3" t="s">
@@ -22669,7 +22758,7 @@
       <c r="B530" s="3" t="s">
         <v>2031</v>
       </c>
-      <c r="D530" s="3" t="s">
+      <c r="D530" s="4" t="s">
         <v>2054</v>
       </c>
       <c r="E530" s="3" t="s">
@@ -22683,7 +22772,7 @@
       <c r="B531" s="3" t="s">
         <v>2032</v>
       </c>
-      <c r="D531" s="3" t="s">
+      <c r="D531" s="4" t="s">
         <v>2055</v>
       </c>
       <c r="E531" s="3" t="s">
@@ -22697,7 +22786,7 @@
       <c r="B532" s="3" t="s">
         <v>2033</v>
       </c>
-      <c r="D532" s="3" t="s">
+      <c r="D532" s="4" t="s">
         <v>2056</v>
       </c>
       <c r="E532" s="3" t="s">
@@ -22711,7 +22800,7 @@
       <c r="B533" s="3" t="s">
         <v>2034</v>
       </c>
-      <c r="D533" s="3" t="s">
+      <c r="D533" s="4" t="s">
         <v>1074</v>
       </c>
       <c r="E533" s="3" t="s">
@@ -22725,11 +22814,221 @@
       <c r="B534" s="3" t="s">
         <v>2035</v>
       </c>
-      <c r="D534" s="3" t="s">
+      <c r="D534" s="4" t="s">
         <v>2057</v>
       </c>
       <c r="E534" s="3" t="s">
         <v>2010</v>
+      </c>
+    </row>
+    <row r="535" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A535" t="s">
+        <v>1698</v>
+      </c>
+      <c r="B535" s="3" t="s">
+        <v>2110</v>
+      </c>
+      <c r="D535" s="4" t="s">
+        <v>2121</v>
+      </c>
+      <c r="E535" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="536" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A536" t="s">
+        <v>1698</v>
+      </c>
+      <c r="B536" s="3" t="s">
+        <v>2111</v>
+      </c>
+      <c r="D536" s="4" t="s">
+        <v>2122</v>
+      </c>
+      <c r="E536" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="537" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A537" t="s">
+        <v>1698</v>
+      </c>
+      <c r="B537" s="3" t="s">
+        <v>2112</v>
+      </c>
+      <c r="D537" s="9" t="s">
+        <v>2123</v>
+      </c>
+      <c r="E537" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="538" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A538" s="3" t="s">
+        <v>2113</v>
+      </c>
+      <c r="B538" s="3" t="s">
+        <v>2114</v>
+      </c>
+      <c r="D538" s="3" t="s">
+        <v>2125</v>
+      </c>
+      <c r="E538" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="539" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A539" s="3" t="s">
+        <v>2113</v>
+      </c>
+      <c r="B539" s="3" t="s">
+        <v>2115</v>
+      </c>
+      <c r="D539" s="3" t="s">
+        <v>2126</v>
+      </c>
+      <c r="E539" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="540" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A540" s="3" t="s">
+        <v>2113</v>
+      </c>
+      <c r="B540" s="3" t="s">
+        <v>2116</v>
+      </c>
+      <c r="D540" s="3" t="s">
+        <v>2127</v>
+      </c>
+      <c r="E540" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="541" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A541" s="3" t="s">
+        <v>2113</v>
+      </c>
+      <c r="B541" s="3" t="s">
+        <v>2117</v>
+      </c>
+      <c r="D541" s="3" t="s">
+        <v>2128</v>
+      </c>
+      <c r="E541" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="542" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A542" s="3" t="s">
+        <v>2113</v>
+      </c>
+      <c r="B542" s="3" t="s">
+        <v>2118</v>
+      </c>
+      <c r="D542" s="3" t="s">
+        <v>2129</v>
+      </c>
+      <c r="E542" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="543" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A543" s="3" t="s">
+        <v>2113</v>
+      </c>
+      <c r="B543" s="3" t="s">
+        <v>2119</v>
+      </c>
+      <c r="D543" s="3" t="s">
+        <v>2130</v>
+      </c>
+      <c r="E543" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="544" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A544" s="3" t="s">
+        <v>2113</v>
+      </c>
+      <c r="B544" s="3" t="s">
+        <v>2120</v>
+      </c>
+      <c r="D544" s="3" t="s">
+        <v>2124</v>
+      </c>
+      <c r="E544" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="545" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A545" s="3" t="s">
+        <v>2132</v>
+      </c>
+      <c r="B545" s="3" t="s">
+        <v>2131</v>
+      </c>
+      <c r="D545" s="3" t="s">
+        <v>2134</v>
+      </c>
+      <c r="E545" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="546" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A546" s="3" t="s">
+        <v>2132</v>
+      </c>
+      <c r="B546" s="3" t="s">
+        <v>2131</v>
+      </c>
+      <c r="D546" s="3" t="s">
+        <v>2135</v>
+      </c>
+      <c r="E546" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="547" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A547" s="3" t="s">
+        <v>2132</v>
+      </c>
+      <c r="B547" s="3" t="s">
+        <v>2131</v>
+      </c>
+      <c r="D547" s="3" t="s">
+        <v>2136</v>
+      </c>
+      <c r="E547" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="548" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A548" s="3" t="s">
+        <v>2132</v>
+      </c>
+      <c r="B548" s="3" t="s">
+        <v>2131</v>
+      </c>
+      <c r="D548" s="3" t="s">
+        <v>2137</v>
+      </c>
+      <c r="E548" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="549" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A549" s="3" t="s">
+        <v>2132</v>
+      </c>
+      <c r="B549" s="3" t="s">
+        <v>2131</v>
+      </c>
+      <c r="D549" s="3" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E549" s="3" t="s">
+        <v>1038</v>
       </c>
     </row>
   </sheetData>
@@ -22741,7 +23040,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E860"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B831" workbookViewId="0">
+    <sheetView topLeftCell="B831" workbookViewId="0">
       <selection activeCell="C849" sqref="C849"/>
     </sheetView>
   </sheetViews>
@@ -22750,7 +23049,7 @@
     <col min="1" max="1" width="32.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="125.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="102.28515625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="102.28515625" style="9" customWidth="1"/>
     <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -22764,7 +23063,7 @@
       <c r="C1" s="1" t="s">
         <v>1044</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>1045</v>
       </c>
       <c r="E1" s="1" t="s">

--- a/gdcdictionary/xlsx/nodes_schema_impowr.xlsx
+++ b/gdcdictionary/xlsx/nodes_schema_impowr.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vithal\Documents\GitHub\dcfdictionary\gdcdictionary\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9063B147-F979-4C4E-9C54-D7A46A2BF8AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A206D29A-D94D-40D1-AA6A-1D3E6C1F88E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="270" yWindow="1170" windowWidth="27360" windowHeight="10590" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nodes_impowr" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7405" uniqueCount="2138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7549" uniqueCount="2213">
   <si>
     <t>&lt;$schema&gt;</t>
   </si>
@@ -6444,6 +6444,231 @@
   </si>
   <si>
     <t>During the past 7 days… How run-down did you feel on average?</t>
+  </si>
+  <si>
+    <t>PROMIS Physical Function</t>
+  </si>
+  <si>
+    <t>promisphysfuncchrsablscl</t>
+  </si>
+  <si>
+    <t>promisphfncstrsnrmpcabscl</t>
+  </si>
+  <si>
+    <t>promisphysfunc15mnwlkscl</t>
+  </si>
+  <si>
+    <t>promisphyfncerndshpablscl</t>
+  </si>
+  <si>
+    <t>promisphysfunc2hrlbrscl</t>
+  </si>
+  <si>
+    <t>promisphysfunchswrkscl</t>
+  </si>
+  <si>
+    <t>promisphysfx6totalscore</t>
+  </si>
+  <si>
+    <t>Are you able to do chores such as vacuuming or yard work?</t>
+  </si>
+  <si>
+    <t>Are you able to go up and down stairs at a normal pace?</t>
+  </si>
+  <si>
+    <t>Are you able to go for a walk of at least 15 minutes?</t>
+  </si>
+  <si>
+    <t>Are you able to run errands and shop?</t>
+  </si>
+  <si>
+    <t>Does your health now limit you in doing two hours of physical labor?</t>
+  </si>
+  <si>
+    <t>Does your health now limit you in doing moderate work around the house like vacuuming, sweeping floors or carrying in groceries?</t>
+  </si>
+  <si>
+    <t>PROMIS Anxiety</t>
+  </si>
+  <si>
+    <t>promisfeelfearflpst7dyscl</t>
+  </si>
+  <si>
+    <t>promisdifffcsanxpst7dyscl</t>
+  </si>
+  <si>
+    <t>promisovrwhlmwrypst7dyscl</t>
+  </si>
+  <si>
+    <t>promisuneasyfeelpst7dyscl</t>
+  </si>
+  <si>
+    <t>promisanx4atotalscore</t>
+  </si>
+  <si>
+    <t>GAD-2</t>
+  </si>
+  <si>
+    <t>gad2feelnervscale</t>
+  </si>
+  <si>
+    <t>gad2notstopwryscale</t>
+  </si>
+  <si>
+    <t>gad2totalscore</t>
+  </si>
+  <si>
+    <t>GAD-7</t>
+  </si>
+  <si>
+    <t>gad7wrytoomchscl</t>
+  </si>
+  <si>
+    <t>gad7troubrelxscl</t>
+  </si>
+  <si>
+    <t>gad7rstlessscl</t>
+  </si>
+  <si>
+    <t>gad7easyannoyedscl</t>
+  </si>
+  <si>
+    <t>gad7feelafrdscl</t>
+  </si>
+  <si>
+    <t>gad7totscore</t>
+  </si>
+  <si>
+    <t>Calculated raw total score for the PROMIS Anxiety SF 4a items</t>
+  </si>
+  <si>
+    <t>In the past 7 days...  I felt fearful</t>
+  </si>
+  <si>
+    <t>In the past 7 days… I found it hard to focus on anything other than my anxiety</t>
+  </si>
+  <si>
+    <t>In the past 7 days… My worries overwhelmed me</t>
+  </si>
+  <si>
+    <t>In the past 7 days… In the past 7 days I felt uneasy</t>
+  </si>
+  <si>
+    <t>Over the last 2 weeks, how often have you been bothered by the following problems?.. Feeling nervous, anxious, or on edge</t>
+  </si>
+  <si>
+    <t>Over the last 2 weeks, how often have you been bothered by the following problems?.. Not being able to stop or control worrying</t>
+  </si>
+  <si>
+    <t>Over the last 2 weeks, how often have you been bothered by the following problems?..  Worrying too much about different things</t>
+  </si>
+  <si>
+    <t>Over the last 2 weeks, how often have you been bothered by the following problems? .. Trouble relaxing</t>
+  </si>
+  <si>
+    <t>Over the last 2 weeks, how often have you been bothered by the following problems? .. Being so restless that it's hard to sit still</t>
+  </si>
+  <si>
+    <t>Over the last 2 weeks, how often have you been bothered by the following problems? .. Becoming easily annoyed or irritable</t>
+  </si>
+  <si>
+    <t>Over the last 2 weeks, how often have you been bothered by the following problems? .. Feeling afraid as if something awful might happen</t>
+  </si>
+  <si>
+    <t>PROMIS Depression</t>
+  </si>
+  <si>
+    <t>promiswrthlsfeelpst7dyscl</t>
+  </si>
+  <si>
+    <t>promishelplsfeelpst7dyscl</t>
+  </si>
+  <si>
+    <t>promisdprssdfeelpst7dyscl</t>
+  </si>
+  <si>
+    <t>promishoplssfeelpst7dyscl</t>
+  </si>
+  <si>
+    <t>promisdep4atotalscore</t>
+  </si>
+  <si>
+    <t>PHQ-3</t>
+  </si>
+  <si>
+    <t>phqlitintrstscore</t>
+  </si>
+  <si>
+    <t>phqdeprssnscore</t>
+  </si>
+  <si>
+    <t>phqbttrddthghtscore</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PHQ-9</t>
+  </si>
+  <si>
+    <t>phqsleepimpairscore</t>
+  </si>
+  <si>
+    <t>phqtirdlittleenrgyscore</t>
+  </si>
+  <si>
+    <t>phqabnrmldietscore</t>
+  </si>
+  <si>
+    <t>phqflngfailrscore</t>
+  </si>
+  <si>
+    <t>phqconcntrtnimprmntscore</t>
+  </si>
+  <si>
+    <t>phqmovmntspchimprmntscore</t>
+  </si>
+  <si>
+    <t>phqtotalscore</t>
+  </si>
+  <si>
+    <t>Calculated raw total score for the PROMIS Depression 4a items</t>
+  </si>
+  <si>
+    <t>In the past 7 days…..I felt worthless</t>
+  </si>
+  <si>
+    <t>In the past 7 days….. I felt helpless</t>
+  </si>
+  <si>
+    <t>In the past 7 days….. I felt depressed</t>
+  </si>
+  <si>
+    <t>In the past 7 days….. I felt hopeless</t>
+  </si>
+  <si>
+    <t>Over the last 2 weeks, how often have you been bothered by the following problems?.. Little interest or pleasure in doing things</t>
+  </si>
+  <si>
+    <t>Over the last 2 weeks, how often have you been bothered by the following problems?.. Feeling down depressed or hopeless</t>
+  </si>
+  <si>
+    <t>Over the last 2 weeks, how often have you been bothered by the following problems?.. Thoughts that you would be better off dead, or of hurting yourself.</t>
+  </si>
+  <si>
+    <t>Over the last 2 weeks, how often have you been bothered by the following problems?.. Trouble falling or staying asleep, or sleeping too much</t>
+  </si>
+  <si>
+    <t>Over the last 2 weeks, how often have you been bothered by the following problems?.. Feeling tired or having little energy</t>
+  </si>
+  <si>
+    <t>Over the last 2 weeks, how often have you been bothered by the following problems?.. Poor appetite or overeating</t>
+  </si>
+  <si>
+    <t>Over the last 2 weeks, how often have you been bothered by the following problems?.. Feeling bad about yourself - or that you are a failure or have let yourself or your family down</t>
+  </si>
+  <si>
+    <t>Over the last 2 weeks, how often have you been bothered by the following problems?.. Trouble concentrating on things, such as reading the newspaper or watching television</t>
+  </si>
+  <si>
+    <t>Over the last 2 weeks, how often have you been bothered by the following problems?.. Moving or speaking so slowly that other people could have noticed?  Or the opposite - being so fidgety or restless that you have been moving around a lot more than usual</t>
   </si>
 </sst>
 </file>
@@ -15302,10 +15527,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K549"/>
+  <dimension ref="A1:K585"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A523" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="E550" sqref="E550"/>
+    <sheetView tabSelected="1" topLeftCell="A580" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="A586" sqref="A586"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22870,7 +23095,7 @@
       <c r="B538" s="3" t="s">
         <v>2114</v>
       </c>
-      <c r="D538" s="3" t="s">
+      <c r="D538" s="4" t="s">
         <v>2125</v>
       </c>
       <c r="E538" s="3" t="s">
@@ -22884,7 +23109,7 @@
       <c r="B539" s="3" t="s">
         <v>2115</v>
       </c>
-      <c r="D539" s="3" t="s">
+      <c r="D539" s="4" t="s">
         <v>2126</v>
       </c>
       <c r="E539" s="3" t="s">
@@ -22898,7 +23123,7 @@
       <c r="B540" s="3" t="s">
         <v>2116</v>
       </c>
-      <c r="D540" s="3" t="s">
+      <c r="D540" s="4" t="s">
         <v>2127</v>
       </c>
       <c r="E540" s="3" t="s">
@@ -22912,7 +23137,7 @@
       <c r="B541" s="3" t="s">
         <v>2117</v>
       </c>
-      <c r="D541" s="3" t="s">
+      <c r="D541" s="4" t="s">
         <v>2128</v>
       </c>
       <c r="E541" s="3" t="s">
@@ -22926,7 +23151,7 @@
       <c r="B542" s="3" t="s">
         <v>2118</v>
       </c>
-      <c r="D542" s="3" t="s">
+      <c r="D542" s="4" t="s">
         <v>2129</v>
       </c>
       <c r="E542" s="3" t="s">
@@ -22940,7 +23165,7 @@
       <c r="B543" s="3" t="s">
         <v>2119</v>
       </c>
-      <c r="D543" s="3" t="s">
+      <c r="D543" s="4" t="s">
         <v>2130</v>
       </c>
       <c r="E543" s="3" t="s">
@@ -22954,7 +23179,7 @@
       <c r="B544" s="3" t="s">
         <v>2120</v>
       </c>
-      <c r="D544" s="3" t="s">
+      <c r="D544" s="4" t="s">
         <v>2124</v>
       </c>
       <c r="E544" s="3" t="s">
@@ -22968,7 +23193,7 @@
       <c r="B545" s="3" t="s">
         <v>2131</v>
       </c>
-      <c r="D545" s="3" t="s">
+      <c r="D545" s="4" t="s">
         <v>2134</v>
       </c>
       <c r="E545" s="3" t="s">
@@ -22982,7 +23207,7 @@
       <c r="B546" s="3" t="s">
         <v>2131</v>
       </c>
-      <c r="D546" s="3" t="s">
+      <c r="D546" s="4" t="s">
         <v>2135</v>
       </c>
       <c r="E546" s="3" t="s">
@@ -22996,7 +23221,7 @@
       <c r="B547" s="3" t="s">
         <v>2131</v>
       </c>
-      <c r="D547" s="3" t="s">
+      <c r="D547" s="4" t="s">
         <v>2136</v>
       </c>
       <c r="E547" s="3" t="s">
@@ -23010,7 +23235,7 @@
       <c r="B548" s="3" t="s">
         <v>2131</v>
       </c>
-      <c r="D548" s="3" t="s">
+      <c r="D548" s="4" t="s">
         <v>2137</v>
       </c>
       <c r="E548" s="3" t="s">
@@ -23024,10 +23249,514 @@
       <c r="B549" s="3" t="s">
         <v>2131</v>
       </c>
-      <c r="D549" s="3" t="s">
+      <c r="D549" s="4" t="s">
         <v>2133</v>
       </c>
       <c r="E549" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="550" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A550" s="3" t="s">
+        <v>2138</v>
+      </c>
+      <c r="B550" s="3" t="s">
+        <v>2139</v>
+      </c>
+      <c r="D550" s="4" t="s">
+        <v>2146</v>
+      </c>
+      <c r="E550" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="551" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A551" s="3" t="s">
+        <v>2138</v>
+      </c>
+      <c r="B551" s="3" t="s">
+        <v>2140</v>
+      </c>
+      <c r="D551" s="4" t="s">
+        <v>2147</v>
+      </c>
+      <c r="E551" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="552" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A552" s="3" t="s">
+        <v>2138</v>
+      </c>
+      <c r="B552" s="3" t="s">
+        <v>2141</v>
+      </c>
+      <c r="D552" s="4" t="s">
+        <v>2148</v>
+      </c>
+      <c r="E552" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="553" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A553" s="3" t="s">
+        <v>2138</v>
+      </c>
+      <c r="B553" s="3" t="s">
+        <v>2142</v>
+      </c>
+      <c r="D553" s="4" t="s">
+        <v>2149</v>
+      </c>
+      <c r="E553" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="554" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A554" s="3" t="s">
+        <v>2138</v>
+      </c>
+      <c r="B554" s="3" t="s">
+        <v>2143</v>
+      </c>
+      <c r="D554" s="4" t="s">
+        <v>2150</v>
+      </c>
+      <c r="E554" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="555" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A555" s="3" t="s">
+        <v>2138</v>
+      </c>
+      <c r="B555" s="3" t="s">
+        <v>2144</v>
+      </c>
+      <c r="D555" s="4" t="s">
+        <v>2151</v>
+      </c>
+      <c r="E555" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="556" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A556" s="3" t="s">
+        <v>2138</v>
+      </c>
+      <c r="B556" s="3" t="s">
+        <v>2145</v>
+      </c>
+      <c r="D556" s="4" t="s">
+        <v>2124</v>
+      </c>
+      <c r="E556" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="557" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A557" s="3" t="s">
+        <v>2152</v>
+      </c>
+      <c r="B557" s="3" t="s">
+        <v>2153</v>
+      </c>
+      <c r="D557" s="4" t="s">
+        <v>2170</v>
+      </c>
+      <c r="E557" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="558" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A558" s="3" t="s">
+        <v>2152</v>
+      </c>
+      <c r="B558" s="3" t="s">
+        <v>2154</v>
+      </c>
+      <c r="D558" s="4" t="s">
+        <v>2171</v>
+      </c>
+      <c r="E558" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="559" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A559" s="3" t="s">
+        <v>2152</v>
+      </c>
+      <c r="B559" s="3" t="s">
+        <v>2155</v>
+      </c>
+      <c r="D559" s="4" t="s">
+        <v>2172</v>
+      </c>
+      <c r="E559" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="560" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A560" s="3" t="s">
+        <v>2152</v>
+      </c>
+      <c r="B560" s="3" t="s">
+        <v>2156</v>
+      </c>
+      <c r="D560" s="4" t="s">
+        <v>2173</v>
+      </c>
+      <c r="E560" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="561" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A561" s="3" t="s">
+        <v>2152</v>
+      </c>
+      <c r="B561" s="3" t="s">
+        <v>2157</v>
+      </c>
+      <c r="D561" s="4" t="s">
+        <v>2169</v>
+      </c>
+      <c r="E561" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="562" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A562" s="3" t="s">
+        <v>2158</v>
+      </c>
+      <c r="B562" s="3" t="s">
+        <v>2159</v>
+      </c>
+      <c r="D562" s="4" t="s">
+        <v>2174</v>
+      </c>
+      <c r="E562" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="563" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A563" s="3" t="s">
+        <v>2158</v>
+      </c>
+      <c r="B563" s="3" t="s">
+        <v>2160</v>
+      </c>
+      <c r="D563" s="4" t="s">
+        <v>2175</v>
+      </c>
+      <c r="E563" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="564" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A564" s="3" t="s">
+        <v>2158</v>
+      </c>
+      <c r="B564" s="3" t="s">
+        <v>2161</v>
+      </c>
+      <c r="D564" s="4" t="s">
+        <v>2124</v>
+      </c>
+      <c r="E564" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="565" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A565" s="3" t="s">
+        <v>2162</v>
+      </c>
+      <c r="B565" s="3" t="s">
+        <v>2163</v>
+      </c>
+      <c r="D565" s="4" t="s">
+        <v>2176</v>
+      </c>
+      <c r="E565" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="566" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A566" s="3" t="s">
+        <v>2162</v>
+      </c>
+      <c r="B566" s="3" t="s">
+        <v>2164</v>
+      </c>
+      <c r="D566" s="4" t="s">
+        <v>2177</v>
+      </c>
+      <c r="E566" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="567" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A567" s="3" t="s">
+        <v>2162</v>
+      </c>
+      <c r="B567" s="3" t="s">
+        <v>2165</v>
+      </c>
+      <c r="D567" s="4" t="s">
+        <v>2178</v>
+      </c>
+      <c r="E567" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="568" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A568" s="3" t="s">
+        <v>2162</v>
+      </c>
+      <c r="B568" s="3" t="s">
+        <v>2166</v>
+      </c>
+      <c r="D568" s="4" t="s">
+        <v>2179</v>
+      </c>
+      <c r="E568" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="569" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A569" s="3" t="s">
+        <v>2162</v>
+      </c>
+      <c r="B569" s="3" t="s">
+        <v>2167</v>
+      </c>
+      <c r="D569" s="4" t="s">
+        <v>2180</v>
+      </c>
+      <c r="E569" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="570" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A570" s="3" t="s">
+        <v>2162</v>
+      </c>
+      <c r="B570" s="3" t="s">
+        <v>2168</v>
+      </c>
+      <c r="D570" s="4" t="s">
+        <v>2124</v>
+      </c>
+      <c r="E570" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="571" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A571" s="3" t="s">
+        <v>2181</v>
+      </c>
+      <c r="B571" s="3" t="s">
+        <v>2182</v>
+      </c>
+      <c r="D571" s="4" t="s">
+        <v>2200</v>
+      </c>
+      <c r="E571" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="572" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A572" s="3" t="s">
+        <v>2181</v>
+      </c>
+      <c r="B572" s="3" t="s">
+        <v>2183</v>
+      </c>
+      <c r="D572" s="4" t="s">
+        <v>2201</v>
+      </c>
+      <c r="E572" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="573" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A573" s="3" t="s">
+        <v>2181</v>
+      </c>
+      <c r="B573" s="3" t="s">
+        <v>2184</v>
+      </c>
+      <c r="D573" s="4" t="s">
+        <v>2202</v>
+      </c>
+      <c r="E573" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="574" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A574" s="3" t="s">
+        <v>2181</v>
+      </c>
+      <c r="B574" s="3" t="s">
+        <v>2185</v>
+      </c>
+      <c r="D574" s="4" t="s">
+        <v>2203</v>
+      </c>
+      <c r="E574" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="575" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A575" s="3" t="s">
+        <v>2181</v>
+      </c>
+      <c r="B575" s="3" t="s">
+        <v>2186</v>
+      </c>
+      <c r="D575" s="4" t="s">
+        <v>2199</v>
+      </c>
+      <c r="E575" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="576" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A576" s="3" t="s">
+        <v>2187</v>
+      </c>
+      <c r="B576" s="3" t="s">
+        <v>2188</v>
+      </c>
+      <c r="D576" s="4" t="s">
+        <v>2204</v>
+      </c>
+      <c r="E576" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="577" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A577" s="3" t="s">
+        <v>2187</v>
+      </c>
+      <c r="B577" s="3" t="s">
+        <v>2189</v>
+      </c>
+      <c r="D577" s="4" t="s">
+        <v>2205</v>
+      </c>
+      <c r="E577" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="578" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A578" s="3" t="s">
+        <v>2187</v>
+      </c>
+      <c r="B578" s="3" t="s">
+        <v>2190</v>
+      </c>
+      <c r="D578" s="4" t="s">
+        <v>2206</v>
+      </c>
+      <c r="E578" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="579" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A579" s="3" t="s">
+        <v>2191</v>
+      </c>
+      <c r="B579" s="3" t="s">
+        <v>2192</v>
+      </c>
+      <c r="D579" s="4" t="s">
+        <v>2207</v>
+      </c>
+      <c r="E579" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="580" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A580" s="3" t="s">
+        <v>2191</v>
+      </c>
+      <c r="B580" s="3" t="s">
+        <v>2193</v>
+      </c>
+      <c r="D580" s="4" t="s">
+        <v>2208</v>
+      </c>
+      <c r="E580" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="581" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A581" s="3" t="s">
+        <v>2191</v>
+      </c>
+      <c r="B581" s="3" t="s">
+        <v>2194</v>
+      </c>
+      <c r="D581" s="4" t="s">
+        <v>2209</v>
+      </c>
+      <c r="E581" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="582" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A582" s="3" t="s">
+        <v>2191</v>
+      </c>
+      <c r="B582" s="3" t="s">
+        <v>2195</v>
+      </c>
+      <c r="D582" s="4" t="s">
+        <v>2210</v>
+      </c>
+      <c r="E582" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="583" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A583" s="3" t="s">
+        <v>2191</v>
+      </c>
+      <c r="B583" s="3" t="s">
+        <v>2196</v>
+      </c>
+      <c r="D583" s="4" t="s">
+        <v>2211</v>
+      </c>
+      <c r="E583" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="584" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A584" s="3" t="s">
+        <v>2191</v>
+      </c>
+      <c r="B584" s="3" t="s">
+        <v>2197</v>
+      </c>
+      <c r="D584" s="4" t="s">
+        <v>2212</v>
+      </c>
+      <c r="E584" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="585" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A585" s="3" t="s">
+        <v>2191</v>
+      </c>
+      <c r="B585" s="3" t="s">
+        <v>2198</v>
+      </c>
+      <c r="D585" s="4" t="s">
+        <v>2124</v>
+      </c>
+      <c r="E585" s="3" t="s">
         <v>1038</v>
       </c>
     </row>

--- a/gdcdictionary/xlsx/nodes_schema_impowr.xlsx
+++ b/gdcdictionary/xlsx/nodes_schema_impowr.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vithal\Documents\GitHub\dcfdictionary\gdcdictionary\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A206D29A-D94D-40D1-AA6A-1D3E6C1F88E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB99F21-554C-4556-A966-F1F5D3E1EF3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="1170" windowWidth="27360" windowHeight="10590" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="750" yWindow="1590" windowWidth="27360" windowHeight="11205" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nodes_impowr" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7549" uniqueCount="2213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7661" uniqueCount="2272">
   <si>
     <t>&lt;$schema&gt;</t>
   </si>
@@ -6669,6 +6669,183 @@
   </si>
   <si>
     <t>Over the last 2 weeks, how often have you been bothered by the following problems?.. Moving or speaking so slowly that other people could have noticed?  Or the opposite - being so fidgety or restless that you have been moving around a lot more than usual</t>
+  </si>
+  <si>
+    <t>PROMIS Social Functioning</t>
+  </si>
+  <si>
+    <t>promistrblleisactothscl</t>
+  </si>
+  <si>
+    <t>promistrblfmlyactscl</t>
+  </si>
+  <si>
+    <t>promistrblusualwrkscl</t>
+  </si>
+  <si>
+    <t>promistrblfriendactvscl</t>
+  </si>
+  <si>
+    <t>promispsra4atotalscore</t>
+  </si>
+  <si>
+    <t>MMSPSS</t>
+  </si>
+  <si>
+    <t>mspssspecpersonneed</t>
+  </si>
+  <si>
+    <t>mspssfamemosup</t>
+  </si>
+  <si>
+    <t>mspssspeccomfort</t>
+  </si>
+  <si>
+    <t>mspssfriendjoysor</t>
+  </si>
+  <si>
+    <t>mspssfamdecision</t>
+  </si>
+  <si>
+    <t>mspssfriendtalkprob</t>
+  </si>
+  <si>
+    <t>mspssscoreshort</t>
+  </si>
+  <si>
+    <t>MSPSSS supplemental</t>
+  </si>
+  <si>
+    <t>mspssspecpersonscl</t>
+  </si>
+  <si>
+    <t>mspssspecjoysorrowscl</t>
+  </si>
+  <si>
+    <t>mspssfamilyhelpsscl</t>
+  </si>
+  <si>
+    <t>mspssfamemotsuptscl</t>
+  </si>
+  <si>
+    <t>mspssspeccomfortscl</t>
+  </si>
+  <si>
+    <t>mspssfriendhelpscl</t>
+  </si>
+  <si>
+    <t>mspssfriendcountscl</t>
+  </si>
+  <si>
+    <t>mspssfamtalkprobscl</t>
+  </si>
+  <si>
+    <t>mspssfriendjoysorscl</t>
+  </si>
+  <si>
+    <t>mspssspeccarefeelscl</t>
+  </si>
+  <si>
+    <t>mspssfamdecisionscl</t>
+  </si>
+  <si>
+    <t>mspssfriendtalkprobscl</t>
+  </si>
+  <si>
+    <t>mspsssigothsubscl</t>
+  </si>
+  <si>
+    <t>mspssfamilysubscl</t>
+  </si>
+  <si>
+    <t>mspssfriendssubscl</t>
+  </si>
+  <si>
+    <t>mspsstotalscore</t>
+  </si>
+  <si>
+    <t>Total score for short form</t>
+  </si>
+  <si>
+    <t>Total MSPSS score</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Calculated raw total score for the PROMIS Ability to participate in social roles and activities 4a items</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I have trouble doing all of my regular leisure activities with others</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I have trouble doing all of the family activities that I want to do</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I have trouble doing all of my usual work (include work at home)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I have trouble doing all of the activities with friends that I want to do</t>
+  </si>
+  <si>
+    <t>We are interested in how you feel about the following statements. Read each statement carefully. Indicate how you feel about each statement… There is a special person who is around when I am in need.</t>
+  </si>
+  <si>
+    <t>We are interested in how you feel about the following statements. Read each statement carefully. Indicate how you feel about each statement… I get the emotional help and support I need from my family.</t>
+  </si>
+  <si>
+    <t>We are interested in how you feel about the following statements. Read each statement carefully. Indicate how you feel about each statement… I have a special person who is a real source of comfort to me.</t>
+  </si>
+  <si>
+    <t>We are interested in how you feel about the following statements. Read each statement carefully. Indicate how you feel about each statement… I have friends with whom I can share my joys and sorrows.</t>
+  </si>
+  <si>
+    <t>We are interested in how you feel about the following statements. Read each statement carefully. Indicate how you feel about each statement… My family is willing to help me make decisions.</t>
+  </si>
+  <si>
+    <t>We are interested in how you feel about the following statements. Read each statement carefully. Indicate how you feel about each statement… I can talk about my problems with my friends.</t>
+  </si>
+  <si>
+    <t>We are interested in how you feel about the following statements. Read each statement carefully. Indicate how you feel about each statement...There is a special person who is around when I am in need.</t>
+  </si>
+  <si>
+    <t>We are interested in how you feel about the following statements. Read each statement carefully. Indicate how you feel about each statement...There is a special person with whom I can share joys and sorrows.</t>
+  </si>
+  <si>
+    <t>We are interested in how you feel about the following statements. Read each statement carefully. Indicate how you feel about each statement...My family really tries to help me.</t>
+  </si>
+  <si>
+    <t>We are interested in how you feel about the following statements. Read each statement carefully. Indicate how you feel about each statement...I get the emotional help  and support I need from my family.</t>
+  </si>
+  <si>
+    <t>We are interested in how you feel about the following statements. Read each statement carefully. Indicate how you feel about each statement...I have a special person who is a real source of comfort to me.</t>
+  </si>
+  <si>
+    <t>We are interested in how you feel about the following statements. Read each statement carefully. Indicate how you feel about each statement...My friends really try to help me.</t>
+  </si>
+  <si>
+    <t>We are interested in how you feel about the following statements. Read each statement carefully. Indicate how you feel about each statement...I can count on my friends when things go wrong.</t>
+  </si>
+  <si>
+    <t>We are interested in how you feel about the following statements. Read each statement carefully. Indicate how you feel about each statement...I can talk about my problems with my family.</t>
+  </si>
+  <si>
+    <t>We are interested in how you feel about the following statements. Read each statement carefully. Indicate how you feel about each statement...I have friends with whom I can share my joys and sorrows.</t>
+  </si>
+  <si>
+    <t>We are interested in how you feel about the following statements. Read each statement carefully. Indicate how you feel about each statement...There is a special person in my life who cares about my feelings.</t>
+  </si>
+  <si>
+    <t>We are interested in how you feel about the following statements. Read each statement carefully. Indicate how you feel about each statement...My family is willing to help me make decisions.</t>
+  </si>
+  <si>
+    <t>We are interested in how you feel about the following statements. Read each statement carefully. Indicate how you feel about each statement...I can talk about my problems with my friends.</t>
+  </si>
+  <si>
+    <t>We are interested in how you feel about the following statements. Read each statement carefully. Indicate how you feel about each statement...Significant Other Subscale Score</t>
+  </si>
+  <si>
+    <t>We are interested in how you feel about the following statements. Read each statement carefully. Indicate how you feel about each statement...Family Subscale Score</t>
+  </si>
+  <si>
+    <t>We are interested in how you feel about the following statements. Read each statement carefully. Indicate how you feel about each statement...Friends Subscale Score</t>
   </si>
 </sst>
 </file>
@@ -15527,10 +15704,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K585"/>
+  <dimension ref="A1:K613"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A580" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="A586" sqref="A586"/>
+    <sheetView tabSelected="1" topLeftCell="A602" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="A614" sqref="A614"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23757,6 +23934,398 @@
         <v>2124</v>
       </c>
       <c r="E585" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="586" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A586" s="3" t="s">
+        <v>2213</v>
+      </c>
+      <c r="B586" s="3" t="s">
+        <v>2214</v>
+      </c>
+      <c r="D586" s="4" t="s">
+        <v>2247</v>
+      </c>
+      <c r="E586" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="587" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A587" s="3" t="s">
+        <v>2213</v>
+      </c>
+      <c r="B587" s="3" t="s">
+        <v>2215</v>
+      </c>
+      <c r="D587" s="4" t="s">
+        <v>2248</v>
+      </c>
+      <c r="E587" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="588" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A588" s="3" t="s">
+        <v>2213</v>
+      </c>
+      <c r="B588" s="3" t="s">
+        <v>2216</v>
+      </c>
+      <c r="D588" s="4" t="s">
+        <v>2249</v>
+      </c>
+      <c r="E588" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="589" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A589" s="3" t="s">
+        <v>2213</v>
+      </c>
+      <c r="B589" s="3" t="s">
+        <v>2217</v>
+      </c>
+      <c r="D589" s="4" t="s">
+        <v>2250</v>
+      </c>
+      <c r="E589" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="590" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A590" s="3" t="s">
+        <v>2213</v>
+      </c>
+      <c r="B590" s="3" t="s">
+        <v>2218</v>
+      </c>
+      <c r="D590" s="4" t="s">
+        <v>2246</v>
+      </c>
+      <c r="E590" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="591" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A591" s="3" t="s">
+        <v>2219</v>
+      </c>
+      <c r="B591" s="3" t="s">
+        <v>2220</v>
+      </c>
+      <c r="D591" s="4" t="s">
+        <v>2251</v>
+      </c>
+      <c r="E591" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="592" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A592" s="3" t="s">
+        <v>2219</v>
+      </c>
+      <c r="B592" s="3" t="s">
+        <v>2221</v>
+      </c>
+      <c r="D592" s="4" t="s">
+        <v>2252</v>
+      </c>
+      <c r="E592" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="593" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A593" s="3" t="s">
+        <v>2219</v>
+      </c>
+      <c r="B593" s="3" t="s">
+        <v>2222</v>
+      </c>
+      <c r="D593" s="4" t="s">
+        <v>2253</v>
+      </c>
+      <c r="E593" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="594" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A594" s="3" t="s">
+        <v>2219</v>
+      </c>
+      <c r="B594" s="3" t="s">
+        <v>2223</v>
+      </c>
+      <c r="D594" s="4" t="s">
+        <v>2254</v>
+      </c>
+      <c r="E594" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="595" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A595" s="3" t="s">
+        <v>2219</v>
+      </c>
+      <c r="B595" s="3" t="s">
+        <v>2224</v>
+      </c>
+      <c r="D595" s="4" t="s">
+        <v>2255</v>
+      </c>
+      <c r="E595" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="596" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A596" s="3" t="s">
+        <v>2219</v>
+      </c>
+      <c r="B596" s="3" t="s">
+        <v>2225</v>
+      </c>
+      <c r="D596" s="4" t="s">
+        <v>2256</v>
+      </c>
+      <c r="E596" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="597" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A597" s="3" t="s">
+        <v>2219</v>
+      </c>
+      <c r="B597" s="3" t="s">
+        <v>2226</v>
+      </c>
+      <c r="D597" s="4" t="s">
+        <v>2244</v>
+      </c>
+      <c r="E597" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="598" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A598" s="3" t="s">
+        <v>2227</v>
+      </c>
+      <c r="B598" s="3" t="s">
+        <v>2228</v>
+      </c>
+      <c r="D598" s="4" t="s">
+        <v>2257</v>
+      </c>
+      <c r="E598" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="599" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A599" s="3" t="s">
+        <v>2227</v>
+      </c>
+      <c r="B599" s="3" t="s">
+        <v>2229</v>
+      </c>
+      <c r="D599" s="4" t="s">
+        <v>2258</v>
+      </c>
+      <c r="E599" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="600" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A600" s="3" t="s">
+        <v>2227</v>
+      </c>
+      <c r="B600" s="3" t="s">
+        <v>2230</v>
+      </c>
+      <c r="D600" s="4" t="s">
+        <v>2259</v>
+      </c>
+      <c r="E600" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="601" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A601" s="3" t="s">
+        <v>2227</v>
+      </c>
+      <c r="B601" s="3" t="s">
+        <v>2231</v>
+      </c>
+      <c r="D601" s="4" t="s">
+        <v>2260</v>
+      </c>
+      <c r="E601" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="602" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A602" s="3" t="s">
+        <v>2227</v>
+      </c>
+      <c r="B602" s="3" t="s">
+        <v>2232</v>
+      </c>
+      <c r="D602" s="4" t="s">
+        <v>2261</v>
+      </c>
+      <c r="E602" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="603" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A603" s="3" t="s">
+        <v>2227</v>
+      </c>
+      <c r="B603" s="3" t="s">
+        <v>2233</v>
+      </c>
+      <c r="D603" s="4" t="s">
+        <v>2262</v>
+      </c>
+      <c r="E603" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="604" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A604" s="3" t="s">
+        <v>2227</v>
+      </c>
+      <c r="B604" s="3" t="s">
+        <v>2234</v>
+      </c>
+      <c r="D604" s="4" t="s">
+        <v>2263</v>
+      </c>
+      <c r="E604" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="605" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A605" s="3" t="s">
+        <v>2227</v>
+      </c>
+      <c r="B605" s="3" t="s">
+        <v>2235</v>
+      </c>
+      <c r="D605" s="4" t="s">
+        <v>2264</v>
+      </c>
+      <c r="E605" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="606" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A606" s="3" t="s">
+        <v>2227</v>
+      </c>
+      <c r="B606" s="3" t="s">
+        <v>2236</v>
+      </c>
+      <c r="D606" s="4" t="s">
+        <v>2265</v>
+      </c>
+      <c r="E606" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="607" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A607" s="3" t="s">
+        <v>2227</v>
+      </c>
+      <c r="B607" s="3" t="s">
+        <v>2237</v>
+      </c>
+      <c r="D607" s="4" t="s">
+        <v>2266</v>
+      </c>
+      <c r="E607" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="608" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A608" s="3" t="s">
+        <v>2227</v>
+      </c>
+      <c r="B608" s="3" t="s">
+        <v>2238</v>
+      </c>
+      <c r="D608" s="4" t="s">
+        <v>2267</v>
+      </c>
+      <c r="E608" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="609" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A609" s="3" t="s">
+        <v>2227</v>
+      </c>
+      <c r="B609" s="3" t="s">
+        <v>2239</v>
+      </c>
+      <c r="D609" s="4" t="s">
+        <v>2268</v>
+      </c>
+      <c r="E609" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="610" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A610" s="3" t="s">
+        <v>2227</v>
+      </c>
+      <c r="B610" s="3" t="s">
+        <v>2240</v>
+      </c>
+      <c r="D610" s="4" t="s">
+        <v>2269</v>
+      </c>
+      <c r="E610" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="611" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A611" s="3" t="s">
+        <v>2227</v>
+      </c>
+      <c r="B611" s="3" t="s">
+        <v>2241</v>
+      </c>
+      <c r="D611" s="4" t="s">
+        <v>2270</v>
+      </c>
+      <c r="E611" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="612" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A612" s="3" t="s">
+        <v>2227</v>
+      </c>
+      <c r="B612" s="3" t="s">
+        <v>2242</v>
+      </c>
+      <c r="D612" s="4" t="s">
+        <v>2271</v>
+      </c>
+      <c r="E612" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="613" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A613" s="3" t="s">
+        <v>2227</v>
+      </c>
+      <c r="B613" s="3" t="s">
+        <v>2243</v>
+      </c>
+      <c r="D613" s="4" t="s">
+        <v>2245</v>
+      </c>
+      <c r="E613" t="s">
         <v>1038</v>
       </c>
     </row>

--- a/gdcdictionary/xlsx/nodes_schema_impowr.xlsx
+++ b/gdcdictionary/xlsx/nodes_schema_impowr.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vithal\Documents\GitHub\dcfdictionary\gdcdictionary\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB99F21-554C-4556-A966-F1F5D3E1EF3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D5CA58C-2F13-4431-AE16-6DA134095DC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="750" yWindow="1590" windowWidth="27360" windowHeight="11205" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="3705" windowWidth="27360" windowHeight="10590" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nodes_impowr" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7661" uniqueCount="2272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7757" uniqueCount="2322">
   <si>
     <t>&lt;$schema&gt;</t>
   </si>
@@ -6846,6 +6846,156 @@
   </si>
   <si>
     <t>We are interested in how you feel about the following statements. Read each statement carefully. Indicate how you feel about each statement...Friends Subscale Score</t>
+  </si>
+  <si>
+    <t>PROMIS Cognitive Function</t>
+  </si>
+  <si>
+    <t>promiscogfxnconcscl</t>
+  </si>
+  <si>
+    <t>promiscogfxnrememberscl</t>
+  </si>
+  <si>
+    <t>promiscognfxntotalscore</t>
+  </si>
+  <si>
+    <t>Recovery Capital</t>
+  </si>
+  <si>
+    <t>barc10_1</t>
+  </si>
+  <si>
+    <t>barc10_2</t>
+  </si>
+  <si>
+    <t>barc10_3</t>
+  </si>
+  <si>
+    <t>barc10_4</t>
+  </si>
+  <si>
+    <t>barc10_5</t>
+  </si>
+  <si>
+    <t>barc10_6</t>
+  </si>
+  <si>
+    <t>barc10_7</t>
+  </si>
+  <si>
+    <t>barc10_8</t>
+  </si>
+  <si>
+    <t>barc10_9</t>
+  </si>
+  <si>
+    <t>barc10_10</t>
+  </si>
+  <si>
+    <t>barc10_total</t>
+  </si>
+  <si>
+    <t>bsssacred</t>
+  </si>
+  <si>
+    <t>bssvalue</t>
+  </si>
+  <si>
+    <t>bssrelated</t>
+  </si>
+  <si>
+    <t>bsspray</t>
+  </si>
+  <si>
+    <t>bssthanks</t>
+  </si>
+  <si>
+    <t>bssstrength</t>
+  </si>
+  <si>
+    <t>bssparticipate</t>
+  </si>
+  <si>
+    <t>bsstouched</t>
+  </si>
+  <si>
+    <t>bssalive</t>
+  </si>
+  <si>
+    <t>bssunderstanding</t>
+  </si>
+  <si>
+    <t>Calculated raw total score for the PROMIS 29 cognitive function items</t>
+  </si>
+  <si>
+    <t>There are more important things to me in life than using substances.</t>
+  </si>
+  <si>
+    <t>Total score</t>
+  </si>
+  <si>
+    <t>In the past 7 days,  I have been able to concentrate</t>
+  </si>
+  <si>
+    <t>In the past 7 days,  I have been able to remember to do things, like take medicine or buy something I needed</t>
+  </si>
+  <si>
+    <t>Please indicate your level of agreement with the following statements… In general I am happy with my life.</t>
+  </si>
+  <si>
+    <t>Please indicate your level of agreement with the following statements…  I have enough energy to complete the tasks I set myself.</t>
+  </si>
+  <si>
+    <t>Please indicate your level of agreement with the following statements… I am proud of the community I live in and feel part of it.</t>
+  </si>
+  <si>
+    <t>Please indicate your level of agreement with the following statements… I get lots of support from friends.</t>
+  </si>
+  <si>
+    <t>Please indicate your level of agreement with the following statements… I regard my life as challenging and fulfilling without the need for using drugs or alcohol.</t>
+  </si>
+  <si>
+    <t>Please indicate your level of agreement with the following statements… My living space has helped to drive my recovery journey.</t>
+  </si>
+  <si>
+    <t>Please indicate your level of agreement with the following statements… I take full responsibility for my actions.</t>
+  </si>
+  <si>
+    <t>Please indicate your level of agreement with the following statements… I am happy dealing with a range of professional people.</t>
+  </si>
+  <si>
+    <t>Please indicate your level of agreement with the following statements… I am making good progress on my recovery journey.</t>
+  </si>
+  <si>
+    <t>Think about how often you have had each experience rather than whether you should or should not have had these experiences... I believe life is sacred</t>
+  </si>
+  <si>
+    <t>Think about how often you have had each experience rather than whether you should or should not have had these experiences...I value my life and everyone's around me</t>
+  </si>
+  <si>
+    <t>Think about how often you have had each experience rather than whether you should or should not have had these experiences...All things are related to one another</t>
+  </si>
+  <si>
+    <t>Think about how often you have had each experience rather than whether you should or should not have had these experiences...I pray to Creator/ancestors/higher power</t>
+  </si>
+  <si>
+    <t>Think about how often you have had each experience rather than whether you should or should not have had these experiences...In the evening, I express thanks</t>
+  </si>
+  <si>
+    <t>Think about how often you have had each experience rather than whether you should or should not have had these experiences...I find strength in my faith and spirituality</t>
+  </si>
+  <si>
+    <t>Think about how often you have had each experience rather than whether you should or should not have had these experiences...I participate in cultural/faith related activities</t>
+  </si>
+  <si>
+    <t>Think about how often you have had each experience rather than whether you should or should not have had these experiences...I am spiritually touched by participating in my faith</t>
+  </si>
+  <si>
+    <t>Think about how often you have had each experience rather than whether you should or should not have had these experiences...I believe everything is alive with a spirit</t>
+  </si>
+  <si>
+    <t>Think about how often you have had each experience rather than whether you should or should not have had these experiences...I feel thankful for my understanding of my faith and beliefs</t>
   </si>
 </sst>
 </file>
@@ -15704,10 +15854,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K613"/>
+  <dimension ref="A1:K637"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A602" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="A614" sqref="A614"/>
+    <sheetView tabSelected="1" topLeftCell="A631" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="E628" sqref="E628:E637"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24327,6 +24477,342 @@
       </c>
       <c r="E613" t="s">
         <v>1038</v>
+      </c>
+    </row>
+    <row r="614" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A614" s="3" t="s">
+        <v>2272</v>
+      </c>
+      <c r="B614" s="3" t="s">
+        <v>2273</v>
+      </c>
+      <c r="D614" s="4" t="s">
+        <v>2301</v>
+      </c>
+      <c r="E614" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="615" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A615" s="3" t="s">
+        <v>2272</v>
+      </c>
+      <c r="B615" s="3" t="s">
+        <v>2274</v>
+      </c>
+      <c r="D615" s="4" t="s">
+        <v>2302</v>
+      </c>
+      <c r="E615" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="616" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A616" s="3" t="s">
+        <v>2272</v>
+      </c>
+      <c r="B616" s="3" t="s">
+        <v>2275</v>
+      </c>
+      <c r="D616" s="4" t="s">
+        <v>2298</v>
+      </c>
+      <c r="E616" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="617" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A617" s="3" t="s">
+        <v>2276</v>
+      </c>
+      <c r="B617" s="3" t="s">
+        <v>2277</v>
+      </c>
+      <c r="D617" s="4" t="s">
+        <v>2299</v>
+      </c>
+      <c r="E617" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="618" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A618" s="3" t="s">
+        <v>2276</v>
+      </c>
+      <c r="B618" s="3" t="s">
+        <v>2278</v>
+      </c>
+      <c r="D618" s="4" t="s">
+        <v>2303</v>
+      </c>
+      <c r="E618" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="619" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A619" s="3" t="s">
+        <v>2276</v>
+      </c>
+      <c r="B619" s="3" t="s">
+        <v>2279</v>
+      </c>
+      <c r="D619" s="4" t="s">
+        <v>2304</v>
+      </c>
+      <c r="E619" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="620" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A620" s="3" t="s">
+        <v>2276</v>
+      </c>
+      <c r="B620" s="3" t="s">
+        <v>2280</v>
+      </c>
+      <c r="D620" s="4" t="s">
+        <v>2305</v>
+      </c>
+      <c r="E620" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="621" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A621" s="3" t="s">
+        <v>2276</v>
+      </c>
+      <c r="B621" s="3" t="s">
+        <v>2281</v>
+      </c>
+      <c r="D621" s="4" t="s">
+        <v>2306</v>
+      </c>
+      <c r="E621" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="622" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A622" s="3" t="s">
+        <v>2276</v>
+      </c>
+      <c r="B622" s="3" t="s">
+        <v>2282</v>
+      </c>
+      <c r="D622" s="4" t="s">
+        <v>2307</v>
+      </c>
+      <c r="E622" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="623" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A623" s="3" t="s">
+        <v>2276</v>
+      </c>
+      <c r="B623" s="3" t="s">
+        <v>2283</v>
+      </c>
+      <c r="D623" s="4" t="s">
+        <v>2308</v>
+      </c>
+      <c r="E623" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="624" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A624" s="3" t="s">
+        <v>2276</v>
+      </c>
+      <c r="B624" s="3" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D624" s="4" t="s">
+        <v>2309</v>
+      </c>
+      <c r="E624" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="625" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A625" s="3" t="s">
+        <v>2276</v>
+      </c>
+      <c r="B625" s="3" t="s">
+        <v>2285</v>
+      </c>
+      <c r="D625" s="4" t="s">
+        <v>2310</v>
+      </c>
+      <c r="E625" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="626" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A626" s="3" t="s">
+        <v>2276</v>
+      </c>
+      <c r="B626" s="3" t="s">
+        <v>2286</v>
+      </c>
+      <c r="D626" s="4" t="s">
+        <v>2311</v>
+      </c>
+      <c r="E626" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="627" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A627" s="3" t="s">
+        <v>2276</v>
+      </c>
+      <c r="B627" s="3" t="s">
+        <v>2287</v>
+      </c>
+      <c r="D627" s="4" t="s">
+        <v>2300</v>
+      </c>
+      <c r="E627" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="628" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A628" s="3" t="s">
+        <v>2276</v>
+      </c>
+      <c r="B628" s="3" t="s">
+        <v>2288</v>
+      </c>
+      <c r="D628" s="4" t="s">
+        <v>2312</v>
+      </c>
+      <c r="E628" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="629" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A629" s="3" t="s">
+        <v>2276</v>
+      </c>
+      <c r="B629" s="3" t="s">
+        <v>2289</v>
+      </c>
+      <c r="D629" s="4" t="s">
+        <v>2313</v>
+      </c>
+      <c r="E629" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="630" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A630" s="3" t="s">
+        <v>2276</v>
+      </c>
+      <c r="B630" s="3" t="s">
+        <v>2290</v>
+      </c>
+      <c r="D630" s="4" t="s">
+        <v>2314</v>
+      </c>
+      <c r="E630" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="631" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A631" s="3" t="s">
+        <v>2276</v>
+      </c>
+      <c r="B631" s="3" t="s">
+        <v>2291</v>
+      </c>
+      <c r="D631" s="4" t="s">
+        <v>2315</v>
+      </c>
+      <c r="E631" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="632" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A632" s="3" t="s">
+        <v>2276</v>
+      </c>
+      <c r="B632" s="3" t="s">
+        <v>2292</v>
+      </c>
+      <c r="D632" s="4" t="s">
+        <v>2316</v>
+      </c>
+      <c r="E632" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="633" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A633" s="3" t="s">
+        <v>2276</v>
+      </c>
+      <c r="B633" s="3" t="s">
+        <v>2293</v>
+      </c>
+      <c r="D633" s="4" t="s">
+        <v>2317</v>
+      </c>
+      <c r="E633" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="634" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A634" s="3" t="s">
+        <v>2276</v>
+      </c>
+      <c r="B634" s="3" t="s">
+        <v>2294</v>
+      </c>
+      <c r="D634" s="4" t="s">
+        <v>2318</v>
+      </c>
+      <c r="E634" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="635" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A635" s="3" t="s">
+        <v>2276</v>
+      </c>
+      <c r="B635" s="3" t="s">
+        <v>2295</v>
+      </c>
+      <c r="D635" s="4" t="s">
+        <v>2319</v>
+      </c>
+      <c r="E635" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="636" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A636" s="3" t="s">
+        <v>2276</v>
+      </c>
+      <c r="B636" s="3" t="s">
+        <v>2296</v>
+      </c>
+      <c r="D636" s="4" t="s">
+        <v>2320</v>
+      </c>
+      <c r="E636" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="637" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A637" s="3" t="s">
+        <v>2276</v>
+      </c>
+      <c r="B637" s="3" t="s">
+        <v>2297</v>
+      </c>
+      <c r="D637" s="4" t="s">
+        <v>2321</v>
+      </c>
+      <c r="E637" s="3" t="s">
+        <v>1037</v>
       </c>
     </row>
   </sheetData>

--- a/gdcdictionary/xlsx/nodes_schema_impowr.xlsx
+++ b/gdcdictionary/xlsx/nodes_schema_impowr.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vithal\Documents\GitHub\dcfdictionary\gdcdictionary\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D5CA58C-2F13-4431-AE16-6DA134095DC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36A16DDA-73B1-4CA2-8902-190362B93303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="3705" windowWidth="27360" windowHeight="10590" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nodes_impowr" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7757" uniqueCount="2322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8221" uniqueCount="2556">
   <si>
     <t>&lt;$schema&gt;</t>
   </si>
@@ -6996,6 +6996,720 @@
   </si>
   <si>
     <t>Think about how often you have had each experience rather than whether you should or should not have had these experiences...I feel thankful for my understanding of my faith and beliefs</t>
+  </si>
+  <si>
+    <t>PROMIS PROPr</t>
+  </si>
+  <si>
+    <t>promis29totalscore</t>
+  </si>
+  <si>
+    <t>proprscore</t>
+  </si>
+  <si>
+    <t>Social Risk Assessment</t>
+  </si>
+  <si>
+    <t>sdhfinancestrainscl</t>
+  </si>
+  <si>
+    <t>sdhfoodinsecurity1scl</t>
+  </si>
+  <si>
+    <t>sdhfoodinsecurity2scl</t>
+  </si>
+  <si>
+    <t>sdhtransportationneed1yn</t>
+  </si>
+  <si>
+    <t>sdhtransportationneed2yn</t>
+  </si>
+  <si>
+    <t>sdhhousinginstability1txt</t>
+  </si>
+  <si>
+    <t>sdhhousinginstability2yn</t>
+  </si>
+  <si>
+    <t>sdhhousinginstability3yn</t>
+  </si>
+  <si>
+    <t>bpsclinicprompt</t>
+  </si>
+  <si>
+    <t>bpsclinicconvenient</t>
+  </si>
+  <si>
+    <t>bpscliniccourteous</t>
+  </si>
+  <si>
+    <t>Healthcare Utilization</t>
+  </si>
+  <si>
+    <t>hsheovernight</t>
+  </si>
+  <si>
+    <t>hshenumdetox</t>
+  </si>
+  <si>
+    <t>hshenummntlhlth</t>
+  </si>
+  <si>
+    <t>hshenumphyshlth</t>
+  </si>
+  <si>
+    <t>hshenonhospdetox</t>
+  </si>
+  <si>
+    <t>hsheresprogram</t>
+  </si>
+  <si>
+    <t>hsheresnsgrhb</t>
+  </si>
+  <si>
+    <t>hshenumer</t>
+  </si>
+  <si>
+    <t>hshenumothphys</t>
+  </si>
+  <si>
+    <t>hshenumpcp</t>
+  </si>
+  <si>
+    <t>hshenumdentist</t>
+  </si>
+  <si>
+    <t>hsheoutpthmsu</t>
+  </si>
+  <si>
+    <t>hsheothrmhsuclinician</t>
+  </si>
+  <si>
+    <t>hsheincome</t>
+  </si>
+  <si>
+    <t>hshehcexpenditures</t>
+  </si>
+  <si>
+    <t>hshedaysuninsured</t>
+  </si>
+  <si>
+    <t>hshehourshc</t>
+  </si>
+  <si>
+    <t>hshedaysmissed</t>
+  </si>
+  <si>
+    <t>hsheunlawful_daysx</t>
+  </si>
+  <si>
+    <t>hshedwi_timesx</t>
+  </si>
+  <si>
+    <t>hshedeal_timesx</t>
+  </si>
+  <si>
+    <t>hshevandalism_timesx</t>
+  </si>
+  <si>
+    <t>hshestolengoods_timesx</t>
+  </si>
+  <si>
+    <t>hshefraud_timesx</t>
+  </si>
+  <si>
+    <t>hsheburglary_timesx</t>
+  </si>
+  <si>
+    <t>hshetheft_timesx</t>
+  </si>
+  <si>
+    <t>hsherobbery_timesx</t>
+  </si>
+  <si>
+    <t>hsheassault_timesx</t>
+  </si>
+  <si>
+    <t>hsheaggrav_timesx</t>
+  </si>
+  <si>
+    <t>hshemvtheft_timesx</t>
+  </si>
+  <si>
+    <t>hsherape_timesx</t>
+  </si>
+  <si>
+    <t>hshearson_timesx</t>
+  </si>
+  <si>
+    <t>hshesex_timesx</t>
+  </si>
+  <si>
+    <t>hsheothercriminalactyn</t>
+  </si>
+  <si>
+    <t>hshecarryingweapontimes</t>
+  </si>
+  <si>
+    <t>hsheganginvolvetimes</t>
+  </si>
+  <si>
+    <t>hshedomesticviolencetimes</t>
+  </si>
+  <si>
+    <t>hshemurdertimes_2</t>
+  </si>
+  <si>
+    <t>hshetrespasstimes</t>
+  </si>
+  <si>
+    <t>hshegamblingtimes</t>
+  </si>
+  <si>
+    <t>hshedisturpeacetimes</t>
+  </si>
+  <si>
+    <t>hshedisorderlytimes</t>
+  </si>
+  <si>
+    <t>hsheparaphanaliatimes</t>
+  </si>
+  <si>
+    <t>hsherunawaytimes</t>
+  </si>
+  <si>
+    <t>hshecurfewtimes</t>
+  </si>
+  <si>
+    <t>hshetruancytimes</t>
+  </si>
+  <si>
+    <t>hsheincidentdescribe</t>
+  </si>
+  <si>
+    <t>hsheincidenttimes</t>
+  </si>
+  <si>
+    <t>hsheparoledays</t>
+  </si>
+  <si>
+    <t>hsheprobationdays</t>
+  </si>
+  <si>
+    <t>Health Services Utilization</t>
+  </si>
+  <si>
+    <t>utilpcpvisit</t>
+  </si>
+  <si>
+    <t>utilphysspecvisit</t>
+  </si>
+  <si>
+    <t>utilphysspecpain</t>
+  </si>
+  <si>
+    <t>utilphysspecmassage</t>
+  </si>
+  <si>
+    <t>utilphysspecpt</t>
+  </si>
+  <si>
+    <t>utilphysspecother</t>
+  </si>
+  <si>
+    <t>utilpcptelehlth</t>
+  </si>
+  <si>
+    <t>utilphysspectelehlth</t>
+  </si>
+  <si>
+    <t>utilopmhsudays</t>
+  </si>
+  <si>
+    <t>utilopmhsuindiv</t>
+  </si>
+  <si>
+    <t>utilopmhsugroup</t>
+  </si>
+  <si>
+    <t>utilopmhsuiop</t>
+  </si>
+  <si>
+    <t>utilopmhsumed</t>
+  </si>
+  <si>
+    <t>utilmutual</t>
+  </si>
+  <si>
+    <t>utilquitline</t>
+  </si>
+  <si>
+    <t>utiljobreadiness</t>
+  </si>
+  <si>
+    <t>utileducsuppt</t>
+  </si>
+  <si>
+    <t>utilfood</t>
+  </si>
+  <si>
+    <t>utilshelter</t>
+  </si>
+  <si>
+    <t>utildomestic</t>
+  </si>
+  <si>
+    <t>utilmedmh</t>
+  </si>
+  <si>
+    <t>mh_meds</t>
+  </si>
+  <si>
+    <t>utilmedssri</t>
+  </si>
+  <si>
+    <t>utilmedsnri</t>
+  </si>
+  <si>
+    <t>utilmedmood</t>
+  </si>
+  <si>
+    <t>utilmedantipsych</t>
+  </si>
+  <si>
+    <t>utilmedbenzo</t>
+  </si>
+  <si>
+    <t>utilmedother</t>
+  </si>
+  <si>
+    <t>utilmedssridose</t>
+  </si>
+  <si>
+    <t>utilmedsnridose</t>
+  </si>
+  <si>
+    <t>utilmedmooddose</t>
+  </si>
+  <si>
+    <t>utilmedantipsychdose</t>
+  </si>
+  <si>
+    <t>utilmedbenzodose</t>
+  </si>
+  <si>
+    <t>utilmedotherspecify</t>
+  </si>
+  <si>
+    <t>utilmedotherdose</t>
+  </si>
+  <si>
+    <t>utilpublicassistyn</t>
+  </si>
+  <si>
+    <t>utilnonemplincomeyn</t>
+  </si>
+  <si>
+    <t>utilincomeunlawful</t>
+  </si>
+  <si>
+    <t>utilpublicassistamt</t>
+  </si>
+  <si>
+    <t>utilnonemplincomeamt</t>
+  </si>
+  <si>
+    <t>utilincomeunlawfulamt</t>
+  </si>
+  <si>
+    <t>utilmiles</t>
+  </si>
+  <si>
+    <t>utiltransport</t>
+  </si>
+  <si>
+    <t>utiltransportother</t>
+  </si>
+  <si>
+    <t>utilcaregiverhrs</t>
+  </si>
+  <si>
+    <t>utilmoneysubstanceuse</t>
+  </si>
+  <si>
+    <t>utildayselecmonitor</t>
+  </si>
+  <si>
+    <t>utildayshousearrest</t>
+  </si>
+  <si>
+    <t>utildaysjail</t>
+  </si>
+  <si>
+    <t>utildaysprison</t>
+  </si>
+  <si>
+    <t>utilcommsup</t>
+  </si>
+  <si>
+    <t>utilparolemet</t>
+  </si>
+  <si>
+    <t>utilparoletrouble</t>
+  </si>
+  <si>
+    <t>Calculated raw total score for the PROMIS 29 subscale items</t>
+  </si>
+  <si>
+    <t>Overall PROPr score (calculated)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How hard is it for you to pay for the very basics like food, housing, medical care, and heating? </t>
+  </si>
+  <si>
+    <t>Within the past 12 months, you worried whether your food would run out before you got money to buy more.</t>
+  </si>
+  <si>
+    <t>Within the past 12 months, the food you bought just didn't last and you didn't have money to get more.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Has the lack of transportation kept you from medical appointments or from getting medications?</t>
+  </si>
+  <si>
+    <t>Has a lack of transportation kept you from meetings, work, or from getting things needed for daily living?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> In the past 12 months, how many places have you lived?</t>
+  </si>
+  <si>
+    <t>In the past 12 months, was there a time when you were not able to pay the mortgage or rent on time?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the past 12 months, was there a time when you did not have a steady place to sleep or slept in a shelter (including now)? </t>
+  </si>
+  <si>
+    <t>Prompt Service</t>
+  </si>
+  <si>
+    <t>Convenient appointments</t>
+  </si>
+  <si>
+    <t>Courteous staff</t>
+  </si>
+  <si>
+    <t>During the past 6 months, did you stay overnight in a hospital or other treatment facility?</t>
+  </si>
+  <si>
+    <t>...nights were you in a hospital detoxification program for your alcohol and other drug use? (across all episodes)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">...nights were you in a hospital for a mental health or substance use reason (not detox)? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">...nights were you in a hospital for your physical health (not detox)? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">...nights were you in a non-hospital or social detoxification program from alcohol or other drugs? </t>
+  </si>
+  <si>
+    <t>... nights were you in a residential program for mental health and/or substance use?</t>
+  </si>
+  <si>
+    <t>...nights were you in a residential, nursing home or other rehabilitation facility for your physical health?</t>
+  </si>
+  <si>
+    <t>...times have you had to go to an emergency room without being admitted to the hospital?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">...times have you seen another kind of health professional for your physical health (specialty doctor, physical therapist, acupuncture, massage providers, etc.)? </t>
+  </si>
+  <si>
+    <t>...times have you seen a primary care provider (physician, nurse, nurse practitioner, or physician's assistant)?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">...times have you visited a dentist? </t>
+  </si>
+  <si>
+    <t>During the past 6 months, how many days did you participate in any outpatient treatment program for mental health and/or substance use?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">During the past 6 months, how many times have you seen any mental health or substance use counselor or social worker? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">During the past 6 months, what was your total income from employment, including under-the-table work (do not include income from illegal activities)? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">During the past 6 months, how much of your own money have you spent on healthcare (e.g., copayments, prescriptions, paying for something entirely with cash)?  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">During the past 6 months, how many days were you uninsured? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">During the past 6 months, how many hours have you spent on your healthcare (including time with providers, travelling to appointments, picking up prescriptions, practicing behavioral treatments on your own, etc.)? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">During the past 6 months, about how many days of work/school did you miss because you had an illness, injury, or disability?  </t>
+  </si>
+  <si>
+    <t>...days were you ever involved in any activities that might get you into trouble or be against the law besides drug use?</t>
+  </si>
+  <si>
+    <t>...times have you driven a vehicle while impaired (e.g., alcohol, marijuana, opioids, or other illicit substances?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">...times have you sold, distributed or helped to make illegal drugs (dealing, distribution or sale of drugs)? </t>
+  </si>
+  <si>
+    <t>...times have you purposely damaged or destroyed property that did not belong to you (vandalism or property destruction)?</t>
+  </si>
+  <si>
+    <t>...times have you bought, received, possessed, or sold any stolen goods (receiving, possessing or selling stolen goods)?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">...times have you passed bad checks, committed forgery, or took money illegally from an employer (fraud, forgery or embezzlement)? </t>
+  </si>
+  <si>
+    <t>...times have you broken into a house or building to steal something or just to look around (burglary or breaking and entering)?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">...times have you taken money or property that didn't belong to you without "breaking and entering" and without using force against a person (larceny or theft)? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">...times have you used a weapon, force, or strong-arm methods to get money or things from a person (robbery)? </t>
+  </si>
+  <si>
+    <t>...times have you hit someone or gotten into a physical fight (simple assault or battery)?</t>
+  </si>
+  <si>
+    <t>...times have you hurt someone badly enough they needed bandages or a doctor (aggravated assault or battery)?</t>
+  </si>
+  <si>
+    <t>...times have you taken a car that didn't belong to you (motor vehicle theft)?</t>
+  </si>
+  <si>
+    <t>...times have you made someone have sex with you by force when they did not want to have sex (forcible rape)?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">...times have you intentionally set a building, car or other property on fire (arson)? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">...times have you traded sex for food, drugs or money (prostitution, pimping or commercialized sex)? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">During the past 6 months, have you done something else that would have gotten you into trouble with the police if they had known about it? </t>
+  </si>
+  <si>
+    <t>Carrying a weapon - number of times?</t>
+  </si>
+  <si>
+    <t>Gang involvement - number of times?</t>
+  </si>
+  <si>
+    <t>Domestic violence - number of times?</t>
+  </si>
+  <si>
+    <t>Murder - number of times?</t>
+  </si>
+  <si>
+    <t>Trespass - number of times?</t>
+  </si>
+  <si>
+    <t>Gambling - number of times?</t>
+  </si>
+  <si>
+    <t>Disturbing the peace - number of times?</t>
+  </si>
+  <si>
+    <t>Disorderly conduct - number of times?</t>
+  </si>
+  <si>
+    <t>Paraphernalia - number of times?</t>
+  </si>
+  <si>
+    <t>Runaway - number of times?</t>
+  </si>
+  <si>
+    <t>Curfew - number of times?</t>
+  </si>
+  <si>
+    <t>Truancy - number of times?</t>
+  </si>
+  <si>
+    <t>Other (specify)</t>
+  </si>
+  <si>
+    <t>Other - number of times</t>
+  </si>
+  <si>
+    <t>During the past 6 months, how many days have you been on parole?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">During the past 6 months, how many days have you been on probation? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">...times have you seen a primary care provider (physician, nurse, nurse practitioner, or physician's assistant)?    </t>
+  </si>
+  <si>
+    <t>...times have you seen pain specialty doctor?</t>
+  </si>
+  <si>
+    <t>...times have you seen massage therapist or acupuncturist?</t>
+  </si>
+  <si>
+    <t>...times have you seen physical therapist?</t>
+  </si>
+  <si>
+    <t>...times have you seen another type of healthcare professional to manage your pain?</t>
+  </si>
+  <si>
+    <t>How many of the times that you saw a primary care provider (physician, nurse, nurse practitioner, or physician's assistant) did you participate via telehealth (phone, computer or tablet)?</t>
+  </si>
+  <si>
+    <t>How many of the  times you saw another kind of health professional for your physical health (specialty doctor, physical therapist, acupuncture, massage providers, etc.) did you participate via telehealth (phone, computer or tablet)?</t>
+  </si>
+  <si>
+    <t>...days did you participate in any outpatient treatment program for mental health and/or substance use?</t>
+  </si>
+  <si>
+    <t>...did you participate in individual therapy (not IOP)?</t>
+  </si>
+  <si>
+    <t>...did you participate in group therapy (not IOP)?</t>
+  </si>
+  <si>
+    <t>...did you participate in an intensive outpatient program (IOP)?</t>
+  </si>
+  <si>
+    <t>...were for medication management only (e.g., medication adjustment or refills)?</t>
+  </si>
+  <si>
+    <t>...times have you attended a mutual-help group meeting (e.g., AA, CA, NA, or Smart Recovery)?</t>
+  </si>
+  <si>
+    <t>...times have you called a quitline or a referral service to look for help with a substance use or mental health issue?</t>
+  </si>
+  <si>
+    <t>...times have you received job readiness services (e.g., Jobs Readiness Programs (Paths to Empowerment (P2E) Program via MASSHIRE, or specialized occupational training (e.g. Introduction to IT (Computers), Food Service/Culinary Arts, Commercial Cleaning, Office Skills, Construction Services, Customer Service, Personal Fitness Instructor Training, Commercial Truck Driving, HVAC and Refrigeration, Carpentry Services)?</t>
+  </si>
+  <si>
+    <t>...have you received educational support services (e.g. Springfield Adult Learning Center (SALC), free education to earn a High School Equivalency Certificate (HSE) which includes preparing for a GED or a HiSET exam)?</t>
+  </si>
+  <si>
+    <t>...times have you received food from a food bank (e.g., Worcester County Food Bank, Open Pantry Community Services, Inc., Greater Westfield Emergency Food Pantry, Inc., The Food Bank of Western Massachusetts - the Mobile Food Bank, or others)?</t>
+  </si>
+  <si>
+    <t>...nights have you spent in a homeless shelter?</t>
+  </si>
+  <si>
+    <t>...nights have you spent in a domestic violence or women's shelter?</t>
+  </si>
+  <si>
+    <t>During the past 6 months, have you been prescribed and taken medication to treat a mental health disorder? [Illicit use should be excluded]</t>
+  </si>
+  <si>
+    <t>Medication</t>
+  </si>
+  <si>
+    <t>SSRIs</t>
+  </si>
+  <si>
+    <t>SNRIs</t>
+  </si>
+  <si>
+    <t>Mood Stabilizers</t>
+  </si>
+  <si>
+    <t>Antipsychotics</t>
+  </si>
+  <si>
+    <t>Benzodiazepines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSRIs? (e.g., sertraline, citalopram, fluoxetine, paroxetine) dose/day:
+the dose taken most often ('usual dose')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SNRIs? (e.g., venlafaxine, duloxetine) dose/day:
+the dose taken most often ('usual dose')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mood Stabilizers? (e.g., depakote, lamotrigine, lithium) dose/day:
+the dose taken most often ('usual dose')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antipsychotics? (e.g., quetiapine, risperidone, aripiprazole, olanzapine) 
+dose/day: the dose taken most often ('usual dose')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benzodiazepines? (e.g., clonazepam, diazepam, lorazepam)  dose/day:
+the dose taken most often ('usual dose')
+</t>
+  </si>
+  <si>
+    <t>Other medicine (specify)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other medicine dose/day :
+the dose taken most often ('usual dose')
+</t>
+  </si>
+  <si>
+    <t>During the past 6 months, did you receive any public assistance like unemployment, food stamps / TANF, subsidized housing, or supplemental security income?</t>
+  </si>
+  <si>
+    <t>During the past 6 months, did you receive any other non-employment income sources like retirement, pension, alimony, child support, or interest?</t>
+  </si>
+  <si>
+    <t>During the past 6 months, outside of employment described above, did you receive any other income from activities that might get you into trouble or be against the law, like dealing, gambling, theft or fencing?</t>
+  </si>
+  <si>
+    <t>During the past 6 months, approximately how much money have you  received from public assistance sources like unemployment, food stamps (TANF), subsidized housing, supplemental security income?</t>
+  </si>
+  <si>
+    <t>During the past 6 months, approximately how much money have you  received from other non-employment sources like retirement, pension, alimony, child support, interest?</t>
+  </si>
+  <si>
+    <t>During the past 6 months, outside of employment described above, how much money did you earn from activities that might get you into trouble or be against the law, like dealing, gambling, theft or fencing?</t>
+  </si>
+  <si>
+    <t>During the past 6 months, how many miles do you usually travel for a health care visit  (one-way)?</t>
+  </si>
+  <si>
+    <t>What mode of transportation do you usually use?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other type of transportation (specify): </t>
+  </si>
+  <si>
+    <t>In a typical week during the past 6 months, how many hours have you required the use of a caregiver for your healthcare needs (e.g., babysitter or someone to travel with you to appointments)?</t>
+  </si>
+  <si>
+    <t>In a typical week during the past 6 months, approximately how much money did you spend on alcohol, tobacco, marijuana, and illegal drugs?</t>
+  </si>
+  <si>
+    <t>During the past 6 months, how many days have you been on electronic monitoring?</t>
+  </si>
+  <si>
+    <t>During the past 6 months, how many days have you been on house arrest?</t>
+  </si>
+  <si>
+    <t>During the past 6 months, how many days have you been in jail?</t>
+  </si>
+  <si>
+    <t>During the past 6 months, how many days have you been in prison?</t>
+  </si>
+  <si>
+    <t>During the past 6 months, how many days have you been on any other kind of community supervision?</t>
+  </si>
+  <si>
+    <t>During the past 6 months, how many days have you met with your probation or parole officer?</t>
+  </si>
+  <si>
+    <t>During the past 6 months, how many days have you been in trouble with your probation or parole officer?</t>
   </si>
 </sst>
 </file>
@@ -7032,7 +7746,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7048,6 +7762,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7083,7 +7803,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -7113,6 +7833,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -15854,10 +16577,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K637"/>
+  <dimension ref="A1:K753"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A631" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="E628" sqref="E628:E637"/>
+    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="E729" sqref="D729:E729"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24813,6 +25536,1630 @@
       </c>
       <c r="E637" s="3" t="s">
         <v>1037</v>
+      </c>
+    </row>
+    <row r="638" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A638" s="3" t="s">
+        <v>2322</v>
+      </c>
+      <c r="B638" s="3" t="s">
+        <v>2323</v>
+      </c>
+      <c r="D638" s="4" t="s">
+        <v>2442</v>
+      </c>
+      <c r="E638" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="639" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A639" s="3" t="s">
+        <v>2322</v>
+      </c>
+      <c r="B639" s="3" t="s">
+        <v>2324</v>
+      </c>
+      <c r="D639" s="4" t="s">
+        <v>2443</v>
+      </c>
+      <c r="E639" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="640" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A640" s="3" t="s">
+        <v>2325</v>
+      </c>
+      <c r="B640" s="3" t="s">
+        <v>2326</v>
+      </c>
+      <c r="D640" s="4" t="s">
+        <v>2444</v>
+      </c>
+      <c r="E640" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="641" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A641" s="3" t="s">
+        <v>2325</v>
+      </c>
+      <c r="B641" s="3" t="s">
+        <v>2327</v>
+      </c>
+      <c r="D641" s="4" t="s">
+        <v>2445</v>
+      </c>
+      <c r="E641" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="642" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A642" s="3" t="s">
+        <v>2325</v>
+      </c>
+      <c r="B642" s="3" t="s">
+        <v>2328</v>
+      </c>
+      <c r="D642" s="4" t="s">
+        <v>2446</v>
+      </c>
+      <c r="E642" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="643" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A643" s="3" t="s">
+        <v>2325</v>
+      </c>
+      <c r="B643" s="3" t="s">
+        <v>2329</v>
+      </c>
+      <c r="D643" s="4" t="s">
+        <v>2447</v>
+      </c>
+      <c r="E643" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="644" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A644" s="3" t="s">
+        <v>2325</v>
+      </c>
+      <c r="B644" s="3" t="s">
+        <v>2330</v>
+      </c>
+      <c r="D644" s="4" t="s">
+        <v>2448</v>
+      </c>
+      <c r="E644" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="645" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A645" s="3" t="s">
+        <v>2325</v>
+      </c>
+      <c r="B645" s="3" t="s">
+        <v>2331</v>
+      </c>
+      <c r="D645" s="4" t="s">
+        <v>2449</v>
+      </c>
+      <c r="E645" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="646" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A646" s="3" t="s">
+        <v>2325</v>
+      </c>
+      <c r="B646" s="3" t="s">
+        <v>2332</v>
+      </c>
+      <c r="D646" s="4" t="s">
+        <v>2450</v>
+      </c>
+      <c r="E646" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="647" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A647" s="3" t="s">
+        <v>2325</v>
+      </c>
+      <c r="B647" s="3" t="s">
+        <v>2333</v>
+      </c>
+      <c r="D647" s="4" t="s">
+        <v>2451</v>
+      </c>
+      <c r="E647" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="648" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A648" s="3" t="s">
+        <v>2325</v>
+      </c>
+      <c r="B648" s="3" t="s">
+        <v>2334</v>
+      </c>
+      <c r="D648" s="4" t="s">
+        <v>2452</v>
+      </c>
+      <c r="E648" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="649" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A649" s="3" t="s">
+        <v>2325</v>
+      </c>
+      <c r="B649" s="3" t="s">
+        <v>2335</v>
+      </c>
+      <c r="D649" s="4" t="s">
+        <v>2453</v>
+      </c>
+      <c r="E649" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="650" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A650" s="3" t="s">
+        <v>2325</v>
+      </c>
+      <c r="B650" s="3" t="s">
+        <v>2336</v>
+      </c>
+      <c r="D650" s="4" t="s">
+        <v>2454</v>
+      </c>
+      <c r="E650" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="651" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A651" s="3" t="s">
+        <v>2337</v>
+      </c>
+      <c r="B651" s="3" t="s">
+        <v>2338</v>
+      </c>
+      <c r="D651" s="13" t="s">
+        <v>2455</v>
+      </c>
+      <c r="E651" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="652" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A652" s="3" t="s">
+        <v>2337</v>
+      </c>
+      <c r="B652" s="3" t="s">
+        <v>2339</v>
+      </c>
+      <c r="D652" s="4" t="s">
+        <v>2456</v>
+      </c>
+      <c r="E652" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="653" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A653" s="3" t="s">
+        <v>2337</v>
+      </c>
+      <c r="B653" s="3" t="s">
+        <v>2340</v>
+      </c>
+      <c r="D653" s="4" t="s">
+        <v>2457</v>
+      </c>
+      <c r="E653" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="654" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A654" s="3" t="s">
+        <v>2337</v>
+      </c>
+      <c r="B654" s="3" t="s">
+        <v>2341</v>
+      </c>
+      <c r="D654" s="4" t="s">
+        <v>2458</v>
+      </c>
+      <c r="E654" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="655" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A655" s="3" t="s">
+        <v>2337</v>
+      </c>
+      <c r="B655" s="3" t="s">
+        <v>2342</v>
+      </c>
+      <c r="D655" s="4" t="s">
+        <v>2459</v>
+      </c>
+      <c r="E655" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="656" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A656" s="3" t="s">
+        <v>2337</v>
+      </c>
+      <c r="B656" s="3" t="s">
+        <v>2343</v>
+      </c>
+      <c r="D656" s="4" t="s">
+        <v>2460</v>
+      </c>
+      <c r="E656" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="657" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A657" s="3" t="s">
+        <v>2337</v>
+      </c>
+      <c r="B657" s="3" t="s">
+        <v>2344</v>
+      </c>
+      <c r="D657" s="4" t="s">
+        <v>2461</v>
+      </c>
+      <c r="E657" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="658" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A658" s="3" t="s">
+        <v>2337</v>
+      </c>
+      <c r="B658" s="3" t="s">
+        <v>2345</v>
+      </c>
+      <c r="D658" s="4" t="s">
+        <v>2462</v>
+      </c>
+      <c r="E658" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="659" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A659" s="3" t="s">
+        <v>2337</v>
+      </c>
+      <c r="B659" s="3" t="s">
+        <v>2346</v>
+      </c>
+      <c r="D659" s="4" t="s">
+        <v>2463</v>
+      </c>
+      <c r="E659" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="660" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A660" s="3" t="s">
+        <v>2337</v>
+      </c>
+      <c r="B660" s="3" t="s">
+        <v>2347</v>
+      </c>
+      <c r="D660" s="4" t="s">
+        <v>2464</v>
+      </c>
+      <c r="E660" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="661" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A661" s="3" t="s">
+        <v>2337</v>
+      </c>
+      <c r="B661" s="3" t="s">
+        <v>2348</v>
+      </c>
+      <c r="D661" s="4" t="s">
+        <v>2465</v>
+      </c>
+      <c r="E661" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="662" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A662" s="3" t="s">
+        <v>2337</v>
+      </c>
+      <c r="B662" s="3" t="s">
+        <v>2349</v>
+      </c>
+      <c r="D662" s="4" t="s">
+        <v>2466</v>
+      </c>
+      <c r="E662" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="663" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A663" s="3" t="s">
+        <v>2337</v>
+      </c>
+      <c r="B663" s="3" t="s">
+        <v>2350</v>
+      </c>
+      <c r="D663" s="4" t="s">
+        <v>2467</v>
+      </c>
+      <c r="E663" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="664" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A664" s="3" t="s">
+        <v>2337</v>
+      </c>
+      <c r="B664" s="3" t="s">
+        <v>2351</v>
+      </c>
+      <c r="D664" s="4" t="s">
+        <v>2468</v>
+      </c>
+      <c r="E664" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="665" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A665" s="3" t="s">
+        <v>2337</v>
+      </c>
+      <c r="B665" s="3" t="s">
+        <v>2352</v>
+      </c>
+      <c r="D665" s="4" t="s">
+        <v>2469</v>
+      </c>
+      <c r="E665" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="666" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A666" s="3" t="s">
+        <v>2337</v>
+      </c>
+      <c r="B666" s="3" t="s">
+        <v>2353</v>
+      </c>
+      <c r="D666" s="4" t="s">
+        <v>2470</v>
+      </c>
+      <c r="E666" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="667" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A667" s="3" t="s">
+        <v>2337</v>
+      </c>
+      <c r="B667" s="3" t="s">
+        <v>2354</v>
+      </c>
+      <c r="D667" s="4" t="s">
+        <v>2471</v>
+      </c>
+      <c r="E667" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="668" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A668" s="3" t="s">
+        <v>2337</v>
+      </c>
+      <c r="B668" s="3" t="s">
+        <v>2355</v>
+      </c>
+      <c r="D668" s="4" t="s">
+        <v>2472</v>
+      </c>
+      <c r="E668" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="669" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A669" s="3" t="s">
+        <v>2337</v>
+      </c>
+      <c r="B669" s="3" t="s">
+        <v>2356</v>
+      </c>
+      <c r="D669" s="4" t="s">
+        <v>2473</v>
+      </c>
+      <c r="E669" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="670" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A670" s="3" t="s">
+        <v>2337</v>
+      </c>
+      <c r="B670" s="3" t="s">
+        <v>2357</v>
+      </c>
+      <c r="D670" s="4" t="s">
+        <v>2474</v>
+      </c>
+      <c r="E670" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="671" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A671" s="3" t="s">
+        <v>2337</v>
+      </c>
+      <c r="B671" s="3" t="s">
+        <v>2358</v>
+      </c>
+      <c r="D671" s="4" t="s">
+        <v>2475</v>
+      </c>
+      <c r="E671" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="672" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A672" s="3" t="s">
+        <v>2337</v>
+      </c>
+      <c r="B672" s="3" t="s">
+        <v>2359</v>
+      </c>
+      <c r="D672" s="4" t="s">
+        <v>2476</v>
+      </c>
+      <c r="E672" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="673" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A673" s="3" t="s">
+        <v>2337</v>
+      </c>
+      <c r="B673" s="3" t="s">
+        <v>2360</v>
+      </c>
+      <c r="D673" s="4" t="s">
+        <v>2477</v>
+      </c>
+      <c r="E673" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="674" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A674" s="3" t="s">
+        <v>2337</v>
+      </c>
+      <c r="B674" s="3" t="s">
+        <v>2361</v>
+      </c>
+      <c r="D674" s="4" t="s">
+        <v>2478</v>
+      </c>
+      <c r="E674" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="675" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A675" s="3" t="s">
+        <v>2337</v>
+      </c>
+      <c r="B675" s="3" t="s">
+        <v>2362</v>
+      </c>
+      <c r="D675" s="4" t="s">
+        <v>2479</v>
+      </c>
+      <c r="E675" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="676" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A676" s="3" t="s">
+        <v>2337</v>
+      </c>
+      <c r="B676" s="3" t="s">
+        <v>2363</v>
+      </c>
+      <c r="D676" s="4" t="s">
+        <v>2480</v>
+      </c>
+      <c r="E676" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="677" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A677" s="3" t="s">
+        <v>2337</v>
+      </c>
+      <c r="B677" s="3" t="s">
+        <v>2364</v>
+      </c>
+      <c r="D677" s="4" t="s">
+        <v>2481</v>
+      </c>
+      <c r="E677" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="678" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A678" s="3" t="s">
+        <v>2337</v>
+      </c>
+      <c r="B678" s="3" t="s">
+        <v>2365</v>
+      </c>
+      <c r="D678" s="4" t="s">
+        <v>2482</v>
+      </c>
+      <c r="E678" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="679" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A679" s="3" t="s">
+        <v>2337</v>
+      </c>
+      <c r="B679" s="3" t="s">
+        <v>2366</v>
+      </c>
+      <c r="D679" s="4" t="s">
+        <v>2483</v>
+      </c>
+      <c r="E679" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="680" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A680" s="3" t="s">
+        <v>2337</v>
+      </c>
+      <c r="B680" s="3" t="s">
+        <v>2367</v>
+      </c>
+      <c r="D680" s="4" t="s">
+        <v>2484</v>
+      </c>
+      <c r="E680" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="681" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A681" s="3" t="s">
+        <v>2337</v>
+      </c>
+      <c r="B681" s="3" t="s">
+        <v>2368</v>
+      </c>
+      <c r="D681" s="4" t="s">
+        <v>2485</v>
+      </c>
+      <c r="E681" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="682" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A682" s="3" t="s">
+        <v>2337</v>
+      </c>
+      <c r="B682" s="3" t="s">
+        <v>2369</v>
+      </c>
+      <c r="D682" s="4" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E682" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="683" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A683" s="3" t="s">
+        <v>2337</v>
+      </c>
+      <c r="B683" s="3" t="s">
+        <v>2370</v>
+      </c>
+      <c r="D683" s="4" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E683" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="684" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A684" s="3" t="s">
+        <v>2337</v>
+      </c>
+      <c r="B684" s="3" t="s">
+        <v>2371</v>
+      </c>
+      <c r="D684" s="4" t="s">
+        <v>2488</v>
+      </c>
+      <c r="E684" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="685" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A685" s="3" t="s">
+        <v>2337</v>
+      </c>
+      <c r="B685" s="3" t="s">
+        <v>2372</v>
+      </c>
+      <c r="D685" s="4" t="s">
+        <v>2489</v>
+      </c>
+      <c r="E685" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="686" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A686" s="3" t="s">
+        <v>2337</v>
+      </c>
+      <c r="B686" s="3" t="s">
+        <v>2373</v>
+      </c>
+      <c r="D686" s="4" t="s">
+        <v>2490</v>
+      </c>
+      <c r="E686" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="687" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A687" s="3" t="s">
+        <v>2337</v>
+      </c>
+      <c r="B687" s="3" t="s">
+        <v>2374</v>
+      </c>
+      <c r="D687" s="4" t="s">
+        <v>2491</v>
+      </c>
+      <c r="E687" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="688" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A688" s="3" t="s">
+        <v>2337</v>
+      </c>
+      <c r="B688" s="3" t="s">
+        <v>2375</v>
+      </c>
+      <c r="D688" s="4" t="s">
+        <v>2492</v>
+      </c>
+      <c r="E688" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="689" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A689" s="3" t="s">
+        <v>2337</v>
+      </c>
+      <c r="B689" s="3" t="s">
+        <v>2376</v>
+      </c>
+      <c r="D689" s="4" t="s">
+        <v>2493</v>
+      </c>
+      <c r="E689" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="690" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A690" s="3" t="s">
+        <v>2337</v>
+      </c>
+      <c r="B690" s="3" t="s">
+        <v>2377</v>
+      </c>
+      <c r="D690" s="4" t="s">
+        <v>2494</v>
+      </c>
+      <c r="E690" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="691" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A691" s="3" t="s">
+        <v>2337</v>
+      </c>
+      <c r="B691" s="3" t="s">
+        <v>2378</v>
+      </c>
+      <c r="D691" s="4" t="s">
+        <v>2495</v>
+      </c>
+      <c r="E691" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="692" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A692" s="3" t="s">
+        <v>2337</v>
+      </c>
+      <c r="B692" s="3" t="s">
+        <v>2379</v>
+      </c>
+      <c r="D692" s="4" t="s">
+        <v>2496</v>
+      </c>
+      <c r="E692" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="693" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A693" s="3" t="s">
+        <v>2337</v>
+      </c>
+      <c r="B693" s="3" t="s">
+        <v>2380</v>
+      </c>
+      <c r="D693" s="4" t="s">
+        <v>2497</v>
+      </c>
+      <c r="E693" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="694" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A694" s="3" t="s">
+        <v>2337</v>
+      </c>
+      <c r="B694" s="3" t="s">
+        <v>2381</v>
+      </c>
+      <c r="D694" s="4" t="s">
+        <v>2498</v>
+      </c>
+      <c r="E694" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="695" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A695" s="3" t="s">
+        <v>2337</v>
+      </c>
+      <c r="B695" s="3" t="s">
+        <v>2382</v>
+      </c>
+      <c r="D695" s="4" t="s">
+        <v>2499</v>
+      </c>
+      <c r="E695" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="696" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A696" s="3" t="s">
+        <v>2337</v>
+      </c>
+      <c r="B696" s="3" t="s">
+        <v>2383</v>
+      </c>
+      <c r="D696" s="4" t="s">
+        <v>2500</v>
+      </c>
+      <c r="E696" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="697" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A697" s="3" t="s">
+        <v>2337</v>
+      </c>
+      <c r="B697" s="3" t="s">
+        <v>2384</v>
+      </c>
+      <c r="D697" s="4" t="s">
+        <v>2501</v>
+      </c>
+      <c r="E697" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="698" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A698" s="3" t="s">
+        <v>2337</v>
+      </c>
+      <c r="B698" s="3" t="s">
+        <v>2385</v>
+      </c>
+      <c r="D698" s="4" t="s">
+        <v>2502</v>
+      </c>
+      <c r="E698" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="699" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A699" s="3" t="s">
+        <v>2337</v>
+      </c>
+      <c r="B699" s="3" t="s">
+        <v>2386</v>
+      </c>
+      <c r="D699" s="4" t="s">
+        <v>2503</v>
+      </c>
+      <c r="E699" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="700" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A700" s="3" t="s">
+        <v>2337</v>
+      </c>
+      <c r="B700" s="3" t="s">
+        <v>2387</v>
+      </c>
+      <c r="D700" s="13" t="s">
+        <v>2504</v>
+      </c>
+      <c r="E700" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="701" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A701" t="s">
+        <v>2388</v>
+      </c>
+      <c r="B701" s="3" t="s">
+        <v>2389</v>
+      </c>
+      <c r="D701" s="4" t="s">
+        <v>2505</v>
+      </c>
+      <c r="E701" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="702" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A702" t="s">
+        <v>2388</v>
+      </c>
+      <c r="B702" s="3" t="s">
+        <v>2390</v>
+      </c>
+      <c r="D702" s="4" t="s">
+        <v>2463</v>
+      </c>
+      <c r="E702" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="703" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A703" t="s">
+        <v>2388</v>
+      </c>
+      <c r="B703" s="3" t="s">
+        <v>2391</v>
+      </c>
+      <c r="D703" s="4" t="s">
+        <v>2506</v>
+      </c>
+      <c r="E703" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="704" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A704" t="s">
+        <v>2388</v>
+      </c>
+      <c r="B704" s="3" t="s">
+        <v>2392</v>
+      </c>
+      <c r="D704" s="4" t="s">
+        <v>2507</v>
+      </c>
+      <c r="E704" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="705" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A705" t="s">
+        <v>2388</v>
+      </c>
+      <c r="B705" s="3" t="s">
+        <v>2393</v>
+      </c>
+      <c r="D705" s="4" t="s">
+        <v>2508</v>
+      </c>
+      <c r="E705" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="706" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A706" t="s">
+        <v>2388</v>
+      </c>
+      <c r="B706" s="3" t="s">
+        <v>2394</v>
+      </c>
+      <c r="D706" s="4" t="s">
+        <v>2509</v>
+      </c>
+      <c r="E706" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="707" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A707" t="s">
+        <v>2388</v>
+      </c>
+      <c r="B707" s="3" t="s">
+        <v>2395</v>
+      </c>
+      <c r="D707" s="4" t="s">
+        <v>2510</v>
+      </c>
+      <c r="E707" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="708" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A708" t="s">
+        <v>2388</v>
+      </c>
+      <c r="B708" s="3" t="s">
+        <v>2396</v>
+      </c>
+      <c r="D708" s="4" t="s">
+        <v>2511</v>
+      </c>
+      <c r="E708" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="709" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A709" t="s">
+        <v>2388</v>
+      </c>
+      <c r="B709" s="3" t="s">
+        <v>2397</v>
+      </c>
+      <c r="D709" s="4" t="s">
+        <v>2512</v>
+      </c>
+      <c r="E709" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="710" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A710" t="s">
+        <v>2388</v>
+      </c>
+      <c r="B710" s="3" t="s">
+        <v>2398</v>
+      </c>
+      <c r="D710" s="4" t="s">
+        <v>2513</v>
+      </c>
+      <c r="E710" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="711" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A711" t="s">
+        <v>2388</v>
+      </c>
+      <c r="B711" s="3" t="s">
+        <v>2399</v>
+      </c>
+      <c r="D711" s="4" t="s">
+        <v>2514</v>
+      </c>
+      <c r="E711" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="712" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A712" t="s">
+        <v>2388</v>
+      </c>
+      <c r="B712" s="3" t="s">
+        <v>2400</v>
+      </c>
+      <c r="D712" s="4" t="s">
+        <v>2515</v>
+      </c>
+      <c r="E712" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="713" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A713" t="s">
+        <v>2388</v>
+      </c>
+      <c r="B713" s="3" t="s">
+        <v>2401</v>
+      </c>
+      <c r="D713" s="4" t="s">
+        <v>2516</v>
+      </c>
+      <c r="E713" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="714" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A714" t="s">
+        <v>2388</v>
+      </c>
+      <c r="B714" s="3" t="s">
+        <v>2402</v>
+      </c>
+      <c r="D714" s="4" t="s">
+        <v>2517</v>
+      </c>
+      <c r="E714" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="715" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A715" t="s">
+        <v>2388</v>
+      </c>
+      <c r="B715" s="3" t="s">
+        <v>2403</v>
+      </c>
+      <c r="D715" s="4" t="s">
+        <v>2518</v>
+      </c>
+      <c r="E715" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="716" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A716" t="s">
+        <v>2388</v>
+      </c>
+      <c r="B716" s="3" t="s">
+        <v>2404</v>
+      </c>
+      <c r="D716" s="4" t="s">
+        <v>2519</v>
+      </c>
+      <c r="E716" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="717" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A717" t="s">
+        <v>2388</v>
+      </c>
+      <c r="B717" s="3" t="s">
+        <v>2405</v>
+      </c>
+      <c r="D717" s="4" t="s">
+        <v>2520</v>
+      </c>
+      <c r="E717" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="718" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A718" t="s">
+        <v>2388</v>
+      </c>
+      <c r="B718" s="3" t="s">
+        <v>2406</v>
+      </c>
+      <c r="D718" s="4" t="s">
+        <v>2521</v>
+      </c>
+      <c r="E718" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="719" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A719" t="s">
+        <v>2388</v>
+      </c>
+      <c r="B719" s="3" t="s">
+        <v>2407</v>
+      </c>
+      <c r="D719" s="4" t="s">
+        <v>2522</v>
+      </c>
+      <c r="E719" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="720" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A720" t="s">
+        <v>2388</v>
+      </c>
+      <c r="B720" s="3" t="s">
+        <v>2408</v>
+      </c>
+      <c r="D720" s="4" t="s">
+        <v>2523</v>
+      </c>
+      <c r="E720" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="721" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A721" t="s">
+        <v>2388</v>
+      </c>
+      <c r="B721" s="3" t="s">
+        <v>2409</v>
+      </c>
+      <c r="D721" s="4" t="s">
+        <v>2524</v>
+      </c>
+      <c r="E721" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="722" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A722" t="s">
+        <v>2388</v>
+      </c>
+      <c r="B722" s="3" t="s">
+        <v>2410</v>
+      </c>
+      <c r="D722" s="4" t="s">
+        <v>2525</v>
+      </c>
+      <c r="E722" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="723" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A723" t="s">
+        <v>2388</v>
+      </c>
+      <c r="B723" s="3" t="s">
+        <v>2411</v>
+      </c>
+      <c r="D723" s="4" t="s">
+        <v>2526</v>
+      </c>
+      <c r="E723" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="724" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A724" t="s">
+        <v>2388</v>
+      </c>
+      <c r="B724" s="3" t="s">
+        <v>2412</v>
+      </c>
+      <c r="D724" s="4" t="s">
+        <v>2527</v>
+      </c>
+      <c r="E724" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="725" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A725" t="s">
+        <v>2388</v>
+      </c>
+      <c r="B725" s="3" t="s">
+        <v>2413</v>
+      </c>
+      <c r="D725" s="4" t="s">
+        <v>2528</v>
+      </c>
+      <c r="E725" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="726" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A726" t="s">
+        <v>2388</v>
+      </c>
+      <c r="B726" s="3" t="s">
+        <v>2414</v>
+      </c>
+      <c r="D726" s="4" t="s">
+        <v>2529</v>
+      </c>
+      <c r="E726" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="727" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A727" t="s">
+        <v>2388</v>
+      </c>
+      <c r="B727" s="3" t="s">
+        <v>2415</v>
+      </c>
+      <c r="D727" s="4" t="s">
+        <v>2530</v>
+      </c>
+      <c r="E727" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="728" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A728" t="s">
+        <v>2388</v>
+      </c>
+      <c r="B728" s="3" t="s">
+        <v>2416</v>
+      </c>
+      <c r="D728" s="4" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E728" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="729" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A729" t="s">
+        <v>2388</v>
+      </c>
+      <c r="B729" s="3" t="s">
+        <v>2417</v>
+      </c>
+      <c r="D729" s="4" t="s">
+        <v>2531</v>
+      </c>
+      <c r="E729" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="730" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A730" t="s">
+        <v>2388</v>
+      </c>
+      <c r="B730" s="3" t="s">
+        <v>2418</v>
+      </c>
+      <c r="D730" s="4" t="s">
+        <v>2532</v>
+      </c>
+      <c r="E730" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="731" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A731" t="s">
+        <v>2388</v>
+      </c>
+      <c r="B731" s="3" t="s">
+        <v>2419</v>
+      </c>
+      <c r="D731" s="4" t="s">
+        <v>2533</v>
+      </c>
+      <c r="E731" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="732" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A732" t="s">
+        <v>2388</v>
+      </c>
+      <c r="B732" s="3" t="s">
+        <v>2420</v>
+      </c>
+      <c r="D732" s="4" t="s">
+        <v>2534</v>
+      </c>
+      <c r="E732" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="733" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A733" t="s">
+        <v>2388</v>
+      </c>
+      <c r="B733" s="3" t="s">
+        <v>2421</v>
+      </c>
+      <c r="D733" s="4" t="s">
+        <v>2535</v>
+      </c>
+      <c r="E733" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="734" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A734" t="s">
+        <v>2388</v>
+      </c>
+      <c r="B734" s="3" t="s">
+        <v>2422</v>
+      </c>
+      <c r="D734" s="4" t="s">
+        <v>2536</v>
+      </c>
+      <c r="E734" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="735" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A735" t="s">
+        <v>2388</v>
+      </c>
+      <c r="B735" s="3" t="s">
+        <v>2423</v>
+      </c>
+      <c r="D735" s="4" t="s">
+        <v>2537</v>
+      </c>
+      <c r="E735" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="736" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A736" t="s">
+        <v>2388</v>
+      </c>
+      <c r="B736" s="3" t="s">
+        <v>2424</v>
+      </c>
+      <c r="D736" s="4" t="s">
+        <v>2538</v>
+      </c>
+      <c r="E736" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="737" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A737" t="s">
+        <v>2388</v>
+      </c>
+      <c r="B737" s="3" t="s">
+        <v>2425</v>
+      </c>
+      <c r="D737" s="4" t="s">
+        <v>2539</v>
+      </c>
+      <c r="E737" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="738" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A738" t="s">
+        <v>2388</v>
+      </c>
+      <c r="B738" s="3" t="s">
+        <v>2426</v>
+      </c>
+      <c r="D738" s="4" t="s">
+        <v>2540</v>
+      </c>
+      <c r="E738" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="739" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A739" t="s">
+        <v>2388</v>
+      </c>
+      <c r="B739" s="3" t="s">
+        <v>2427</v>
+      </c>
+      <c r="D739" s="4" t="s">
+        <v>2541</v>
+      </c>
+      <c r="E739" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="740" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A740" t="s">
+        <v>2388</v>
+      </c>
+      <c r="B740" s="3" t="s">
+        <v>2428</v>
+      </c>
+      <c r="D740" s="4" t="s">
+        <v>2542</v>
+      </c>
+      <c r="E740" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="741" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A741" t="s">
+        <v>2388</v>
+      </c>
+      <c r="B741" s="3" t="s">
+        <v>2429</v>
+      </c>
+      <c r="D741" s="4" t="s">
+        <v>2543</v>
+      </c>
+      <c r="E741" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="742" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A742" t="s">
+        <v>2388</v>
+      </c>
+      <c r="B742" s="3" t="s">
+        <v>2430</v>
+      </c>
+      <c r="D742" s="4" t="s">
+        <v>2544</v>
+      </c>
+      <c r="E742" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="743" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A743" t="s">
+        <v>2388</v>
+      </c>
+      <c r="B743" s="3" t="s">
+        <v>2431</v>
+      </c>
+      <c r="D743" s="4" t="s">
+        <v>2545</v>
+      </c>
+      <c r="E743" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="744" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A744" t="s">
+        <v>2388</v>
+      </c>
+      <c r="B744" s="3" t="s">
+        <v>2432</v>
+      </c>
+      <c r="D744" s="4" t="s">
+        <v>2546</v>
+      </c>
+      <c r="E744" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="745" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A745" t="s">
+        <v>2388</v>
+      </c>
+      <c r="B745" s="3" t="s">
+        <v>2433</v>
+      </c>
+      <c r="D745" s="4" t="s">
+        <v>2547</v>
+      </c>
+      <c r="E745" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="746" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A746" t="s">
+        <v>2388</v>
+      </c>
+      <c r="B746" s="3" t="s">
+        <v>2434</v>
+      </c>
+      <c r="D746" s="4" t="s">
+        <v>2548</v>
+      </c>
+      <c r="E746" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="747" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A747" t="s">
+        <v>2388</v>
+      </c>
+      <c r="B747" s="3" t="s">
+        <v>2435</v>
+      </c>
+      <c r="D747" s="4" t="s">
+        <v>2549</v>
+      </c>
+      <c r="E747" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="748" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A748" t="s">
+        <v>2388</v>
+      </c>
+      <c r="B748" s="3" t="s">
+        <v>2436</v>
+      </c>
+      <c r="D748" s="4" t="s">
+        <v>2550</v>
+      </c>
+      <c r="E748" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="749" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A749" t="s">
+        <v>2388</v>
+      </c>
+      <c r="B749" s="3" t="s">
+        <v>2437</v>
+      </c>
+      <c r="D749" s="4" t="s">
+        <v>2551</v>
+      </c>
+      <c r="E749" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="750" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A750" t="s">
+        <v>2388</v>
+      </c>
+      <c r="B750" s="3" t="s">
+        <v>2438</v>
+      </c>
+      <c r="D750" s="4" t="s">
+        <v>2552</v>
+      </c>
+      <c r="E750" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="751" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A751" t="s">
+        <v>2388</v>
+      </c>
+      <c r="B751" s="3" t="s">
+        <v>2439</v>
+      </c>
+      <c r="D751" s="4" t="s">
+        <v>2553</v>
+      </c>
+      <c r="E751" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="752" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A752" t="s">
+        <v>2388</v>
+      </c>
+      <c r="B752" s="3" t="s">
+        <v>2440</v>
+      </c>
+      <c r="D752" s="4" t="s">
+        <v>2554</v>
+      </c>
+      <c r="E752" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="753" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A753" t="s">
+        <v>2388</v>
+      </c>
+      <c r="B753" s="3" t="s">
+        <v>2441</v>
+      </c>
+      <c r="D753" s="4" t="s">
+        <v>2555</v>
+      </c>
+      <c r="E753" s="3" t="s">
+        <v>2010</v>
       </c>
     </row>
   </sheetData>

--- a/gdcdictionary/xlsx/nodes_schema_impowr.xlsx
+++ b/gdcdictionary/xlsx/nodes_schema_impowr.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vithal\Documents\GitHub\dcfdictionary\gdcdictionary\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36A16DDA-73B1-4CA2-8902-190362B93303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8098560F-7F05-45EF-8669-ED6F6DFF9736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4605" yWindow="435" windowWidth="26760" windowHeight="13155" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nodes_impowr" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8221" uniqueCount="2556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8349" uniqueCount="2622">
   <si>
     <t>&lt;$schema&gt;</t>
   </si>
@@ -7710,6 +7710,205 @@
   </si>
   <si>
     <t>During the past 6 months, how many days have you been in trouble with your probation or parole officer?</t>
+  </si>
+  <si>
+    <t>Primary Care PTSD Screening</t>
+  </si>
+  <si>
+    <t>pcptsdtraumayn</t>
+  </si>
+  <si>
+    <t>pcptsdthoughtyn</t>
+  </si>
+  <si>
+    <t>pcptavoidanceyn</t>
+  </si>
+  <si>
+    <t>pcptsdhypervigyn</t>
+  </si>
+  <si>
+    <t>pcptsddetachyn</t>
+  </si>
+  <si>
+    <t>pcptsdguiltyn</t>
+  </si>
+  <si>
+    <t>pcptsd5score</t>
+  </si>
+  <si>
+    <t>PTSD Supplemental (PCL-5)</t>
+  </si>
+  <si>
+    <t>pcl5rptdisturbmemoryscl</t>
+  </si>
+  <si>
+    <t>pcl5rptdisturbdreamsscl</t>
+  </si>
+  <si>
+    <t>pcl5suddenhappenagainscl</t>
+  </si>
+  <si>
+    <t>pcl5upsetremindscl</t>
+  </si>
+  <si>
+    <t>pcl5strngphysreactscl</t>
+  </si>
+  <si>
+    <t>pcl5avoidmemoryscl</t>
+  </si>
+  <si>
+    <t>pcl5avoidexternalrmndscl</t>
+  </si>
+  <si>
+    <t>pcl5trblremembimptscl</t>
+  </si>
+  <si>
+    <t>pcl5strngnegbeliefscl</t>
+  </si>
+  <si>
+    <t>pcl5blamingscl</t>
+  </si>
+  <si>
+    <t>pcl5strongnegfeelscl</t>
+  </si>
+  <si>
+    <t>pcl5lossintrstactivscl</t>
+  </si>
+  <si>
+    <t>pcl5feeldistantscl</t>
+  </si>
+  <si>
+    <t>pcl5trblexperposscl</t>
+  </si>
+  <si>
+    <t>pcl5irritbehavscl</t>
+  </si>
+  <si>
+    <t>pcl5takingriskscl</t>
+  </si>
+  <si>
+    <t>pcl5superalertscl</t>
+  </si>
+  <si>
+    <t>pcl5feelingjumpyscl</t>
+  </si>
+  <si>
+    <t>pcl5diffconcenscl</t>
+  </si>
+  <si>
+    <t>pcl5sleepdifcltyscl</t>
+  </si>
+  <si>
+    <t>pcl5totalscore</t>
+  </si>
+  <si>
+    <t>pcl5clusterbscore</t>
+  </si>
+  <si>
+    <t>pcl5clustercscoresymptom_cluster_c_score</t>
+  </si>
+  <si>
+    <t>pcl5clusterdscore</t>
+  </si>
+  <si>
+    <t>pcl5clusterescore</t>
+  </si>
+  <si>
+    <t>In the last month, have you had nightmares about the event(s) or thought about the event(s) when you did not want to?</t>
+  </si>
+  <si>
+    <t>In the last month, have you tried hard not to think about the event(s) or went out of your way to avoid situations that reminded you of the event(s)?</t>
+  </si>
+  <si>
+    <t>In the last month, have you been constantly on guard, watchful, or easily startled?</t>
+  </si>
+  <si>
+    <t>In the last month, have you felt numb or detached from people, activities, or your surroundings?</t>
+  </si>
+  <si>
+    <t>In the last month, have you felt guilty or unable to stop blaming yourself or others for the events(s) or any problems the event(s) may have caused?</t>
+  </si>
+  <si>
+    <t>Overall score</t>
+  </si>
+  <si>
+    <t>Repeated, disturbing dreams of the stressful experience?</t>
+  </si>
+  <si>
+    <t>Suddenly feeling or acting as if the stressful experience were actually happening again (as if you were actually back there reliving it)?</t>
+  </si>
+  <si>
+    <t>Feeling very upset when something reminded you of the stressful experience?</t>
+  </si>
+  <si>
+    <t>Having strong physical reactions when something reminded you of the stressful experience (for example, heart pounding, trouble breathing, sweating)?</t>
+  </si>
+  <si>
+    <t>Avoiding memories, thoughts, or feelings related to the stressful experience?</t>
+  </si>
+  <si>
+    <t>Avoiding external reminders of the stressful experience (for example, people, places, conversations, activities, objects, or situations)?</t>
+  </si>
+  <si>
+    <t>Trouble remembering important parts of the stressful experience?</t>
+  </si>
+  <si>
+    <t>Having strong negative beliefs about yourself, other people, or the world (for example, having thoughts such as: I am bad, there is something seriously wrong with me, no one can be trusted, the world is completely dangerous)?</t>
+  </si>
+  <si>
+    <t>Blaming yourself or someone else for the stressful experience or what happened after it?</t>
+  </si>
+  <si>
+    <t>Having strong negative feelings such as fear, horror, anger, guilt, or shame?</t>
+  </si>
+  <si>
+    <t>Loss of interest in activities that you used to enjoy?</t>
+  </si>
+  <si>
+    <t>Feeling distant or cut off from other people?</t>
+  </si>
+  <si>
+    <t>Trouble experiencing positive feelings (for example, being unable to feel happiness or have loving feelings for people close to you)?</t>
+  </si>
+  <si>
+    <t>Irritable behavior, angry outbursts, or acting aggressively?</t>
+  </si>
+  <si>
+    <t>Taking too many risks or doing things that could cause you harm?</t>
+  </si>
+  <si>
+    <t>Being "superalert" or watchful or on guard?</t>
+  </si>
+  <si>
+    <t>Feeling jumpy or easily startled?</t>
+  </si>
+  <si>
+    <t>Having difficulty concentrating?</t>
+  </si>
+  <si>
+    <t>Trouble falling or staying asleep?</t>
+  </si>
+  <si>
+    <t>Total symptom severity score</t>
+  </si>
+  <si>
+    <t>Symptom Cluster B Score</t>
+  </si>
+  <si>
+    <t>Symptom Cluster C Score</t>
+  </si>
+  <si>
+    <t>Symptom Cluster D Score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Symptom Cluster E Score
+</t>
+  </si>
+  <si>
+    <t>Sometimes things happen to people that are unusually or especially frightening, horrible, or traumatic...Have you ever experienced this kind of event?</t>
+  </si>
+  <si>
+    <t>In the past month, how much were you bothered by: Repeated, disturbing, and unwanted memories of the stressful experience?</t>
   </si>
 </sst>
 </file>
@@ -16577,10 +16776,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K753"/>
+  <dimension ref="A1:K785"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="E729" sqref="D729:E729"/>
+    <sheetView tabSelected="1" topLeftCell="A762" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="D785" sqref="D785"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27160,6 +27359,454 @@
       </c>
       <c r="E753" s="3" t="s">
         <v>2010</v>
+      </c>
+    </row>
+    <row r="754" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A754" s="3" t="s">
+        <v>2556</v>
+      </c>
+      <c r="B754" s="3" t="s">
+        <v>2557</v>
+      </c>
+      <c r="D754" s="4" t="s">
+        <v>2620</v>
+      </c>
+      <c r="E754" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="755" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A755" s="3" t="s">
+        <v>2556</v>
+      </c>
+      <c r="B755" s="3" t="s">
+        <v>2558</v>
+      </c>
+      <c r="D755" s="4" t="s">
+        <v>2590</v>
+      </c>
+      <c r="E755" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="756" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A756" s="3" t="s">
+        <v>2556</v>
+      </c>
+      <c r="B756" s="3" t="s">
+        <v>2559</v>
+      </c>
+      <c r="D756" s="4" t="s">
+        <v>2591</v>
+      </c>
+      <c r="E756" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="757" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A757" s="3" t="s">
+        <v>2556</v>
+      </c>
+      <c r="B757" s="3" t="s">
+        <v>2560</v>
+      </c>
+      <c r="D757" s="4" t="s">
+        <v>2592</v>
+      </c>
+      <c r="E757" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="758" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A758" s="3" t="s">
+        <v>2556</v>
+      </c>
+      <c r="B758" s="3" t="s">
+        <v>2561</v>
+      </c>
+      <c r="D758" s="4" t="s">
+        <v>2593</v>
+      </c>
+      <c r="E758" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="759" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A759" s="3" t="s">
+        <v>2556</v>
+      </c>
+      <c r="B759" s="3" t="s">
+        <v>2562</v>
+      </c>
+      <c r="D759" s="4" t="s">
+        <v>2594</v>
+      </c>
+      <c r="E759" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="760" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A760" s="3" t="s">
+        <v>2556</v>
+      </c>
+      <c r="B760" s="3" t="s">
+        <v>2563</v>
+      </c>
+      <c r="D760" s="4" t="s">
+        <v>2595</v>
+      </c>
+      <c r="E760" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="761" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A761" s="3" t="s">
+        <v>2564</v>
+      </c>
+      <c r="B761" s="3" t="s">
+        <v>2565</v>
+      </c>
+      <c r="D761" s="4" t="s">
+        <v>2621</v>
+      </c>
+      <c r="E761" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="762" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A762" s="3" t="s">
+        <v>2564</v>
+      </c>
+      <c r="B762" s="3" t="s">
+        <v>2566</v>
+      </c>
+      <c r="D762" s="4" t="s">
+        <v>2596</v>
+      </c>
+      <c r="E762" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="763" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A763" s="3" t="s">
+        <v>2564</v>
+      </c>
+      <c r="B763" s="3" t="s">
+        <v>2567</v>
+      </c>
+      <c r="D763" s="4" t="s">
+        <v>2597</v>
+      </c>
+      <c r="E763" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="764" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A764" s="3" t="s">
+        <v>2564</v>
+      </c>
+      <c r="B764" s="3" t="s">
+        <v>2568</v>
+      </c>
+      <c r="D764" s="4" t="s">
+        <v>2598</v>
+      </c>
+      <c r="E764" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="765" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A765" s="3" t="s">
+        <v>2564</v>
+      </c>
+      <c r="B765" s="3" t="s">
+        <v>2569</v>
+      </c>
+      <c r="D765" s="4" t="s">
+        <v>2599</v>
+      </c>
+      <c r="E765" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="766" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A766" s="3" t="s">
+        <v>2564</v>
+      </c>
+      <c r="B766" s="3" t="s">
+        <v>2570</v>
+      </c>
+      <c r="D766" s="4" t="s">
+        <v>2600</v>
+      </c>
+      <c r="E766" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="767" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A767" s="3" t="s">
+        <v>2564</v>
+      </c>
+      <c r="B767" s="3" t="s">
+        <v>2571</v>
+      </c>
+      <c r="D767" s="4" t="s">
+        <v>2601</v>
+      </c>
+      <c r="E767" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="768" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A768" s="3" t="s">
+        <v>2564</v>
+      </c>
+      <c r="B768" s="3" t="s">
+        <v>2572</v>
+      </c>
+      <c r="D768" s="4" t="s">
+        <v>2602</v>
+      </c>
+      <c r="E768" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="769" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A769" s="3" t="s">
+        <v>2564</v>
+      </c>
+      <c r="B769" s="3" t="s">
+        <v>2573</v>
+      </c>
+      <c r="D769" s="4" t="s">
+        <v>2603</v>
+      </c>
+      <c r="E769" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="770" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A770" s="3" t="s">
+        <v>2564</v>
+      </c>
+      <c r="B770" s="3" t="s">
+        <v>2574</v>
+      </c>
+      <c r="D770" s="4" t="s">
+        <v>2604</v>
+      </c>
+      <c r="E770" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="771" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A771" s="3" t="s">
+        <v>2564</v>
+      </c>
+      <c r="B771" s="3" t="s">
+        <v>2575</v>
+      </c>
+      <c r="D771" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="E771" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="772" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A772" s="3" t="s">
+        <v>2564</v>
+      </c>
+      <c r="B772" s="3" t="s">
+        <v>2576</v>
+      </c>
+      <c r="D772" s="4" t="s">
+        <v>2606</v>
+      </c>
+      <c r="E772" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="773" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A773" s="3" t="s">
+        <v>2564</v>
+      </c>
+      <c r="B773" s="3" t="s">
+        <v>2577</v>
+      </c>
+      <c r="D773" s="4" t="s">
+        <v>2607</v>
+      </c>
+      <c r="E773" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="774" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A774" s="3" t="s">
+        <v>2564</v>
+      </c>
+      <c r="B774" s="3" t="s">
+        <v>2578</v>
+      </c>
+      <c r="D774" s="4" t="s">
+        <v>2608</v>
+      </c>
+      <c r="E774" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="775" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A775" s="3" t="s">
+        <v>2564</v>
+      </c>
+      <c r="B775" s="3" t="s">
+        <v>2579</v>
+      </c>
+      <c r="D775" s="4" t="s">
+        <v>2609</v>
+      </c>
+      <c r="E775" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="776" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A776" s="3" t="s">
+        <v>2564</v>
+      </c>
+      <c r="B776" s="3" t="s">
+        <v>2580</v>
+      </c>
+      <c r="D776" s="4" t="s">
+        <v>2610</v>
+      </c>
+      <c r="E776" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="777" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A777" s="3" t="s">
+        <v>2564</v>
+      </c>
+      <c r="B777" s="3" t="s">
+        <v>2581</v>
+      </c>
+      <c r="D777" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="E777" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="778" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A778" s="3" t="s">
+        <v>2564</v>
+      </c>
+      <c r="B778" s="3" t="s">
+        <v>2582</v>
+      </c>
+      <c r="D778" s="4" t="s">
+        <v>2612</v>
+      </c>
+      <c r="E778" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="779" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A779" s="3" t="s">
+        <v>2564</v>
+      </c>
+      <c r="B779" s="3" t="s">
+        <v>2583</v>
+      </c>
+      <c r="D779" s="4" t="s">
+        <v>2613</v>
+      </c>
+      <c r="E779" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="780" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A780" s="3" t="s">
+        <v>2564</v>
+      </c>
+      <c r="B780" s="3" t="s">
+        <v>2584</v>
+      </c>
+      <c r="D780" s="4" t="s">
+        <v>2614</v>
+      </c>
+      <c r="E780" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="781" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A781" s="3" t="s">
+        <v>2564</v>
+      </c>
+      <c r="B781" s="3" t="s">
+        <v>2585</v>
+      </c>
+      <c r="D781" s="4" t="s">
+        <v>2615</v>
+      </c>
+      <c r="E781" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="782" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A782" s="3" t="s">
+        <v>2564</v>
+      </c>
+      <c r="B782" s="3" t="s">
+        <v>2586</v>
+      </c>
+      <c r="D782" s="4" t="s">
+        <v>2616</v>
+      </c>
+      <c r="E782" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="783" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A783" s="3" t="s">
+        <v>2564</v>
+      </c>
+      <c r="B783" s="3" t="s">
+        <v>2587</v>
+      </c>
+      <c r="D783" s="4" t="s">
+        <v>2617</v>
+      </c>
+      <c r="E783" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="784" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A784" s="3" t="s">
+        <v>2564</v>
+      </c>
+      <c r="B784" s="3" t="s">
+        <v>2588</v>
+      </c>
+      <c r="D784" s="4" t="s">
+        <v>2618</v>
+      </c>
+      <c r="E784" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="785" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A785" s="3" t="s">
+        <v>2564</v>
+      </c>
+      <c r="B785" s="3" t="s">
+        <v>2589</v>
+      </c>
+      <c r="D785" s="4" t="s">
+        <v>2619</v>
+      </c>
+      <c r="E785" s="3" t="s">
+        <v>1038</v>
       </c>
     </row>
   </sheetData>

--- a/gdcdictionary/xlsx/nodes_schema_impowr.xlsx
+++ b/gdcdictionary/xlsx/nodes_schema_impowr.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vithal\Documents\GitHub\dcfdictionary\gdcdictionary\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8098560F-7F05-45EF-8669-ED6F6DFF9736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ED0195F-A0BA-4575-A331-FECC6A3BF8D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4605" yWindow="435" windowWidth="26760" windowHeight="13155" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="540" yWindow="4905" windowWidth="26760" windowHeight="10500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nodes_impowr" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8349" uniqueCount="2622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8393" uniqueCount="2646">
   <si>
     <t>&lt;$schema&gt;</t>
   </si>
@@ -7909,6 +7909,81 @@
   </si>
   <si>
     <t>In the past month, how much were you bothered by: Repeated, disturbing, and unwanted memories of the stressful experience?</t>
+  </si>
+  <si>
+    <t>IMPOWR COVID Impact</t>
+  </si>
+  <si>
+    <t>covhad</t>
+  </si>
+  <si>
+    <t>covsx</t>
+  </si>
+  <si>
+    <t>covidcp</t>
+  </si>
+  <si>
+    <t>covoud</t>
+  </si>
+  <si>
+    <t>covcpaccess</t>
+  </si>
+  <si>
+    <t>covoudaccess</t>
+  </si>
+  <si>
+    <t>Supplemental COVID</t>
+  </si>
+  <si>
+    <t>covid19hlthaccessscl</t>
+  </si>
+  <si>
+    <t>covid19socsupptscl</t>
+  </si>
+  <si>
+    <t>covid19financescl</t>
+  </si>
+  <si>
+    <t>covid19meetbasicneedscl</t>
+  </si>
+  <si>
+    <t>covid19mentalhlthscl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Which of the following statements best describes your personal experience with the coronavirus/COVID-19? </t>
+  </si>
+  <si>
+    <t>If you think you had the coronavirus/COVID-19, which answers describe your personal experience?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opioid use/Opioid Use Disorder (OUD) </t>
+  </si>
+  <si>
+    <t>Opioid use/Opioid Use Disorder (OUD) treatment</t>
+  </si>
+  <si>
+    <t>Social support, or the support you get from others in your community</t>
+  </si>
+  <si>
+    <t>Finances (including income, savings, ability to pay bills)</t>
+  </si>
+  <si>
+    <t>Ability to meet your basic needs (including housing, food, essential supplies, transportation, childcare)</t>
+  </si>
+  <si>
+    <t>Mental and emotional health (including worry, stress, anxiety, depression, mood)</t>
+  </si>
+  <si>
+    <t>If the coronavirus/COVID-19 pandemic has affected your access to care, how has it impacted your access to care for:
+Chronic pain treatment</t>
+  </si>
+  <si>
+    <t>If the coronavirus/COVID-19 pandemic has affected your OUD or chronic pain, please described the impact of the pandemic has had on your symptoms/experience/treatment/management: 
+Chronic pain</t>
+  </si>
+  <si>
+    <t>Over the last 3 months, how has the coronavirus pandemic affected your… 
+Ability to get healthcare (including pain treatment, prescription and over-the-counter medications, medical and mental health visits, other treatments)</t>
   </si>
 </sst>
 </file>
@@ -16776,10 +16851,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K785"/>
+  <dimension ref="A1:K796"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A762" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="D785" sqref="D785"/>
+    <sheetView tabSelected="1" topLeftCell="A792" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="E786" sqref="E786:E796"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27807,6 +27882,160 @@
       </c>
       <c r="E785" s="3" t="s">
         <v>1038</v>
+      </c>
+    </row>
+    <row r="786" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A786" s="3" t="s">
+        <v>2622</v>
+      </c>
+      <c r="B786" s="3" t="s">
+        <v>2623</v>
+      </c>
+      <c r="D786" s="4" t="s">
+        <v>2635</v>
+      </c>
+      <c r="E786" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="787" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A787" s="3" t="s">
+        <v>2622</v>
+      </c>
+      <c r="B787" s="3" t="s">
+        <v>2624</v>
+      </c>
+      <c r="D787" s="4" t="s">
+        <v>2636</v>
+      </c>
+      <c r="E787" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="788" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A788" s="3" t="s">
+        <v>2622</v>
+      </c>
+      <c r="B788" s="3" t="s">
+        <v>2625</v>
+      </c>
+      <c r="D788" s="4" t="s">
+        <v>2644</v>
+      </c>
+      <c r="E788" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="789" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A789" s="3" t="s">
+        <v>2622</v>
+      </c>
+      <c r="B789" s="3" t="s">
+        <v>2626</v>
+      </c>
+      <c r="D789" s="4" t="s">
+        <v>2637</v>
+      </c>
+      <c r="E789" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="790" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A790" s="3" t="s">
+        <v>2622</v>
+      </c>
+      <c r="B790" s="3" t="s">
+        <v>2627</v>
+      </c>
+      <c r="D790" s="4" t="s">
+        <v>2643</v>
+      </c>
+      <c r="E790" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="791" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A791" s="3" t="s">
+        <v>2622</v>
+      </c>
+      <c r="B791" s="3" t="s">
+        <v>2628</v>
+      </c>
+      <c r="D791" s="4" t="s">
+        <v>2638</v>
+      </c>
+      <c r="E791" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="792" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A792" s="3" t="s">
+        <v>2629</v>
+      </c>
+      <c r="B792" s="3" t="s">
+        <v>2630</v>
+      </c>
+      <c r="D792" s="4" t="s">
+        <v>2645</v>
+      </c>
+      <c r="E792" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="793" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A793" s="3" t="s">
+        <v>2629</v>
+      </c>
+      <c r="B793" s="3" t="s">
+        <v>2631</v>
+      </c>
+      <c r="D793" s="4" t="s">
+        <v>2639</v>
+      </c>
+      <c r="E793" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="794" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A794" s="3" t="s">
+        <v>2629</v>
+      </c>
+      <c r="B794" s="3" t="s">
+        <v>2632</v>
+      </c>
+      <c r="D794" s="4" t="s">
+        <v>2640</v>
+      </c>
+      <c r="E794" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="795" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A795" s="3" t="s">
+        <v>2629</v>
+      </c>
+      <c r="B795" s="3" t="s">
+        <v>2633</v>
+      </c>
+      <c r="D795" s="4" t="s">
+        <v>2641</v>
+      </c>
+      <c r="E795" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="796" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A796" s="3" t="s">
+        <v>2629</v>
+      </c>
+      <c r="B796" s="3" t="s">
+        <v>2634</v>
+      </c>
+      <c r="D796" s="4" t="s">
+        <v>2642</v>
+      </c>
+      <c r="E796" s="3" t="s">
+        <v>1037</v>
       </c>
     </row>
   </sheetData>

--- a/gdcdictionary/xlsx/nodes_schema_impowr.xlsx
+++ b/gdcdictionary/xlsx/nodes_schema_impowr.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vithal\Documents\GitHub\dcfdictionary\gdcdictionary\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ED0195F-A0BA-4575-A331-FECC6A3BF8D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA9D4896-3027-4374-B722-99FADE630311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="4905" windowWidth="26760" windowHeight="10500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1065" yWindow="1380" windowWidth="26760" windowHeight="10995" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nodes_impowr" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8393" uniqueCount="2646">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8565" uniqueCount="2733">
   <si>
     <t>&lt;$schema&gt;</t>
   </si>
@@ -7984,6 +7984,273 @@
   <si>
     <t>Over the last 3 months, how has the coronavirus pandemic affected your… 
 Ability to get healthcare (including pain treatment, prescription and over-the-counter medications, medical and mental health visits, other treatments)</t>
+  </si>
+  <si>
+    <t>IMPOWR Perceived Discrimination</t>
+  </si>
+  <si>
+    <t>pds1</t>
+  </si>
+  <si>
+    <t>pds2</t>
+  </si>
+  <si>
+    <t>pds3</t>
+  </si>
+  <si>
+    <t>pds4</t>
+  </si>
+  <si>
+    <t>Substance Use Stigma Mechanism Scale (SUSMS)</t>
+  </si>
+  <si>
+    <t>susms01paindiscrim</t>
+  </si>
+  <si>
+    <t>susms02alcoholdiscrim</t>
+  </si>
+  <si>
+    <t>susms_enfamtrust</t>
+  </si>
+  <si>
+    <t>susms_enlookdown</t>
+  </si>
+  <si>
+    <t>susms_entreatdifferent</t>
+  </si>
+  <si>
+    <t>susms_ennotlisten</t>
+  </si>
+  <si>
+    <t>susms_enpillshop</t>
+  </si>
+  <si>
+    <t>susms_enpoorcare</t>
+  </si>
+  <si>
+    <t>susms_antfamtrust</t>
+  </si>
+  <si>
+    <t>susms_antlookdown</t>
+  </si>
+  <si>
+    <t>susms_anttreatdifferent</t>
+  </si>
+  <si>
+    <t>susms_antnotlisten</t>
+  </si>
+  <si>
+    <t>susms_antpillshop</t>
+  </si>
+  <si>
+    <t>susms_antpoorcare</t>
+  </si>
+  <si>
+    <t>susms_badperson</t>
+  </si>
+  <si>
+    <t>susms_notasgood</t>
+  </si>
+  <si>
+    <t>susms_ashamed</t>
+  </si>
+  <si>
+    <t>susms_thinkless</t>
+  </si>
+  <si>
+    <t>susms_duepain</t>
+  </si>
+  <si>
+    <t>susms_duealcohol</t>
+  </si>
+  <si>
+    <t>susms_total</t>
+  </si>
+  <si>
+    <t>susms_enacted</t>
+  </si>
+  <si>
+    <t>susms_anticipated</t>
+  </si>
+  <si>
+    <t>susms_internalized</t>
+  </si>
+  <si>
+    <t>Supplemental IMPOWR Stigma/Discrimination</t>
+  </si>
+  <si>
+    <t>stigpoorcharacter</t>
+  </si>
+  <si>
+    <t>stigshouldashamed</t>
+  </si>
+  <si>
+    <t>stigdeserve</t>
+  </si>
+  <si>
+    <t>stiguntrustworthy</t>
+  </si>
+  <si>
+    <t>stiginferior</t>
+  </si>
+  <si>
+    <t>stigoutofplace</t>
+  </si>
+  <si>
+    <t>stigscreweduplife</t>
+  </si>
+  <si>
+    <t>stigfeelashamed</t>
+  </si>
+  <si>
+    <t>suptxrecdyn</t>
+  </si>
+  <si>
+    <t>suptxorganized</t>
+  </si>
+  <si>
+    <t>suptxsatisfied</t>
+  </si>
+  <si>
+    <t>suptxefficient</t>
+  </si>
+  <si>
+    <t>suptxperscounsel</t>
+  </si>
+  <si>
+    <t>suptxmedoud</t>
+  </si>
+  <si>
+    <t>suptxoverall</t>
+  </si>
+  <si>
+    <t>your sexual orientation (for example, gay, lesbian, bisexual) or gender identity (for example, feeling that you are a different gender than your gender at birth)?</t>
+  </si>
+  <si>
+    <t>your chronic pain?</t>
+  </si>
+  <si>
+    <t>your opioid use disorder or opioid use?</t>
+  </si>
+  <si>
+    <t>Have you been discriminated against, prevented from doing something, hassled or made to feel inferior because of your chronic pain?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Have you been discriminated against, prevented from doing something, hassled or made to feel inferior because of your opioid, alcohol, or other drug use?  </t>
+  </si>
+  <si>
+    <t>Family members have looked down on me</t>
+  </si>
+  <si>
+    <t>Family members have treated me differently</t>
+  </si>
+  <si>
+    <t>Healthcare workers have not listened to my concerns</t>
+  </si>
+  <si>
+    <t>Healthcare workers have thought that I'm pill shopping, or trying to con them into giving me prescription medications to get high or sell</t>
+  </si>
+  <si>
+    <t>Healthcare workers have given me poor care</t>
+  </si>
+  <si>
+    <t>Family members will look down on me.</t>
+  </si>
+  <si>
+    <t>Family members will treat me differently.</t>
+  </si>
+  <si>
+    <t>Healthcare workers will not listen to my concerns.</t>
+  </si>
+  <si>
+    <t>Healthcare workers will think that I'm pill shopping, or trying to con them into giving me prescription medications to get high or sell.</t>
+  </si>
+  <si>
+    <t>Healthcare workers will give me poor care.</t>
+  </si>
+  <si>
+    <t>I feel I'm not as good as others.</t>
+  </si>
+  <si>
+    <t>I feel ashamed.</t>
+  </si>
+  <si>
+    <t>I think less of myself.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> For the experiences above please indicate how much your experiences are due to history of chronic pain. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">For the experiences above please indicate how much your experiences are due to alcohol/drug use history. </t>
+  </si>
+  <si>
+    <t>Subscale Enacted Stigma</t>
+  </si>
+  <si>
+    <t>Subscale Anticipated Stigma</t>
+  </si>
+  <si>
+    <t>Subscale Internalized Stigma</t>
+  </si>
+  <si>
+    <t>I have the thought that I should be ashamed of myself.</t>
+  </si>
+  <si>
+    <t>I have the thought that I deserve the bad things that have happened to me.</t>
+  </si>
+  <si>
+    <t>I have the thought that I can't be trusted.</t>
+  </si>
+  <si>
+    <t>I feel inferior to people who have never had a problem with substances.</t>
+  </si>
+  <si>
+    <t>I feel out of place in the world because of my problems with substances.</t>
+  </si>
+  <si>
+    <t>I have the thought that I've permanently screwed up my life by using drugs.</t>
+  </si>
+  <si>
+    <t>I feel ashamed of myself.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Have you received any substance use treatment in the past 90 days (since last assessment)?  </t>
+  </si>
+  <si>
+    <t>You are satisfied with this provider</t>
+  </si>
+  <si>
+    <t>The staff are efficient at doing their job</t>
+  </si>
+  <si>
+    <t>You can get plenty of personal counseling at this provider</t>
+  </si>
+  <si>
+    <t>You can get plenty of medication assistance for opioid use at this provider</t>
+  </si>
+  <si>
+    <t>How often have you been discriminated against, prevented from doing something, or hassled or made to feel inferior because of …
+your race, ethnicity, or skin color?</t>
+  </si>
+  <si>
+    <t>How often have people treated you this way in the past because of your chronic pain or alcohol/drug use history (including prescription pain medication)?
+Family members have thought that I cannot be trusted</t>
+  </si>
+  <si>
+    <t>How likely is it that people will treat you in the following ways in the future because of your chronic pain and/or alcohol/drug use history (including prescription pain medication)?
+Family members will think that I cannot be trusted.</t>
+  </si>
+  <si>
+    <t>How do you feel about your chronic pain and/or alcohol/drug use history (including prescription pain medication)?..
+Experiences of chronic pain or having used alcohol/drugs makes me feel like I'm a bad person.</t>
+  </si>
+  <si>
+    <t>As you see it now, please rate how often you have the thoughts or experiences listed below. Use the scale below to make your choice…
+I have the thought that a major reason for my problems with substances is my own poor character.</t>
+  </si>
+  <si>
+    <t>Considering the substance use treatment from your most recent substance treatment provider in the past 90 days (since your last assessment), please indicate how much you agree with each of the following statements…
+The provider is organized and well-run</t>
   </si>
 </sst>
 </file>
@@ -8454,7 +8721,7 @@
   <dimension ref="A1:Y123"/>
   <sheetViews>
     <sheetView zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
@@ -16851,15 +17118,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K796"/>
+  <dimension ref="A1:K839"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A792" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="E786" sqref="E786:E796"/>
+    <sheetView tabSelected="1" topLeftCell="A825" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="E839" sqref="E839"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="46" customWidth="1"/>
     <col min="4" max="4" width="99.5703125" style="9" customWidth="1"/>
@@ -28036,6 +28303,608 @@
       </c>
       <c r="E796" s="3" t="s">
         <v>1037</v>
+      </c>
+    </row>
+    <row r="797" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A797" s="3" t="s">
+        <v>2646</v>
+      </c>
+      <c r="B797" s="3" t="s">
+        <v>2647</v>
+      </c>
+      <c r="D797" s="4" t="s">
+        <v>2727</v>
+      </c>
+      <c r="E797" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="798" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A798" s="3" t="s">
+        <v>2646</v>
+      </c>
+      <c r="B798" s="3" t="s">
+        <v>2648</v>
+      </c>
+      <c r="D798" s="4" t="s">
+        <v>2692</v>
+      </c>
+      <c r="E798" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="799" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A799" s="3" t="s">
+        <v>2646</v>
+      </c>
+      <c r="B799" s="3" t="s">
+        <v>2649</v>
+      </c>
+      <c r="D799" s="4" t="s">
+        <v>2693</v>
+      </c>
+      <c r="E799" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="800" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A800" s="3" t="s">
+        <v>2646</v>
+      </c>
+      <c r="B800" s="3" t="s">
+        <v>2650</v>
+      </c>
+      <c r="D800" s="4" t="s">
+        <v>2694</v>
+      </c>
+      <c r="E800" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="801" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A801" s="3" t="s">
+        <v>2651</v>
+      </c>
+      <c r="B801" s="3" t="s">
+        <v>2652</v>
+      </c>
+      <c r="D801" s="4" t="s">
+        <v>2695</v>
+      </c>
+      <c r="E801" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="802" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A802" s="3" t="s">
+        <v>2651</v>
+      </c>
+      <c r="B802" s="3" t="s">
+        <v>2653</v>
+      </c>
+      <c r="D802" s="4" t="s">
+        <v>2696</v>
+      </c>
+      <c r="E802" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="803" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A803" s="3" t="s">
+        <v>2651</v>
+      </c>
+      <c r="B803" s="3" t="s">
+        <v>2654</v>
+      </c>
+      <c r="D803" s="4" t="s">
+        <v>2728</v>
+      </c>
+      <c r="E803" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="804" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A804" s="3" t="s">
+        <v>2651</v>
+      </c>
+      <c r="B804" s="3" t="s">
+        <v>2655</v>
+      </c>
+      <c r="D804" s="4" t="s">
+        <v>2697</v>
+      </c>
+      <c r="E804" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="805" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A805" s="3" t="s">
+        <v>2651</v>
+      </c>
+      <c r="B805" s="3" t="s">
+        <v>2656</v>
+      </c>
+      <c r="D805" s="4" t="s">
+        <v>2698</v>
+      </c>
+      <c r="E805" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="806" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A806" s="3" t="s">
+        <v>2651</v>
+      </c>
+      <c r="B806" s="3" t="s">
+        <v>2657</v>
+      </c>
+      <c r="D806" s="4" t="s">
+        <v>2699</v>
+      </c>
+      <c r="E806" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="807" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A807" s="3" t="s">
+        <v>2651</v>
+      </c>
+      <c r="B807" s="3" t="s">
+        <v>2658</v>
+      </c>
+      <c r="D807" s="4" t="s">
+        <v>2700</v>
+      </c>
+      <c r="E807" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="808" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A808" s="3" t="s">
+        <v>2651</v>
+      </c>
+      <c r="B808" s="3" t="s">
+        <v>2659</v>
+      </c>
+      <c r="D808" s="4" t="s">
+        <v>2701</v>
+      </c>
+      <c r="E808" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="809" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A809" s="3" t="s">
+        <v>2651</v>
+      </c>
+      <c r="B809" s="3" t="s">
+        <v>2660</v>
+      </c>
+      <c r="D809" s="4" t="s">
+        <v>2729</v>
+      </c>
+      <c r="E809" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="810" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A810" s="3" t="s">
+        <v>2651</v>
+      </c>
+      <c r="B810" s="3" t="s">
+        <v>2661</v>
+      </c>
+      <c r="D810" s="4" t="s">
+        <v>2702</v>
+      </c>
+      <c r="E810" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="811" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A811" s="3" t="s">
+        <v>2651</v>
+      </c>
+      <c r="B811" s="3" t="s">
+        <v>2662</v>
+      </c>
+      <c r="D811" s="4" t="s">
+        <v>2703</v>
+      </c>
+      <c r="E811" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="812" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A812" s="3" t="s">
+        <v>2651</v>
+      </c>
+      <c r="B812" s="3" t="s">
+        <v>2663</v>
+      </c>
+      <c r="D812" s="4" t="s">
+        <v>2704</v>
+      </c>
+      <c r="E812" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="813" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A813" s="3" t="s">
+        <v>2651</v>
+      </c>
+      <c r="B813" s="3" t="s">
+        <v>2664</v>
+      </c>
+      <c r="D813" s="4" t="s">
+        <v>2705</v>
+      </c>
+      <c r="E813" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="814" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A814" s="3" t="s">
+        <v>2651</v>
+      </c>
+      <c r="B814" s="3" t="s">
+        <v>2665</v>
+      </c>
+      <c r="D814" s="4" t="s">
+        <v>2706</v>
+      </c>
+      <c r="E814" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="815" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A815" s="3" t="s">
+        <v>2651</v>
+      </c>
+      <c r="B815" s="3" t="s">
+        <v>2666</v>
+      </c>
+      <c r="D815" s="4" t="s">
+        <v>2730</v>
+      </c>
+      <c r="E815" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="816" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A816" s="3" t="s">
+        <v>2651</v>
+      </c>
+      <c r="B816" s="3" t="s">
+        <v>2667</v>
+      </c>
+      <c r="D816" s="4" t="s">
+        <v>2707</v>
+      </c>
+      <c r="E816" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="817" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A817" s="3" t="s">
+        <v>2651</v>
+      </c>
+      <c r="B817" s="3" t="s">
+        <v>2668</v>
+      </c>
+      <c r="D817" s="4" t="s">
+        <v>2708</v>
+      </c>
+      <c r="E817" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="818" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A818" s="3" t="s">
+        <v>2651</v>
+      </c>
+      <c r="B818" s="3" t="s">
+        <v>2669</v>
+      </c>
+      <c r="D818" s="4" t="s">
+        <v>2709</v>
+      </c>
+      <c r="E818" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="819" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A819" s="3" t="s">
+        <v>2651</v>
+      </c>
+      <c r="B819" s="3" t="s">
+        <v>2670</v>
+      </c>
+      <c r="D819" s="4" t="s">
+        <v>2710</v>
+      </c>
+      <c r="E819" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="820" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A820" s="3" t="s">
+        <v>2651</v>
+      </c>
+      <c r="B820" s="3" t="s">
+        <v>2671</v>
+      </c>
+      <c r="D820" s="4" t="s">
+        <v>2711</v>
+      </c>
+      <c r="E820" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="821" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A821" s="3" t="s">
+        <v>2651</v>
+      </c>
+      <c r="B821" s="3" t="s">
+        <v>2672</v>
+      </c>
+      <c r="D821" s="4" t="s">
+        <v>2124</v>
+      </c>
+      <c r="E821" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="822" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A822" s="3" t="s">
+        <v>2651</v>
+      </c>
+      <c r="B822" s="3" t="s">
+        <v>2673</v>
+      </c>
+      <c r="D822" s="4" t="s">
+        <v>2712</v>
+      </c>
+      <c r="E822" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="823" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A823" s="3" t="s">
+        <v>2651</v>
+      </c>
+      <c r="B823" s="3" t="s">
+        <v>2674</v>
+      </c>
+      <c r="D823" s="4" t="s">
+        <v>2713</v>
+      </c>
+      <c r="E823" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="824" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A824" s="3" t="s">
+        <v>2651</v>
+      </c>
+      <c r="B824" s="3" t="s">
+        <v>2675</v>
+      </c>
+      <c r="D824" s="4" t="s">
+        <v>2714</v>
+      </c>
+      <c r="E824" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="825" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A825" t="s">
+        <v>2676</v>
+      </c>
+      <c r="B825" s="3" t="s">
+        <v>2677</v>
+      </c>
+      <c r="D825" s="4" t="s">
+        <v>2731</v>
+      </c>
+      <c r="E825" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="826" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A826" t="s">
+        <v>2676</v>
+      </c>
+      <c r="B826" s="3" t="s">
+        <v>2678</v>
+      </c>
+      <c r="D826" s="4" t="s">
+        <v>2715</v>
+      </c>
+      <c r="E826" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="827" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A827" t="s">
+        <v>2676</v>
+      </c>
+      <c r="B827" s="3" t="s">
+        <v>2679</v>
+      </c>
+      <c r="D827" s="4" t="s">
+        <v>2716</v>
+      </c>
+      <c r="E827" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="828" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A828" t="s">
+        <v>2676</v>
+      </c>
+      <c r="B828" s="3" t="s">
+        <v>2680</v>
+      </c>
+      <c r="D828" s="4" t="s">
+        <v>2717</v>
+      </c>
+      <c r="E828" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="829" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A829" t="s">
+        <v>2676</v>
+      </c>
+      <c r="B829" s="3" t="s">
+        <v>2681</v>
+      </c>
+      <c r="D829" s="4" t="s">
+        <v>2718</v>
+      </c>
+      <c r="E829" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="830" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A830" t="s">
+        <v>2676</v>
+      </c>
+      <c r="B830" s="3" t="s">
+        <v>2682</v>
+      </c>
+      <c r="D830" s="4" t="s">
+        <v>2719</v>
+      </c>
+      <c r="E830" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="831" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A831" t="s">
+        <v>2676</v>
+      </c>
+      <c r="B831" s="3" t="s">
+        <v>2683</v>
+      </c>
+      <c r="D831" s="4" t="s">
+        <v>2720</v>
+      </c>
+      <c r="E831" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="832" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A832" t="s">
+        <v>2676</v>
+      </c>
+      <c r="B832" s="3" t="s">
+        <v>2684</v>
+      </c>
+      <c r="D832" s="4" t="s">
+        <v>2721</v>
+      </c>
+      <c r="E832" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="833" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A833" t="s">
+        <v>2676</v>
+      </c>
+      <c r="B833" s="3" t="s">
+        <v>2685</v>
+      </c>
+      <c r="D833" s="4" t="s">
+        <v>2722</v>
+      </c>
+      <c r="E833" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="834" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A834" t="s">
+        <v>2676</v>
+      </c>
+      <c r="B834" s="3" t="s">
+        <v>2686</v>
+      </c>
+      <c r="D834" s="4" t="s">
+        <v>2732</v>
+      </c>
+      <c r="E834" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="835" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A835" t="s">
+        <v>2676</v>
+      </c>
+      <c r="B835" s="3" t="s">
+        <v>2687</v>
+      </c>
+      <c r="D835" s="4" t="s">
+        <v>2723</v>
+      </c>
+      <c r="E835" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="836" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A836" t="s">
+        <v>2676</v>
+      </c>
+      <c r="B836" s="3" t="s">
+        <v>2688</v>
+      </c>
+      <c r="D836" s="4" t="s">
+        <v>2724</v>
+      </c>
+      <c r="E836" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="837" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A837" t="s">
+        <v>2676</v>
+      </c>
+      <c r="B837" s="3" t="s">
+        <v>2689</v>
+      </c>
+      <c r="D837" s="4" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E837" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="838" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A838" t="s">
+        <v>2676</v>
+      </c>
+      <c r="B838" s="3" t="s">
+        <v>2690</v>
+      </c>
+      <c r="D838" s="4" t="s">
+        <v>2726</v>
+      </c>
+      <c r="E838" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="839" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A839" t="s">
+        <v>2676</v>
+      </c>
+      <c r="B839" s="3" t="s">
+        <v>2691</v>
+      </c>
+      <c r="D839" s="4" t="s">
+        <v>2595</v>
+      </c>
+      <c r="E839" s="3" t="s">
+        <v>1038</v>
       </c>
     </row>
   </sheetData>

--- a/gdcdictionary/xlsx/nodes_schema_impowr.xlsx
+++ b/gdcdictionary/xlsx/nodes_schema_impowr.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vithal\Documents\GitHub\dcfdictionary\gdcdictionary\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA9D4896-3027-4374-B722-99FADE630311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16C4B56C-47EA-4579-A20C-E2D5C2E3710D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1065" yWindow="1380" windowWidth="26760" windowHeight="10995" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="705" yWindow="1950" windowWidth="26760" windowHeight="11355" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nodes_impowr" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8565" uniqueCount="2733">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8896" uniqueCount="2876">
   <si>
     <t>&lt;$schema&gt;</t>
   </si>
@@ -8251,6 +8251,442 @@
   <si>
     <t>Considering the substance use treatment from your most recent substance treatment provider in the past 90 days (since your last assessment), please indicate how much you agree with each of the following statements…
 The provider is organized and well-run</t>
+  </si>
+  <si>
+    <t>Patient Satisfaction Survey</t>
+  </si>
+  <si>
+    <t>bpscliniccomfort</t>
+  </si>
+  <si>
+    <t>bpsclinicqualcare</t>
+  </si>
+  <si>
+    <t>bpscliniclocation</t>
+  </si>
+  <si>
+    <t>bpsstaffunderstand</t>
+  </si>
+  <si>
+    <t>bpsstaffknowledge</t>
+  </si>
+  <si>
+    <t>bpsstaffinteresthelp</t>
+  </si>
+  <si>
+    <t>bpsrecommend</t>
+  </si>
+  <si>
+    <t>bpssvchelped</t>
+  </si>
+  <si>
+    <t>bpshlpmeds</t>
+  </si>
+  <si>
+    <t>bpshlptalkmd</t>
+  </si>
+  <si>
+    <t>bpshlptalksocial</t>
+  </si>
+  <si>
+    <t>bpshlptreatpatient</t>
+  </si>
+  <si>
+    <t>bpshlprefna</t>
+  </si>
+  <si>
+    <t>bpshlpmondrguse</t>
+  </si>
+  <si>
+    <t>bpsstaffresponsive</t>
+  </si>
+  <si>
+    <t>bpsstaffconcern</t>
+  </si>
+  <si>
+    <t>bpslikemosttxt</t>
+  </si>
+  <si>
+    <t>bpslikeleasttxt</t>
+  </si>
+  <si>
+    <t>bpssatisftreatment</t>
+  </si>
+  <si>
+    <t>bpspatientinteraction</t>
+  </si>
+  <si>
+    <t>overall_patient_satsifaction_score</t>
+  </si>
+  <si>
+    <t>AIM/IAM/FIM</t>
+  </si>
+  <si>
+    <t>aimapproval</t>
+  </si>
+  <si>
+    <t>aimappealing</t>
+  </si>
+  <si>
+    <t>aimlike</t>
+  </si>
+  <si>
+    <t>aimwelcome</t>
+  </si>
+  <si>
+    <t>iamfitting</t>
+  </si>
+  <si>
+    <t>iamsuitable</t>
+  </si>
+  <si>
+    <t>iamapplicable</t>
+  </si>
+  <si>
+    <t>iammatch</t>
+  </si>
+  <si>
+    <t>fimimplementable</t>
+  </si>
+  <si>
+    <t>fimplausible</t>
+  </si>
+  <si>
+    <t>fimdoable</t>
+  </si>
+  <si>
+    <t>fimeasy</t>
+  </si>
+  <si>
+    <t>aimscore</t>
+  </si>
+  <si>
+    <t>iamscore</t>
+  </si>
+  <si>
+    <t>fimscore</t>
+  </si>
+  <si>
+    <t>sdmunderstand</t>
+  </si>
+  <si>
+    <t>sdmlisten</t>
+  </si>
+  <si>
+    <t>sdminclude</t>
+  </si>
+  <si>
+    <t>sdmscore</t>
+  </si>
+  <si>
+    <t>Readiness for Organizational Change</t>
+  </si>
+  <si>
+    <t>roc_orgbenefit</t>
+  </si>
+  <si>
+    <t>roc_notsense</t>
+  </si>
+  <si>
+    <t>roc_legitimate</t>
+  </si>
+  <si>
+    <t>roc_efficiency</t>
+  </si>
+  <si>
+    <t>roc_rational</t>
+  </si>
+  <si>
+    <t>roc_worthwhile</t>
+  </si>
+  <si>
+    <t>roc_easier</t>
+  </si>
+  <si>
+    <t>roc_notgain</t>
+  </si>
+  <si>
+    <t>roc_timeelse</t>
+  </si>
+  <si>
+    <t>roc_orgpriorities</t>
+  </si>
+  <si>
+    <t>roc_leaderencourage</t>
+  </si>
+  <si>
+    <t>roc_dmsupport</t>
+  </si>
+  <si>
+    <t>roc_srmgrsupport</t>
+  </si>
+  <si>
+    <t>roc_srcommitted</t>
+  </si>
+  <si>
+    <t>roc_mgrdonotwant</t>
+  </si>
+  <si>
+    <t>roc_signal</t>
+  </si>
+  <si>
+    <t>roc_noproblem</t>
+  </si>
+  <si>
+    <t>roc_tasks</t>
+  </si>
+  <si>
+    <t>roc_handle</t>
+  </si>
+  <si>
+    <t>roc_skills</t>
+  </si>
+  <si>
+    <t>roc_learn</t>
+  </si>
+  <si>
+    <t>roc_confident</t>
+  </si>
+  <si>
+    <t>roc_status</t>
+  </si>
+  <si>
+    <t>roc_personal</t>
+  </si>
+  <si>
+    <t>roc_future</t>
+  </si>
+  <si>
+    <t>roc_appropriateness</t>
+  </si>
+  <si>
+    <t>roc_managementsuppt</t>
+  </si>
+  <si>
+    <t>roc_changeefficacy</t>
+  </si>
+  <si>
+    <t>roc_personalbenefit</t>
+  </si>
+  <si>
+    <t>roc_overall</t>
+  </si>
+  <si>
+    <t>Quality of care</t>
+  </si>
+  <si>
+    <t>Convenience of location</t>
+  </si>
+  <si>
+    <t>How well do the clinical staff seem to understand your problems with pain [and opioid use disorder]?</t>
+  </si>
+  <si>
+    <t>How competent and knowledgeable do the clinical staff seem to be about treating your pain [and opioid use disorder]?</t>
+  </si>
+  <si>
+    <t>How interested is the clinical staff in helping you with your pain [and opioid use disorder]?</t>
+  </si>
+  <si>
+    <t>If a friend needed similar treatment for pain and opioid use disorder, would you recommend this clinic to them?</t>
+  </si>
+  <si>
+    <t>Have the services you received helped you deal more effectively with your pain and opioid use disorder?</t>
+  </si>
+  <si>
+    <t>Talking about problems with the [doctor]</t>
+  </si>
+  <si>
+    <t>Talking about problems with the [social worker/nurse/etc]</t>
+  </si>
+  <si>
+    <t>Being treated like a patient instead of a "drug addict"</t>
+  </si>
+  <si>
+    <t>Referral to Narcotics Anonymous</t>
+  </si>
+  <si>
+    <t>Monitoring of drug use</t>
+  </si>
+  <si>
+    <t>How responsive was the clinical staff to your requests for treatment?</t>
+  </si>
+  <si>
+    <t>How concerned is the clinical staff about you as a patient?</t>
+  </si>
+  <si>
+    <t>What do you like the most about receiving [intervention] at this [clinic/hospital]?</t>
+  </si>
+  <si>
+    <t>What do you like the least about receiving [intervention] at this [clinic/hospital]?</t>
+  </si>
+  <si>
+    <t>How satisfied are you with the treatment that you have received in this [clinic/hospital]?</t>
+  </si>
+  <si>
+    <t>Please rate the [clinic/hospital] with respect to interaction with other patients.</t>
+  </si>
+  <si>
+    <t>Overall patient satsifaction score</t>
+  </si>
+  <si>
+    <t>(INSERT INTERVENTION) is appealing to me.</t>
+  </si>
+  <si>
+    <t>I like (INSERT INTERVENTION).</t>
+  </si>
+  <si>
+    <t>I welcome (INSERT INTERVENTION).</t>
+  </si>
+  <si>
+    <t>2. (INSERT INTERVENTION) seems suitable.</t>
+  </si>
+  <si>
+    <t>3. (INSERT INTERVENTION) seems applicable.</t>
+  </si>
+  <si>
+    <t>4. (INSERT INTERVENTION) seems like a good match.</t>
+  </si>
+  <si>
+    <t>(INSERT INTERVENTION) seems possible.</t>
+  </si>
+  <si>
+    <t>(INSERT INTERVENTION) seems doable.</t>
+  </si>
+  <si>
+    <t>(INSERT INTERVENTION) seems easy to use.</t>
+  </si>
+  <si>
+    <t>Acceptability of Intervention score</t>
+  </si>
+  <si>
+    <t>Intervention Appropriateness score</t>
+  </si>
+  <si>
+    <t>Feasibility of Intervention score</t>
+  </si>
+  <si>
+    <t>How much effort was made to listen to the things that matter most to you about your health issues?</t>
+  </si>
+  <si>
+    <t>How much effort was made to include what matters most to you in choosing what to do next?</t>
+  </si>
+  <si>
+    <t>Overall score for the IMPOWR Shared Decision Making assessment</t>
+  </si>
+  <si>
+    <t>It doesn't make much sense for us to initiate this change.</t>
+  </si>
+  <si>
+    <t>There are legitimate reasons for us to make this change.</t>
+  </si>
+  <si>
+    <t>This change will improve our organization's overall efficiency.</t>
+  </si>
+  <si>
+    <t>There are a number of rational reasons for this change to be made.</t>
+  </si>
+  <si>
+    <t>In the long run, I feel it will be worthwhile for me if the organization adopts this change.</t>
+  </si>
+  <si>
+    <t>This change makes my job easier.</t>
+  </si>
+  <si>
+    <t>When this change is implemented, I don't believe there is anything for me to gain.</t>
+  </si>
+  <si>
+    <t>The time we are spending on this change should be spent on something else.</t>
+  </si>
+  <si>
+    <t>This change matches the priorities of our organization.</t>
+  </si>
+  <si>
+    <t>Our senior leaders have encouraged all of us to embrace this change</t>
+  </si>
+  <si>
+    <t>Our organization's top decision makers have put all their support behind this change effort.</t>
+  </si>
+  <si>
+    <t>Every senior manager has stressed the importance of this change.</t>
+  </si>
+  <si>
+    <t>This organization's most senior leader is committed to this change.</t>
+  </si>
+  <si>
+    <t>I think we are spending a lot of time on this change when the senior managers don't even want it implemented.</t>
+  </si>
+  <si>
+    <t>Management has sent a clear signal this organization is going to change.</t>
+  </si>
+  <si>
+    <t>I do not anticipate any problems adjusting to the work I will have when this change is adopted.</t>
+  </si>
+  <si>
+    <t>There are some tasks that will be required when we change that I don't think I can do well.</t>
+  </si>
+  <si>
+    <t>When we implement this change, I feel I can handle it with ease.</t>
+  </si>
+  <si>
+    <t>I have the skills that are needed to make this change work.</t>
+  </si>
+  <si>
+    <t>When I set my mind to it, I can learn everything that will be required when this change is adopted.</t>
+  </si>
+  <si>
+    <t>My past experiences make me confident that I will be able to perform successfully after this change is made.</t>
+  </si>
+  <si>
+    <t>I am worried I will lose some of my status in the organization when this change is implemented.</t>
+  </si>
+  <si>
+    <t>This change will disrupt many of the personal relationships I have developed</t>
+  </si>
+  <si>
+    <t>My future in this job will be limited because of this change.</t>
+  </si>
+  <si>
+    <t>Appropriateness Score</t>
+  </si>
+  <si>
+    <t>Management Support</t>
+  </si>
+  <si>
+    <t>Change Efficacy</t>
+  </si>
+  <si>
+    <t>Personally Beneficial</t>
+  </si>
+  <si>
+    <t>Please rate the (CLINIC NAME HERE) with respect to the following items:
+Clinic comfort</t>
+  </si>
+  <si>
+    <t>Please rate how helpful each of the following has been for you..
+Medication</t>
+  </si>
+  <si>
+    <t>Acceptability of Intervention Measure (AIM)..
+(INSERT INTERVENTION) meets my approval.</t>
+  </si>
+  <si>
+    <t>Intervention Appropriateness Measure (IAM)..
+1. (INSERT INTERVENTION) seems fitting.</t>
+  </si>
+  <si>
+    <t>Feasibility of Intervention Measure (FIM)..
+(INSERT INTERVENTION) seems implementable.</t>
+  </si>
+  <si>
+    <t>Please reflect on your health care encounters regarding treatment for chronic pain and OUD and complete the following items:
+How much effort was made to help you understand your health issues?</t>
+  </si>
+  <si>
+    <t>How strongly do you agree or disagree with each of the following statements? Please respond to the statements in the context of providing a treatment for opioid use disorder and chronic pain...
+I think that the organization will benefit from this change.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> What kind of health insurance or health care coverage (did/do) you have? Include those that pay for only one type of service (such as nursing home care, accidents, or dental care). Exclude private plans that only provide extra cash while hospitalized. If you have more than one kind of health insurance, tell me all plans that you have. </t>
   </si>
 </sst>
 </file>
@@ -17118,10 +17554,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K839"/>
+  <dimension ref="A1:K922"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A825" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="E839" sqref="E839"/>
+    <sheetView tabSelected="1" topLeftCell="A900" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="D922" sqref="D922"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28905,6 +29341,1165 @@
       </c>
       <c r="E839" s="3" t="s">
         <v>1038</v>
+      </c>
+    </row>
+    <row r="840" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A840" s="3" t="s">
+        <v>2733</v>
+      </c>
+      <c r="B840" s="3" t="s">
+        <v>2734</v>
+      </c>
+      <c r="D840" s="4" t="s">
+        <v>2868</v>
+      </c>
+      <c r="E840" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="841" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A841" s="3" t="s">
+        <v>2733</v>
+      </c>
+      <c r="B841" s="3" t="s">
+        <v>2735</v>
+      </c>
+      <c r="D841" s="4" t="s">
+        <v>2806</v>
+      </c>
+      <c r="E841" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="842" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A842" s="3" t="s">
+        <v>2733</v>
+      </c>
+      <c r="B842" s="3" t="s">
+        <v>2736</v>
+      </c>
+      <c r="D842" s="4" t="s">
+        <v>2807</v>
+      </c>
+      <c r="E842" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="843" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A843" s="3" t="s">
+        <v>2733</v>
+      </c>
+      <c r="B843" s="3" t="s">
+        <v>2737</v>
+      </c>
+      <c r="D843" s="4" t="s">
+        <v>2808</v>
+      </c>
+      <c r="E843" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="844" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A844" s="3" t="s">
+        <v>2733</v>
+      </c>
+      <c r="B844" s="3" t="s">
+        <v>2738</v>
+      </c>
+      <c r="D844" s="4" t="s">
+        <v>2809</v>
+      </c>
+      <c r="E844" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="845" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A845" s="3" t="s">
+        <v>2733</v>
+      </c>
+      <c r="B845" s="3" t="s">
+        <v>2739</v>
+      </c>
+      <c r="D845" s="4" t="s">
+        <v>2810</v>
+      </c>
+      <c r="E845" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="846" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A846" s="3" t="s">
+        <v>2733</v>
+      </c>
+      <c r="B846" s="3" t="s">
+        <v>2740</v>
+      </c>
+      <c r="D846" s="4" t="s">
+        <v>2811</v>
+      </c>
+      <c r="E846" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="847" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A847" s="3" t="s">
+        <v>2733</v>
+      </c>
+      <c r="B847" s="3" t="s">
+        <v>2741</v>
+      </c>
+      <c r="D847" s="4" t="s">
+        <v>2812</v>
+      </c>
+      <c r="E847" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="848" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A848" s="3" t="s">
+        <v>2733</v>
+      </c>
+      <c r="B848" s="3" t="s">
+        <v>2742</v>
+      </c>
+      <c r="D848" s="4" t="s">
+        <v>2869</v>
+      </c>
+      <c r="E848" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="849" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A849" s="3" t="s">
+        <v>2733</v>
+      </c>
+      <c r="B849" s="3" t="s">
+        <v>2743</v>
+      </c>
+      <c r="D849" s="4" t="s">
+        <v>2813</v>
+      </c>
+      <c r="E849" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="850" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A850" s="3" t="s">
+        <v>2733</v>
+      </c>
+      <c r="B850" s="3" t="s">
+        <v>2744</v>
+      </c>
+      <c r="D850" s="4" t="s">
+        <v>2814</v>
+      </c>
+      <c r="E850" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="851" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A851" s="3" t="s">
+        <v>2733</v>
+      </c>
+      <c r="B851" s="3" t="s">
+        <v>2745</v>
+      </c>
+      <c r="D851" s="4" t="s">
+        <v>2815</v>
+      </c>
+      <c r="E851" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="852" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A852" s="3" t="s">
+        <v>2733</v>
+      </c>
+      <c r="B852" s="3" t="s">
+        <v>2746</v>
+      </c>
+      <c r="D852" s="4" t="s">
+        <v>2816</v>
+      </c>
+      <c r="E852" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="853" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A853" s="3" t="s">
+        <v>2733</v>
+      </c>
+      <c r="B853" s="3" t="s">
+        <v>2747</v>
+      </c>
+      <c r="D853" s="4" t="s">
+        <v>2817</v>
+      </c>
+      <c r="E853" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="854" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A854" s="3" t="s">
+        <v>2733</v>
+      </c>
+      <c r="B854" s="3" t="s">
+        <v>2748</v>
+      </c>
+      <c r="D854" s="4" t="s">
+        <v>2818</v>
+      </c>
+      <c r="E854" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="855" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A855" s="3" t="s">
+        <v>2733</v>
+      </c>
+      <c r="B855" s="3" t="s">
+        <v>2749</v>
+      </c>
+      <c r="D855" s="4" t="s">
+        <v>2819</v>
+      </c>
+      <c r="E855" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="856" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A856" s="3" t="s">
+        <v>2733</v>
+      </c>
+      <c r="B856" s="3" t="s">
+        <v>2750</v>
+      </c>
+      <c r="D856" s="4" t="s">
+        <v>2820</v>
+      </c>
+      <c r="E856" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="857" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A857" s="3" t="s">
+        <v>2733</v>
+      </c>
+      <c r="B857" s="3" t="s">
+        <v>2751</v>
+      </c>
+      <c r="D857" s="4" t="s">
+        <v>2821</v>
+      </c>
+      <c r="E857" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="858" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A858" s="3" t="s">
+        <v>2733</v>
+      </c>
+      <c r="B858" s="3" t="s">
+        <v>2752</v>
+      </c>
+      <c r="D858" s="4" t="s">
+        <v>2822</v>
+      </c>
+      <c r="E858" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="859" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A859" s="3" t="s">
+        <v>2733</v>
+      </c>
+      <c r="B859" s="3" t="s">
+        <v>2753</v>
+      </c>
+      <c r="D859" s="4" t="s">
+        <v>2823</v>
+      </c>
+      <c r="E859" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="860" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A860" s="3" t="s">
+        <v>2733</v>
+      </c>
+      <c r="B860" s="3" t="s">
+        <v>2754</v>
+      </c>
+      <c r="D860" s="4" t="s">
+        <v>2824</v>
+      </c>
+      <c r="E860" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="861" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A861" s="3" t="s">
+        <v>2755</v>
+      </c>
+      <c r="B861" s="3" t="s">
+        <v>2756</v>
+      </c>
+      <c r="D861" s="4" t="s">
+        <v>2870</v>
+      </c>
+      <c r="E861" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="862" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A862" s="3" t="s">
+        <v>2755</v>
+      </c>
+      <c r="B862" s="3" t="s">
+        <v>2757</v>
+      </c>
+      <c r="D862" s="4" t="s">
+        <v>2825</v>
+      </c>
+      <c r="E862" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="863" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A863" s="3" t="s">
+        <v>2755</v>
+      </c>
+      <c r="B863" s="3" t="s">
+        <v>2758</v>
+      </c>
+      <c r="D863" s="4" t="s">
+        <v>2826</v>
+      </c>
+      <c r="E863" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="864" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A864" s="3" t="s">
+        <v>2755</v>
+      </c>
+      <c r="B864" s="3" t="s">
+        <v>2759</v>
+      </c>
+      <c r="D864" s="4" t="s">
+        <v>2827</v>
+      </c>
+      <c r="E864" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="865" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A865" s="3" t="s">
+        <v>2755</v>
+      </c>
+      <c r="B865" s="3" t="s">
+        <v>2760</v>
+      </c>
+      <c r="D865" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E865" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="866" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A866" s="3" t="s">
+        <v>2755</v>
+      </c>
+      <c r="B866" s="3" t="s">
+        <v>2761</v>
+      </c>
+      <c r="D866" s="4" t="s">
+        <v>2828</v>
+      </c>
+      <c r="E866" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="867" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A867" s="3" t="s">
+        <v>2755</v>
+      </c>
+      <c r="B867" s="3" t="s">
+        <v>2762</v>
+      </c>
+      <c r="D867" s="4" t="s">
+        <v>2829</v>
+      </c>
+      <c r="E867" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="868" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A868" s="3" t="s">
+        <v>2755</v>
+      </c>
+      <c r="B868" s="3" t="s">
+        <v>2763</v>
+      </c>
+      <c r="D868" s="4" t="s">
+        <v>2830</v>
+      </c>
+      <c r="E868" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="869" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A869" s="3" t="s">
+        <v>2755</v>
+      </c>
+      <c r="B869" s="3" t="s">
+        <v>2764</v>
+      </c>
+      <c r="D869" s="4" t="s">
+        <v>2872</v>
+      </c>
+      <c r="E869" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="870" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A870" s="3" t="s">
+        <v>2755</v>
+      </c>
+      <c r="B870" s="3" t="s">
+        <v>2765</v>
+      </c>
+      <c r="D870" s="4" t="s">
+        <v>2831</v>
+      </c>
+      <c r="E870" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="871" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A871" s="3" t="s">
+        <v>2755</v>
+      </c>
+      <c r="B871" s="3" t="s">
+        <v>2766</v>
+      </c>
+      <c r="D871" s="4" t="s">
+        <v>2832</v>
+      </c>
+      <c r="E871" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="872" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A872" s="3" t="s">
+        <v>2755</v>
+      </c>
+      <c r="B872" s="3" t="s">
+        <v>2767</v>
+      </c>
+      <c r="D872" s="4" t="s">
+        <v>2833</v>
+      </c>
+      <c r="E872" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="873" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A873" s="3" t="s">
+        <v>2755</v>
+      </c>
+      <c r="B873" s="3" t="s">
+        <v>2768</v>
+      </c>
+      <c r="D873" s="4" t="s">
+        <v>2834</v>
+      </c>
+      <c r="E873" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="874" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A874" s="3" t="s">
+        <v>2755</v>
+      </c>
+      <c r="B874" s="3" t="s">
+        <v>2769</v>
+      </c>
+      <c r="D874" s="4" t="s">
+        <v>2835</v>
+      </c>
+      <c r="E874" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="875" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A875" s="3" t="s">
+        <v>2755</v>
+      </c>
+      <c r="B875" s="3" t="s">
+        <v>2770</v>
+      </c>
+      <c r="D875" s="4" t="s">
+        <v>2836</v>
+      </c>
+      <c r="E875" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="876" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A876" s="3" t="s">
+        <v>2755</v>
+      </c>
+      <c r="B876" s="3" t="s">
+        <v>2771</v>
+      </c>
+      <c r="D876" s="4" t="s">
+        <v>2873</v>
+      </c>
+      <c r="E876" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="877" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A877" s="3" t="s">
+        <v>2755</v>
+      </c>
+      <c r="B877" s="3" t="s">
+        <v>2772</v>
+      </c>
+      <c r="D877" s="4" t="s">
+        <v>2837</v>
+      </c>
+      <c r="E877" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="878" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A878" s="3" t="s">
+        <v>2755</v>
+      </c>
+      <c r="B878" s="3" t="s">
+        <v>2773</v>
+      </c>
+      <c r="D878" s="4" t="s">
+        <v>2838</v>
+      </c>
+      <c r="E878" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="879" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A879" s="3" t="s">
+        <v>2755</v>
+      </c>
+      <c r="B879" s="3" t="s">
+        <v>2774</v>
+      </c>
+      <c r="D879" s="4" t="s">
+        <v>2839</v>
+      </c>
+      <c r="E879" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="880" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A880" s="3" t="s">
+        <v>2775</v>
+      </c>
+      <c r="B880" s="3" t="s">
+        <v>2776</v>
+      </c>
+      <c r="D880" s="4" t="s">
+        <v>2874</v>
+      </c>
+    </row>
+    <row r="881" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A881" s="3" t="s">
+        <v>2775</v>
+      </c>
+      <c r="B881" s="3" t="s">
+        <v>2777</v>
+      </c>
+      <c r="D881" s="4" t="s">
+        <v>2840</v>
+      </c>
+      <c r="E881" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="882" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A882" s="3" t="s">
+        <v>2775</v>
+      </c>
+      <c r="B882" s="3" t="s">
+        <v>2778</v>
+      </c>
+      <c r="D882" s="4" t="s">
+        <v>2841</v>
+      </c>
+      <c r="E882" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="883" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A883" s="3" t="s">
+        <v>2775</v>
+      </c>
+      <c r="B883" s="3" t="s">
+        <v>2779</v>
+      </c>
+      <c r="D883" s="4" t="s">
+        <v>2842</v>
+      </c>
+      <c r="E883" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="884" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A884" s="3" t="s">
+        <v>2775</v>
+      </c>
+      <c r="B884" s="3" t="s">
+        <v>2780</v>
+      </c>
+      <c r="D884" s="4" t="s">
+        <v>2843</v>
+      </c>
+      <c r="E884" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="885" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A885" s="3" t="s">
+        <v>2775</v>
+      </c>
+      <c r="B885" s="3" t="s">
+        <v>2781</v>
+      </c>
+      <c r="D885" s="4" t="s">
+        <v>2844</v>
+      </c>
+      <c r="E885" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="886" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A886" s="3" t="s">
+        <v>2775</v>
+      </c>
+      <c r="B886" s="3" t="s">
+        <v>2782</v>
+      </c>
+      <c r="D886" s="4" t="s">
+        <v>2845</v>
+      </c>
+      <c r="E886" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="887" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A887" s="3" t="s">
+        <v>2775</v>
+      </c>
+      <c r="B887" s="3" t="s">
+        <v>2783</v>
+      </c>
+      <c r="D887" s="4" t="s">
+        <v>2846</v>
+      </c>
+      <c r="E887" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="888" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A888" s="3" t="s">
+        <v>2775</v>
+      </c>
+      <c r="B888" s="3" t="s">
+        <v>2784</v>
+      </c>
+      <c r="D888" s="4" t="s">
+        <v>2847</v>
+      </c>
+      <c r="E888" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="889" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A889" s="3" t="s">
+        <v>2775</v>
+      </c>
+      <c r="B889" s="3" t="s">
+        <v>2785</v>
+      </c>
+      <c r="D889" s="4" t="s">
+        <v>2848</v>
+      </c>
+      <c r="E889" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="890" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A890" s="3" t="s">
+        <v>2775</v>
+      </c>
+      <c r="B890" s="3" t="s">
+        <v>2786</v>
+      </c>
+      <c r="D890" s="4" t="s">
+        <v>2849</v>
+      </c>
+      <c r="E890" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="891" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A891" s="3" t="s">
+        <v>2775</v>
+      </c>
+      <c r="B891" s="3" t="s">
+        <v>2787</v>
+      </c>
+      <c r="D891" s="4" t="s">
+        <v>2850</v>
+      </c>
+      <c r="E891" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="892" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A892" s="3" t="s">
+        <v>2775</v>
+      </c>
+      <c r="B892" s="3" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D892" s="4" t="s">
+        <v>2851</v>
+      </c>
+      <c r="E892" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="893" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A893" s="3" t="s">
+        <v>2775</v>
+      </c>
+      <c r="B893" s="3" t="s">
+        <v>2789</v>
+      </c>
+      <c r="D893" s="4" t="s">
+        <v>2852</v>
+      </c>
+      <c r="E893" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="894" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A894" s="3" t="s">
+        <v>2775</v>
+      </c>
+      <c r="B894" s="3" t="s">
+        <v>2790</v>
+      </c>
+      <c r="D894" s="4" t="s">
+        <v>2853</v>
+      </c>
+      <c r="E894" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="895" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A895" s="3" t="s">
+        <v>2775</v>
+      </c>
+      <c r="B895" s="3" t="s">
+        <v>2791</v>
+      </c>
+      <c r="D895" s="4" t="s">
+        <v>2854</v>
+      </c>
+      <c r="E895" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="896" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A896" s="3" t="s">
+        <v>2775</v>
+      </c>
+      <c r="B896" s="3" t="s">
+        <v>2792</v>
+      </c>
+      <c r="D896" s="4" t="s">
+        <v>2855</v>
+      </c>
+      <c r="E896" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="897" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A897" s="3" t="s">
+        <v>2775</v>
+      </c>
+      <c r="B897" s="3" t="s">
+        <v>2793</v>
+      </c>
+      <c r="D897" s="4" t="s">
+        <v>2856</v>
+      </c>
+      <c r="E897" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="898" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A898" s="3" t="s">
+        <v>2775</v>
+      </c>
+      <c r="B898" s="3" t="s">
+        <v>2794</v>
+      </c>
+      <c r="D898" s="4" t="s">
+        <v>2857</v>
+      </c>
+      <c r="E898" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="899" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A899" s="3" t="s">
+        <v>2775</v>
+      </c>
+      <c r="B899" s="3" t="s">
+        <v>2795</v>
+      </c>
+      <c r="D899" s="4" t="s">
+        <v>2858</v>
+      </c>
+      <c r="E899" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="900" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A900" s="3" t="s">
+        <v>2775</v>
+      </c>
+      <c r="B900" s="3" t="s">
+        <v>2796</v>
+      </c>
+      <c r="D900" s="4" t="s">
+        <v>2859</v>
+      </c>
+      <c r="E900" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="901" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A901" s="3" t="s">
+        <v>2775</v>
+      </c>
+      <c r="B901" s="3" t="s">
+        <v>2797</v>
+      </c>
+      <c r="D901" s="4" t="s">
+        <v>2860</v>
+      </c>
+      <c r="E901" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="902" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A902" s="3" t="s">
+        <v>2775</v>
+      </c>
+      <c r="B902" s="3" t="s">
+        <v>2798</v>
+      </c>
+      <c r="D902" s="4" t="s">
+        <v>2861</v>
+      </c>
+      <c r="E902" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="903" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A903" s="3" t="s">
+        <v>2775</v>
+      </c>
+      <c r="B903" s="3" t="s">
+        <v>2799</v>
+      </c>
+      <c r="D903" s="4" t="s">
+        <v>2862</v>
+      </c>
+      <c r="E903" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="904" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A904" s="3" t="s">
+        <v>2775</v>
+      </c>
+      <c r="B904" s="3" t="s">
+        <v>2800</v>
+      </c>
+      <c r="D904" s="4" t="s">
+        <v>2863</v>
+      </c>
+      <c r="E904" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="905" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A905" s="3" t="s">
+        <v>2775</v>
+      </c>
+      <c r="B905" s="3" t="s">
+        <v>2801</v>
+      </c>
+      <c r="D905" s="4" t="s">
+        <v>2864</v>
+      </c>
+      <c r="E905" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="906" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A906" s="3" t="s">
+        <v>2775</v>
+      </c>
+      <c r="B906" s="3" t="s">
+        <v>2802</v>
+      </c>
+      <c r="D906" s="4" t="s">
+        <v>2865</v>
+      </c>
+      <c r="E906" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="907" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A907" s="3" t="s">
+        <v>2775</v>
+      </c>
+      <c r="B907" s="3" t="s">
+        <v>2803</v>
+      </c>
+      <c r="D907" s="4" t="s">
+        <v>2866</v>
+      </c>
+      <c r="E907" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="908" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A908" s="3" t="s">
+        <v>2775</v>
+      </c>
+      <c r="B908" s="3" t="s">
+        <v>2804</v>
+      </c>
+      <c r="D908" s="4" t="s">
+        <v>2867</v>
+      </c>
+      <c r="E908" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="909" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A909" s="3" t="s">
+        <v>2775</v>
+      </c>
+      <c r="B909" s="3" t="s">
+        <v>2805</v>
+      </c>
+      <c r="D909" s="4" t="s">
+        <v>2595</v>
+      </c>
+      <c r="E909" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="910" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A910" s="3" t="s">
+        <v>2775</v>
+      </c>
+      <c r="B910" s="3" t="s">
+        <v>2011</v>
+      </c>
+      <c r="D910" s="4" t="s">
+        <v>2059</v>
+      </c>
+      <c r="E910" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="911" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A911" s="3" t="s">
+        <v>2775</v>
+      </c>
+      <c r="B911" s="3" t="s">
+        <v>2012</v>
+      </c>
+      <c r="D911" s="4" t="s">
+        <v>2036</v>
+      </c>
+      <c r="E911" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="912" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A912" s="3" t="s">
+        <v>2775</v>
+      </c>
+      <c r="B912" s="3" t="s">
+        <v>2013</v>
+      </c>
+      <c r="D912" s="4" t="s">
+        <v>2037</v>
+      </c>
+      <c r="E912" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="913" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A913" s="3" t="s">
+        <v>2775</v>
+      </c>
+      <c r="B913" s="3" t="s">
+        <v>2014</v>
+      </c>
+      <c r="D913" s="4" t="s">
+        <v>2038</v>
+      </c>
+      <c r="E913" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="914" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A914" s="3" t="s">
+        <v>2775</v>
+      </c>
+      <c r="B914" s="3" t="s">
+        <v>2015</v>
+      </c>
+      <c r="D914" s="4" t="s">
+        <v>2039</v>
+      </c>
+      <c r="E914" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="915" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A915" s="3" t="s">
+        <v>2775</v>
+      </c>
+      <c r="B915" s="3" t="s">
+        <v>2016</v>
+      </c>
+      <c r="D915" s="4" t="s">
+        <v>2040</v>
+      </c>
+      <c r="E915" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="916" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A916" s="3" t="s">
+        <v>2775</v>
+      </c>
+      <c r="B916" s="3" t="s">
+        <v>2017</v>
+      </c>
+      <c r="D916" s="4" t="s">
+        <v>2041</v>
+      </c>
+      <c r="E916" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="917" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A917" s="3" t="s">
+        <v>2775</v>
+      </c>
+      <c r="B917" s="3" t="s">
+        <v>2018</v>
+      </c>
+      <c r="D917" s="4" t="s">
+        <v>2042</v>
+      </c>
+      <c r="E917" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="918" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A918" s="3" t="s">
+        <v>2775</v>
+      </c>
+      <c r="B918" s="3" t="s">
+        <v>2019</v>
+      </c>
+      <c r="D918" s="4" t="s">
+        <v>2043</v>
+      </c>
+      <c r="E918" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="919" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A919" s="3" t="s">
+        <v>2775</v>
+      </c>
+      <c r="B919" s="3" t="s">
+        <v>2020</v>
+      </c>
+      <c r="D919" s="4" t="s">
+        <v>2044</v>
+      </c>
+      <c r="E919" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="920" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A920" s="3" t="s">
+        <v>2775</v>
+      </c>
+      <c r="B920" s="3" t="s">
+        <v>2021</v>
+      </c>
+      <c r="D920" s="4" t="s">
+        <v>2045</v>
+      </c>
+      <c r="E920" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="921" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A921" s="3" t="s">
+        <v>2775</v>
+      </c>
+      <c r="B921" s="3" t="s">
+        <v>2022</v>
+      </c>
+      <c r="D921" s="4" t="s">
+        <v>2046</v>
+      </c>
+      <c r="E921" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="922" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A922" s="3" t="s">
+        <v>2775</v>
+      </c>
+      <c r="B922" s="3" t="s">
+        <v>2023</v>
+      </c>
+      <c r="D922" s="4" t="s">
+        <v>2875</v>
+      </c>
+      <c r="E922" s="3" t="s">
+        <v>1037</v>
       </c>
     </row>
   </sheetData>

--- a/gdcdictionary/xlsx/nodes_schema_impowr.xlsx
+++ b/gdcdictionary/xlsx/nodes_schema_impowr.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vithal\Documents\GitHub\dcfdictionary\gdcdictionary\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16C4B56C-47EA-4579-A20C-E2D5C2E3710D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{325C1EF4-26B9-440B-8B2F-AE213A894C77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="705" yWindow="1950" windowWidth="26760" windowHeight="11355" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1215" yWindow="1215" windowWidth="24435" windowHeight="12735" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nodes_impowr" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8896" uniqueCount="2876">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9384" uniqueCount="3127">
   <si>
     <t>&lt;$schema&gt;</t>
   </si>
@@ -8687,6 +8687,759 @@
   </si>
   <si>
     <t xml:space="preserve"> What kind of health insurance or health care coverage (did/do) you have? Include those that pay for only one type of service (such as nursing home care, accidents, or dental care). Exclude private plans that only provide extra cash while hospitalized. If you have more than one kind of health insurance, tell me all plans that you have. </t>
+  </si>
+  <si>
+    <t>Chronic Pain Screening</t>
+  </si>
+  <si>
+    <t>cp_screen_1</t>
+  </si>
+  <si>
+    <t>cp_screen_2</t>
+  </si>
+  <si>
+    <t>painyears</t>
+  </si>
+  <si>
+    <t>painmonths</t>
+  </si>
+  <si>
+    <t>paindur</t>
+  </si>
+  <si>
+    <t>PEG</t>
+  </si>
+  <si>
+    <t>pegavgpainpastweekscl</t>
+  </si>
+  <si>
+    <t>pegpainpastwkenjoylifescl</t>
+  </si>
+  <si>
+    <t>pegpainpastwkgenrlactscl</t>
+  </si>
+  <si>
+    <t>pegoverallscore</t>
+  </si>
+  <si>
+    <t>Michigan Body Map</t>
+  </si>
+  <si>
+    <t>mbodycp</t>
+  </si>
+  <si>
+    <t>mface</t>
+  </si>
+  <si>
+    <t>mrjaw</t>
+  </si>
+  <si>
+    <t>mljaw</t>
+  </si>
+  <si>
+    <t>mrchest</t>
+  </si>
+  <si>
+    <t>mlchest</t>
+  </si>
+  <si>
+    <t>mruparm</t>
+  </si>
+  <si>
+    <t>mluparm</t>
+  </si>
+  <si>
+    <t>mrelbw</t>
+  </si>
+  <si>
+    <t>mlelbw</t>
+  </si>
+  <si>
+    <t>mrlowarm</t>
+  </si>
+  <si>
+    <t>mllowarm</t>
+  </si>
+  <si>
+    <t>mrhand</t>
+  </si>
+  <si>
+    <t>mlhand</t>
+  </si>
+  <si>
+    <t>mabdomen</t>
+  </si>
+  <si>
+    <t>mpelvis</t>
+  </si>
+  <si>
+    <t>mrgroin</t>
+  </si>
+  <si>
+    <t>mlgroin</t>
+  </si>
+  <si>
+    <t>mrupleg</t>
+  </si>
+  <si>
+    <t>mlupleg</t>
+  </si>
+  <si>
+    <t>mrknee</t>
+  </si>
+  <si>
+    <t>mlknee</t>
+  </si>
+  <si>
+    <t>mrlowleg</t>
+  </si>
+  <si>
+    <t>mllowleg</t>
+  </si>
+  <si>
+    <t>mrfoot</t>
+  </si>
+  <si>
+    <t>mlfoot</t>
+  </si>
+  <si>
+    <t>mhead</t>
+  </si>
+  <si>
+    <t>mneck</t>
+  </si>
+  <si>
+    <t>mlshldr</t>
+  </si>
+  <si>
+    <t>mrshldr</t>
+  </si>
+  <si>
+    <t>mupback</t>
+  </si>
+  <si>
+    <t>mlowback</t>
+  </si>
+  <si>
+    <t>mlhip</t>
+  </si>
+  <si>
+    <t>mrhip</t>
+  </si>
+  <si>
+    <t>mlbttck</t>
+  </si>
+  <si>
+    <t>mrbttck</t>
+  </si>
+  <si>
+    <t>mnone</t>
+  </si>
+  <si>
+    <t>mbm_total</t>
+  </si>
+  <si>
+    <t>WPI</t>
+  </si>
+  <si>
+    <t>copcs_fm_regiona</t>
+  </si>
+  <si>
+    <t>copcs_fm_regionb</t>
+  </si>
+  <si>
+    <t>copcs_fm_regionc</t>
+  </si>
+  <si>
+    <t>copcs_fm_regiond</t>
+  </si>
+  <si>
+    <t>copcs_fm_regione</t>
+  </si>
+  <si>
+    <t>copcs_paintender_7d_number</t>
+  </si>
+  <si>
+    <t>copcs_paintender_7d_wpisco</t>
+  </si>
+  <si>
+    <t>PGIC</t>
+  </si>
+  <si>
+    <t>pgicsymptomchangestatval</t>
+  </si>
+  <si>
+    <t>pcqpainawfulovrwhlmscl</t>
+  </si>
+  <si>
+    <t>BPI</t>
+  </si>
+  <si>
+    <t>bpipainothrevrdykdindcode</t>
+  </si>
+  <si>
+    <t>bpiwrstpnlast24hrtngscl</t>
+  </si>
+  <si>
+    <t>bpileastpnlst24hrtngscl</t>
+  </si>
+  <si>
+    <t>bpiavgpainrtngscl</t>
+  </si>
+  <si>
+    <t>bpicurrentpainrtngscl</t>
+  </si>
+  <si>
+    <t>bpipaintreatmntrecvtxt</t>
+  </si>
+  <si>
+    <t>bpipaintreatmntrelfscl</t>
+  </si>
+  <si>
+    <t>bpipainintfrgnrlactvtyscl</t>
+  </si>
+  <si>
+    <t>bpipainintfrmoodscl</t>
+  </si>
+  <si>
+    <t>bpipainintfrwlkablscl</t>
+  </si>
+  <si>
+    <t>bpipainnrmlwrkintrfrscl</t>
+  </si>
+  <si>
+    <t>bpipainrelationsintrfrscl</t>
+  </si>
+  <si>
+    <t>bpipainsleepintrfrscl</t>
+  </si>
+  <si>
+    <t>bpipainenjoymntintrfrscl</t>
+  </si>
+  <si>
+    <t>IMPOWR Pain Diagnoses</t>
+  </si>
+  <si>
+    <t>imp_paindx</t>
+  </si>
+  <si>
+    <t>copcs_clbp_diagnosis</t>
+  </si>
+  <si>
+    <t>paindx_neck</t>
+  </si>
+  <si>
+    <t>copcs_mitth_migraineflag</t>
+  </si>
+  <si>
+    <t>paindx_osteoarthritis</t>
+  </si>
+  <si>
+    <t>copcs_fm_diagnosis</t>
+  </si>
+  <si>
+    <t>paindx_cell</t>
+  </si>
+  <si>
+    <t>paindx_regional</t>
+  </si>
+  <si>
+    <t>paindx_cancer</t>
+  </si>
+  <si>
+    <t>paindx_shingles</t>
+  </si>
+  <si>
+    <t>copcs_ibs_diagnosis</t>
+  </si>
+  <si>
+    <t>paindx_trigeminal</t>
+  </si>
+  <si>
+    <t>paindx_hiv</t>
+  </si>
+  <si>
+    <t>paindx_hepatitis</t>
+  </si>
+  <si>
+    <t>copcs_vvd_currentdiagnosis</t>
+  </si>
+  <si>
+    <t>paindx_postsurgical</t>
+  </si>
+  <si>
+    <t>copcs_ucpps_diagnosis</t>
+  </si>
+  <si>
+    <t>copcs_mecfs_diagnosis</t>
+  </si>
+  <si>
+    <t>paindx_pregnancy</t>
+  </si>
+  <si>
+    <t>copcs_tmd_diagnosis</t>
+  </si>
+  <si>
+    <t>copcs_endo_diagnosis</t>
+  </si>
+  <si>
+    <t>paindx_pelvic</t>
+  </si>
+  <si>
+    <t>paindx_dmneuropathy</t>
+  </si>
+  <si>
+    <t>paindx_ra</t>
+  </si>
+  <si>
+    <t>paindx_lupus</t>
+  </si>
+  <si>
+    <t>paindx_otherarth</t>
+  </si>
+  <si>
+    <t>paindx_limb</t>
+  </si>
+  <si>
+    <t>paindx_otherneurop</t>
+  </si>
+  <si>
+    <t>paindx_myofascial</t>
+  </si>
+  <si>
+    <t>paindx_chrpainsynd</t>
+  </si>
+  <si>
+    <t>paindx_widespread</t>
+  </si>
+  <si>
+    <t>paindx_dental</t>
+  </si>
+  <si>
+    <t>copcs_mitth_tensionheadach</t>
+  </si>
+  <si>
+    <t>oa_joint</t>
+  </si>
+  <si>
+    <t>paindx_osteo_shoulder</t>
+  </si>
+  <si>
+    <t>paindx_osteo_knee</t>
+  </si>
+  <si>
+    <t>paindx_osteo_hip</t>
+  </si>
+  <si>
+    <t>paindx_osteo_ankle</t>
+  </si>
+  <si>
+    <t>paindx_osteo_elbow</t>
+  </si>
+  <si>
+    <t>paindx_osteo_wrist</t>
+  </si>
+  <si>
+    <t>Pain Interference</t>
+  </si>
+  <si>
+    <t>promispnintdlyactpst7dscl</t>
+  </si>
+  <si>
+    <t>promispainintwkhmpst7dscl</t>
+  </si>
+  <si>
+    <t>promispnintprscacpst7dscl</t>
+  </si>
+  <si>
+    <t>promispninthschrpst7dscl</t>
+  </si>
+  <si>
+    <t>promispainintf4atotalscore</t>
+  </si>
+  <si>
+    <t>Pain Intensity</t>
+  </si>
+  <si>
+    <t>promisavgpainrtngpst7dscl</t>
+  </si>
+  <si>
+    <t>Pain Catastrophizing</t>
+  </si>
+  <si>
+    <t>pcqfeelcantwithstandscl</t>
+  </si>
+  <si>
+    <t>pcqafraidpainworsescl</t>
+  </si>
+  <si>
+    <t>pcqhurtscl</t>
+  </si>
+  <si>
+    <t>pcqpainstopscl</t>
+  </si>
+  <si>
+    <t>pcqseriousscl</t>
+  </si>
+  <si>
+    <t>pcqtotalscoreval</t>
+  </si>
+  <si>
+    <t>how often did pain limit your life or work activities?</t>
+  </si>
+  <si>
+    <t>Number of months?</t>
+  </si>
+  <si>
+    <t>Total pain duration in months</t>
+  </si>
+  <si>
+    <t>In the past 3 months : how often did you have pain?</t>
+  </si>
+  <si>
+    <t>How long have you had pain?: Number of years?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What number best describes your pain on average in the past week? </t>
+  </si>
+  <si>
+    <t>What number best describes how, during the past week, pain has interfered with your enjoyment of life?</t>
+  </si>
+  <si>
+    <t>What number best describes how, during the past week, pain has interfered with your general activity?</t>
+  </si>
+  <si>
+    <t>PEG - overall score</t>
+  </si>
+  <si>
+    <t>@IMAGEMAP=MBODY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Face </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Right Jaw</t>
+  </si>
+  <si>
+    <t>Left Jaw</t>
+  </si>
+  <si>
+    <t>Right Chest</t>
+  </si>
+  <si>
+    <t>Left Chest</t>
+  </si>
+  <si>
+    <t>Right Upper Arm</t>
+  </si>
+  <si>
+    <t>Left Upper Arm</t>
+  </si>
+  <si>
+    <t>Right Elbow</t>
+  </si>
+  <si>
+    <t>Left Elbow</t>
+  </si>
+  <si>
+    <t>Right Lower Arm</t>
+  </si>
+  <si>
+    <t>Left Lower Arm</t>
+  </si>
+  <si>
+    <t>Right Hand</t>
+  </si>
+  <si>
+    <t>Left Hand</t>
+  </si>
+  <si>
+    <t>Right Groin</t>
+  </si>
+  <si>
+    <t>Left Groin</t>
+  </si>
+  <si>
+    <t>Right Upper Leg</t>
+  </si>
+  <si>
+    <t>Left Upper Leg</t>
+  </si>
+  <si>
+    <t>Right Knee</t>
+  </si>
+  <si>
+    <t>Left Knee</t>
+  </si>
+  <si>
+    <t>Right Lower Leg</t>
+  </si>
+  <si>
+    <t>Left Lower Leg</t>
+  </si>
+  <si>
+    <t>Right Foot</t>
+  </si>
+  <si>
+    <t>Left Foot</t>
+  </si>
+  <si>
+    <t>Head</t>
+  </si>
+  <si>
+    <t>Left Shoulder</t>
+  </si>
+  <si>
+    <t>Right Shoulder</t>
+  </si>
+  <si>
+    <t>Upper Back</t>
+  </si>
+  <si>
+    <t>Lower Back</t>
+  </si>
+  <si>
+    <t>Left Hip</t>
+  </si>
+  <si>
+    <t>Right Hip</t>
+  </si>
+  <si>
+    <t>Left Buttock</t>
+  </si>
+  <si>
+    <t>Right Buttock</t>
+  </si>
+  <si>
+    <t>No Pain</t>
+  </si>
+  <si>
+    <t>Total Michigan Body Map Score</t>
+  </si>
+  <si>
+    <t>Widespread pain region 1 (Left upper region)</t>
+  </si>
+  <si>
+    <t>Widespread pain region 2 (Right upper region)</t>
+  </si>
+  <si>
+    <t>Widespread pain region 3 (Left lower region)</t>
+  </si>
+  <si>
+    <t>Widespread pain region 4 (Right lower region)</t>
+  </si>
+  <si>
+    <t>Widespread pain region 5 (Axial region)</t>
+  </si>
+  <si>
+    <t>Widespread Pain Region Score</t>
+  </si>
+  <si>
+    <t>Widespread Pain Index Score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Since the start of the study (treatment), my overall pain is </t>
+  </si>
+  <si>
+    <t>It's awful and I feel that it overwhelms me</t>
+  </si>
+  <si>
+    <t>Throughout our lives most of us have had pain from time to time (such as minor headaches, sprains, toothaches). Have you had pain other than these everyday kinds of pain in the last week?</t>
+  </si>
+  <si>
+    <t>Please rate your pain by choosing the number that best describes your pain at its worse in the last 24 hours.</t>
+  </si>
+  <si>
+    <t>Please rate your pain by choosing the number that best describes your pain at its least in the last 24 hours.</t>
+  </si>
+  <si>
+    <t>Please rate your pain by choosing the number that best describes your pain on the average.</t>
+  </si>
+  <si>
+    <t>Please rate your pain by choosing the number that tells how much pain you have right now.</t>
+  </si>
+  <si>
+    <t>What treatments or medications are you receiving for pain?</t>
+  </si>
+  <si>
+    <t>In the last 24 hours how much relief have pain treatments or medications provided? Please choose the percentage that most shows how much relief you have received.</t>
+  </si>
+  <si>
+    <t>General activity</t>
+  </si>
+  <si>
+    <t>Mood</t>
+  </si>
+  <si>
+    <t>Walking Ability</t>
+  </si>
+  <si>
+    <t>Normal work</t>
+  </si>
+  <si>
+    <t>Relations with other people</t>
+  </si>
+  <si>
+    <t>Sleep</t>
+  </si>
+  <si>
+    <t>Enjoyment of life</t>
+  </si>
+  <si>
+    <t>We are interested in finding out about pain conditions you have been diagnosed with/personally experienced. Please select all you have ever been diagnosed with or experienced:</t>
+  </si>
+  <si>
+    <t>Chronic low back pain</t>
+  </si>
+  <si>
+    <t>Chronic neck pain</t>
+  </si>
+  <si>
+    <t>Migraine</t>
+  </si>
+  <si>
+    <t>Osteoarthritis</t>
+  </si>
+  <si>
+    <t>Fibromyalgia</t>
+  </si>
+  <si>
+    <t>Sickle cell disease</t>
+  </si>
+  <si>
+    <t>CRPS</t>
+  </si>
+  <si>
+    <t>Cancer pain</t>
+  </si>
+  <si>
+    <t>Shingles (Herpes Zoster)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> IBS (Irritable Bowel Syndrome)</t>
+  </si>
+  <si>
+    <t>Trigeminal Neuralgia</t>
+  </si>
+  <si>
+    <t>HIV/AIDS pain</t>
+  </si>
+  <si>
+    <t>Viral hepatitis pain</t>
+  </si>
+  <si>
+    <t>Vulvodynia</t>
+  </si>
+  <si>
+    <t>Post-surgical pain</t>
+  </si>
+  <si>
+    <t>Interstitial Cystitis (Urological Chronic Pelvic Pain Syndrome)</t>
+  </si>
+  <si>
+    <t>Chronic fatigue syndrome</t>
+  </si>
+  <si>
+    <t>Pregnancy related back pain</t>
+  </si>
+  <si>
+    <t>TMJ (Temporomandibular joint disorder)</t>
+  </si>
+  <si>
+    <t>Endometriosis</t>
+  </si>
+  <si>
+    <t>Chronic pelvic pain</t>
+  </si>
+  <si>
+    <t>Diabetic peripheral neuropathy</t>
+  </si>
+  <si>
+    <t>Rheumatoid arthritis</t>
+  </si>
+  <si>
+    <t>Lupus arthritis</t>
+  </si>
+  <si>
+    <t>Other inflammatory arthritides</t>
+  </si>
+  <si>
+    <t>Phantom limb pain</t>
+  </si>
+  <si>
+    <t>Other neuropathy</t>
+  </si>
+  <si>
+    <t>Myofascial pain</t>
+  </si>
+  <si>
+    <t>Chronic pain syndrome</t>
+  </si>
+  <si>
+    <t>Chronic widespread pain</t>
+  </si>
+  <si>
+    <t>Orofacial (dental) pain, dental abscess, or chronic tooth pain</t>
+  </si>
+  <si>
+    <t>Tension headache</t>
+  </si>
+  <si>
+    <t>Where is your osteoarthritis pain located?</t>
+  </si>
+  <si>
+    <t>shoulder</t>
+  </si>
+  <si>
+    <t>knee</t>
+  </si>
+  <si>
+    <t>hip</t>
+  </si>
+  <si>
+    <t>ankle/foot</t>
+  </si>
+  <si>
+    <t>elbow</t>
+  </si>
+  <si>
+    <t>wrist</t>
+  </si>
+  <si>
+    <t>How much did pain interfere with your day to day activities?</t>
+  </si>
+  <si>
+    <t>How much did pain interfere with work around the home?</t>
+  </si>
+  <si>
+    <t>How much did pain interfere with your ability to participate in social activities?</t>
+  </si>
+  <si>
+    <t>How much did pain interfere with your household chores?</t>
+  </si>
+  <si>
+    <t>Calculated raw total score for the PROMIS Pain Interference 4a items</t>
+  </si>
+  <si>
+    <t>In the past 7 days, how would you rate your pain on average?</t>
+  </si>
+  <si>
+    <t>I feel I can't stand it anymore</t>
+  </si>
+  <si>
+    <t>I become afraid that the pain will get worse</t>
+  </si>
+  <si>
+    <t>I keep thinking about how much it hurts</t>
+  </si>
+  <si>
+    <t>I keep thinking about how badly I want the pain to stop</t>
+  </si>
+  <si>
+    <t>I wonder whether something serious may happen</t>
+  </si>
+  <si>
+    <t>Pain Catastrophizing Questionnaire - total score value</t>
   </si>
 </sst>
 </file>
@@ -8780,7 +9533,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -8814,6 +9567,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -17554,17 +18313,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K922"/>
+  <dimension ref="A1:K1044"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A900" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="D922" sqref="D922"/>
+    <sheetView tabSelected="1" topLeftCell="A1032" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="E1045" sqref="E1045"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="44.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" customWidth="1"/>
     <col min="4" max="4" width="99.5703125" style="9" customWidth="1"/>
     <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
@@ -30500,6 +31259,1714 @@
       </c>
       <c r="E922" s="3" t="s">
         <v>1037</v>
+      </c>
+    </row>
+    <row r="923" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A923" s="3" t="s">
+        <v>2876</v>
+      </c>
+      <c r="B923" s="3" t="s">
+        <v>2877</v>
+      </c>
+      <c r="D923" s="4" t="s">
+        <v>3011</v>
+      </c>
+      <c r="E923" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="924" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A924" s="3" t="s">
+        <v>2876</v>
+      </c>
+      <c r="B924" s="3" t="s">
+        <v>2878</v>
+      </c>
+      <c r="D924" s="4" t="s">
+        <v>3008</v>
+      </c>
+      <c r="E924" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="925" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A925" s="3" t="s">
+        <v>2876</v>
+      </c>
+      <c r="B925" s="3" t="s">
+        <v>2879</v>
+      </c>
+      <c r="D925" s="4" t="s">
+        <v>3012</v>
+      </c>
+      <c r="E925" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="926" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A926" s="3" t="s">
+        <v>2876</v>
+      </c>
+      <c r="B926" s="3" t="s">
+        <v>2880</v>
+      </c>
+      <c r="D926" s="4" t="s">
+        <v>3009</v>
+      </c>
+      <c r="E926" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="927" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A927" s="3" t="s">
+        <v>2876</v>
+      </c>
+      <c r="B927" s="3" t="s">
+        <v>2881</v>
+      </c>
+      <c r="D927" s="4" t="s">
+        <v>3010</v>
+      </c>
+      <c r="E927" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="928" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A928" s="3" t="s">
+        <v>2882</v>
+      </c>
+      <c r="B928" s="3" t="s">
+        <v>2883</v>
+      </c>
+      <c r="D928" s="4" t="s">
+        <v>3013</v>
+      </c>
+      <c r="E928" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="929" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A929" s="3" t="s">
+        <v>2882</v>
+      </c>
+      <c r="B929" s="14" t="s">
+        <v>2884</v>
+      </c>
+      <c r="D929" s="15" t="s">
+        <v>3014</v>
+      </c>
+      <c r="E929" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="930" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A930" s="3" t="s">
+        <v>2882</v>
+      </c>
+      <c r="B930" s="3" t="s">
+        <v>2885</v>
+      </c>
+      <c r="D930" s="4" t="s">
+        <v>3015</v>
+      </c>
+      <c r="E930" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="931" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A931" s="3" t="s">
+        <v>2882</v>
+      </c>
+      <c r="B931" s="3" t="s">
+        <v>2886</v>
+      </c>
+      <c r="D931" s="4" t="s">
+        <v>3016</v>
+      </c>
+      <c r="E931" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="932" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A932" s="3" t="s">
+        <v>2887</v>
+      </c>
+      <c r="B932" s="3" t="s">
+        <v>2888</v>
+      </c>
+      <c r="D932" s="4" t="s">
+        <v>3017</v>
+      </c>
+      <c r="E932" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="933" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A933" s="3" t="s">
+        <v>2887</v>
+      </c>
+      <c r="B933" s="3" t="s">
+        <v>2889</v>
+      </c>
+      <c r="D933" s="4" t="s">
+        <v>3018</v>
+      </c>
+      <c r="E933" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="934" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A934" s="3" t="s">
+        <v>2887</v>
+      </c>
+      <c r="B934" s="3" t="s">
+        <v>2890</v>
+      </c>
+      <c r="D934" s="4" t="s">
+        <v>3019</v>
+      </c>
+      <c r="E934" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="935" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A935" s="3" t="s">
+        <v>2887</v>
+      </c>
+      <c r="B935" s="3" t="s">
+        <v>2891</v>
+      </c>
+      <c r="D935" s="4" t="s">
+        <v>3020</v>
+      </c>
+      <c r="E935" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="936" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A936" s="3" t="s">
+        <v>2887</v>
+      </c>
+      <c r="B936" s="3" t="s">
+        <v>2892</v>
+      </c>
+      <c r="D936" s="4" t="s">
+        <v>3021</v>
+      </c>
+      <c r="E936" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="937" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A937" s="3" t="s">
+        <v>2887</v>
+      </c>
+      <c r="B937" s="3" t="s">
+        <v>2893</v>
+      </c>
+      <c r="D937" s="4" t="s">
+        <v>3022</v>
+      </c>
+      <c r="E937" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="938" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A938" s="3" t="s">
+        <v>2887</v>
+      </c>
+      <c r="B938" s="3" t="s">
+        <v>2894</v>
+      </c>
+      <c r="D938" s="4" t="s">
+        <v>3023</v>
+      </c>
+      <c r="E938" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="939" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A939" s="3" t="s">
+        <v>2887</v>
+      </c>
+      <c r="B939" s="3" t="s">
+        <v>2895</v>
+      </c>
+      <c r="D939" s="4" t="s">
+        <v>3024</v>
+      </c>
+      <c r="E939" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="940" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A940" s="3" t="s">
+        <v>2887</v>
+      </c>
+      <c r="B940" s="3" t="s">
+        <v>2896</v>
+      </c>
+      <c r="D940" s="4" t="s">
+        <v>3025</v>
+      </c>
+      <c r="E940" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="941" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A941" s="3" t="s">
+        <v>2887</v>
+      </c>
+      <c r="B941" s="3" t="s">
+        <v>2897</v>
+      </c>
+      <c r="D941" s="4" t="s">
+        <v>3026</v>
+      </c>
+      <c r="E941" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="942" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A942" s="3" t="s">
+        <v>2887</v>
+      </c>
+      <c r="B942" s="3" t="s">
+        <v>2898</v>
+      </c>
+      <c r="D942" s="4" t="s">
+        <v>3027</v>
+      </c>
+      <c r="E942" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="943" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A943" s="3" t="s">
+        <v>2887</v>
+      </c>
+      <c r="B943" s="3" t="s">
+        <v>2899</v>
+      </c>
+      <c r="D943" s="4" t="s">
+        <v>3028</v>
+      </c>
+      <c r="E943" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="944" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A944" s="3" t="s">
+        <v>2887</v>
+      </c>
+      <c r="B944" s="3" t="s">
+        <v>2900</v>
+      </c>
+      <c r="D944" s="4" t="s">
+        <v>3029</v>
+      </c>
+      <c r="E944" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="945" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A945" s="3" t="s">
+        <v>2887</v>
+      </c>
+      <c r="B945" s="3" t="s">
+        <v>2901</v>
+      </c>
+      <c r="D945" s="4" t="s">
+        <v>3030</v>
+      </c>
+      <c r="E945" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="946" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A946" s="3" t="s">
+        <v>2887</v>
+      </c>
+      <c r="B946" s="3" t="s">
+        <v>2902</v>
+      </c>
+      <c r="D946" s="4" t="s">
+        <v>1244</v>
+      </c>
+      <c r="E946" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="947" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A947" s="3" t="s">
+        <v>2887</v>
+      </c>
+      <c r="B947" s="3" t="s">
+        <v>2903</v>
+      </c>
+      <c r="D947" s="4" t="s">
+        <v>1442</v>
+      </c>
+      <c r="E947" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="948" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A948" s="3" t="s">
+        <v>2887</v>
+      </c>
+      <c r="B948" s="3" t="s">
+        <v>2904</v>
+      </c>
+      <c r="D948" s="4" t="s">
+        <v>3031</v>
+      </c>
+      <c r="E948" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="949" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A949" s="3" t="s">
+        <v>2887</v>
+      </c>
+      <c r="B949" s="3" t="s">
+        <v>2905</v>
+      </c>
+      <c r="D949" s="4" t="s">
+        <v>3032</v>
+      </c>
+      <c r="E949" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="950" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A950" s="3" t="s">
+        <v>2887</v>
+      </c>
+      <c r="B950" s="3" t="s">
+        <v>2906</v>
+      </c>
+      <c r="D950" s="4" t="s">
+        <v>3033</v>
+      </c>
+      <c r="E950" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="951" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A951" s="3" t="s">
+        <v>2887</v>
+      </c>
+      <c r="B951" s="3" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D951" s="4" t="s">
+        <v>3034</v>
+      </c>
+      <c r="E951" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="952" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A952" s="3" t="s">
+        <v>2887</v>
+      </c>
+      <c r="B952" s="3" t="s">
+        <v>2908</v>
+      </c>
+      <c r="D952" s="4" t="s">
+        <v>3035</v>
+      </c>
+      <c r="E952" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="953" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A953" s="3" t="s">
+        <v>2887</v>
+      </c>
+      <c r="B953" s="3" t="s">
+        <v>2909</v>
+      </c>
+      <c r="D953" s="4" t="s">
+        <v>3036</v>
+      </c>
+      <c r="E953" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="954" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A954" s="3" t="s">
+        <v>2887</v>
+      </c>
+      <c r="B954" s="3" t="s">
+        <v>2910</v>
+      </c>
+      <c r="D954" s="4" t="s">
+        <v>3037</v>
+      </c>
+      <c r="E954" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="955" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A955" s="3" t="s">
+        <v>2887</v>
+      </c>
+      <c r="B955" s="3" t="s">
+        <v>2911</v>
+      </c>
+      <c r="D955" s="4" t="s">
+        <v>3038</v>
+      </c>
+      <c r="E955" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="956" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A956" s="3" t="s">
+        <v>2887</v>
+      </c>
+      <c r="B956" s="3" t="s">
+        <v>2912</v>
+      </c>
+      <c r="D956" s="4" t="s">
+        <v>3039</v>
+      </c>
+      <c r="E956" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="957" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A957" s="3" t="s">
+        <v>2887</v>
+      </c>
+      <c r="B957" s="3" t="s">
+        <v>2913</v>
+      </c>
+      <c r="D957" s="4" t="s">
+        <v>3040</v>
+      </c>
+      <c r="E957" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="958" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A958" s="3" t="s">
+        <v>2887</v>
+      </c>
+      <c r="B958" s="3" t="s">
+        <v>2914</v>
+      </c>
+      <c r="D958" s="4" t="s">
+        <v>3041</v>
+      </c>
+      <c r="E958" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="959" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A959" s="3" t="s">
+        <v>2887</v>
+      </c>
+      <c r="B959" s="3" t="s">
+        <v>2915</v>
+      </c>
+      <c r="D959" s="4" t="s">
+        <v>1424</v>
+      </c>
+      <c r="E959" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="960" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A960" s="3" t="s">
+        <v>2887</v>
+      </c>
+      <c r="B960" s="3" t="s">
+        <v>2916</v>
+      </c>
+      <c r="D960" s="4" t="s">
+        <v>3042</v>
+      </c>
+      <c r="E960" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="961" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A961" s="3" t="s">
+        <v>2887</v>
+      </c>
+      <c r="B961" s="3" t="s">
+        <v>2917</v>
+      </c>
+      <c r="D961" s="4" t="s">
+        <v>3043</v>
+      </c>
+      <c r="E961" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="962" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A962" s="3" t="s">
+        <v>2887</v>
+      </c>
+      <c r="B962" s="3" t="s">
+        <v>2918</v>
+      </c>
+      <c r="D962" s="4" t="s">
+        <v>3044</v>
+      </c>
+      <c r="E962" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="963" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A963" s="3" t="s">
+        <v>2887</v>
+      </c>
+      <c r="B963" s="3" t="s">
+        <v>2919</v>
+      </c>
+      <c r="D963" s="4" t="s">
+        <v>3045</v>
+      </c>
+      <c r="E963" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="964" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A964" s="3" t="s">
+        <v>2887</v>
+      </c>
+      <c r="B964" s="3" t="s">
+        <v>2920</v>
+      </c>
+      <c r="D964" s="4" t="s">
+        <v>3046</v>
+      </c>
+      <c r="E964" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="965" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A965" s="3" t="s">
+        <v>2887</v>
+      </c>
+      <c r="B965" s="3" t="s">
+        <v>2921</v>
+      </c>
+      <c r="D965" s="4" t="s">
+        <v>3047</v>
+      </c>
+      <c r="E965" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="966" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A966" s="3" t="s">
+        <v>2887</v>
+      </c>
+      <c r="B966" s="3" t="s">
+        <v>2922</v>
+      </c>
+      <c r="D966" s="4" t="s">
+        <v>3048</v>
+      </c>
+      <c r="E966" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="967" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A967" s="3" t="s">
+        <v>2887</v>
+      </c>
+      <c r="B967" s="3" t="s">
+        <v>2923</v>
+      </c>
+      <c r="D967" s="4" t="s">
+        <v>3049</v>
+      </c>
+      <c r="E967" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="968" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A968" s="3" t="s">
+        <v>2887</v>
+      </c>
+      <c r="B968" s="3" t="s">
+        <v>2924</v>
+      </c>
+      <c r="D968" s="4" t="s">
+        <v>3050</v>
+      </c>
+      <c r="E968" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="969" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A969" s="3" t="s">
+        <v>2887</v>
+      </c>
+      <c r="B969" s="3" t="s">
+        <v>2925</v>
+      </c>
+      <c r="D969" s="4" t="s">
+        <v>3051</v>
+      </c>
+      <c r="E969" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="970" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A970" s="3" t="s">
+        <v>2926</v>
+      </c>
+      <c r="B970" s="3" t="s">
+        <v>2927</v>
+      </c>
+      <c r="D970" s="4" t="s">
+        <v>3052</v>
+      </c>
+      <c r="E970" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="971" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A971" s="3" t="s">
+        <v>2926</v>
+      </c>
+      <c r="B971" s="3" t="s">
+        <v>2928</v>
+      </c>
+      <c r="D971" s="4" t="s">
+        <v>3053</v>
+      </c>
+      <c r="E971" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="972" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A972" s="3" t="s">
+        <v>2926</v>
+      </c>
+      <c r="B972" s="3" t="s">
+        <v>2929</v>
+      </c>
+      <c r="D972" s="4" t="s">
+        <v>3054</v>
+      </c>
+      <c r="E972" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="973" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A973" s="3" t="s">
+        <v>2926</v>
+      </c>
+      <c r="B973" s="3" t="s">
+        <v>2930</v>
+      </c>
+      <c r="D973" s="4" t="s">
+        <v>3055</v>
+      </c>
+      <c r="E973" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="974" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A974" s="3" t="s">
+        <v>2926</v>
+      </c>
+      <c r="B974" s="3" t="s">
+        <v>2931</v>
+      </c>
+      <c r="D974" s="4" t="s">
+        <v>3056</v>
+      </c>
+      <c r="E974" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="975" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A975" s="3" t="s">
+        <v>2926</v>
+      </c>
+      <c r="B975" s="3" t="s">
+        <v>2932</v>
+      </c>
+      <c r="D975" s="4" t="s">
+        <v>3057</v>
+      </c>
+      <c r="E975" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="976" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A976" s="3" t="s">
+        <v>2926</v>
+      </c>
+      <c r="B976" s="3" t="s">
+        <v>2933</v>
+      </c>
+      <c r="D976" s="4" t="s">
+        <v>3058</v>
+      </c>
+      <c r="E976" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="977" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A977" s="3" t="s">
+        <v>2934</v>
+      </c>
+      <c r="B977" s="3" t="s">
+        <v>2935</v>
+      </c>
+      <c r="D977" s="4" t="s">
+        <v>3059</v>
+      </c>
+      <c r="E977" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="978" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A978" s="3" t="s">
+        <v>2934</v>
+      </c>
+      <c r="B978" s="3" t="s">
+        <v>2936</v>
+      </c>
+      <c r="D978" s="4" t="s">
+        <v>3060</v>
+      </c>
+      <c r="E978" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="979" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A979" s="3" t="s">
+        <v>2937</v>
+      </c>
+      <c r="B979" s="3" t="s">
+        <v>2938</v>
+      </c>
+      <c r="D979" s="4" t="s">
+        <v>3061</v>
+      </c>
+      <c r="E979" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="980" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A980" s="3" t="s">
+        <v>2937</v>
+      </c>
+      <c r="B980" s="3" t="s">
+        <v>2939</v>
+      </c>
+      <c r="D980" s="4" t="s">
+        <v>3062</v>
+      </c>
+      <c r="E980" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="981" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A981" s="3" t="s">
+        <v>2937</v>
+      </c>
+      <c r="B981" s="3" t="s">
+        <v>2940</v>
+      </c>
+      <c r="D981" s="4" t="s">
+        <v>3063</v>
+      </c>
+      <c r="E981" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="982" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A982" s="3" t="s">
+        <v>2937</v>
+      </c>
+      <c r="B982" s="3" t="s">
+        <v>2941</v>
+      </c>
+      <c r="D982" s="4" t="s">
+        <v>3064</v>
+      </c>
+      <c r="E982" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="983" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A983" s="3" t="s">
+        <v>2937</v>
+      </c>
+      <c r="B983" s="3" t="s">
+        <v>2942</v>
+      </c>
+      <c r="D983" s="4" t="s">
+        <v>3065</v>
+      </c>
+      <c r="E983" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="984" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A984" s="3" t="s">
+        <v>2937</v>
+      </c>
+      <c r="B984" s="3" t="s">
+        <v>2943</v>
+      </c>
+      <c r="D984" s="4" t="s">
+        <v>3066</v>
+      </c>
+      <c r="E984" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="985" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A985" s="3" t="s">
+        <v>2937</v>
+      </c>
+      <c r="B985" s="3" t="s">
+        <v>2944</v>
+      </c>
+      <c r="D985" s="4" t="s">
+        <v>3067</v>
+      </c>
+      <c r="E985" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="986" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A986" s="3" t="s">
+        <v>2937</v>
+      </c>
+      <c r="B986" s="3" t="s">
+        <v>2945</v>
+      </c>
+      <c r="D986" s="4" t="s">
+        <v>3068</v>
+      </c>
+      <c r="E986" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="987" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A987" s="3" t="s">
+        <v>2937</v>
+      </c>
+      <c r="B987" s="3" t="s">
+        <v>2946</v>
+      </c>
+      <c r="D987" s="4" t="s">
+        <v>3069</v>
+      </c>
+      <c r="E987" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="988" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A988" s="3" t="s">
+        <v>2937</v>
+      </c>
+      <c r="B988" s="3" t="s">
+        <v>2947</v>
+      </c>
+      <c r="D988" s="4" t="s">
+        <v>3070</v>
+      </c>
+      <c r="E988" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="989" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A989" s="3" t="s">
+        <v>2937</v>
+      </c>
+      <c r="B989" s="3" t="s">
+        <v>2948</v>
+      </c>
+      <c r="D989" s="4" t="s">
+        <v>3071</v>
+      </c>
+      <c r="E989" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="990" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A990" s="3" t="s">
+        <v>2937</v>
+      </c>
+      <c r="B990" s="3" t="s">
+        <v>2949</v>
+      </c>
+      <c r="D990" s="4" t="s">
+        <v>3072</v>
+      </c>
+      <c r="E990" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="991" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A991" s="3" t="s">
+        <v>2937</v>
+      </c>
+      <c r="B991" s="3" t="s">
+        <v>2950</v>
+      </c>
+      <c r="D991" s="4" t="s">
+        <v>3073</v>
+      </c>
+      <c r="E991" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="992" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A992" s="3" t="s">
+        <v>2937</v>
+      </c>
+      <c r="B992" s="3" t="s">
+        <v>2951</v>
+      </c>
+      <c r="D992" s="4" t="s">
+        <v>3074</v>
+      </c>
+      <c r="E992" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="993" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A993" t="s">
+        <v>2952</v>
+      </c>
+      <c r="B993" s="3" t="s">
+        <v>2953</v>
+      </c>
+      <c r="D993" s="4" t="s">
+        <v>3075</v>
+      </c>
+      <c r="E993" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="994" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A994" t="s">
+        <v>2952</v>
+      </c>
+      <c r="B994" s="3" t="s">
+        <v>2954</v>
+      </c>
+      <c r="D994" s="4" t="s">
+        <v>3076</v>
+      </c>
+      <c r="E994" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="995" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A995" t="s">
+        <v>2952</v>
+      </c>
+      <c r="B995" s="3" t="s">
+        <v>2955</v>
+      </c>
+      <c r="D995" s="4" t="s">
+        <v>3077</v>
+      </c>
+      <c r="E995" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="996" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A996" t="s">
+        <v>2952</v>
+      </c>
+      <c r="B996" s="3" t="s">
+        <v>2956</v>
+      </c>
+      <c r="D996" s="4" t="s">
+        <v>3078</v>
+      </c>
+      <c r="E996" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="997" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A997" t="s">
+        <v>2952</v>
+      </c>
+      <c r="B997" s="3" t="s">
+        <v>2957</v>
+      </c>
+      <c r="D997" s="4" t="s">
+        <v>3079</v>
+      </c>
+      <c r="E997" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="998" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A998" t="s">
+        <v>2952</v>
+      </c>
+      <c r="B998" s="3" t="s">
+        <v>2958</v>
+      </c>
+      <c r="D998" s="4" t="s">
+        <v>3080</v>
+      </c>
+      <c r="E998" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="999" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A999" t="s">
+        <v>2952</v>
+      </c>
+      <c r="B999" s="3" t="s">
+        <v>2959</v>
+      </c>
+      <c r="D999" s="4" t="s">
+        <v>3081</v>
+      </c>
+      <c r="E999" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1000" t="s">
+        <v>2952</v>
+      </c>
+      <c r="B1000" s="3" t="s">
+        <v>2960</v>
+      </c>
+      <c r="D1000" s="4" t="s">
+        <v>3082</v>
+      </c>
+      <c r="E1000" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1001" t="s">
+        <v>2952</v>
+      </c>
+      <c r="B1001" s="3" t="s">
+        <v>2961</v>
+      </c>
+      <c r="D1001" s="4" t="s">
+        <v>3083</v>
+      </c>
+      <c r="E1001" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1002" t="s">
+        <v>2952</v>
+      </c>
+      <c r="B1002" s="3" t="s">
+        <v>2962</v>
+      </c>
+      <c r="D1002" s="4" t="s">
+        <v>3084</v>
+      </c>
+      <c r="E1002" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1003" t="s">
+        <v>2952</v>
+      </c>
+      <c r="B1003" s="3" t="s">
+        <v>2963</v>
+      </c>
+      <c r="D1003" s="4" t="s">
+        <v>3085</v>
+      </c>
+      <c r="E1003" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1004" t="s">
+        <v>2952</v>
+      </c>
+      <c r="B1004" s="3" t="s">
+        <v>2964</v>
+      </c>
+      <c r="D1004" s="4" t="s">
+        <v>3086</v>
+      </c>
+      <c r="E1004" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1005" t="s">
+        <v>2952</v>
+      </c>
+      <c r="B1005" s="3" t="s">
+        <v>2965</v>
+      </c>
+      <c r="D1005" s="4" t="s">
+        <v>3087</v>
+      </c>
+      <c r="E1005" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1006" t="s">
+        <v>2952</v>
+      </c>
+      <c r="B1006" s="3" t="s">
+        <v>2966</v>
+      </c>
+      <c r="D1006" s="4" t="s">
+        <v>3088</v>
+      </c>
+      <c r="E1006" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1007" t="s">
+        <v>2952</v>
+      </c>
+      <c r="B1007" s="3" t="s">
+        <v>2967</v>
+      </c>
+      <c r="D1007" s="4" t="s">
+        <v>3089</v>
+      </c>
+      <c r="E1007" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1008" t="s">
+        <v>2952</v>
+      </c>
+      <c r="B1008" s="3" t="s">
+        <v>2968</v>
+      </c>
+      <c r="D1008" s="4" t="s">
+        <v>3090</v>
+      </c>
+      <c r="E1008" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1009" t="s">
+        <v>2952</v>
+      </c>
+      <c r="B1009" s="3" t="s">
+        <v>2969</v>
+      </c>
+      <c r="D1009" s="4" t="s">
+        <v>3091</v>
+      </c>
+      <c r="E1009" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1010" t="s">
+        <v>2952</v>
+      </c>
+      <c r="B1010" s="3" t="s">
+        <v>2970</v>
+      </c>
+      <c r="D1010" s="4" t="s">
+        <v>3092</v>
+      </c>
+      <c r="E1010" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1011" t="s">
+        <v>2952</v>
+      </c>
+      <c r="B1011" s="3" t="s">
+        <v>2971</v>
+      </c>
+      <c r="D1011" s="4" t="s">
+        <v>3093</v>
+      </c>
+      <c r="E1011" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1012" t="s">
+        <v>2952</v>
+      </c>
+      <c r="B1012" s="3" t="s">
+        <v>2972</v>
+      </c>
+      <c r="D1012" s="4" t="s">
+        <v>3094</v>
+      </c>
+      <c r="E1012" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1013" t="s">
+        <v>2952</v>
+      </c>
+      <c r="B1013" s="3" t="s">
+        <v>2973</v>
+      </c>
+      <c r="D1013" s="4" t="s">
+        <v>3095</v>
+      </c>
+      <c r="E1013" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1014" t="s">
+        <v>2952</v>
+      </c>
+      <c r="B1014" s="3" t="s">
+        <v>2974</v>
+      </c>
+      <c r="D1014" s="4" t="s">
+        <v>3096</v>
+      </c>
+      <c r="E1014" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1015" t="s">
+        <v>2952</v>
+      </c>
+      <c r="B1015" s="3" t="s">
+        <v>2975</v>
+      </c>
+      <c r="D1015" s="4" t="s">
+        <v>3097</v>
+      </c>
+      <c r="E1015" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1016" t="s">
+        <v>2952</v>
+      </c>
+      <c r="B1016" s="3" t="s">
+        <v>2976</v>
+      </c>
+      <c r="D1016" s="4" t="s">
+        <v>3098</v>
+      </c>
+      <c r="E1016" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1017" t="s">
+        <v>2952</v>
+      </c>
+      <c r="B1017" s="3" t="s">
+        <v>2977</v>
+      </c>
+      <c r="D1017" s="4" t="s">
+        <v>3099</v>
+      </c>
+      <c r="E1017" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1018" t="s">
+        <v>2952</v>
+      </c>
+      <c r="B1018" s="3" t="s">
+        <v>2978</v>
+      </c>
+      <c r="D1018" s="4" t="s">
+        <v>3100</v>
+      </c>
+      <c r="E1018" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1019" t="s">
+        <v>2952</v>
+      </c>
+      <c r="B1019" s="3" t="s">
+        <v>2979</v>
+      </c>
+      <c r="D1019" s="4" t="s">
+        <v>3101</v>
+      </c>
+      <c r="E1019" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1020" t="s">
+        <v>2952</v>
+      </c>
+      <c r="B1020" s="3" t="s">
+        <v>2980</v>
+      </c>
+      <c r="D1020" s="4" t="s">
+        <v>3102</v>
+      </c>
+      <c r="E1020" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1021" t="s">
+        <v>2952</v>
+      </c>
+      <c r="B1021" s="3" t="s">
+        <v>2981</v>
+      </c>
+      <c r="D1021" s="4" t="s">
+        <v>3103</v>
+      </c>
+      <c r="E1021" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1022" t="s">
+        <v>2952</v>
+      </c>
+      <c r="B1022" s="3" t="s">
+        <v>2982</v>
+      </c>
+      <c r="D1022" s="4" t="s">
+        <v>3104</v>
+      </c>
+      <c r="E1022" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1023" t="s">
+        <v>2952</v>
+      </c>
+      <c r="B1023" s="3" t="s">
+        <v>2983</v>
+      </c>
+      <c r="D1023" s="4" t="s">
+        <v>3105</v>
+      </c>
+      <c r="E1023" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1024" t="s">
+        <v>2952</v>
+      </c>
+      <c r="B1024" s="3" t="s">
+        <v>2984</v>
+      </c>
+      <c r="D1024" s="4" t="s">
+        <v>3106</v>
+      </c>
+      <c r="E1024" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1025" t="s">
+        <v>2952</v>
+      </c>
+      <c r="B1025" s="3" t="s">
+        <v>2985</v>
+      </c>
+      <c r="D1025" s="4" t="s">
+        <v>3107</v>
+      </c>
+      <c r="E1025" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1026" t="s">
+        <v>2952</v>
+      </c>
+      <c r="B1026" s="3" t="s">
+        <v>2986</v>
+      </c>
+      <c r="D1026" s="4" t="s">
+        <v>3108</v>
+      </c>
+      <c r="E1026" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1027" t="s">
+        <v>2952</v>
+      </c>
+      <c r="B1027" s="3" t="s">
+        <v>2987</v>
+      </c>
+      <c r="D1027" s="4" t="s">
+        <v>3109</v>
+      </c>
+      <c r="E1027" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1028" t="s">
+        <v>2952</v>
+      </c>
+      <c r="B1028" s="3" t="s">
+        <v>2988</v>
+      </c>
+      <c r="D1028" s="4" t="s">
+        <v>3110</v>
+      </c>
+      <c r="E1028" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1029" t="s">
+        <v>2952</v>
+      </c>
+      <c r="B1029" s="3" t="s">
+        <v>2989</v>
+      </c>
+      <c r="D1029" s="4" t="s">
+        <v>3111</v>
+      </c>
+      <c r="E1029" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1030" t="s">
+        <v>2952</v>
+      </c>
+      <c r="B1030" s="3" t="s">
+        <v>2990</v>
+      </c>
+      <c r="D1030" s="4" t="s">
+        <v>3112</v>
+      </c>
+      <c r="E1030" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1031" t="s">
+        <v>2952</v>
+      </c>
+      <c r="B1031" s="3" t="s">
+        <v>2991</v>
+      </c>
+      <c r="D1031" s="4" t="s">
+        <v>3113</v>
+      </c>
+      <c r="E1031" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1032" t="s">
+        <v>2952</v>
+      </c>
+      <c r="B1032" s="3" t="s">
+        <v>2992</v>
+      </c>
+      <c r="D1032" s="4" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E1032" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1033" s="3" t="s">
+        <v>2993</v>
+      </c>
+      <c r="B1033" s="3" t="s">
+        <v>2994</v>
+      </c>
+      <c r="D1033" s="3" t="s">
+        <v>3115</v>
+      </c>
+      <c r="E1033" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1034" s="3" t="s">
+        <v>2993</v>
+      </c>
+      <c r="B1034" s="3" t="s">
+        <v>2995</v>
+      </c>
+      <c r="D1034" s="3" t="s">
+        <v>3116</v>
+      </c>
+      <c r="E1034" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1035" s="3" t="s">
+        <v>2993</v>
+      </c>
+      <c r="B1035" s="3" t="s">
+        <v>2996</v>
+      </c>
+      <c r="D1035" s="3" t="s">
+        <v>3117</v>
+      </c>
+      <c r="E1035" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1036" s="3" t="s">
+        <v>2993</v>
+      </c>
+      <c r="B1036" s="3" t="s">
+        <v>2997</v>
+      </c>
+      <c r="D1036" s="3" t="s">
+        <v>3118</v>
+      </c>
+      <c r="E1036" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1037" s="3" t="s">
+        <v>2993</v>
+      </c>
+      <c r="B1037" s="3" t="s">
+        <v>2998</v>
+      </c>
+      <c r="D1037" s="3" t="s">
+        <v>3119</v>
+      </c>
+      <c r="E1037" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1038" s="3" t="s">
+        <v>2999</v>
+      </c>
+      <c r="B1038" s="3" t="s">
+        <v>3000</v>
+      </c>
+      <c r="D1038" s="3" t="s">
+        <v>3120</v>
+      </c>
+      <c r="E1038" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1039" s="3" t="s">
+        <v>3001</v>
+      </c>
+      <c r="B1039" s="3" t="s">
+        <v>3002</v>
+      </c>
+      <c r="D1039" s="3" t="s">
+        <v>3121</v>
+      </c>
+      <c r="E1039" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1040" s="3" t="s">
+        <v>3001</v>
+      </c>
+      <c r="B1040" s="3" t="s">
+        <v>3003</v>
+      </c>
+      <c r="D1040" s="3" t="s">
+        <v>3122</v>
+      </c>
+      <c r="E1040" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1041" s="3" t="s">
+        <v>3001</v>
+      </c>
+      <c r="B1041" s="3" t="s">
+        <v>3004</v>
+      </c>
+      <c r="D1041" s="3" t="s">
+        <v>3123</v>
+      </c>
+      <c r="E1041" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1042" s="3" t="s">
+        <v>3001</v>
+      </c>
+      <c r="B1042" s="3" t="s">
+        <v>3005</v>
+      </c>
+      <c r="D1042" s="3" t="s">
+        <v>3124</v>
+      </c>
+      <c r="E1042" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1043" s="3" t="s">
+        <v>3001</v>
+      </c>
+      <c r="B1043" s="3" t="s">
+        <v>3006</v>
+      </c>
+      <c r="D1043" s="3" t="s">
+        <v>3125</v>
+      </c>
+      <c r="E1043" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1044" s="3" t="s">
+        <v>3001</v>
+      </c>
+      <c r="B1044" s="3" t="s">
+        <v>3007</v>
+      </c>
+      <c r="D1044" s="3" t="s">
+        <v>3126</v>
+      </c>
+      <c r="E1044" s="3" t="s">
+        <v>1038</v>
       </c>
     </row>
   </sheetData>

--- a/gdcdictionary/xlsx/nodes_schema_impowr.xlsx
+++ b/gdcdictionary/xlsx/nodes_schema_impowr.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vithal\Documents\GitHub\dcfdictionary\gdcdictionary\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{325C1EF4-26B9-440B-8B2F-AE213A894C77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47C27689-8F8D-4A04-8618-51B7E3E49DC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1215" yWindow="1215" windowWidth="24435" windowHeight="12735" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="555" yWindow="1245" windowWidth="20145" windowHeight="12900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nodes_impowr" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9384" uniqueCount="3127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10044" uniqueCount="3461">
   <si>
     <t>&lt;$schema&gt;</t>
   </si>
@@ -9440,6 +9440,1012 @@
   </si>
   <si>
     <t>Pain Catastrophizing Questionnaire - total score value</t>
+  </si>
+  <si>
+    <t>Opioid Misuse Screening</t>
+  </si>
+  <si>
+    <t>omsobtainedothr</t>
+  </si>
+  <si>
+    <t>omsranout</t>
+  </si>
+  <si>
+    <t>omsneedmore</t>
+  </si>
+  <si>
+    <t>omstakemoreopioid</t>
+  </si>
+  <si>
+    <t>Modified Addiction Severity Index</t>
+  </si>
+  <si>
+    <t>masicannabisdays</t>
+  </si>
+  <si>
+    <t>masicocainedays</t>
+  </si>
+  <si>
+    <t>masiheroindays</t>
+  </si>
+  <si>
+    <t>masifentanyldays</t>
+  </si>
+  <si>
+    <t>masimethdndays</t>
+  </si>
+  <si>
+    <t>masibupedays</t>
+  </si>
+  <si>
+    <t>masiopiatedays</t>
+  </si>
+  <si>
+    <t>masibenzodays</t>
+  </si>
+  <si>
+    <t>masiamphetdays</t>
+  </si>
+  <si>
+    <t>masistreetamphdays</t>
+  </si>
+  <si>
+    <t>masiotherdays</t>
+  </si>
+  <si>
+    <t>masicannabisroute_1</t>
+  </si>
+  <si>
+    <t>masicannabisroute_2</t>
+  </si>
+  <si>
+    <t>masicannabisroute_3</t>
+  </si>
+  <si>
+    <t>masicannabisroute_4</t>
+  </si>
+  <si>
+    <t>masicannabisroute_5</t>
+  </si>
+  <si>
+    <t>masicannabisrouteothr</t>
+  </si>
+  <si>
+    <t>masicocaineroute</t>
+  </si>
+  <si>
+    <t>masiheroinroute</t>
+  </si>
+  <si>
+    <t>masifentanylrx</t>
+  </si>
+  <si>
+    <t>masifentanylroute</t>
+  </si>
+  <si>
+    <t>masimethdnrx</t>
+  </si>
+  <si>
+    <t>masimethdnroute</t>
+  </si>
+  <si>
+    <t>masibuperx</t>
+  </si>
+  <si>
+    <t>masibuperoute</t>
+  </si>
+  <si>
+    <t>masiopiaterx</t>
+  </si>
+  <si>
+    <t>masiopiateroute</t>
+  </si>
+  <si>
+    <t>masibenzorx</t>
+  </si>
+  <si>
+    <t>masibenzoroute</t>
+  </si>
+  <si>
+    <t>masiamphetrx</t>
+  </si>
+  <si>
+    <t>masiamphetroute</t>
+  </si>
+  <si>
+    <t>masistreetamphroute</t>
+  </si>
+  <si>
+    <t>masiotherdrugname</t>
+  </si>
+  <si>
+    <t>masiotherrx</t>
+  </si>
+  <si>
+    <t>masiotherroute</t>
+  </si>
+  <si>
+    <t>Modified TAPS-1</t>
+  </si>
+  <si>
+    <t>tapstobaccoproductscl</t>
+  </si>
+  <si>
+    <t>Modified TAPS-2</t>
+  </si>
+  <si>
+    <t>tapsprescriptionmedusescl</t>
+  </si>
+  <si>
+    <t>Modified TAPS-3</t>
+  </si>
+  <si>
+    <t>cigperdayscl</t>
+  </si>
+  <si>
+    <t>Modified TAPS-4</t>
+  </si>
+  <si>
+    <t>ecigusedays</t>
+  </si>
+  <si>
+    <t>AUDIT-C</t>
+  </si>
+  <si>
+    <t>audit_usc1</t>
+  </si>
+  <si>
+    <t>audit_usc2</t>
+  </si>
+  <si>
+    <t>audit_usc3</t>
+  </si>
+  <si>
+    <t>audit_usc_total</t>
+  </si>
+  <si>
+    <t>IMPOWR Overdose Screening</t>
+  </si>
+  <si>
+    <t>opioidodnumtimes</t>
+  </si>
+  <si>
+    <t>opioidodnarcan</t>
+  </si>
+  <si>
+    <t>IMPOWR MOUD</t>
+  </si>
+  <si>
+    <t>moudeveryn</t>
+  </si>
+  <si>
+    <t>moud_type</t>
+  </si>
+  <si>
+    <t>moudbup</t>
+  </si>
+  <si>
+    <t>moudmethdn</t>
+  </si>
+  <si>
+    <t>moudnaltrex</t>
+  </si>
+  <si>
+    <t>moudbup_lifemo</t>
+  </si>
+  <si>
+    <t>moudbup_6modays</t>
+  </si>
+  <si>
+    <t>moudbup_6modose</t>
+  </si>
+  <si>
+    <t>moudbupinj_lifemo</t>
+  </si>
+  <si>
+    <t>moudbupinj_6modays</t>
+  </si>
+  <si>
+    <t>moudbupinj_6modose</t>
+  </si>
+  <si>
+    <t>moudmethdn_lifemo</t>
+  </si>
+  <si>
+    <t>moudmethdn_6modays</t>
+  </si>
+  <si>
+    <t>moudmethdn_6modose</t>
+  </si>
+  <si>
+    <t>moudnaltrex_lifemo</t>
+  </si>
+  <si>
+    <t>moudnaltrex_6modays</t>
+  </si>
+  <si>
+    <t>moudnaltrex_6modose</t>
+  </si>
+  <si>
+    <t>moudnaltrexinj_lifemo</t>
+  </si>
+  <si>
+    <t>moudnaltrexinj_6modays</t>
+  </si>
+  <si>
+    <t>moudnaltrexinj_6modose</t>
+  </si>
+  <si>
+    <t>Social Drug Use</t>
+  </si>
+  <si>
+    <t>socialdetd11a</t>
+  </si>
+  <si>
+    <t>socialdetd11b</t>
+  </si>
+  <si>
+    <t>Supplemental Smoking</t>
+  </si>
+  <si>
+    <t>su_smoke100</t>
+  </si>
+  <si>
+    <t>su_cigflavor</t>
+  </si>
+  <si>
+    <t>su_cigar</t>
+  </si>
+  <si>
+    <t>su_blunt</t>
+  </si>
+  <si>
+    <t>su_electronic</t>
+  </si>
+  <si>
+    <t>su_vapemonday</t>
+  </si>
+  <si>
+    <t>su_vapetuesday</t>
+  </si>
+  <si>
+    <t>su_vapewednesday</t>
+  </si>
+  <si>
+    <t>su_vapethursday</t>
+  </si>
+  <si>
+    <t>su_vapefriday</t>
+  </si>
+  <si>
+    <t>su_vapesaturday</t>
+  </si>
+  <si>
+    <t>su_vapesunday</t>
+  </si>
+  <si>
+    <t>PROMIS Alcohol</t>
+  </si>
+  <si>
+    <t>psfalc7aanydrinking</t>
+  </si>
+  <si>
+    <t>psfalc7atoomuchtime</t>
+  </si>
+  <si>
+    <t>psfalc7adrankheavily</t>
+  </si>
+  <si>
+    <t>psfalc7adranktoomuch</t>
+  </si>
+  <si>
+    <t>psfalc7adrankmorethnplan</t>
+  </si>
+  <si>
+    <t>psfalc7atroublecontrol</t>
+  </si>
+  <si>
+    <t>psfalc7adifficulttostop</t>
+  </si>
+  <si>
+    <t>psfalc7adifficulttocontrol</t>
+  </si>
+  <si>
+    <t>psfalc7atotalscore</t>
+  </si>
+  <si>
+    <t>PROMIS Severity of Substance Use</t>
+  </si>
+  <si>
+    <t>ssu7auseddrugs</t>
+  </si>
+  <si>
+    <t>ssu7aoutofcontrol</t>
+  </si>
+  <si>
+    <t>ssu7aoverpowering</t>
+  </si>
+  <si>
+    <t>ssu7adrugthought</t>
+  </si>
+  <si>
+    <t>ssu7acauseproblem</t>
+  </si>
+  <si>
+    <t>ssu7adrugproblem</t>
+  </si>
+  <si>
+    <t>ssu7acrave</t>
+  </si>
+  <si>
+    <t>ssu7atimeusing</t>
+  </si>
+  <si>
+    <t>ssu7atotalscore</t>
+  </si>
+  <si>
+    <t>US AUDIT</t>
+  </si>
+  <si>
+    <t>usaudit_alcfreq</t>
+  </si>
+  <si>
+    <t>usaudit_alcquant</t>
+  </si>
+  <si>
+    <t>usaudit_alcexcess</t>
+  </si>
+  <si>
+    <t>usaudit_notstopdrnk</t>
+  </si>
+  <si>
+    <t>usaudit_faildoexpected</t>
+  </si>
+  <si>
+    <t>usaudit_needamdrink</t>
+  </si>
+  <si>
+    <t>usaudit_guilt</t>
+  </si>
+  <si>
+    <t>usaudit_noremember</t>
+  </si>
+  <si>
+    <t>usaudit_injure</t>
+  </si>
+  <si>
+    <t>usaudit_concerncutdown</t>
+  </si>
+  <si>
+    <t>usaudit_total</t>
+  </si>
+  <si>
+    <t>Supplemental Cannabis</t>
+  </si>
+  <si>
+    <t>medical_marijuana</t>
+  </si>
+  <si>
+    <t>su_canna_pain</t>
+  </si>
+  <si>
+    <t>su_canna_inflammation</t>
+  </si>
+  <si>
+    <t>su_canna_muscle_spasm</t>
+  </si>
+  <si>
+    <t>su_canna_nausea</t>
+  </si>
+  <si>
+    <t>su_canna_lack_appetite</t>
+  </si>
+  <si>
+    <t>su_canna</t>
+  </si>
+  <si>
+    <t>su_canna_sleep</t>
+  </si>
+  <si>
+    <t>su_canna_depression</t>
+  </si>
+  <si>
+    <t>su_canna_anxiety</t>
+  </si>
+  <si>
+    <t>su_canna_ptsd</t>
+  </si>
+  <si>
+    <t>su_canna_adhd</t>
+  </si>
+  <si>
+    <t>su_canna_bipolar</t>
+  </si>
+  <si>
+    <t>su_canna_schizo</t>
+  </si>
+  <si>
+    <t>su_canna_oud</t>
+  </si>
+  <si>
+    <t>su_canna_sud</t>
+  </si>
+  <si>
+    <t>su_canna_treat_othertx</t>
+  </si>
+  <si>
+    <t>canna_treat_othertxspecif</t>
+  </si>
+  <si>
+    <t>canna_percent_plant</t>
+  </si>
+  <si>
+    <t>canna_percent_edible</t>
+  </si>
+  <si>
+    <t>canna_percent_concentrates</t>
+  </si>
+  <si>
+    <t>canna_percent_others</t>
+  </si>
+  <si>
+    <t>canna_validation</t>
+  </si>
+  <si>
+    <t>canna_percent_other_specify</t>
+  </si>
+  <si>
+    <t>Supplemental Narcan</t>
+  </si>
+  <si>
+    <t>narcankit</t>
+  </si>
+  <si>
+    <t>narcanusedother</t>
+  </si>
+  <si>
+    <t>narcanrefill</t>
+  </si>
+  <si>
+    <t>narcandrug_1</t>
+  </si>
+  <si>
+    <t>narcandrug_2</t>
+  </si>
+  <si>
+    <t>narcandrug_3</t>
+  </si>
+  <si>
+    <t>narcandrug_4</t>
+  </si>
+  <si>
+    <t>narcandrug_5</t>
+  </si>
+  <si>
+    <t>narcandrug_6</t>
+  </si>
+  <si>
+    <t>narcandrug_7</t>
+  </si>
+  <si>
+    <t>narcandrug_8</t>
+  </si>
+  <si>
+    <t>narcandrug_99</t>
+  </si>
+  <si>
+    <t>narcandrug_other</t>
+  </si>
+  <si>
+    <t>narcanadm_1</t>
+  </si>
+  <si>
+    <t>narcanadm_2</t>
+  </si>
+  <si>
+    <t>narcanadm_3</t>
+  </si>
+  <si>
+    <t>narcanadm_4</t>
+  </si>
+  <si>
+    <t>narcanadm_5</t>
+  </si>
+  <si>
+    <t>narcanadm_6</t>
+  </si>
+  <si>
+    <t>narcanadm_7</t>
+  </si>
+  <si>
+    <t>narcanadm_8</t>
+  </si>
+  <si>
+    <t>narcanadm_9</t>
+  </si>
+  <si>
+    <t>narcanadm_10</t>
+  </si>
+  <si>
+    <t>narcanadm_99</t>
+  </si>
+  <si>
+    <t>narcanadm_other</t>
+  </si>
+  <si>
+    <t>narcannumems</t>
+  </si>
+  <si>
+    <t>narcannumed</t>
+  </si>
+  <si>
+    <t>narcannumhosp</t>
+  </si>
+  <si>
+    <t>narcannumref</t>
+  </si>
+  <si>
+    <t>I got prescription pain medication from someone other than my healthcare provider.</t>
+  </si>
+  <si>
+    <t>I ran out of prescription pain medication early</t>
+  </si>
+  <si>
+    <t>I needed more prescription pain medication to relieve my pain.</t>
+  </si>
+  <si>
+    <t>I have taken more opioid pain medication than prescribed.</t>
+  </si>
+  <si>
+    <t>How many days within the PAST 30 did you use cannabis (marijuana flower or bud, concentrated oil/distillate, dabs, edibles/tinctures) except topicals (e.g., cream or balm) and products that only contain CBD (cannabidiol)?</t>
+  </si>
+  <si>
+    <t>How many days within the PAST 30 did you use cocaine or crack?</t>
+  </si>
+  <si>
+    <t>How many days within the PAST 30 did you use heroin?</t>
+  </si>
+  <si>
+    <t>How many days within the PAST 30 did you use Fentanyl?</t>
+  </si>
+  <si>
+    <t>How many days within the PAST 30 did you use Methadone?</t>
+  </si>
+  <si>
+    <t>How many days within the PAST 30 did you use Buprenorphine (suboxone/Subutex)?</t>
+  </si>
+  <si>
+    <t>How many days within the PAST 30 did you use other opiates/analgesics (Percocet/ Oxycontin/Vicodin /Morphine/Codeine)?</t>
+  </si>
+  <si>
+    <t>How many days within the PAST 30 did you use Benzodiazepines (Xanax/Valium)?</t>
+  </si>
+  <si>
+    <t>How many days within PAST 30 did you use pharmaceutical amphetamines (e.g., Adderall, Ritalin, focalin, concerta, dexedrin)?</t>
+  </si>
+  <si>
+    <t>How many days within the PAST 30 did you use Amphetamines (Methamphetamine/Ecstasy /Speed
+/Crank)?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How many days within the PAST 30 did you use other (write in) </t>
+  </si>
+  <si>
+    <t>Smoke bud or flower (e.g. joints, blunts, bong, hand pipe, hookah)</t>
+  </si>
+  <si>
+    <t>Vaporize (e.g., vape pen, e-cigarette, or other device)</t>
+  </si>
+  <si>
+    <t>Edibles (eg, gummies, capsules, THC-infused chocolate)</t>
+  </si>
+  <si>
+    <t>Dab (wax, shatter, amber, honeycomb, or budder)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other, specify: </t>
+  </si>
+  <si>
+    <t>What is your usual route of administration for cocaine?</t>
+  </si>
+  <si>
+    <t>What is your usual route of administration for heroin?</t>
+  </si>
+  <si>
+    <t>Was this fentanyl prescribed to you?</t>
+  </si>
+  <si>
+    <t>What is your usual route of administration for fentanyl?</t>
+  </si>
+  <si>
+    <t>Was this methadone prescribed to you?</t>
+  </si>
+  <si>
+    <t>What is your usual route of administration for methadone?</t>
+  </si>
+  <si>
+    <t>Was this buprenorphine prescribed to you?</t>
+  </si>
+  <si>
+    <t>What is your usual route of administration for buprenorphine?</t>
+  </si>
+  <si>
+    <t>Was this opioid prescribed to you?</t>
+  </si>
+  <si>
+    <t>What is your usual route of administration for opioids?</t>
+  </si>
+  <si>
+    <t>Was this benzodiazepine prescribed to you?</t>
+  </si>
+  <si>
+    <t>What is your usual route of administration for benzodiazepines?</t>
+  </si>
+  <si>
+    <t>Was this amphetamine prescribed to you?</t>
+  </si>
+  <si>
+    <t>What is your usual route of administration for amphetamines?</t>
+  </si>
+  <si>
+    <t>Was this other drug prescribed to you?</t>
+  </si>
+  <si>
+    <t>What is your usual route of administration?</t>
+  </si>
+  <si>
+    <t>tobacco product (for example, cigarettes, e-cigarettes, cigars, pipes, or smokeless tobacco)?</t>
+  </si>
+  <si>
+    <t>prescription medications just for the feeling, more than prescribed or that were not prescribed for you? Prescription medications that may be used this way include: Opiate pain relievers (for example, OxyContin, Vicodin, Percocet, Methadone) Medications for anxiety or sleeping (for example, Xanax, Ativan, Klonopin) Medications for ADHD (for example, Adderall or Ritalin)?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On the average, how many cigarettes do you smoke a day? </t>
+  </si>
+  <si>
+    <t>In the past 30 days, how many days have you used an electronic nicotine product? (Electronic nicotine products include e-cigarettes, vape pens, personal vaporizers and mods, e-cigars, e-pipes, e-hookahs, and hookah pens.)?</t>
+  </si>
+  <si>
+    <t>How often do you have a drink containing alcohol?</t>
+  </si>
+  <si>
+    <t>How many drinks containing alcohol do you have on a typical day when you are drinking?</t>
+  </si>
+  <si>
+    <t>How often do you have five or more drinks on one occasion?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">During the past 90 days, how many times did you overdose on heroin, fentanyl, or other opioids? (Overdose means that you took enough drug that it caused a life-threatening reaction)? </t>
+  </si>
+  <si>
+    <t>During the past 90 days, how many times did you receive naloxone (Narcan) to reverse your overdose?</t>
+  </si>
+  <si>
+    <t>Have you ever been prescribed and taken medication to treat opioid use disorder? [illicit use should be excluded]</t>
+  </si>
+  <si>
+    <t>Which MOUD have you received?</t>
+  </si>
+  <si>
+    <t>Buprenorphine</t>
+  </si>
+  <si>
+    <t>Methadone</t>
+  </si>
+  <si>
+    <t>Naltrexone</t>
+  </si>
+  <si>
+    <t>How many months in your lifetime have you taken Buprenorphine-naloxone or buprenorphine daily sublingual (e.g., Suboxone© film or tablet, generic films or tablets, or Subutex tablets?</t>
+  </si>
+  <si>
+    <t>How many days in the past 6 months/since your last assessment have you used Buprenorphine-naloxone or buprenorphine daily sublingual (e.g., Suboxone© film or tablet, generic films or tablets, or Subutex tablets)?</t>
+  </si>
+  <si>
+    <t>In the past 6 months/since your last assessment, what has been your total dose per day of Buprenorphine-naloxone or buprenorphine daily sublingual (e.g., Suboxone© film or tablet, generic films or tablets, or Subutex tablets) ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How many months in your lifetime have you taken Buprenorphine injection (Brixadi or Sublocade)?
+</t>
+  </si>
+  <si>
+    <t>How many days in the past 6 months/since your last assessment have you used Buprenorphine injection (Brixadi or Sublocade)?</t>
+  </si>
+  <si>
+    <t>In the past 6 months/since your last assessment, what has been your total dose per day of Buprenorphine injection (Brixadi or Sublocade)?</t>
+  </si>
+  <si>
+    <t>How many months in your lifetime have you taken Methadone daily?</t>
+  </si>
+  <si>
+    <t>How many days in the past 6 months/since your last assessment have you used Methadone?</t>
+  </si>
+  <si>
+    <t>In the past 6 months/since your last assessment, what has been your total dose per day of Methadone?</t>
+  </si>
+  <si>
+    <t>How many months in your lifetime have you taken Naltrexone daily (oral)?</t>
+  </si>
+  <si>
+    <t>How many days in the past 6 months/since your last assessment have you used Naltrexone daily (oral)?</t>
+  </si>
+  <si>
+    <t>In the past 6 months/since your last assessment, what has been your total dose per day of Naltrexone daily (oral)?</t>
+  </si>
+  <si>
+    <t>How many months in your lifetime have you taken Naltrexone monthly injection (Vivitrol)?</t>
+  </si>
+  <si>
+    <t>How many days in the past 6 months/since your last assessment have you used Naltrexone monthly injection (Vivitrol)?</t>
+  </si>
+  <si>
+    <t>In the past 6 months/since your last assessment, what has been your total dose per day of Naltrexone monthly injection (Vivitrol)?</t>
+  </si>
+  <si>
+    <t>Been to mutual-help group meetings (such as AA, NA, CA, or SMART Recovery) for your alcohol or other drug use?</t>
+  </si>
+  <si>
+    <t>Been in other structured activities where no one was using alcohol or drugs?</t>
+  </si>
+  <si>
+    <t>Have you smoked at least 100 cigarettes in your entire life?</t>
+  </si>
+  <si>
+    <t>Is your regular brand you smoke flavored to taste like menthol or mint?</t>
+  </si>
+  <si>
+    <t>In the past 30 days, have you smoked a cigarillo or filtered cigar, even one or two puffs?</t>
+  </si>
+  <si>
+    <t>In the past 12 months, have you smoked part or all of a traditional cigar, cigarillo, or filtered cigar with marijuana in it? (Remember all information you give to the study will be kept private.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How many times have you used an electronic nicotine product in your entire life? </t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>Sunday</t>
+  </si>
+  <si>
+    <t>In the past 30 days, did you drink any type of alcoholic beverage?</t>
+  </si>
+  <si>
+    <t>I spent too much time drinking</t>
+  </si>
+  <si>
+    <t>I drank heavily at a single sitting</t>
+  </si>
+  <si>
+    <t>I drank too much</t>
+  </si>
+  <si>
+    <t>I drank more than planned</t>
+  </si>
+  <si>
+    <t>I had trouble controlling my drinking</t>
+  </si>
+  <si>
+    <t>It was difficult for me to stop drinking after one or two drinks</t>
+  </si>
+  <si>
+    <t>It was difficult to get the thought of drinking out of my mind</t>
+  </si>
+  <si>
+    <t>Have you used drugs other than alcohol or your prescribed medications?</t>
+  </si>
+  <si>
+    <t>I felt that my drug use was out of control.</t>
+  </si>
+  <si>
+    <t>My desire to use drugs seemed overpowering.</t>
+  </si>
+  <si>
+    <t>Drugs were the only thing I could think about.</t>
+  </si>
+  <si>
+    <t>My drug use caused problems with people close to me.</t>
+  </si>
+  <si>
+    <t>I have a drug problem.</t>
+  </si>
+  <si>
+    <t>I craved drugs.</t>
+  </si>
+  <si>
+    <t>I spent a lot of time using drugs.</t>
+  </si>
+  <si>
+    <t>How often do you have X (5 for men; 4 for women &amp; men over age 65) or more drinks on one occasion? </t>
+  </si>
+  <si>
+    <t>How often during the last year have you found that you were not able to stop drinking once you had started?</t>
+  </si>
+  <si>
+    <t>How often during the last year have you failed to do what was normally expected of you because of drinking?</t>
+  </si>
+  <si>
+    <t>How often during the last year have you needed a first drink in the morning to get yourself going after a heavy drinking session?</t>
+  </si>
+  <si>
+    <t>How often during the last year have you had a feeling of guilt or remorse after drinking?</t>
+  </si>
+  <si>
+    <t>How often during the last year have you been unable to remember what happened the night before because you had been drinking?</t>
+  </si>
+  <si>
+    <t>Have you or someone else been injured as a result of your drinking?</t>
+  </si>
+  <si>
+    <t>Has a relative or friend, doctor or other health worker been concerned about your drinking or suggested you cut down?</t>
+  </si>
+  <si>
+    <t>Which of the following symptoms/conditions do you treat with medical cannabis?</t>
+  </si>
+  <si>
+    <t>Pain</t>
+  </si>
+  <si>
+    <t>Inflammation</t>
+  </si>
+  <si>
+    <t>Muscle Spasm</t>
+  </si>
+  <si>
+    <t>Nausea</t>
+  </si>
+  <si>
+    <t>Lack of appetite</t>
+  </si>
+  <si>
+    <t>Seizure</t>
+  </si>
+  <si>
+    <t>Problems Sleeping</t>
+  </si>
+  <si>
+    <t>Depression</t>
+  </si>
+  <si>
+    <t>Anxiety</t>
+  </si>
+  <si>
+    <t>PTSD</t>
+  </si>
+  <si>
+    <t>ADHD</t>
+  </si>
+  <si>
+    <t>Bipolar</t>
+  </si>
+  <si>
+    <t>Schizophrenia</t>
+  </si>
+  <si>
+    <t>Opioid Use Disorder</t>
+  </si>
+  <si>
+    <t>Substance Use Disorder</t>
+  </si>
+  <si>
+    <t>Other treatment use
+Specify</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plant (i.e., bud, flower) </t>
+  </si>
+  <si>
+    <t>Edibles (i.e., THC-infused chocolate)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Concentrates (i.e., hash, dabs) </t>
+  </si>
+  <si>
+    <t>Must total to 100%:</t>
+  </si>
+  <si>
+    <t>Other cannabis
+Specify</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Have you been provided a Naloxone rescue kit ("Narcan kit")? </t>
+  </si>
+  <si>
+    <t>Have you had to use a naloxone kit on someone else?</t>
+  </si>
+  <si>
+    <t>Have you obtained a refill/replacement kit?</t>
+  </si>
+  <si>
+    <t>Drugs -  Heroin</t>
+  </si>
+  <si>
+    <t>Drugs -  Fentanyl</t>
+  </si>
+  <si>
+    <t>Drugs -  Other opioids</t>
+  </si>
+  <si>
+    <t>Drugs -  Cocaine</t>
+  </si>
+  <si>
+    <t>Drugs - Amphetamines</t>
+  </si>
+  <si>
+    <t>Drugs -  Benzodiazepines</t>
+  </si>
+  <si>
+    <t>Drugs -  Cannabis</t>
+  </si>
+  <si>
+    <t>Drugs -  Alcohol</t>
+  </si>
+  <si>
+    <t>Drugs -  Other</t>
+  </si>
+  <si>
+    <t>Drugs - Other description</t>
+  </si>
+  <si>
+    <t>Paramedic/Ambulance</t>
+  </si>
+  <si>
+    <t>Firefighter</t>
+  </si>
+  <si>
+    <t>Police</t>
+  </si>
+  <si>
+    <t>Emergency room doctor</t>
+  </si>
+  <si>
+    <t>Spouse/significant other</t>
+  </si>
+  <si>
+    <t>Running partner</t>
+  </si>
+  <si>
+    <t>Parent</t>
+  </si>
+  <si>
+    <t>Friend</t>
+  </si>
+  <si>
+    <t>Stranger</t>
+  </si>
+  <si>
+    <t>Self</t>
+  </si>
+  <si>
+    <t>Other specify</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How many of these times did you receive emergency medical service following an overdose? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">How many of these times did you go to the emergency department following an overdose? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">How many of these times did you get admitted to the hospital following an overdose? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">How many of these times did you receive a referral to substance use treatment from the police, EMS, ED or hospital staff? </t>
   </si>
 </sst>
 </file>
@@ -18313,17 +19319,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K1044"/>
+  <dimension ref="A1:K1209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1032" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="E1045" sqref="E1045"/>
+    <sheetView tabSelected="1" topLeftCell="A446" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="A1211" sqref="A1211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.85546875" customWidth="1"/>
+    <col min="1" max="1" width="36.5703125" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
     <col min="4" max="4" width="99.5703125" style="9" customWidth="1"/>
     <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
@@ -32808,7 +33814,7 @@
       <c r="B1033" s="3" t="s">
         <v>2994</v>
       </c>
-      <c r="D1033" s="3" t="s">
+      <c r="D1033" s="4" t="s">
         <v>3115</v>
       </c>
       <c r="E1033" s="3" t="s">
@@ -32822,7 +33828,7 @@
       <c r="B1034" s="3" t="s">
         <v>2995</v>
       </c>
-      <c r="D1034" s="3" t="s">
+      <c r="D1034" s="4" t="s">
         <v>3116</v>
       </c>
       <c r="E1034" s="3" t="s">
@@ -32836,7 +33842,7 @@
       <c r="B1035" s="3" t="s">
         <v>2996</v>
       </c>
-      <c r="D1035" s="3" t="s">
+      <c r="D1035" s="4" t="s">
         <v>3117</v>
       </c>
       <c r="E1035" s="3" t="s">
@@ -32850,7 +33856,7 @@
       <c r="B1036" s="3" t="s">
         <v>2997</v>
       </c>
-      <c r="D1036" s="3" t="s">
+      <c r="D1036" s="4" t="s">
         <v>3118</v>
       </c>
       <c r="E1036" s="3" t="s">
@@ -32864,7 +33870,7 @@
       <c r="B1037" s="3" t="s">
         <v>2998</v>
       </c>
-      <c r="D1037" s="3" t="s">
+      <c r="D1037" s="4" t="s">
         <v>3119</v>
       </c>
       <c r="E1037" s="3" t="s">
@@ -32878,7 +33884,7 @@
       <c r="B1038" s="3" t="s">
         <v>3000</v>
       </c>
-      <c r="D1038" s="3" t="s">
+      <c r="D1038" s="4" t="s">
         <v>3120</v>
       </c>
       <c r="E1038" s="3" t="s">
@@ -32892,7 +33898,7 @@
       <c r="B1039" s="3" t="s">
         <v>3002</v>
       </c>
-      <c r="D1039" s="3" t="s">
+      <c r="D1039" s="4" t="s">
         <v>3121</v>
       </c>
       <c r="E1039" s="3" t="s">
@@ -32906,7 +33912,7 @@
       <c r="B1040" s="3" t="s">
         <v>3003</v>
       </c>
-      <c r="D1040" s="3" t="s">
+      <c r="D1040" s="4" t="s">
         <v>3122</v>
       </c>
       <c r="E1040" s="3" t="s">
@@ -32920,7 +33926,7 @@
       <c r="B1041" s="3" t="s">
         <v>3004</v>
       </c>
-      <c r="D1041" s="3" t="s">
+      <c r="D1041" s="4" t="s">
         <v>3123</v>
       </c>
       <c r="E1041" s="3" t="s">
@@ -32934,7 +33940,7 @@
       <c r="B1042" s="3" t="s">
         <v>3005</v>
       </c>
-      <c r="D1042" s="3" t="s">
+      <c r="D1042" s="4" t="s">
         <v>3124</v>
       </c>
       <c r="E1042" s="3" t="s">
@@ -32948,7 +33954,7 @@
       <c r="B1043" s="3" t="s">
         <v>3006</v>
       </c>
-      <c r="D1043" s="3" t="s">
+      <c r="D1043" s="4" t="s">
         <v>3125</v>
       </c>
       <c r="E1043" s="3" t="s">
@@ -32962,11 +33968,2321 @@
       <c r="B1044" s="3" t="s">
         <v>3007</v>
       </c>
-      <c r="D1044" s="3" t="s">
+      <c r="D1044" s="4" t="s">
         <v>3126</v>
       </c>
       <c r="E1044" s="3" t="s">
         <v>1038</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1045" s="3" t="s">
+        <v>3127</v>
+      </c>
+      <c r="B1045" s="3" t="s">
+        <v>3128</v>
+      </c>
+      <c r="D1045" s="4" t="s">
+        <v>3308</v>
+      </c>
+      <c r="E1045" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1046" s="3" t="s">
+        <v>3127</v>
+      </c>
+      <c r="B1046" s="3" t="s">
+        <v>3129</v>
+      </c>
+      <c r="D1046" s="4" t="s">
+        <v>3309</v>
+      </c>
+      <c r="E1046" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1047" s="3" t="s">
+        <v>3127</v>
+      </c>
+      <c r="B1047" s="3" t="s">
+        <v>3130</v>
+      </c>
+      <c r="D1047" s="4" t="s">
+        <v>3310</v>
+      </c>
+      <c r="E1047" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1048" s="3" t="s">
+        <v>3127</v>
+      </c>
+      <c r="B1048" s="3" t="s">
+        <v>3131</v>
+      </c>
+      <c r="D1048" s="4" t="s">
+        <v>3311</v>
+      </c>
+      <c r="E1048" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1049" s="3" t="s">
+        <v>3132</v>
+      </c>
+      <c r="B1049" s="3" t="s">
+        <v>3133</v>
+      </c>
+      <c r="D1049" s="4" t="s">
+        <v>3312</v>
+      </c>
+      <c r="E1049" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1050" s="3" t="s">
+        <v>3132</v>
+      </c>
+      <c r="B1050" s="3" t="s">
+        <v>3134</v>
+      </c>
+      <c r="D1050" s="4" t="s">
+        <v>3313</v>
+      </c>
+      <c r="E1050" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1051" s="3" t="s">
+        <v>3132</v>
+      </c>
+      <c r="B1051" s="3" t="s">
+        <v>3135</v>
+      </c>
+      <c r="D1051" s="4" t="s">
+        <v>3314</v>
+      </c>
+      <c r="E1051" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1052" s="3" t="s">
+        <v>3132</v>
+      </c>
+      <c r="B1052" s="3" t="s">
+        <v>3136</v>
+      </c>
+      <c r="D1052" s="4" t="s">
+        <v>3315</v>
+      </c>
+      <c r="E1052" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1053" s="3" t="s">
+        <v>3132</v>
+      </c>
+      <c r="B1053" s="3" t="s">
+        <v>3137</v>
+      </c>
+      <c r="D1053" s="4" t="s">
+        <v>3316</v>
+      </c>
+      <c r="E1053" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1054" s="3" t="s">
+        <v>3132</v>
+      </c>
+      <c r="B1054" s="3" t="s">
+        <v>3138</v>
+      </c>
+      <c r="D1054" s="4" t="s">
+        <v>3317</v>
+      </c>
+      <c r="E1054" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1055" s="3" t="s">
+        <v>3132</v>
+      </c>
+      <c r="B1055" s="3" t="s">
+        <v>3139</v>
+      </c>
+      <c r="D1055" s="4" t="s">
+        <v>3318</v>
+      </c>
+      <c r="E1055" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1056" s="3" t="s">
+        <v>3132</v>
+      </c>
+      <c r="B1056" s="3" t="s">
+        <v>3140</v>
+      </c>
+      <c r="D1056" s="4" t="s">
+        <v>3319</v>
+      </c>
+      <c r="E1056" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1057" s="3" t="s">
+        <v>3132</v>
+      </c>
+      <c r="B1057" s="3" t="s">
+        <v>3141</v>
+      </c>
+      <c r="D1057" s="4" t="s">
+        <v>3320</v>
+      </c>
+      <c r="E1057" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1058" s="3" t="s">
+        <v>3132</v>
+      </c>
+      <c r="B1058" s="3" t="s">
+        <v>3142</v>
+      </c>
+      <c r="D1058" s="4" t="s">
+        <v>3321</v>
+      </c>
+      <c r="E1058" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1059" s="3" t="s">
+        <v>3132</v>
+      </c>
+      <c r="B1059" s="3" t="s">
+        <v>3143</v>
+      </c>
+      <c r="D1059" s="4" t="s">
+        <v>3322</v>
+      </c>
+      <c r="E1059" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1060" s="3" t="s">
+        <v>3132</v>
+      </c>
+      <c r="B1060" s="3" t="s">
+        <v>3144</v>
+      </c>
+      <c r="D1060" s="4" t="s">
+        <v>3323</v>
+      </c>
+      <c r="E1060" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1061" s="3" t="s">
+        <v>3132</v>
+      </c>
+      <c r="B1061" s="3" t="s">
+        <v>3145</v>
+      </c>
+      <c r="D1061" s="4" t="s">
+        <v>3324</v>
+      </c>
+      <c r="E1061" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1062" s="3" t="s">
+        <v>3132</v>
+      </c>
+      <c r="B1062" s="3" t="s">
+        <v>3146</v>
+      </c>
+      <c r="D1062" s="4" t="s">
+        <v>3325</v>
+      </c>
+      <c r="E1062" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1063" s="3" t="s">
+        <v>3132</v>
+      </c>
+      <c r="B1063" s="3" t="s">
+        <v>3147</v>
+      </c>
+      <c r="D1063" s="4" t="s">
+        <v>3326</v>
+      </c>
+      <c r="E1063" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1064" s="3" t="s">
+        <v>3132</v>
+      </c>
+      <c r="B1064" s="3" t="s">
+        <v>3148</v>
+      </c>
+      <c r="D1064" s="4" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E1064" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1065" s="3" t="s">
+        <v>3132</v>
+      </c>
+      <c r="B1065" s="3" t="s">
+        <v>3149</v>
+      </c>
+      <c r="D1065" s="4" t="s">
+        <v>3327</v>
+      </c>
+      <c r="E1065" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1066" s="3" t="s">
+        <v>3132</v>
+      </c>
+      <c r="B1066" s="3" t="s">
+        <v>3150</v>
+      </c>
+      <c r="D1066" s="4" t="s">
+        <v>3328</v>
+      </c>
+      <c r="E1066" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1067" s="3" t="s">
+        <v>3132</v>
+      </c>
+      <c r="B1067" s="3" t="s">
+        <v>3151</v>
+      </c>
+      <c r="D1067" s="4" t="s">
+        <v>3329</v>
+      </c>
+      <c r="E1067" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1068" s="3" t="s">
+        <v>3132</v>
+      </c>
+      <c r="B1068" s="3" t="s">
+        <v>3152</v>
+      </c>
+      <c r="D1068" s="4" t="s">
+        <v>3330</v>
+      </c>
+      <c r="E1068" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1069" s="3" t="s">
+        <v>3132</v>
+      </c>
+      <c r="B1069" s="3" t="s">
+        <v>3153</v>
+      </c>
+      <c r="D1069" s="4" t="s">
+        <v>3331</v>
+      </c>
+      <c r="E1069" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1070" s="3" t="s">
+        <v>3132</v>
+      </c>
+      <c r="B1070" s="3" t="s">
+        <v>3154</v>
+      </c>
+      <c r="D1070" s="4" t="s">
+        <v>3332</v>
+      </c>
+      <c r="E1070" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1071" s="3" t="s">
+        <v>3132</v>
+      </c>
+      <c r="B1071" s="3" t="s">
+        <v>3155</v>
+      </c>
+      <c r="D1071" s="4" t="s">
+        <v>3333</v>
+      </c>
+      <c r="E1071" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1072" s="3" t="s">
+        <v>3132</v>
+      </c>
+      <c r="B1072" s="3" t="s">
+        <v>3156</v>
+      </c>
+      <c r="D1072" s="4" t="s">
+        <v>3334</v>
+      </c>
+      <c r="E1072" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1073" s="3" t="s">
+        <v>3132</v>
+      </c>
+      <c r="B1073" s="3" t="s">
+        <v>3157</v>
+      </c>
+      <c r="D1073" s="4" t="s">
+        <v>3335</v>
+      </c>
+      <c r="E1073" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1074" s="3" t="s">
+        <v>3132</v>
+      </c>
+      <c r="B1074" s="3" t="s">
+        <v>3158</v>
+      </c>
+      <c r="D1074" s="4" t="s">
+        <v>3336</v>
+      </c>
+      <c r="E1074" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1075" s="3" t="s">
+        <v>3132</v>
+      </c>
+      <c r="B1075" s="3" t="s">
+        <v>3159</v>
+      </c>
+      <c r="D1075" s="4" t="s">
+        <v>3337</v>
+      </c>
+      <c r="E1075" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1076" s="3" t="s">
+        <v>3132</v>
+      </c>
+      <c r="B1076" s="3" t="s">
+        <v>3160</v>
+      </c>
+      <c r="D1076" s="4" t="s">
+        <v>3338</v>
+      </c>
+      <c r="E1076" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1077" s="3" t="s">
+        <v>3132</v>
+      </c>
+      <c r="B1077" s="3" t="s">
+        <v>3161</v>
+      </c>
+      <c r="D1077" s="4" t="s">
+        <v>3339</v>
+      </c>
+      <c r="E1077" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1078" s="3" t="s">
+        <v>3132</v>
+      </c>
+      <c r="B1078" s="3" t="s">
+        <v>3162</v>
+      </c>
+      <c r="D1078" s="4" t="s">
+        <v>3340</v>
+      </c>
+      <c r="E1078" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1079" s="3" t="s">
+        <v>3132</v>
+      </c>
+      <c r="B1079" s="3" t="s">
+        <v>3163</v>
+      </c>
+      <c r="D1079" s="4" t="s">
+        <v>3341</v>
+      </c>
+      <c r="E1079" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1080" s="3" t="s">
+        <v>3132</v>
+      </c>
+      <c r="B1080" s="3" t="s">
+        <v>3164</v>
+      </c>
+      <c r="D1080" s="4" t="s">
+        <v>3341</v>
+      </c>
+      <c r="E1080" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1081" s="3" t="s">
+        <v>3132</v>
+      </c>
+      <c r="B1081" s="3" t="s">
+        <v>3165</v>
+      </c>
+      <c r="D1081" s="4" t="s">
+        <v>3327</v>
+      </c>
+      <c r="E1081" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1082" s="3" t="s">
+        <v>3132</v>
+      </c>
+      <c r="B1082" s="3" t="s">
+        <v>3166</v>
+      </c>
+      <c r="D1082" s="4" t="s">
+        <v>3342</v>
+      </c>
+      <c r="E1082" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1083" s="3" t="s">
+        <v>3132</v>
+      </c>
+      <c r="B1083" s="3" t="s">
+        <v>3167</v>
+      </c>
+      <c r="D1083" s="4" t="s">
+        <v>3343</v>
+      </c>
+      <c r="E1083" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1084" s="3" t="s">
+        <v>3168</v>
+      </c>
+      <c r="B1084" s="3" t="s">
+        <v>3169</v>
+      </c>
+      <c r="D1084" s="4" t="s">
+        <v>3344</v>
+      </c>
+      <c r="E1084" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1085" s="3" t="s">
+        <v>3170</v>
+      </c>
+      <c r="B1085" s="3" t="s">
+        <v>3171</v>
+      </c>
+      <c r="D1085" s="4" t="s">
+        <v>3345</v>
+      </c>
+      <c r="E1085" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1086" s="3" t="s">
+        <v>3172</v>
+      </c>
+      <c r="B1086" s="3" t="s">
+        <v>3173</v>
+      </c>
+      <c r="D1086" s="4" t="s">
+        <v>3346</v>
+      </c>
+      <c r="E1086" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1087" s="3" t="s">
+        <v>3174</v>
+      </c>
+      <c r="B1087" s="3" t="s">
+        <v>3175</v>
+      </c>
+      <c r="D1087" s="4" t="s">
+        <v>3347</v>
+      </c>
+      <c r="E1087" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1088" s="3" t="s">
+        <v>3176</v>
+      </c>
+      <c r="B1088" s="3" t="s">
+        <v>3177</v>
+      </c>
+      <c r="D1088" s="4" t="s">
+        <v>3348</v>
+      </c>
+      <c r="E1088" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1089" s="3" t="s">
+        <v>3176</v>
+      </c>
+      <c r="B1089" s="3" t="s">
+        <v>3178</v>
+      </c>
+      <c r="D1089" s="4" t="s">
+        <v>3349</v>
+      </c>
+      <c r="E1089" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1090" s="3" t="s">
+        <v>3176</v>
+      </c>
+      <c r="B1090" s="3" t="s">
+        <v>3179</v>
+      </c>
+      <c r="D1090" s="4" t="s">
+        <v>3350</v>
+      </c>
+      <c r="E1090" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1091" s="3" t="s">
+        <v>3176</v>
+      </c>
+      <c r="B1091" s="3" t="s">
+        <v>3180</v>
+      </c>
+      <c r="D1091" s="4" t="s">
+        <v>2124</v>
+      </c>
+      <c r="E1091" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1092" s="3" t="s">
+        <v>3181</v>
+      </c>
+      <c r="B1092" s="3" t="s">
+        <v>3182</v>
+      </c>
+      <c r="D1092" s="4" t="s">
+        <v>3351</v>
+      </c>
+      <c r="E1092" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1093" s="3" t="s">
+        <v>3181</v>
+      </c>
+      <c r="B1093" s="3" t="s">
+        <v>3183</v>
+      </c>
+      <c r="D1093" s="4" t="s">
+        <v>3352</v>
+      </c>
+      <c r="E1093" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1094" s="3" t="s">
+        <v>3184</v>
+      </c>
+      <c r="B1094" s="3" t="s">
+        <v>3185</v>
+      </c>
+      <c r="D1094" s="4" t="s">
+        <v>3353</v>
+      </c>
+      <c r="E1094" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1095" s="3" t="s">
+        <v>3184</v>
+      </c>
+      <c r="B1095" s="3" t="s">
+        <v>3186</v>
+      </c>
+      <c r="D1095" s="4" t="s">
+        <v>3354</v>
+      </c>
+      <c r="E1095" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1096" s="3" t="s">
+        <v>3184</v>
+      </c>
+      <c r="B1096" s="3" t="s">
+        <v>3187</v>
+      </c>
+      <c r="D1096" s="4" t="s">
+        <v>3355</v>
+      </c>
+      <c r="E1096" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1097" s="3" t="s">
+        <v>3184</v>
+      </c>
+      <c r="B1097" s="3" t="s">
+        <v>3188</v>
+      </c>
+      <c r="D1097" s="4" t="s">
+        <v>3356</v>
+      </c>
+      <c r="E1097" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1098" s="3" t="s">
+        <v>3184</v>
+      </c>
+      <c r="B1098" s="3" t="s">
+        <v>3189</v>
+      </c>
+      <c r="D1098" s="4" t="s">
+        <v>3357</v>
+      </c>
+      <c r="E1098" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1099" s="3" t="s">
+        <v>3184</v>
+      </c>
+      <c r="B1099" s="3" t="s">
+        <v>3190</v>
+      </c>
+      <c r="D1099" s="4" t="s">
+        <v>3358</v>
+      </c>
+      <c r="E1099" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1100" s="3" t="s">
+        <v>3184</v>
+      </c>
+      <c r="B1100" s="3" t="s">
+        <v>3191</v>
+      </c>
+      <c r="D1100" s="4" t="s">
+        <v>3359</v>
+      </c>
+      <c r="E1100" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1101" s="3" t="s">
+        <v>3184</v>
+      </c>
+      <c r="B1101" s="3" t="s">
+        <v>3192</v>
+      </c>
+      <c r="D1101" s="4" t="s">
+        <v>3360</v>
+      </c>
+      <c r="E1101" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1102" s="3" t="s">
+        <v>3184</v>
+      </c>
+      <c r="B1102" s="3" t="s">
+        <v>3193</v>
+      </c>
+      <c r="D1102" s="4" t="s">
+        <v>3361</v>
+      </c>
+      <c r="E1102" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1103" s="3" t="s">
+        <v>3184</v>
+      </c>
+      <c r="B1103" s="3" t="s">
+        <v>3194</v>
+      </c>
+      <c r="D1103" s="4" t="s">
+        <v>3362</v>
+      </c>
+      <c r="E1103" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1104" s="3" t="s">
+        <v>3184</v>
+      </c>
+      <c r="B1104" s="3" t="s">
+        <v>3195</v>
+      </c>
+      <c r="D1104" s="4" t="s">
+        <v>3363</v>
+      </c>
+      <c r="E1104" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1105" s="3" t="s">
+        <v>3184</v>
+      </c>
+      <c r="B1105" s="3" t="s">
+        <v>3196</v>
+      </c>
+      <c r="D1105" s="4" t="s">
+        <v>3364</v>
+      </c>
+      <c r="E1105" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1106" s="3" t="s">
+        <v>3184</v>
+      </c>
+      <c r="B1106" s="3" t="s">
+        <v>3197</v>
+      </c>
+      <c r="D1106" s="4" t="s">
+        <v>3365</v>
+      </c>
+      <c r="E1106" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1107" s="3" t="s">
+        <v>3184</v>
+      </c>
+      <c r="B1107" s="3" t="s">
+        <v>3198</v>
+      </c>
+      <c r="D1107" s="4" t="s">
+        <v>3366</v>
+      </c>
+      <c r="E1107" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1108" s="3" t="s">
+        <v>3184</v>
+      </c>
+      <c r="B1108" s="3" t="s">
+        <v>3199</v>
+      </c>
+      <c r="D1108" s="4" t="s">
+        <v>3367</v>
+      </c>
+      <c r="E1108" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1109" s="3" t="s">
+        <v>3184</v>
+      </c>
+      <c r="B1109" s="3" t="s">
+        <v>3200</v>
+      </c>
+      <c r="D1109" s="4" t="s">
+        <v>3368</v>
+      </c>
+      <c r="E1109" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1110" s="3" t="s">
+        <v>3184</v>
+      </c>
+      <c r="B1110" s="3" t="s">
+        <v>3201</v>
+      </c>
+      <c r="D1110" s="4" t="s">
+        <v>3369</v>
+      </c>
+      <c r="E1110" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1111" s="3" t="s">
+        <v>3184</v>
+      </c>
+      <c r="B1111" s="3" t="s">
+        <v>3202</v>
+      </c>
+      <c r="D1111" s="4" t="s">
+        <v>3370</v>
+      </c>
+      <c r="E1111" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1112" s="3" t="s">
+        <v>3184</v>
+      </c>
+      <c r="B1112" s="3" t="s">
+        <v>3203</v>
+      </c>
+      <c r="D1112" s="4" t="s">
+        <v>3371</v>
+      </c>
+      <c r="E1112" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1113" s="3" t="s">
+        <v>3184</v>
+      </c>
+      <c r="B1113" s="3" t="s">
+        <v>3204</v>
+      </c>
+      <c r="D1113" s="4" t="s">
+        <v>3372</v>
+      </c>
+      <c r="E1113" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1114" s="3" t="s">
+        <v>3205</v>
+      </c>
+      <c r="B1114" s="3" t="s">
+        <v>3206</v>
+      </c>
+      <c r="D1114" s="4" t="s">
+        <v>3373</v>
+      </c>
+      <c r="E1114" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1115" s="3" t="s">
+        <v>3205</v>
+      </c>
+      <c r="B1115" s="3" t="s">
+        <v>3207</v>
+      </c>
+      <c r="D1115" s="4" t="s">
+        <v>3374</v>
+      </c>
+      <c r="E1115" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1116" s="3" t="s">
+        <v>3208</v>
+      </c>
+      <c r="B1116" s="3" t="s">
+        <v>3209</v>
+      </c>
+      <c r="D1116" s="4" t="s">
+        <v>3375</v>
+      </c>
+      <c r="E1116" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1117" s="3" t="s">
+        <v>3208</v>
+      </c>
+      <c r="B1117" s="3" t="s">
+        <v>3210</v>
+      </c>
+      <c r="D1117" s="4" t="s">
+        <v>3376</v>
+      </c>
+      <c r="E1117" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1118" s="3" t="s">
+        <v>3208</v>
+      </c>
+      <c r="B1118" s="3" t="s">
+        <v>3211</v>
+      </c>
+      <c r="D1118" s="4" t="s">
+        <v>3377</v>
+      </c>
+      <c r="E1118" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1119" s="3" t="s">
+        <v>3208</v>
+      </c>
+      <c r="B1119" s="3" t="s">
+        <v>3212</v>
+      </c>
+      <c r="D1119" s="4" t="s">
+        <v>3378</v>
+      </c>
+      <c r="E1119" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1120" s="3" t="s">
+        <v>3208</v>
+      </c>
+      <c r="B1120" s="3" t="s">
+        <v>3213</v>
+      </c>
+      <c r="D1120" s="4" t="s">
+        <v>3379</v>
+      </c>
+      <c r="E1120" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1121" s="3" t="s">
+        <v>3208</v>
+      </c>
+      <c r="B1121" s="3" t="s">
+        <v>3214</v>
+      </c>
+      <c r="D1121" s="4" t="s">
+        <v>3380</v>
+      </c>
+      <c r="E1121" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1122" s="3" t="s">
+        <v>3208</v>
+      </c>
+      <c r="B1122" s="3" t="s">
+        <v>3215</v>
+      </c>
+      <c r="D1122" s="4" t="s">
+        <v>3381</v>
+      </c>
+      <c r="E1122" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1123" s="3" t="s">
+        <v>3208</v>
+      </c>
+      <c r="B1123" s="3" t="s">
+        <v>3216</v>
+      </c>
+      <c r="D1123" s="4" t="s">
+        <v>3382</v>
+      </c>
+      <c r="E1123" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1124" s="3" t="s">
+        <v>3208</v>
+      </c>
+      <c r="B1124" s="3" t="s">
+        <v>3217</v>
+      </c>
+      <c r="D1124" s="4" t="s">
+        <v>3383</v>
+      </c>
+      <c r="E1124" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1125" s="3" t="s">
+        <v>3208</v>
+      </c>
+      <c r="B1125" s="3" t="s">
+        <v>3218</v>
+      </c>
+      <c r="D1125" s="4" t="s">
+        <v>3384</v>
+      </c>
+      <c r="E1125" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1126" s="3" t="s">
+        <v>3208</v>
+      </c>
+      <c r="B1126" s="3" t="s">
+        <v>3219</v>
+      </c>
+      <c r="D1126" s="4" t="s">
+        <v>3385</v>
+      </c>
+      <c r="E1126" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1127" s="3" t="s">
+        <v>3208</v>
+      </c>
+      <c r="B1127" s="3" t="s">
+        <v>3220</v>
+      </c>
+      <c r="D1127" s="4" t="s">
+        <v>3386</v>
+      </c>
+      <c r="E1127" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1128" s="3" t="s">
+        <v>3221</v>
+      </c>
+      <c r="B1128" s="3" t="s">
+        <v>3222</v>
+      </c>
+      <c r="D1128" s="4" t="s">
+        <v>3387</v>
+      </c>
+      <c r="E1128" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1129" s="3" t="s">
+        <v>3221</v>
+      </c>
+      <c r="B1129" s="3" t="s">
+        <v>3223</v>
+      </c>
+      <c r="D1129" s="4" t="s">
+        <v>3388</v>
+      </c>
+      <c r="E1129" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1130" s="3" t="s">
+        <v>3221</v>
+      </c>
+      <c r="B1130" s="3" t="s">
+        <v>3224</v>
+      </c>
+      <c r="D1130" s="4" t="s">
+        <v>3389</v>
+      </c>
+      <c r="E1130" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1131" s="3" t="s">
+        <v>3221</v>
+      </c>
+      <c r="B1131" s="3" t="s">
+        <v>3225</v>
+      </c>
+      <c r="D1131" s="4" t="s">
+        <v>3390</v>
+      </c>
+      <c r="E1131" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1132" s="3" t="s">
+        <v>3221</v>
+      </c>
+      <c r="B1132" s="3" t="s">
+        <v>3226</v>
+      </c>
+      <c r="D1132" s="4" t="s">
+        <v>3391</v>
+      </c>
+      <c r="E1132" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1133" s="3" t="s">
+        <v>3221</v>
+      </c>
+      <c r="B1133" s="3" t="s">
+        <v>3227</v>
+      </c>
+      <c r="D1133" s="4" t="s">
+        <v>3392</v>
+      </c>
+      <c r="E1133" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1134" s="3" t="s">
+        <v>3221</v>
+      </c>
+      <c r="B1134" s="3" t="s">
+        <v>3228</v>
+      </c>
+      <c r="D1134" s="4" t="s">
+        <v>3393</v>
+      </c>
+      <c r="E1134" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1135" s="3" t="s">
+        <v>3221</v>
+      </c>
+      <c r="B1135" s="3" t="s">
+        <v>3229</v>
+      </c>
+      <c r="D1135" s="4" t="s">
+        <v>3394</v>
+      </c>
+      <c r="E1135" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1136" s="3" t="s">
+        <v>3221</v>
+      </c>
+      <c r="B1136" s="3" t="s">
+        <v>3230</v>
+      </c>
+      <c r="D1136" s="4" t="s">
+        <v>2300</v>
+      </c>
+      <c r="E1136" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1137" s="3" t="s">
+        <v>3231</v>
+      </c>
+      <c r="B1137" s="3" t="s">
+        <v>3232</v>
+      </c>
+      <c r="D1137" s="4" t="s">
+        <v>3395</v>
+      </c>
+      <c r="E1137" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1138" s="3" t="s">
+        <v>3231</v>
+      </c>
+      <c r="B1138" s="3" t="s">
+        <v>3233</v>
+      </c>
+      <c r="D1138" s="4" t="s">
+        <v>3396</v>
+      </c>
+      <c r="E1138" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1139" s="3" t="s">
+        <v>3231</v>
+      </c>
+      <c r="B1139" s="3" t="s">
+        <v>3234</v>
+      </c>
+      <c r="D1139" s="4" t="s">
+        <v>3397</v>
+      </c>
+      <c r="E1139" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1140" s="3" t="s">
+        <v>3231</v>
+      </c>
+      <c r="B1140" s="3" t="s">
+        <v>3235</v>
+      </c>
+      <c r="D1140" s="4" t="s">
+        <v>3398</v>
+      </c>
+      <c r="E1140" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1141" s="3" t="s">
+        <v>3231</v>
+      </c>
+      <c r="B1141" s="3" t="s">
+        <v>3236</v>
+      </c>
+      <c r="D1141" s="4" t="s">
+        <v>3399</v>
+      </c>
+      <c r="E1141" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1142" s="3" t="s">
+        <v>3231</v>
+      </c>
+      <c r="B1142" s="3" t="s">
+        <v>3237</v>
+      </c>
+      <c r="D1142" s="4" t="s">
+        <v>3400</v>
+      </c>
+      <c r="E1142" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1143" s="3" t="s">
+        <v>3231</v>
+      </c>
+      <c r="B1143" s="3" t="s">
+        <v>3238</v>
+      </c>
+      <c r="D1143" s="4" t="s">
+        <v>3401</v>
+      </c>
+      <c r="E1143" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1144" s="3" t="s">
+        <v>3231</v>
+      </c>
+      <c r="B1144" s="3" t="s">
+        <v>3239</v>
+      </c>
+      <c r="D1144" s="4" t="s">
+        <v>3402</v>
+      </c>
+      <c r="E1144" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1145" s="3" t="s">
+        <v>3231</v>
+      </c>
+      <c r="B1145" s="3" t="s">
+        <v>3240</v>
+      </c>
+      <c r="D1145" s="4" t="s">
+        <v>2300</v>
+      </c>
+      <c r="E1145" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1146" s="3" t="s">
+        <v>3241</v>
+      </c>
+      <c r="B1146" s="3" t="s">
+        <v>3242</v>
+      </c>
+      <c r="D1146" s="4" t="s">
+        <v>3348</v>
+      </c>
+      <c r="E1146" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1147" s="3" t="s">
+        <v>3241</v>
+      </c>
+      <c r="B1147" s="3" t="s">
+        <v>3243</v>
+      </c>
+      <c r="D1147" s="4" t="s">
+        <v>3349</v>
+      </c>
+      <c r="E1147" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1148" s="3" t="s">
+        <v>3241</v>
+      </c>
+      <c r="B1148" s="3" t="s">
+        <v>3244</v>
+      </c>
+      <c r="D1148" s="4" t="s">
+        <v>3403</v>
+      </c>
+      <c r="E1148" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1149" s="3" t="s">
+        <v>3241</v>
+      </c>
+      <c r="B1149" s="3" t="s">
+        <v>3245</v>
+      </c>
+      <c r="D1149" s="4" t="s">
+        <v>3404</v>
+      </c>
+      <c r="E1149" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1150" s="3" t="s">
+        <v>3241</v>
+      </c>
+      <c r="B1150" s="3" t="s">
+        <v>3246</v>
+      </c>
+      <c r="D1150" s="4" t="s">
+        <v>3405</v>
+      </c>
+      <c r="E1150" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1151" s="3" t="s">
+        <v>3241</v>
+      </c>
+      <c r="B1151" s="3" t="s">
+        <v>3247</v>
+      </c>
+      <c r="D1151" s="4" t="s">
+        <v>3406</v>
+      </c>
+      <c r="E1151" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1152" s="3" t="s">
+        <v>3241</v>
+      </c>
+      <c r="B1152" s="3" t="s">
+        <v>3248</v>
+      </c>
+      <c r="D1152" s="4" t="s">
+        <v>3407</v>
+      </c>
+      <c r="E1152" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1153" s="3" t="s">
+        <v>3241</v>
+      </c>
+      <c r="B1153" s="3" t="s">
+        <v>3249</v>
+      </c>
+      <c r="D1153" s="4" t="s">
+        <v>3408</v>
+      </c>
+      <c r="E1153" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1154" s="3" t="s">
+        <v>3241</v>
+      </c>
+      <c r="B1154" s="3" t="s">
+        <v>3250</v>
+      </c>
+      <c r="D1154" s="4" t="s">
+        <v>3409</v>
+      </c>
+      <c r="E1154" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1155" s="3" t="s">
+        <v>3241</v>
+      </c>
+      <c r="B1155" s="3" t="s">
+        <v>3251</v>
+      </c>
+      <c r="D1155" s="4" t="s">
+        <v>3410</v>
+      </c>
+      <c r="E1155" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1156" s="3" t="s">
+        <v>3241</v>
+      </c>
+      <c r="B1156" s="3" t="s">
+        <v>3252</v>
+      </c>
+      <c r="D1156" s="4" t="s">
+        <v>2300</v>
+      </c>
+      <c r="E1156" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1157" s="3" t="s">
+        <v>3253</v>
+      </c>
+      <c r="B1157" s="3" t="s">
+        <v>3254</v>
+      </c>
+      <c r="D1157" s="4" t="s">
+        <v>3411</v>
+      </c>
+      <c r="E1157" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1158" s="3" t="s">
+        <v>3253</v>
+      </c>
+      <c r="B1158" s="3" t="s">
+        <v>3255</v>
+      </c>
+      <c r="D1158" s="4" t="s">
+        <v>3412</v>
+      </c>
+      <c r="E1158" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1159" s="3" t="s">
+        <v>3253</v>
+      </c>
+      <c r="B1159" s="3" t="s">
+        <v>3256</v>
+      </c>
+      <c r="D1159" s="4" t="s">
+        <v>3413</v>
+      </c>
+      <c r="E1159" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1160" s="3" t="s">
+        <v>3253</v>
+      </c>
+      <c r="B1160" s="3" t="s">
+        <v>3257</v>
+      </c>
+      <c r="D1160" s="4" t="s">
+        <v>3414</v>
+      </c>
+      <c r="E1160" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1161" s="3" t="s">
+        <v>3253</v>
+      </c>
+      <c r="B1161" s="3" t="s">
+        <v>3258</v>
+      </c>
+      <c r="D1161" s="4" t="s">
+        <v>3415</v>
+      </c>
+      <c r="E1161" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1162" s="3" t="s">
+        <v>3253</v>
+      </c>
+      <c r="B1162" s="3" t="s">
+        <v>3259</v>
+      </c>
+      <c r="D1162" s="4" t="s">
+        <v>3416</v>
+      </c>
+      <c r="E1162" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1163" s="3" t="s">
+        <v>3253</v>
+      </c>
+      <c r="B1163" s="3" t="s">
+        <v>3260</v>
+      </c>
+      <c r="D1163" s="4" t="s">
+        <v>3417</v>
+      </c>
+      <c r="E1163" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1164" s="3" t="s">
+        <v>3253</v>
+      </c>
+      <c r="B1164" s="3" t="s">
+        <v>3261</v>
+      </c>
+      <c r="D1164" s="4" t="s">
+        <v>3418</v>
+      </c>
+      <c r="E1164" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1165" s="3" t="s">
+        <v>3253</v>
+      </c>
+      <c r="B1165" s="3" t="s">
+        <v>3262</v>
+      </c>
+      <c r="D1165" s="4" t="s">
+        <v>3419</v>
+      </c>
+      <c r="E1165" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1166" s="3" t="s">
+        <v>3253</v>
+      </c>
+      <c r="B1166" s="3" t="s">
+        <v>3263</v>
+      </c>
+      <c r="D1166" s="4" t="s">
+        <v>3420</v>
+      </c>
+      <c r="E1166" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1167" s="3" t="s">
+        <v>3253</v>
+      </c>
+      <c r="B1167" s="3" t="s">
+        <v>3264</v>
+      </c>
+      <c r="D1167" s="4" t="s">
+        <v>3421</v>
+      </c>
+      <c r="E1167" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1168" s="3" t="s">
+        <v>3253</v>
+      </c>
+      <c r="B1168" s="3" t="s">
+        <v>3265</v>
+      </c>
+      <c r="D1168" s="4" t="s">
+        <v>3422</v>
+      </c>
+      <c r="E1168" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1169" s="3" t="s">
+        <v>3253</v>
+      </c>
+      <c r="B1169" s="3" t="s">
+        <v>3266</v>
+      </c>
+      <c r="D1169" s="4" t="s">
+        <v>3423</v>
+      </c>
+      <c r="E1169" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1170" s="3" t="s">
+        <v>3253</v>
+      </c>
+      <c r="B1170" s="3" t="s">
+        <v>3267</v>
+      </c>
+      <c r="D1170" s="4" t="s">
+        <v>3424</v>
+      </c>
+      <c r="E1170" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1171" s="3" t="s">
+        <v>3253</v>
+      </c>
+      <c r="B1171" s="3" t="s">
+        <v>3268</v>
+      </c>
+      <c r="D1171" s="4" t="s">
+        <v>3425</v>
+      </c>
+      <c r="E1171" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1172" s="3" t="s">
+        <v>3253</v>
+      </c>
+      <c r="B1172" s="3" t="s">
+        <v>3269</v>
+      </c>
+      <c r="D1172" s="4" t="s">
+        <v>3426</v>
+      </c>
+      <c r="E1172" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1173" s="3" t="s">
+        <v>3253</v>
+      </c>
+      <c r="B1173" s="3" t="s">
+        <v>3270</v>
+      </c>
+      <c r="D1173" s="4" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E1173" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1174" s="3" t="s">
+        <v>3253</v>
+      </c>
+      <c r="B1174" s="3" t="s">
+        <v>3271</v>
+      </c>
+      <c r="D1174" s="4" t="s">
+        <v>3427</v>
+      </c>
+      <c r="E1174" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1175" s="3" t="s">
+        <v>3253</v>
+      </c>
+      <c r="B1175" s="3" t="s">
+        <v>3272</v>
+      </c>
+      <c r="D1175" s="4" t="s">
+        <v>3428</v>
+      </c>
+      <c r="E1175" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1176" s="3" t="s">
+        <v>3253</v>
+      </c>
+      <c r="B1176" s="3" t="s">
+        <v>3273</v>
+      </c>
+      <c r="D1176" s="4" t="s">
+        <v>3429</v>
+      </c>
+      <c r="E1176" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1177" s="3" t="s">
+        <v>3253</v>
+      </c>
+      <c r="B1177" s="3" t="s">
+        <v>3274</v>
+      </c>
+      <c r="D1177" s="4" t="s">
+        <v>3430</v>
+      </c>
+      <c r="E1177" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1178" s="3" t="s">
+        <v>3253</v>
+      </c>
+      <c r="B1178" s="3" t="s">
+        <v>3275</v>
+      </c>
+      <c r="D1178" s="4" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E1178" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1179" s="3" t="s">
+        <v>3253</v>
+      </c>
+      <c r="B1179" s="3" t="s">
+        <v>3276</v>
+      </c>
+      <c r="D1179" s="4" t="s">
+        <v>3431</v>
+      </c>
+      <c r="E1179" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1180" s="3" t="s">
+        <v>3253</v>
+      </c>
+      <c r="B1180" s="3" t="s">
+        <v>3277</v>
+      </c>
+      <c r="D1180" s="4" t="s">
+        <v>3432</v>
+      </c>
+      <c r="E1180" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1181" s="3" t="s">
+        <v>3278</v>
+      </c>
+      <c r="B1181" s="3" t="s">
+        <v>3279</v>
+      </c>
+      <c r="D1181" s="4" t="s">
+        <v>3433</v>
+      </c>
+      <c r="E1181" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1182" s="3" t="s">
+        <v>3278</v>
+      </c>
+      <c r="B1182" s="3" t="s">
+        <v>3280</v>
+      </c>
+      <c r="D1182" s="4" t="s">
+        <v>3434</v>
+      </c>
+      <c r="E1182" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1183" s="3" t="s">
+        <v>3278</v>
+      </c>
+      <c r="B1183" s="3" t="s">
+        <v>3281</v>
+      </c>
+      <c r="D1183" s="4" t="s">
+        <v>3435</v>
+      </c>
+      <c r="E1183" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1184" s="3" t="s">
+        <v>3278</v>
+      </c>
+      <c r="B1184" s="3" t="s">
+        <v>3282</v>
+      </c>
+      <c r="D1184" s="4" t="s">
+        <v>3436</v>
+      </c>
+      <c r="E1184" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1185" s="3" t="s">
+        <v>3278</v>
+      </c>
+      <c r="B1185" s="3" t="s">
+        <v>3283</v>
+      </c>
+      <c r="D1185" s="4" t="s">
+        <v>3437</v>
+      </c>
+      <c r="E1185" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1186" s="3" t="s">
+        <v>3278</v>
+      </c>
+      <c r="B1186" s="3" t="s">
+        <v>3284</v>
+      </c>
+      <c r="D1186" s="4" t="s">
+        <v>3438</v>
+      </c>
+      <c r="E1186" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1187" s="3" t="s">
+        <v>3278</v>
+      </c>
+      <c r="B1187" s="3" t="s">
+        <v>3285</v>
+      </c>
+      <c r="D1187" s="4" t="s">
+        <v>3439</v>
+      </c>
+      <c r="E1187" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1188" s="3" t="s">
+        <v>3278</v>
+      </c>
+      <c r="B1188" s="3" t="s">
+        <v>3286</v>
+      </c>
+      <c r="D1188" s="4" t="s">
+        <v>3440</v>
+      </c>
+      <c r="E1188" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1189" s="3" t="s">
+        <v>3278</v>
+      </c>
+      <c r="B1189" s="3" t="s">
+        <v>3287</v>
+      </c>
+      <c r="D1189" s="4" t="s">
+        <v>3441</v>
+      </c>
+      <c r="E1189" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1190" s="3" t="s">
+        <v>3278</v>
+      </c>
+      <c r="B1190" s="3" t="s">
+        <v>3288</v>
+      </c>
+      <c r="D1190" s="4" t="s">
+        <v>3442</v>
+      </c>
+      <c r="E1190" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1191" s="3" t="s">
+        <v>3278</v>
+      </c>
+      <c r="B1191" s="3" t="s">
+        <v>3289</v>
+      </c>
+      <c r="D1191" s="4" t="s">
+        <v>3443</v>
+      </c>
+      <c r="E1191" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1192" s="3" t="s">
+        <v>3278</v>
+      </c>
+      <c r="B1192" s="3" t="s">
+        <v>3290</v>
+      </c>
+      <c r="D1192" s="4" t="s">
+        <v>3444</v>
+      </c>
+      <c r="E1192" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1193" s="3" t="s">
+        <v>3278</v>
+      </c>
+      <c r="B1193" s="3" t="s">
+        <v>3291</v>
+      </c>
+      <c r="D1193" s="4" t="s">
+        <v>3445</v>
+      </c>
+      <c r="E1193" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1194" s="3" t="s">
+        <v>3278</v>
+      </c>
+      <c r="B1194" s="3" t="s">
+        <v>3292</v>
+      </c>
+      <c r="D1194" s="4" t="s">
+        <v>3446</v>
+      </c>
+      <c r="E1194" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1195" s="3" t="s">
+        <v>3278</v>
+      </c>
+      <c r="B1195" s="3" t="s">
+        <v>3293</v>
+      </c>
+      <c r="D1195" s="4" t="s">
+        <v>3447</v>
+      </c>
+      <c r="E1195" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1196" s="3" t="s">
+        <v>3278</v>
+      </c>
+      <c r="B1196" s="3" t="s">
+        <v>3294</v>
+      </c>
+      <c r="D1196" s="4" t="s">
+        <v>3448</v>
+      </c>
+      <c r="E1196" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1197" s="3" t="s">
+        <v>3278</v>
+      </c>
+      <c r="B1197" s="3" t="s">
+        <v>3295</v>
+      </c>
+      <c r="D1197" s="4" t="s">
+        <v>3449</v>
+      </c>
+      <c r="E1197" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1198" s="3" t="s">
+        <v>3278</v>
+      </c>
+      <c r="B1198" s="3" t="s">
+        <v>3296</v>
+      </c>
+      <c r="D1198" s="4" t="s">
+        <v>3450</v>
+      </c>
+      <c r="E1198" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1199" s="3" t="s">
+        <v>3278</v>
+      </c>
+      <c r="B1199" s="3" t="s">
+        <v>3297</v>
+      </c>
+      <c r="D1199" s="4" t="s">
+        <v>3451</v>
+      </c>
+      <c r="E1199" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1200" s="3" t="s">
+        <v>3278</v>
+      </c>
+      <c r="B1200" s="3" t="s">
+        <v>3298</v>
+      </c>
+      <c r="D1200" s="4" t="s">
+        <v>3452</v>
+      </c>
+      <c r="E1200" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1201" s="3" t="s">
+        <v>3278</v>
+      </c>
+      <c r="B1201" s="3" t="s">
+        <v>3299</v>
+      </c>
+      <c r="D1201" s="4" t="s">
+        <v>3453</v>
+      </c>
+      <c r="E1201" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1202" s="3" t="s">
+        <v>3278</v>
+      </c>
+      <c r="B1202" s="3" t="s">
+        <v>3300</v>
+      </c>
+      <c r="D1202" s="4" t="s">
+        <v>3454</v>
+      </c>
+      <c r="E1202" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1203" s="3" t="s">
+        <v>3278</v>
+      </c>
+      <c r="B1203" s="3" t="s">
+        <v>3301</v>
+      </c>
+      <c r="D1203" s="4" t="s">
+        <v>3455</v>
+      </c>
+      <c r="E1203" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1204" s="3" t="s">
+        <v>3278</v>
+      </c>
+      <c r="B1204" s="3" t="s">
+        <v>3302</v>
+      </c>
+      <c r="D1204" s="4" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E1204" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1205" s="3" t="s">
+        <v>3278</v>
+      </c>
+      <c r="B1205" s="3" t="s">
+        <v>3303</v>
+      </c>
+      <c r="D1205" s="4" t="s">
+        <v>3456</v>
+      </c>
+      <c r="E1205" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1206" s="3" t="s">
+        <v>3278</v>
+      </c>
+      <c r="B1206" s="3" t="s">
+        <v>3304</v>
+      </c>
+      <c r="D1206" s="4" t="s">
+        <v>3457</v>
+      </c>
+      <c r="E1206" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1207" s="3" t="s">
+        <v>3278</v>
+      </c>
+      <c r="B1207" s="3" t="s">
+        <v>3305</v>
+      </c>
+      <c r="D1207" s="4" t="s">
+        <v>3458</v>
+      </c>
+      <c r="E1207" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1208" s="3" t="s">
+        <v>3278</v>
+      </c>
+      <c r="B1208" s="3" t="s">
+        <v>3306</v>
+      </c>
+      <c r="D1208" s="4" t="s">
+        <v>3459</v>
+      </c>
+      <c r="E1208" s="3" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1209" s="3" t="s">
+        <v>3278</v>
+      </c>
+      <c r="B1209" s="3" t="s">
+        <v>3307</v>
+      </c>
+      <c r="D1209" s="4" t="s">
+        <v>3460</v>
+      </c>
+      <c r="E1209" s="3" t="s">
+        <v>2010</v>
       </c>
     </row>
   </sheetData>

--- a/gdcdictionary/xlsx/nodes_schema_impowr.xlsx
+++ b/gdcdictionary/xlsx/nodes_schema_impowr.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vithal\Documents\GitHub\dcfdictionary\gdcdictionary\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E044EEE7-1940-43AF-B84E-20A167722DFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88DA424C-BE51-4304-8A71-76DC0EBBF376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2205" yWindow="6240" windowWidth="23895" windowHeight="7980" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nodes_impowr" sheetId="1" r:id="rId1"/>
@@ -19,13 +19,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">nodes_impowr!$A$1:$Y$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">variables_impowr!$A$1:$K$1209</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10044" uniqueCount="3406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10204" uniqueCount="3423">
   <si>
     <t>&lt;$schema&gt;</t>
   </si>
@@ -6420,9 +6421,6 @@
   </si>
   <si>
     <t>In the past 7 days, I tried hard to get to sleep.</t>
-  </si>
-  <si>
-    <t>promis_sf_v10_fatigue_4a_heal</t>
   </si>
   <si>
     <t>Calculated raw total score for the PROMIS Fatigue 4a items</t>
@@ -10284,6 +10282,60 @@
   </si>
   <si>
     <t xml:space="preserve">How many of these times did you receive a referral to substance use treatment from the police, EMS, ED or hospital staff? </t>
+  </si>
+  <si>
+    <t>5, Not at all | 4, A little bit | 3, Somewhat | 2, Quite a bit | 1, Very much</t>
+  </si>
+  <si>
+    <t>Very much</t>
+  </si>
+  <si>
+    <t>Quite a bit</t>
+  </si>
+  <si>
+    <t>Somewhat</t>
+  </si>
+  <si>
+    <t>A little bit</t>
+  </si>
+  <si>
+    <t>Not at all</t>
+  </si>
+  <si>
+    <t>5, Very poor | 4, Poor | 3, Fair | 2, Good | 1, Very good</t>
+  </si>
+  <si>
+    <t>Very good</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>Fair</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Very poor</t>
+  </si>
+  <si>
+    <t>1, Not at all | 2, A little bit | 3, Somewhat | 4, Quite a bit | 5, Very much</t>
+  </si>
+  <si>
+    <t>promisfatgfeelpst7dyscl</t>
+  </si>
+  <si>
+    <t>promistrsttskftgpst7dyscl</t>
+  </si>
+  <si>
+    <t>promisfatgpst7dyavgscl</t>
+  </si>
+  <si>
+    <t>promisrndwnflpst7dyavgscl</t>
+  </si>
+  <si>
+    <t>promisfat4atotalscore</t>
   </si>
 </sst>
 </file>
@@ -19160,14 +19212,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K1209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1175" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="A1184" sqref="A1184"/>
+    <sheetView zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A539" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B549" sqref="B549"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="49" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" customWidth="1"/>
+    <col min="2" max="2" width="37.28515625" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
     <col min="4" max="4" width="99.5703125" style="9" customWidth="1"/>
     <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
@@ -26822,10 +26875,10 @@
         <v>1882</v>
       </c>
       <c r="B545" s="3" t="s">
-        <v>2129</v>
+        <v>3418</v>
       </c>
       <c r="D545" s="4" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="E545" s="3" t="s">
         <v>1037</v>
@@ -26836,10 +26889,10 @@
         <v>1882</v>
       </c>
       <c r="B546" s="3" t="s">
-        <v>2129</v>
+        <v>3419</v>
       </c>
       <c r="D546" s="4" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="E546" s="3" t="s">
         <v>1037</v>
@@ -26850,10 +26903,10 @@
         <v>1882</v>
       </c>
       <c r="B547" s="3" t="s">
-        <v>2129</v>
+        <v>3420</v>
       </c>
       <c r="D547" s="4" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="E547" s="3" t="s">
         <v>1037</v>
@@ -26864,10 +26917,10 @@
         <v>1882</v>
       </c>
       <c r="B548" s="3" t="s">
-        <v>2129</v>
+        <v>3421</v>
       </c>
       <c r="D548" s="4" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="E548" s="3" t="s">
         <v>1037</v>
@@ -26878,10 +26931,10 @@
         <v>1882</v>
       </c>
       <c r="B549" s="3" t="s">
+        <v>3422</v>
+      </c>
+      <c r="D549" s="4" t="s">
         <v>2129</v>
-      </c>
-      <c r="D549" s="4" t="s">
-        <v>2130</v>
       </c>
       <c r="E549" s="3" t="s">
         <v>1038</v>
@@ -26892,10 +26945,10 @@
         <v>1883</v>
       </c>
       <c r="B550" s="3" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
       <c r="D550" s="4" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
       <c r="E550" s="3" t="s">
         <v>1037</v>
@@ -26906,10 +26959,10 @@
         <v>1883</v>
       </c>
       <c r="B551" s="3" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="D551" s="4" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
       <c r="E551" s="3" t="s">
         <v>1037</v>
@@ -26920,10 +26973,10 @@
         <v>1883</v>
       </c>
       <c r="B552" s="3" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
       <c r="D552" s="4" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
       <c r="E552" s="3" t="s">
         <v>1037</v>
@@ -26934,10 +26987,10 @@
         <v>1883</v>
       </c>
       <c r="B553" s="3" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
       <c r="D553" s="4" t="s">
-        <v>2145</v>
+        <v>2144</v>
       </c>
       <c r="E553" s="3" t="s">
         <v>1037</v>
@@ -26948,10 +27001,10 @@
         <v>1883</v>
       </c>
       <c r="B554" s="3" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="D554" s="4" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
       <c r="E554" s="3" t="s">
         <v>1037</v>
@@ -26962,10 +27015,10 @@
         <v>1883</v>
       </c>
       <c r="B555" s="3" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
       <c r="D555" s="4" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
       <c r="E555" s="3" t="s">
         <v>1037</v>
@@ -26976,7 +27029,7 @@
         <v>1883</v>
       </c>
       <c r="B556" s="3" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
       <c r="D556" s="4" t="s">
         <v>2122</v>
@@ -26990,10 +27043,10 @@
         <v>1884</v>
       </c>
       <c r="B557" s="3" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="D557" s="4" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
       <c r="E557" s="3" t="s">
         <v>1037</v>
@@ -27004,10 +27057,10 @@
         <v>1884</v>
       </c>
       <c r="B558" s="3" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="D558" s="4" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
       <c r="E558" s="3" t="s">
         <v>1037</v>
@@ -27018,10 +27071,10 @@
         <v>1884</v>
       </c>
       <c r="B559" s="3" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
       <c r="D559" s="4" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
       <c r="E559" s="3" t="s">
         <v>1037</v>
@@ -27032,10 +27085,10 @@
         <v>1884</v>
       </c>
       <c r="B560" s="3" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
       <c r="D560" s="4" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="E560" s="3" t="s">
         <v>1037</v>
@@ -27046,10 +27099,10 @@
         <v>1884</v>
       </c>
       <c r="B561" s="3" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
       <c r="D561" s="4" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
       <c r="E561" s="3" t="s">
         <v>1038</v>
@@ -27060,10 +27113,10 @@
         <v>1885</v>
       </c>
       <c r="B562" s="3" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="D562" s="4" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="E562" s="3" t="s">
         <v>1037</v>
@@ -27074,10 +27127,10 @@
         <v>1885</v>
       </c>
       <c r="B563" s="3" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
       <c r="D563" s="4" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="E563" s="3" t="s">
         <v>1037</v>
@@ -27088,7 +27141,7 @@
         <v>1885</v>
       </c>
       <c r="B564" s="3" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
       <c r="D564" s="4" t="s">
         <v>2122</v>
@@ -27102,10 +27155,10 @@
         <v>1886</v>
       </c>
       <c r="B565" s="3" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
       <c r="D565" s="4" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
       <c r="E565" s="3" t="s">
         <v>1037</v>
@@ -27116,10 +27169,10 @@
         <v>1886</v>
       </c>
       <c r="B566" s="3" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
       <c r="D566" s="4" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="E566" s="3" t="s">
         <v>1037</v>
@@ -27130,10 +27183,10 @@
         <v>1886</v>
       </c>
       <c r="B567" s="3" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="D567" s="4" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="E567" s="3" t="s">
         <v>1037</v>
@@ -27144,10 +27197,10 @@
         <v>1886</v>
       </c>
       <c r="B568" s="3" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
       <c r="D568" s="4" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
       <c r="E568" s="3" t="s">
         <v>1037</v>
@@ -27158,10 +27211,10 @@
         <v>1886</v>
       </c>
       <c r="B569" s="3" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
       <c r="D569" s="4" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
       <c r="E569" s="3" t="s">
         <v>1037</v>
@@ -27172,7 +27225,7 @@
         <v>1886</v>
       </c>
       <c r="B570" s="3" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
       <c r="D570" s="4" t="s">
         <v>2122</v>
@@ -27186,10 +27239,10 @@
         <v>1887</v>
       </c>
       <c r="B571" s="3" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
       <c r="D571" s="4" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
       <c r="E571" s="3" t="s">
         <v>1037</v>
@@ -27200,10 +27253,10 @@
         <v>1887</v>
       </c>
       <c r="B572" s="3" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="D572" s="4" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
       <c r="E572" s="3" t="s">
         <v>1037</v>
@@ -27214,10 +27267,10 @@
         <v>1887</v>
       </c>
       <c r="B573" s="3" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
       <c r="D573" s="4" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
       <c r="E573" s="3" t="s">
         <v>1037</v>
@@ -27228,10 +27281,10 @@
         <v>1887</v>
       </c>
       <c r="B574" s="3" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
       <c r="D574" s="4" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
       <c r="E574" s="3" t="s">
         <v>1037</v>
@@ -27242,10 +27295,10 @@
         <v>1887</v>
       </c>
       <c r="B575" s="3" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="D575" s="4" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="E575" s="3" t="s">
         <v>1038</v>
@@ -27256,10 +27309,10 @@
         <v>1888</v>
       </c>
       <c r="B576" s="3" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="D576" s="4" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
       <c r="E576" s="3" t="s">
         <v>1037</v>
@@ -27270,10 +27323,10 @@
         <v>1888</v>
       </c>
       <c r="B577" s="3" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="D577" s="4" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
       <c r="E577" s="3" t="s">
         <v>1037</v>
@@ -27284,10 +27337,10 @@
         <v>1888</v>
       </c>
       <c r="B578" s="3" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="D578" s="4" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
       <c r="E578" s="3" t="s">
         <v>1037</v>
@@ -27298,10 +27351,10 @@
         <v>1889</v>
       </c>
       <c r="B579" s="3" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
       <c r="D579" s="4" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
       <c r="E579" s="3" t="s">
         <v>1037</v>
@@ -27312,10 +27365,10 @@
         <v>1889</v>
       </c>
       <c r="B580" s="3" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
       <c r="D580" s="4" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
       <c r="E580" s="3" t="s">
         <v>1037</v>
@@ -27326,10 +27379,10 @@
         <v>1889</v>
       </c>
       <c r="B581" s="3" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
       <c r="D581" s="4" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
       <c r="E581" s="3" t="s">
         <v>1037</v>
@@ -27340,10 +27393,10 @@
         <v>1889</v>
       </c>
       <c r="B582" s="3" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
       <c r="D582" s="4" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
       <c r="E582" s="3" t="s">
         <v>1037</v>
@@ -27354,10 +27407,10 @@
         <v>1889</v>
       </c>
       <c r="B583" s="3" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
       <c r="D583" s="4" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
       <c r="E583" s="3" t="s">
         <v>1037</v>
@@ -27368,10 +27421,10 @@
         <v>1889</v>
       </c>
       <c r="B584" s="3" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="D584" s="4" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
       <c r="E584" s="3" t="s">
         <v>1037</v>
@@ -27382,7 +27435,7 @@
         <v>1889</v>
       </c>
       <c r="B585" s="3" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="D585" s="4" t="s">
         <v>2122</v>
@@ -27396,10 +27449,10 @@
         <v>1890</v>
       </c>
       <c r="B586" s="3" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
       <c r="D586" s="4" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
       <c r="E586" s="3" t="s">
         <v>1037</v>
@@ -27410,10 +27463,10 @@
         <v>1890</v>
       </c>
       <c r="B587" s="3" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
       <c r="D587" s="4" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
       <c r="E587" s="3" t="s">
         <v>1037</v>
@@ -27424,10 +27477,10 @@
         <v>1890</v>
       </c>
       <c r="B588" s="3" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="D588" s="4" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="E588" s="3" t="s">
         <v>1037</v>
@@ -27438,10 +27491,10 @@
         <v>1890</v>
       </c>
       <c r="B589" s="3" t="s">
-        <v>2206</v>
+        <v>2205</v>
       </c>
       <c r="D589" s="4" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="E589" s="3" t="s">
         <v>1037</v>
@@ -27452,10 +27505,10 @@
         <v>1890</v>
       </c>
       <c r="B590" s="3" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
       <c r="D590" s="4" t="s">
-        <v>2233</v>
+        <v>2232</v>
       </c>
       <c r="E590" t="s">
         <v>1038</v>
@@ -27466,10 +27519,10 @@
         <v>1891</v>
       </c>
       <c r="B591" s="3" t="s">
-        <v>2208</v>
+        <v>2207</v>
       </c>
       <c r="D591" s="4" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="E591" s="3" t="s">
         <v>1037</v>
@@ -27480,10 +27533,10 @@
         <v>1891</v>
       </c>
       <c r="B592" s="3" t="s">
-        <v>2209</v>
+        <v>2208</v>
       </c>
       <c r="D592" s="4" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
       <c r="E592" s="3" t="s">
         <v>1037</v>
@@ -27494,10 +27547,10 @@
         <v>1891</v>
       </c>
       <c r="B593" s="3" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="D593" s="4" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
       <c r="E593" s="3" t="s">
         <v>1037</v>
@@ -27508,10 +27561,10 @@
         <v>1891</v>
       </c>
       <c r="B594" s="3" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="D594" s="4" t="s">
-        <v>2241</v>
+        <v>2240</v>
       </c>
       <c r="E594" s="3" t="s">
         <v>1037</v>
@@ -27522,10 +27575,10 @@
         <v>1891</v>
       </c>
       <c r="B595" s="3" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="D595" s="4" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
       <c r="E595" s="3" t="s">
         <v>1037</v>
@@ -27536,10 +27589,10 @@
         <v>1891</v>
       </c>
       <c r="B596" s="3" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
       <c r="D596" s="4" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
       <c r="E596" s="3" t="s">
         <v>1037</v>
@@ -27550,10 +27603,10 @@
         <v>1891</v>
       </c>
       <c r="B597" s="3" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="D597" s="4" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
       <c r="E597" t="s">
         <v>1038</v>
@@ -27564,10 +27617,10 @@
         <v>1892</v>
       </c>
       <c r="B598" s="3" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
       <c r="D598" s="4" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
       <c r="E598" s="3" t="s">
         <v>1037</v>
@@ -27578,10 +27631,10 @@
         <v>1892</v>
       </c>
       <c r="B599" s="3" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
       <c r="D599" s="4" t="s">
-        <v>2245</v>
+        <v>2244</v>
       </c>
       <c r="E599" s="3" t="s">
         <v>1037</v>
@@ -27592,10 +27645,10 @@
         <v>1892</v>
       </c>
       <c r="B600" s="3" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
       <c r="D600" s="4" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
       <c r="E600" s="3" t="s">
         <v>1037</v>
@@ -27606,10 +27659,10 @@
         <v>1892</v>
       </c>
       <c r="B601" s="3" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
       <c r="D601" s="4" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="E601" s="3" t="s">
         <v>1037</v>
@@ -27620,10 +27673,10 @@
         <v>1892</v>
       </c>
       <c r="B602" s="3" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
       <c r="D602" s="4" t="s">
-        <v>2248</v>
+        <v>2247</v>
       </c>
       <c r="E602" s="3" t="s">
         <v>1037</v>
@@ -27634,10 +27687,10 @@
         <v>1892</v>
       </c>
       <c r="B603" s="3" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
       <c r="D603" s="4" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
       <c r="E603" s="3" t="s">
         <v>1037</v>
@@ -27648,10 +27701,10 @@
         <v>1892</v>
       </c>
       <c r="B604" s="3" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="D604" s="4" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
       <c r="E604" s="3" t="s">
         <v>1037</v>
@@ -27662,10 +27715,10 @@
         <v>1892</v>
       </c>
       <c r="B605" s="3" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="D605" s="4" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="E605" s="3" t="s">
         <v>1037</v>
@@ -27676,10 +27729,10 @@
         <v>1892</v>
       </c>
       <c r="B606" s="3" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
       <c r="D606" s="4" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="E606" s="3" t="s">
         <v>1037</v>
@@ -27690,10 +27743,10 @@
         <v>1892</v>
       </c>
       <c r="B607" s="3" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
       <c r="D607" s="4" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="E607" s="3" t="s">
         <v>1037</v>
@@ -27704,10 +27757,10 @@
         <v>1892</v>
       </c>
       <c r="B608" s="3" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
       <c r="D608" s="4" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
       <c r="E608" s="3" t="s">
         <v>1037</v>
@@ -27718,10 +27771,10 @@
         <v>1892</v>
       </c>
       <c r="B609" s="3" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
       <c r="D609" s="4" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
       <c r="E609" s="3" t="s">
         <v>1037</v>
@@ -27732,10 +27785,10 @@
         <v>1892</v>
       </c>
       <c r="B610" s="3" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
       <c r="D610" s="4" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="E610" s="3" t="s">
         <v>1037</v>
@@ -27746,10 +27799,10 @@
         <v>1892</v>
       </c>
       <c r="B611" s="3" t="s">
-        <v>2228</v>
+        <v>2227</v>
       </c>
       <c r="D611" s="4" t="s">
-        <v>2257</v>
+        <v>2256</v>
       </c>
       <c r="E611" s="3" t="s">
         <v>1037</v>
@@ -27760,10 +27813,10 @@
         <v>1892</v>
       </c>
       <c r="B612" s="3" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="D612" s="4" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
       <c r="E612" s="3" t="s">
         <v>1037</v>
@@ -27774,10 +27827,10 @@
         <v>1892</v>
       </c>
       <c r="B613" s="3" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
       <c r="D613" s="4" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
       <c r="E613" t="s">
         <v>1038</v>
@@ -27788,10 +27841,10 @@
         <v>1893</v>
       </c>
       <c r="B614" s="3" t="s">
-        <v>2259</v>
+        <v>2258</v>
       </c>
       <c r="D614" s="4" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="E614" s="3" t="s">
         <v>1037</v>
@@ -27802,10 +27855,10 @@
         <v>1893</v>
       </c>
       <c r="B615" s="3" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
       <c r="D615" s="4" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="E615" s="3" t="s">
         <v>1037</v>
@@ -27816,10 +27869,10 @@
         <v>1893</v>
       </c>
       <c r="B616" s="3" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
       <c r="D616" s="4" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
       <c r="E616" s="3" t="s">
         <v>1038</v>
@@ -27830,10 +27883,10 @@
         <v>1738</v>
       </c>
       <c r="B617" s="3" t="s">
-        <v>2262</v>
+        <v>2261</v>
       </c>
       <c r="D617" s="4" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="E617" s="3" t="s">
         <v>1037</v>
@@ -27844,10 +27897,10 @@
         <v>1738</v>
       </c>
       <c r="B618" s="3" t="s">
-        <v>2263</v>
+        <v>2262</v>
       </c>
       <c r="D618" s="4" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="E618" s="3" t="s">
         <v>1037</v>
@@ -27858,10 +27911,10 @@
         <v>1738</v>
       </c>
       <c r="B619" s="3" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="D619" s="4" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
       <c r="E619" s="3" t="s">
         <v>1037</v>
@@ -27872,10 +27925,10 @@
         <v>1738</v>
       </c>
       <c r="B620" s="3" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
       <c r="D620" s="4" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="E620" s="3" t="s">
         <v>1037</v>
@@ -27886,10 +27939,10 @@
         <v>1738</v>
       </c>
       <c r="B621" s="3" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
       <c r="D621" s="4" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
       <c r="E621" s="3" t="s">
         <v>1037</v>
@@ -27900,10 +27953,10 @@
         <v>1738</v>
       </c>
       <c r="B622" s="3" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
       <c r="D622" s="4" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
       <c r="E622" s="3" t="s">
         <v>1037</v>
@@ -27914,10 +27967,10 @@
         <v>1738</v>
       </c>
       <c r="B623" s="3" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
       <c r="D623" s="4" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
       <c r="E623" s="3" t="s">
         <v>1037</v>
@@ -27928,10 +27981,10 @@
         <v>1738</v>
       </c>
       <c r="B624" s="3" t="s">
-        <v>2269</v>
+        <v>2268</v>
       </c>
       <c r="D624" s="4" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
       <c r="E624" s="3" t="s">
         <v>1037</v>
@@ -27942,10 +27995,10 @@
         <v>1738</v>
       </c>
       <c r="B625" s="3" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="D625" s="4" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
       <c r="E625" s="3" t="s">
         <v>1037</v>
@@ -27956,10 +28009,10 @@
         <v>1738</v>
       </c>
       <c r="B626" s="3" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="D626" s="4" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
       <c r="E626" s="3" t="s">
         <v>1037</v>
@@ -27970,10 +28023,10 @@
         <v>1738</v>
       </c>
       <c r="B627" s="3" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
       <c r="D627" s="4" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
       <c r="E627" t="s">
         <v>1038</v>
@@ -27984,10 +28037,10 @@
         <v>1738</v>
       </c>
       <c r="B628" s="3" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
       <c r="D628" s="4" t="s">
-        <v>2297</v>
+        <v>2296</v>
       </c>
       <c r="E628" s="3" t="s">
         <v>1037</v>
@@ -27998,10 +28051,10 @@
         <v>1738</v>
       </c>
       <c r="B629" s="3" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
       <c r="D629" s="4" t="s">
-        <v>2298</v>
+        <v>2297</v>
       </c>
       <c r="E629" s="3" t="s">
         <v>1037</v>
@@ -28012,10 +28065,10 @@
         <v>1738</v>
       </c>
       <c r="B630" s="3" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
       <c r="D630" s="4" t="s">
-        <v>2299</v>
+        <v>2298</v>
       </c>
       <c r="E630" s="3" t="s">
         <v>1037</v>
@@ -28026,10 +28079,10 @@
         <v>1738</v>
       </c>
       <c r="B631" s="3" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
       <c r="D631" s="4" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
       <c r="E631" s="3" t="s">
         <v>1037</v>
@@ -28040,10 +28093,10 @@
         <v>1738</v>
       </c>
       <c r="B632" s="3" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="D632" s="4" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
       <c r="E632" s="3" t="s">
         <v>1037</v>
@@ -28054,10 +28107,10 @@
         <v>1738</v>
       </c>
       <c r="B633" s="3" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
       <c r="D633" s="4" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
       <c r="E633" s="3" t="s">
         <v>1037</v>
@@ -28068,10 +28121,10 @@
         <v>1738</v>
       </c>
       <c r="B634" s="3" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
       <c r="D634" s="4" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
       <c r="E634" s="3" t="s">
         <v>1037</v>
@@ -28082,10 +28135,10 @@
         <v>1738</v>
       </c>
       <c r="B635" s="3" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
       <c r="D635" s="4" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
       <c r="E635" s="3" t="s">
         <v>1037</v>
@@ -28096,10 +28149,10 @@
         <v>1738</v>
       </c>
       <c r="B636" s="3" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
       <c r="D636" s="4" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
       <c r="E636" s="3" t="s">
         <v>1037</v>
@@ -28110,10 +28163,10 @@
         <v>1738</v>
       </c>
       <c r="B637" s="3" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="D637" s="4" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
       <c r="E637" s="3" t="s">
         <v>1037</v>
@@ -28124,10 +28177,10 @@
         <v>1894</v>
       </c>
       <c r="B638" s="3" t="s">
-        <v>2307</v>
+        <v>2306</v>
       </c>
       <c r="D638" s="4" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
       <c r="E638" s="3" t="s">
         <v>1038</v>
@@ -28138,10 +28191,10 @@
         <v>1894</v>
       </c>
       <c r="B639" s="3" t="s">
-        <v>2308</v>
+        <v>2307</v>
       </c>
       <c r="D639" s="4" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
       <c r="E639" s="3" t="s">
         <v>1038</v>
@@ -28152,10 +28205,10 @@
         <v>1745</v>
       </c>
       <c r="B640" s="3" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
       <c r="D640" s="4" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
       <c r="E640" s="3" t="s">
         <v>1037</v>
@@ -28166,10 +28219,10 @@
         <v>1745</v>
       </c>
       <c r="B641" s="3" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
       <c r="D641" s="4" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
       <c r="E641" s="3" t="s">
         <v>1037</v>
@@ -28180,10 +28233,10 @@
         <v>1745</v>
       </c>
       <c r="B642" s="3" t="s">
-        <v>2311</v>
+        <v>2310</v>
       </c>
       <c r="D642" s="4" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
       <c r="E642" s="3" t="s">
         <v>1037</v>
@@ -28194,10 +28247,10 @@
         <v>1745</v>
       </c>
       <c r="B643" s="3" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="D643" s="4" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
       <c r="E643" s="3" t="s">
         <v>2009</v>
@@ -28208,10 +28261,10 @@
         <v>1745</v>
       </c>
       <c r="B644" s="3" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
       <c r="D644" s="4" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
       <c r="E644" s="3" t="s">
         <v>2009</v>
@@ -28222,10 +28275,10 @@
         <v>1745</v>
       </c>
       <c r="B645" s="3" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
       <c r="D645" s="4" t="s">
-        <v>2430</v>
+        <v>2429</v>
       </c>
       <c r="E645" s="3" t="s">
         <v>2009</v>
@@ -28236,10 +28289,10 @@
         <v>1745</v>
       </c>
       <c r="B646" s="3" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="D646" s="4" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
       <c r="E646" s="3" t="s">
         <v>2009</v>
@@ -28250,10 +28303,10 @@
         <v>1745</v>
       </c>
       <c r="B647" s="3" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
       <c r="D647" s="4" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
       <c r="E647" s="3" t="s">
         <v>2009</v>
@@ -28264,10 +28317,10 @@
         <v>1745</v>
       </c>
       <c r="B648" s="3" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
       <c r="D648" s="4" t="s">
-        <v>2433</v>
+        <v>2432</v>
       </c>
       <c r="E648" s="3" t="s">
         <v>1037</v>
@@ -28278,10 +28331,10 @@
         <v>1745</v>
       </c>
       <c r="B649" s="3" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
       <c r="D649" s="4" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
       <c r="E649" s="3" t="s">
         <v>1037</v>
@@ -28292,10 +28345,10 @@
         <v>1745</v>
       </c>
       <c r="B650" s="3" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
       <c r="D650" s="4" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
       <c r="E650" s="3" t="s">
         <v>1037</v>
@@ -28306,10 +28359,10 @@
         <v>1749</v>
       </c>
       <c r="B651" s="3" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="D651" s="13" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
       <c r="E651" s="3" t="s">
         <v>2009</v>
@@ -28320,10 +28373,10 @@
         <v>1749</v>
       </c>
       <c r="B652" s="3" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
       <c r="D652" s="4" t="s">
-        <v>2437</v>
+        <v>2436</v>
       </c>
       <c r="E652" s="3" t="s">
         <v>2009</v>
@@ -28334,10 +28387,10 @@
         <v>1749</v>
       </c>
       <c r="B653" s="3" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
       <c r="D653" s="4" t="s">
-        <v>2438</v>
+        <v>2437</v>
       </c>
       <c r="E653" s="3" t="s">
         <v>2009</v>
@@ -28348,10 +28401,10 @@
         <v>1749</v>
       </c>
       <c r="B654" s="3" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="D654" s="4" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
       <c r="E654" s="3" t="s">
         <v>2009</v>
@@ -28362,10 +28415,10 @@
         <v>1749</v>
       </c>
       <c r="B655" s="3" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
       <c r="D655" s="4" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
       <c r="E655" s="3" t="s">
         <v>2009</v>
@@ -28376,10 +28429,10 @@
         <v>1749</v>
       </c>
       <c r="B656" s="3" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
       <c r="D656" s="4" t="s">
-        <v>2441</v>
+        <v>2440</v>
       </c>
       <c r="E656" s="3" t="s">
         <v>2009</v>
@@ -28390,10 +28443,10 @@
         <v>1749</v>
       </c>
       <c r="B657" s="3" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
       <c r="D657" s="4" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
       <c r="E657" s="3" t="s">
         <v>2009</v>
@@ -28404,10 +28457,10 @@
         <v>1749</v>
       </c>
       <c r="B658" s="3" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
       <c r="D658" s="4" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
       <c r="E658" s="3" t="s">
         <v>2009</v>
@@ -28418,10 +28471,10 @@
         <v>1749</v>
       </c>
       <c r="B659" s="3" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
       <c r="D659" s="4" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
       <c r="E659" s="3" t="s">
         <v>2009</v>
@@ -28432,10 +28485,10 @@
         <v>1749</v>
       </c>
       <c r="B660" s="3" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
       <c r="D660" s="4" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="E660" s="3" t="s">
         <v>2009</v>
@@ -28446,10 +28499,10 @@
         <v>1749</v>
       </c>
       <c r="B661" s="3" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="D661" s="4" t="s">
-        <v>2446</v>
+        <v>2445</v>
       </c>
       <c r="E661" s="3" t="s">
         <v>2009</v>
@@ -28460,10 +28513,10 @@
         <v>1749</v>
       </c>
       <c r="B662" s="3" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="D662" s="4" t="s">
-        <v>2447</v>
+        <v>2446</v>
       </c>
       <c r="E662" s="3" t="s">
         <v>2009</v>
@@ -28474,10 +28527,10 @@
         <v>1749</v>
       </c>
       <c r="B663" s="3" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="D663" s="4" t="s">
-        <v>2448</v>
+        <v>2447</v>
       </c>
       <c r="E663" s="3" t="s">
         <v>2009</v>
@@ -28488,10 +28541,10 @@
         <v>1749</v>
       </c>
       <c r="B664" s="3" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
       <c r="D664" s="4" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="E664" s="3" t="s">
         <v>2009</v>
@@ -28502,10 +28555,10 @@
         <v>1749</v>
       </c>
       <c r="B665" s="3" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="D665" s="4" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="E665" s="3" t="s">
         <v>2009</v>
@@ -28516,10 +28569,10 @@
         <v>1749</v>
       </c>
       <c r="B666" s="3" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="D666" s="4" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
       <c r="E666" s="3" t="s">
         <v>2009</v>
@@ -28530,10 +28583,10 @@
         <v>1749</v>
       </c>
       <c r="B667" s="3" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
       <c r="D667" s="4" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="E667" s="3" t="s">
         <v>2009</v>
@@ -28544,10 +28597,10 @@
         <v>1749</v>
       </c>
       <c r="B668" s="3" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
       <c r="D668" s="4" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
       <c r="E668" s="3" t="s">
         <v>2009</v>
@@ -28558,10 +28611,10 @@
         <v>1749</v>
       </c>
       <c r="B669" s="3" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
       <c r="D669" s="4" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
       <c r="E669" s="3" t="s">
         <v>2009</v>
@@ -28572,10 +28625,10 @@
         <v>1749</v>
       </c>
       <c r="B670" s="3" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
       <c r="D670" s="4" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
       <c r="E670" s="3" t="s">
         <v>2009</v>
@@ -28586,10 +28639,10 @@
         <v>1749</v>
       </c>
       <c r="B671" s="3" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="D671" s="4" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
       <c r="E671" s="3" t="s">
         <v>2009</v>
@@ -28600,10 +28653,10 @@
         <v>1749</v>
       </c>
       <c r="B672" s="3" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
       <c r="D672" s="4" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
       <c r="E672" s="3" t="s">
         <v>2009</v>
@@ -28614,10 +28667,10 @@
         <v>1749</v>
       </c>
       <c r="B673" s="3" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
       <c r="D673" s="4" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
       <c r="E673" s="3" t="s">
         <v>2009</v>
@@ -28628,10 +28681,10 @@
         <v>1749</v>
       </c>
       <c r="B674" s="3" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
       <c r="D674" s="4" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
       <c r="E674" s="3" t="s">
         <v>2009</v>
@@ -28642,10 +28695,10 @@
         <v>1749</v>
       </c>
       <c r="B675" s="3" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
       <c r="D675" s="4" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
       <c r="E675" s="3" t="s">
         <v>2009</v>
@@ -28656,10 +28709,10 @@
         <v>1749</v>
       </c>
       <c r="B676" s="3" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
       <c r="D676" s="4" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
       <c r="E676" s="3" t="s">
         <v>2009</v>
@@ -28670,10 +28723,10 @@
         <v>1749</v>
       </c>
       <c r="B677" s="3" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
       <c r="D677" s="4" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="E677" s="3" t="s">
         <v>2009</v>
@@ -28684,10 +28737,10 @@
         <v>1749</v>
       </c>
       <c r="B678" s="3" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="D678" s="4" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="E678" s="3" t="s">
         <v>2009</v>
@@ -28698,10 +28751,10 @@
         <v>1749</v>
       </c>
       <c r="B679" s="3" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
       <c r="D679" s="4" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
       <c r="E679" s="3" t="s">
         <v>2009</v>
@@ -28712,10 +28765,10 @@
         <v>1749</v>
       </c>
       <c r="B680" s="3" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
       <c r="D680" s="4" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
       <c r="E680" s="3" t="s">
         <v>2009</v>
@@ -28726,10 +28779,10 @@
         <v>1749</v>
       </c>
       <c r="B681" s="3" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
       <c r="D681" s="4" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
       <c r="E681" s="3" t="s">
         <v>2009</v>
@@ -28740,10 +28793,10 @@
         <v>1749</v>
       </c>
       <c r="B682" s="3" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
       <c r="D682" s="4" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
       <c r="E682" s="3" t="s">
         <v>2009</v>
@@ -28754,10 +28807,10 @@
         <v>1749</v>
       </c>
       <c r="B683" s="3" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
       <c r="D683" s="4" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="E683" s="3" t="s">
         <v>2009</v>
@@ -28768,10 +28821,10 @@
         <v>1749</v>
       </c>
       <c r="B684" s="3" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
       <c r="D684" s="4" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="E684" s="3" t="s">
         <v>2009</v>
@@ -28782,10 +28835,10 @@
         <v>1749</v>
       </c>
       <c r="B685" s="3" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
       <c r="D685" s="4" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
       <c r="E685" s="3" t="s">
         <v>2009</v>
@@ -28796,10 +28849,10 @@
         <v>1749</v>
       </c>
       <c r="B686" s="3" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
       <c r="D686" s="4" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
       <c r="E686" s="3" t="s">
         <v>2009</v>
@@ -28810,10 +28863,10 @@
         <v>1749</v>
       </c>
       <c r="B687" s="3" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
       <c r="D687" s="4" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
       <c r="E687" s="3" t="s">
         <v>2009</v>
@@ -28824,10 +28877,10 @@
         <v>1749</v>
       </c>
       <c r="B688" s="3" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="D688" s="4" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="E688" s="3" t="s">
         <v>2009</v>
@@ -28838,10 +28891,10 @@
         <v>1749</v>
       </c>
       <c r="B689" s="3" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
       <c r="D689" s="4" t="s">
-        <v>2474</v>
+        <v>2473</v>
       </c>
       <c r="E689" s="3" t="s">
         <v>2009</v>
@@ -28852,10 +28905,10 @@
         <v>1749</v>
       </c>
       <c r="B690" s="3" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
       <c r="D690" s="4" t="s">
-        <v>2475</v>
+        <v>2474</v>
       </c>
       <c r="E690" s="3" t="s">
         <v>2009</v>
@@ -28866,10 +28919,10 @@
         <v>1749</v>
       </c>
       <c r="B691" s="3" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
       <c r="D691" s="4" t="s">
-        <v>2476</v>
+        <v>2475</v>
       </c>
       <c r="E691" s="3" t="s">
         <v>2009</v>
@@ -28880,10 +28933,10 @@
         <v>1749</v>
       </c>
       <c r="B692" s="3" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
       <c r="D692" s="4" t="s">
-        <v>2477</v>
+        <v>2476</v>
       </c>
       <c r="E692" s="3" t="s">
         <v>2009</v>
@@ -28894,10 +28947,10 @@
         <v>1749</v>
       </c>
       <c r="B693" s="3" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
       <c r="D693" s="4" t="s">
-        <v>2478</v>
+        <v>2477</v>
       </c>
       <c r="E693" s="3" t="s">
         <v>2009</v>
@@ -28908,10 +28961,10 @@
         <v>1749</v>
       </c>
       <c r="B694" s="3" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="D694" s="4" t="s">
-        <v>2479</v>
+        <v>2478</v>
       </c>
       <c r="E694" s="3" t="s">
         <v>2009</v>
@@ -28922,10 +28975,10 @@
         <v>1749</v>
       </c>
       <c r="B695" s="3" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
       <c r="D695" s="4" t="s">
-        <v>2480</v>
+        <v>2479</v>
       </c>
       <c r="E695" s="3" t="s">
         <v>2009</v>
@@ -28936,10 +28989,10 @@
         <v>1749</v>
       </c>
       <c r="B696" s="3" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
       <c r="D696" s="4" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
       <c r="E696" s="3" t="s">
         <v>2009</v>
@@ -28950,10 +29003,10 @@
         <v>1749</v>
       </c>
       <c r="B697" s="3" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
       <c r="D697" s="4" t="s">
-        <v>2482</v>
+        <v>2481</v>
       </c>
       <c r="E697" s="3" t="s">
         <v>2009</v>
@@ -28964,10 +29017,10 @@
         <v>1749</v>
       </c>
       <c r="B698" s="3" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
       <c r="D698" s="4" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
       <c r="E698" s="3" t="s">
         <v>2009</v>
@@ -28978,10 +29031,10 @@
         <v>1749</v>
       </c>
       <c r="B699" s="3" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
       <c r="D699" s="4" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="E699" s="3" t="s">
         <v>2009</v>
@@ -28992,10 +29045,10 @@
         <v>1749</v>
       </c>
       <c r="B700" s="3" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="D700" s="13" t="s">
-        <v>2485</v>
+        <v>2484</v>
       </c>
       <c r="E700" s="3" t="s">
         <v>2009</v>
@@ -29006,10 +29059,10 @@
         <v>1753</v>
       </c>
       <c r="B701" s="3" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
       <c r="D701" s="4" t="s">
-        <v>2486</v>
+        <v>2485</v>
       </c>
       <c r="E701" s="3" t="s">
         <v>2009</v>
@@ -29020,10 +29073,10 @@
         <v>1753</v>
       </c>
       <c r="B702" s="3" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="D702" s="4" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
       <c r="E702" s="3" t="s">
         <v>2009</v>
@@ -29034,10 +29087,10 @@
         <v>1753</v>
       </c>
       <c r="B703" s="3" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="D703" s="4" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
       <c r="E703" s="3" t="s">
         <v>2009</v>
@@ -29048,10 +29101,10 @@
         <v>1753</v>
       </c>
       <c r="B704" s="3" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
       <c r="D704" s="4" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="E704" s="3" t="s">
         <v>2009</v>
@@ -29062,10 +29115,10 @@
         <v>1753</v>
       </c>
       <c r="B705" s="3" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
       <c r="D705" s="4" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
       <c r="E705" s="3" t="s">
         <v>2009</v>
@@ -29076,10 +29129,10 @@
         <v>1753</v>
       </c>
       <c r="B706" s="3" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
       <c r="D706" s="4" t="s">
-        <v>2490</v>
+        <v>2489</v>
       </c>
       <c r="E706" s="3" t="s">
         <v>2009</v>
@@ -29090,10 +29143,10 @@
         <v>1753</v>
       </c>
       <c r="B707" s="3" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="D707" s="4" t="s">
-        <v>2491</v>
+        <v>2490</v>
       </c>
       <c r="E707" s="3" t="s">
         <v>2009</v>
@@ -29104,10 +29157,10 @@
         <v>1753</v>
       </c>
       <c r="B708" s="3" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
       <c r="D708" s="4" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
       <c r="E708" s="3" t="s">
         <v>2009</v>
@@ -29118,10 +29171,10 @@
         <v>1753</v>
       </c>
       <c r="B709" s="3" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="D709" s="4" t="s">
-        <v>2493</v>
+        <v>2492</v>
       </c>
       <c r="E709" s="3" t="s">
         <v>2009</v>
@@ -29132,10 +29185,10 @@
         <v>1753</v>
       </c>
       <c r="B710" s="3" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
       <c r="D710" s="4" t="s">
-        <v>2494</v>
+        <v>2493</v>
       </c>
       <c r="E710" s="3" t="s">
         <v>2009</v>
@@ -29146,10 +29199,10 @@
         <v>1753</v>
       </c>
       <c r="B711" s="3" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="D711" s="4" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
       <c r="E711" s="3" t="s">
         <v>2009</v>
@@ -29160,10 +29213,10 @@
         <v>1753</v>
       </c>
       <c r="B712" s="3" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="D712" s="4" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="E712" s="3" t="s">
         <v>2009</v>
@@ -29174,10 +29227,10 @@
         <v>1753</v>
       </c>
       <c r="B713" s="3" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="D713" s="4" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
       <c r="E713" s="3" t="s">
         <v>2009</v>
@@ -29188,10 +29241,10 @@
         <v>1753</v>
       </c>
       <c r="B714" s="3" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
       <c r="D714" s="4" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
       <c r="E714" s="3" t="s">
         <v>2009</v>
@@ -29202,10 +29255,10 @@
         <v>1753</v>
       </c>
       <c r="B715" s="3" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="D715" s="4" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="E715" s="3" t="s">
         <v>2009</v>
@@ -29216,10 +29269,10 @@
         <v>1753</v>
       </c>
       <c r="B716" s="3" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
       <c r="D716" s="4" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
       <c r="E716" s="3" t="s">
         <v>2009</v>
@@ -29230,10 +29283,10 @@
         <v>1753</v>
       </c>
       <c r="B717" s="3" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="D717" s="4" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="E717" s="3" t="s">
         <v>2009</v>
@@ -29244,10 +29297,10 @@
         <v>1753</v>
       </c>
       <c r="B718" s="3" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="D718" s="4" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
       <c r="E718" s="3" t="s">
         <v>2009</v>
@@ -29258,10 +29311,10 @@
         <v>1753</v>
       </c>
       <c r="B719" s="3" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="D719" s="4" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="E719" s="3" t="s">
         <v>2009</v>
@@ -29272,10 +29325,10 @@
         <v>1753</v>
       </c>
       <c r="B720" s="3" t="s">
-        <v>2389</v>
+        <v>2388</v>
       </c>
       <c r="D720" s="4" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="E720" s="3" t="s">
         <v>2009</v>
@@ -29286,10 +29339,10 @@
         <v>1753</v>
       </c>
       <c r="B721" s="3" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
       <c r="D721" s="4" t="s">
-        <v>2505</v>
+        <v>2504</v>
       </c>
       <c r="E721" s="3" t="s">
         <v>2009</v>
@@ -29300,10 +29353,10 @@
         <v>1753</v>
       </c>
       <c r="B722" s="3" t="s">
-        <v>2391</v>
+        <v>2390</v>
       </c>
       <c r="D722" s="4" t="s">
-        <v>2506</v>
+        <v>2505</v>
       </c>
       <c r="E722" s="3" t="s">
         <v>1037</v>
@@ -29314,10 +29367,10 @@
         <v>1753</v>
       </c>
       <c r="B723" s="3" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="D723" s="4" t="s">
-        <v>2507</v>
+        <v>2506</v>
       </c>
       <c r="E723" s="3" t="s">
         <v>1038</v>
@@ -29328,10 +29381,10 @@
         <v>1753</v>
       </c>
       <c r="B724" s="3" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="D724" s="4" t="s">
-        <v>2508</v>
+        <v>2507</v>
       </c>
       <c r="E724" s="3" t="s">
         <v>1038</v>
@@ -29342,10 +29395,10 @@
         <v>1753</v>
       </c>
       <c r="B725" s="3" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
       <c r="D725" s="4" t="s">
-        <v>2509</v>
+        <v>2508</v>
       </c>
       <c r="E725" s="3" t="s">
         <v>1038</v>
@@ -29356,10 +29409,10 @@
         <v>1753</v>
       </c>
       <c r="B726" s="3" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="D726" s="4" t="s">
-        <v>2510</v>
+        <v>2509</v>
       </c>
       <c r="E726" s="3" t="s">
         <v>1038</v>
@@ -29370,10 +29423,10 @@
         <v>1753</v>
       </c>
       <c r="B727" s="3" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="D727" s="4" t="s">
-        <v>2511</v>
+        <v>2510</v>
       </c>
       <c r="E727" s="3" t="s">
         <v>1038</v>
@@ -29384,7 +29437,7 @@
         <v>1753</v>
       </c>
       <c r="B728" s="3" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="D728" s="4" t="s">
         <v>1074</v>
@@ -29398,10 +29451,10 @@
         <v>1753</v>
       </c>
       <c r="B729" s="3" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
       <c r="D729" s="4" t="s">
-        <v>2512</v>
+        <v>2511</v>
       </c>
       <c r="E729" s="3" t="s">
         <v>2009</v>
@@ -29412,10 +29465,10 @@
         <v>1753</v>
       </c>
       <c r="B730" s="3" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
       <c r="D730" s="4" t="s">
-        <v>2513</v>
+        <v>2512</v>
       </c>
       <c r="E730" s="3" t="s">
         <v>2009</v>
@@ -29426,10 +29479,10 @@
         <v>1753</v>
       </c>
       <c r="B731" s="3" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
       <c r="D731" s="4" t="s">
-        <v>2514</v>
+        <v>2513</v>
       </c>
       <c r="E731" s="3" t="s">
         <v>2009</v>
@@ -29440,10 +29493,10 @@
         <v>1753</v>
       </c>
       <c r="B732" s="3" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
       <c r="D732" s="4" t="s">
-        <v>2515</v>
+        <v>2514</v>
       </c>
       <c r="E732" s="3" t="s">
         <v>2009</v>
@@ -29454,10 +29507,10 @@
         <v>1753</v>
       </c>
       <c r="B733" s="3" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
       <c r="D733" s="4" t="s">
-        <v>2516</v>
+        <v>2515</v>
       </c>
       <c r="E733" s="3" t="s">
         <v>2009</v>
@@ -29468,10 +29521,10 @@
         <v>1753</v>
       </c>
       <c r="B734" s="3" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
       <c r="D734" s="4" t="s">
-        <v>2517</v>
+        <v>2516</v>
       </c>
       <c r="E734" s="3" t="s">
         <v>2009</v>
@@ -29482,10 +29535,10 @@
         <v>1753</v>
       </c>
       <c r="B735" s="3" t="s">
-        <v>2404</v>
+        <v>2403</v>
       </c>
       <c r="D735" s="4" t="s">
-        <v>2518</v>
+        <v>2517</v>
       </c>
       <c r="E735" s="3" t="s">
         <v>2009</v>
@@ -29496,10 +29549,10 @@
         <v>1753</v>
       </c>
       <c r="B736" s="3" t="s">
-        <v>2405</v>
+        <v>2404</v>
       </c>
       <c r="D736" s="4" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="E736" s="3" t="s">
         <v>2009</v>
@@ -29510,10 +29563,10 @@
         <v>1753</v>
       </c>
       <c r="B737" s="3" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
       <c r="D737" s="4" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="E737" s="3" t="s">
         <v>2009</v>
@@ -29524,10 +29577,10 @@
         <v>1753</v>
       </c>
       <c r="B738" s="3" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
       <c r="D738" s="4" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
       <c r="E738" s="3" t="s">
         <v>2009</v>
@@ -29538,10 +29591,10 @@
         <v>1753</v>
       </c>
       <c r="B739" s="3" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
       <c r="D739" s="4" t="s">
-        <v>2522</v>
+        <v>2521</v>
       </c>
       <c r="E739" s="3" t="s">
         <v>2009</v>
@@ -29552,10 +29605,10 @@
         <v>1753</v>
       </c>
       <c r="B740" s="3" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
       <c r="D740" s="4" t="s">
-        <v>2523</v>
+        <v>2522</v>
       </c>
       <c r="E740" s="3" t="s">
         <v>2009</v>
@@ -29566,10 +29619,10 @@
         <v>1753</v>
       </c>
       <c r="B741" s="3" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
       <c r="D741" s="4" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="E741" s="3" t="s">
         <v>2009</v>
@@ -29580,10 +29633,10 @@
         <v>1753</v>
       </c>
       <c r="B742" s="3" t="s">
-        <v>2411</v>
+        <v>2410</v>
       </c>
       <c r="D742" s="4" t="s">
-        <v>2525</v>
+        <v>2524</v>
       </c>
       <c r="E742" s="3" t="s">
         <v>2009</v>
@@ -29594,10 +29647,10 @@
         <v>1753</v>
       </c>
       <c r="B743" s="3" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
       <c r="D743" s="4" t="s">
-        <v>2526</v>
+        <v>2525</v>
       </c>
       <c r="E743" s="3" t="s">
         <v>2009</v>
@@ -29608,10 +29661,10 @@
         <v>1753</v>
       </c>
       <c r="B744" s="3" t="s">
-        <v>2413</v>
+        <v>2412</v>
       </c>
       <c r="D744" s="4" t="s">
-        <v>2527</v>
+        <v>2526</v>
       </c>
       <c r="E744" s="3" t="s">
         <v>2009</v>
@@ -29622,10 +29675,10 @@
         <v>1753</v>
       </c>
       <c r="B745" s="3" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
       <c r="D745" s="4" t="s">
-        <v>2528</v>
+        <v>2527</v>
       </c>
       <c r="E745" s="3" t="s">
         <v>2009</v>
@@ -29636,10 +29689,10 @@
         <v>1753</v>
       </c>
       <c r="B746" s="3" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
       <c r="D746" s="4" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="E746" s="3" t="s">
         <v>2009</v>
@@ -29650,10 +29703,10 @@
         <v>1753</v>
       </c>
       <c r="B747" s="3" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
       <c r="D747" s="4" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="E747" s="3" t="s">
         <v>2009</v>
@@ -29664,10 +29717,10 @@
         <v>1753</v>
       </c>
       <c r="B748" s="3" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
       <c r="D748" s="4" t="s">
-        <v>2531</v>
+        <v>2530</v>
       </c>
       <c r="E748" s="3" t="s">
         <v>2009</v>
@@ -29678,10 +29731,10 @@
         <v>1753</v>
       </c>
       <c r="B749" s="3" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
       <c r="D749" s="4" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
       <c r="E749" s="3" t="s">
         <v>2009</v>
@@ -29692,10 +29745,10 @@
         <v>1753</v>
       </c>
       <c r="B750" s="3" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
       <c r="D750" s="4" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="E750" s="3" t="s">
         <v>2009</v>
@@ -29706,10 +29759,10 @@
         <v>1753</v>
       </c>
       <c r="B751" s="3" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
       <c r="D751" s="4" t="s">
-        <v>2534</v>
+        <v>2533</v>
       </c>
       <c r="E751" s="3" t="s">
         <v>2009</v>
@@ -29720,10 +29773,10 @@
         <v>1753</v>
       </c>
       <c r="B752" s="3" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
       <c r="D752" s="4" t="s">
-        <v>2535</v>
+        <v>2534</v>
       </c>
       <c r="E752" s="3" t="s">
         <v>2009</v>
@@ -29734,10 +29787,10 @@
         <v>1753</v>
       </c>
       <c r="B753" s="3" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
       <c r="D753" s="4" t="s">
-        <v>2536</v>
+        <v>2535</v>
       </c>
       <c r="E753" s="3" t="s">
         <v>2009</v>
@@ -29748,10 +29801,10 @@
         <v>1896</v>
       </c>
       <c r="B754" s="3" t="s">
-        <v>2537</v>
+        <v>2536</v>
       </c>
       <c r="D754" s="4" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="E754" s="3" t="s">
         <v>1037</v>
@@ -29762,10 +29815,10 @@
         <v>1896</v>
       </c>
       <c r="B755" s="3" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="D755" s="4" t="s">
-        <v>2569</v>
+        <v>2568</v>
       </c>
       <c r="E755" s="3" t="s">
         <v>1037</v>
@@ -29776,10 +29829,10 @@
         <v>1896</v>
       </c>
       <c r="B756" s="3" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
       <c r="D756" s="4" t="s">
-        <v>2570</v>
+        <v>2569</v>
       </c>
       <c r="E756" s="3" t="s">
         <v>1037</v>
@@ -29790,10 +29843,10 @@
         <v>1896</v>
       </c>
       <c r="B757" s="3" t="s">
-        <v>2540</v>
+        <v>2539</v>
       </c>
       <c r="D757" s="4" t="s">
-        <v>2571</v>
+        <v>2570</v>
       </c>
       <c r="E757" s="3" t="s">
         <v>1037</v>
@@ -29804,10 +29857,10 @@
         <v>1896</v>
       </c>
       <c r="B758" s="3" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
       <c r="D758" s="4" t="s">
-        <v>2572</v>
+        <v>2571</v>
       </c>
       <c r="E758" s="3" t="s">
         <v>1037</v>
@@ -29818,10 +29871,10 @@
         <v>1896</v>
       </c>
       <c r="B759" s="3" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
       <c r="D759" s="4" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
       <c r="E759" s="3" t="s">
         <v>1037</v>
@@ -29832,10 +29885,10 @@
         <v>1896</v>
       </c>
       <c r="B760" s="3" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
       <c r="D760" s="4" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="E760" s="3" t="s">
         <v>1038</v>
@@ -29846,10 +29899,10 @@
         <v>1897</v>
       </c>
       <c r="B761" s="3" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
       <c r="D761" s="4" t="s">
-        <v>2600</v>
+        <v>2599</v>
       </c>
       <c r="E761" s="3" t="s">
         <v>1037</v>
@@ -29860,10 +29913,10 @@
         <v>1897</v>
       </c>
       <c r="B762" s="3" t="s">
-        <v>2545</v>
+        <v>2544</v>
       </c>
       <c r="D762" s="4" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="E762" s="3" t="s">
         <v>1037</v>
@@ -29874,10 +29927,10 @@
         <v>1897</v>
       </c>
       <c r="B763" s="3" t="s">
-        <v>2546</v>
+        <v>2545</v>
       </c>
       <c r="D763" s="4" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
       <c r="E763" s="3" t="s">
         <v>1037</v>
@@ -29888,10 +29941,10 @@
         <v>1897</v>
       </c>
       <c r="B764" s="3" t="s">
-        <v>2547</v>
+        <v>2546</v>
       </c>
       <c r="D764" s="4" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="E764" s="3" t="s">
         <v>1037</v>
@@ -29902,10 +29955,10 @@
         <v>1897</v>
       </c>
       <c r="B765" s="3" t="s">
-        <v>2548</v>
+        <v>2547</v>
       </c>
       <c r="D765" s="4" t="s">
-        <v>2578</v>
+        <v>2577</v>
       </c>
       <c r="E765" s="3" t="s">
         <v>1037</v>
@@ -29916,10 +29969,10 @@
         <v>1897</v>
       </c>
       <c r="B766" s="3" t="s">
-        <v>2549</v>
+        <v>2548</v>
       </c>
       <c r="D766" s="4" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
       <c r="E766" s="3" t="s">
         <v>1037</v>
@@ -29930,10 +29983,10 @@
         <v>1897</v>
       </c>
       <c r="B767" s="3" t="s">
-        <v>2550</v>
+        <v>2549</v>
       </c>
       <c r="D767" s="4" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
       <c r="E767" s="3" t="s">
         <v>1037</v>
@@ -29944,10 +29997,10 @@
         <v>1897</v>
       </c>
       <c r="B768" s="3" t="s">
-        <v>2551</v>
+        <v>2550</v>
       </c>
       <c r="D768" s="4" t="s">
-        <v>2581</v>
+        <v>2580</v>
       </c>
       <c r="E768" s="3" t="s">
         <v>1037</v>
@@ -29958,10 +30011,10 @@
         <v>1897</v>
       </c>
       <c r="B769" s="3" t="s">
-        <v>2552</v>
+        <v>2551</v>
       </c>
       <c r="D769" s="4" t="s">
-        <v>2582</v>
+        <v>2581</v>
       </c>
       <c r="E769" s="3" t="s">
         <v>1037</v>
@@ -29972,10 +30025,10 @@
         <v>1897</v>
       </c>
       <c r="B770" s="3" t="s">
-        <v>2553</v>
+        <v>2552</v>
       </c>
       <c r="D770" s="4" t="s">
-        <v>2583</v>
+        <v>2582</v>
       </c>
       <c r="E770" s="3" t="s">
         <v>1037</v>
@@ -29986,10 +30039,10 @@
         <v>1897</v>
       </c>
       <c r="B771" s="3" t="s">
-        <v>2554</v>
+        <v>2553</v>
       </c>
       <c r="D771" s="4" t="s">
-        <v>2584</v>
+        <v>2583</v>
       </c>
       <c r="E771" s="3" t="s">
         <v>1037</v>
@@ -30000,10 +30053,10 @@
         <v>1897</v>
       </c>
       <c r="B772" s="3" t="s">
-        <v>2555</v>
+        <v>2554</v>
       </c>
       <c r="D772" s="4" t="s">
-        <v>2585</v>
+        <v>2584</v>
       </c>
       <c r="E772" s="3" t="s">
         <v>1037</v>
@@ -30014,10 +30067,10 @@
         <v>1897</v>
       </c>
       <c r="B773" s="3" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
       <c r="D773" s="4" t="s">
-        <v>2586</v>
+        <v>2585</v>
       </c>
       <c r="E773" s="3" t="s">
         <v>1037</v>
@@ -30028,10 +30081,10 @@
         <v>1897</v>
       </c>
       <c r="B774" s="3" t="s">
-        <v>2557</v>
+        <v>2556</v>
       </c>
       <c r="D774" s="4" t="s">
-        <v>2587</v>
+        <v>2586</v>
       </c>
       <c r="E774" s="3" t="s">
         <v>1037</v>
@@ -30042,10 +30095,10 @@
         <v>1897</v>
       </c>
       <c r="B775" s="3" t="s">
-        <v>2558</v>
+        <v>2557</v>
       </c>
       <c r="D775" s="4" t="s">
-        <v>2588</v>
+        <v>2587</v>
       </c>
       <c r="E775" s="3" t="s">
         <v>1037</v>
@@ -30056,10 +30109,10 @@
         <v>1897</v>
       </c>
       <c r="B776" s="3" t="s">
-        <v>2559</v>
+        <v>2558</v>
       </c>
       <c r="D776" s="4" t="s">
-        <v>2589</v>
+        <v>2588</v>
       </c>
       <c r="E776" s="3" t="s">
         <v>1037</v>
@@ -30070,10 +30123,10 @@
         <v>1897</v>
       </c>
       <c r="B777" s="3" t="s">
-        <v>2560</v>
+        <v>2559</v>
       </c>
       <c r="D777" s="4" t="s">
-        <v>2590</v>
+        <v>2589</v>
       </c>
       <c r="E777" s="3" t="s">
         <v>1037</v>
@@ -30084,10 +30137,10 @@
         <v>1897</v>
       </c>
       <c r="B778" s="3" t="s">
-        <v>2561</v>
+        <v>2560</v>
       </c>
       <c r="D778" s="4" t="s">
-        <v>2591</v>
+        <v>2590</v>
       </c>
       <c r="E778" s="3" t="s">
         <v>1037</v>
@@ -30098,10 +30151,10 @@
         <v>1897</v>
       </c>
       <c r="B779" s="3" t="s">
-        <v>2562</v>
+        <v>2561</v>
       </c>
       <c r="D779" s="4" t="s">
-        <v>2592</v>
+        <v>2591</v>
       </c>
       <c r="E779" s="3" t="s">
         <v>1037</v>
@@ -30112,10 +30165,10 @@
         <v>1897</v>
       </c>
       <c r="B780" s="3" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="D780" s="4" t="s">
-        <v>2593</v>
+        <v>2592</v>
       </c>
       <c r="E780" s="3" t="s">
         <v>1037</v>
@@ -30126,10 +30179,10 @@
         <v>1897</v>
       </c>
       <c r="B781" s="3" t="s">
-        <v>2564</v>
+        <v>2563</v>
       </c>
       <c r="D781" s="4" t="s">
-        <v>2594</v>
+        <v>2593</v>
       </c>
       <c r="E781" s="3" t="s">
         <v>1038</v>
@@ -30140,10 +30193,10 @@
         <v>1897</v>
       </c>
       <c r="B782" s="3" t="s">
-        <v>2565</v>
+        <v>2564</v>
       </c>
       <c r="D782" s="4" t="s">
-        <v>2595</v>
+        <v>2594</v>
       </c>
       <c r="E782" s="3" t="s">
         <v>1038</v>
@@ -30154,10 +30207,10 @@
         <v>1897</v>
       </c>
       <c r="B783" s="3" t="s">
-        <v>2566</v>
+        <v>2565</v>
       </c>
       <c r="D783" s="4" t="s">
-        <v>2596</v>
+        <v>2595</v>
       </c>
       <c r="E783" s="3" t="s">
         <v>1038</v>
@@ -30168,10 +30221,10 @@
         <v>1897</v>
       </c>
       <c r="B784" s="3" t="s">
-        <v>2567</v>
+        <v>2566</v>
       </c>
       <c r="D784" s="4" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
       <c r="E784" s="3" t="s">
         <v>1038</v>
@@ -30182,10 +30235,10 @@
         <v>1897</v>
       </c>
       <c r="B785" s="3" t="s">
-        <v>2568</v>
+        <v>2567</v>
       </c>
       <c r="D785" s="4" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
       <c r="E785" s="3" t="s">
         <v>1038</v>
@@ -30196,10 +30249,10 @@
         <v>1899</v>
       </c>
       <c r="B786" s="3" t="s">
-        <v>2601</v>
+        <v>2600</v>
       </c>
       <c r="D786" s="4" t="s">
-        <v>2612</v>
+        <v>2611</v>
       </c>
       <c r="E786" s="3" t="s">
         <v>1037</v>
@@ -30210,10 +30263,10 @@
         <v>1899</v>
       </c>
       <c r="B787" s="3" t="s">
-        <v>2602</v>
+        <v>2601</v>
       </c>
       <c r="D787" s="4" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
       <c r="E787" s="3" t="s">
         <v>1037</v>
@@ -30224,10 +30277,10 @@
         <v>1899</v>
       </c>
       <c r="B788" s="3" t="s">
-        <v>2603</v>
+        <v>2602</v>
       </c>
       <c r="D788" s="4" t="s">
-        <v>2621</v>
+        <v>2620</v>
       </c>
       <c r="E788" s="3" t="s">
         <v>1037</v>
@@ -30238,10 +30291,10 @@
         <v>1899</v>
       </c>
       <c r="B789" s="3" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
       <c r="D789" s="4" t="s">
-        <v>2614</v>
+        <v>2613</v>
       </c>
       <c r="E789" s="3" t="s">
         <v>1037</v>
@@ -30252,10 +30305,10 @@
         <v>1899</v>
       </c>
       <c r="B790" s="3" t="s">
-        <v>2605</v>
+        <v>2604</v>
       </c>
       <c r="D790" s="4" t="s">
-        <v>2620</v>
+        <v>2619</v>
       </c>
       <c r="E790" s="3" t="s">
         <v>1037</v>
@@ -30266,10 +30319,10 @@
         <v>1899</v>
       </c>
       <c r="B791" s="3" t="s">
-        <v>2606</v>
+        <v>2605</v>
       </c>
       <c r="D791" s="4" t="s">
-        <v>2615</v>
+        <v>2614</v>
       </c>
       <c r="E791" s="3" t="s">
         <v>1037</v>
@@ -30280,10 +30333,10 @@
         <v>1900</v>
       </c>
       <c r="B792" s="3" t="s">
-        <v>2607</v>
+        <v>2606</v>
       </c>
       <c r="D792" s="4" t="s">
-        <v>2622</v>
+        <v>2621</v>
       </c>
       <c r="E792" s="3" t="s">
         <v>1037</v>
@@ -30294,10 +30347,10 @@
         <v>1900</v>
       </c>
       <c r="B793" s="3" t="s">
-        <v>2608</v>
+        <v>2607</v>
       </c>
       <c r="D793" s="4" t="s">
-        <v>2616</v>
+        <v>2615</v>
       </c>
       <c r="E793" s="3" t="s">
         <v>1037</v>
@@ -30308,10 +30361,10 @@
         <v>1900</v>
       </c>
       <c r="B794" s="3" t="s">
-        <v>2609</v>
+        <v>2608</v>
       </c>
       <c r="D794" s="4" t="s">
-        <v>2617</v>
+        <v>2616</v>
       </c>
       <c r="E794" s="3" t="s">
         <v>1037</v>
@@ -30322,10 +30375,10 @@
         <v>1900</v>
       </c>
       <c r="B795" s="3" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="D795" s="4" t="s">
-        <v>2618</v>
+        <v>2617</v>
       </c>
       <c r="E795" s="3" t="s">
         <v>1037</v>
@@ -30336,10 +30389,10 @@
         <v>1900</v>
       </c>
       <c r="B796" s="3" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="D796" s="4" t="s">
-        <v>2619</v>
+        <v>2618</v>
       </c>
       <c r="E796" s="3" t="s">
         <v>1037</v>
@@ -30350,10 +30403,10 @@
         <v>1901</v>
       </c>
       <c r="B797" s="3" t="s">
-        <v>2623</v>
+        <v>2622</v>
       </c>
       <c r="D797" s="4" t="s">
-        <v>2701</v>
+        <v>2700</v>
       </c>
       <c r="E797" s="3" t="s">
         <v>1037</v>
@@ -30364,10 +30417,10 @@
         <v>1901</v>
       </c>
       <c r="B798" s="3" t="s">
-        <v>2624</v>
+        <v>2623</v>
       </c>
       <c r="D798" s="4" t="s">
-        <v>2666</v>
+        <v>2665</v>
       </c>
       <c r="E798" s="3" t="s">
         <v>1037</v>
@@ -30378,10 +30431,10 @@
         <v>1901</v>
       </c>
       <c r="B799" s="3" t="s">
-        <v>2625</v>
+        <v>2624</v>
       </c>
       <c r="D799" s="4" t="s">
-        <v>2667</v>
+        <v>2666</v>
       </c>
       <c r="E799" s="3" t="s">
         <v>1037</v>
@@ -30392,10 +30445,10 @@
         <v>1901</v>
       </c>
       <c r="B800" s="3" t="s">
-        <v>2626</v>
+        <v>2625</v>
       </c>
       <c r="D800" s="4" t="s">
-        <v>2668</v>
+        <v>2667</v>
       </c>
       <c r="E800" s="3" t="s">
         <v>1037</v>
@@ -30406,10 +30459,10 @@
         <v>1902</v>
       </c>
       <c r="B801" s="3" t="s">
-        <v>2627</v>
+        <v>2626</v>
       </c>
       <c r="D801" s="4" t="s">
-        <v>2669</v>
+        <v>2668</v>
       </c>
       <c r="E801" s="3" t="s">
         <v>2009</v>
@@ -30420,10 +30473,10 @@
         <v>1902</v>
       </c>
       <c r="B802" s="3" t="s">
-        <v>2628</v>
+        <v>2627</v>
       </c>
       <c r="D802" s="4" t="s">
-        <v>2670</v>
+        <v>2669</v>
       </c>
       <c r="E802" s="3" t="s">
         <v>2009</v>
@@ -30434,10 +30487,10 @@
         <v>1902</v>
       </c>
       <c r="B803" s="3" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
       <c r="D803" s="4" t="s">
-        <v>2702</v>
+        <v>2701</v>
       </c>
       <c r="E803" s="3" t="s">
         <v>1037</v>
@@ -30448,10 +30501,10 @@
         <v>1902</v>
       </c>
       <c r="B804" s="3" t="s">
-        <v>2630</v>
+        <v>2629</v>
       </c>
       <c r="D804" s="4" t="s">
-        <v>2671</v>
+        <v>2670</v>
       </c>
       <c r="E804" s="3" t="s">
         <v>1037</v>
@@ -30462,10 +30515,10 @@
         <v>1902</v>
       </c>
       <c r="B805" s="3" t="s">
-        <v>2631</v>
+        <v>2630</v>
       </c>
       <c r="D805" s="4" t="s">
-        <v>2672</v>
+        <v>2671</v>
       </c>
       <c r="E805" s="3" t="s">
         <v>1037</v>
@@ -30476,10 +30529,10 @@
         <v>1902</v>
       </c>
       <c r="B806" s="3" t="s">
-        <v>2632</v>
+        <v>2631</v>
       </c>
       <c r="D806" s="4" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
       <c r="E806" s="3" t="s">
         <v>1037</v>
@@ -30490,10 +30543,10 @@
         <v>1902</v>
       </c>
       <c r="B807" s="3" t="s">
-        <v>2633</v>
+        <v>2632</v>
       </c>
       <c r="D807" s="4" t="s">
-        <v>2674</v>
+        <v>2673</v>
       </c>
       <c r="E807" s="3" t="s">
         <v>1037</v>
@@ -30504,10 +30557,10 @@
         <v>1902</v>
       </c>
       <c r="B808" s="3" t="s">
-        <v>2634</v>
+        <v>2633</v>
       </c>
       <c r="D808" s="4" t="s">
-        <v>2675</v>
+        <v>2674</v>
       </c>
       <c r="E808" s="3" t="s">
         <v>1037</v>
@@ -30518,10 +30571,10 @@
         <v>1902</v>
       </c>
       <c r="B809" s="3" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
       <c r="D809" s="4" t="s">
-        <v>2703</v>
+        <v>2702</v>
       </c>
       <c r="E809" s="3" t="s">
         <v>1037</v>
@@ -30532,10 +30585,10 @@
         <v>1902</v>
       </c>
       <c r="B810" s="3" t="s">
-        <v>2636</v>
+        <v>2635</v>
       </c>
       <c r="D810" s="4" t="s">
-        <v>2676</v>
+        <v>2675</v>
       </c>
       <c r="E810" s="3" t="s">
         <v>1037</v>
@@ -30546,10 +30599,10 @@
         <v>1902</v>
       </c>
       <c r="B811" s="3" t="s">
-        <v>2637</v>
+        <v>2636</v>
       </c>
       <c r="D811" s="4" t="s">
-        <v>2677</v>
+        <v>2676</v>
       </c>
       <c r="E811" s="3" t="s">
         <v>1037</v>
@@ -30560,10 +30613,10 @@
         <v>1902</v>
       </c>
       <c r="B812" s="3" t="s">
-        <v>2638</v>
+        <v>2637</v>
       </c>
       <c r="D812" s="4" t="s">
-        <v>2678</v>
+        <v>2677</v>
       </c>
       <c r="E812" s="3" t="s">
         <v>1037</v>
@@ -30574,10 +30627,10 @@
         <v>1902</v>
       </c>
       <c r="B813" s="3" t="s">
-        <v>2639</v>
+        <v>2638</v>
       </c>
       <c r="D813" s="4" t="s">
-        <v>2679</v>
+        <v>2678</v>
       </c>
       <c r="E813" s="3" t="s">
         <v>1037</v>
@@ -30588,10 +30641,10 @@
         <v>1902</v>
       </c>
       <c r="B814" s="3" t="s">
-        <v>2640</v>
+        <v>2639</v>
       </c>
       <c r="D814" s="4" t="s">
-        <v>2680</v>
+        <v>2679</v>
       </c>
       <c r="E814" s="3" t="s">
         <v>1037</v>
@@ -30602,10 +30655,10 @@
         <v>1902</v>
       </c>
       <c r="B815" s="3" t="s">
-        <v>2641</v>
+        <v>2640</v>
       </c>
       <c r="D815" s="4" t="s">
-        <v>2704</v>
+        <v>2703</v>
       </c>
       <c r="E815" s="3" t="s">
         <v>1037</v>
@@ -30616,10 +30669,10 @@
         <v>1902</v>
       </c>
       <c r="B816" s="3" t="s">
-        <v>2642</v>
+        <v>2641</v>
       </c>
       <c r="D816" s="4" t="s">
-        <v>2681</v>
+        <v>2680</v>
       </c>
       <c r="E816" s="3" t="s">
         <v>1037</v>
@@ -30630,10 +30683,10 @@
         <v>1902</v>
       </c>
       <c r="B817" s="3" t="s">
-        <v>2643</v>
+        <v>2642</v>
       </c>
       <c r="D817" s="4" t="s">
-        <v>2682</v>
+        <v>2681</v>
       </c>
       <c r="E817" s="3" t="s">
         <v>1037</v>
@@ -30644,10 +30697,10 @@
         <v>1902</v>
       </c>
       <c r="B818" s="3" t="s">
-        <v>2644</v>
+        <v>2643</v>
       </c>
       <c r="D818" s="4" t="s">
-        <v>2683</v>
+        <v>2682</v>
       </c>
       <c r="E818" s="3" t="s">
         <v>1037</v>
@@ -30658,10 +30711,10 @@
         <v>1902</v>
       </c>
       <c r="B819" s="3" t="s">
-        <v>2645</v>
+        <v>2644</v>
       </c>
       <c r="D819" s="4" t="s">
-        <v>2684</v>
+        <v>2683</v>
       </c>
       <c r="E819" s="3" t="s">
         <v>1038</v>
@@ -30672,10 +30725,10 @@
         <v>1902</v>
       </c>
       <c r="B820" s="3" t="s">
-        <v>2646</v>
+        <v>2645</v>
       </c>
       <c r="D820" s="4" t="s">
-        <v>2685</v>
+        <v>2684</v>
       </c>
       <c r="E820" s="3" t="s">
         <v>1038</v>
@@ -30686,7 +30739,7 @@
         <v>1902</v>
       </c>
       <c r="B821" s="3" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
       <c r="D821" s="4" t="s">
         <v>2122</v>
@@ -30700,10 +30753,10 @@
         <v>1902</v>
       </c>
       <c r="B822" s="3" t="s">
-        <v>2648</v>
+        <v>2647</v>
       </c>
       <c r="D822" s="4" t="s">
-        <v>2686</v>
+        <v>2685</v>
       </c>
       <c r="E822" s="3" t="s">
         <v>1038</v>
@@ -30714,10 +30767,10 @@
         <v>1902</v>
       </c>
       <c r="B823" s="3" t="s">
-        <v>2649</v>
+        <v>2648</v>
       </c>
       <c r="D823" s="4" t="s">
-        <v>2687</v>
+        <v>2686</v>
       </c>
       <c r="E823" s="3" t="s">
         <v>1038</v>
@@ -30728,10 +30781,10 @@
         <v>1902</v>
       </c>
       <c r="B824" s="3" t="s">
-        <v>2650</v>
+        <v>2649</v>
       </c>
       <c r="D824" s="4" t="s">
-        <v>2688</v>
+        <v>2687</v>
       </c>
       <c r="E824" s="3" t="s">
         <v>1038</v>
@@ -30742,10 +30795,10 @@
         <v>1903</v>
       </c>
       <c r="B825" s="3" t="s">
-        <v>2651</v>
+        <v>2650</v>
       </c>
       <c r="D825" s="4" t="s">
-        <v>2705</v>
+        <v>2704</v>
       </c>
       <c r="E825" s="3" t="s">
         <v>1037</v>
@@ -30756,10 +30809,10 @@
         <v>1903</v>
       </c>
       <c r="B826" s="3" t="s">
-        <v>2652</v>
+        <v>2651</v>
       </c>
       <c r="D826" s="4" t="s">
-        <v>2689</v>
+        <v>2688</v>
       </c>
       <c r="E826" s="3" t="s">
         <v>1037</v>
@@ -30770,10 +30823,10 @@
         <v>1903</v>
       </c>
       <c r="B827" s="3" t="s">
-        <v>2653</v>
+        <v>2652</v>
       </c>
       <c r="D827" s="4" t="s">
-        <v>2690</v>
+        <v>2689</v>
       </c>
       <c r="E827" s="3" t="s">
         <v>1037</v>
@@ -30784,10 +30837,10 @@
         <v>1903</v>
       </c>
       <c r="B828" s="3" t="s">
-        <v>2654</v>
+        <v>2653</v>
       </c>
       <c r="D828" s="4" t="s">
-        <v>2691</v>
+        <v>2690</v>
       </c>
       <c r="E828" s="3" t="s">
         <v>1037</v>
@@ -30798,10 +30851,10 @@
         <v>1903</v>
       </c>
       <c r="B829" s="3" t="s">
-        <v>2655</v>
+        <v>2654</v>
       </c>
       <c r="D829" s="4" t="s">
-        <v>2692</v>
+        <v>2691</v>
       </c>
       <c r="E829" s="3" t="s">
         <v>1037</v>
@@ -30812,10 +30865,10 @@
         <v>1903</v>
       </c>
       <c r="B830" s="3" t="s">
-        <v>2656</v>
+        <v>2655</v>
       </c>
       <c r="D830" s="4" t="s">
-        <v>2693</v>
+        <v>2692</v>
       </c>
       <c r="E830" s="3" t="s">
         <v>1037</v>
@@ -30826,10 +30879,10 @@
         <v>1903</v>
       </c>
       <c r="B831" s="3" t="s">
-        <v>2657</v>
+        <v>2656</v>
       </c>
       <c r="D831" s="4" t="s">
-        <v>2694</v>
+        <v>2693</v>
       </c>
       <c r="E831" s="3" t="s">
         <v>1037</v>
@@ -30840,10 +30893,10 @@
         <v>1903</v>
       </c>
       <c r="B832" s="3" t="s">
-        <v>2658</v>
+        <v>2657</v>
       </c>
       <c r="D832" s="4" t="s">
-        <v>2695</v>
+        <v>2694</v>
       </c>
       <c r="E832" s="3" t="s">
         <v>1037</v>
@@ -30854,10 +30907,10 @@
         <v>1903</v>
       </c>
       <c r="B833" s="3" t="s">
-        <v>2659</v>
+        <v>2658</v>
       </c>
       <c r="D833" s="4" t="s">
-        <v>2696</v>
+        <v>2695</v>
       </c>
       <c r="E833" s="3" t="s">
         <v>2009</v>
@@ -30868,10 +30921,10 @@
         <v>1903</v>
       </c>
       <c r="B834" s="3" t="s">
-        <v>2660</v>
+        <v>2659</v>
       </c>
       <c r="D834" s="4" t="s">
-        <v>2706</v>
+        <v>2705</v>
       </c>
       <c r="E834" s="3" t="s">
         <v>1037</v>
@@ -30882,10 +30935,10 @@
         <v>1903</v>
       </c>
       <c r="B835" s="3" t="s">
-        <v>2661</v>
+        <v>2660</v>
       </c>
       <c r="D835" s="4" t="s">
-        <v>2697</v>
+        <v>2696</v>
       </c>
       <c r="E835" s="3" t="s">
         <v>1037</v>
@@ -30896,10 +30949,10 @@
         <v>1903</v>
       </c>
       <c r="B836" s="3" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
       <c r="D836" s="4" t="s">
-        <v>2698</v>
+        <v>2697</v>
       </c>
       <c r="E836" s="3" t="s">
         <v>1037</v>
@@ -30910,10 +30963,10 @@
         <v>1903</v>
       </c>
       <c r="B837" s="3" t="s">
-        <v>2663</v>
+        <v>2662</v>
       </c>
       <c r="D837" s="4" t="s">
-        <v>2699</v>
+        <v>2698</v>
       </c>
       <c r="E837" s="3" t="s">
         <v>1037</v>
@@ -30924,10 +30977,10 @@
         <v>1903</v>
       </c>
       <c r="B838" s="3" t="s">
-        <v>2664</v>
+        <v>2663</v>
       </c>
       <c r="D838" s="4" t="s">
-        <v>2700</v>
+        <v>2699</v>
       </c>
       <c r="E838" s="3" t="s">
         <v>1037</v>
@@ -30938,10 +30991,10 @@
         <v>1903</v>
       </c>
       <c r="B839" s="3" t="s">
-        <v>2665</v>
+        <v>2664</v>
       </c>
       <c r="D839" s="4" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="E839" s="3" t="s">
         <v>1038</v>
@@ -30952,10 +31005,10 @@
         <v>1778</v>
       </c>
       <c r="B840" s="3" t="s">
-        <v>2707</v>
+        <v>2706</v>
       </c>
       <c r="D840" s="4" t="s">
-        <v>2839</v>
+        <v>2838</v>
       </c>
       <c r="E840" s="3" t="s">
         <v>1037</v>
@@ -30966,10 +31019,10 @@
         <v>1778</v>
       </c>
       <c r="B841" s="3" t="s">
-        <v>2708</v>
+        <v>2707</v>
       </c>
       <c r="D841" s="4" t="s">
-        <v>2777</v>
+        <v>2776</v>
       </c>
       <c r="E841" s="3" t="s">
         <v>1037</v>
@@ -30980,10 +31033,10 @@
         <v>1778</v>
       </c>
       <c r="B842" s="3" t="s">
-        <v>2709</v>
+        <v>2708</v>
       </c>
       <c r="D842" s="4" t="s">
-        <v>2778</v>
+        <v>2777</v>
       </c>
       <c r="E842" s="3" t="s">
         <v>1037</v>
@@ -30994,10 +31047,10 @@
         <v>1778</v>
       </c>
       <c r="B843" s="3" t="s">
-        <v>2710</v>
+        <v>2709</v>
       </c>
       <c r="D843" s="4" t="s">
-        <v>2779</v>
+        <v>2778</v>
       </c>
       <c r="E843" s="3" t="s">
         <v>1037</v>
@@ -31008,10 +31061,10 @@
         <v>1778</v>
       </c>
       <c r="B844" s="3" t="s">
-        <v>2711</v>
+        <v>2710</v>
       </c>
       <c r="D844" s="4" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
       <c r="E844" s="3" t="s">
         <v>1037</v>
@@ -31022,10 +31075,10 @@
         <v>1778</v>
       </c>
       <c r="B845" s="3" t="s">
-        <v>2712</v>
+        <v>2711</v>
       </c>
       <c r="D845" s="4" t="s">
-        <v>2781</v>
+        <v>2780</v>
       </c>
       <c r="E845" s="3" t="s">
         <v>1037</v>
@@ -31036,10 +31089,10 @@
         <v>1778</v>
       </c>
       <c r="B846" s="3" t="s">
-        <v>2713</v>
+        <v>2712</v>
       </c>
       <c r="D846" s="4" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
       <c r="E846" s="3" t="s">
         <v>1037</v>
@@ -31050,10 +31103,10 @@
         <v>1778</v>
       </c>
       <c r="B847" s="3" t="s">
-        <v>2714</v>
+        <v>2713</v>
       </c>
       <c r="D847" s="4" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
       <c r="E847" s="3" t="s">
         <v>1037</v>
@@ -31064,10 +31117,10 @@
         <v>1778</v>
       </c>
       <c r="B848" s="3" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
       <c r="D848" s="4" t="s">
-        <v>2840</v>
+        <v>2839</v>
       </c>
       <c r="E848" s="3" t="s">
         <v>1037</v>
@@ -31078,10 +31131,10 @@
         <v>1778</v>
       </c>
       <c r="B849" s="3" t="s">
-        <v>2716</v>
+        <v>2715</v>
       </c>
       <c r="D849" s="4" t="s">
-        <v>2784</v>
+        <v>2783</v>
       </c>
       <c r="E849" s="3" t="s">
         <v>1037</v>
@@ -31092,10 +31145,10 @@
         <v>1778</v>
       </c>
       <c r="B850" s="3" t="s">
-        <v>2717</v>
+        <v>2716</v>
       </c>
       <c r="D850" s="4" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
       <c r="E850" s="3" t="s">
         <v>1037</v>
@@ -31106,10 +31159,10 @@
         <v>1778</v>
       </c>
       <c r="B851" s="3" t="s">
-        <v>2718</v>
+        <v>2717</v>
       </c>
       <c r="D851" s="4" t="s">
-        <v>2786</v>
+        <v>2785</v>
       </c>
       <c r="E851" s="3" t="s">
         <v>1037</v>
@@ -31120,10 +31173,10 @@
         <v>1778</v>
       </c>
       <c r="B852" s="3" t="s">
-        <v>2719</v>
+        <v>2718</v>
       </c>
       <c r="D852" s="4" t="s">
-        <v>2787</v>
+        <v>2786</v>
       </c>
       <c r="E852" s="3" t="s">
         <v>1037</v>
@@ -31134,10 +31187,10 @@
         <v>1778</v>
       </c>
       <c r="B853" s="3" t="s">
-        <v>2720</v>
+        <v>2719</v>
       </c>
       <c r="D853" s="4" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="E853" s="3" t="s">
         <v>1037</v>
@@ -31148,10 +31201,10 @@
         <v>1778</v>
       </c>
       <c r="B854" s="3" t="s">
-        <v>2721</v>
+        <v>2720</v>
       </c>
       <c r="D854" s="4" t="s">
-        <v>2789</v>
+        <v>2788</v>
       </c>
       <c r="E854" s="3" t="s">
         <v>1037</v>
@@ -31162,10 +31215,10 @@
         <v>1778</v>
       </c>
       <c r="B855" s="3" t="s">
-        <v>2722</v>
+        <v>2721</v>
       </c>
       <c r="D855" s="4" t="s">
-        <v>2790</v>
+        <v>2789</v>
       </c>
       <c r="E855" s="3" t="s">
         <v>1037</v>
@@ -31176,10 +31229,10 @@
         <v>1778</v>
       </c>
       <c r="B856" s="3" t="s">
-        <v>2723</v>
+        <v>2722</v>
       </c>
       <c r="D856" s="4" t="s">
-        <v>2791</v>
+        <v>2790</v>
       </c>
       <c r="E856" s="3" t="s">
         <v>2009</v>
@@ -31190,10 +31243,10 @@
         <v>1778</v>
       </c>
       <c r="B857" s="3" t="s">
-        <v>2724</v>
+        <v>2723</v>
       </c>
       <c r="D857" s="4" t="s">
-        <v>2792</v>
+        <v>2791</v>
       </c>
       <c r="E857" s="3" t="s">
         <v>2009</v>
@@ -31204,10 +31257,10 @@
         <v>1778</v>
       </c>
       <c r="B858" s="3" t="s">
-        <v>2725</v>
+        <v>2724</v>
       </c>
       <c r="D858" s="4" t="s">
-        <v>2793</v>
+        <v>2792</v>
       </c>
       <c r="E858" s="3" t="s">
         <v>1037</v>
@@ -31218,10 +31271,10 @@
         <v>1778</v>
       </c>
       <c r="B859" s="3" t="s">
-        <v>2726</v>
+        <v>2725</v>
       </c>
       <c r="D859" s="4" t="s">
-        <v>2794</v>
+        <v>2793</v>
       </c>
       <c r="E859" s="3" t="s">
         <v>1037</v>
@@ -31232,10 +31285,10 @@
         <v>1778</v>
       </c>
       <c r="B860" s="3" t="s">
-        <v>2727</v>
+        <v>2726</v>
       </c>
       <c r="D860" s="4" t="s">
-        <v>2795</v>
+        <v>2794</v>
       </c>
       <c r="E860" s="3" t="s">
         <v>1038</v>
@@ -31246,10 +31299,10 @@
         <v>1904</v>
       </c>
       <c r="B861" s="3" t="s">
-        <v>2728</v>
+        <v>2727</v>
       </c>
       <c r="D861" s="4" t="s">
-        <v>2841</v>
+        <v>2840</v>
       </c>
       <c r="E861" s="3" t="s">
         <v>1037</v>
@@ -31260,10 +31313,10 @@
         <v>1904</v>
       </c>
       <c r="B862" s="3" t="s">
-        <v>2729</v>
+        <v>2728</v>
       </c>
       <c r="D862" s="4" t="s">
-        <v>2796</v>
+        <v>2795</v>
       </c>
       <c r="E862" s="3" t="s">
         <v>1037</v>
@@ -31274,10 +31327,10 @@
         <v>1904</v>
       </c>
       <c r="B863" s="3" t="s">
-        <v>2730</v>
+        <v>2729</v>
       </c>
       <c r="D863" s="4" t="s">
-        <v>2797</v>
+        <v>2796</v>
       </c>
       <c r="E863" s="3" t="s">
         <v>1037</v>
@@ -31288,10 +31341,10 @@
         <v>1904</v>
       </c>
       <c r="B864" s="3" t="s">
-        <v>2731</v>
+        <v>2730</v>
       </c>
       <c r="D864" s="4" t="s">
-        <v>2798</v>
+        <v>2797</v>
       </c>
       <c r="E864" s="3" t="s">
         <v>1037</v>
@@ -31302,10 +31355,10 @@
         <v>1904</v>
       </c>
       <c r="B865" s="3" t="s">
-        <v>2732</v>
+        <v>2731</v>
       </c>
       <c r="D865" s="4" t="s">
-        <v>2842</v>
+        <v>2841</v>
       </c>
       <c r="E865" s="3" t="s">
         <v>1037</v>
@@ -31316,10 +31369,10 @@
         <v>1904</v>
       </c>
       <c r="B866" s="3" t="s">
-        <v>2733</v>
+        <v>2732</v>
       </c>
       <c r="D866" s="4" t="s">
-        <v>2799</v>
+        <v>2798</v>
       </c>
       <c r="E866" s="3" t="s">
         <v>1037</v>
@@ -31330,10 +31383,10 @@
         <v>1904</v>
       </c>
       <c r="B867" s="3" t="s">
-        <v>2734</v>
+        <v>2733</v>
       </c>
       <c r="D867" s="4" t="s">
-        <v>2800</v>
+        <v>2799</v>
       </c>
       <c r="E867" s="3" t="s">
         <v>1037</v>
@@ -31344,10 +31397,10 @@
         <v>1904</v>
       </c>
       <c r="B868" s="3" t="s">
-        <v>2735</v>
+        <v>2734</v>
       </c>
       <c r="D868" s="4" t="s">
-        <v>2801</v>
+        <v>2800</v>
       </c>
       <c r="E868" s="3" t="s">
         <v>1037</v>
@@ -31358,10 +31411,10 @@
         <v>1904</v>
       </c>
       <c r="B869" s="3" t="s">
-        <v>2736</v>
+        <v>2735</v>
       </c>
       <c r="D869" s="4" t="s">
-        <v>2843</v>
+        <v>2842</v>
       </c>
       <c r="E869" s="3" t="s">
         <v>1037</v>
@@ -31372,10 +31425,10 @@
         <v>1904</v>
       </c>
       <c r="B870" s="3" t="s">
-        <v>2737</v>
+        <v>2736</v>
       </c>
       <c r="D870" s="4" t="s">
-        <v>2802</v>
+        <v>2801</v>
       </c>
       <c r="E870" s="3" t="s">
         <v>1037</v>
@@ -31386,10 +31439,10 @@
         <v>1904</v>
       </c>
       <c r="B871" s="3" t="s">
-        <v>2738</v>
+        <v>2737</v>
       </c>
       <c r="D871" s="4" t="s">
-        <v>2803</v>
+        <v>2802</v>
       </c>
       <c r="E871" s="3" t="s">
         <v>1037</v>
@@ -31400,10 +31453,10 @@
         <v>1904</v>
       </c>
       <c r="B872" s="3" t="s">
-        <v>2739</v>
+        <v>2738</v>
       </c>
       <c r="D872" s="4" t="s">
-        <v>2804</v>
+        <v>2803</v>
       </c>
       <c r="E872" s="3" t="s">
         <v>1037</v>
@@ -31414,10 +31467,10 @@
         <v>1904</v>
       </c>
       <c r="B873" s="3" t="s">
-        <v>2740</v>
+        <v>2739</v>
       </c>
       <c r="D873" s="4" t="s">
-        <v>2805</v>
+        <v>2804</v>
       </c>
       <c r="E873" s="3" t="s">
         <v>1038</v>
@@ -31428,10 +31481,10 @@
         <v>1904</v>
       </c>
       <c r="B874" s="3" t="s">
-        <v>2741</v>
+        <v>2740</v>
       </c>
       <c r="D874" s="4" t="s">
-        <v>2806</v>
+        <v>2805</v>
       </c>
       <c r="E874" s="3" t="s">
         <v>1038</v>
@@ -31442,10 +31495,10 @@
         <v>1904</v>
       </c>
       <c r="B875" s="3" t="s">
-        <v>2742</v>
+        <v>2741</v>
       </c>
       <c r="D875" s="4" t="s">
-        <v>2807</v>
+        <v>2806</v>
       </c>
       <c r="E875" s="3" t="s">
         <v>1038</v>
@@ -31456,10 +31509,10 @@
         <v>1904</v>
       </c>
       <c r="B876" s="3" t="s">
-        <v>2743</v>
+        <v>2742</v>
       </c>
       <c r="D876" s="4" t="s">
-        <v>2844</v>
+        <v>2843</v>
       </c>
       <c r="E876" s="3" t="s">
         <v>1037</v>
@@ -31470,10 +31523,10 @@
         <v>1904</v>
       </c>
       <c r="B877" s="3" t="s">
-        <v>2744</v>
+        <v>2743</v>
       </c>
       <c r="D877" s="4" t="s">
-        <v>2808</v>
+        <v>2807</v>
       </c>
       <c r="E877" s="3" t="s">
         <v>1037</v>
@@ -31484,10 +31537,10 @@
         <v>1904</v>
       </c>
       <c r="B878" s="3" t="s">
-        <v>2745</v>
+        <v>2744</v>
       </c>
       <c r="D878" s="4" t="s">
-        <v>2809</v>
+        <v>2808</v>
       </c>
       <c r="E878" s="3" t="s">
         <v>1037</v>
@@ -31498,10 +31551,10 @@
         <v>1904</v>
       </c>
       <c r="B879" s="3" t="s">
-        <v>2746</v>
+        <v>2745</v>
       </c>
       <c r="D879" s="4" t="s">
-        <v>2810</v>
+        <v>2809</v>
       </c>
       <c r="E879" s="3" t="s">
         <v>1038</v>
@@ -31512,10 +31565,10 @@
         <v>1785</v>
       </c>
       <c r="B880" s="3" t="s">
-        <v>2747</v>
+        <v>2746</v>
       </c>
       <c r="D880" s="4" t="s">
-        <v>2845</v>
+        <v>2844</v>
       </c>
     </row>
     <row r="881" spans="1:5" x14ac:dyDescent="0.25">
@@ -31523,10 +31576,10 @@
         <v>1785</v>
       </c>
       <c r="B881" s="3" t="s">
-        <v>2748</v>
+        <v>2747</v>
       </c>
       <c r="D881" s="4" t="s">
-        <v>2811</v>
+        <v>2810</v>
       </c>
       <c r="E881" s="3" t="s">
         <v>1037</v>
@@ -31537,10 +31590,10 @@
         <v>1785</v>
       </c>
       <c r="B882" s="3" t="s">
-        <v>2749</v>
+        <v>2748</v>
       </c>
       <c r="D882" s="4" t="s">
-        <v>2812</v>
+        <v>2811</v>
       </c>
       <c r="E882" s="3" t="s">
         <v>1037</v>
@@ -31551,10 +31604,10 @@
         <v>1785</v>
       </c>
       <c r="B883" s="3" t="s">
-        <v>2750</v>
+        <v>2749</v>
       </c>
       <c r="D883" s="4" t="s">
-        <v>2813</v>
+        <v>2812</v>
       </c>
       <c r="E883" s="3" t="s">
         <v>1037</v>
@@ -31565,10 +31618,10 @@
         <v>1785</v>
       </c>
       <c r="B884" s="3" t="s">
-        <v>2751</v>
+        <v>2750</v>
       </c>
       <c r="D884" s="4" t="s">
-        <v>2814</v>
+        <v>2813</v>
       </c>
       <c r="E884" s="3" t="s">
         <v>1037</v>
@@ -31579,10 +31632,10 @@
         <v>1785</v>
       </c>
       <c r="B885" s="3" t="s">
-        <v>2752</v>
+        <v>2751</v>
       </c>
       <c r="D885" s="4" t="s">
-        <v>2815</v>
+        <v>2814</v>
       </c>
       <c r="E885" s="3" t="s">
         <v>1037</v>
@@ -31593,10 +31646,10 @@
         <v>1785</v>
       </c>
       <c r="B886" s="3" t="s">
-        <v>2753</v>
+        <v>2752</v>
       </c>
       <c r="D886" s="4" t="s">
-        <v>2816</v>
+        <v>2815</v>
       </c>
       <c r="E886" s="3" t="s">
         <v>1037</v>
@@ -31607,10 +31660,10 @@
         <v>1785</v>
       </c>
       <c r="B887" s="3" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
       <c r="D887" s="4" t="s">
-        <v>2817</v>
+        <v>2816</v>
       </c>
       <c r="E887" s="3" t="s">
         <v>1037</v>
@@ -31621,10 +31674,10 @@
         <v>1785</v>
       </c>
       <c r="B888" s="3" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
       <c r="D888" s="4" t="s">
-        <v>2818</v>
+        <v>2817</v>
       </c>
       <c r="E888" s="3" t="s">
         <v>1037</v>
@@ -31635,10 +31688,10 @@
         <v>1785</v>
       </c>
       <c r="B889" s="3" t="s">
-        <v>2756</v>
+        <v>2755</v>
       </c>
       <c r="D889" s="4" t="s">
-        <v>2819</v>
+        <v>2818</v>
       </c>
       <c r="E889" s="3" t="s">
         <v>1037</v>
@@ -31649,10 +31702,10 @@
         <v>1785</v>
       </c>
       <c r="B890" s="3" t="s">
-        <v>2757</v>
+        <v>2756</v>
       </c>
       <c r="D890" s="4" t="s">
-        <v>2820</v>
+        <v>2819</v>
       </c>
       <c r="E890" s="3" t="s">
         <v>1037</v>
@@ -31663,10 +31716,10 @@
         <v>1785</v>
       </c>
       <c r="B891" s="3" t="s">
-        <v>2758</v>
+        <v>2757</v>
       </c>
       <c r="D891" s="4" t="s">
-        <v>2821</v>
+        <v>2820</v>
       </c>
       <c r="E891" s="3" t="s">
         <v>1037</v>
@@ -31677,10 +31730,10 @@
         <v>1785</v>
       </c>
       <c r="B892" s="3" t="s">
-        <v>2759</v>
+        <v>2758</v>
       </c>
       <c r="D892" s="4" t="s">
-        <v>2822</v>
+        <v>2821</v>
       </c>
       <c r="E892" s="3" t="s">
         <v>1037</v>
@@ -31691,10 +31744,10 @@
         <v>1785</v>
       </c>
       <c r="B893" s="3" t="s">
-        <v>2760</v>
+        <v>2759</v>
       </c>
       <c r="D893" s="4" t="s">
-        <v>2823</v>
+        <v>2822</v>
       </c>
       <c r="E893" s="3" t="s">
         <v>1037</v>
@@ -31705,10 +31758,10 @@
         <v>1785</v>
       </c>
       <c r="B894" s="3" t="s">
-        <v>2761</v>
+        <v>2760</v>
       </c>
       <c r="D894" s="4" t="s">
-        <v>2824</v>
+        <v>2823</v>
       </c>
       <c r="E894" s="3" t="s">
         <v>1037</v>
@@ -31719,10 +31772,10 @@
         <v>1785</v>
       </c>
       <c r="B895" s="3" t="s">
-        <v>2762</v>
+        <v>2761</v>
       </c>
       <c r="D895" s="4" t="s">
-        <v>2825</v>
+        <v>2824</v>
       </c>
       <c r="E895" s="3" t="s">
         <v>1037</v>
@@ -31733,10 +31786,10 @@
         <v>1785</v>
       </c>
       <c r="B896" s="3" t="s">
-        <v>2763</v>
+        <v>2762</v>
       </c>
       <c r="D896" s="4" t="s">
-        <v>2826</v>
+        <v>2825</v>
       </c>
       <c r="E896" s="3" t="s">
         <v>1037</v>
@@ -31747,10 +31800,10 @@
         <v>1785</v>
       </c>
       <c r="B897" s="3" t="s">
-        <v>2764</v>
+        <v>2763</v>
       </c>
       <c r="D897" s="4" t="s">
-        <v>2827</v>
+        <v>2826</v>
       </c>
       <c r="E897" s="3" t="s">
         <v>1037</v>
@@ -31761,10 +31814,10 @@
         <v>1785</v>
       </c>
       <c r="B898" s="3" t="s">
-        <v>2765</v>
+        <v>2764</v>
       </c>
       <c r="D898" s="4" t="s">
-        <v>2828</v>
+        <v>2827</v>
       </c>
       <c r="E898" s="3" t="s">
         <v>1037</v>
@@ -31775,10 +31828,10 @@
         <v>1785</v>
       </c>
       <c r="B899" s="3" t="s">
-        <v>2766</v>
+        <v>2765</v>
       </c>
       <c r="D899" s="4" t="s">
-        <v>2829</v>
+        <v>2828</v>
       </c>
       <c r="E899" s="3" t="s">
         <v>1037</v>
@@ -31789,10 +31842,10 @@
         <v>1785</v>
       </c>
       <c r="B900" s="3" t="s">
-        <v>2767</v>
+        <v>2766</v>
       </c>
       <c r="D900" s="4" t="s">
-        <v>2830</v>
+        <v>2829</v>
       </c>
       <c r="E900" s="3" t="s">
         <v>1037</v>
@@ -31803,10 +31856,10 @@
         <v>1785</v>
       </c>
       <c r="B901" s="3" t="s">
-        <v>2768</v>
+        <v>2767</v>
       </c>
       <c r="D901" s="4" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
       <c r="E901" s="3" t="s">
         <v>1037</v>
@@ -31817,10 +31870,10 @@
         <v>1785</v>
       </c>
       <c r="B902" s="3" t="s">
-        <v>2769</v>
+        <v>2768</v>
       </c>
       <c r="D902" s="4" t="s">
-        <v>2832</v>
+        <v>2831</v>
       </c>
       <c r="E902" s="3" t="s">
         <v>1037</v>
@@ -31831,10 +31884,10 @@
         <v>1785</v>
       </c>
       <c r="B903" s="3" t="s">
-        <v>2770</v>
+        <v>2769</v>
       </c>
       <c r="D903" s="4" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
       <c r="E903" s="3" t="s">
         <v>1037</v>
@@ -31845,10 +31898,10 @@
         <v>1785</v>
       </c>
       <c r="B904" s="3" t="s">
-        <v>2771</v>
+        <v>2770</v>
       </c>
       <c r="D904" s="4" t="s">
-        <v>2834</v>
+        <v>2833</v>
       </c>
       <c r="E904" s="3" t="s">
         <v>1037</v>
@@ -31859,10 +31912,10 @@
         <v>1785</v>
       </c>
       <c r="B905" s="3" t="s">
-        <v>2772</v>
+        <v>2771</v>
       </c>
       <c r="D905" s="4" t="s">
-        <v>2835</v>
+        <v>2834</v>
       </c>
       <c r="E905" s="3" t="s">
         <v>1038</v>
@@ -31873,10 +31926,10 @@
         <v>1785</v>
       </c>
       <c r="B906" s="3" t="s">
-        <v>2773</v>
+        <v>2772</v>
       </c>
       <c r="D906" s="4" t="s">
-        <v>2836</v>
+        <v>2835</v>
       </c>
       <c r="E906" s="3" t="s">
         <v>1038</v>
@@ -31887,10 +31940,10 @@
         <v>1785</v>
       </c>
       <c r="B907" s="3" t="s">
-        <v>2774</v>
+        <v>2773</v>
       </c>
       <c r="D907" s="4" t="s">
-        <v>2837</v>
+        <v>2836</v>
       </c>
       <c r="E907" s="3" t="s">
         <v>1038</v>
@@ -31901,10 +31954,10 @@
         <v>1785</v>
       </c>
       <c r="B908" s="3" t="s">
-        <v>2775</v>
+        <v>2774</v>
       </c>
       <c r="D908" s="4" t="s">
-        <v>2838</v>
+        <v>2837</v>
       </c>
       <c r="E908" s="3" t="s">
         <v>1038</v>
@@ -31915,10 +31968,10 @@
         <v>1785</v>
       </c>
       <c r="B909" s="3" t="s">
-        <v>2776</v>
+        <v>2775</v>
       </c>
       <c r="D909" s="4" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="E909" s="3" t="s">
         <v>1038</v>
@@ -32100,7 +32153,7 @@
         <v>2022</v>
       </c>
       <c r="D922" s="4" t="s">
-        <v>2846</v>
+        <v>2845</v>
       </c>
       <c r="E922" s="3" t="s">
         <v>1037</v>
@@ -32111,10 +32164,10 @@
         <v>1789</v>
       </c>
       <c r="B923" s="3" t="s">
-        <v>2847</v>
+        <v>2846</v>
       </c>
       <c r="D923" s="4" t="s">
-        <v>2972</v>
+        <v>2971</v>
       </c>
       <c r="E923" s="3" t="s">
         <v>1037</v>
@@ -32125,10 +32178,10 @@
         <v>1789</v>
       </c>
       <c r="B924" s="3" t="s">
-        <v>2848</v>
+        <v>2847</v>
       </c>
       <c r="D924" s="4" t="s">
-        <v>2969</v>
+        <v>2968</v>
       </c>
       <c r="E924" s="3" t="s">
         <v>1037</v>
@@ -32139,10 +32192,10 @@
         <v>1789</v>
       </c>
       <c r="B925" s="3" t="s">
-        <v>2849</v>
+        <v>2848</v>
       </c>
       <c r="D925" s="4" t="s">
-        <v>2973</v>
+        <v>2972</v>
       </c>
       <c r="E925" s="3" t="s">
         <v>2009</v>
@@ -32153,10 +32206,10 @@
         <v>1789</v>
       </c>
       <c r="B926" s="3" t="s">
-        <v>2850</v>
+        <v>2849</v>
       </c>
       <c r="D926" s="4" t="s">
-        <v>2970</v>
+        <v>2969</v>
       </c>
       <c r="E926" s="3" t="s">
         <v>2009</v>
@@ -32167,10 +32220,10 @@
         <v>1789</v>
       </c>
       <c r="B927" s="3" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="D927" s="4" t="s">
-        <v>2971</v>
+        <v>2970</v>
       </c>
       <c r="E927" s="3" t="s">
         <v>1038</v>
@@ -32181,10 +32234,10 @@
         <v>1869</v>
       </c>
       <c r="B928" s="3" t="s">
-        <v>2852</v>
+        <v>2851</v>
       </c>
       <c r="D928" s="4" t="s">
-        <v>2974</v>
+        <v>2973</v>
       </c>
       <c r="E928" s="3" t="s">
         <v>1037</v>
@@ -32195,10 +32248,10 @@
         <v>1869</v>
       </c>
       <c r="B929" s="14" t="s">
-        <v>2853</v>
+        <v>2852</v>
       </c>
       <c r="D929" s="15" t="s">
-        <v>2975</v>
+        <v>2974</v>
       </c>
       <c r="E929" s="3" t="s">
         <v>1037</v>
@@ -32209,10 +32262,10 @@
         <v>1869</v>
       </c>
       <c r="B930" s="3" t="s">
-        <v>2854</v>
+        <v>2853</v>
       </c>
       <c r="D930" s="4" t="s">
-        <v>2976</v>
+        <v>2975</v>
       </c>
       <c r="E930" s="3" t="s">
         <v>1037</v>
@@ -32223,10 +32276,10 @@
         <v>1869</v>
       </c>
       <c r="B931" s="3" t="s">
-        <v>2855</v>
+        <v>2854</v>
       </c>
       <c r="D931" s="4" t="s">
-        <v>2977</v>
+        <v>2976</v>
       </c>
       <c r="E931" s="3" t="s">
         <v>1038</v>
@@ -32237,10 +32290,10 @@
         <v>1798</v>
       </c>
       <c r="B932" s="3" t="s">
-        <v>2856</v>
+        <v>2855</v>
       </c>
       <c r="D932" s="4" t="s">
-        <v>2978</v>
+        <v>2977</v>
       </c>
       <c r="E932" s="3" t="s">
         <v>1037</v>
@@ -32251,10 +32304,10 @@
         <v>1798</v>
       </c>
       <c r="B933" s="3" t="s">
-        <v>2857</v>
+        <v>2856</v>
       </c>
       <c r="D933" s="4" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
       <c r="E933" s="3" t="s">
         <v>1038</v>
@@ -32265,10 +32318,10 @@
         <v>1798</v>
       </c>
       <c r="B934" s="3" t="s">
-        <v>2858</v>
+        <v>2857</v>
       </c>
       <c r="D934" s="4" t="s">
-        <v>2980</v>
+        <v>2979</v>
       </c>
       <c r="E934" s="3" t="s">
         <v>1038</v>
@@ -32279,10 +32332,10 @@
         <v>1798</v>
       </c>
       <c r="B935" s="3" t="s">
-        <v>2859</v>
+        <v>2858</v>
       </c>
       <c r="D935" s="4" t="s">
-        <v>2981</v>
+        <v>2980</v>
       </c>
       <c r="E935" s="3" t="s">
         <v>1038</v>
@@ -32293,10 +32346,10 @@
         <v>1798</v>
       </c>
       <c r="B936" s="3" t="s">
-        <v>2860</v>
+        <v>2859</v>
       </c>
       <c r="D936" s="4" t="s">
-        <v>2982</v>
+        <v>2981</v>
       </c>
       <c r="E936" s="3" t="s">
         <v>1038</v>
@@ -32307,10 +32360,10 @@
         <v>1798</v>
       </c>
       <c r="B937" s="3" t="s">
-        <v>2861</v>
+        <v>2860</v>
       </c>
       <c r="D937" s="4" t="s">
-        <v>2983</v>
+        <v>2982</v>
       </c>
       <c r="E937" s="3" t="s">
         <v>1038</v>
@@ -32321,10 +32374,10 @@
         <v>1798</v>
       </c>
       <c r="B938" s="3" t="s">
-        <v>2862</v>
+        <v>2861</v>
       </c>
       <c r="D938" s="4" t="s">
-        <v>2984</v>
+        <v>2983</v>
       </c>
       <c r="E938" s="3" t="s">
         <v>1038</v>
@@ -32335,10 +32388,10 @@
         <v>1798</v>
       </c>
       <c r="B939" s="3" t="s">
-        <v>2863</v>
+        <v>2862</v>
       </c>
       <c r="D939" s="4" t="s">
-        <v>2985</v>
+        <v>2984</v>
       </c>
       <c r="E939" s="3" t="s">
         <v>1038</v>
@@ -32349,10 +32402,10 @@
         <v>1798</v>
       </c>
       <c r="B940" s="3" t="s">
-        <v>2864</v>
+        <v>2863</v>
       </c>
       <c r="D940" s="4" t="s">
-        <v>2986</v>
+        <v>2985</v>
       </c>
       <c r="E940" s="3" t="s">
         <v>1038</v>
@@ -32363,10 +32416,10 @@
         <v>1798</v>
       </c>
       <c r="B941" s="3" t="s">
-        <v>2865</v>
+        <v>2864</v>
       </c>
       <c r="D941" s="4" t="s">
-        <v>2987</v>
+        <v>2986</v>
       </c>
       <c r="E941" s="3" t="s">
         <v>1038</v>
@@ -32377,10 +32430,10 @@
         <v>1798</v>
       </c>
       <c r="B942" s="3" t="s">
-        <v>2866</v>
+        <v>2865</v>
       </c>
       <c r="D942" s="4" t="s">
-        <v>2988</v>
+        <v>2987</v>
       </c>
       <c r="E942" s="3" t="s">
         <v>1038</v>
@@ -32391,10 +32444,10 @@
         <v>1798</v>
       </c>
       <c r="B943" s="3" t="s">
-        <v>2867</v>
+        <v>2866</v>
       </c>
       <c r="D943" s="4" t="s">
-        <v>2989</v>
+        <v>2988</v>
       </c>
       <c r="E943" s="3" t="s">
         <v>1038</v>
@@ -32405,10 +32458,10 @@
         <v>1798</v>
       </c>
       <c r="B944" s="3" t="s">
-        <v>2868</v>
+        <v>2867</v>
       </c>
       <c r="D944" s="4" t="s">
-        <v>2990</v>
+        <v>2989</v>
       </c>
       <c r="E944" s="3" t="s">
         <v>1038</v>
@@ -32419,10 +32472,10 @@
         <v>1798</v>
       </c>
       <c r="B945" s="3" t="s">
-        <v>2869</v>
+        <v>2868</v>
       </c>
       <c r="D945" s="4" t="s">
-        <v>2991</v>
+        <v>2990</v>
       </c>
       <c r="E945" s="3" t="s">
         <v>1038</v>
@@ -32433,7 +32486,7 @@
         <v>1798</v>
       </c>
       <c r="B946" s="3" t="s">
-        <v>2870</v>
+        <v>2869</v>
       </c>
       <c r="D946" s="4" t="s">
         <v>1244</v>
@@ -32447,7 +32500,7 @@
         <v>1798</v>
       </c>
       <c r="B947" s="3" t="s">
-        <v>2871</v>
+        <v>2870</v>
       </c>
       <c r="D947" s="4" t="s">
         <v>1442</v>
@@ -32461,10 +32514,10 @@
         <v>1798</v>
       </c>
       <c r="B948" s="3" t="s">
-        <v>2872</v>
+        <v>2871</v>
       </c>
       <c r="D948" s="4" t="s">
-        <v>2992</v>
+        <v>2991</v>
       </c>
       <c r="E948" s="3" t="s">
         <v>1038</v>
@@ -32475,10 +32528,10 @@
         <v>1798</v>
       </c>
       <c r="B949" s="3" t="s">
-        <v>2873</v>
+        <v>2872</v>
       </c>
       <c r="D949" s="4" t="s">
-        <v>2993</v>
+        <v>2992</v>
       </c>
       <c r="E949" s="3" t="s">
         <v>1038</v>
@@ -32489,10 +32542,10 @@
         <v>1798</v>
       </c>
       <c r="B950" s="3" t="s">
-        <v>2874</v>
+        <v>2873</v>
       </c>
       <c r="D950" s="4" t="s">
-        <v>2994</v>
+        <v>2993</v>
       </c>
       <c r="E950" s="3" t="s">
         <v>1038</v>
@@ -32503,10 +32556,10 @@
         <v>1798</v>
       </c>
       <c r="B951" s="3" t="s">
-        <v>2875</v>
+        <v>2874</v>
       </c>
       <c r="D951" s="4" t="s">
-        <v>2995</v>
+        <v>2994</v>
       </c>
       <c r="E951" s="3" t="s">
         <v>1038</v>
@@ -32517,10 +32570,10 @@
         <v>1798</v>
       </c>
       <c r="B952" s="3" t="s">
-        <v>2876</v>
+        <v>2875</v>
       </c>
       <c r="D952" s="4" t="s">
-        <v>2996</v>
+        <v>2995</v>
       </c>
       <c r="E952" s="3" t="s">
         <v>1038</v>
@@ -32531,10 +32584,10 @@
         <v>1798</v>
       </c>
       <c r="B953" s="3" t="s">
-        <v>2877</v>
+        <v>2876</v>
       </c>
       <c r="D953" s="4" t="s">
-        <v>2997</v>
+        <v>2996</v>
       </c>
       <c r="E953" s="3" t="s">
         <v>1038</v>
@@ -32545,10 +32598,10 @@
         <v>1798</v>
       </c>
       <c r="B954" s="3" t="s">
-        <v>2878</v>
+        <v>2877</v>
       </c>
       <c r="D954" s="4" t="s">
-        <v>2998</v>
+        <v>2997</v>
       </c>
       <c r="E954" s="3" t="s">
         <v>1038</v>
@@ -32559,10 +32612,10 @@
         <v>1798</v>
       </c>
       <c r="B955" s="3" t="s">
-        <v>2879</v>
+        <v>2878</v>
       </c>
       <c r="D955" s="4" t="s">
-        <v>2999</v>
+        <v>2998</v>
       </c>
       <c r="E955" s="3" t="s">
         <v>1038</v>
@@ -32573,10 +32626,10 @@
         <v>1798</v>
       </c>
       <c r="B956" s="3" t="s">
-        <v>2880</v>
+        <v>2879</v>
       </c>
       <c r="D956" s="4" t="s">
-        <v>3000</v>
+        <v>2999</v>
       </c>
       <c r="E956" s="3" t="s">
         <v>1038</v>
@@ -32587,10 +32640,10 @@
         <v>1798</v>
       </c>
       <c r="B957" s="3" t="s">
-        <v>2881</v>
+        <v>2880</v>
       </c>
       <c r="D957" s="4" t="s">
-        <v>3001</v>
+        <v>3000</v>
       </c>
       <c r="E957" s="3" t="s">
         <v>1038</v>
@@ -32601,10 +32654,10 @@
         <v>1798</v>
       </c>
       <c r="B958" s="3" t="s">
-        <v>2882</v>
+        <v>2881</v>
       </c>
       <c r="D958" s="4" t="s">
-        <v>3002</v>
+        <v>3001</v>
       </c>
       <c r="E958" s="3" t="s">
         <v>1038</v>
@@ -32615,7 +32668,7 @@
         <v>1798</v>
       </c>
       <c r="B959" s="3" t="s">
-        <v>2883</v>
+        <v>2882</v>
       </c>
       <c r="D959" s="4" t="s">
         <v>1424</v>
@@ -32629,10 +32682,10 @@
         <v>1798</v>
       </c>
       <c r="B960" s="3" t="s">
-        <v>2884</v>
+        <v>2883</v>
       </c>
       <c r="D960" s="4" t="s">
-        <v>3003</v>
+        <v>3002</v>
       </c>
       <c r="E960" s="3" t="s">
         <v>1038</v>
@@ -32643,10 +32696,10 @@
         <v>1798</v>
       </c>
       <c r="B961" s="3" t="s">
-        <v>2885</v>
+        <v>2884</v>
       </c>
       <c r="D961" s="4" t="s">
-        <v>3004</v>
+        <v>3003</v>
       </c>
       <c r="E961" s="3" t="s">
         <v>1038</v>
@@ -32657,10 +32710,10 @@
         <v>1798</v>
       </c>
       <c r="B962" s="3" t="s">
-        <v>2886</v>
+        <v>2885</v>
       </c>
       <c r="D962" s="4" t="s">
-        <v>3005</v>
+        <v>3004</v>
       </c>
       <c r="E962" s="3" t="s">
         <v>1038</v>
@@ -32671,10 +32724,10 @@
         <v>1798</v>
       </c>
       <c r="B963" s="3" t="s">
-        <v>2887</v>
+        <v>2886</v>
       </c>
       <c r="D963" s="4" t="s">
-        <v>3006</v>
+        <v>3005</v>
       </c>
       <c r="E963" s="3" t="s">
         <v>1038</v>
@@ -32685,10 +32738,10 @@
         <v>1798</v>
       </c>
       <c r="B964" s="3" t="s">
-        <v>2888</v>
+        <v>2887</v>
       </c>
       <c r="D964" s="4" t="s">
-        <v>3007</v>
+        <v>3006</v>
       </c>
       <c r="E964" s="3" t="s">
         <v>1038</v>
@@ -32699,10 +32752,10 @@
         <v>1798</v>
       </c>
       <c r="B965" s="3" t="s">
-        <v>2889</v>
+        <v>2888</v>
       </c>
       <c r="D965" s="4" t="s">
-        <v>3008</v>
+        <v>3007</v>
       </c>
       <c r="E965" s="3" t="s">
         <v>1038</v>
@@ -32713,10 +32766,10 @@
         <v>1798</v>
       </c>
       <c r="B966" s="3" t="s">
-        <v>2890</v>
+        <v>2889</v>
       </c>
       <c r="D966" s="4" t="s">
-        <v>3009</v>
+        <v>3008</v>
       </c>
       <c r="E966" s="3" t="s">
         <v>1038</v>
@@ -32727,10 +32780,10 @@
         <v>1798</v>
       </c>
       <c r="B967" s="3" t="s">
-        <v>2891</v>
+        <v>2890</v>
       </c>
       <c r="D967" s="4" t="s">
-        <v>3010</v>
+        <v>3009</v>
       </c>
       <c r="E967" s="3" t="s">
         <v>1038</v>
@@ -32741,10 +32794,10 @@
         <v>1798</v>
       </c>
       <c r="B968" s="3" t="s">
-        <v>2892</v>
+        <v>2891</v>
       </c>
       <c r="D968" s="4" t="s">
-        <v>3011</v>
+        <v>3010</v>
       </c>
       <c r="E968" s="3" t="s">
         <v>1038</v>
@@ -32755,10 +32808,10 @@
         <v>1798</v>
       </c>
       <c r="B969" s="3" t="s">
-        <v>2893</v>
+        <v>2892</v>
       </c>
       <c r="D969" s="4" t="s">
-        <v>3012</v>
+        <v>3011</v>
       </c>
       <c r="E969" s="3" t="s">
         <v>1038</v>
@@ -32769,10 +32822,10 @@
         <v>1870</v>
       </c>
       <c r="B970" s="3" t="s">
-        <v>2894</v>
+        <v>2893</v>
       </c>
       <c r="D970" s="4" t="s">
-        <v>3013</v>
+        <v>3012</v>
       </c>
       <c r="E970" s="3" t="s">
         <v>1038</v>
@@ -32783,10 +32836,10 @@
         <v>1870</v>
       </c>
       <c r="B971" s="3" t="s">
-        <v>2895</v>
+        <v>2894</v>
       </c>
       <c r="D971" s="4" t="s">
-        <v>3014</v>
+        <v>3013</v>
       </c>
       <c r="E971" s="3" t="s">
         <v>1038</v>
@@ -32797,10 +32850,10 @@
         <v>1870</v>
       </c>
       <c r="B972" s="3" t="s">
-        <v>2896</v>
+        <v>2895</v>
       </c>
       <c r="D972" s="4" t="s">
-        <v>3015</v>
+        <v>3014</v>
       </c>
       <c r="E972" s="3" t="s">
         <v>1038</v>
@@ -32811,10 +32864,10 @@
         <v>1870</v>
       </c>
       <c r="B973" s="3" t="s">
-        <v>2897</v>
+        <v>2896</v>
       </c>
       <c r="D973" s="4" t="s">
-        <v>3016</v>
+        <v>3015</v>
       </c>
       <c r="E973" s="3" t="s">
         <v>1038</v>
@@ -32825,10 +32878,10 @@
         <v>1870</v>
       </c>
       <c r="B974" s="3" t="s">
-        <v>2898</v>
+        <v>2897</v>
       </c>
       <c r="D974" s="4" t="s">
-        <v>3017</v>
+        <v>3016</v>
       </c>
       <c r="E974" s="3" t="s">
         <v>1038</v>
@@ -32839,10 +32892,10 @@
         <v>1870</v>
       </c>
       <c r="B975" s="3" t="s">
-        <v>2899</v>
+        <v>2898</v>
       </c>
       <c r="D975" s="4" t="s">
-        <v>3018</v>
+        <v>3017</v>
       </c>
       <c r="E975" s="3" t="s">
         <v>1038</v>
@@ -32853,10 +32906,10 @@
         <v>1870</v>
       </c>
       <c r="B976" s="3" t="s">
-        <v>2900</v>
+        <v>2899</v>
       </c>
       <c r="D976" s="4" t="s">
-        <v>3019</v>
+        <v>3018</v>
       </c>
       <c r="E976" s="3" t="s">
         <v>1038</v>
@@ -32867,10 +32920,10 @@
         <v>1871</v>
       </c>
       <c r="B977" s="3" t="s">
-        <v>2901</v>
+        <v>2900</v>
       </c>
       <c r="D977" s="4" t="s">
-        <v>3020</v>
+        <v>3019</v>
       </c>
       <c r="E977" s="3" t="s">
         <v>1037</v>
@@ -32881,10 +32934,10 @@
         <v>1871</v>
       </c>
       <c r="B978" s="3" t="s">
-        <v>2902</v>
+        <v>2901</v>
       </c>
       <c r="D978" s="4" t="s">
-        <v>3021</v>
+        <v>3020</v>
       </c>
       <c r="E978" s="3" t="s">
         <v>1037</v>
@@ -32895,10 +32948,10 @@
         <v>1872</v>
       </c>
       <c r="B979" s="3" t="s">
-        <v>2903</v>
+        <v>2902</v>
       </c>
       <c r="D979" s="4" t="s">
-        <v>3022</v>
+        <v>3021</v>
       </c>
       <c r="E979" s="3" t="s">
         <v>2009</v>
@@ -32909,10 +32962,10 @@
         <v>1872</v>
       </c>
       <c r="B980" s="3" t="s">
-        <v>2904</v>
+        <v>2903</v>
       </c>
       <c r="D980" s="4" t="s">
-        <v>3023</v>
+        <v>3022</v>
       </c>
       <c r="E980" s="3" t="s">
         <v>1037</v>
@@ -32923,10 +32976,10 @@
         <v>1872</v>
       </c>
       <c r="B981" s="3" t="s">
-        <v>2905</v>
+        <v>2904</v>
       </c>
       <c r="D981" s="4" t="s">
-        <v>3024</v>
+        <v>3023</v>
       </c>
       <c r="E981" s="3" t="s">
         <v>1037</v>
@@ -32937,10 +32990,10 @@
         <v>1872</v>
       </c>
       <c r="B982" s="3" t="s">
-        <v>2906</v>
+        <v>2905</v>
       </c>
       <c r="D982" s="4" t="s">
-        <v>3025</v>
+        <v>3024</v>
       </c>
       <c r="E982" s="3" t="s">
         <v>1037</v>
@@ -32951,10 +33004,10 @@
         <v>1872</v>
       </c>
       <c r="B983" s="3" t="s">
-        <v>2907</v>
+        <v>2906</v>
       </c>
       <c r="D983" s="4" t="s">
-        <v>3026</v>
+        <v>3025</v>
       </c>
       <c r="E983" s="3" t="s">
         <v>1037</v>
@@ -32965,10 +33018,10 @@
         <v>1872</v>
       </c>
       <c r="B984" s="3" t="s">
-        <v>2908</v>
+        <v>2907</v>
       </c>
       <c r="D984" s="4" t="s">
-        <v>3027</v>
+        <v>3026</v>
       </c>
       <c r="E984" s="3" t="s">
         <v>1037</v>
@@ -32979,10 +33032,10 @@
         <v>1872</v>
       </c>
       <c r="B985" s="3" t="s">
-        <v>2909</v>
+        <v>2908</v>
       </c>
       <c r="D985" s="4" t="s">
-        <v>3028</v>
+        <v>3027</v>
       </c>
       <c r="E985" s="3" t="s">
         <v>1037</v>
@@ -32993,10 +33046,10 @@
         <v>1872</v>
       </c>
       <c r="B986" s="3" t="s">
-        <v>2910</v>
+        <v>2909</v>
       </c>
       <c r="D986" s="4" t="s">
-        <v>3029</v>
+        <v>3028</v>
       </c>
       <c r="E986" s="3" t="s">
         <v>1037</v>
@@ -33007,10 +33060,10 @@
         <v>1872</v>
       </c>
       <c r="B987" s="3" t="s">
-        <v>2911</v>
+        <v>2910</v>
       </c>
       <c r="D987" s="4" t="s">
-        <v>3030</v>
+        <v>3029</v>
       </c>
       <c r="E987" s="3" t="s">
         <v>1037</v>
@@ -33021,10 +33074,10 @@
         <v>1872</v>
       </c>
       <c r="B988" s="3" t="s">
-        <v>2912</v>
+        <v>2911</v>
       </c>
       <c r="D988" s="4" t="s">
-        <v>3031</v>
+        <v>3030</v>
       </c>
       <c r="E988" s="3" t="s">
         <v>1037</v>
@@ -33035,10 +33088,10 @@
         <v>1872</v>
       </c>
       <c r="B989" s="3" t="s">
-        <v>2913</v>
+        <v>2912</v>
       </c>
       <c r="D989" s="4" t="s">
-        <v>3032</v>
+        <v>3031</v>
       </c>
       <c r="E989" s="3" t="s">
         <v>1037</v>
@@ -33049,10 +33102,10 @@
         <v>1872</v>
       </c>
       <c r="B990" s="3" t="s">
-        <v>2914</v>
+        <v>2913</v>
       </c>
       <c r="D990" s="4" t="s">
-        <v>3033</v>
+        <v>3032</v>
       </c>
       <c r="E990" s="3" t="s">
         <v>1037</v>
@@ -33063,10 +33116,10 @@
         <v>1872</v>
       </c>
       <c r="B991" s="3" t="s">
-        <v>2915</v>
+        <v>2914</v>
       </c>
       <c r="D991" s="4" t="s">
-        <v>3034</v>
+        <v>3033</v>
       </c>
       <c r="E991" s="3" t="s">
         <v>1037</v>
@@ -33077,10 +33130,10 @@
         <v>1872</v>
       </c>
       <c r="B992" s="3" t="s">
-        <v>2916</v>
+        <v>2915</v>
       </c>
       <c r="D992" s="4" t="s">
-        <v>3035</v>
+        <v>3034</v>
       </c>
       <c r="E992" s="3" t="s">
         <v>1037</v>
@@ -33091,10 +33144,10 @@
         <v>1873</v>
       </c>
       <c r="B993" s="3" t="s">
-        <v>2917</v>
+        <v>2916</v>
       </c>
       <c r="D993" s="4" t="s">
-        <v>3036</v>
+        <v>3035</v>
       </c>
       <c r="E993" s="3" t="s">
         <v>1037</v>
@@ -33105,10 +33158,10 @@
         <v>1873</v>
       </c>
       <c r="B994" s="3" t="s">
-        <v>2918</v>
+        <v>2917</v>
       </c>
       <c r="D994" s="4" t="s">
-        <v>3037</v>
+        <v>3036</v>
       </c>
       <c r="E994" s="3" t="s">
         <v>1038</v>
@@ -33119,10 +33172,10 @@
         <v>1873</v>
       </c>
       <c r="B995" s="3" t="s">
-        <v>2919</v>
+        <v>2918</v>
       </c>
       <c r="D995" s="4" t="s">
-        <v>3038</v>
+        <v>3037</v>
       </c>
       <c r="E995" s="3" t="s">
         <v>1038</v>
@@ -33133,10 +33186,10 @@
         <v>1873</v>
       </c>
       <c r="B996" s="3" t="s">
-        <v>2920</v>
+        <v>2919</v>
       </c>
       <c r="D996" s="4" t="s">
-        <v>3039</v>
+        <v>3038</v>
       </c>
       <c r="E996" s="3" t="s">
         <v>1038</v>
@@ -33147,10 +33200,10 @@
         <v>1873</v>
       </c>
       <c r="B997" s="3" t="s">
-        <v>2921</v>
+        <v>2920</v>
       </c>
       <c r="D997" s="4" t="s">
-        <v>3040</v>
+        <v>3039</v>
       </c>
       <c r="E997" s="3" t="s">
         <v>1038</v>
@@ -33161,10 +33214,10 @@
         <v>1873</v>
       </c>
       <c r="B998" s="3" t="s">
-        <v>2922</v>
+        <v>2921</v>
       </c>
       <c r="D998" s="4" t="s">
-        <v>3041</v>
+        <v>3040</v>
       </c>
       <c r="E998" s="3" t="s">
         <v>1038</v>
@@ -33175,10 +33228,10 @@
         <v>1873</v>
       </c>
       <c r="B999" s="3" t="s">
-        <v>2923</v>
+        <v>2922</v>
       </c>
       <c r="D999" s="4" t="s">
-        <v>3042</v>
+        <v>3041</v>
       </c>
       <c r="E999" s="3" t="s">
         <v>1038</v>
@@ -33189,10 +33242,10 @@
         <v>1873</v>
       </c>
       <c r="B1000" s="3" t="s">
-        <v>2924</v>
+        <v>2923</v>
       </c>
       <c r="D1000" s="4" t="s">
-        <v>3043</v>
+        <v>3042</v>
       </c>
       <c r="E1000" s="3" t="s">
         <v>1038</v>
@@ -33203,10 +33256,10 @@
         <v>1873</v>
       </c>
       <c r="B1001" s="3" t="s">
-        <v>2925</v>
+        <v>2924</v>
       </c>
       <c r="D1001" s="4" t="s">
-        <v>3044</v>
+        <v>3043</v>
       </c>
       <c r="E1001" s="3" t="s">
         <v>1038</v>
@@ -33217,10 +33270,10 @@
         <v>1873</v>
       </c>
       <c r="B1002" s="3" t="s">
-        <v>2926</v>
+        <v>2925</v>
       </c>
       <c r="D1002" s="4" t="s">
-        <v>3045</v>
+        <v>3044</v>
       </c>
       <c r="E1002" s="3" t="s">
         <v>1038</v>
@@ -33231,10 +33284,10 @@
         <v>1873</v>
       </c>
       <c r="B1003" s="3" t="s">
-        <v>2927</v>
+        <v>2926</v>
       </c>
       <c r="D1003" s="4" t="s">
-        <v>3046</v>
+        <v>3045</v>
       </c>
       <c r="E1003" s="3" t="s">
         <v>1038</v>
@@ -33245,10 +33298,10 @@
         <v>1873</v>
       </c>
       <c r="B1004" s="3" t="s">
-        <v>2928</v>
+        <v>2927</v>
       </c>
       <c r="D1004" s="4" t="s">
-        <v>3047</v>
+        <v>3046</v>
       </c>
       <c r="E1004" s="3" t="s">
         <v>1038</v>
@@ -33259,10 +33312,10 @@
         <v>1873</v>
       </c>
       <c r="B1005" s="3" t="s">
-        <v>2929</v>
+        <v>2928</v>
       </c>
       <c r="D1005" s="4" t="s">
-        <v>3048</v>
+        <v>3047</v>
       </c>
       <c r="E1005" s="3" t="s">
         <v>1038</v>
@@ -33273,10 +33326,10 @@
         <v>1873</v>
       </c>
       <c r="B1006" s="3" t="s">
-        <v>2930</v>
+        <v>2929</v>
       </c>
       <c r="D1006" s="4" t="s">
-        <v>3049</v>
+        <v>3048</v>
       </c>
       <c r="E1006" s="3" t="s">
         <v>1038</v>
@@ -33287,10 +33340,10 @@
         <v>1873</v>
       </c>
       <c r="B1007" s="3" t="s">
-        <v>2931</v>
+        <v>2930</v>
       </c>
       <c r="D1007" s="4" t="s">
-        <v>3050</v>
+        <v>3049</v>
       </c>
       <c r="E1007" s="3" t="s">
         <v>1038</v>
@@ -33301,10 +33354,10 @@
         <v>1873</v>
       </c>
       <c r="B1008" s="3" t="s">
-        <v>2932</v>
+        <v>2931</v>
       </c>
       <c r="D1008" s="4" t="s">
-        <v>3051</v>
+        <v>3050</v>
       </c>
       <c r="E1008" s="3" t="s">
         <v>1038</v>
@@ -33315,10 +33368,10 @@
         <v>1873</v>
       </c>
       <c r="B1009" s="3" t="s">
-        <v>2933</v>
+        <v>2932</v>
       </c>
       <c r="D1009" s="4" t="s">
-        <v>3052</v>
+        <v>3051</v>
       </c>
       <c r="E1009" s="3" t="s">
         <v>1038</v>
@@ -33329,10 +33382,10 @@
         <v>1873</v>
       </c>
       <c r="B1010" s="3" t="s">
-        <v>2934</v>
+        <v>2933</v>
       </c>
       <c r="D1010" s="4" t="s">
-        <v>3053</v>
+        <v>3052</v>
       </c>
       <c r="E1010" s="3" t="s">
         <v>1038</v>
@@ -33343,10 +33396,10 @@
         <v>1873</v>
       </c>
       <c r="B1011" s="3" t="s">
-        <v>2935</v>
+        <v>2934</v>
       </c>
       <c r="D1011" s="4" t="s">
-        <v>3054</v>
+        <v>3053</v>
       </c>
       <c r="E1011" s="3" t="s">
         <v>1038</v>
@@ -33357,10 +33410,10 @@
         <v>1873</v>
       </c>
       <c r="B1012" s="3" t="s">
-        <v>2936</v>
+        <v>2935</v>
       </c>
       <c r="D1012" s="4" t="s">
-        <v>3055</v>
+        <v>3054</v>
       </c>
       <c r="E1012" s="3" t="s">
         <v>1038</v>
@@ -33371,10 +33424,10 @@
         <v>1873</v>
       </c>
       <c r="B1013" s="3" t="s">
-        <v>2937</v>
+        <v>2936</v>
       </c>
       <c r="D1013" s="4" t="s">
-        <v>3056</v>
+        <v>3055</v>
       </c>
       <c r="E1013" s="3" t="s">
         <v>1038</v>
@@ -33385,10 +33438,10 @@
         <v>1873</v>
       </c>
       <c r="B1014" s="3" t="s">
-        <v>2938</v>
+        <v>2937</v>
       </c>
       <c r="D1014" s="4" t="s">
-        <v>3057</v>
+        <v>3056</v>
       </c>
       <c r="E1014" s="3" t="s">
         <v>1038</v>
@@ -33399,10 +33452,10 @@
         <v>1873</v>
       </c>
       <c r="B1015" s="3" t="s">
-        <v>2939</v>
+        <v>2938</v>
       </c>
       <c r="D1015" s="4" t="s">
-        <v>3058</v>
+        <v>3057</v>
       </c>
       <c r="E1015" s="3" t="s">
         <v>1038</v>
@@ -33413,10 +33466,10 @@
         <v>1873</v>
       </c>
       <c r="B1016" s="3" t="s">
-        <v>2940</v>
+        <v>2939</v>
       </c>
       <c r="D1016" s="4" t="s">
-        <v>3059</v>
+        <v>3058</v>
       </c>
       <c r="E1016" s="3" t="s">
         <v>1038</v>
@@ -33427,10 +33480,10 @@
         <v>1873</v>
       </c>
       <c r="B1017" s="3" t="s">
-        <v>2941</v>
+        <v>2940</v>
       </c>
       <c r="D1017" s="4" t="s">
-        <v>3060</v>
+        <v>3059</v>
       </c>
       <c r="E1017" s="3" t="s">
         <v>1038</v>
@@ -33441,10 +33494,10 @@
         <v>1873</v>
       </c>
       <c r="B1018" s="3" t="s">
-        <v>2942</v>
+        <v>2941</v>
       </c>
       <c r="D1018" s="4" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
       <c r="E1018" s="3" t="s">
         <v>1038</v>
@@ -33455,10 +33508,10 @@
         <v>1873</v>
       </c>
       <c r="B1019" s="3" t="s">
-        <v>2943</v>
+        <v>2942</v>
       </c>
       <c r="D1019" s="4" t="s">
-        <v>3062</v>
+        <v>3061</v>
       </c>
       <c r="E1019" s="3" t="s">
         <v>1038</v>
@@ -33469,10 +33522,10 @@
         <v>1873</v>
       </c>
       <c r="B1020" s="3" t="s">
-        <v>2944</v>
+        <v>2943</v>
       </c>
       <c r="D1020" s="4" t="s">
-        <v>3063</v>
+        <v>3062</v>
       </c>
       <c r="E1020" s="3" t="s">
         <v>1038</v>
@@ -33483,10 +33536,10 @@
         <v>1873</v>
       </c>
       <c r="B1021" s="3" t="s">
-        <v>2945</v>
+        <v>2944</v>
       </c>
       <c r="D1021" s="4" t="s">
-        <v>3064</v>
+        <v>3063</v>
       </c>
       <c r="E1021" s="3" t="s">
         <v>1038</v>
@@ -33497,10 +33550,10 @@
         <v>1873</v>
       </c>
       <c r="B1022" s="3" t="s">
-        <v>2946</v>
+        <v>2945</v>
       </c>
       <c r="D1022" s="4" t="s">
-        <v>3065</v>
+        <v>3064</v>
       </c>
       <c r="E1022" s="3" t="s">
         <v>1038</v>
@@ -33511,10 +33564,10 @@
         <v>1873</v>
       </c>
       <c r="B1023" s="3" t="s">
-        <v>2947</v>
+        <v>2946</v>
       </c>
       <c r="D1023" s="4" t="s">
-        <v>3066</v>
+        <v>3065</v>
       </c>
       <c r="E1023" s="3" t="s">
         <v>1038</v>
@@ -33525,10 +33578,10 @@
         <v>1873</v>
       </c>
       <c r="B1024" s="3" t="s">
-        <v>2948</v>
+        <v>2947</v>
       </c>
       <c r="D1024" s="4" t="s">
-        <v>3067</v>
+        <v>3066</v>
       </c>
       <c r="E1024" s="3" t="s">
         <v>1038</v>
@@ -33539,10 +33592,10 @@
         <v>1873</v>
       </c>
       <c r="B1025" s="3" t="s">
-        <v>2949</v>
+        <v>2948</v>
       </c>
       <c r="D1025" s="4" t="s">
-        <v>3068</v>
+        <v>3067</v>
       </c>
       <c r="E1025" s="3" t="s">
         <v>1038</v>
@@ -33553,10 +33606,10 @@
         <v>1873</v>
       </c>
       <c r="B1026" s="3" t="s">
-        <v>2950</v>
+        <v>2949</v>
       </c>
       <c r="D1026" s="4" t="s">
-        <v>3069</v>
+        <v>3068</v>
       </c>
       <c r="E1026" s="3" t="s">
         <v>1037</v>
@@ -33567,10 +33620,10 @@
         <v>1873</v>
       </c>
       <c r="B1027" s="3" t="s">
-        <v>2951</v>
+        <v>2950</v>
       </c>
       <c r="D1027" s="4" t="s">
-        <v>3070</v>
+        <v>3069</v>
       </c>
       <c r="E1027" s="3" t="s">
         <v>1038</v>
@@ -33581,10 +33634,10 @@
         <v>1873</v>
       </c>
       <c r="B1028" s="3" t="s">
-        <v>2952</v>
+        <v>2951</v>
       </c>
       <c r="D1028" s="4" t="s">
-        <v>3071</v>
+        <v>3070</v>
       </c>
       <c r="E1028" s="3" t="s">
         <v>1038</v>
@@ -33595,10 +33648,10 @@
         <v>1873</v>
       </c>
       <c r="B1029" s="3" t="s">
-        <v>2953</v>
+        <v>2952</v>
       </c>
       <c r="D1029" s="4" t="s">
-        <v>3072</v>
+        <v>3071</v>
       </c>
       <c r="E1029" s="3" t="s">
         <v>1038</v>
@@ -33609,10 +33662,10 @@
         <v>1873</v>
       </c>
       <c r="B1030" s="3" t="s">
-        <v>2954</v>
+        <v>2953</v>
       </c>
       <c r="D1030" s="4" t="s">
-        <v>3073</v>
+        <v>3072</v>
       </c>
       <c r="E1030" s="3" t="s">
         <v>1038</v>
@@ -33623,10 +33676,10 @@
         <v>1873</v>
       </c>
       <c r="B1031" s="3" t="s">
-        <v>2955</v>
+        <v>2954</v>
       </c>
       <c r="D1031" s="4" t="s">
-        <v>3074</v>
+        <v>3073</v>
       </c>
       <c r="E1031" s="3" t="s">
         <v>1038</v>
@@ -33637,10 +33690,10 @@
         <v>1873</v>
       </c>
       <c r="B1032" s="3" t="s">
-        <v>2956</v>
+        <v>2955</v>
       </c>
       <c r="D1032" s="4" t="s">
-        <v>3075</v>
+        <v>3074</v>
       </c>
       <c r="E1032" s="3" t="s">
         <v>1038</v>
@@ -33651,10 +33704,10 @@
         <v>1812</v>
       </c>
       <c r="B1033" s="3" t="s">
-        <v>2957</v>
+        <v>2956</v>
       </c>
       <c r="D1033" s="4" t="s">
-        <v>3076</v>
+        <v>3075</v>
       </c>
       <c r="E1033" s="3" t="s">
         <v>1037</v>
@@ -33665,10 +33718,10 @@
         <v>1812</v>
       </c>
       <c r="B1034" s="3" t="s">
-        <v>2958</v>
+        <v>2957</v>
       </c>
       <c r="D1034" s="4" t="s">
-        <v>3077</v>
+        <v>3076</v>
       </c>
       <c r="E1034" s="3" t="s">
         <v>1037</v>
@@ -33679,10 +33732,10 @@
         <v>1812</v>
       </c>
       <c r="B1035" s="3" t="s">
-        <v>2959</v>
+        <v>2958</v>
       </c>
       <c r="D1035" s="4" t="s">
-        <v>3078</v>
+        <v>3077</v>
       </c>
       <c r="E1035" s="3" t="s">
         <v>1037</v>
@@ -33693,10 +33746,10 @@
         <v>1812</v>
       </c>
       <c r="B1036" s="3" t="s">
-        <v>2960</v>
+        <v>2959</v>
       </c>
       <c r="D1036" s="4" t="s">
-        <v>3079</v>
+        <v>3078</v>
       </c>
       <c r="E1036" s="3" t="s">
         <v>1037</v>
@@ -33707,10 +33760,10 @@
         <v>1812</v>
       </c>
       <c r="B1037" s="3" t="s">
-        <v>2961</v>
+        <v>2960</v>
       </c>
       <c r="D1037" s="4" t="s">
-        <v>3080</v>
+        <v>3079</v>
       </c>
       <c r="E1037" s="3" t="s">
         <v>1038</v>
@@ -33721,10 +33774,10 @@
         <v>1816</v>
       </c>
       <c r="B1038" s="3" t="s">
-        <v>2962</v>
+        <v>2961</v>
       </c>
       <c r="D1038" s="4" t="s">
-        <v>3081</v>
+        <v>3080</v>
       </c>
       <c r="E1038" s="3" t="s">
         <v>1037</v>
@@ -33735,10 +33788,10 @@
         <v>1820</v>
       </c>
       <c r="B1039" s="3" t="s">
-        <v>2963</v>
+        <v>2962</v>
       </c>
       <c r="D1039" s="4" t="s">
-        <v>3082</v>
+        <v>3081</v>
       </c>
       <c r="E1039" s="3" t="s">
         <v>1037</v>
@@ -33749,10 +33802,10 @@
         <v>1820</v>
       </c>
       <c r="B1040" s="3" t="s">
-        <v>2964</v>
+        <v>2963</v>
       </c>
       <c r="D1040" s="4" t="s">
-        <v>3083</v>
+        <v>3082</v>
       </c>
       <c r="E1040" s="3" t="s">
         <v>1037</v>
@@ -33763,10 +33816,10 @@
         <v>1820</v>
       </c>
       <c r="B1041" s="3" t="s">
-        <v>2965</v>
+        <v>2964</v>
       </c>
       <c r="D1041" s="4" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
       <c r="E1041" s="3" t="s">
         <v>1037</v>
@@ -33777,10 +33830,10 @@
         <v>1820</v>
       </c>
       <c r="B1042" s="3" t="s">
-        <v>2966</v>
+        <v>2965</v>
       </c>
       <c r="D1042" s="4" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
       <c r="E1042" s="3" t="s">
         <v>1037</v>
@@ -33791,10 +33844,10 @@
         <v>1820</v>
       </c>
       <c r="B1043" s="3" t="s">
-        <v>2967</v>
+        <v>2966</v>
       </c>
       <c r="D1043" s="4" t="s">
-        <v>3086</v>
+        <v>3085</v>
       </c>
       <c r="E1043" s="3" t="s">
         <v>1037</v>
@@ -33805,10 +33858,10 @@
         <v>1820</v>
       </c>
       <c r="B1044" s="3" t="s">
-        <v>2968</v>
+        <v>2967</v>
       </c>
       <c r="D1044" s="4" t="s">
-        <v>3087</v>
+        <v>3086</v>
       </c>
       <c r="E1044" s="3" t="s">
         <v>1038</v>
@@ -33819,10 +33872,10 @@
         <v>1824</v>
       </c>
       <c r="B1045" s="3" t="s">
-        <v>3088</v>
+        <v>3087</v>
       </c>
       <c r="D1045" s="4" t="s">
-        <v>3253</v>
+        <v>3252</v>
       </c>
       <c r="E1045" s="3" t="s">
         <v>1037</v>
@@ -33833,10 +33886,10 @@
         <v>1824</v>
       </c>
       <c r="B1046" s="3" t="s">
-        <v>3089</v>
+        <v>3088</v>
       </c>
       <c r="D1046" s="4" t="s">
-        <v>3254</v>
+        <v>3253</v>
       </c>
       <c r="E1046" s="3" t="s">
         <v>1037</v>
@@ -33847,10 +33900,10 @@
         <v>1824</v>
       </c>
       <c r="B1047" s="3" t="s">
-        <v>3090</v>
+        <v>3089</v>
       </c>
       <c r="D1047" s="4" t="s">
-        <v>3255</v>
+        <v>3254</v>
       </c>
       <c r="E1047" s="3" t="s">
         <v>1037</v>
@@ -33861,10 +33914,10 @@
         <v>1824</v>
       </c>
       <c r="B1048" s="3" t="s">
-        <v>3091</v>
+        <v>3090</v>
       </c>
       <c r="D1048" s="4" t="s">
-        <v>3256</v>
+        <v>3255</v>
       </c>
       <c r="E1048" s="3" t="s">
         <v>1037</v>
@@ -33875,10 +33928,10 @@
         <v>1828</v>
       </c>
       <c r="B1049" s="3" t="s">
-        <v>3092</v>
+        <v>3091</v>
       </c>
       <c r="D1049" s="4" t="s">
-        <v>3257</v>
+        <v>3256</v>
       </c>
       <c r="E1049" s="3" t="s">
         <v>2009</v>
@@ -33889,10 +33942,10 @@
         <v>1828</v>
       </c>
       <c r="B1050" s="3" t="s">
-        <v>3093</v>
+        <v>3092</v>
       </c>
       <c r="D1050" s="4" t="s">
-        <v>3258</v>
+        <v>3257</v>
       </c>
       <c r="E1050" s="3" t="s">
         <v>2009</v>
@@ -33903,10 +33956,10 @@
         <v>1828</v>
       </c>
       <c r="B1051" s="3" t="s">
-        <v>3094</v>
+        <v>3093</v>
       </c>
       <c r="D1051" s="4" t="s">
-        <v>3259</v>
+        <v>3258</v>
       </c>
       <c r="E1051" s="3" t="s">
         <v>2009</v>
@@ -33917,10 +33970,10 @@
         <v>1828</v>
       </c>
       <c r="B1052" s="3" t="s">
-        <v>3095</v>
+        <v>3094</v>
       </c>
       <c r="D1052" s="4" t="s">
-        <v>3260</v>
+        <v>3259</v>
       </c>
       <c r="E1052" s="3" t="s">
         <v>2009</v>
@@ -33931,10 +33984,10 @@
         <v>1828</v>
       </c>
       <c r="B1053" s="3" t="s">
-        <v>3096</v>
+        <v>3095</v>
       </c>
       <c r="D1053" s="4" t="s">
-        <v>3261</v>
+        <v>3260</v>
       </c>
       <c r="E1053" s="3" t="s">
         <v>2009</v>
@@ -33945,10 +33998,10 @@
         <v>1828</v>
       </c>
       <c r="B1054" s="3" t="s">
-        <v>3097</v>
+        <v>3096</v>
       </c>
       <c r="D1054" s="4" t="s">
-        <v>3262</v>
+        <v>3261</v>
       </c>
       <c r="E1054" s="3" t="s">
         <v>2009</v>
@@ -33959,10 +34012,10 @@
         <v>1828</v>
       </c>
       <c r="B1055" s="3" t="s">
-        <v>3098</v>
+        <v>3097</v>
       </c>
       <c r="D1055" s="4" t="s">
-        <v>3263</v>
+        <v>3262</v>
       </c>
       <c r="E1055" s="3" t="s">
         <v>2009</v>
@@ -33973,10 +34026,10 @@
         <v>1828</v>
       </c>
       <c r="B1056" s="3" t="s">
-        <v>3099</v>
+        <v>3098</v>
       </c>
       <c r="D1056" s="4" t="s">
-        <v>3264</v>
+        <v>3263</v>
       </c>
       <c r="E1056" s="3" t="s">
         <v>2009</v>
@@ -33987,10 +34040,10 @@
         <v>1828</v>
       </c>
       <c r="B1057" s="3" t="s">
-        <v>3100</v>
+        <v>3099</v>
       </c>
       <c r="D1057" s="4" t="s">
-        <v>3265</v>
+        <v>3264</v>
       </c>
       <c r="E1057" s="3" t="s">
         <v>2009</v>
@@ -34001,10 +34054,10 @@
         <v>1828</v>
       </c>
       <c r="B1058" s="3" t="s">
-        <v>3101</v>
+        <v>3100</v>
       </c>
       <c r="D1058" s="4" t="s">
-        <v>3266</v>
+        <v>3265</v>
       </c>
       <c r="E1058" s="3" t="s">
         <v>2009</v>
@@ -34015,10 +34068,10 @@
         <v>1828</v>
       </c>
       <c r="B1059" s="3" t="s">
-        <v>3102</v>
+        <v>3101</v>
       </c>
       <c r="D1059" s="4" t="s">
-        <v>3267</v>
+        <v>3266</v>
       </c>
       <c r="E1059" s="3" t="s">
         <v>2009</v>
@@ -34029,10 +34082,10 @@
         <v>1828</v>
       </c>
       <c r="B1060" s="3" t="s">
-        <v>3103</v>
+        <v>3102</v>
       </c>
       <c r="D1060" s="4" t="s">
-        <v>3268</v>
+        <v>3267</v>
       </c>
       <c r="E1060" t="s">
         <v>1037</v>
@@ -34043,10 +34096,10 @@
         <v>1828</v>
       </c>
       <c r="B1061" s="3" t="s">
-        <v>3104</v>
+        <v>3103</v>
       </c>
       <c r="D1061" s="4" t="s">
-        <v>3269</v>
+        <v>3268</v>
       </c>
       <c r="E1061" t="s">
         <v>1037</v>
@@ -34057,10 +34110,10 @@
         <v>1828</v>
       </c>
       <c r="B1062" s="3" t="s">
-        <v>3105</v>
+        <v>3104</v>
       </c>
       <c r="D1062" s="4" t="s">
-        <v>3270</v>
+        <v>3269</v>
       </c>
       <c r="E1062" t="s">
         <v>1037</v>
@@ -34071,10 +34124,10 @@
         <v>1828</v>
       </c>
       <c r="B1063" s="3" t="s">
-        <v>3106</v>
+        <v>3105</v>
       </c>
       <c r="D1063" s="4" t="s">
-        <v>3271</v>
+        <v>3270</v>
       </c>
       <c r="E1063" t="s">
         <v>1037</v>
@@ -34085,7 +34138,7 @@
         <v>1828</v>
       </c>
       <c r="B1064" s="3" t="s">
-        <v>3107</v>
+        <v>3106</v>
       </c>
       <c r="D1064" s="4" t="s">
         <v>1074</v>
@@ -34099,10 +34152,10 @@
         <v>1828</v>
       </c>
       <c r="B1065" s="3" t="s">
-        <v>3108</v>
+        <v>3107</v>
       </c>
       <c r="D1065" s="4" t="s">
-        <v>3272</v>
+        <v>3271</v>
       </c>
       <c r="E1065" t="s">
         <v>2009</v>
@@ -34113,10 +34166,10 @@
         <v>1828</v>
       </c>
       <c r="B1066" s="3" t="s">
-        <v>3109</v>
+        <v>3108</v>
       </c>
       <c r="D1066" s="4" t="s">
-        <v>3273</v>
+        <v>3272</v>
       </c>
       <c r="E1066" t="s">
         <v>1037</v>
@@ -34127,10 +34180,10 @@
         <v>1828</v>
       </c>
       <c r="B1067" s="3" t="s">
-        <v>3110</v>
+        <v>3109</v>
       </c>
       <c r="D1067" s="4" t="s">
-        <v>3274</v>
+        <v>3273</v>
       </c>
       <c r="E1067" t="s">
         <v>1037</v>
@@ -34141,10 +34194,10 @@
         <v>1828</v>
       </c>
       <c r="B1068" s="3" t="s">
-        <v>3111</v>
+        <v>3110</v>
       </c>
       <c r="D1068" s="4" t="s">
-        <v>3275</v>
+        <v>3274</v>
       </c>
       <c r="E1068" t="s">
         <v>1037</v>
@@ -34155,10 +34208,10 @@
         <v>1828</v>
       </c>
       <c r="B1069" s="3" t="s">
-        <v>3112</v>
+        <v>3111</v>
       </c>
       <c r="D1069" s="4" t="s">
-        <v>3276</v>
+        <v>3275</v>
       </c>
       <c r="E1069" t="s">
         <v>1037</v>
@@ -34169,10 +34222,10 @@
         <v>1828</v>
       </c>
       <c r="B1070" s="3" t="s">
-        <v>3113</v>
+        <v>3112</v>
       </c>
       <c r="D1070" s="4" t="s">
-        <v>3277</v>
+        <v>3276</v>
       </c>
       <c r="E1070" t="s">
         <v>1037</v>
@@ -34183,10 +34236,10 @@
         <v>1828</v>
       </c>
       <c r="B1071" s="3" t="s">
-        <v>3114</v>
+        <v>3113</v>
       </c>
       <c r="D1071" s="4" t="s">
-        <v>3278</v>
+        <v>3277</v>
       </c>
       <c r="E1071" t="s">
         <v>1037</v>
@@ -34197,10 +34250,10 @@
         <v>1828</v>
       </c>
       <c r="B1072" s="3" t="s">
-        <v>3115</v>
+        <v>3114</v>
       </c>
       <c r="D1072" s="4" t="s">
-        <v>3279</v>
+        <v>3278</v>
       </c>
       <c r="E1072" t="s">
         <v>1037</v>
@@ -34211,10 +34264,10 @@
         <v>1828</v>
       </c>
       <c r="B1073" s="3" t="s">
-        <v>3116</v>
+        <v>3115</v>
       </c>
       <c r="D1073" s="4" t="s">
-        <v>3280</v>
+        <v>3279</v>
       </c>
       <c r="E1073" t="s">
         <v>1037</v>
@@ -34225,10 +34278,10 @@
         <v>1828</v>
       </c>
       <c r="B1074" s="3" t="s">
-        <v>3117</v>
+        <v>3116</v>
       </c>
       <c r="D1074" s="4" t="s">
-        <v>3281</v>
+        <v>3280</v>
       </c>
       <c r="E1074" t="s">
         <v>1037</v>
@@ -34239,10 +34292,10 @@
         <v>1828</v>
       </c>
       <c r="B1075" s="3" t="s">
-        <v>3118</v>
+        <v>3117</v>
       </c>
       <c r="D1075" s="4" t="s">
-        <v>3282</v>
+        <v>3281</v>
       </c>
       <c r="E1075" t="s">
         <v>1037</v>
@@ -34253,10 +34306,10 @@
         <v>1828</v>
       </c>
       <c r="B1076" s="3" t="s">
-        <v>3119</v>
+        <v>3118</v>
       </c>
       <c r="D1076" s="4" t="s">
-        <v>3283</v>
+        <v>3282</v>
       </c>
       <c r="E1076" t="s">
         <v>1037</v>
@@ -34267,10 +34320,10 @@
         <v>1828</v>
       </c>
       <c r="B1077" s="3" t="s">
-        <v>3120</v>
+        <v>3119</v>
       </c>
       <c r="D1077" s="4" t="s">
-        <v>3284</v>
+        <v>3283</v>
       </c>
       <c r="E1077" t="s">
         <v>1037</v>
@@ -34281,10 +34334,10 @@
         <v>1828</v>
       </c>
       <c r="B1078" s="3" t="s">
-        <v>3121</v>
+        <v>3120</v>
       </c>
       <c r="D1078" s="4" t="s">
-        <v>3285</v>
+        <v>3284</v>
       </c>
       <c r="E1078" t="s">
         <v>1037</v>
@@ -34295,10 +34348,10 @@
         <v>1828</v>
       </c>
       <c r="B1079" s="3" t="s">
-        <v>3122</v>
+        <v>3121</v>
       </c>
       <c r="D1079" s="4" t="s">
-        <v>3286</v>
+        <v>3285</v>
       </c>
       <c r="E1079" t="s">
         <v>1037</v>
@@ -34309,10 +34362,10 @@
         <v>1828</v>
       </c>
       <c r="B1080" s="3" t="s">
-        <v>3123</v>
+        <v>3122</v>
       </c>
       <c r="D1080" s="4" t="s">
-        <v>3286</v>
+        <v>3285</v>
       </c>
       <c r="E1080" t="s">
         <v>1037</v>
@@ -34323,10 +34376,10 @@
         <v>1828</v>
       </c>
       <c r="B1081" s="3" t="s">
-        <v>3124</v>
+        <v>3123</v>
       </c>
       <c r="D1081" s="4" t="s">
-        <v>3272</v>
+        <v>3271</v>
       </c>
       <c r="E1081" t="s">
         <v>2009</v>
@@ -34337,10 +34390,10 @@
         <v>1828</v>
       </c>
       <c r="B1082" s="3" t="s">
-        <v>3125</v>
+        <v>3124</v>
       </c>
       <c r="D1082" s="4" t="s">
-        <v>3287</v>
+        <v>3286</v>
       </c>
       <c r="E1082" t="s">
         <v>1037</v>
@@ -34351,10 +34404,10 @@
         <v>1828</v>
       </c>
       <c r="B1083" s="3" t="s">
-        <v>3126</v>
+        <v>3125</v>
       </c>
       <c r="D1083" s="4" t="s">
-        <v>3288</v>
+        <v>3287</v>
       </c>
       <c r="E1083" t="s">
         <v>1037</v>
@@ -34365,10 +34418,10 @@
         <v>1877</v>
       </c>
       <c r="B1084" s="3" t="s">
-        <v>3127</v>
+        <v>3126</v>
       </c>
       <c r="D1084" s="4" t="s">
-        <v>3289</v>
+        <v>3288</v>
       </c>
       <c r="E1084" t="s">
         <v>1037</v>
@@ -34379,10 +34432,10 @@
         <v>1877</v>
       </c>
       <c r="B1085" s="3" t="s">
-        <v>3128</v>
+        <v>3127</v>
       </c>
       <c r="D1085" s="4" t="s">
-        <v>3290</v>
+        <v>3289</v>
       </c>
       <c r="E1085" t="s">
         <v>1037</v>
@@ -34393,10 +34446,10 @@
         <v>1877</v>
       </c>
       <c r="B1086" s="3" t="s">
-        <v>3129</v>
+        <v>3128</v>
       </c>
       <c r="D1086" s="4" t="s">
-        <v>3291</v>
+        <v>3290</v>
       </c>
       <c r="E1086" t="s">
         <v>2009</v>
@@ -34407,10 +34460,10 @@
         <v>1877</v>
       </c>
       <c r="B1087" s="3" t="s">
-        <v>3130</v>
+        <v>3129</v>
       </c>
       <c r="D1087" s="4" t="s">
-        <v>3292</v>
+        <v>3291</v>
       </c>
       <c r="E1087" t="s">
         <v>2009</v>
@@ -34421,10 +34474,10 @@
         <v>1874</v>
       </c>
       <c r="B1088" s="3" t="s">
-        <v>3131</v>
+        <v>3130</v>
       </c>
       <c r="D1088" s="4" t="s">
-        <v>3293</v>
+        <v>3292</v>
       </c>
       <c r="E1088" t="s">
         <v>1037</v>
@@ -34435,10 +34488,10 @@
         <v>1874</v>
       </c>
       <c r="B1089" s="3" t="s">
-        <v>3132</v>
+        <v>3131</v>
       </c>
       <c r="D1089" s="4" t="s">
-        <v>3294</v>
+        <v>3293</v>
       </c>
       <c r="E1089" t="s">
         <v>1037</v>
@@ -34449,10 +34502,10 @@
         <v>1874</v>
       </c>
       <c r="B1090" s="3" t="s">
-        <v>3133</v>
+        <v>3132</v>
       </c>
       <c r="D1090" s="4" t="s">
-        <v>3295</v>
+        <v>3294</v>
       </c>
       <c r="E1090" t="s">
         <v>1037</v>
@@ -34463,7 +34516,7 @@
         <v>1874</v>
       </c>
       <c r="B1091" s="3" t="s">
-        <v>3134</v>
+        <v>3133</v>
       </c>
       <c r="D1091" s="4" t="s">
         <v>2122</v>
@@ -34477,10 +34530,10 @@
         <v>1875</v>
       </c>
       <c r="B1092" s="3" t="s">
-        <v>3135</v>
+        <v>3134</v>
       </c>
       <c r="D1092" s="4" t="s">
-        <v>3296</v>
+        <v>3295</v>
       </c>
       <c r="E1092" t="s">
         <v>2009</v>
@@ -34491,10 +34544,10 @@
         <v>1875</v>
       </c>
       <c r="B1093" s="3" t="s">
-        <v>3136</v>
+        <v>3135</v>
       </c>
       <c r="D1093" s="4" t="s">
-        <v>3297</v>
+        <v>3296</v>
       </c>
       <c r="E1093" t="s">
         <v>2009</v>
@@ -34505,10 +34558,10 @@
         <v>1876</v>
       </c>
       <c r="B1094" s="3" t="s">
-        <v>3137</v>
+        <v>3136</v>
       </c>
       <c r="D1094" s="4" t="s">
-        <v>3298</v>
+        <v>3297</v>
       </c>
       <c r="E1094" t="s">
         <v>2009</v>
@@ -34519,10 +34572,10 @@
         <v>1876</v>
       </c>
       <c r="B1095" s="3" t="s">
-        <v>3138</v>
+        <v>3137</v>
       </c>
       <c r="D1095" s="4" t="s">
-        <v>3299</v>
+        <v>3298</v>
       </c>
       <c r="E1095" t="s">
         <v>1037</v>
@@ -34533,10 +34586,10 @@
         <v>1876</v>
       </c>
       <c r="B1096" s="3" t="s">
-        <v>3139</v>
+        <v>3138</v>
       </c>
       <c r="D1096" s="4" t="s">
-        <v>3300</v>
+        <v>3299</v>
       </c>
       <c r="E1096" t="s">
         <v>1038</v>
@@ -34547,10 +34600,10 @@
         <v>1876</v>
       </c>
       <c r="B1097" s="3" t="s">
-        <v>3140</v>
+        <v>3139</v>
       </c>
       <c r="D1097" s="4" t="s">
-        <v>3301</v>
+        <v>3300</v>
       </c>
       <c r="E1097" t="s">
         <v>1038</v>
@@ -34561,10 +34614,10 @@
         <v>1876</v>
       </c>
       <c r="B1098" s="3" t="s">
-        <v>3141</v>
+        <v>3140</v>
       </c>
       <c r="D1098" s="4" t="s">
-        <v>3302</v>
+        <v>3301</v>
       </c>
       <c r="E1098" t="s">
         <v>1038</v>
@@ -34575,10 +34628,10 @@
         <v>1876</v>
       </c>
       <c r="B1099" s="3" t="s">
-        <v>3142</v>
+        <v>3141</v>
       </c>
       <c r="D1099" s="4" t="s">
-        <v>3303</v>
+        <v>3302</v>
       </c>
       <c r="E1099" t="s">
         <v>2009</v>
@@ -34589,10 +34642,10 @@
         <v>1876</v>
       </c>
       <c r="B1100" s="3" t="s">
-        <v>3143</v>
+        <v>3142</v>
       </c>
       <c r="D1100" s="4" t="s">
-        <v>3304</v>
+        <v>3303</v>
       </c>
       <c r="E1100" t="s">
         <v>2009</v>
@@ -34603,10 +34656,10 @@
         <v>1876</v>
       </c>
       <c r="B1101" s="3" t="s">
-        <v>3144</v>
+        <v>3143</v>
       </c>
       <c r="D1101" s="4" t="s">
-        <v>3305</v>
+        <v>3304</v>
       </c>
       <c r="E1101" t="s">
         <v>2009</v>
@@ -34617,10 +34670,10 @@
         <v>1876</v>
       </c>
       <c r="B1102" s="3" t="s">
-        <v>3145</v>
+        <v>3144</v>
       </c>
       <c r="D1102" s="4" t="s">
-        <v>3306</v>
+        <v>3305</v>
       </c>
       <c r="E1102" t="s">
         <v>2009</v>
@@ -34631,10 +34684,10 @@
         <v>1876</v>
       </c>
       <c r="B1103" s="3" t="s">
-        <v>3146</v>
+        <v>3145</v>
       </c>
       <c r="D1103" s="4" t="s">
-        <v>3307</v>
+        <v>3306</v>
       </c>
       <c r="E1103" t="s">
         <v>2009</v>
@@ -34645,10 +34698,10 @@
         <v>1876</v>
       </c>
       <c r="B1104" s="3" t="s">
-        <v>3147</v>
+        <v>3146</v>
       </c>
       <c r="D1104" s="4" t="s">
-        <v>3308</v>
+        <v>3307</v>
       </c>
       <c r="E1104" t="s">
         <v>2009</v>
@@ -34659,10 +34712,10 @@
         <v>1876</v>
       </c>
       <c r="B1105" s="3" t="s">
-        <v>3148</v>
+        <v>3147</v>
       </c>
       <c r="D1105" s="4" t="s">
-        <v>3309</v>
+        <v>3308</v>
       </c>
       <c r="E1105" t="s">
         <v>2009</v>
@@ -34673,10 +34726,10 @@
         <v>1876</v>
       </c>
       <c r="B1106" s="3" t="s">
-        <v>3149</v>
+        <v>3148</v>
       </c>
       <c r="D1106" s="4" t="s">
-        <v>3310</v>
+        <v>3309</v>
       </c>
       <c r="E1106" t="s">
         <v>2009</v>
@@ -34687,10 +34740,10 @@
         <v>1876</v>
       </c>
       <c r="B1107" s="3" t="s">
-        <v>3150</v>
+        <v>3149</v>
       </c>
       <c r="D1107" s="4" t="s">
-        <v>3311</v>
+        <v>3310</v>
       </c>
       <c r="E1107" t="s">
         <v>2009</v>
@@ -34701,10 +34754,10 @@
         <v>1876</v>
       </c>
       <c r="B1108" s="3" t="s">
-        <v>3151</v>
+        <v>3150</v>
       </c>
       <c r="D1108" s="4" t="s">
-        <v>3312</v>
+        <v>3311</v>
       </c>
       <c r="E1108" t="s">
         <v>2009</v>
@@ -34715,10 +34768,10 @@
         <v>1876</v>
       </c>
       <c r="B1109" s="3" t="s">
-        <v>3152</v>
+        <v>3151</v>
       </c>
       <c r="D1109" s="4" t="s">
-        <v>3313</v>
+        <v>3312</v>
       </c>
       <c r="E1109" t="s">
         <v>2009</v>
@@ -34729,10 +34782,10 @@
         <v>1876</v>
       </c>
       <c r="B1110" s="3" t="s">
-        <v>3153</v>
+        <v>3152</v>
       </c>
       <c r="D1110" s="4" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="E1110" t="s">
         <v>2009</v>
@@ -34743,10 +34796,10 @@
         <v>1876</v>
       </c>
       <c r="B1111" s="3" t="s">
-        <v>3154</v>
+        <v>3153</v>
       </c>
       <c r="D1111" s="4" t="s">
-        <v>3315</v>
+        <v>3314</v>
       </c>
       <c r="E1111" t="s">
         <v>2009</v>
@@ -34757,10 +34810,10 @@
         <v>1876</v>
       </c>
       <c r="B1112" s="3" t="s">
-        <v>3155</v>
+        <v>3154</v>
       </c>
       <c r="D1112" s="4" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
       <c r="E1112" t="s">
         <v>2009</v>
@@ -34771,10 +34824,10 @@
         <v>1876</v>
       </c>
       <c r="B1113" s="3" t="s">
-        <v>3156</v>
+        <v>3155</v>
       </c>
       <c r="D1113" s="4" t="s">
-        <v>3317</v>
+        <v>3316</v>
       </c>
       <c r="E1113" t="s">
         <v>2009</v>
@@ -34785,10 +34838,10 @@
         <v>1844</v>
       </c>
       <c r="B1114" s="3" t="s">
-        <v>3157</v>
+        <v>3156</v>
       </c>
       <c r="D1114" s="4" t="s">
-        <v>3318</v>
+        <v>3317</v>
       </c>
       <c r="E1114" t="s">
         <v>1037</v>
@@ -34799,10 +34852,10 @@
         <v>1844</v>
       </c>
       <c r="B1115" s="3" t="s">
-        <v>3158</v>
+        <v>3157</v>
       </c>
       <c r="D1115" s="4" t="s">
-        <v>3319</v>
+        <v>3318</v>
       </c>
       <c r="E1115" t="s">
         <v>1037</v>
@@ -34813,10 +34866,10 @@
         <v>1848</v>
       </c>
       <c r="B1116" s="3" t="s">
-        <v>3159</v>
+        <v>3158</v>
       </c>
       <c r="D1116" s="4" t="s">
-        <v>3320</v>
+        <v>3319</v>
       </c>
       <c r="E1116" t="s">
         <v>1037</v>
@@ -34827,10 +34880,10 @@
         <v>1848</v>
       </c>
       <c r="B1117" s="3" t="s">
-        <v>3160</v>
+        <v>3159</v>
       </c>
       <c r="D1117" s="4" t="s">
-        <v>3321</v>
+        <v>3320</v>
       </c>
       <c r="E1117" t="s">
         <v>1037</v>
@@ -34841,10 +34894,10 @@
         <v>1848</v>
       </c>
       <c r="B1118" s="3" t="s">
-        <v>3161</v>
+        <v>3160</v>
       </c>
       <c r="D1118" s="4" t="s">
-        <v>3322</v>
+        <v>3321</v>
       </c>
       <c r="E1118" t="s">
         <v>1037</v>
@@ -34855,10 +34908,10 @@
         <v>1848</v>
       </c>
       <c r="B1119" s="3" t="s">
-        <v>3162</v>
+        <v>3161</v>
       </c>
       <c r="D1119" s="4" t="s">
-        <v>3323</v>
+        <v>3322</v>
       </c>
       <c r="E1119" t="s">
         <v>1037</v>
@@ -34869,10 +34922,10 @@
         <v>1848</v>
       </c>
       <c r="B1120" s="3" t="s">
-        <v>3163</v>
+        <v>3162</v>
       </c>
       <c r="D1120" s="4" t="s">
-        <v>3324</v>
+        <v>3323</v>
       </c>
       <c r="E1120" t="s">
         <v>1037</v>
@@ -34883,10 +34936,10 @@
         <v>1848</v>
       </c>
       <c r="B1121" s="3" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D1121" s="4" t="s">
-        <v>3325</v>
+        <v>3324</v>
       </c>
       <c r="E1121" t="s">
         <v>2009</v>
@@ -34897,10 +34950,10 @@
         <v>1848</v>
       </c>
       <c r="B1122" s="3" t="s">
-        <v>3165</v>
+        <v>3164</v>
       </c>
       <c r="D1122" s="4" t="s">
-        <v>3326</v>
+        <v>3325</v>
       </c>
       <c r="E1122" t="s">
         <v>2009</v>
@@ -34911,10 +34964,10 @@
         <v>1848</v>
       </c>
       <c r="B1123" s="3" t="s">
-        <v>3166</v>
+        <v>3165</v>
       </c>
       <c r="D1123" s="4" t="s">
-        <v>3327</v>
+        <v>3326</v>
       </c>
       <c r="E1123" t="s">
         <v>2009</v>
@@ -34925,10 +34978,10 @@
         <v>1848</v>
       </c>
       <c r="B1124" s="3" t="s">
-        <v>3167</v>
+        <v>3166</v>
       </c>
       <c r="D1124" s="4" t="s">
-        <v>3328</v>
+        <v>3327</v>
       </c>
       <c r="E1124" t="s">
         <v>2009</v>
@@ -34939,10 +34992,10 @@
         <v>1848</v>
       </c>
       <c r="B1125" s="3" t="s">
-        <v>3168</v>
+        <v>3167</v>
       </c>
       <c r="D1125" s="4" t="s">
-        <v>3329</v>
+        <v>3328</v>
       </c>
       <c r="E1125" t="s">
         <v>2009</v>
@@ -34953,10 +35006,10 @@
         <v>1848</v>
       </c>
       <c r="B1126" s="3" t="s">
-        <v>3169</v>
+        <v>3168</v>
       </c>
       <c r="D1126" s="4" t="s">
-        <v>3330</v>
+        <v>3329</v>
       </c>
       <c r="E1126" t="s">
         <v>2009</v>
@@ -34967,10 +35020,10 @@
         <v>1848</v>
       </c>
       <c r="B1127" s="3" t="s">
-        <v>3170</v>
+        <v>3169</v>
       </c>
       <c r="D1127" s="4" t="s">
-        <v>3331</v>
+        <v>3330</v>
       </c>
       <c r="E1127" t="s">
         <v>2009</v>
@@ -34981,10 +35034,10 @@
         <v>1878</v>
       </c>
       <c r="B1128" s="3" t="s">
-        <v>3171</v>
+        <v>3170</v>
       </c>
       <c r="D1128" s="4" t="s">
-        <v>3332</v>
+        <v>3331</v>
       </c>
       <c r="E1128" t="s">
         <v>2009</v>
@@ -34995,10 +35048,10 @@
         <v>1878</v>
       </c>
       <c r="B1129" s="3" t="s">
-        <v>3172</v>
+        <v>3171</v>
       </c>
       <c r="D1129" s="4" t="s">
-        <v>3333</v>
+        <v>3332</v>
       </c>
       <c r="E1129" t="s">
         <v>1037</v>
@@ -35009,10 +35062,10 @@
         <v>1878</v>
       </c>
       <c r="B1130" s="3" t="s">
-        <v>3173</v>
+        <v>3172</v>
       </c>
       <c r="D1130" s="4" t="s">
-        <v>3334</v>
+        <v>3333</v>
       </c>
       <c r="E1130" t="s">
         <v>1037</v>
@@ -35023,10 +35076,10 @@
         <v>1878</v>
       </c>
       <c r="B1131" s="3" t="s">
-        <v>3174</v>
+        <v>3173</v>
       </c>
       <c r="D1131" s="4" t="s">
-        <v>3335</v>
+        <v>3334</v>
       </c>
       <c r="E1131" t="s">
         <v>1037</v>
@@ -35037,10 +35090,10 @@
         <v>1878</v>
       </c>
       <c r="B1132" s="3" t="s">
-        <v>3175</v>
+        <v>3174</v>
       </c>
       <c r="D1132" s="4" t="s">
-        <v>3336</v>
+        <v>3335</v>
       </c>
       <c r="E1132" t="s">
         <v>1037</v>
@@ -35051,10 +35104,10 @@
         <v>1878</v>
       </c>
       <c r="B1133" s="3" t="s">
-        <v>3176</v>
+        <v>3175</v>
       </c>
       <c r="D1133" s="4" t="s">
-        <v>3337</v>
+        <v>3336</v>
       </c>
       <c r="E1133" t="s">
         <v>1037</v>
@@ -35065,10 +35118,10 @@
         <v>1878</v>
       </c>
       <c r="B1134" s="3" t="s">
-        <v>3177</v>
+        <v>3176</v>
       </c>
       <c r="D1134" s="4" t="s">
-        <v>3338</v>
+        <v>3337</v>
       </c>
       <c r="E1134" t="s">
         <v>1037</v>
@@ -35079,10 +35132,10 @@
         <v>1878</v>
       </c>
       <c r="B1135" s="3" t="s">
-        <v>3178</v>
+        <v>3177</v>
       </c>
       <c r="D1135" s="4" t="s">
-        <v>3339</v>
+        <v>3338</v>
       </c>
       <c r="E1135" t="s">
         <v>1037</v>
@@ -35093,10 +35146,10 @@
         <v>1878</v>
       </c>
       <c r="B1136" s="3" t="s">
-        <v>3179</v>
+        <v>3178</v>
       </c>
       <c r="D1136" s="4" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
       <c r="E1136" t="s">
         <v>1038</v>
@@ -35107,10 +35160,10 @@
         <v>1879</v>
       </c>
       <c r="B1137" s="3" t="s">
-        <v>3180</v>
+        <v>3179</v>
       </c>
       <c r="D1137" s="4" t="s">
-        <v>3340</v>
+        <v>3339</v>
       </c>
       <c r="E1137" s="3" t="s">
         <v>2009</v>
@@ -35121,10 +35174,10 @@
         <v>1879</v>
       </c>
       <c r="B1138" s="3" t="s">
-        <v>3181</v>
+        <v>3180</v>
       </c>
       <c r="D1138" s="4" t="s">
-        <v>3341</v>
+        <v>3340</v>
       </c>
       <c r="E1138" s="3" t="s">
         <v>1037</v>
@@ -35135,10 +35188,10 @@
         <v>1879</v>
       </c>
       <c r="B1139" s="3" t="s">
-        <v>3182</v>
+        <v>3181</v>
       </c>
       <c r="D1139" s="4" t="s">
-        <v>3342</v>
+        <v>3341</v>
       </c>
       <c r="E1139" s="3" t="s">
         <v>1037</v>
@@ -35149,10 +35202,10 @@
         <v>1879</v>
       </c>
       <c r="B1140" s="3" t="s">
-        <v>3183</v>
+        <v>3182</v>
       </c>
       <c r="D1140" s="4" t="s">
-        <v>3343</v>
+        <v>3342</v>
       </c>
       <c r="E1140" s="3" t="s">
         <v>1037</v>
@@ -35163,10 +35216,10 @@
         <v>1879</v>
       </c>
       <c r="B1141" s="3" t="s">
-        <v>3184</v>
+        <v>3183</v>
       </c>
       <c r="D1141" s="4" t="s">
-        <v>3344</v>
+        <v>3343</v>
       </c>
       <c r="E1141" s="3" t="s">
         <v>1037</v>
@@ -35177,10 +35230,10 @@
         <v>1879</v>
       </c>
       <c r="B1142" s="3" t="s">
-        <v>3185</v>
+        <v>3184</v>
       </c>
       <c r="D1142" s="4" t="s">
-        <v>3345</v>
+        <v>3344</v>
       </c>
       <c r="E1142" s="3" t="s">
         <v>1037</v>
@@ -35191,10 +35244,10 @@
         <v>1879</v>
       </c>
       <c r="B1143" s="3" t="s">
-        <v>3186</v>
+        <v>3185</v>
       </c>
       <c r="D1143" s="4" t="s">
-        <v>3346</v>
+        <v>3345</v>
       </c>
       <c r="E1143" s="3" t="s">
         <v>1037</v>
@@ -35205,10 +35258,10 @@
         <v>1879</v>
       </c>
       <c r="B1144" s="3" t="s">
-        <v>3187</v>
+        <v>3186</v>
       </c>
       <c r="D1144" s="4" t="s">
-        <v>3347</v>
+        <v>3346</v>
       </c>
       <c r="E1144" s="3" t="s">
         <v>1037</v>
@@ -35219,10 +35272,10 @@
         <v>1879</v>
       </c>
       <c r="B1145" s="3" t="s">
-        <v>3188</v>
+        <v>3187</v>
       </c>
       <c r="D1145" s="4" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
       <c r="E1145" s="3" t="s">
         <v>1038</v>
@@ -35233,10 +35286,10 @@
         <v>1880</v>
       </c>
       <c r="B1146" s="3" t="s">
-        <v>3189</v>
+        <v>3188</v>
       </c>
       <c r="D1146" s="4" t="s">
-        <v>3293</v>
+        <v>3292</v>
       </c>
       <c r="E1146" s="3" t="s">
         <v>1037</v>
@@ -35247,10 +35300,10 @@
         <v>1880</v>
       </c>
       <c r="B1147" s="3" t="s">
-        <v>3190</v>
+        <v>3189</v>
       </c>
       <c r="D1147" s="4" t="s">
-        <v>3294</v>
+        <v>3293</v>
       </c>
       <c r="E1147" s="3" t="s">
         <v>1037</v>
@@ -35261,10 +35314,10 @@
         <v>1880</v>
       </c>
       <c r="B1148" s="3" t="s">
-        <v>3191</v>
+        <v>3190</v>
       </c>
       <c r="D1148" s="4" t="s">
-        <v>3348</v>
+        <v>3347</v>
       </c>
       <c r="E1148" s="3" t="s">
         <v>1037</v>
@@ -35275,10 +35328,10 @@
         <v>1880</v>
       </c>
       <c r="B1149" s="3" t="s">
-        <v>3192</v>
+        <v>3191</v>
       </c>
       <c r="D1149" s="4" t="s">
-        <v>3349</v>
+        <v>3348</v>
       </c>
       <c r="E1149" s="3" t="s">
         <v>1037</v>
@@ -35289,10 +35342,10 @@
         <v>1880</v>
       </c>
       <c r="B1150" s="3" t="s">
-        <v>3193</v>
+        <v>3192</v>
       </c>
       <c r="D1150" s="4" t="s">
-        <v>3350</v>
+        <v>3349</v>
       </c>
       <c r="E1150" s="3" t="s">
         <v>1037</v>
@@ -35303,10 +35356,10 @@
         <v>1880</v>
       </c>
       <c r="B1151" s="3" t="s">
-        <v>3194</v>
+        <v>3193</v>
       </c>
       <c r="D1151" s="4" t="s">
-        <v>3351</v>
+        <v>3350</v>
       </c>
       <c r="E1151" s="3" t="s">
         <v>1037</v>
@@ -35317,10 +35370,10 @@
         <v>1880</v>
       </c>
       <c r="B1152" s="3" t="s">
-        <v>3195</v>
+        <v>3194</v>
       </c>
       <c r="D1152" s="4" t="s">
-        <v>3352</v>
+        <v>3351</v>
       </c>
       <c r="E1152" s="3" t="s">
         <v>1037</v>
@@ -35331,10 +35384,10 @@
         <v>1880</v>
       </c>
       <c r="B1153" s="3" t="s">
-        <v>3196</v>
+        <v>3195</v>
       </c>
       <c r="D1153" s="4" t="s">
-        <v>3353</v>
+        <v>3352</v>
       </c>
       <c r="E1153" s="3" t="s">
         <v>1037</v>
@@ -35345,10 +35398,10 @@
         <v>1880</v>
       </c>
       <c r="B1154" s="3" t="s">
-        <v>3197</v>
+        <v>3196</v>
       </c>
       <c r="D1154" s="4" t="s">
-        <v>3354</v>
+        <v>3353</v>
       </c>
       <c r="E1154" s="3" t="s">
         <v>1037</v>
@@ -35359,10 +35412,10 @@
         <v>1880</v>
       </c>
       <c r="B1155" s="3" t="s">
-        <v>3198</v>
+        <v>3197</v>
       </c>
       <c r="D1155" s="4" t="s">
-        <v>3355</v>
+        <v>3354</v>
       </c>
       <c r="E1155" s="3" t="s">
         <v>1037</v>
@@ -35373,10 +35426,10 @@
         <v>1880</v>
       </c>
       <c r="B1156" s="3" t="s">
-        <v>3199</v>
+        <v>3198</v>
       </c>
       <c r="D1156" s="4" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
       <c r="E1156" t="s">
         <v>1038</v>
@@ -35387,10 +35440,10 @@
         <v>1864</v>
       </c>
       <c r="B1157" s="3" t="s">
-        <v>3200</v>
+        <v>3199</v>
       </c>
       <c r="D1157" s="4" t="s">
-        <v>3356</v>
+        <v>3355</v>
       </c>
       <c r="E1157" s="3" t="s">
         <v>1037</v>
@@ -35401,10 +35454,10 @@
         <v>1864</v>
       </c>
       <c r="B1158" s="3" t="s">
-        <v>3201</v>
+        <v>3200</v>
       </c>
       <c r="D1158" s="4" t="s">
-        <v>3357</v>
+        <v>3356</v>
       </c>
       <c r="E1158" s="3" t="s">
         <v>1038</v>
@@ -35415,10 +35468,10 @@
         <v>1864</v>
       </c>
       <c r="B1159" s="3" t="s">
-        <v>3202</v>
+        <v>3201</v>
       </c>
       <c r="D1159" s="4" t="s">
-        <v>3358</v>
+        <v>3357</v>
       </c>
       <c r="E1159" s="3" t="s">
         <v>1038</v>
@@ -35429,10 +35482,10 @@
         <v>1864</v>
       </c>
       <c r="B1160" s="3" t="s">
-        <v>3203</v>
+        <v>3202</v>
       </c>
       <c r="D1160" s="4" t="s">
-        <v>3359</v>
+        <v>3358</v>
       </c>
       <c r="E1160" s="3" t="s">
         <v>1038</v>
@@ -35443,10 +35496,10 @@
         <v>1864</v>
       </c>
       <c r="B1161" s="3" t="s">
-        <v>3204</v>
+        <v>3203</v>
       </c>
       <c r="D1161" s="4" t="s">
-        <v>3360</v>
+        <v>3359</v>
       </c>
       <c r="E1161" s="3" t="s">
         <v>1038</v>
@@ -35457,10 +35510,10 @@
         <v>1864</v>
       </c>
       <c r="B1162" s="3" t="s">
-        <v>3205</v>
+        <v>3204</v>
       </c>
       <c r="D1162" s="4" t="s">
-        <v>3361</v>
+        <v>3360</v>
       </c>
       <c r="E1162" s="3" t="s">
         <v>1038</v>
@@ -35471,10 +35524,10 @@
         <v>1864</v>
       </c>
       <c r="B1163" s="3" t="s">
-        <v>3206</v>
+        <v>3205</v>
       </c>
       <c r="D1163" s="4" t="s">
-        <v>3362</v>
+        <v>3361</v>
       </c>
       <c r="E1163" s="3" t="s">
         <v>1038</v>
@@ -35485,10 +35538,10 @@
         <v>1864</v>
       </c>
       <c r="B1164" s="3" t="s">
-        <v>3207</v>
+        <v>3206</v>
       </c>
       <c r="D1164" s="4" t="s">
-        <v>3363</v>
+        <v>3362</v>
       </c>
       <c r="E1164" s="3" t="s">
         <v>1038</v>
@@ -35499,10 +35552,10 @@
         <v>1864</v>
       </c>
       <c r="B1165" s="3" t="s">
-        <v>3208</v>
+        <v>3207</v>
       </c>
       <c r="D1165" s="4" t="s">
-        <v>3364</v>
+        <v>3363</v>
       </c>
       <c r="E1165" s="3" t="s">
         <v>1038</v>
@@ -35513,10 +35566,10 @@
         <v>1864</v>
       </c>
       <c r="B1166" s="3" t="s">
-        <v>3209</v>
+        <v>3208</v>
       </c>
       <c r="D1166" s="4" t="s">
-        <v>3365</v>
+        <v>3364</v>
       </c>
       <c r="E1166" s="3" t="s">
         <v>1038</v>
@@ -35527,10 +35580,10 @@
         <v>1864</v>
       </c>
       <c r="B1167" s="3" t="s">
-        <v>3210</v>
+        <v>3209</v>
       </c>
       <c r="D1167" s="4" t="s">
-        <v>3366</v>
+        <v>3365</v>
       </c>
       <c r="E1167" s="3" t="s">
         <v>1038</v>
@@ -35541,10 +35594,10 @@
         <v>1864</v>
       </c>
       <c r="B1168" s="3" t="s">
-        <v>3211</v>
+        <v>3210</v>
       </c>
       <c r="D1168" s="4" t="s">
-        <v>3367</v>
+        <v>3366</v>
       </c>
       <c r="E1168" s="3" t="s">
         <v>1038</v>
@@ -35555,10 +35608,10 @@
         <v>1864</v>
       </c>
       <c r="B1169" s="3" t="s">
-        <v>3212</v>
+        <v>3211</v>
       </c>
       <c r="D1169" s="4" t="s">
-        <v>3368</v>
+        <v>3367</v>
       </c>
       <c r="E1169" s="3" t="s">
         <v>1038</v>
@@ -35569,10 +35622,10 @@
         <v>1864</v>
       </c>
       <c r="B1170" s="3" t="s">
-        <v>3213</v>
+        <v>3212</v>
       </c>
       <c r="D1170" s="4" t="s">
-        <v>3369</v>
+        <v>3368</v>
       </c>
       <c r="E1170" s="3" t="s">
         <v>1038</v>
@@ -35583,10 +35636,10 @@
         <v>1864</v>
       </c>
       <c r="B1171" s="3" t="s">
-        <v>3214</v>
+        <v>3213</v>
       </c>
       <c r="D1171" s="4" t="s">
-        <v>3370</v>
+        <v>3369</v>
       </c>
       <c r="E1171" s="3" t="s">
         <v>1038</v>
@@ -35597,10 +35650,10 @@
         <v>1864</v>
       </c>
       <c r="B1172" s="3" t="s">
-        <v>3215</v>
+        <v>3214</v>
       </c>
       <c r="D1172" s="4" t="s">
-        <v>3371</v>
+        <v>3370</v>
       </c>
       <c r="E1172" s="3" t="s">
         <v>1038</v>
@@ -35611,7 +35664,7 @@
         <v>1864</v>
       </c>
       <c r="B1173" s="3" t="s">
-        <v>3216</v>
+        <v>3215</v>
       </c>
       <c r="D1173" s="4" t="s">
         <v>1074</v>
@@ -35625,10 +35678,10 @@
         <v>1864</v>
       </c>
       <c r="B1174" s="3" t="s">
-        <v>3217</v>
+        <v>3216</v>
       </c>
       <c r="D1174" s="4" t="s">
-        <v>3372</v>
+        <v>3371</v>
       </c>
       <c r="E1174" t="s">
         <v>2009</v>
@@ -35639,10 +35692,10 @@
         <v>1864</v>
       </c>
       <c r="B1175" s="3" t="s">
-        <v>3218</v>
+        <v>3217</v>
       </c>
       <c r="D1175" s="4" t="s">
-        <v>3373</v>
+        <v>3372</v>
       </c>
       <c r="E1175" s="3" t="s">
         <v>1038</v>
@@ -35653,10 +35706,10 @@
         <v>1864</v>
       </c>
       <c r="B1176" s="3" t="s">
-        <v>3219</v>
+        <v>3218</v>
       </c>
       <c r="D1176" s="4" t="s">
-        <v>3374</v>
+        <v>3373</v>
       </c>
       <c r="E1176" s="3" t="s">
         <v>1038</v>
@@ -35667,10 +35720,10 @@
         <v>1864</v>
       </c>
       <c r="B1177" s="3" t="s">
-        <v>3220</v>
+        <v>3219</v>
       </c>
       <c r="D1177" s="4" t="s">
-        <v>3375</v>
+        <v>3374</v>
       </c>
       <c r="E1177" s="3" t="s">
         <v>1038</v>
@@ -35681,7 +35734,7 @@
         <v>1864</v>
       </c>
       <c r="B1178" s="3" t="s">
-        <v>3221</v>
+        <v>3220</v>
       </c>
       <c r="D1178" s="4" t="s">
         <v>1074</v>
@@ -35695,10 +35748,10 @@
         <v>1864</v>
       </c>
       <c r="B1179" s="3" t="s">
-        <v>3222</v>
+        <v>3221</v>
       </c>
       <c r="D1179" s="4" t="s">
-        <v>3376</v>
+        <v>3375</v>
       </c>
       <c r="E1179" s="3" t="s">
         <v>1038</v>
@@ -35709,10 +35762,10 @@
         <v>1864</v>
       </c>
       <c r="B1180" s="3" t="s">
-        <v>3223</v>
+        <v>3222</v>
       </c>
       <c r="D1180" s="4" t="s">
-        <v>3377</v>
+        <v>3376</v>
       </c>
       <c r="E1180" t="s">
         <v>2009</v>
@@ -35723,10 +35776,10 @@
         <v>1868</v>
       </c>
       <c r="B1181" s="3" t="s">
-        <v>3224</v>
+        <v>3223</v>
       </c>
       <c r="D1181" s="4" t="s">
-        <v>3378</v>
+        <v>3377</v>
       </c>
       <c r="E1181" s="3" t="s">
         <v>2009</v>
@@ -35737,10 +35790,10 @@
         <v>1868</v>
       </c>
       <c r="B1182" s="3" t="s">
-        <v>3225</v>
+        <v>3224</v>
       </c>
       <c r="D1182" s="4" t="s">
-        <v>3379</v>
+        <v>3378</v>
       </c>
       <c r="E1182" s="3" t="s">
         <v>2009</v>
@@ -35751,10 +35804,10 @@
         <v>1868</v>
       </c>
       <c r="B1183" s="3" t="s">
-        <v>3226</v>
+        <v>3225</v>
       </c>
       <c r="D1183" s="4" t="s">
-        <v>3380</v>
+        <v>3379</v>
       </c>
       <c r="E1183" s="3" t="s">
         <v>2009</v>
@@ -35765,10 +35818,10 @@
         <v>1868</v>
       </c>
       <c r="B1184" s="3" t="s">
-        <v>3227</v>
+        <v>3226</v>
       </c>
       <c r="D1184" s="4" t="s">
-        <v>3381</v>
+        <v>3380</v>
       </c>
       <c r="E1184" s="3" t="s">
         <v>1037</v>
@@ -35779,10 +35832,10 @@
         <v>1868</v>
       </c>
       <c r="B1185" s="3" t="s">
-        <v>3228</v>
+        <v>3227</v>
       </c>
       <c r="D1185" s="4" t="s">
-        <v>3382</v>
+        <v>3381</v>
       </c>
       <c r="E1185" s="3" t="s">
         <v>1037</v>
@@ -35793,10 +35846,10 @@
         <v>1868</v>
       </c>
       <c r="B1186" s="3" t="s">
-        <v>3229</v>
+        <v>3228</v>
       </c>
       <c r="D1186" s="4" t="s">
-        <v>3383</v>
+        <v>3382</v>
       </c>
       <c r="E1186" s="3" t="s">
         <v>1037</v>
@@ -35807,10 +35860,10 @@
         <v>1868</v>
       </c>
       <c r="B1187" s="3" t="s">
-        <v>3230</v>
+        <v>3229</v>
       </c>
       <c r="D1187" s="4" t="s">
-        <v>3384</v>
+        <v>3383</v>
       </c>
       <c r="E1187" s="3" t="s">
         <v>1037</v>
@@ -35821,10 +35874,10 @@
         <v>1868</v>
       </c>
       <c r="B1188" s="3" t="s">
-        <v>3231</v>
+        <v>3230</v>
       </c>
       <c r="D1188" s="4" t="s">
-        <v>3385</v>
+        <v>3384</v>
       </c>
       <c r="E1188" s="3" t="s">
         <v>1037</v>
@@ -35835,10 +35888,10 @@
         <v>1868</v>
       </c>
       <c r="B1189" s="3" t="s">
-        <v>3232</v>
+        <v>3231</v>
       </c>
       <c r="D1189" s="4" t="s">
-        <v>3386</v>
+        <v>3385</v>
       </c>
       <c r="E1189" s="3" t="s">
         <v>1037</v>
@@ -35849,10 +35902,10 @@
         <v>1868</v>
       </c>
       <c r="B1190" s="3" t="s">
-        <v>3233</v>
+        <v>3232</v>
       </c>
       <c r="D1190" s="4" t="s">
-        <v>3387</v>
+        <v>3386</v>
       </c>
       <c r="E1190" s="3" t="s">
         <v>1037</v>
@@ -35863,10 +35916,10 @@
         <v>1868</v>
       </c>
       <c r="B1191" s="3" t="s">
-        <v>3234</v>
+        <v>3233</v>
       </c>
       <c r="D1191" s="4" t="s">
-        <v>3388</v>
+        <v>3387</v>
       </c>
       <c r="E1191" s="3" t="s">
         <v>1037</v>
@@ -35877,10 +35930,10 @@
         <v>1868</v>
       </c>
       <c r="B1192" s="3" t="s">
-        <v>3235</v>
+        <v>3234</v>
       </c>
       <c r="D1192" s="4" t="s">
-        <v>3389</v>
+        <v>3388</v>
       </c>
       <c r="E1192" s="3" t="s">
         <v>1037</v>
@@ -35891,10 +35944,10 @@
         <v>1868</v>
       </c>
       <c r="B1193" s="3" t="s">
-        <v>3236</v>
+        <v>3235</v>
       </c>
       <c r="D1193" s="4" t="s">
-        <v>3390</v>
+        <v>3389</v>
       </c>
       <c r="E1193" s="3" t="s">
         <v>2009</v>
@@ -35905,10 +35958,10 @@
         <v>1868</v>
       </c>
       <c r="B1194" s="3" t="s">
-        <v>3237</v>
+        <v>3236</v>
       </c>
       <c r="D1194" s="4" t="s">
-        <v>3391</v>
+        <v>3390</v>
       </c>
       <c r="E1194" s="3" t="s">
         <v>1037</v>
@@ -35919,10 +35972,10 @@
         <v>1868</v>
       </c>
       <c r="B1195" s="3" t="s">
-        <v>3238</v>
+        <v>3237</v>
       </c>
       <c r="D1195" s="4" t="s">
-        <v>3392</v>
+        <v>3391</v>
       </c>
       <c r="E1195" s="3" t="s">
         <v>1037</v>
@@ -35933,10 +35986,10 @@
         <v>1868</v>
       </c>
       <c r="B1196" s="3" t="s">
-        <v>3239</v>
+        <v>3238</v>
       </c>
       <c r="D1196" s="4" t="s">
-        <v>3393</v>
+        <v>3392</v>
       </c>
       <c r="E1196" s="3" t="s">
         <v>1037</v>
@@ -35947,10 +36000,10 @@
         <v>1868</v>
       </c>
       <c r="B1197" s="3" t="s">
-        <v>3240</v>
+        <v>3239</v>
       </c>
       <c r="D1197" s="4" t="s">
-        <v>3394</v>
+        <v>3393</v>
       </c>
       <c r="E1197" s="3" t="s">
         <v>1037</v>
@@ -35961,10 +36014,10 @@
         <v>1868</v>
       </c>
       <c r="B1198" s="3" t="s">
-        <v>3241</v>
+        <v>3240</v>
       </c>
       <c r="D1198" s="4" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="E1198" s="3" t="s">
         <v>1037</v>
@@ -35975,10 +36028,10 @@
         <v>1868</v>
       </c>
       <c r="B1199" s="3" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
       <c r="D1199" s="4" t="s">
-        <v>3396</v>
+        <v>3395</v>
       </c>
       <c r="E1199" s="3" t="s">
         <v>1037</v>
@@ -35989,10 +36042,10 @@
         <v>1868</v>
       </c>
       <c r="B1200" s="3" t="s">
-        <v>3243</v>
+        <v>3242</v>
       </c>
       <c r="D1200" s="4" t="s">
-        <v>3397</v>
+        <v>3396</v>
       </c>
       <c r="E1200" s="3" t="s">
         <v>1037</v>
@@ -36003,10 +36056,10 @@
         <v>1868</v>
       </c>
       <c r="B1201" s="3" t="s">
-        <v>3244</v>
+        <v>3243</v>
       </c>
       <c r="D1201" s="4" t="s">
-        <v>3398</v>
+        <v>3397</v>
       </c>
       <c r="E1201" s="3" t="s">
         <v>1037</v>
@@ -36017,10 +36070,10 @@
         <v>1868</v>
       </c>
       <c r="B1202" s="3" t="s">
-        <v>3245</v>
+        <v>3244</v>
       </c>
       <c r="D1202" s="4" t="s">
-        <v>3399</v>
+        <v>3398</v>
       </c>
       <c r="E1202" s="3" t="s">
         <v>1037</v>
@@ -36031,10 +36084,10 @@
         <v>1868</v>
       </c>
       <c r="B1203" s="3" t="s">
-        <v>3246</v>
+        <v>3245</v>
       </c>
       <c r="D1203" s="4" t="s">
-        <v>3400</v>
+        <v>3399</v>
       </c>
       <c r="E1203" s="3" t="s">
         <v>1037</v>
@@ -36045,7 +36098,7 @@
         <v>1868</v>
       </c>
       <c r="B1204" s="3" t="s">
-        <v>3247</v>
+        <v>3246</v>
       </c>
       <c r="D1204" s="4" t="s">
         <v>1074</v>
@@ -36059,10 +36112,10 @@
         <v>1868</v>
       </c>
       <c r="B1205" s="3" t="s">
-        <v>3248</v>
+        <v>3247</v>
       </c>
       <c r="D1205" s="4" t="s">
-        <v>3401</v>
+        <v>3400</v>
       </c>
       <c r="E1205" s="3" t="s">
         <v>2009</v>
@@ -36073,10 +36126,10 @@
         <v>1868</v>
       </c>
       <c r="B1206" s="3" t="s">
-        <v>3249</v>
+        <v>3248</v>
       </c>
       <c r="D1206" s="4" t="s">
-        <v>3402</v>
+        <v>3401</v>
       </c>
       <c r="E1206" s="3" t="s">
         <v>2009</v>
@@ -36087,10 +36140,10 @@
         <v>1868</v>
       </c>
       <c r="B1207" s="3" t="s">
-        <v>3250</v>
+        <v>3249</v>
       </c>
       <c r="D1207" s="4" t="s">
-        <v>3403</v>
+        <v>3402</v>
       </c>
       <c r="E1207" s="3" t="s">
         <v>2009</v>
@@ -36101,10 +36154,10 @@
         <v>1868</v>
       </c>
       <c r="B1208" s="3" t="s">
-        <v>3251</v>
+        <v>3250</v>
       </c>
       <c r="D1208" s="4" t="s">
-        <v>3404</v>
+        <v>3403</v>
       </c>
       <c r="E1208" s="3" t="s">
         <v>2009</v>
@@ -36115,16 +36168,17 @@
         <v>1868</v>
       </c>
       <c r="B1209" s="3" t="s">
-        <v>3252</v>
+        <v>3251</v>
       </c>
       <c r="D1209" s="4" t="s">
-        <v>3405</v>
+        <v>3404</v>
       </c>
       <c r="E1209" s="3" t="s">
         <v>2009</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:K1209" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -36132,17 +36186,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E860"/>
+  <dimension ref="A1:E910"/>
   <sheetViews>
-    <sheetView topLeftCell="A846" workbookViewId="0">
-      <selection activeCell="A861" sqref="A861"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A908" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A911" sqref="A911"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="125.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.5703125" customWidth="1"/>
     <col min="4" max="4" width="102.28515625" style="9" customWidth="1"/>
     <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -45714,6 +45769,586 @@
         <v>2056</v>
       </c>
     </row>
+    <row r="861" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A861" t="s">
+        <v>1881</v>
+      </c>
+      <c r="B861" s="3" t="s">
+        <v>2112</v>
+      </c>
+      <c r="C861" t="s">
+        <v>3406</v>
+      </c>
+      <c r="D861" s="3" t="s">
+        <v>3405</v>
+      </c>
+    </row>
+    <row r="862" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A862" t="s">
+        <v>1881</v>
+      </c>
+      <c r="B862" s="3" t="s">
+        <v>2112</v>
+      </c>
+      <c r="C862" t="s">
+        <v>3407</v>
+      </c>
+    </row>
+    <row r="863" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A863" t="s">
+        <v>1881</v>
+      </c>
+      <c r="B863" s="3" t="s">
+        <v>2112</v>
+      </c>
+      <c r="C863" t="s">
+        <v>3408</v>
+      </c>
+    </row>
+    <row r="864" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A864" t="s">
+        <v>1881</v>
+      </c>
+      <c r="B864" s="3" t="s">
+        <v>2112</v>
+      </c>
+      <c r="C864" t="s">
+        <v>3409</v>
+      </c>
+    </row>
+    <row r="865" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A865" t="s">
+        <v>1881</v>
+      </c>
+      <c r="B865" s="3" t="s">
+        <v>2112</v>
+      </c>
+      <c r="C865" t="s">
+        <v>3410</v>
+      </c>
+    </row>
+    <row r="866" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A866" t="s">
+        <v>1881</v>
+      </c>
+      <c r="B866" s="3" t="s">
+        <v>2113</v>
+      </c>
+      <c r="C866" t="s">
+        <v>3412</v>
+      </c>
+      <c r="D866" s="3" t="s">
+        <v>3411</v>
+      </c>
+    </row>
+    <row r="867" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A867" t="s">
+        <v>1881</v>
+      </c>
+      <c r="B867" s="3" t="s">
+        <v>2113</v>
+      </c>
+      <c r="C867" t="s">
+        <v>3413</v>
+      </c>
+    </row>
+    <row r="868" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A868" t="s">
+        <v>1881</v>
+      </c>
+      <c r="B868" s="3" t="s">
+        <v>2113</v>
+      </c>
+      <c r="C868" t="s">
+        <v>3414</v>
+      </c>
+    </row>
+    <row r="869" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A869" t="s">
+        <v>1881</v>
+      </c>
+      <c r="B869" s="3" t="s">
+        <v>2113</v>
+      </c>
+      <c r="C869" t="s">
+        <v>3415</v>
+      </c>
+    </row>
+    <row r="870" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A870" t="s">
+        <v>1881</v>
+      </c>
+      <c r="B870" s="3" t="s">
+        <v>2113</v>
+      </c>
+      <c r="C870" t="s">
+        <v>3416</v>
+      </c>
+    </row>
+    <row r="871" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A871" t="s">
+        <v>1881</v>
+      </c>
+      <c r="B871" s="3" t="s">
+        <v>2114</v>
+      </c>
+      <c r="C871" t="s">
+        <v>3406</v>
+      </c>
+      <c r="D871" s="3" t="s">
+        <v>3417</v>
+      </c>
+    </row>
+    <row r="872" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A872" t="s">
+        <v>1881</v>
+      </c>
+      <c r="B872" s="3" t="s">
+        <v>2114</v>
+      </c>
+      <c r="C872" t="s">
+        <v>3407</v>
+      </c>
+    </row>
+    <row r="873" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A873" t="s">
+        <v>1881</v>
+      </c>
+      <c r="B873" s="3" t="s">
+        <v>2114</v>
+      </c>
+      <c r="C873" t="s">
+        <v>3408</v>
+      </c>
+    </row>
+    <row r="874" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A874" t="s">
+        <v>1881</v>
+      </c>
+      <c r="B874" s="3" t="s">
+        <v>2114</v>
+      </c>
+      <c r="C874" t="s">
+        <v>3409</v>
+      </c>
+    </row>
+    <row r="875" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A875" t="s">
+        <v>1881</v>
+      </c>
+      <c r="B875" s="3" t="s">
+        <v>2114</v>
+      </c>
+      <c r="C875" t="s">
+        <v>3410</v>
+      </c>
+    </row>
+    <row r="876" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A876" t="s">
+        <v>1881</v>
+      </c>
+      <c r="B876" s="3" t="s">
+        <v>2115</v>
+      </c>
+      <c r="C876" t="s">
+        <v>3406</v>
+      </c>
+      <c r="D876" s="3" t="s">
+        <v>3417</v>
+      </c>
+    </row>
+    <row r="877" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A877" t="s">
+        <v>1881</v>
+      </c>
+      <c r="B877" s="3" t="s">
+        <v>2115</v>
+      </c>
+      <c r="C877" t="s">
+        <v>3407</v>
+      </c>
+    </row>
+    <row r="878" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A878" t="s">
+        <v>1881</v>
+      </c>
+      <c r="B878" s="3" t="s">
+        <v>2115</v>
+      </c>
+      <c r="C878" t="s">
+        <v>3408</v>
+      </c>
+    </row>
+    <row r="879" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A879" t="s">
+        <v>1881</v>
+      </c>
+      <c r="B879" s="3" t="s">
+        <v>2115</v>
+      </c>
+      <c r="C879" t="s">
+        <v>3409</v>
+      </c>
+    </row>
+    <row r="880" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A880" t="s">
+        <v>1881</v>
+      </c>
+      <c r="B880" s="3" t="s">
+        <v>2115</v>
+      </c>
+      <c r="C880" t="s">
+        <v>3410</v>
+      </c>
+    </row>
+    <row r="881" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A881" t="s">
+        <v>1881</v>
+      </c>
+      <c r="B881" s="3" t="s">
+        <v>2116</v>
+      </c>
+      <c r="C881" t="s">
+        <v>3406</v>
+      </c>
+      <c r="D881" s="3" t="s">
+        <v>3417</v>
+      </c>
+    </row>
+    <row r="882" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A882" t="s">
+        <v>1881</v>
+      </c>
+      <c r="B882" s="3" t="s">
+        <v>2116</v>
+      </c>
+      <c r="C882" t="s">
+        <v>3407</v>
+      </c>
+    </row>
+    <row r="883" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A883" t="s">
+        <v>1881</v>
+      </c>
+      <c r="B883" s="3" t="s">
+        <v>2116</v>
+      </c>
+      <c r="C883" t="s">
+        <v>3408</v>
+      </c>
+    </row>
+    <row r="884" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A884" t="s">
+        <v>1881</v>
+      </c>
+      <c r="B884" s="3" t="s">
+        <v>2116</v>
+      </c>
+      <c r="C884" t="s">
+        <v>3409</v>
+      </c>
+    </row>
+    <row r="885" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A885" t="s">
+        <v>1881</v>
+      </c>
+      <c r="B885" s="3" t="s">
+        <v>2116</v>
+      </c>
+      <c r="C885" t="s">
+        <v>3410</v>
+      </c>
+    </row>
+    <row r="886" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A886" t="s">
+        <v>1881</v>
+      </c>
+      <c r="B886" s="3" t="s">
+        <v>2117</v>
+      </c>
+      <c r="C886" t="s">
+        <v>3406</v>
+      </c>
+      <c r="D886" s="3" t="s">
+        <v>3417</v>
+      </c>
+    </row>
+    <row r="887" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A887" t="s">
+        <v>1881</v>
+      </c>
+      <c r="B887" s="3" t="s">
+        <v>2117</v>
+      </c>
+      <c r="C887" t="s">
+        <v>3407</v>
+      </c>
+    </row>
+    <row r="888" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A888" t="s">
+        <v>1881</v>
+      </c>
+      <c r="B888" s="3" t="s">
+        <v>2117</v>
+      </c>
+      <c r="C888" t="s">
+        <v>3408</v>
+      </c>
+    </row>
+    <row r="889" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A889" t="s">
+        <v>1881</v>
+      </c>
+      <c r="B889" s="3" t="s">
+        <v>2117</v>
+      </c>
+      <c r="C889" t="s">
+        <v>3409</v>
+      </c>
+    </row>
+    <row r="890" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A890" t="s">
+        <v>1881</v>
+      </c>
+      <c r="B890" s="3" t="s">
+        <v>2117</v>
+      </c>
+      <c r="C890" t="s">
+        <v>3410</v>
+      </c>
+    </row>
+    <row r="891" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A891" t="s">
+        <v>1882</v>
+      </c>
+      <c r="B891" s="3" t="s">
+        <v>3418</v>
+      </c>
+      <c r="C891" t="s">
+        <v>3406</v>
+      </c>
+      <c r="D891" s="3" t="s">
+        <v>3417</v>
+      </c>
+    </row>
+    <row r="892" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A892" t="s">
+        <v>1882</v>
+      </c>
+      <c r="B892" s="3" t="s">
+        <v>3418</v>
+      </c>
+      <c r="C892" t="s">
+        <v>3407</v>
+      </c>
+    </row>
+    <row r="893" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A893" t="s">
+        <v>1882</v>
+      </c>
+      <c r="B893" s="3" t="s">
+        <v>3418</v>
+      </c>
+      <c r="C893" t="s">
+        <v>3408</v>
+      </c>
+    </row>
+    <row r="894" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A894" t="s">
+        <v>1882</v>
+      </c>
+      <c r="B894" s="3" t="s">
+        <v>3418</v>
+      </c>
+      <c r="C894" t="s">
+        <v>3409</v>
+      </c>
+    </row>
+    <row r="895" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A895" t="s">
+        <v>1882</v>
+      </c>
+      <c r="B895" s="3" t="s">
+        <v>3418</v>
+      </c>
+      <c r="C895" t="s">
+        <v>3410</v>
+      </c>
+    </row>
+    <row r="896" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A896" t="s">
+        <v>1882</v>
+      </c>
+      <c r="B896" s="3" t="s">
+        <v>3419</v>
+      </c>
+      <c r="C896" t="s">
+        <v>3406</v>
+      </c>
+      <c r="D896" s="3" t="s">
+        <v>3417</v>
+      </c>
+    </row>
+    <row r="897" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A897" t="s">
+        <v>1882</v>
+      </c>
+      <c r="B897" s="3" t="s">
+        <v>3419</v>
+      </c>
+      <c r="C897" t="s">
+        <v>3407</v>
+      </c>
+    </row>
+    <row r="898" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A898" t="s">
+        <v>1882</v>
+      </c>
+      <c r="B898" s="3" t="s">
+        <v>3419</v>
+      </c>
+      <c r="C898" t="s">
+        <v>3408</v>
+      </c>
+    </row>
+    <row r="899" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A899" t="s">
+        <v>1882</v>
+      </c>
+      <c r="B899" s="3" t="s">
+        <v>3419</v>
+      </c>
+      <c r="C899" t="s">
+        <v>3409</v>
+      </c>
+    </row>
+    <row r="900" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A900" t="s">
+        <v>1882</v>
+      </c>
+      <c r="B900" s="3" t="s">
+        <v>3419</v>
+      </c>
+      <c r="C900" t="s">
+        <v>3410</v>
+      </c>
+    </row>
+    <row r="901" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A901" t="s">
+        <v>1882</v>
+      </c>
+      <c r="B901" s="3" t="s">
+        <v>3420</v>
+      </c>
+      <c r="C901" t="s">
+        <v>3406</v>
+      </c>
+      <c r="D901" s="3" t="s">
+        <v>3417</v>
+      </c>
+    </row>
+    <row r="902" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A902" t="s">
+        <v>1882</v>
+      </c>
+      <c r="B902" s="3" t="s">
+        <v>3420</v>
+      </c>
+      <c r="C902" t="s">
+        <v>3407</v>
+      </c>
+    </row>
+    <row r="903" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A903" t="s">
+        <v>1882</v>
+      </c>
+      <c r="B903" s="3" t="s">
+        <v>3420</v>
+      </c>
+      <c r="C903" t="s">
+        <v>3408</v>
+      </c>
+    </row>
+    <row r="904" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A904" t="s">
+        <v>1882</v>
+      </c>
+      <c r="B904" s="3" t="s">
+        <v>3420</v>
+      </c>
+      <c r="C904" t="s">
+        <v>3409</v>
+      </c>
+    </row>
+    <row r="905" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A905" t="s">
+        <v>1882</v>
+      </c>
+      <c r="B905" s="3" t="s">
+        <v>3420</v>
+      </c>
+      <c r="C905" t="s">
+        <v>3410</v>
+      </c>
+    </row>
+    <row r="906" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A906" t="s">
+        <v>1882</v>
+      </c>
+      <c r="B906" s="3" t="s">
+        <v>3421</v>
+      </c>
+      <c r="C906" t="s">
+        <v>3406</v>
+      </c>
+      <c r="D906" s="3" t="s">
+        <v>3417</v>
+      </c>
+    </row>
+    <row r="907" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A907" t="s">
+        <v>1882</v>
+      </c>
+      <c r="B907" s="3" t="s">
+        <v>3421</v>
+      </c>
+      <c r="C907" t="s">
+        <v>3407</v>
+      </c>
+    </row>
+    <row r="908" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A908" t="s">
+        <v>1882</v>
+      </c>
+      <c r="B908" s="3" t="s">
+        <v>3421</v>
+      </c>
+      <c r="C908" t="s">
+        <v>3408</v>
+      </c>
+    </row>
+    <row r="909" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A909" t="s">
+        <v>1882</v>
+      </c>
+      <c r="B909" s="3" t="s">
+        <v>3421</v>
+      </c>
+      <c r="C909" t="s">
+        <v>3409</v>
+      </c>
+    </row>
+    <row r="910" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A910" t="s">
+        <v>1882</v>
+      </c>
+      <c r="B910" s="3" t="s">
+        <v>3421</v>
+      </c>
+      <c r="C910" t="s">
+        <v>3410</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/gdcdictionary/xlsx/nodes_schema_impowr.xlsx
+++ b/gdcdictionary/xlsx/nodes_schema_impowr.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vithal\Documents\GitHub\dcfdictionary\gdcdictionary\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88DA424C-BE51-4304-8A71-76DC0EBBF376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C2C189-D451-4E46-8948-28EB81267B74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="6240" windowWidth="23895" windowHeight="7980" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2775" yWindow="6570" windowWidth="24075" windowHeight="8445" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nodes_impowr" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10204" uniqueCount="3423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10300" uniqueCount="3433">
   <si>
     <t>&lt;$schema&gt;</t>
   </si>
@@ -10336,6 +10336,36 @@
   </si>
   <si>
     <t>promisfat4atotalscore</t>
+  </si>
+  <si>
+    <t>5, Without any difficulty | 4, With a little difficulty | 3, With some difficulty | 2, With much difficulty | 1, Unable to do</t>
+  </si>
+  <si>
+    <t>Unable to do</t>
+  </si>
+  <si>
+    <t>With much difficulty</t>
+  </si>
+  <si>
+    <t>With some difficulty</t>
+  </si>
+  <si>
+    <t>With a little difficulty</t>
+  </si>
+  <si>
+    <t>Without any difficulty</t>
+  </si>
+  <si>
+    <t>5, Not at all | 4, Very little | 3, Somewhat | 2, Quite a lot | 1, Cannot do</t>
+  </si>
+  <si>
+    <t>Cannot do</t>
+  </si>
+  <si>
+    <t>Quite a lot</t>
+  </si>
+  <si>
+    <t>Very little</t>
   </si>
 </sst>
 </file>
@@ -19213,8 +19243,8 @@
   <dimension ref="A1:K1209"/>
   <sheetViews>
     <sheetView zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A539" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B549" sqref="B549"/>
+      <pane ySplit="1" topLeftCell="A548" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A555" sqref="A555:B555"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36186,11 +36216,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E910"/>
+  <dimension ref="A1:E940"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A908" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A911" sqref="A911"/>
+      <pane ySplit="1" topLeftCell="A932" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C940" sqref="C940"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36198,7 +36228,7 @@
     <col min="1" max="1" width="32.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="54.5703125" customWidth="1"/>
-    <col min="4" max="4" width="102.28515625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="107.140625" style="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -46349,6 +46379,354 @@
         <v>3410</v>
       </c>
     </row>
+    <row r="911" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A911" t="s">
+        <v>1883</v>
+      </c>
+      <c r="B911" s="3" t="s">
+        <v>2134</v>
+      </c>
+      <c r="C911" t="s">
+        <v>3424</v>
+      </c>
+      <c r="D911" s="3" t="s">
+        <v>3423</v>
+      </c>
+    </row>
+    <row r="912" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A912" t="s">
+        <v>1883</v>
+      </c>
+      <c r="B912" s="3" t="s">
+        <v>2134</v>
+      </c>
+      <c r="C912" t="s">
+        <v>3425</v>
+      </c>
+    </row>
+    <row r="913" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A913" t="s">
+        <v>1883</v>
+      </c>
+      <c r="B913" s="3" t="s">
+        <v>2134</v>
+      </c>
+      <c r="C913" t="s">
+        <v>3426</v>
+      </c>
+    </row>
+    <row r="914" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A914" t="s">
+        <v>1883</v>
+      </c>
+      <c r="B914" s="3" t="s">
+        <v>2134</v>
+      </c>
+      <c r="C914" t="s">
+        <v>3427</v>
+      </c>
+    </row>
+    <row r="915" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A915" t="s">
+        <v>1883</v>
+      </c>
+      <c r="B915" s="3" t="s">
+        <v>2134</v>
+      </c>
+      <c r="C915" t="s">
+        <v>3428</v>
+      </c>
+    </row>
+    <row r="916" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A916" t="s">
+        <v>1883</v>
+      </c>
+      <c r="B916" s="3" t="s">
+        <v>2135</v>
+      </c>
+      <c r="C916" t="s">
+        <v>3424</v>
+      </c>
+      <c r="D916" s="3" t="s">
+        <v>3423</v>
+      </c>
+    </row>
+    <row r="917" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A917" t="s">
+        <v>1883</v>
+      </c>
+      <c r="B917" s="3" t="s">
+        <v>2135</v>
+      </c>
+      <c r="C917" t="s">
+        <v>3425</v>
+      </c>
+    </row>
+    <row r="918" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A918" t="s">
+        <v>1883</v>
+      </c>
+      <c r="B918" s="3" t="s">
+        <v>2135</v>
+      </c>
+      <c r="C918" t="s">
+        <v>3426</v>
+      </c>
+    </row>
+    <row r="919" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A919" t="s">
+        <v>1883</v>
+      </c>
+      <c r="B919" s="3" t="s">
+        <v>2135</v>
+      </c>
+      <c r="C919" t="s">
+        <v>3427</v>
+      </c>
+    </row>
+    <row r="920" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A920" t="s">
+        <v>1883</v>
+      </c>
+      <c r="B920" s="3" t="s">
+        <v>2135</v>
+      </c>
+      <c r="C920" t="s">
+        <v>3428</v>
+      </c>
+    </row>
+    <row r="921" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A921" t="s">
+        <v>1883</v>
+      </c>
+      <c r="B921" s="3" t="s">
+        <v>2136</v>
+      </c>
+      <c r="C921" t="s">
+        <v>3424</v>
+      </c>
+      <c r="D921" s="3" t="s">
+        <v>3423</v>
+      </c>
+    </row>
+    <row r="922" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A922" t="s">
+        <v>1883</v>
+      </c>
+      <c r="B922" s="3" t="s">
+        <v>2136</v>
+      </c>
+      <c r="C922" t="s">
+        <v>3425</v>
+      </c>
+    </row>
+    <row r="923" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A923" t="s">
+        <v>1883</v>
+      </c>
+      <c r="B923" s="3" t="s">
+        <v>2136</v>
+      </c>
+      <c r="C923" t="s">
+        <v>3426</v>
+      </c>
+    </row>
+    <row r="924" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A924" t="s">
+        <v>1883</v>
+      </c>
+      <c r="B924" s="3" t="s">
+        <v>2136</v>
+      </c>
+      <c r="C924" t="s">
+        <v>3427</v>
+      </c>
+    </row>
+    <row r="925" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A925" t="s">
+        <v>1883</v>
+      </c>
+      <c r="B925" s="3" t="s">
+        <v>2136</v>
+      </c>
+      <c r="C925" t="s">
+        <v>3428</v>
+      </c>
+    </row>
+    <row r="926" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A926" t="s">
+        <v>1883</v>
+      </c>
+      <c r="B926" s="3" t="s">
+        <v>2137</v>
+      </c>
+      <c r="C926" t="s">
+        <v>3424</v>
+      </c>
+      <c r="D926" s="3" t="s">
+        <v>3423</v>
+      </c>
+    </row>
+    <row r="927" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A927" t="s">
+        <v>1883</v>
+      </c>
+      <c r="B927" s="3" t="s">
+        <v>2137</v>
+      </c>
+      <c r="C927" t="s">
+        <v>3425</v>
+      </c>
+    </row>
+    <row r="928" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A928" t="s">
+        <v>1883</v>
+      </c>
+      <c r="B928" s="3" t="s">
+        <v>2137</v>
+      </c>
+      <c r="C928" t="s">
+        <v>3426</v>
+      </c>
+    </row>
+    <row r="929" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A929" t="s">
+        <v>1883</v>
+      </c>
+      <c r="B929" s="3" t="s">
+        <v>2137</v>
+      </c>
+      <c r="C929" t="s">
+        <v>3427</v>
+      </c>
+    </row>
+    <row r="930" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A930" t="s">
+        <v>1883</v>
+      </c>
+      <c r="B930" s="3" t="s">
+        <v>2137</v>
+      </c>
+      <c r="C930" t="s">
+        <v>3428</v>
+      </c>
+    </row>
+    <row r="931" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A931" t="s">
+        <v>1883</v>
+      </c>
+      <c r="B931" s="3" t="s">
+        <v>2138</v>
+      </c>
+      <c r="C931" t="s">
+        <v>3430</v>
+      </c>
+      <c r="D931" s="3" t="s">
+        <v>3429</v>
+      </c>
+    </row>
+    <row r="932" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A932" t="s">
+        <v>1883</v>
+      </c>
+      <c r="B932" s="3" t="s">
+        <v>2138</v>
+      </c>
+      <c r="C932" t="s">
+        <v>3431</v>
+      </c>
+    </row>
+    <row r="933" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A933" t="s">
+        <v>1883</v>
+      </c>
+      <c r="B933" s="3" t="s">
+        <v>2138</v>
+      </c>
+      <c r="C933" t="s">
+        <v>3408</v>
+      </c>
+    </row>
+    <row r="934" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A934" t="s">
+        <v>1883</v>
+      </c>
+      <c r="B934" s="3" t="s">
+        <v>2138</v>
+      </c>
+      <c r="C934" t="s">
+        <v>3432</v>
+      </c>
+    </row>
+    <row r="935" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A935" t="s">
+        <v>1883</v>
+      </c>
+      <c r="B935" s="3" t="s">
+        <v>2138</v>
+      </c>
+      <c r="C935" t="s">
+        <v>3410</v>
+      </c>
+    </row>
+    <row r="936" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A936" t="s">
+        <v>1883</v>
+      </c>
+      <c r="B936" s="3" t="s">
+        <v>2139</v>
+      </c>
+      <c r="C936" t="s">
+        <v>3430</v>
+      </c>
+      <c r="D936" s="3" t="s">
+        <v>3429</v>
+      </c>
+    </row>
+    <row r="937" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A937" t="s">
+        <v>1883</v>
+      </c>
+      <c r="B937" s="3" t="s">
+        <v>2139</v>
+      </c>
+      <c r="C937" t="s">
+        <v>3431</v>
+      </c>
+    </row>
+    <row r="938" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A938" t="s">
+        <v>1883</v>
+      </c>
+      <c r="B938" s="3" t="s">
+        <v>2139</v>
+      </c>
+      <c r="C938" t="s">
+        <v>3408</v>
+      </c>
+    </row>
+    <row r="939" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A939" t="s">
+        <v>1883</v>
+      </c>
+      <c r="B939" s="3" t="s">
+        <v>2139</v>
+      </c>
+      <c r="C939" t="s">
+        <v>3432</v>
+      </c>
+    </row>
+    <row r="940" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A940" t="s">
+        <v>1883</v>
+      </c>
+      <c r="B940" s="3" t="s">
+        <v>2139</v>
+      </c>
+      <c r="C940" t="s">
+        <v>3410</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/gdcdictionary/xlsx/nodes_schema_impowr.xlsx
+++ b/gdcdictionary/xlsx/nodes_schema_impowr.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vithal\Documents\GitHub\dcfdictionary\gdcdictionary\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C2C189-D451-4E46-8948-28EB81267B74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C14951DC-F293-4008-9115-1EC06EDFFB06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2775" yWindow="6570" windowWidth="24075" windowHeight="8445" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="630" yWindow="6450" windowWidth="26850" windowHeight="8595" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nodes_impowr" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10300" uniqueCount="3433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10455" uniqueCount="3446">
   <si>
     <t>&lt;$schema&gt;</t>
   </si>
@@ -10366,6 +10366,45 @@
   </si>
   <si>
     <t>Very little</t>
+  </si>
+  <si>
+    <t>1, Never | 2, Rarely | 3, Sometimes | 4, Often | 5, Always</t>
+  </si>
+  <si>
+    <t>Never</t>
+  </si>
+  <si>
+    <t>Rarely</t>
+  </si>
+  <si>
+    <t>Sometimes</t>
+  </si>
+  <si>
+    <t>Often</t>
+  </si>
+  <si>
+    <t>Always</t>
+  </si>
+  <si>
+    <t>0, Not at all | 1, Several days | 2, More than half the days | 3, Nearly every day</t>
+  </si>
+  <si>
+    <t>Several days</t>
+  </si>
+  <si>
+    <t>More than half the days</t>
+  </si>
+  <si>
+    <t>Nearly every day</t>
+  </si>
+  <si>
+    <t>0, Not at all sure | 1, Several days | 2, Over half the days | 3, Nearly every day</t>
+  </si>
+  <si>
+    <t>Not at all sure</t>
+  </si>
+  <si>
+    <t>Over half the days</t>
   </si>
 </sst>
 </file>
@@ -19243,8 +19282,8 @@
   <dimension ref="A1:K1209"/>
   <sheetViews>
     <sheetView zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A548" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A555" sqref="A555:B555"/>
+      <pane ySplit="1" topLeftCell="A563" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A569" sqref="A569:B569"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36216,17 +36255,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E940"/>
+  <dimension ref="A1:E988"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A932" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C940" sqref="C940"/>
+      <pane ySplit="1" topLeftCell="A980" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A985" sqref="A985:B988"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30" customWidth="1"/>
     <col min="3" max="3" width="54.5703125" customWidth="1"/>
     <col min="4" max="4" width="107.140625" style="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
@@ -46727,6 +46766,567 @@
         <v>3410</v>
       </c>
     </row>
+    <row r="941" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A941" t="s">
+        <v>1884</v>
+      </c>
+      <c r="B941" s="3" t="s">
+        <v>2147</v>
+      </c>
+      <c r="C941" t="s">
+        <v>3434</v>
+      </c>
+      <c r="D941" s="3" t="s">
+        <v>3433</v>
+      </c>
+    </row>
+    <row r="942" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A942" t="s">
+        <v>1884</v>
+      </c>
+      <c r="B942" s="3" t="s">
+        <v>2147</v>
+      </c>
+      <c r="C942" t="s">
+        <v>3435</v>
+      </c>
+    </row>
+    <row r="943" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A943" t="s">
+        <v>1884</v>
+      </c>
+      <c r="B943" s="3" t="s">
+        <v>2147</v>
+      </c>
+      <c r="C943" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="944" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A944" t="s">
+        <v>1884</v>
+      </c>
+      <c r="B944" s="3" t="s">
+        <v>2147</v>
+      </c>
+      <c r="C944" t="s">
+        <v>3437</v>
+      </c>
+    </row>
+    <row r="945" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A945" t="s">
+        <v>1884</v>
+      </c>
+      <c r="B945" s="3" t="s">
+        <v>2147</v>
+      </c>
+      <c r="C945" t="s">
+        <v>3438</v>
+      </c>
+    </row>
+    <row r="946" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A946" t="s">
+        <v>1884</v>
+      </c>
+      <c r="B946" s="3" t="s">
+        <v>2148</v>
+      </c>
+      <c r="C946" t="s">
+        <v>3434</v>
+      </c>
+      <c r="D946" s="3" t="s">
+        <v>3433</v>
+      </c>
+    </row>
+    <row r="947" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A947" t="s">
+        <v>1884</v>
+      </c>
+      <c r="B947" s="3" t="s">
+        <v>2148</v>
+      </c>
+      <c r="C947" t="s">
+        <v>3435</v>
+      </c>
+    </row>
+    <row r="948" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A948" t="s">
+        <v>1884</v>
+      </c>
+      <c r="B948" s="3" t="s">
+        <v>2148</v>
+      </c>
+      <c r="C948" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="949" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A949" t="s">
+        <v>1884</v>
+      </c>
+      <c r="B949" s="3" t="s">
+        <v>2148</v>
+      </c>
+      <c r="C949" t="s">
+        <v>3437</v>
+      </c>
+    </row>
+    <row r="950" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A950" t="s">
+        <v>1884</v>
+      </c>
+      <c r="B950" s="3" t="s">
+        <v>2148</v>
+      </c>
+      <c r="C950" t="s">
+        <v>3438</v>
+      </c>
+    </row>
+    <row r="951" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A951" t="s">
+        <v>1884</v>
+      </c>
+      <c r="B951" s="3" t="s">
+        <v>2149</v>
+      </c>
+      <c r="C951" t="s">
+        <v>3434</v>
+      </c>
+      <c r="D951" s="3" t="s">
+        <v>3433</v>
+      </c>
+    </row>
+    <row r="952" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A952" t="s">
+        <v>1884</v>
+      </c>
+      <c r="B952" s="3" t="s">
+        <v>2149</v>
+      </c>
+      <c r="C952" t="s">
+        <v>3435</v>
+      </c>
+    </row>
+    <row r="953" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A953" t="s">
+        <v>1884</v>
+      </c>
+      <c r="B953" s="3" t="s">
+        <v>2149</v>
+      </c>
+      <c r="C953" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="954" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A954" t="s">
+        <v>1884</v>
+      </c>
+      <c r="B954" s="3" t="s">
+        <v>2149</v>
+      </c>
+      <c r="C954" t="s">
+        <v>3437</v>
+      </c>
+    </row>
+    <row r="955" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A955" t="s">
+        <v>1884</v>
+      </c>
+      <c r="B955" s="3" t="s">
+        <v>2149</v>
+      </c>
+      <c r="C955" t="s">
+        <v>3438</v>
+      </c>
+    </row>
+    <row r="956" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A956" t="s">
+        <v>1884</v>
+      </c>
+      <c r="B956" s="3" t="s">
+        <v>2150</v>
+      </c>
+      <c r="C956" t="s">
+        <v>3434</v>
+      </c>
+      <c r="D956" s="3" t="s">
+        <v>3433</v>
+      </c>
+    </row>
+    <row r="957" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A957" t="s">
+        <v>1884</v>
+      </c>
+      <c r="B957" s="3" t="s">
+        <v>2150</v>
+      </c>
+      <c r="C957" t="s">
+        <v>3435</v>
+      </c>
+    </row>
+    <row r="958" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A958" t="s">
+        <v>1884</v>
+      </c>
+      <c r="B958" s="3" t="s">
+        <v>2150</v>
+      </c>
+      <c r="C958" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="959" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A959" t="s">
+        <v>1884</v>
+      </c>
+      <c r="B959" s="3" t="s">
+        <v>2150</v>
+      </c>
+      <c r="C959" t="s">
+        <v>3437</v>
+      </c>
+    </row>
+    <row r="960" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A960" t="s">
+        <v>1884</v>
+      </c>
+      <c r="B960" s="3" t="s">
+        <v>2150</v>
+      </c>
+      <c r="C960" t="s">
+        <v>3438</v>
+      </c>
+    </row>
+    <row r="961" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A961" t="s">
+        <v>1885</v>
+      </c>
+      <c r="B961" s="3" t="s">
+        <v>2152</v>
+      </c>
+      <c r="C961" t="s">
+        <v>3410</v>
+      </c>
+      <c r="D961" s="3" t="s">
+        <v>3439</v>
+      </c>
+    </row>
+    <row r="962" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A962" t="s">
+        <v>1885</v>
+      </c>
+      <c r="B962" s="3" t="s">
+        <v>2152</v>
+      </c>
+      <c r="C962" t="s">
+        <v>3440</v>
+      </c>
+    </row>
+    <row r="963" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A963" t="s">
+        <v>1885</v>
+      </c>
+      <c r="B963" s="3" t="s">
+        <v>2152</v>
+      </c>
+      <c r="C963" t="s">
+        <v>3441</v>
+      </c>
+    </row>
+    <row r="964" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A964" t="s">
+        <v>1885</v>
+      </c>
+      <c r="B964" s="3" t="s">
+        <v>2152</v>
+      </c>
+      <c r="C964" t="s">
+        <v>3442</v>
+      </c>
+    </row>
+    <row r="965" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A965" t="s">
+        <v>1885</v>
+      </c>
+      <c r="B965" s="3" t="s">
+        <v>2153</v>
+      </c>
+      <c r="C965" t="s">
+        <v>3410</v>
+      </c>
+      <c r="D965" s="3" t="s">
+        <v>3439</v>
+      </c>
+    </row>
+    <row r="966" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A966" t="s">
+        <v>1885</v>
+      </c>
+      <c r="B966" s="3" t="s">
+        <v>2153</v>
+      </c>
+      <c r="C966" t="s">
+        <v>3440</v>
+      </c>
+    </row>
+    <row r="967" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A967" t="s">
+        <v>1885</v>
+      </c>
+      <c r="B967" s="3" t="s">
+        <v>2153</v>
+      </c>
+      <c r="C967" t="s">
+        <v>3441</v>
+      </c>
+    </row>
+    <row r="968" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A968" t="s">
+        <v>1885</v>
+      </c>
+      <c r="B968" s="3" t="s">
+        <v>2153</v>
+      </c>
+      <c r="C968" t="s">
+        <v>3442</v>
+      </c>
+    </row>
+    <row r="969" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A969" t="s">
+        <v>1886</v>
+      </c>
+      <c r="B969" s="3" t="s">
+        <v>2155</v>
+      </c>
+      <c r="C969" t="s">
+        <v>3444</v>
+      </c>
+      <c r="D969" s="3" t="s">
+        <v>3443</v>
+      </c>
+    </row>
+    <row r="970" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A970" t="s">
+        <v>1886</v>
+      </c>
+      <c r="B970" s="3" t="s">
+        <v>2155</v>
+      </c>
+      <c r="C970" t="s">
+        <v>3440</v>
+      </c>
+    </row>
+    <row r="971" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A971" t="s">
+        <v>1886</v>
+      </c>
+      <c r="B971" s="3" t="s">
+        <v>2155</v>
+      </c>
+      <c r="C971" t="s">
+        <v>3445</v>
+      </c>
+    </row>
+    <row r="972" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A972" t="s">
+        <v>1886</v>
+      </c>
+      <c r="B972" s="3" t="s">
+        <v>2155</v>
+      </c>
+      <c r="C972" t="s">
+        <v>3442</v>
+      </c>
+    </row>
+    <row r="973" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A973" t="s">
+        <v>1886</v>
+      </c>
+      <c r="B973" s="3" t="s">
+        <v>2156</v>
+      </c>
+      <c r="C973" t="s">
+        <v>3444</v>
+      </c>
+      <c r="D973" s="3" t="s">
+        <v>3443</v>
+      </c>
+    </row>
+    <row r="974" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A974" t="s">
+        <v>1886</v>
+      </c>
+      <c r="B974" s="3" t="s">
+        <v>2156</v>
+      </c>
+      <c r="C974" t="s">
+        <v>3440</v>
+      </c>
+    </row>
+    <row r="975" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A975" t="s">
+        <v>1886</v>
+      </c>
+      <c r="B975" s="3" t="s">
+        <v>2156</v>
+      </c>
+      <c r="C975" t="s">
+        <v>3445</v>
+      </c>
+    </row>
+    <row r="976" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A976" t="s">
+        <v>1886</v>
+      </c>
+      <c r="B976" s="3" t="s">
+        <v>2156</v>
+      </c>
+      <c r="C976" t="s">
+        <v>3442</v>
+      </c>
+    </row>
+    <row r="977" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A977" t="s">
+        <v>1886</v>
+      </c>
+      <c r="B977" s="3" t="s">
+        <v>2157</v>
+      </c>
+      <c r="C977" t="s">
+        <v>3444</v>
+      </c>
+      <c r="D977" s="3" t="s">
+        <v>3443</v>
+      </c>
+    </row>
+    <row r="978" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A978" t="s">
+        <v>1886</v>
+      </c>
+      <c r="B978" s="3" t="s">
+        <v>2157</v>
+      </c>
+      <c r="C978" t="s">
+        <v>3440</v>
+      </c>
+    </row>
+    <row r="979" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A979" t="s">
+        <v>1886</v>
+      </c>
+      <c r="B979" s="3" t="s">
+        <v>2157</v>
+      </c>
+      <c r="C979" t="s">
+        <v>3445</v>
+      </c>
+    </row>
+    <row r="980" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A980" t="s">
+        <v>1886</v>
+      </c>
+      <c r="B980" s="3" t="s">
+        <v>2157</v>
+      </c>
+      <c r="C980" t="s">
+        <v>3442</v>
+      </c>
+    </row>
+    <row r="981" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A981" t="s">
+        <v>1886</v>
+      </c>
+      <c r="B981" s="3" t="s">
+        <v>2158</v>
+      </c>
+      <c r="C981" t="s">
+        <v>3444</v>
+      </c>
+      <c r="D981" s="3" t="s">
+        <v>3443</v>
+      </c>
+    </row>
+    <row r="982" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A982" t="s">
+        <v>1886</v>
+      </c>
+      <c r="B982" s="3" t="s">
+        <v>2158</v>
+      </c>
+      <c r="C982" t="s">
+        <v>3440</v>
+      </c>
+    </row>
+    <row r="983" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A983" t="s">
+        <v>1886</v>
+      </c>
+      <c r="B983" s="3" t="s">
+        <v>2158</v>
+      </c>
+      <c r="C983" t="s">
+        <v>3445</v>
+      </c>
+    </row>
+    <row r="984" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A984" t="s">
+        <v>1886</v>
+      </c>
+      <c r="B984" s="3" t="s">
+        <v>2158</v>
+      </c>
+      <c r="C984" t="s">
+        <v>3442</v>
+      </c>
+    </row>
+    <row r="985" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A985" t="s">
+        <v>1886</v>
+      </c>
+      <c r="B985" s="3" t="s">
+        <v>2159</v>
+      </c>
+      <c r="C985" t="s">
+        <v>3444</v>
+      </c>
+      <c r="D985" s="3" t="s">
+        <v>3443</v>
+      </c>
+    </row>
+    <row r="986" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A986" t="s">
+        <v>1886</v>
+      </c>
+      <c r="B986" s="3" t="s">
+        <v>2159</v>
+      </c>
+      <c r="C986" t="s">
+        <v>3440</v>
+      </c>
+    </row>
+    <row r="987" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A987" t="s">
+        <v>1886</v>
+      </c>
+      <c r="B987" s="3" t="s">
+        <v>2159</v>
+      </c>
+      <c r="C987" t="s">
+        <v>3445</v>
+      </c>
+    </row>
+    <row r="988" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A988" t="s">
+        <v>1886</v>
+      </c>
+      <c r="B988" s="3" t="s">
+        <v>2159</v>
+      </c>
+      <c r="C988" t="s">
+        <v>3442</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/gdcdictionary/xlsx/nodes_schema_impowr.xlsx
+++ b/gdcdictionary/xlsx/nodes_schema_impowr.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vithal\Documents\GitHub\dcfdictionary\gdcdictionary\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C14951DC-F293-4008-9115-1EC06EDFFB06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3806CEC-8A70-483E-8687-45FCF000A74A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="6450" windowWidth="26850" windowHeight="8595" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1710" yWindow="6060" windowWidth="21630" windowHeight="9135" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nodes_impowr" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10455" uniqueCount="3446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10636" uniqueCount="3447">
   <si>
     <t>&lt;$schema&gt;</t>
   </si>
@@ -10405,6 +10405,9 @@
   </si>
   <si>
     <t>Over half the days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not at all </t>
   </si>
 </sst>
 </file>
@@ -19282,8 +19285,8 @@
   <dimension ref="A1:K1209"/>
   <sheetViews>
     <sheetView zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A563" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A569" sqref="A569:B569"/>
+      <pane ySplit="1" topLeftCell="A578" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A584" sqref="A584:B584"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36255,11 +36258,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E988"/>
+  <dimension ref="A1:E1044"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A980" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A985" sqref="A985:B988"/>
+      <pane ySplit="1" topLeftCell="A1037" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1043" sqref="C1043"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47327,6 +47330,661 @@
         <v>3442</v>
       </c>
     </row>
+    <row r="989" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A989" t="s">
+        <v>1887</v>
+      </c>
+      <c r="B989" s="3" t="s">
+        <v>2173</v>
+      </c>
+      <c r="C989" t="s">
+        <v>3434</v>
+      </c>
+      <c r="D989" s="3" t="s">
+        <v>3433</v>
+      </c>
+    </row>
+    <row r="990" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A990" t="s">
+        <v>1887</v>
+      </c>
+      <c r="B990" s="3" t="s">
+        <v>2173</v>
+      </c>
+      <c r="C990" t="s">
+        <v>3435</v>
+      </c>
+    </row>
+    <row r="991" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A991" t="s">
+        <v>1887</v>
+      </c>
+      <c r="B991" s="3" t="s">
+        <v>2173</v>
+      </c>
+      <c r="C991" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="992" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A992" t="s">
+        <v>1887</v>
+      </c>
+      <c r="B992" s="3" t="s">
+        <v>2173</v>
+      </c>
+      <c r="C992" t="s">
+        <v>3437</v>
+      </c>
+    </row>
+    <row r="993" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A993" t="s">
+        <v>1887</v>
+      </c>
+      <c r="B993" s="3" t="s">
+        <v>2173</v>
+      </c>
+      <c r="C993" t="s">
+        <v>3438</v>
+      </c>
+    </row>
+    <row r="994" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A994" t="s">
+        <v>1887</v>
+      </c>
+      <c r="B994" s="3" t="s">
+        <v>2174</v>
+      </c>
+      <c r="C994" t="s">
+        <v>3434</v>
+      </c>
+      <c r="D994" s="3" t="s">
+        <v>3433</v>
+      </c>
+    </row>
+    <row r="995" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A995" t="s">
+        <v>1887</v>
+      </c>
+      <c r="B995" s="3" t="s">
+        <v>2174</v>
+      </c>
+      <c r="C995" t="s">
+        <v>3435</v>
+      </c>
+    </row>
+    <row r="996" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A996" t="s">
+        <v>1887</v>
+      </c>
+      <c r="B996" s="3" t="s">
+        <v>2174</v>
+      </c>
+      <c r="C996" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="997" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A997" t="s">
+        <v>1887</v>
+      </c>
+      <c r="B997" s="3" t="s">
+        <v>2174</v>
+      </c>
+      <c r="C997" t="s">
+        <v>3437</v>
+      </c>
+    </row>
+    <row r="998" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A998" t="s">
+        <v>1887</v>
+      </c>
+      <c r="B998" s="3" t="s">
+        <v>2174</v>
+      </c>
+      <c r="C998" t="s">
+        <v>3438</v>
+      </c>
+    </row>
+    <row r="999" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A999" t="s">
+        <v>1887</v>
+      </c>
+      <c r="B999" s="3" t="s">
+        <v>2175</v>
+      </c>
+      <c r="C999" t="s">
+        <v>3434</v>
+      </c>
+      <c r="D999" s="3" t="s">
+        <v>3433</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1000" t="s">
+        <v>1887</v>
+      </c>
+      <c r="B1000" s="3" t="s">
+        <v>2175</v>
+      </c>
+      <c r="C1000" t="s">
+        <v>3435</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1001" t="s">
+        <v>1887</v>
+      </c>
+      <c r="B1001" s="3" t="s">
+        <v>2175</v>
+      </c>
+      <c r="C1001" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1002" t="s">
+        <v>1887</v>
+      </c>
+      <c r="B1002" s="3" t="s">
+        <v>2175</v>
+      </c>
+      <c r="C1002" t="s">
+        <v>3437</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1003" t="s">
+        <v>1887</v>
+      </c>
+      <c r="B1003" s="3" t="s">
+        <v>2175</v>
+      </c>
+      <c r="C1003" t="s">
+        <v>3438</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1004" t="s">
+        <v>1887</v>
+      </c>
+      <c r="B1004" s="3" t="s">
+        <v>2176</v>
+      </c>
+      <c r="C1004" t="s">
+        <v>3434</v>
+      </c>
+      <c r="D1004" s="3" t="s">
+        <v>3433</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1005" t="s">
+        <v>1887</v>
+      </c>
+      <c r="B1005" s="3" t="s">
+        <v>2176</v>
+      </c>
+      <c r="C1005" t="s">
+        <v>3435</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1006" t="s">
+        <v>1887</v>
+      </c>
+      <c r="B1006" s="3" t="s">
+        <v>2176</v>
+      </c>
+      <c r="C1006" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1007" t="s">
+        <v>1887</v>
+      </c>
+      <c r="B1007" s="3" t="s">
+        <v>2176</v>
+      </c>
+      <c r="C1007" t="s">
+        <v>3437</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1008" t="s">
+        <v>1887</v>
+      </c>
+      <c r="B1008" s="3" t="s">
+        <v>2176</v>
+      </c>
+      <c r="C1008" t="s">
+        <v>3438</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1009" t="s">
+        <v>1888</v>
+      </c>
+      <c r="B1009" s="3" t="s">
+        <v>2178</v>
+      </c>
+      <c r="C1009" t="s">
+        <v>3446</v>
+      </c>
+      <c r="D1009" s="3" t="s">
+        <v>3439</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1010" t="s">
+        <v>1888</v>
+      </c>
+      <c r="B1010" s="3" t="s">
+        <v>2178</v>
+      </c>
+      <c r="C1010" t="s">
+        <v>3440</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1011" t="s">
+        <v>1888</v>
+      </c>
+      <c r="B1011" s="3" t="s">
+        <v>2178</v>
+      </c>
+      <c r="C1011" t="s">
+        <v>3441</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1012" t="s">
+        <v>1888</v>
+      </c>
+      <c r="B1012" s="3" t="s">
+        <v>2178</v>
+      </c>
+      <c r="C1012" t="s">
+        <v>3442</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1013" t="s">
+        <v>1888</v>
+      </c>
+      <c r="B1013" s="3" t="s">
+        <v>2179</v>
+      </c>
+      <c r="C1013" t="s">
+        <v>3446</v>
+      </c>
+      <c r="D1013" s="3" t="s">
+        <v>3439</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1014" t="s">
+        <v>1888</v>
+      </c>
+      <c r="B1014" s="3" t="s">
+        <v>2179</v>
+      </c>
+      <c r="C1014" t="s">
+        <v>3440</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1015" t="s">
+        <v>1888</v>
+      </c>
+      <c r="B1015" s="3" t="s">
+        <v>2179</v>
+      </c>
+      <c r="C1015" t="s">
+        <v>3441</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1016" t="s">
+        <v>1888</v>
+      </c>
+      <c r="B1016" s="3" t="s">
+        <v>2179</v>
+      </c>
+      <c r="C1016" t="s">
+        <v>3442</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1017" t="s">
+        <v>1888</v>
+      </c>
+      <c r="B1017" s="3" t="s">
+        <v>2180</v>
+      </c>
+      <c r="C1017" t="s">
+        <v>3446</v>
+      </c>
+      <c r="D1017" s="3" t="s">
+        <v>3439</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1018" t="s">
+        <v>1888</v>
+      </c>
+      <c r="B1018" s="3" t="s">
+        <v>2180</v>
+      </c>
+      <c r="C1018" t="s">
+        <v>3440</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1019" t="s">
+        <v>1888</v>
+      </c>
+      <c r="B1019" s="3" t="s">
+        <v>2180</v>
+      </c>
+      <c r="C1019" t="s">
+        <v>3441</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1020" t="s">
+        <v>1888</v>
+      </c>
+      <c r="B1020" s="3" t="s">
+        <v>2180</v>
+      </c>
+      <c r="C1020" t="s">
+        <v>3442</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1021" t="s">
+        <v>1889</v>
+      </c>
+      <c r="B1021" s="3" t="s">
+        <v>2181</v>
+      </c>
+      <c r="C1021" t="s">
+        <v>3446</v>
+      </c>
+      <c r="D1021" s="3" t="s">
+        <v>3439</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1022" t="s">
+        <v>1889</v>
+      </c>
+      <c r="B1022" s="3" t="s">
+        <v>2181</v>
+      </c>
+      <c r="C1022" t="s">
+        <v>3440</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1023" t="s">
+        <v>1889</v>
+      </c>
+      <c r="B1023" s="3" t="s">
+        <v>2181</v>
+      </c>
+      <c r="C1023" t="s">
+        <v>3441</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1024" t="s">
+        <v>1889</v>
+      </c>
+      <c r="B1024" s="3" t="s">
+        <v>2181</v>
+      </c>
+      <c r="C1024" t="s">
+        <v>3442</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1025" t="s">
+        <v>1889</v>
+      </c>
+      <c r="B1025" s="3" t="s">
+        <v>2182</v>
+      </c>
+      <c r="C1025" t="s">
+        <v>3446</v>
+      </c>
+      <c r="D1025" s="3" t="s">
+        <v>3439</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1026" t="s">
+        <v>1889</v>
+      </c>
+      <c r="B1026" s="3" t="s">
+        <v>2182</v>
+      </c>
+      <c r="C1026" t="s">
+        <v>3440</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1027" t="s">
+        <v>1889</v>
+      </c>
+      <c r="B1027" s="3" t="s">
+        <v>2182</v>
+      </c>
+      <c r="C1027" t="s">
+        <v>3441</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1028" t="s">
+        <v>1889</v>
+      </c>
+      <c r="B1028" s="3" t="s">
+        <v>2182</v>
+      </c>
+      <c r="C1028" t="s">
+        <v>3442</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1029" t="s">
+        <v>1889</v>
+      </c>
+      <c r="B1029" s="3" t="s">
+        <v>2183</v>
+      </c>
+      <c r="C1029" t="s">
+        <v>3446</v>
+      </c>
+      <c r="D1029" s="3" t="s">
+        <v>3439</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1030" t="s">
+        <v>1889</v>
+      </c>
+      <c r="B1030" s="3" t="s">
+        <v>2183</v>
+      </c>
+      <c r="C1030" t="s">
+        <v>3440</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1031" t="s">
+        <v>1889</v>
+      </c>
+      <c r="B1031" s="3" t="s">
+        <v>2183</v>
+      </c>
+      <c r="C1031" t="s">
+        <v>3441</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1032" t="s">
+        <v>1889</v>
+      </c>
+      <c r="B1032" s="3" t="s">
+        <v>2183</v>
+      </c>
+      <c r="C1032" t="s">
+        <v>3442</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1033" t="s">
+        <v>1889</v>
+      </c>
+      <c r="B1033" s="3" t="s">
+        <v>2184</v>
+      </c>
+      <c r="C1033" t="s">
+        <v>3446</v>
+      </c>
+      <c r="D1033" s="3" t="s">
+        <v>3439</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1034" t="s">
+        <v>1889</v>
+      </c>
+      <c r="B1034" s="3" t="s">
+        <v>2184</v>
+      </c>
+      <c r="C1034" t="s">
+        <v>3440</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1035" t="s">
+        <v>1889</v>
+      </c>
+      <c r="B1035" s="3" t="s">
+        <v>2184</v>
+      </c>
+      <c r="C1035" t="s">
+        <v>3441</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1036" t="s">
+        <v>1889</v>
+      </c>
+      <c r="B1036" s="3" t="s">
+        <v>2184</v>
+      </c>
+      <c r="C1036" t="s">
+        <v>3442</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1037" t="s">
+        <v>1889</v>
+      </c>
+      <c r="B1037" s="3" t="s">
+        <v>2185</v>
+      </c>
+      <c r="C1037" t="s">
+        <v>3446</v>
+      </c>
+      <c r="D1037" s="3" t="s">
+        <v>3439</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1038" t="s">
+        <v>1889</v>
+      </c>
+      <c r="B1038" s="3" t="s">
+        <v>2185</v>
+      </c>
+      <c r="C1038" t="s">
+        <v>3440</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1039" t="s">
+        <v>1889</v>
+      </c>
+      <c r="B1039" s="3" t="s">
+        <v>2185</v>
+      </c>
+      <c r="C1039" t="s">
+        <v>3441</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1040" t="s">
+        <v>1889</v>
+      </c>
+      <c r="B1040" s="3" t="s">
+        <v>2185</v>
+      </c>
+      <c r="C1040" t="s">
+        <v>3442</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1041" t="s">
+        <v>1889</v>
+      </c>
+      <c r="B1041" s="3" t="s">
+        <v>2186</v>
+      </c>
+      <c r="C1041" t="s">
+        <v>3446</v>
+      </c>
+      <c r="D1041" s="3" t="s">
+        <v>3439</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1042" t="s">
+        <v>1889</v>
+      </c>
+      <c r="B1042" s="3" t="s">
+        <v>2186</v>
+      </c>
+      <c r="C1042" t="s">
+        <v>3440</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1043" t="s">
+        <v>1889</v>
+      </c>
+      <c r="B1043" s="3" t="s">
+        <v>2186</v>
+      </c>
+      <c r="C1043" t="s">
+        <v>3441</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1044" t="s">
+        <v>1889</v>
+      </c>
+      <c r="B1044" s="3" t="s">
+        <v>2186</v>
+      </c>
+      <c r="C1044" t="s">
+        <v>3442</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/gdcdictionary/xlsx/nodes_schema_impowr.xlsx
+++ b/gdcdictionary/xlsx/nodes_schema_impowr.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vithal\Documents\GitHub\dcfdictionary\gdcdictionary\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3806CEC-8A70-483E-8687-45FCF000A74A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D038434-A8FE-4D19-81B9-FC888CCE9DB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1710" yWindow="6060" windowWidth="21630" windowHeight="9135" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="750" yWindow="6180" windowWidth="25260" windowHeight="9360" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nodes_impowr" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10636" uniqueCount="3447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11096" uniqueCount="3457">
   <si>
     <t>&lt;$schema&gt;</t>
   </si>
@@ -10408,6 +10408,36 @@
   </si>
   <si>
     <t xml:space="preserve">Not at all </t>
+  </si>
+  <si>
+    <t>5, Never | 4, Rarely | 3, Sometimes | 2, Usually | 1, Always</t>
+  </si>
+  <si>
+    <t>Usually</t>
+  </si>
+  <si>
+    <t>1, Very Strongly Disagree | 2, Strongly Disagree | 3, Mildly Disagree | 4, Neutral | 5, Mildly Agree | 6, Strongly Agree | 7, Very Strongly Agree</t>
+  </si>
+  <si>
+    <t>Very Strongly Disagree</t>
+  </si>
+  <si>
+    <t>Strongly Disagree</t>
+  </si>
+  <si>
+    <t>Mildly Disagree</t>
+  </si>
+  <si>
+    <t>Neutral</t>
+  </si>
+  <si>
+    <t>Mildly Agree</t>
+  </si>
+  <si>
+    <t>Strongly Agree</t>
+  </si>
+  <si>
+    <t>Very Strongly Agree</t>
   </si>
 </sst>
 </file>
@@ -19285,8 +19315,8 @@
   <dimension ref="A1:K1209"/>
   <sheetViews>
     <sheetView zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A578" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A584" sqref="A584:B584"/>
+      <pane ySplit="1" topLeftCell="A608" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A609" sqref="A609:B609"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27862,8 +27892,8 @@
       <c r="D610" s="4" t="s">
         <v>2255</v>
       </c>
-      <c r="E610" s="3" t="s">
-        <v>1037</v>
+      <c r="E610" t="s">
+        <v>1038</v>
       </c>
     </row>
     <row r="611" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -27876,8 +27906,8 @@
       <c r="D611" s="4" t="s">
         <v>2256</v>
       </c>
-      <c r="E611" s="3" t="s">
-        <v>1037</v>
+      <c r="E611" t="s">
+        <v>1038</v>
       </c>
     </row>
     <row r="612" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -27890,8 +27920,8 @@
       <c r="D612" s="4" t="s">
         <v>2257</v>
       </c>
-      <c r="E612" s="3" t="s">
-        <v>1037</v>
+      <c r="E612" t="s">
+        <v>1038</v>
       </c>
     </row>
     <row r="613" spans="1:5" x14ac:dyDescent="0.25">
@@ -36258,11 +36288,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E1044"/>
+  <dimension ref="A1:E1190"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1037" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1043" sqref="C1043"/>
+    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1175" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1191" sqref="A1191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36270,7 +36300,7 @@
     <col min="1" max="1" width="32.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30" customWidth="1"/>
     <col min="3" max="3" width="54.5703125" customWidth="1"/>
-    <col min="4" max="4" width="107.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="136.42578125" style="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -47985,6 +48015,1678 @@
         <v>3442</v>
       </c>
     </row>
+    <row r="1045" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1045" t="s">
+        <v>1890</v>
+      </c>
+      <c r="B1045" s="3" t="s">
+        <v>2202</v>
+      </c>
+      <c r="C1045" t="s">
+        <v>3438</v>
+      </c>
+      <c r="D1045" s="3" t="s">
+        <v>3447</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1046" t="s">
+        <v>1890</v>
+      </c>
+      <c r="B1046" s="3" t="s">
+        <v>2202</v>
+      </c>
+      <c r="C1046" t="s">
+        <v>3448</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1047" t="s">
+        <v>1890</v>
+      </c>
+      <c r="B1047" s="3" t="s">
+        <v>2202</v>
+      </c>
+      <c r="C1047" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1048" t="s">
+        <v>1890</v>
+      </c>
+      <c r="B1048" s="3" t="s">
+        <v>2202</v>
+      </c>
+      <c r="C1048" t="s">
+        <v>3435</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1049" t="s">
+        <v>1890</v>
+      </c>
+      <c r="B1049" s="3" t="s">
+        <v>2202</v>
+      </c>
+      <c r="C1049" t="s">
+        <v>3434</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1050" t="s">
+        <v>1890</v>
+      </c>
+      <c r="B1050" s="3" t="s">
+        <v>2203</v>
+      </c>
+      <c r="C1050" t="s">
+        <v>3438</v>
+      </c>
+      <c r="D1050" s="3" t="s">
+        <v>3447</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1051" t="s">
+        <v>1890</v>
+      </c>
+      <c r="B1051" s="3" t="s">
+        <v>2203</v>
+      </c>
+      <c r="C1051" t="s">
+        <v>3448</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1052" t="s">
+        <v>1890</v>
+      </c>
+      <c r="B1052" s="3" t="s">
+        <v>2203</v>
+      </c>
+      <c r="C1052" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1053" t="s">
+        <v>1890</v>
+      </c>
+      <c r="B1053" s="3" t="s">
+        <v>2203</v>
+      </c>
+      <c r="C1053" t="s">
+        <v>3435</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1054" t="s">
+        <v>1890</v>
+      </c>
+      <c r="B1054" s="3" t="s">
+        <v>2203</v>
+      </c>
+      <c r="C1054" t="s">
+        <v>3434</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1055" t="s">
+        <v>1890</v>
+      </c>
+      <c r="B1055" s="3" t="s">
+        <v>2204</v>
+      </c>
+      <c r="C1055" t="s">
+        <v>3438</v>
+      </c>
+      <c r="D1055" s="3" t="s">
+        <v>3447</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1056" t="s">
+        <v>1890</v>
+      </c>
+      <c r="B1056" s="3" t="s">
+        <v>2204</v>
+      </c>
+      <c r="C1056" t="s">
+        <v>3448</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1057" t="s">
+        <v>1890</v>
+      </c>
+      <c r="B1057" s="3" t="s">
+        <v>2204</v>
+      </c>
+      <c r="C1057" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1058" t="s">
+        <v>1890</v>
+      </c>
+      <c r="B1058" s="3" t="s">
+        <v>2204</v>
+      </c>
+      <c r="C1058" t="s">
+        <v>3435</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1059" t="s">
+        <v>1890</v>
+      </c>
+      <c r="B1059" s="3" t="s">
+        <v>2204</v>
+      </c>
+      <c r="C1059" t="s">
+        <v>3434</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1060" t="s">
+        <v>1890</v>
+      </c>
+      <c r="B1060" s="3" t="s">
+        <v>2205</v>
+      </c>
+      <c r="C1060" t="s">
+        <v>3438</v>
+      </c>
+      <c r="D1060" s="3" t="s">
+        <v>3447</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1061" t="s">
+        <v>1890</v>
+      </c>
+      <c r="B1061" s="3" t="s">
+        <v>2205</v>
+      </c>
+      <c r="C1061" t="s">
+        <v>3448</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1062" t="s">
+        <v>1890</v>
+      </c>
+      <c r="B1062" s="3" t="s">
+        <v>2205</v>
+      </c>
+      <c r="C1062" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1063" t="s">
+        <v>1890</v>
+      </c>
+      <c r="B1063" s="3" t="s">
+        <v>2205</v>
+      </c>
+      <c r="C1063" t="s">
+        <v>3435</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1064" t="s">
+        <v>1890</v>
+      </c>
+      <c r="B1064" s="3" t="s">
+        <v>2205</v>
+      </c>
+      <c r="C1064" t="s">
+        <v>3434</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1065" t="s">
+        <v>1891</v>
+      </c>
+      <c r="B1065" s="3" t="s">
+        <v>2207</v>
+      </c>
+      <c r="C1065" t="s">
+        <v>3450</v>
+      </c>
+      <c r="D1065" s="3" t="s">
+        <v>3449</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1066" t="s">
+        <v>1891</v>
+      </c>
+      <c r="B1066" s="3" t="s">
+        <v>2207</v>
+      </c>
+      <c r="C1066" t="s">
+        <v>3451</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1067" t="s">
+        <v>1891</v>
+      </c>
+      <c r="B1067" s="3" t="s">
+        <v>2207</v>
+      </c>
+      <c r="C1067" t="s">
+        <v>3452</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1068" t="s">
+        <v>1891</v>
+      </c>
+      <c r="B1068" s="3" t="s">
+        <v>2207</v>
+      </c>
+      <c r="C1068" t="s">
+        <v>3453</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1069" t="s">
+        <v>1891</v>
+      </c>
+      <c r="B1069" s="3" t="s">
+        <v>2207</v>
+      </c>
+      <c r="C1069" t="s">
+        <v>3454</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1070" t="s">
+        <v>1891</v>
+      </c>
+      <c r="B1070" s="3" t="s">
+        <v>2207</v>
+      </c>
+      <c r="C1070" t="s">
+        <v>3455</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1071" t="s">
+        <v>1891</v>
+      </c>
+      <c r="B1071" s="3" t="s">
+        <v>2207</v>
+      </c>
+      <c r="C1071" t="s">
+        <v>3456</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1072" t="s">
+        <v>1891</v>
+      </c>
+      <c r="B1072" s="3" t="s">
+        <v>2208</v>
+      </c>
+      <c r="C1072" t="s">
+        <v>3450</v>
+      </c>
+      <c r="D1072" s="3" t="s">
+        <v>3449</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1073" t="s">
+        <v>1891</v>
+      </c>
+      <c r="B1073" s="3" t="s">
+        <v>2208</v>
+      </c>
+      <c r="C1073" t="s">
+        <v>3451</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1074" t="s">
+        <v>1891</v>
+      </c>
+      <c r="B1074" s="3" t="s">
+        <v>2208</v>
+      </c>
+      <c r="C1074" t="s">
+        <v>3452</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1075" t="s">
+        <v>1891</v>
+      </c>
+      <c r="B1075" s="3" t="s">
+        <v>2208</v>
+      </c>
+      <c r="C1075" t="s">
+        <v>3453</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1076" t="s">
+        <v>1891</v>
+      </c>
+      <c r="B1076" s="3" t="s">
+        <v>2208</v>
+      </c>
+      <c r="C1076" t="s">
+        <v>3454</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1077" t="s">
+        <v>1891</v>
+      </c>
+      <c r="B1077" s="3" t="s">
+        <v>2208</v>
+      </c>
+      <c r="C1077" t="s">
+        <v>3455</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1078" t="s">
+        <v>1891</v>
+      </c>
+      <c r="B1078" s="3" t="s">
+        <v>2208</v>
+      </c>
+      <c r="C1078" t="s">
+        <v>3456</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1079" t="s">
+        <v>1891</v>
+      </c>
+      <c r="B1079" s="3" t="s">
+        <v>2209</v>
+      </c>
+      <c r="C1079" t="s">
+        <v>3450</v>
+      </c>
+      <c r="D1079" s="3" t="s">
+        <v>3449</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1080" t="s">
+        <v>1891</v>
+      </c>
+      <c r="B1080" s="3" t="s">
+        <v>2209</v>
+      </c>
+      <c r="C1080" t="s">
+        <v>3451</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1081" t="s">
+        <v>1891</v>
+      </c>
+      <c r="B1081" s="3" t="s">
+        <v>2209</v>
+      </c>
+      <c r="C1081" t="s">
+        <v>3452</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1082" t="s">
+        <v>1891</v>
+      </c>
+      <c r="B1082" s="3" t="s">
+        <v>2209</v>
+      </c>
+      <c r="C1082" t="s">
+        <v>3453</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1083" t="s">
+        <v>1891</v>
+      </c>
+      <c r="B1083" s="3" t="s">
+        <v>2209</v>
+      </c>
+      <c r="C1083" t="s">
+        <v>3454</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1084" t="s">
+        <v>1891</v>
+      </c>
+      <c r="B1084" s="3" t="s">
+        <v>2209</v>
+      </c>
+      <c r="C1084" t="s">
+        <v>3455</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1085" t="s">
+        <v>1891</v>
+      </c>
+      <c r="B1085" s="3" t="s">
+        <v>2209</v>
+      </c>
+      <c r="C1085" t="s">
+        <v>3456</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1086" t="s">
+        <v>1891</v>
+      </c>
+      <c r="B1086" s="3" t="s">
+        <v>2210</v>
+      </c>
+      <c r="C1086" t="s">
+        <v>3450</v>
+      </c>
+      <c r="D1086" s="3" t="s">
+        <v>3449</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1087" t="s">
+        <v>1891</v>
+      </c>
+      <c r="B1087" s="3" t="s">
+        <v>2210</v>
+      </c>
+      <c r="C1087" t="s">
+        <v>3451</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1088" t="s">
+        <v>1891</v>
+      </c>
+      <c r="B1088" s="3" t="s">
+        <v>2210</v>
+      </c>
+      <c r="C1088" t="s">
+        <v>3452</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1089" t="s">
+        <v>1891</v>
+      </c>
+      <c r="B1089" s="3" t="s">
+        <v>2210</v>
+      </c>
+      <c r="C1089" t="s">
+        <v>3453</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1090" t="s">
+        <v>1891</v>
+      </c>
+      <c r="B1090" s="3" t="s">
+        <v>2210</v>
+      </c>
+      <c r="C1090" t="s">
+        <v>3454</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1091" t="s">
+        <v>1891</v>
+      </c>
+      <c r="B1091" s="3" t="s">
+        <v>2210</v>
+      </c>
+      <c r="C1091" t="s">
+        <v>3455</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1092" t="s">
+        <v>1891</v>
+      </c>
+      <c r="B1092" s="3" t="s">
+        <v>2210</v>
+      </c>
+      <c r="C1092" t="s">
+        <v>3456</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1093" t="s">
+        <v>1891</v>
+      </c>
+      <c r="B1093" s="3" t="s">
+        <v>2211</v>
+      </c>
+      <c r="C1093" t="s">
+        <v>3450</v>
+      </c>
+      <c r="D1093" s="3" t="s">
+        <v>3449</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1094" t="s">
+        <v>1891</v>
+      </c>
+      <c r="B1094" s="3" t="s">
+        <v>2211</v>
+      </c>
+      <c r="C1094" t="s">
+        <v>3451</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1095" t="s">
+        <v>1891</v>
+      </c>
+      <c r="B1095" s="3" t="s">
+        <v>2211</v>
+      </c>
+      <c r="C1095" t="s">
+        <v>3452</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1096" t="s">
+        <v>1891</v>
+      </c>
+      <c r="B1096" s="3" t="s">
+        <v>2211</v>
+      </c>
+      <c r="C1096" t="s">
+        <v>3453</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1097" t="s">
+        <v>1891</v>
+      </c>
+      <c r="B1097" s="3" t="s">
+        <v>2211</v>
+      </c>
+      <c r="C1097" t="s">
+        <v>3454</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1098" t="s">
+        <v>1891</v>
+      </c>
+      <c r="B1098" s="3" t="s">
+        <v>2211</v>
+      </c>
+      <c r="C1098" t="s">
+        <v>3455</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1099" t="s">
+        <v>1891</v>
+      </c>
+      <c r="B1099" s="3" t="s">
+        <v>2211</v>
+      </c>
+      <c r="C1099" t="s">
+        <v>3456</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1100" t="s">
+        <v>1891</v>
+      </c>
+      <c r="B1100" s="3" t="s">
+        <v>2212</v>
+      </c>
+      <c r="C1100" t="s">
+        <v>3450</v>
+      </c>
+      <c r="D1100" s="3" t="s">
+        <v>3449</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1101" t="s">
+        <v>1891</v>
+      </c>
+      <c r="B1101" s="3" t="s">
+        <v>2212</v>
+      </c>
+      <c r="C1101" t="s">
+        <v>3451</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1102" t="s">
+        <v>1891</v>
+      </c>
+      <c r="B1102" s="3" t="s">
+        <v>2212</v>
+      </c>
+      <c r="C1102" t="s">
+        <v>3452</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1103" t="s">
+        <v>1891</v>
+      </c>
+      <c r="B1103" s="3" t="s">
+        <v>2212</v>
+      </c>
+      <c r="C1103" t="s">
+        <v>3453</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1104" t="s">
+        <v>1891</v>
+      </c>
+      <c r="B1104" s="3" t="s">
+        <v>2212</v>
+      </c>
+      <c r="C1104" t="s">
+        <v>3454</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1105" t="s">
+        <v>1891</v>
+      </c>
+      <c r="B1105" s="3" t="s">
+        <v>2212</v>
+      </c>
+      <c r="C1105" t="s">
+        <v>3455</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1106" t="s">
+        <v>1891</v>
+      </c>
+      <c r="B1106" s="3" t="s">
+        <v>2212</v>
+      </c>
+      <c r="C1106" t="s">
+        <v>3456</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1107" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B1107" s="3" t="s">
+        <v>2214</v>
+      </c>
+      <c r="C1107" t="s">
+        <v>3450</v>
+      </c>
+      <c r="D1107" s="3" t="s">
+        <v>3449</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1108" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B1108" s="3" t="s">
+        <v>2214</v>
+      </c>
+      <c r="C1108" t="s">
+        <v>3451</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1109" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B1109" s="3" t="s">
+        <v>2214</v>
+      </c>
+      <c r="C1109" t="s">
+        <v>3452</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1110" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B1110" s="3" t="s">
+        <v>2214</v>
+      </c>
+      <c r="C1110" t="s">
+        <v>3453</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1111" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B1111" s="3" t="s">
+        <v>2214</v>
+      </c>
+      <c r="C1111" t="s">
+        <v>3454</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1112" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B1112" s="3" t="s">
+        <v>2214</v>
+      </c>
+      <c r="C1112" t="s">
+        <v>3455</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1113" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B1113" s="3" t="s">
+        <v>2214</v>
+      </c>
+      <c r="C1113" t="s">
+        <v>3456</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1114" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B1114" s="3" t="s">
+        <v>2215</v>
+      </c>
+      <c r="C1114" t="s">
+        <v>3450</v>
+      </c>
+      <c r="D1114" s="3" t="s">
+        <v>3449</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1115" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B1115" s="3" t="s">
+        <v>2215</v>
+      </c>
+      <c r="C1115" t="s">
+        <v>3451</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1116" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B1116" s="3" t="s">
+        <v>2215</v>
+      </c>
+      <c r="C1116" t="s">
+        <v>3452</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1117" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B1117" s="3" t="s">
+        <v>2215</v>
+      </c>
+      <c r="C1117" t="s">
+        <v>3453</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1118" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B1118" s="3" t="s">
+        <v>2215</v>
+      </c>
+      <c r="C1118" t="s">
+        <v>3454</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1119" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B1119" s="3" t="s">
+        <v>2215</v>
+      </c>
+      <c r="C1119" t="s">
+        <v>3455</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1120" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B1120" s="3" t="s">
+        <v>2215</v>
+      </c>
+      <c r="C1120" t="s">
+        <v>3456</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1121" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B1121" s="3" t="s">
+        <v>2216</v>
+      </c>
+      <c r="C1121" t="s">
+        <v>3450</v>
+      </c>
+      <c r="D1121" s="3" t="s">
+        <v>3449</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1122" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B1122" s="3" t="s">
+        <v>2216</v>
+      </c>
+      <c r="C1122" t="s">
+        <v>3451</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1123" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B1123" s="3" t="s">
+        <v>2216</v>
+      </c>
+      <c r="C1123" t="s">
+        <v>3452</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1124" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B1124" s="3" t="s">
+        <v>2216</v>
+      </c>
+      <c r="C1124" t="s">
+        <v>3453</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1125" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B1125" s="3" t="s">
+        <v>2216</v>
+      </c>
+      <c r="C1125" t="s">
+        <v>3454</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1126" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B1126" s="3" t="s">
+        <v>2216</v>
+      </c>
+      <c r="C1126" t="s">
+        <v>3455</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1127" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B1127" s="3" t="s">
+        <v>2216</v>
+      </c>
+      <c r="C1127" t="s">
+        <v>3456</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1128" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B1128" s="3" t="s">
+        <v>2217</v>
+      </c>
+      <c r="C1128" t="s">
+        <v>3450</v>
+      </c>
+      <c r="D1128" s="3" t="s">
+        <v>3449</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1129" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B1129" s="3" t="s">
+        <v>2217</v>
+      </c>
+      <c r="C1129" t="s">
+        <v>3451</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1130" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B1130" s="3" t="s">
+        <v>2217</v>
+      </c>
+      <c r="C1130" t="s">
+        <v>3452</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1131" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B1131" s="3" t="s">
+        <v>2217</v>
+      </c>
+      <c r="C1131" t="s">
+        <v>3453</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1132" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B1132" s="3" t="s">
+        <v>2217</v>
+      </c>
+      <c r="C1132" t="s">
+        <v>3454</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1133" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B1133" s="3" t="s">
+        <v>2217</v>
+      </c>
+      <c r="C1133" t="s">
+        <v>3455</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1134" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B1134" s="3" t="s">
+        <v>2217</v>
+      </c>
+      <c r="C1134" t="s">
+        <v>3456</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1135" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B1135" s="3" t="s">
+        <v>2218</v>
+      </c>
+      <c r="C1135" t="s">
+        <v>3450</v>
+      </c>
+      <c r="D1135" s="3" t="s">
+        <v>3449</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1136" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B1136" s="3" t="s">
+        <v>2218</v>
+      </c>
+      <c r="C1136" t="s">
+        <v>3451</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1137" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B1137" s="3" t="s">
+        <v>2218</v>
+      </c>
+      <c r="C1137" t="s">
+        <v>3452</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1138" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B1138" s="3" t="s">
+        <v>2218</v>
+      </c>
+      <c r="C1138" t="s">
+        <v>3453</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1139" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B1139" s="3" t="s">
+        <v>2218</v>
+      </c>
+      <c r="C1139" t="s">
+        <v>3454</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1140" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B1140" s="3" t="s">
+        <v>2218</v>
+      </c>
+      <c r="C1140" t="s">
+        <v>3455</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1141" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B1141" s="3" t="s">
+        <v>2218</v>
+      </c>
+      <c r="C1141" t="s">
+        <v>3456</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1142" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B1142" s="3" t="s">
+        <v>2219</v>
+      </c>
+      <c r="C1142" t="s">
+        <v>3450</v>
+      </c>
+      <c r="D1142" s="3" t="s">
+        <v>3449</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1143" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B1143" s="3" t="s">
+        <v>2219</v>
+      </c>
+      <c r="C1143" t="s">
+        <v>3451</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1144" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B1144" s="3" t="s">
+        <v>2219</v>
+      </c>
+      <c r="C1144" t="s">
+        <v>3452</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1145" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B1145" s="3" t="s">
+        <v>2219</v>
+      </c>
+      <c r="C1145" t="s">
+        <v>3453</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1146" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B1146" s="3" t="s">
+        <v>2219</v>
+      </c>
+      <c r="C1146" t="s">
+        <v>3454</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1147" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B1147" s="3" t="s">
+        <v>2219</v>
+      </c>
+      <c r="C1147" t="s">
+        <v>3455</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1148" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B1148" s="3" t="s">
+        <v>2219</v>
+      </c>
+      <c r="C1148" t="s">
+        <v>3456</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1149" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B1149" s="3" t="s">
+        <v>2220</v>
+      </c>
+      <c r="C1149" t="s">
+        <v>3450</v>
+      </c>
+      <c r="D1149" s="3" t="s">
+        <v>3449</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1150" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B1150" s="3" t="s">
+        <v>2220</v>
+      </c>
+      <c r="C1150" t="s">
+        <v>3451</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1151" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B1151" s="3" t="s">
+        <v>2220</v>
+      </c>
+      <c r="C1151" t="s">
+        <v>3452</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1152" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B1152" s="3" t="s">
+        <v>2220</v>
+      </c>
+      <c r="C1152" t="s">
+        <v>3453</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1153" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B1153" s="3" t="s">
+        <v>2220</v>
+      </c>
+      <c r="C1153" t="s">
+        <v>3454</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1154" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B1154" s="3" t="s">
+        <v>2220</v>
+      </c>
+      <c r="C1154" t="s">
+        <v>3455</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1155" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B1155" s="3" t="s">
+        <v>2220</v>
+      </c>
+      <c r="C1155" t="s">
+        <v>3456</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1156" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B1156" s="3" t="s">
+        <v>2221</v>
+      </c>
+      <c r="C1156" t="s">
+        <v>3450</v>
+      </c>
+      <c r="D1156" s="3" t="s">
+        <v>3449</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1157" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B1157" s="3" t="s">
+        <v>2221</v>
+      </c>
+      <c r="C1157" t="s">
+        <v>3451</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1158" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B1158" s="3" t="s">
+        <v>2221</v>
+      </c>
+      <c r="C1158" t="s">
+        <v>3452</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1159" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B1159" s="3" t="s">
+        <v>2221</v>
+      </c>
+      <c r="C1159" t="s">
+        <v>3453</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1160" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B1160" s="3" t="s">
+        <v>2221</v>
+      </c>
+      <c r="C1160" t="s">
+        <v>3454</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1161" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B1161" s="3" t="s">
+        <v>2221</v>
+      </c>
+      <c r="C1161" t="s">
+        <v>3455</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1162" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B1162" s="3" t="s">
+        <v>2221</v>
+      </c>
+      <c r="C1162" t="s">
+        <v>3456</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1163" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B1163" s="3" t="s">
+        <v>2222</v>
+      </c>
+      <c r="C1163" t="s">
+        <v>3450</v>
+      </c>
+      <c r="D1163" s="3" t="s">
+        <v>3449</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1164" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B1164" s="3" t="s">
+        <v>2222</v>
+      </c>
+      <c r="C1164" t="s">
+        <v>3451</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1165" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B1165" s="3" t="s">
+        <v>2222</v>
+      </c>
+      <c r="C1165" t="s">
+        <v>3452</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1166" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B1166" s="3" t="s">
+        <v>2222</v>
+      </c>
+      <c r="C1166" t="s">
+        <v>3453</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1167" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B1167" s="3" t="s">
+        <v>2222</v>
+      </c>
+      <c r="C1167" t="s">
+        <v>3454</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1168" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B1168" s="3" t="s">
+        <v>2222</v>
+      </c>
+      <c r="C1168" t="s">
+        <v>3455</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1169" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B1169" s="3" t="s">
+        <v>2222</v>
+      </c>
+      <c r="C1169" t="s">
+        <v>3456</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1170" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B1170" s="3" t="s">
+        <v>2223</v>
+      </c>
+      <c r="C1170" t="s">
+        <v>3450</v>
+      </c>
+      <c r="D1170" s="3" t="s">
+        <v>3449</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1171" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B1171" s="3" t="s">
+        <v>2223</v>
+      </c>
+      <c r="C1171" t="s">
+        <v>3451</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1172" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B1172" s="3" t="s">
+        <v>2223</v>
+      </c>
+      <c r="C1172" t="s">
+        <v>3452</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1173" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B1173" s="3" t="s">
+        <v>2223</v>
+      </c>
+      <c r="C1173" t="s">
+        <v>3453</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1174" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B1174" s="3" t="s">
+        <v>2223</v>
+      </c>
+      <c r="C1174" t="s">
+        <v>3454</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1175" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B1175" s="3" t="s">
+        <v>2223</v>
+      </c>
+      <c r="C1175" t="s">
+        <v>3455</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1176" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B1176" s="3" t="s">
+        <v>2223</v>
+      </c>
+      <c r="C1176" t="s">
+        <v>3456</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1177" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B1177" s="3" t="s">
+        <v>2224</v>
+      </c>
+      <c r="C1177" t="s">
+        <v>3450</v>
+      </c>
+      <c r="D1177" s="3" t="s">
+        <v>3449</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1178" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B1178" s="3" t="s">
+        <v>2224</v>
+      </c>
+      <c r="C1178" t="s">
+        <v>3451</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1179" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B1179" s="3" t="s">
+        <v>2224</v>
+      </c>
+      <c r="C1179" t="s">
+        <v>3452</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1180" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B1180" s="3" t="s">
+        <v>2224</v>
+      </c>
+      <c r="C1180" t="s">
+        <v>3453</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1181" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B1181" s="3" t="s">
+        <v>2224</v>
+      </c>
+      <c r="C1181" t="s">
+        <v>3454</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1182" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B1182" s="3" t="s">
+        <v>2224</v>
+      </c>
+      <c r="C1182" t="s">
+        <v>3455</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1183" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B1183" s="3" t="s">
+        <v>2224</v>
+      </c>
+      <c r="C1183" t="s">
+        <v>3456</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1184" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B1184" s="3" t="s">
+        <v>2225</v>
+      </c>
+      <c r="C1184" t="s">
+        <v>3450</v>
+      </c>
+      <c r="D1184" s="3" t="s">
+        <v>3449</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1185" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B1185" s="3" t="s">
+        <v>2225</v>
+      </c>
+      <c r="C1185" t="s">
+        <v>3451</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1186" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B1186" s="3" t="s">
+        <v>2225</v>
+      </c>
+      <c r="C1186" t="s">
+        <v>3452</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1187" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B1187" s="3" t="s">
+        <v>2225</v>
+      </c>
+      <c r="C1187" t="s">
+        <v>3453</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1188" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B1188" s="3" t="s">
+        <v>2225</v>
+      </c>
+      <c r="C1188" t="s">
+        <v>3454</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1189" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B1189" s="3" t="s">
+        <v>2225</v>
+      </c>
+      <c r="C1189" t="s">
+        <v>3455</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1190" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B1190" s="3" t="s">
+        <v>2225</v>
+      </c>
+      <c r="C1190" t="s">
+        <v>3456</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/gdcdictionary/xlsx/nodes_schema_impowr.xlsx
+++ b/gdcdictionary/xlsx/nodes_schema_impowr.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vithal\Documents\GitHub\dcfdictionary\gdcdictionary\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D038434-A8FE-4D19-81B9-FC888CCE9DB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0983C11-C6F5-4C28-B7F2-40E4CE21BFFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="750" yWindow="6180" windowWidth="25260" windowHeight="9360" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1350" yWindow="5355" windowWidth="25260" windowHeight="9195" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nodes_impowr" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11096" uniqueCount="3457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11508" uniqueCount="3470">
   <si>
     <t>&lt;$schema&gt;</t>
   </si>
@@ -10438,6 +10438,45 @@
   </si>
   <si>
     <t>Very Strongly Agree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Somewhat </t>
+  </si>
+  <si>
+    <t>1, Strongly Disagree | 2, Disagree | 3, Somewhat Disagree | 4, Somewhat Agree | 5, Agree | 6, Strongly Agree</t>
+  </si>
+  <si>
+    <t>Disagree</t>
+  </si>
+  <si>
+    <t>Somewhat Disagree</t>
+  </si>
+  <si>
+    <t>Somewhat Agree</t>
+  </si>
+  <si>
+    <t>Agree</t>
+  </si>
+  <si>
+    <t>5, Many times a Day | 4, Every Day | 3, Most Days | 2, Some Days | 1, Once in a While | 0, Never or Almost Never</t>
+  </si>
+  <si>
+    <t>Never or Almost Never</t>
+  </si>
+  <si>
+    <t>Once in a While</t>
+  </si>
+  <si>
+    <t>Some Days</t>
+  </si>
+  <si>
+    <t>Most Days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Every Day </t>
+  </si>
+  <si>
+    <t>Many times a Day</t>
   </si>
 </sst>
 </file>
@@ -10914,7 +10953,7 @@
   <dimension ref="A1:Y123"/>
   <sheetViews>
     <sheetView zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
@@ -19315,8 +19354,8 @@
   <dimension ref="A1:K1209"/>
   <sheetViews>
     <sheetView zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A608" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A609" sqref="A609:B609"/>
+      <pane ySplit="1" topLeftCell="A635" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A637" sqref="A637:B637"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36288,11 +36327,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E1190"/>
+  <dimension ref="A1:E1320"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1175" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1191" sqref="A1191"/>
+      <pane ySplit="1" topLeftCell="A1310" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1315" sqref="A1315:B1320"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -49621,7 +49660,7 @@
         <v>3449</v>
       </c>
     </row>
-    <row r="1185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1185" t="s">
         <v>1892</v>
       </c>
@@ -49632,7 +49671,7 @@
         <v>3451</v>
       </c>
     </row>
-    <row r="1186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1186" t="s">
         <v>1892</v>
       </c>
@@ -49643,7 +49682,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="1187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1187" t="s">
         <v>1892</v>
       </c>
@@ -49654,7 +49693,7 @@
         <v>3453</v>
       </c>
     </row>
-    <row r="1188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1188" t="s">
         <v>1892</v>
       </c>
@@ -49665,7 +49704,7 @@
         <v>3454</v>
       </c>
     </row>
-    <row r="1189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1189" t="s">
         <v>1892</v>
       </c>
@@ -49676,7 +49715,7 @@
         <v>3455</v>
       </c>
     </row>
-    <row r="1190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1190" t="s">
         <v>1892</v>
       </c>
@@ -49685,6 +49724,1502 @@
       </c>
       <c r="C1190" t="s">
         <v>3456</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1191" t="s">
+        <v>1893</v>
+      </c>
+      <c r="B1191" s="3" t="s">
+        <v>2258</v>
+      </c>
+      <c r="C1191" t="s">
+        <v>3410</v>
+      </c>
+      <c r="D1191" s="3" t="s">
+        <v>3417</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1192" t="s">
+        <v>1893</v>
+      </c>
+      <c r="B1192" s="3" t="s">
+        <v>2258</v>
+      </c>
+      <c r="C1192" t="s">
+        <v>3409</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1193" t="s">
+        <v>1893</v>
+      </c>
+      <c r="B1193" s="3" t="s">
+        <v>2258</v>
+      </c>
+      <c r="C1193" t="s">
+        <v>3457</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1194" t="s">
+        <v>1893</v>
+      </c>
+      <c r="B1194" s="3" t="s">
+        <v>2258</v>
+      </c>
+      <c r="C1194" t="s">
+        <v>3407</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1195" t="s">
+        <v>1893</v>
+      </c>
+      <c r="B1195" s="3" t="s">
+        <v>2258</v>
+      </c>
+      <c r="C1195" t="s">
+        <v>3406</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1196" t="s">
+        <v>1893</v>
+      </c>
+      <c r="B1196" s="3" t="s">
+        <v>2259</v>
+      </c>
+      <c r="C1196" t="s">
+        <v>3410</v>
+      </c>
+      <c r="D1196" s="3" t="s">
+        <v>3417</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1197" t="s">
+        <v>1893</v>
+      </c>
+      <c r="B1197" s="3" t="s">
+        <v>2259</v>
+      </c>
+      <c r="C1197" t="s">
+        <v>3409</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1198" t="s">
+        <v>1893</v>
+      </c>
+      <c r="B1198" s="3" t="s">
+        <v>2259</v>
+      </c>
+      <c r="C1198" t="s">
+        <v>3457</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1199" t="s">
+        <v>1893</v>
+      </c>
+      <c r="B1199" s="3" t="s">
+        <v>2259</v>
+      </c>
+      <c r="C1199" t="s">
+        <v>3407</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1200" t="s">
+        <v>1893</v>
+      </c>
+      <c r="B1200" s="3" t="s">
+        <v>2259</v>
+      </c>
+      <c r="C1200" t="s">
+        <v>3406</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1201" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B1201" s="3" t="s">
+        <v>2261</v>
+      </c>
+      <c r="C1201" t="s">
+        <v>3451</v>
+      </c>
+      <c r="D1201" s="3" t="s">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1202" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B1202" s="3" t="s">
+        <v>2261</v>
+      </c>
+      <c r="C1202" t="s">
+        <v>3459</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1203" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B1203" s="3" t="s">
+        <v>2261</v>
+      </c>
+      <c r="C1203" t="s">
+        <v>3460</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1204" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B1204" s="3" t="s">
+        <v>2261</v>
+      </c>
+      <c r="C1204" t="s">
+        <v>3461</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1205" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B1205" s="3" t="s">
+        <v>2261</v>
+      </c>
+      <c r="C1205" t="s">
+        <v>3462</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1206" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B1206" s="3" t="s">
+        <v>2261</v>
+      </c>
+      <c r="C1206" t="s">
+        <v>3455</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1207" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B1207" s="3" t="s">
+        <v>2262</v>
+      </c>
+      <c r="C1207" t="s">
+        <v>3451</v>
+      </c>
+      <c r="D1207" s="3" t="s">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1208" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B1208" s="3" t="s">
+        <v>2262</v>
+      </c>
+      <c r="C1208" t="s">
+        <v>3459</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1209" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B1209" s="3" t="s">
+        <v>2262</v>
+      </c>
+      <c r="C1209" t="s">
+        <v>3460</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1210" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B1210" s="3" t="s">
+        <v>2262</v>
+      </c>
+      <c r="C1210" t="s">
+        <v>3461</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1211" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B1211" s="3" t="s">
+        <v>2262</v>
+      </c>
+      <c r="C1211" t="s">
+        <v>3462</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1212" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B1212" s="3" t="s">
+        <v>2262</v>
+      </c>
+      <c r="C1212" t="s">
+        <v>3455</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1213" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B1213" s="3" t="s">
+        <v>2263</v>
+      </c>
+      <c r="C1213" t="s">
+        <v>3451</v>
+      </c>
+      <c r="D1213" s="3" t="s">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1214" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B1214" s="3" t="s">
+        <v>2263</v>
+      </c>
+      <c r="C1214" t="s">
+        <v>3459</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1215" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B1215" s="3" t="s">
+        <v>2263</v>
+      </c>
+      <c r="C1215" t="s">
+        <v>3460</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1216" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B1216" s="3" t="s">
+        <v>2263</v>
+      </c>
+      <c r="C1216" t="s">
+        <v>3461</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1217" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B1217" s="3" t="s">
+        <v>2263</v>
+      </c>
+      <c r="C1217" t="s">
+        <v>3462</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1218" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B1218" s="3" t="s">
+        <v>2263</v>
+      </c>
+      <c r="C1218" t="s">
+        <v>3455</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1219" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B1219" s="3" t="s">
+        <v>2264</v>
+      </c>
+      <c r="C1219" t="s">
+        <v>3451</v>
+      </c>
+      <c r="D1219" s="3" t="s">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1220" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B1220" s="3" t="s">
+        <v>2264</v>
+      </c>
+      <c r="C1220" t="s">
+        <v>3459</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1221" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B1221" s="3" t="s">
+        <v>2264</v>
+      </c>
+      <c r="C1221" t="s">
+        <v>3460</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1222" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B1222" s="3" t="s">
+        <v>2264</v>
+      </c>
+      <c r="C1222" t="s">
+        <v>3461</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1223" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B1223" s="3" t="s">
+        <v>2264</v>
+      </c>
+      <c r="C1223" t="s">
+        <v>3462</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1224" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B1224" s="3" t="s">
+        <v>2264</v>
+      </c>
+      <c r="C1224" t="s">
+        <v>3455</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1225" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B1225" s="3" t="s">
+        <v>2265</v>
+      </c>
+      <c r="C1225" t="s">
+        <v>3451</v>
+      </c>
+      <c r="D1225" s="3" t="s">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1226" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B1226" s="3" t="s">
+        <v>2265</v>
+      </c>
+      <c r="C1226" t="s">
+        <v>3459</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1227" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B1227" s="3" t="s">
+        <v>2265</v>
+      </c>
+      <c r="C1227" t="s">
+        <v>3460</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1228" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B1228" s="3" t="s">
+        <v>2265</v>
+      </c>
+      <c r="C1228" t="s">
+        <v>3461</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1229" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B1229" s="3" t="s">
+        <v>2265</v>
+      </c>
+      <c r="C1229" t="s">
+        <v>3462</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1230" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B1230" s="3" t="s">
+        <v>2265</v>
+      </c>
+      <c r="C1230" t="s">
+        <v>3455</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1231" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B1231" s="3" t="s">
+        <v>2266</v>
+      </c>
+      <c r="C1231" t="s">
+        <v>3451</v>
+      </c>
+      <c r="D1231" s="3" t="s">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1232" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B1232" s="3" t="s">
+        <v>2266</v>
+      </c>
+      <c r="C1232" t="s">
+        <v>3459</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1233" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B1233" s="3" t="s">
+        <v>2266</v>
+      </c>
+      <c r="C1233" t="s">
+        <v>3460</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1234" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B1234" s="3" t="s">
+        <v>2266</v>
+      </c>
+      <c r="C1234" t="s">
+        <v>3461</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1235" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B1235" s="3" t="s">
+        <v>2266</v>
+      </c>
+      <c r="C1235" t="s">
+        <v>3462</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1236" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B1236" s="3" t="s">
+        <v>2266</v>
+      </c>
+      <c r="C1236" t="s">
+        <v>3455</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1237" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B1237" s="3" t="s">
+        <v>2267</v>
+      </c>
+      <c r="C1237" t="s">
+        <v>3451</v>
+      </c>
+      <c r="D1237" s="3" t="s">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1238" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B1238" s="3" t="s">
+        <v>2267</v>
+      </c>
+      <c r="C1238" t="s">
+        <v>3459</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1239" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B1239" s="3" t="s">
+        <v>2267</v>
+      </c>
+      <c r="C1239" t="s">
+        <v>3460</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1240" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B1240" s="3" t="s">
+        <v>2267</v>
+      </c>
+      <c r="C1240" t="s">
+        <v>3461</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1241" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B1241" s="3" t="s">
+        <v>2267</v>
+      </c>
+      <c r="C1241" t="s">
+        <v>3462</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1242" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B1242" s="3" t="s">
+        <v>2267</v>
+      </c>
+      <c r="C1242" t="s">
+        <v>3455</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1243" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B1243" s="3" t="s">
+        <v>2268</v>
+      </c>
+      <c r="C1243" t="s">
+        <v>3451</v>
+      </c>
+      <c r="D1243" s="3" t="s">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1244" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B1244" s="3" t="s">
+        <v>2268</v>
+      </c>
+      <c r="C1244" t="s">
+        <v>3459</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1245" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B1245" s="3" t="s">
+        <v>2268</v>
+      </c>
+      <c r="C1245" t="s">
+        <v>3460</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1246" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B1246" s="3" t="s">
+        <v>2268</v>
+      </c>
+      <c r="C1246" t="s">
+        <v>3461</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1247" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B1247" s="3" t="s">
+        <v>2268</v>
+      </c>
+      <c r="C1247" t="s">
+        <v>3462</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1248" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B1248" s="3" t="s">
+        <v>2268</v>
+      </c>
+      <c r="C1248" t="s">
+        <v>3455</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1249" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B1249" s="3" t="s">
+        <v>2269</v>
+      </c>
+      <c r="C1249" t="s">
+        <v>3451</v>
+      </c>
+      <c r="D1249" s="3" t="s">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1250" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B1250" s="3" t="s">
+        <v>2269</v>
+      </c>
+      <c r="C1250" t="s">
+        <v>3459</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1251" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B1251" s="3" t="s">
+        <v>2269</v>
+      </c>
+      <c r="C1251" t="s">
+        <v>3460</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1252" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B1252" s="3" t="s">
+        <v>2269</v>
+      </c>
+      <c r="C1252" t="s">
+        <v>3461</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1253" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B1253" s="3" t="s">
+        <v>2269</v>
+      </c>
+      <c r="C1253" t="s">
+        <v>3462</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1254" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B1254" s="3" t="s">
+        <v>2269</v>
+      </c>
+      <c r="C1254" t="s">
+        <v>3455</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1255" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B1255" s="3" t="s">
+        <v>2270</v>
+      </c>
+      <c r="C1255" t="s">
+        <v>3451</v>
+      </c>
+      <c r="D1255" s="3" t="s">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1256" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B1256" s="3" t="s">
+        <v>2270</v>
+      </c>
+      <c r="C1256" t="s">
+        <v>3459</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1257" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B1257" s="3" t="s">
+        <v>2270</v>
+      </c>
+      <c r="C1257" t="s">
+        <v>3460</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1258" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B1258" s="3" t="s">
+        <v>2270</v>
+      </c>
+      <c r="C1258" t="s">
+        <v>3461</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1259" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B1259" s="3" t="s">
+        <v>2270</v>
+      </c>
+      <c r="C1259" t="s">
+        <v>3462</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1260" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B1260" s="3" t="s">
+        <v>2270</v>
+      </c>
+      <c r="C1260" t="s">
+        <v>3455</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1261" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B1261" s="3" t="s">
+        <v>2272</v>
+      </c>
+      <c r="C1261" t="s">
+        <v>3464</v>
+      </c>
+      <c r="D1261" s="3" t="s">
+        <v>3463</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1262" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B1262" s="3" t="s">
+        <v>2272</v>
+      </c>
+      <c r="C1262" t="s">
+        <v>3465</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1263" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B1263" s="3" t="s">
+        <v>2272</v>
+      </c>
+      <c r="C1263" t="s">
+        <v>3466</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1264" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B1264" s="3" t="s">
+        <v>2272</v>
+      </c>
+      <c r="C1264" t="s">
+        <v>3467</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1265" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B1265" s="3" t="s">
+        <v>2272</v>
+      </c>
+      <c r="C1265" t="s">
+        <v>3468</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1266" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B1266" s="3" t="s">
+        <v>2272</v>
+      </c>
+      <c r="C1266" t="s">
+        <v>3469</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1267" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B1267" s="3" t="s">
+        <v>2273</v>
+      </c>
+      <c r="C1267" t="s">
+        <v>3464</v>
+      </c>
+      <c r="D1267" s="3" t="s">
+        <v>3463</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1268" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B1268" s="3" t="s">
+        <v>2273</v>
+      </c>
+      <c r="C1268" t="s">
+        <v>3465</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1269" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B1269" s="3" t="s">
+        <v>2273</v>
+      </c>
+      <c r="C1269" t="s">
+        <v>3466</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1270" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B1270" s="3" t="s">
+        <v>2273</v>
+      </c>
+      <c r="C1270" t="s">
+        <v>3467</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1271" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B1271" s="3" t="s">
+        <v>2273</v>
+      </c>
+      <c r="C1271" t="s">
+        <v>3468</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1272" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B1272" s="3" t="s">
+        <v>2273</v>
+      </c>
+      <c r="C1272" t="s">
+        <v>3469</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1273" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B1273" s="3" t="s">
+        <v>2274</v>
+      </c>
+      <c r="C1273" t="s">
+        <v>3464</v>
+      </c>
+      <c r="D1273" s="3" t="s">
+        <v>3463</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1274" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B1274" s="3" t="s">
+        <v>2274</v>
+      </c>
+      <c r="C1274" t="s">
+        <v>3465</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1275" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B1275" s="3" t="s">
+        <v>2274</v>
+      </c>
+      <c r="C1275" t="s">
+        <v>3466</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1276" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B1276" s="3" t="s">
+        <v>2274</v>
+      </c>
+      <c r="C1276" t="s">
+        <v>3467</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1277" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B1277" s="3" t="s">
+        <v>2274</v>
+      </c>
+      <c r="C1277" t="s">
+        <v>3468</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1278" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B1278" s="3" t="s">
+        <v>2274</v>
+      </c>
+      <c r="C1278" t="s">
+        <v>3469</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1279" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B1279" s="3" t="s">
+        <v>2275</v>
+      </c>
+      <c r="C1279" t="s">
+        <v>3464</v>
+      </c>
+      <c r="D1279" s="3" t="s">
+        <v>3463</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1280" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B1280" s="3" t="s">
+        <v>2275</v>
+      </c>
+      <c r="C1280" t="s">
+        <v>3465</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1281" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B1281" s="3" t="s">
+        <v>2275</v>
+      </c>
+      <c r="C1281" t="s">
+        <v>3466</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1282" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B1282" s="3" t="s">
+        <v>2275</v>
+      </c>
+      <c r="C1282" t="s">
+        <v>3467</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1283" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B1283" s="3" t="s">
+        <v>2275</v>
+      </c>
+      <c r="C1283" t="s">
+        <v>3468</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1284" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B1284" s="3" t="s">
+        <v>2275</v>
+      </c>
+      <c r="C1284" t="s">
+        <v>3469</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1285" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B1285" s="3" t="s">
+        <v>2276</v>
+      </c>
+      <c r="C1285" t="s">
+        <v>3464</v>
+      </c>
+      <c r="D1285" s="3" t="s">
+        <v>3463</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1286" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B1286" s="3" t="s">
+        <v>2276</v>
+      </c>
+      <c r="C1286" t="s">
+        <v>3465</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1287" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B1287" s="3" t="s">
+        <v>2276</v>
+      </c>
+      <c r="C1287" t="s">
+        <v>3466</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1288" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B1288" s="3" t="s">
+        <v>2276</v>
+      </c>
+      <c r="C1288" t="s">
+        <v>3467</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1289" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B1289" s="3" t="s">
+        <v>2276</v>
+      </c>
+      <c r="C1289" t="s">
+        <v>3468</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1290" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B1290" s="3" t="s">
+        <v>2276</v>
+      </c>
+      <c r="C1290" t="s">
+        <v>3469</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1291" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B1291" s="3" t="s">
+        <v>2277</v>
+      </c>
+      <c r="C1291" t="s">
+        <v>3464</v>
+      </c>
+      <c r="D1291" s="3" t="s">
+        <v>3463</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1292" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B1292" s="3" t="s">
+        <v>2277</v>
+      </c>
+      <c r="C1292" t="s">
+        <v>3465</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1293" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B1293" s="3" t="s">
+        <v>2277</v>
+      </c>
+      <c r="C1293" t="s">
+        <v>3466</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1294" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B1294" s="3" t="s">
+        <v>2277</v>
+      </c>
+      <c r="C1294" t="s">
+        <v>3467</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1295" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B1295" s="3" t="s">
+        <v>2277</v>
+      </c>
+      <c r="C1295" t="s">
+        <v>3468</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1296" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B1296" s="3" t="s">
+        <v>2277</v>
+      </c>
+      <c r="C1296" t="s">
+        <v>3469</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1297" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B1297" s="3" t="s">
+        <v>2278</v>
+      </c>
+      <c r="C1297" t="s">
+        <v>3464</v>
+      </c>
+      <c r="D1297" s="3" t="s">
+        <v>3463</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1298" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B1298" s="3" t="s">
+        <v>2278</v>
+      </c>
+      <c r="C1298" t="s">
+        <v>3465</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1299" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B1299" s="3" t="s">
+        <v>2278</v>
+      </c>
+      <c r="C1299" t="s">
+        <v>3466</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1300" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B1300" s="3" t="s">
+        <v>2278</v>
+      </c>
+      <c r="C1300" t="s">
+        <v>3467</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1301" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B1301" s="3" t="s">
+        <v>2278</v>
+      </c>
+      <c r="C1301" t="s">
+        <v>3468</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1302" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B1302" s="3" t="s">
+        <v>2278</v>
+      </c>
+      <c r="C1302" t="s">
+        <v>3469</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1303" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B1303" s="3" t="s">
+        <v>2279</v>
+      </c>
+      <c r="C1303" t="s">
+        <v>3464</v>
+      </c>
+      <c r="D1303" s="3" t="s">
+        <v>3463</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1304" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B1304" s="3" t="s">
+        <v>2279</v>
+      </c>
+      <c r="C1304" t="s">
+        <v>3465</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1305" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B1305" s="3" t="s">
+        <v>2279</v>
+      </c>
+      <c r="C1305" t="s">
+        <v>3466</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1306" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B1306" s="3" t="s">
+        <v>2279</v>
+      </c>
+      <c r="C1306" t="s">
+        <v>3467</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1307" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B1307" s="3" t="s">
+        <v>2279</v>
+      </c>
+      <c r="C1307" t="s">
+        <v>3468</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1308" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B1308" s="3" t="s">
+        <v>2279</v>
+      </c>
+      <c r="C1308" t="s">
+        <v>3469</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1309" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B1309" s="3" t="s">
+        <v>2280</v>
+      </c>
+      <c r="C1309" t="s">
+        <v>3464</v>
+      </c>
+      <c r="D1309" s="3" t="s">
+        <v>3463</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1310" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B1310" s="3" t="s">
+        <v>2280</v>
+      </c>
+      <c r="C1310" t="s">
+        <v>3465</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1311" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B1311" s="3" t="s">
+        <v>2280</v>
+      </c>
+      <c r="C1311" t="s">
+        <v>3466</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1312" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B1312" s="3" t="s">
+        <v>2280</v>
+      </c>
+      <c r="C1312" t="s">
+        <v>3467</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1313" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B1313" s="3" t="s">
+        <v>2280</v>
+      </c>
+      <c r="C1313" t="s">
+        <v>3468</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1314" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B1314" s="3" t="s">
+        <v>2280</v>
+      </c>
+      <c r="C1314" t="s">
+        <v>3469</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1315" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B1315" s="3" t="s">
+        <v>2281</v>
+      </c>
+      <c r="C1315" t="s">
+        <v>3464</v>
+      </c>
+      <c r="D1315" s="3" t="s">
+        <v>3463</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1316" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B1316" s="3" t="s">
+        <v>2281</v>
+      </c>
+      <c r="C1316" t="s">
+        <v>3465</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1317" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B1317" s="3" t="s">
+        <v>2281</v>
+      </c>
+      <c r="C1317" t="s">
+        <v>3466</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1318" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B1318" s="3" t="s">
+        <v>2281</v>
+      </c>
+      <c r="C1318" t="s">
+        <v>3467</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1319" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B1319" s="3" t="s">
+        <v>2281</v>
+      </c>
+      <c r="C1319" t="s">
+        <v>3468</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1320" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B1320" s="3" t="s">
+        <v>2281</v>
+      </c>
+      <c r="C1320" t="s">
+        <v>3469</v>
       </c>
     </row>
   </sheetData>

--- a/gdcdictionary/xlsx/nodes_schema_impowr.xlsx
+++ b/gdcdictionary/xlsx/nodes_schema_impowr.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vithal\Documents\GitHub\dcfdictionary\gdcdictionary\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0983C11-C6F5-4C28-B7F2-40E4CE21BFFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35EEA821-5938-406E-B82C-5D117888CC0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1350" yWindow="5355" windowWidth="25260" windowHeight="9195" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1935" yWindow="5625" windowWidth="23715" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nodes_impowr" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11508" uniqueCount="3470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11646" uniqueCount="3498">
   <si>
     <t>&lt;$schema&gt;</t>
   </si>
@@ -10477,6 +10477,90 @@
   </si>
   <si>
     <t>Many times a Day</t>
+  </si>
+  <si>
+    <t>0, Not hard at all | 1, Not very hard | 2, Somewhat hard | 3, Hard | 4, Very Hard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not hard at all </t>
+  </si>
+  <si>
+    <t>Not very hard</t>
+  </si>
+  <si>
+    <t>Somewhat hard</t>
+  </si>
+  <si>
+    <t>Hard</t>
+  </si>
+  <si>
+    <t>Very Hard</t>
+  </si>
+  <si>
+    <t>0, Never true | 1, Sometimes true | 2, Often True</t>
+  </si>
+  <si>
+    <t>Never true</t>
+  </si>
+  <si>
+    <t>Sometimes true</t>
+  </si>
+  <si>
+    <t>Often True</t>
+  </si>
+  <si>
+    <t>1, Never | 2, Seldom | 3, Sometimes | 4, Frequently | 5, Always</t>
+  </si>
+  <si>
+    <t>Seldom</t>
+  </si>
+  <si>
+    <t>Frequently</t>
+  </si>
+  <si>
+    <t>1, SSRIs? (e.g., sertraline, citalopram, fluoxetine, paroxetine) | 2, SNRIs? (e.g., venlafaxine, duloxetine) | 3, Mood Stabilizers? (e.g., depakote, lamotrigine, lithium) | 4, Antipsychotics? (e.g., quetiapine, risperidone, aripiprazole, olanzapine) | 5, Benzodiazepines? (e.g., clonazepam, diazepam, lorazepam) | 6, Other</t>
+  </si>
+  <si>
+    <t>SSRIs? (e.g., sertraline, citalopram, fluoxetine, paroxetine)</t>
+  </si>
+  <si>
+    <t>SNRIs? (e.g., venlafaxine, duloxetine)</t>
+  </si>
+  <si>
+    <t>Mood Stabilizers? (e.g., depakote, lamotrigine, lithium)</t>
+  </si>
+  <si>
+    <t>Antipsychotics? (e.g., quetiapine, risperidone, aripiprazole, olanzapine)</t>
+  </si>
+  <si>
+    <t>Benzodiazepines? (e.g., clonazepam, diazepam, lorazepam)</t>
+  </si>
+  <si>
+    <t>1, No | 2, Yes | 3, Prefer not to answer</t>
+  </si>
+  <si>
+    <t>1, I drive myself | 2, Someone else drives me | 3, Taxi/Uber/Rideshare/Lyft | 4, Clinic van | 5, Bus | 6, Subway | 7, Walk | 8, Other</t>
+  </si>
+  <si>
+    <t>I drive myself</t>
+  </si>
+  <si>
+    <t>Someone else drives me</t>
+  </si>
+  <si>
+    <t>Taxi/Uber/Rideshare/Lyft</t>
+  </si>
+  <si>
+    <t>Clinic van</t>
+  </si>
+  <si>
+    <t>Bus</t>
+  </si>
+  <si>
+    <t>Subway</t>
+  </si>
+  <si>
+    <t>Walk</t>
   </si>
 </sst>
 </file>
@@ -19353,9 +19437,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K1209"/>
   <sheetViews>
-    <sheetView zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A635" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A637" sqref="A637:B637"/>
+    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A750" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B754" sqref="B754"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29724,7 +29808,7 @@
         <v>2520</v>
       </c>
       <c r="E738" s="3" t="s">
-        <v>2009</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="739" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -29794,7 +29878,7 @@
         <v>2525</v>
       </c>
       <c r="E743" s="3" t="s">
-        <v>2009</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="744" spans="1:5" x14ac:dyDescent="0.25">
@@ -36327,19 +36411,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E1320"/>
+  <dimension ref="A1:E1363"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1310" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1315" sqref="A1315:B1320"/>
+    <sheetView zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1346" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1356" sqref="A1356:B1363"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30" customWidth="1"/>
-    <col min="3" max="3" width="54.5703125" customWidth="1"/>
-    <col min="4" max="4" width="136.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="134.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="60.85546875" style="9" customWidth="1"/>
     <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -51222,6 +51306,506 @@
         <v>3469</v>
       </c>
     </row>
+    <row r="1321" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1321" t="s">
+        <v>1745</v>
+      </c>
+      <c r="B1321" s="3" t="s">
+        <v>2308</v>
+      </c>
+      <c r="C1321" t="s">
+        <v>3471</v>
+      </c>
+      <c r="D1321" s="3" t="s">
+        <v>3470</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1322" t="s">
+        <v>1745</v>
+      </c>
+      <c r="B1322" s="3" t="s">
+        <v>2308</v>
+      </c>
+      <c r="C1322" t="s">
+        <v>3472</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1323" t="s">
+        <v>1745</v>
+      </c>
+      <c r="B1323" s="3" t="s">
+        <v>2308</v>
+      </c>
+      <c r="C1323" t="s">
+        <v>3473</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1324" t="s">
+        <v>1745</v>
+      </c>
+      <c r="B1324" s="3" t="s">
+        <v>2308</v>
+      </c>
+      <c r="C1324" t="s">
+        <v>3474</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1325" t="s">
+        <v>1745</v>
+      </c>
+      <c r="B1325" s="3" t="s">
+        <v>2308</v>
+      </c>
+      <c r="C1325" t="s">
+        <v>3475</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1326" t="s">
+        <v>1745</v>
+      </c>
+      <c r="B1326" s="3" t="s">
+        <v>2309</v>
+      </c>
+      <c r="C1326" t="s">
+        <v>3477</v>
+      </c>
+      <c r="D1326" s="3" t="s">
+        <v>3476</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1327" t="s">
+        <v>1745</v>
+      </c>
+      <c r="B1327" s="3" t="s">
+        <v>2309</v>
+      </c>
+      <c r="C1327" t="s">
+        <v>3478</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1328" t="s">
+        <v>1745</v>
+      </c>
+      <c r="B1328" s="3" t="s">
+        <v>2309</v>
+      </c>
+      <c r="C1328" t="s">
+        <v>3479</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1329" t="s">
+        <v>1745</v>
+      </c>
+      <c r="B1329" s="3" t="s">
+        <v>2310</v>
+      </c>
+      <c r="C1329" t="s">
+        <v>3477</v>
+      </c>
+      <c r="D1329" s="3" t="s">
+        <v>3476</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1330" t="s">
+        <v>1745</v>
+      </c>
+      <c r="B1330" s="3" t="s">
+        <v>2310</v>
+      </c>
+      <c r="C1330" t="s">
+        <v>3478</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1331" t="s">
+        <v>1745</v>
+      </c>
+      <c r="B1331" s="3" t="s">
+        <v>2310</v>
+      </c>
+      <c r="C1331" t="s">
+        <v>3479</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1332" t="s">
+        <v>1745</v>
+      </c>
+      <c r="B1332" s="3" t="s">
+        <v>2316</v>
+      </c>
+      <c r="C1332" t="s">
+        <v>3434</v>
+      </c>
+      <c r="D1332" s="3" t="s">
+        <v>3480</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1333" t="s">
+        <v>1745</v>
+      </c>
+      <c r="B1333" s="3" t="s">
+        <v>2316</v>
+      </c>
+      <c r="C1333" t="s">
+        <v>3481</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1334" t="s">
+        <v>1745</v>
+      </c>
+      <c r="B1334" s="3" t="s">
+        <v>2316</v>
+      </c>
+      <c r="C1334" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1335" t="s">
+        <v>1745</v>
+      </c>
+      <c r="B1335" s="3" t="s">
+        <v>2316</v>
+      </c>
+      <c r="C1335" t="s">
+        <v>3482</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1336" t="s">
+        <v>1745</v>
+      </c>
+      <c r="B1336" s="3" t="s">
+        <v>2316</v>
+      </c>
+      <c r="C1336" t="s">
+        <v>3438</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1337" t="s">
+        <v>1745</v>
+      </c>
+      <c r="B1337" s="3" t="s">
+        <v>2317</v>
+      </c>
+      <c r="C1337" t="s">
+        <v>3434</v>
+      </c>
+      <c r="D1337" s="3" t="s">
+        <v>3480</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1338" t="s">
+        <v>1745</v>
+      </c>
+      <c r="B1338" s="3" t="s">
+        <v>2317</v>
+      </c>
+      <c r="C1338" t="s">
+        <v>3481</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1339" t="s">
+        <v>1745</v>
+      </c>
+      <c r="B1339" s="3" t="s">
+        <v>2317</v>
+      </c>
+      <c r="C1339" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1340" t="s">
+        <v>1745</v>
+      </c>
+      <c r="B1340" s="3" t="s">
+        <v>2317</v>
+      </c>
+      <c r="C1340" t="s">
+        <v>3482</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1341" t="s">
+        <v>1745</v>
+      </c>
+      <c r="B1341" s="3" t="s">
+        <v>2317</v>
+      </c>
+      <c r="C1341" t="s">
+        <v>3438</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1342" t="s">
+        <v>1745</v>
+      </c>
+      <c r="B1342" s="3" t="s">
+        <v>2318</v>
+      </c>
+      <c r="C1342" t="s">
+        <v>3434</v>
+      </c>
+      <c r="D1342" s="3" t="s">
+        <v>3480</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1343" t="s">
+        <v>1745</v>
+      </c>
+      <c r="B1343" s="3" t="s">
+        <v>2318</v>
+      </c>
+      <c r="C1343" t="s">
+        <v>3481</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1344" t="s">
+        <v>1745</v>
+      </c>
+      <c r="B1344" s="3" t="s">
+        <v>2318</v>
+      </c>
+      <c r="C1344" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1345" t="s">
+        <v>1745</v>
+      </c>
+      <c r="B1345" s="3" t="s">
+        <v>2318</v>
+      </c>
+      <c r="C1345" t="s">
+        <v>3482</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1346" t="s">
+        <v>1745</v>
+      </c>
+      <c r="B1346" s="3" t="s">
+        <v>2318</v>
+      </c>
+      <c r="C1346" t="s">
+        <v>3438</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1347" t="s">
+        <v>1753</v>
+      </c>
+      <c r="B1347" s="3" t="s">
+        <v>2390</v>
+      </c>
+      <c r="C1347" t="s">
+        <v>3484</v>
+      </c>
+      <c r="D1347" s="3" t="s">
+        <v>3483</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1348" t="s">
+        <v>1753</v>
+      </c>
+      <c r="B1348" s="3" t="s">
+        <v>2390</v>
+      </c>
+      <c r="C1348" t="s">
+        <v>3485</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1349" t="s">
+        <v>1753</v>
+      </c>
+      <c r="B1349" s="3" t="s">
+        <v>2390</v>
+      </c>
+      <c r="C1349" t="s">
+        <v>3486</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1350" t="s">
+        <v>1753</v>
+      </c>
+      <c r="B1350" s="3" t="s">
+        <v>2390</v>
+      </c>
+      <c r="C1350" t="s">
+        <v>3487</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1351" t="s">
+        <v>1753</v>
+      </c>
+      <c r="B1351" s="3" t="s">
+        <v>2390</v>
+      </c>
+      <c r="C1351" t="s">
+        <v>3488</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1352" t="s">
+        <v>1753</v>
+      </c>
+      <c r="B1352" s="3" t="s">
+        <v>2390</v>
+      </c>
+      <c r="C1352" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1353" t="s">
+        <v>1753</v>
+      </c>
+      <c r="B1353" s="3" t="s">
+        <v>2406</v>
+      </c>
+      <c r="C1353" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D1353" s="3" t="s">
+        <v>3489</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1354" t="s">
+        <v>1753</v>
+      </c>
+      <c r="B1354" s="3" t="s">
+        <v>2406</v>
+      </c>
+      <c r="C1354" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1355" t="s">
+        <v>1753</v>
+      </c>
+      <c r="B1355" s="3" t="s">
+        <v>2406</v>
+      </c>
+      <c r="C1355" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1356" t="s">
+        <v>1753</v>
+      </c>
+      <c r="B1356" s="3" t="s">
+        <v>2411</v>
+      </c>
+      <c r="C1356" t="s">
+        <v>3491</v>
+      </c>
+      <c r="D1356" s="3" t="s">
+        <v>3490</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1357" t="s">
+        <v>1753</v>
+      </c>
+      <c r="B1357" s="3" t="s">
+        <v>2411</v>
+      </c>
+      <c r="C1357" t="s">
+        <v>3492</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1358" t="s">
+        <v>1753</v>
+      </c>
+      <c r="B1358" s="3" t="s">
+        <v>2411</v>
+      </c>
+      <c r="C1358" t="s">
+        <v>3493</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1359" t="s">
+        <v>1753</v>
+      </c>
+      <c r="B1359" s="3" t="s">
+        <v>2411</v>
+      </c>
+      <c r="C1359" t="s">
+        <v>3494</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1360" t="s">
+        <v>1753</v>
+      </c>
+      <c r="B1360" s="3" t="s">
+        <v>2411</v>
+      </c>
+      <c r="C1360" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="1361" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1361" t="s">
+        <v>1753</v>
+      </c>
+      <c r="B1361" s="3" t="s">
+        <v>2411</v>
+      </c>
+      <c r="C1361" t="s">
+        <v>3496</v>
+      </c>
+    </row>
+    <row r="1362" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1362" t="s">
+        <v>1753</v>
+      </c>
+      <c r="B1362" s="3" t="s">
+        <v>2411</v>
+      </c>
+      <c r="C1362" t="s">
+        <v>3497</v>
+      </c>
+    </row>
+    <row r="1363" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1363" t="s">
+        <v>1753</v>
+      </c>
+      <c r="B1363" s="3" t="s">
+        <v>2411</v>
+      </c>
+      <c r="C1363" t="s">
+        <v>1074</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/gdcdictionary/xlsx/nodes_schema_impowr.xlsx
+++ b/gdcdictionary/xlsx/nodes_schema_impowr.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vithal\Documents\GitHub\dcfdictionary\gdcdictionary\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35EEA821-5938-406E-B82C-5D117888CC0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{280DBCA1-D698-44BC-B35D-14AFDE432E8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1935" yWindow="5625" windowWidth="23715" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="585" yWindow="7950" windowWidth="24375" windowHeight="7470" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nodes_impowr" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11646" uniqueCount="3498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12008" uniqueCount="3502">
   <si>
     <t>&lt;$schema&gt;</t>
   </si>
@@ -10561,6 +10561,18 @@
   </si>
   <si>
     <t>Walk</t>
+  </si>
+  <si>
+    <t>0, No | 1, Yes</t>
+  </si>
+  <si>
+    <t>0, Not at all | 1, A little bit | 2, Moderately | 3, Quite a bit | 4, Extremely</t>
+  </si>
+  <si>
+    <t>Moderately</t>
+  </si>
+  <si>
+    <t>Extremely</t>
   </si>
 </sst>
 </file>
@@ -19437,9 +19449,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K1209"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A750" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B754" sqref="B754"/>
+    <sheetView zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A783" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A780" sqref="A780:B780"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36411,19 +36423,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E1363"/>
+  <dimension ref="A1:E1475"/>
   <sheetViews>
-    <sheetView zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1346" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1356" sqref="A1356:B1363"/>
+    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1466" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1471" sqref="A1471:B1475"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30" customWidth="1"/>
-    <col min="3" max="3" width="134.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="60.85546875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="79.42578125" customWidth="1"/>
+    <col min="4" max="4" width="255.7109375" style="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -51773,7 +51785,7 @@
         <v>3495</v>
       </c>
     </row>
-    <row r="1361" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1361" t="s">
         <v>1753</v>
       </c>
@@ -51784,7 +51796,7 @@
         <v>3496</v>
       </c>
     </row>
-    <row r="1362" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1362" t="s">
         <v>1753</v>
       </c>
@@ -51795,7 +51807,7 @@
         <v>3497</v>
       </c>
     </row>
-    <row r="1363" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1363" t="s">
         <v>1753</v>
       </c>
@@ -51804,6 +51816,1316 @@
       </c>
       <c r="C1363" t="s">
         <v>1074</v>
+      </c>
+    </row>
+    <row r="1364" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1364" t="s">
+        <v>1896</v>
+      </c>
+      <c r="B1364" s="3" t="s">
+        <v>2536</v>
+      </c>
+      <c r="C1364" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D1364" s="3" t="s">
+        <v>3498</v>
+      </c>
+    </row>
+    <row r="1365" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1365" t="s">
+        <v>1896</v>
+      </c>
+      <c r="B1365" s="3" t="s">
+        <v>2536</v>
+      </c>
+      <c r="C1365" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="1366" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1366" t="s">
+        <v>1896</v>
+      </c>
+      <c r="B1366" s="3" t="s">
+        <v>2537</v>
+      </c>
+      <c r="C1366" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D1366" s="3" t="s">
+        <v>3498</v>
+      </c>
+    </row>
+    <row r="1367" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1367" t="s">
+        <v>1896</v>
+      </c>
+      <c r="B1367" s="3" t="s">
+        <v>2537</v>
+      </c>
+      <c r="C1367" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="1368" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1368" t="s">
+        <v>1896</v>
+      </c>
+      <c r="B1368" s="3" t="s">
+        <v>2538</v>
+      </c>
+      <c r="C1368" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D1368" s="3" t="s">
+        <v>3498</v>
+      </c>
+    </row>
+    <row r="1369" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1369" t="s">
+        <v>1896</v>
+      </c>
+      <c r="B1369" s="3" t="s">
+        <v>2538</v>
+      </c>
+      <c r="C1369" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="1370" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1370" t="s">
+        <v>1896</v>
+      </c>
+      <c r="B1370" s="3" t="s">
+        <v>2539</v>
+      </c>
+      <c r="C1370" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D1370" s="3" t="s">
+        <v>3498</v>
+      </c>
+    </row>
+    <row r="1371" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1371" t="s">
+        <v>1896</v>
+      </c>
+      <c r="B1371" s="3" t="s">
+        <v>2539</v>
+      </c>
+      <c r="C1371" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="1372" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1372" t="s">
+        <v>1896</v>
+      </c>
+      <c r="B1372" s="3" t="s">
+        <v>2540</v>
+      </c>
+      <c r="C1372" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D1372" s="3" t="s">
+        <v>3498</v>
+      </c>
+    </row>
+    <row r="1373" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1373" t="s">
+        <v>1896</v>
+      </c>
+      <c r="B1373" s="3" t="s">
+        <v>2540</v>
+      </c>
+      <c r="C1373" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="1374" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1374" t="s">
+        <v>1896</v>
+      </c>
+      <c r="B1374" s="3" t="s">
+        <v>2541</v>
+      </c>
+      <c r="C1374" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D1374" s="3" t="s">
+        <v>3498</v>
+      </c>
+    </row>
+    <row r="1375" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1375" t="s">
+        <v>1896</v>
+      </c>
+      <c r="B1375" s="3" t="s">
+        <v>2541</v>
+      </c>
+      <c r="C1375" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="1376" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1376" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B1376" s="3" t="s">
+        <v>2543</v>
+      </c>
+      <c r="C1376" t="s">
+        <v>3410</v>
+      </c>
+      <c r="D1376" s="3" t="s">
+        <v>3499</v>
+      </c>
+    </row>
+    <row r="1377" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1377" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B1377" s="3" t="s">
+        <v>2543</v>
+      </c>
+      <c r="C1377" t="s">
+        <v>3409</v>
+      </c>
+    </row>
+    <row r="1378" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1378" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B1378" s="3" t="s">
+        <v>2543</v>
+      </c>
+      <c r="C1378" t="s">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="1379" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1379" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B1379" s="3" t="s">
+        <v>2543</v>
+      </c>
+      <c r="C1379" t="s">
+        <v>3407</v>
+      </c>
+    </row>
+    <row r="1380" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1380" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B1380" s="3" t="s">
+        <v>2543</v>
+      </c>
+      <c r="C1380" t="s">
+        <v>3501</v>
+      </c>
+    </row>
+    <row r="1381" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1381" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B1381" s="3" t="s">
+        <v>2544</v>
+      </c>
+      <c r="C1381" t="s">
+        <v>3410</v>
+      </c>
+      <c r="D1381" s="3" t="s">
+        <v>3499</v>
+      </c>
+    </row>
+    <row r="1382" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1382" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B1382" s="3" t="s">
+        <v>2544</v>
+      </c>
+      <c r="C1382" t="s">
+        <v>3409</v>
+      </c>
+    </row>
+    <row r="1383" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1383" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B1383" s="3" t="s">
+        <v>2544</v>
+      </c>
+      <c r="C1383" t="s">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="1384" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1384" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B1384" s="3" t="s">
+        <v>2544</v>
+      </c>
+      <c r="C1384" t="s">
+        <v>3407</v>
+      </c>
+    </row>
+    <row r="1385" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1385" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B1385" s="3" t="s">
+        <v>2544</v>
+      </c>
+      <c r="C1385" t="s">
+        <v>3501</v>
+      </c>
+    </row>
+    <row r="1386" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1386" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B1386" s="3" t="s">
+        <v>2545</v>
+      </c>
+      <c r="C1386" t="s">
+        <v>3410</v>
+      </c>
+      <c r="D1386" s="3" t="s">
+        <v>3499</v>
+      </c>
+    </row>
+    <row r="1387" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1387" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B1387" s="3" t="s">
+        <v>2545</v>
+      </c>
+      <c r="C1387" t="s">
+        <v>3409</v>
+      </c>
+    </row>
+    <row r="1388" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1388" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B1388" s="3" t="s">
+        <v>2545</v>
+      </c>
+      <c r="C1388" t="s">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="1389" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1389" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B1389" s="3" t="s">
+        <v>2545</v>
+      </c>
+      <c r="C1389" t="s">
+        <v>3407</v>
+      </c>
+    </row>
+    <row r="1390" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1390" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B1390" s="3" t="s">
+        <v>2545</v>
+      </c>
+      <c r="C1390" t="s">
+        <v>3501</v>
+      </c>
+    </row>
+    <row r="1391" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1391" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B1391" s="3" t="s">
+        <v>2546</v>
+      </c>
+      <c r="C1391" t="s">
+        <v>3410</v>
+      </c>
+      <c r="D1391" s="3" t="s">
+        <v>3499</v>
+      </c>
+    </row>
+    <row r="1392" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1392" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B1392" s="3" t="s">
+        <v>2546</v>
+      </c>
+      <c r="C1392" t="s">
+        <v>3409</v>
+      </c>
+    </row>
+    <row r="1393" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1393" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B1393" s="3" t="s">
+        <v>2546</v>
+      </c>
+      <c r="C1393" t="s">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="1394" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1394" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B1394" s="3" t="s">
+        <v>2546</v>
+      </c>
+      <c r="C1394" t="s">
+        <v>3407</v>
+      </c>
+    </row>
+    <row r="1395" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1395" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B1395" s="3" t="s">
+        <v>2546</v>
+      </c>
+      <c r="C1395" t="s">
+        <v>3501</v>
+      </c>
+    </row>
+    <row r="1396" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1396" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B1396" s="3" t="s">
+        <v>2547</v>
+      </c>
+      <c r="C1396" t="s">
+        <v>3410</v>
+      </c>
+      <c r="D1396" s="3" t="s">
+        <v>3499</v>
+      </c>
+    </row>
+    <row r="1397" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1397" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B1397" s="3" t="s">
+        <v>2547</v>
+      </c>
+      <c r="C1397" t="s">
+        <v>3409</v>
+      </c>
+    </row>
+    <row r="1398" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1398" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B1398" s="3" t="s">
+        <v>2547</v>
+      </c>
+      <c r="C1398" t="s">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="1399" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1399" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B1399" s="3" t="s">
+        <v>2547</v>
+      </c>
+      <c r="C1399" t="s">
+        <v>3407</v>
+      </c>
+    </row>
+    <row r="1400" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1400" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B1400" s="3" t="s">
+        <v>2547</v>
+      </c>
+      <c r="C1400" t="s">
+        <v>3501</v>
+      </c>
+    </row>
+    <row r="1401" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1401" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B1401" s="3" t="s">
+        <v>2548</v>
+      </c>
+      <c r="C1401" t="s">
+        <v>3410</v>
+      </c>
+      <c r="D1401" s="3" t="s">
+        <v>3499</v>
+      </c>
+    </row>
+    <row r="1402" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1402" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B1402" s="3" t="s">
+        <v>2548</v>
+      </c>
+      <c r="C1402" t="s">
+        <v>3409</v>
+      </c>
+    </row>
+    <row r="1403" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1403" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B1403" s="3" t="s">
+        <v>2548</v>
+      </c>
+      <c r="C1403" t="s">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="1404" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1404" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B1404" s="3" t="s">
+        <v>2548</v>
+      </c>
+      <c r="C1404" t="s">
+        <v>3407</v>
+      </c>
+    </row>
+    <row r="1405" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1405" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B1405" s="3" t="s">
+        <v>2548</v>
+      </c>
+      <c r="C1405" t="s">
+        <v>3501</v>
+      </c>
+    </row>
+    <row r="1406" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1406" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B1406" s="3" t="s">
+        <v>2549</v>
+      </c>
+      <c r="C1406" t="s">
+        <v>3410</v>
+      </c>
+      <c r="D1406" s="3" t="s">
+        <v>3499</v>
+      </c>
+    </row>
+    <row r="1407" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1407" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B1407" s="3" t="s">
+        <v>2549</v>
+      </c>
+      <c r="C1407" t="s">
+        <v>3409</v>
+      </c>
+    </row>
+    <row r="1408" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1408" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B1408" s="3" t="s">
+        <v>2549</v>
+      </c>
+      <c r="C1408" t="s">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="1409" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1409" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B1409" s="3" t="s">
+        <v>2549</v>
+      </c>
+      <c r="C1409" t="s">
+        <v>3407</v>
+      </c>
+    </row>
+    <row r="1410" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1410" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B1410" s="3" t="s">
+        <v>2549</v>
+      </c>
+      <c r="C1410" t="s">
+        <v>3501</v>
+      </c>
+    </row>
+    <row r="1411" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1411" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B1411" s="3" t="s">
+        <v>2550</v>
+      </c>
+      <c r="C1411" t="s">
+        <v>3410</v>
+      </c>
+      <c r="D1411" s="3" t="s">
+        <v>3499</v>
+      </c>
+    </row>
+    <row r="1412" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1412" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B1412" s="3" t="s">
+        <v>2550</v>
+      </c>
+      <c r="C1412" t="s">
+        <v>3409</v>
+      </c>
+    </row>
+    <row r="1413" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1413" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B1413" s="3" t="s">
+        <v>2550</v>
+      </c>
+      <c r="C1413" t="s">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="1414" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1414" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B1414" s="3" t="s">
+        <v>2550</v>
+      </c>
+      <c r="C1414" t="s">
+        <v>3407</v>
+      </c>
+    </row>
+    <row r="1415" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1415" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B1415" s="3" t="s">
+        <v>2550</v>
+      </c>
+      <c r="C1415" t="s">
+        <v>3501</v>
+      </c>
+    </row>
+    <row r="1416" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1416" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B1416" s="3" t="s">
+        <v>2551</v>
+      </c>
+      <c r="C1416" t="s">
+        <v>3410</v>
+      </c>
+      <c r="D1416" s="3" t="s">
+        <v>3499</v>
+      </c>
+    </row>
+    <row r="1417" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1417" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B1417" s="3" t="s">
+        <v>2551</v>
+      </c>
+      <c r="C1417" t="s">
+        <v>3409</v>
+      </c>
+    </row>
+    <row r="1418" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1418" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B1418" s="3" t="s">
+        <v>2551</v>
+      </c>
+      <c r="C1418" t="s">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="1419" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1419" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B1419" s="3" t="s">
+        <v>2551</v>
+      </c>
+      <c r="C1419" t="s">
+        <v>3407</v>
+      </c>
+    </row>
+    <row r="1420" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1420" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B1420" s="3" t="s">
+        <v>2551</v>
+      </c>
+      <c r="C1420" t="s">
+        <v>3501</v>
+      </c>
+    </row>
+    <row r="1421" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1421" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B1421" s="3" t="s">
+        <v>2552</v>
+      </c>
+      <c r="C1421" t="s">
+        <v>3410</v>
+      </c>
+      <c r="D1421" s="3" t="s">
+        <v>3499</v>
+      </c>
+    </row>
+    <row r="1422" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1422" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B1422" s="3" t="s">
+        <v>2552</v>
+      </c>
+      <c r="C1422" t="s">
+        <v>3409</v>
+      </c>
+    </row>
+    <row r="1423" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1423" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B1423" s="3" t="s">
+        <v>2552</v>
+      </c>
+      <c r="C1423" t="s">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="1424" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1424" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B1424" s="3" t="s">
+        <v>2552</v>
+      </c>
+      <c r="C1424" t="s">
+        <v>3407</v>
+      </c>
+    </row>
+    <row r="1425" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1425" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B1425" s="3" t="s">
+        <v>2552</v>
+      </c>
+      <c r="C1425" t="s">
+        <v>3501</v>
+      </c>
+    </row>
+    <row r="1426" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1426" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B1426" s="3" t="s">
+        <v>2553</v>
+      </c>
+      <c r="C1426" t="s">
+        <v>3410</v>
+      </c>
+      <c r="D1426" s="3" t="s">
+        <v>3499</v>
+      </c>
+    </row>
+    <row r="1427" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1427" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B1427" s="3" t="s">
+        <v>2553</v>
+      </c>
+      <c r="C1427" t="s">
+        <v>3409</v>
+      </c>
+    </row>
+    <row r="1428" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1428" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B1428" s="3" t="s">
+        <v>2553</v>
+      </c>
+      <c r="C1428" t="s">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="1429" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1429" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B1429" s="3" t="s">
+        <v>2553</v>
+      </c>
+      <c r="C1429" t="s">
+        <v>3407</v>
+      </c>
+    </row>
+    <row r="1430" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1430" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B1430" s="3" t="s">
+        <v>2553</v>
+      </c>
+      <c r="C1430" t="s">
+        <v>3501</v>
+      </c>
+    </row>
+    <row r="1431" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1431" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B1431" s="3" t="s">
+        <v>2554</v>
+      </c>
+      <c r="C1431" t="s">
+        <v>3410</v>
+      </c>
+      <c r="D1431" s="3" t="s">
+        <v>3499</v>
+      </c>
+    </row>
+    <row r="1432" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1432" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B1432" s="3" t="s">
+        <v>2554</v>
+      </c>
+      <c r="C1432" t="s">
+        <v>3409</v>
+      </c>
+    </row>
+    <row r="1433" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1433" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B1433" s="3" t="s">
+        <v>2554</v>
+      </c>
+      <c r="C1433" t="s">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="1434" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1434" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B1434" s="3" t="s">
+        <v>2554</v>
+      </c>
+      <c r="C1434" t="s">
+        <v>3407</v>
+      </c>
+    </row>
+    <row r="1435" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1435" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B1435" s="3" t="s">
+        <v>2554</v>
+      </c>
+      <c r="C1435" t="s">
+        <v>3501</v>
+      </c>
+    </row>
+    <row r="1436" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1436" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B1436" s="3" t="s">
+        <v>2555</v>
+      </c>
+      <c r="C1436" t="s">
+        <v>3410</v>
+      </c>
+      <c r="D1436" s="3" t="s">
+        <v>3499</v>
+      </c>
+    </row>
+    <row r="1437" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1437" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B1437" s="3" t="s">
+        <v>2555</v>
+      </c>
+      <c r="C1437" t="s">
+        <v>3409</v>
+      </c>
+    </row>
+    <row r="1438" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1438" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B1438" s="3" t="s">
+        <v>2555</v>
+      </c>
+      <c r="C1438" t="s">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="1439" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1439" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B1439" s="3" t="s">
+        <v>2555</v>
+      </c>
+      <c r="C1439" t="s">
+        <v>3407</v>
+      </c>
+    </row>
+    <row r="1440" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1440" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B1440" s="3" t="s">
+        <v>2555</v>
+      </c>
+      <c r="C1440" t="s">
+        <v>3501</v>
+      </c>
+    </row>
+    <row r="1441" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1441" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B1441" s="3" t="s">
+        <v>2556</v>
+      </c>
+      <c r="C1441" t="s">
+        <v>3410</v>
+      </c>
+      <c r="D1441" s="3" t="s">
+        <v>3499</v>
+      </c>
+    </row>
+    <row r="1442" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1442" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B1442" s="3" t="s">
+        <v>2556</v>
+      </c>
+      <c r="C1442" t="s">
+        <v>3409</v>
+      </c>
+    </row>
+    <row r="1443" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1443" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B1443" s="3" t="s">
+        <v>2556</v>
+      </c>
+      <c r="C1443" t="s">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="1444" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1444" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B1444" s="3" t="s">
+        <v>2556</v>
+      </c>
+      <c r="C1444" t="s">
+        <v>3407</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1445" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B1445" s="3" t="s">
+        <v>2556</v>
+      </c>
+      <c r="C1445" t="s">
+        <v>3501</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1446" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B1446" s="3" t="s">
+        <v>2557</v>
+      </c>
+      <c r="C1446" t="s">
+        <v>3410</v>
+      </c>
+      <c r="D1446" s="3" t="s">
+        <v>3499</v>
+      </c>
+    </row>
+    <row r="1447" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1447" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B1447" s="3" t="s">
+        <v>2557</v>
+      </c>
+      <c r="C1447" t="s">
+        <v>3409</v>
+      </c>
+    </row>
+    <row r="1448" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1448" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B1448" s="3" t="s">
+        <v>2557</v>
+      </c>
+      <c r="C1448" t="s">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="1449" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1449" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B1449" s="3" t="s">
+        <v>2557</v>
+      </c>
+      <c r="C1449" t="s">
+        <v>3407</v>
+      </c>
+    </row>
+    <row r="1450" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1450" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B1450" s="3" t="s">
+        <v>2557</v>
+      </c>
+      <c r="C1450" t="s">
+        <v>3501</v>
+      </c>
+    </row>
+    <row r="1451" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1451" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B1451" s="3" t="s">
+        <v>2558</v>
+      </c>
+      <c r="C1451" t="s">
+        <v>3410</v>
+      </c>
+      <c r="D1451" s="3" t="s">
+        <v>3499</v>
+      </c>
+    </row>
+    <row r="1452" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1452" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B1452" s="3" t="s">
+        <v>2558</v>
+      </c>
+      <c r="C1452" t="s">
+        <v>3409</v>
+      </c>
+    </row>
+    <row r="1453" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1453" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B1453" s="3" t="s">
+        <v>2558</v>
+      </c>
+      <c r="C1453" t="s">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="1454" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1454" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B1454" s="3" t="s">
+        <v>2558</v>
+      </c>
+      <c r="C1454" t="s">
+        <v>3407</v>
+      </c>
+    </row>
+    <row r="1455" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1455" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B1455" s="3" t="s">
+        <v>2558</v>
+      </c>
+      <c r="C1455" t="s">
+        <v>3501</v>
+      </c>
+    </row>
+    <row r="1456" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1456" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B1456" s="3" t="s">
+        <v>2559</v>
+      </c>
+      <c r="C1456" t="s">
+        <v>3410</v>
+      </c>
+      <c r="D1456" s="3" t="s">
+        <v>3499</v>
+      </c>
+    </row>
+    <row r="1457" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1457" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B1457" s="3" t="s">
+        <v>2559</v>
+      </c>
+      <c r="C1457" t="s">
+        <v>3409</v>
+      </c>
+    </row>
+    <row r="1458" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1458" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B1458" s="3" t="s">
+        <v>2559</v>
+      </c>
+      <c r="C1458" t="s">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="1459" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1459" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B1459" s="3" t="s">
+        <v>2559</v>
+      </c>
+      <c r="C1459" t="s">
+        <v>3407</v>
+      </c>
+    </row>
+    <row r="1460" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1460" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B1460" s="3" t="s">
+        <v>2559</v>
+      </c>
+      <c r="C1460" t="s">
+        <v>3501</v>
+      </c>
+    </row>
+    <row r="1461" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1461" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B1461" s="3" t="s">
+        <v>2560</v>
+      </c>
+      <c r="C1461" t="s">
+        <v>3410</v>
+      </c>
+      <c r="D1461" s="3" t="s">
+        <v>3499</v>
+      </c>
+    </row>
+    <row r="1462" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1462" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B1462" s="3" t="s">
+        <v>2560</v>
+      </c>
+      <c r="C1462" t="s">
+        <v>3409</v>
+      </c>
+    </row>
+    <row r="1463" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1463" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B1463" s="3" t="s">
+        <v>2560</v>
+      </c>
+      <c r="C1463" t="s">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="1464" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1464" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B1464" s="3" t="s">
+        <v>2560</v>
+      </c>
+      <c r="C1464" t="s">
+        <v>3407</v>
+      </c>
+    </row>
+    <row r="1465" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1465" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B1465" s="3" t="s">
+        <v>2560</v>
+      </c>
+      <c r="C1465" t="s">
+        <v>3501</v>
+      </c>
+    </row>
+    <row r="1466" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1466" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B1466" s="3" t="s">
+        <v>2561</v>
+      </c>
+      <c r="C1466" t="s">
+        <v>3410</v>
+      </c>
+      <c r="D1466" s="3" t="s">
+        <v>3499</v>
+      </c>
+    </row>
+    <row r="1467" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1467" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B1467" s="3" t="s">
+        <v>2561</v>
+      </c>
+      <c r="C1467" t="s">
+        <v>3409</v>
+      </c>
+    </row>
+    <row r="1468" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1468" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B1468" s="3" t="s">
+        <v>2561</v>
+      </c>
+      <c r="C1468" t="s">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="1469" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1469" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B1469" s="3" t="s">
+        <v>2561</v>
+      </c>
+      <c r="C1469" t="s">
+        <v>3407</v>
+      </c>
+    </row>
+    <row r="1470" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1470" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B1470" s="3" t="s">
+        <v>2561</v>
+      </c>
+      <c r="C1470" t="s">
+        <v>3501</v>
+      </c>
+    </row>
+    <row r="1471" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1471" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B1471" s="3" t="s">
+        <v>2562</v>
+      </c>
+      <c r="C1471" t="s">
+        <v>3410</v>
+      </c>
+      <c r="D1471" s="3" t="s">
+        <v>3499</v>
+      </c>
+    </row>
+    <row r="1472" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1472" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B1472" s="3" t="s">
+        <v>2562</v>
+      </c>
+      <c r="C1472" t="s">
+        <v>3409</v>
+      </c>
+    </row>
+    <row r="1473" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1473" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B1473" s="3" t="s">
+        <v>2562</v>
+      </c>
+      <c r="C1473" t="s">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="1474" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1474" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B1474" s="3" t="s">
+        <v>2562</v>
+      </c>
+      <c r="C1474" t="s">
+        <v>3407</v>
+      </c>
+    </row>
+    <row r="1475" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1475" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B1475" s="3" t="s">
+        <v>2562</v>
+      </c>
+      <c r="C1475" t="s">
+        <v>3501</v>
       </c>
     </row>
   </sheetData>

--- a/gdcdictionary/xlsx/nodes_schema_impowr.xlsx
+++ b/gdcdictionary/xlsx/nodes_schema_impowr.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vithal\Documents\GitHub\dcfdictionary\gdcdictionary\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{280DBCA1-D698-44BC-B35D-14AFDE432E8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BDE4FEE-BE7C-4E48-ABDF-A70DA5ACBF9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="585" yWindow="7950" windowWidth="24375" windowHeight="7470" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="705" yWindow="6480" windowWidth="24375" windowHeight="8565" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nodes_impowr" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12008" uniqueCount="3502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12175" uniqueCount="3559">
   <si>
     <t>&lt;$schema&gt;</t>
   </si>
@@ -10573,6 +10573,177 @@
   </si>
   <si>
     <t>Extremely</t>
+  </si>
+  <si>
+    <t>1, I think I had the coronavirus | 2, I don't think I had the coronavirus | 3, Unsure</t>
+  </si>
+  <si>
+    <t>I think I had the coronavirus</t>
+  </si>
+  <si>
+    <t>I don't think I had the coronavirus</t>
+  </si>
+  <si>
+    <t>Unsure</t>
+  </si>
+  <si>
+    <t>1, Positive test and had symptoms | 2, Positive test and had NO symptoms | 3, Experienced symptoms but was not tested | 4, Prefer not to answer | 5, Unsure</t>
+  </si>
+  <si>
+    <t>Positive test and had symptoms</t>
+  </si>
+  <si>
+    <t>Positive test and had NO symptoms</t>
+  </si>
+  <si>
+    <t>Experienced symptoms but was not tested</t>
+  </si>
+  <si>
+    <t>1, Made chronic pain A LOT WORSE | 2, Made chronic pain A LITTLE WORSE | 3, DID NOT AFFECT my chronic pain | 4, IMPROVED my chronic pain A LITTLE | 5, IMPROVED my chronic pain A LOT | 6, Prefer not to answer</t>
+  </si>
+  <si>
+    <t>Made chronic pain A LOT WORSE</t>
+  </si>
+  <si>
+    <t>Made chronic pain A LITTLE WORSE</t>
+  </si>
+  <si>
+    <t>DID NOT AFFECT my chronic pain</t>
+  </si>
+  <si>
+    <t>IMPROVED my chronic pain A LITTLE</t>
+  </si>
+  <si>
+    <t>IMPROVED my chronic pain A LOT</t>
+  </si>
+  <si>
+    <t>1, Made OUD A LOT WORSE | 2, Made OUD A LITTLE WORSE | 3, DID NOT AFFECT my OUD | 4, IMPROVED my OUD | 5, IMPROVED my OUD A LOT | 6, Prefer not to answer</t>
+  </si>
+  <si>
+    <t>Made OUD A LOT WORSE</t>
+  </si>
+  <si>
+    <t>Made OUD A LITTLE WORSE</t>
+  </si>
+  <si>
+    <t>DID NOT AFFECT my OUD</t>
+  </si>
+  <si>
+    <t>IMPROVED my OUD</t>
+  </si>
+  <si>
+    <t>IMPROVED my OUD A LOT</t>
+  </si>
+  <si>
+    <t>1, Made chronic pain access A LOT WORSE | 2, Made chronic pain access A LITTLE WORSE | 3, DID NOT AFFECT my chronic pain access | 4, IMPROVED my chronic pain access A LITTLE | 5, IMPROVED my chronic pain access A LOT | 6, Prefer not to answer</t>
+  </si>
+  <si>
+    <t>Made chronic pain access A LOT WORSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Made chronic pain access A LITTLE WORSE </t>
+  </si>
+  <si>
+    <t>DID NOT AFFECT my chronic pain acces</t>
+  </si>
+  <si>
+    <t>IMPROVED my chronic pain access A LITTLE</t>
+  </si>
+  <si>
+    <t>IMPROVED my chronic pain access A LOT</t>
+  </si>
+  <si>
+    <t>1, Made OUD access A LOT WORSE | 2, Made OUD access A LITTLE WORSE | 3, DID NOT AFFECT my OUD access | 4, IMPROVED my OUD access | 5, IMPROVED my OUD access A LOT | 6, Prefer not to answer</t>
+  </si>
+  <si>
+    <t>Made OUD access A LOT WORSE</t>
+  </si>
+  <si>
+    <t>Made OUD access A LITTLE WORSE</t>
+  </si>
+  <si>
+    <t>DID NOT AFFECT my OUD access</t>
+  </si>
+  <si>
+    <t>IMPROVED my OUD access</t>
+  </si>
+  <si>
+    <t>IMPROVED my OUD access A LOT</t>
+  </si>
+  <si>
+    <t>1, Reduce my ability to get healthcare A LOT | 2, Reduced my ability to get healthcare A LITTLE | 3, NOT AFFECTED my ability to get healthcare | 4, IMPROVED my ability to get healthcare</t>
+  </si>
+  <si>
+    <t>Reduce my ability to get healthcare A LOT</t>
+  </si>
+  <si>
+    <t>Reduced my ability to get healthcare A LITTLE</t>
+  </si>
+  <si>
+    <t>NOT AFFECTED my ability to get healthcare</t>
+  </si>
+  <si>
+    <t>IMPROVED my ability to get healthcare</t>
+  </si>
+  <si>
+    <t>1, A LOT less social support | 2, A LITTLE LESS social support | 3, Social support was NOT AFFECTED | 4, IMPROVED my social support</t>
+  </si>
+  <si>
+    <t>A LOT less social support</t>
+  </si>
+  <si>
+    <t>A LITTLE LESS social support</t>
+  </si>
+  <si>
+    <t>Social support was NOT AFFECTED</t>
+  </si>
+  <si>
+    <t>IMPROVED my social support</t>
+  </si>
+  <si>
+    <t>1, Made finances A LOT WORSE | 2, Made finances A LITTLE  WORSE | 3, NOT AFFECTED my finances | 4, IMPROVED my finances</t>
+  </si>
+  <si>
+    <t>Made finances A LOT WORSE</t>
+  </si>
+  <si>
+    <t>Made finances A LITTLE  WORSE</t>
+  </si>
+  <si>
+    <t>NOT AFFECTED my finances</t>
+  </si>
+  <si>
+    <t>IMPROVED my finances</t>
+  </si>
+  <si>
+    <t>1, Reduced my ability to meet my basic needs A LOT | 2, Reduced my ability to meet my basic needs A LITTLE | 3, NOT AFFECTED my ability to meet my basic needs | 4, IMPROVED my ability to meet my basic needs</t>
+  </si>
+  <si>
+    <t>Reduced my ability to meet my basic needs A LOT</t>
+  </si>
+  <si>
+    <t>Reduced my ability to meet my basic needs A LITTLE</t>
+  </si>
+  <si>
+    <t>NOT AFFECTED my ability to meet my basic needs</t>
+  </si>
+  <si>
+    <t>IMPROVED my ability to meet my basic needs</t>
+  </si>
+  <si>
+    <t>1, My mental and emotional health is A LOT WORSE | 2, My mental and emotional health is A LITTLE WORSE | 3, NOT AFFECTED my mental and emotional health | 4, IMPROVED my mental and emotional health</t>
+  </si>
+  <si>
+    <t>My mental and emotional health is A LOT WORSE</t>
+  </si>
+  <si>
+    <t>My mental and emotional health is A LITTLE WORSE</t>
+  </si>
+  <si>
+    <t>NOT AFFECTED my mental and emotional health</t>
+  </si>
+  <si>
+    <t>IMPROVED my mental and emotional health</t>
   </si>
 </sst>
 </file>
@@ -19450,8 +19621,8 @@
   <dimension ref="A1:K1209"/>
   <sheetViews>
     <sheetView zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A783" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A780" sqref="A780:B780"/>
+      <pane ySplit="1" topLeftCell="A792" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A796" sqref="A796:B796"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36423,11 +36594,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E1475"/>
+  <dimension ref="A1:E1527"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1466" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1471" sqref="A1471:B1475"/>
+      <pane ySplit="1" topLeftCell="A1518" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1527" sqref="A1527"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36435,7 +36606,7 @@
     <col min="1" max="1" width="32.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30" customWidth="1"/>
     <col min="3" max="3" width="79.42578125" customWidth="1"/>
-    <col min="4" max="4" width="255.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="101.7109375" style="9" customWidth="1"/>
     <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -53095,7 +53266,7 @@
         <v>3409</v>
       </c>
     </row>
-    <row r="1473" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1473" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1473" t="s">
         <v>1897</v>
       </c>
@@ -53106,7 +53277,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="1474" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1474" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1474" t="s">
         <v>1897</v>
       </c>
@@ -53117,7 +53288,7 @@
         <v>3407</v>
       </c>
     </row>
-    <row r="1475" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1475" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1475" t="s">
         <v>1897</v>
       </c>
@@ -53126,6 +53297,611 @@
       </c>
       <c r="C1475" t="s">
         <v>3501</v>
+      </c>
+    </row>
+    <row r="1476" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1476" t="s">
+        <v>1899</v>
+      </c>
+      <c r="B1476" s="3" t="s">
+        <v>2600</v>
+      </c>
+      <c r="C1476" t="s">
+        <v>3503</v>
+      </c>
+      <c r="D1476" s="3" t="s">
+        <v>3502</v>
+      </c>
+    </row>
+    <row r="1477" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1477" t="s">
+        <v>1899</v>
+      </c>
+      <c r="B1477" s="3" t="s">
+        <v>2600</v>
+      </c>
+      <c r="C1477" t="s">
+        <v>3504</v>
+      </c>
+    </row>
+    <row r="1478" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1478" t="s">
+        <v>1899</v>
+      </c>
+      <c r="B1478" s="3" t="s">
+        <v>2600</v>
+      </c>
+      <c r="C1478" t="s">
+        <v>3505</v>
+      </c>
+    </row>
+    <row r="1479" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1479" t="s">
+        <v>1899</v>
+      </c>
+      <c r="B1479" s="3" t="s">
+        <v>2601</v>
+      </c>
+      <c r="C1479" t="s">
+        <v>3507</v>
+      </c>
+      <c r="D1479" s="3" t="s">
+        <v>3506</v>
+      </c>
+    </row>
+    <row r="1480" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1480" t="s">
+        <v>1899</v>
+      </c>
+      <c r="B1480" s="3" t="s">
+        <v>2601</v>
+      </c>
+      <c r="C1480" t="s">
+        <v>3508</v>
+      </c>
+    </row>
+    <row r="1481" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1481" t="s">
+        <v>1899</v>
+      </c>
+      <c r="B1481" s="3" t="s">
+        <v>2601</v>
+      </c>
+      <c r="C1481" t="s">
+        <v>3509</v>
+      </c>
+    </row>
+    <row r="1482" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1482" t="s">
+        <v>1899</v>
+      </c>
+      <c r="B1482" s="3" t="s">
+        <v>2601</v>
+      </c>
+      <c r="C1482" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="1483" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1483" t="s">
+        <v>1899</v>
+      </c>
+      <c r="B1483" s="3" t="s">
+        <v>2601</v>
+      </c>
+      <c r="C1483" t="s">
+        <v>3505</v>
+      </c>
+    </row>
+    <row r="1484" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1484" t="s">
+        <v>1899</v>
+      </c>
+      <c r="B1484" s="3" t="s">
+        <v>2602</v>
+      </c>
+      <c r="C1484" t="s">
+        <v>3511</v>
+      </c>
+      <c r="D1484" s="3" t="s">
+        <v>3510</v>
+      </c>
+    </row>
+    <row r="1485" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1485" t="s">
+        <v>1899</v>
+      </c>
+      <c r="B1485" s="3" t="s">
+        <v>2602</v>
+      </c>
+      <c r="C1485" t="s">
+        <v>3512</v>
+      </c>
+    </row>
+    <row r="1486" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1486" t="s">
+        <v>1899</v>
+      </c>
+      <c r="B1486" s="3" t="s">
+        <v>2602</v>
+      </c>
+      <c r="C1486" t="s">
+        <v>3513</v>
+      </c>
+    </row>
+    <row r="1487" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1487" t="s">
+        <v>1899</v>
+      </c>
+      <c r="B1487" s="3" t="s">
+        <v>2602</v>
+      </c>
+      <c r="C1487" t="s">
+        <v>3514</v>
+      </c>
+    </row>
+    <row r="1488" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1488" t="s">
+        <v>1899</v>
+      </c>
+      <c r="B1488" s="3" t="s">
+        <v>2602</v>
+      </c>
+      <c r="C1488" t="s">
+        <v>3515</v>
+      </c>
+    </row>
+    <row r="1489" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1489" t="s">
+        <v>1899</v>
+      </c>
+      <c r="B1489" s="3" t="s">
+        <v>2602</v>
+      </c>
+      <c r="C1489" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="1490" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1490" t="s">
+        <v>1899</v>
+      </c>
+      <c r="B1490" s="3" t="s">
+        <v>2603</v>
+      </c>
+      <c r="C1490" t="s">
+        <v>3517</v>
+      </c>
+      <c r="D1490" s="3" t="s">
+        <v>3516</v>
+      </c>
+    </row>
+    <row r="1491" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1491" t="s">
+        <v>1899</v>
+      </c>
+      <c r="B1491" s="3" t="s">
+        <v>2603</v>
+      </c>
+      <c r="C1491" t="s">
+        <v>3518</v>
+      </c>
+    </row>
+    <row r="1492" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1492" t="s">
+        <v>1899</v>
+      </c>
+      <c r="B1492" s="3" t="s">
+        <v>2603</v>
+      </c>
+      <c r="C1492" t="s">
+        <v>3519</v>
+      </c>
+    </row>
+    <row r="1493" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1493" t="s">
+        <v>1899</v>
+      </c>
+      <c r="B1493" s="3" t="s">
+        <v>2603</v>
+      </c>
+      <c r="C1493" t="s">
+        <v>3520</v>
+      </c>
+    </row>
+    <row r="1494" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1494" t="s">
+        <v>1899</v>
+      </c>
+      <c r="B1494" s="3" t="s">
+        <v>2603</v>
+      </c>
+      <c r="C1494" t="s">
+        <v>3521</v>
+      </c>
+    </row>
+    <row r="1495" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1495" t="s">
+        <v>1899</v>
+      </c>
+      <c r="B1495" s="3" t="s">
+        <v>2603</v>
+      </c>
+      <c r="C1495" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="1496" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1496" t="s">
+        <v>1899</v>
+      </c>
+      <c r="B1496" s="3" t="s">
+        <v>2604</v>
+      </c>
+      <c r="C1496" t="s">
+        <v>3523</v>
+      </c>
+      <c r="D1496" s="3" t="s">
+        <v>3522</v>
+      </c>
+    </row>
+    <row r="1497" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1497" t="s">
+        <v>1899</v>
+      </c>
+      <c r="B1497" s="3" t="s">
+        <v>2604</v>
+      </c>
+      <c r="C1497" t="s">
+        <v>3524</v>
+      </c>
+    </row>
+    <row r="1498" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1498" t="s">
+        <v>1899</v>
+      </c>
+      <c r="B1498" s="3" t="s">
+        <v>2604</v>
+      </c>
+      <c r="C1498" t="s">
+        <v>3525</v>
+      </c>
+    </row>
+    <row r="1499" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1499" t="s">
+        <v>1899</v>
+      </c>
+      <c r="B1499" s="3" t="s">
+        <v>2604</v>
+      </c>
+      <c r="C1499" t="s">
+        <v>3526</v>
+      </c>
+    </row>
+    <row r="1500" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1500" t="s">
+        <v>1899</v>
+      </c>
+      <c r="B1500" s="3" t="s">
+        <v>2604</v>
+      </c>
+      <c r="C1500" t="s">
+        <v>3527</v>
+      </c>
+    </row>
+    <row r="1501" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1501" t="s">
+        <v>1899</v>
+      </c>
+      <c r="B1501" s="3" t="s">
+        <v>2604</v>
+      </c>
+      <c r="C1501" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="1502" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1502" t="s">
+        <v>1899</v>
+      </c>
+      <c r="B1502" s="3" t="s">
+        <v>2605</v>
+      </c>
+      <c r="C1502" t="s">
+        <v>3529</v>
+      </c>
+      <c r="D1502" s="3" t="s">
+        <v>3528</v>
+      </c>
+    </row>
+    <row r="1503" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1503" t="s">
+        <v>1899</v>
+      </c>
+      <c r="B1503" s="3" t="s">
+        <v>2605</v>
+      </c>
+      <c r="C1503" t="s">
+        <v>3530</v>
+      </c>
+    </row>
+    <row r="1504" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1504" t="s">
+        <v>1899</v>
+      </c>
+      <c r="B1504" s="3" t="s">
+        <v>2605</v>
+      </c>
+      <c r="C1504" t="s">
+        <v>3531</v>
+      </c>
+    </row>
+    <row r="1505" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1505" t="s">
+        <v>1899</v>
+      </c>
+      <c r="B1505" s="3" t="s">
+        <v>2605</v>
+      </c>
+      <c r="C1505" t="s">
+        <v>3532</v>
+      </c>
+    </row>
+    <row r="1506" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1506" t="s">
+        <v>1899</v>
+      </c>
+      <c r="B1506" s="3" t="s">
+        <v>2605</v>
+      </c>
+      <c r="C1506" t="s">
+        <v>3533</v>
+      </c>
+    </row>
+    <row r="1507" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1507" t="s">
+        <v>1899</v>
+      </c>
+      <c r="B1507" s="3" t="s">
+        <v>2605</v>
+      </c>
+      <c r="C1507" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="1508" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1508" t="s">
+        <v>1900</v>
+      </c>
+      <c r="B1508" s="3" t="s">
+        <v>2606</v>
+      </c>
+      <c r="C1508" t="s">
+        <v>3535</v>
+      </c>
+      <c r="D1508" s="3" t="s">
+        <v>3534</v>
+      </c>
+    </row>
+    <row r="1509" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1509" t="s">
+        <v>1900</v>
+      </c>
+      <c r="B1509" s="3" t="s">
+        <v>2606</v>
+      </c>
+      <c r="C1509" t="s">
+        <v>3536</v>
+      </c>
+    </row>
+    <row r="1510" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1510" t="s">
+        <v>1900</v>
+      </c>
+      <c r="B1510" s="3" t="s">
+        <v>2606</v>
+      </c>
+      <c r="C1510" t="s">
+        <v>3537</v>
+      </c>
+    </row>
+    <row r="1511" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1511" t="s">
+        <v>1900</v>
+      </c>
+      <c r="B1511" s="3" t="s">
+        <v>2606</v>
+      </c>
+      <c r="C1511" t="s">
+        <v>3538</v>
+      </c>
+    </row>
+    <row r="1512" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1512" t="s">
+        <v>1900</v>
+      </c>
+      <c r="B1512" s="3" t="s">
+        <v>2607</v>
+      </c>
+      <c r="C1512" t="s">
+        <v>3540</v>
+      </c>
+      <c r="D1512" s="3" t="s">
+        <v>3539</v>
+      </c>
+    </row>
+    <row r="1513" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1513" t="s">
+        <v>1900</v>
+      </c>
+      <c r="B1513" s="3" t="s">
+        <v>2607</v>
+      </c>
+      <c r="C1513" t="s">
+        <v>3541</v>
+      </c>
+    </row>
+    <row r="1514" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1514" t="s">
+        <v>1900</v>
+      </c>
+      <c r="B1514" s="3" t="s">
+        <v>2607</v>
+      </c>
+      <c r="C1514" t="s">
+        <v>3542</v>
+      </c>
+    </row>
+    <row r="1515" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1515" t="s">
+        <v>1900</v>
+      </c>
+      <c r="B1515" s="3" t="s">
+        <v>2607</v>
+      </c>
+      <c r="C1515" t="s">
+        <v>3543</v>
+      </c>
+    </row>
+    <row r="1516" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1516" t="s">
+        <v>1900</v>
+      </c>
+      <c r="B1516" s="3" t="s">
+        <v>2608</v>
+      </c>
+      <c r="C1516" t="s">
+        <v>3545</v>
+      </c>
+      <c r="D1516" s="3" t="s">
+        <v>3544</v>
+      </c>
+    </row>
+    <row r="1517" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1517" t="s">
+        <v>1900</v>
+      </c>
+      <c r="B1517" s="3" t="s">
+        <v>2608</v>
+      </c>
+      <c r="C1517" t="s">
+        <v>3546</v>
+      </c>
+    </row>
+    <row r="1518" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1518" t="s">
+        <v>1900</v>
+      </c>
+      <c r="B1518" s="3" t="s">
+        <v>2608</v>
+      </c>
+      <c r="C1518" t="s">
+        <v>3547</v>
+      </c>
+    </row>
+    <row r="1519" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1519" t="s">
+        <v>1900</v>
+      </c>
+      <c r="B1519" s="3" t="s">
+        <v>2608</v>
+      </c>
+      <c r="C1519" t="s">
+        <v>3548</v>
+      </c>
+    </row>
+    <row r="1520" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1520" t="s">
+        <v>1900</v>
+      </c>
+      <c r="B1520" s="3" t="s">
+        <v>2609</v>
+      </c>
+      <c r="C1520" t="s">
+        <v>3550</v>
+      </c>
+      <c r="D1520" s="3" t="s">
+        <v>3549</v>
+      </c>
+    </row>
+    <row r="1521" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1521" t="s">
+        <v>1900</v>
+      </c>
+      <c r="B1521" s="3" t="s">
+        <v>2609</v>
+      </c>
+      <c r="C1521" t="s">
+        <v>3551</v>
+      </c>
+    </row>
+    <row r="1522" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1522" t="s">
+        <v>1900</v>
+      </c>
+      <c r="B1522" s="3" t="s">
+        <v>2609</v>
+      </c>
+      <c r="C1522" t="s">
+        <v>3552</v>
+      </c>
+    </row>
+    <row r="1523" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1523" t="s">
+        <v>1900</v>
+      </c>
+      <c r="B1523" s="3" t="s">
+        <v>2609</v>
+      </c>
+      <c r="C1523" t="s">
+        <v>3553</v>
+      </c>
+    </row>
+    <row r="1524" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1524" t="s">
+        <v>1900</v>
+      </c>
+      <c r="B1524" s="3" t="s">
+        <v>2610</v>
+      </c>
+      <c r="C1524" t="s">
+        <v>3555</v>
+      </c>
+      <c r="D1524" s="3" t="s">
+        <v>3554</v>
+      </c>
+    </row>
+    <row r="1525" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1525" t="s">
+        <v>1900</v>
+      </c>
+      <c r="B1525" s="3" t="s">
+        <v>2610</v>
+      </c>
+      <c r="C1525" t="s">
+        <v>3556</v>
+      </c>
+    </row>
+    <row r="1526" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1526" t="s">
+        <v>1900</v>
+      </c>
+      <c r="B1526" s="3" t="s">
+        <v>2610</v>
+      </c>
+      <c r="C1526" t="s">
+        <v>3557</v>
+      </c>
+    </row>
+    <row r="1527" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1527" t="s">
+        <v>1900</v>
+      </c>
+      <c r="B1527" s="3" t="s">
+        <v>2610</v>
+      </c>
+      <c r="C1527" t="s">
+        <v>3558</v>
       </c>
     </row>
   </sheetData>

--- a/gdcdictionary/xlsx/nodes_schema_impowr.xlsx
+++ b/gdcdictionary/xlsx/nodes_schema_impowr.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vithal\Documents\GitHub\dcfdictionary\gdcdictionary\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BDE4FEE-BE7C-4E48-ABDF-A70DA5ACBF9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{222F3C69-37DD-43E9-8EE8-57814D618F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="705" yWindow="6480" windowWidth="24375" windowHeight="8565" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2025" yWindow="2130" windowWidth="25425" windowHeight="12435" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nodes_impowr" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12175" uniqueCount="3559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12593" uniqueCount="3572">
   <si>
     <t>&lt;$schema&gt;</t>
   </si>
@@ -10744,6 +10744,45 @@
   </si>
   <si>
     <t>IMPROVED my mental and emotional health</t>
+  </si>
+  <si>
+    <t>1, Very often | 2, Somewhat often | 3, Not very often | 4, Never | 5, Not Sure</t>
+  </si>
+  <si>
+    <t>Very often</t>
+  </si>
+  <si>
+    <t>Somewhat often</t>
+  </si>
+  <si>
+    <t>Not very often</t>
+  </si>
+  <si>
+    <t>Not Sure</t>
+  </si>
+  <si>
+    <t>0, Never|1, Not often|2, Somewhat often|3, Often|4, Very often</t>
+  </si>
+  <si>
+    <t>Not often</t>
+  </si>
+  <si>
+    <t>0, Very unlikely | 1, Unlikely | 2, Neither unlikely nor likely | 3, Likely | 4, Very likely</t>
+  </si>
+  <si>
+    <t>Very unlikely</t>
+  </si>
+  <si>
+    <t>Unlikely</t>
+  </si>
+  <si>
+    <t>Neither unlikely nor likely</t>
+  </si>
+  <si>
+    <t>Likely</t>
+  </si>
+  <si>
+    <t>Very likely</t>
   </si>
 </sst>
 </file>
@@ -19621,8 +19660,8 @@
   <dimension ref="A1:K1209"/>
   <sheetViews>
     <sheetView zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A792" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A796" sqref="A796:B796"/>
+      <pane ySplit="1" topLeftCell="A810" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A815" sqref="A815:B815"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36594,16 +36633,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E1527"/>
+  <dimension ref="A1:E1688"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1518" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1527" sqref="A1527"/>
+      <pane ySplit="1" topLeftCell="A1662" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D1688" sqref="D1688"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30" customWidth="1"/>
     <col min="3" max="3" width="79.42578125" customWidth="1"/>
     <col min="4" max="4" width="101.7109375" style="9" customWidth="1"/>
@@ -53904,6 +53943,1822 @@
         <v>3558</v>
       </c>
     </row>
+    <row r="1528" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1528" t="s">
+        <v>1901</v>
+      </c>
+      <c r="B1528" s="3" t="s">
+        <v>2622</v>
+      </c>
+      <c r="C1528" t="s">
+        <v>3560</v>
+      </c>
+      <c r="D1528" s="3" t="s">
+        <v>3559</v>
+      </c>
+    </row>
+    <row r="1529" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1529" t="s">
+        <v>1901</v>
+      </c>
+      <c r="B1529" s="3" t="s">
+        <v>2622</v>
+      </c>
+      <c r="C1529" t="s">
+        <v>3561</v>
+      </c>
+    </row>
+    <row r="1530" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1530" t="s">
+        <v>1901</v>
+      </c>
+      <c r="B1530" s="3" t="s">
+        <v>2622</v>
+      </c>
+      <c r="C1530" t="s">
+        <v>3562</v>
+      </c>
+    </row>
+    <row r="1531" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1531" t="s">
+        <v>1901</v>
+      </c>
+      <c r="B1531" s="3" t="s">
+        <v>2622</v>
+      </c>
+      <c r="C1531" t="s">
+        <v>3434</v>
+      </c>
+    </row>
+    <row r="1532" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1532" t="s">
+        <v>1901</v>
+      </c>
+      <c r="B1532" s="3" t="s">
+        <v>2622</v>
+      </c>
+      <c r="C1532" t="s">
+        <v>3563</v>
+      </c>
+    </row>
+    <row r="1533" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1533" t="s">
+        <v>1901</v>
+      </c>
+      <c r="B1533" s="3" t="s">
+        <v>2622</v>
+      </c>
+      <c r="C1533">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1534" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1534" t="s">
+        <v>1901</v>
+      </c>
+      <c r="B1534" s="3" t="s">
+        <v>2622</v>
+      </c>
+      <c r="C1534">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1535" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1535" t="s">
+        <v>1901</v>
+      </c>
+      <c r="B1535" s="3" t="s">
+        <v>2622</v>
+      </c>
+      <c r="C1535">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1536" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1536" t="s">
+        <v>1901</v>
+      </c>
+      <c r="B1536" s="3" t="s">
+        <v>2622</v>
+      </c>
+      <c r="C1536">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1537" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1537" t="s">
+        <v>1901</v>
+      </c>
+      <c r="B1537" s="3" t="s">
+        <v>2622</v>
+      </c>
+      <c r="C1537">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1538" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1538" t="s">
+        <v>1901</v>
+      </c>
+      <c r="B1538" s="3" t="s">
+        <v>2623</v>
+      </c>
+      <c r="C1538" t="s">
+        <v>3560</v>
+      </c>
+      <c r="D1538" s="3" t="s">
+        <v>3559</v>
+      </c>
+    </row>
+    <row r="1539" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1539" t="s">
+        <v>1901</v>
+      </c>
+      <c r="B1539" s="3" t="s">
+        <v>2623</v>
+      </c>
+      <c r="C1539" t="s">
+        <v>3561</v>
+      </c>
+    </row>
+    <row r="1540" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1540" t="s">
+        <v>1901</v>
+      </c>
+      <c r="B1540" s="3" t="s">
+        <v>2623</v>
+      </c>
+      <c r="C1540" t="s">
+        <v>3562</v>
+      </c>
+    </row>
+    <row r="1541" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1541" t="s">
+        <v>1901</v>
+      </c>
+      <c r="B1541" s="3" t="s">
+        <v>2623</v>
+      </c>
+      <c r="C1541" t="s">
+        <v>3434</v>
+      </c>
+    </row>
+    <row r="1542" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1542" t="s">
+        <v>1901</v>
+      </c>
+      <c r="B1542" s="3" t="s">
+        <v>2623</v>
+      </c>
+      <c r="C1542" t="s">
+        <v>3563</v>
+      </c>
+    </row>
+    <row r="1543" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1543" t="s">
+        <v>1901</v>
+      </c>
+      <c r="B1543" s="3" t="s">
+        <v>2623</v>
+      </c>
+      <c r="C1543">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1544" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1544" t="s">
+        <v>1901</v>
+      </c>
+      <c r="B1544" s="3" t="s">
+        <v>2623</v>
+      </c>
+      <c r="C1544">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1545" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1545" t="s">
+        <v>1901</v>
+      </c>
+      <c r="B1545" s="3" t="s">
+        <v>2623</v>
+      </c>
+      <c r="C1545">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1546" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1546" t="s">
+        <v>1901</v>
+      </c>
+      <c r="B1546" s="3" t="s">
+        <v>2623</v>
+      </c>
+      <c r="C1546">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1547" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1547" t="s">
+        <v>1901</v>
+      </c>
+      <c r="B1547" s="3" t="s">
+        <v>2623</v>
+      </c>
+      <c r="C1547">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1548" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1548" t="s">
+        <v>1901</v>
+      </c>
+      <c r="B1548" s="3" t="s">
+        <v>2624</v>
+      </c>
+      <c r="C1548" t="s">
+        <v>3560</v>
+      </c>
+      <c r="D1548" s="3" t="s">
+        <v>3559</v>
+      </c>
+    </row>
+    <row r="1549" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1549" t="s">
+        <v>1901</v>
+      </c>
+      <c r="B1549" s="3" t="s">
+        <v>2624</v>
+      </c>
+      <c r="C1549" t="s">
+        <v>3561</v>
+      </c>
+    </row>
+    <row r="1550" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1550" t="s">
+        <v>1901</v>
+      </c>
+      <c r="B1550" s="3" t="s">
+        <v>2624</v>
+      </c>
+      <c r="C1550" t="s">
+        <v>3562</v>
+      </c>
+    </row>
+    <row r="1551" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1551" t="s">
+        <v>1901</v>
+      </c>
+      <c r="B1551" s="3" t="s">
+        <v>2624</v>
+      </c>
+      <c r="C1551" t="s">
+        <v>3434</v>
+      </c>
+    </row>
+    <row r="1552" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1552" t="s">
+        <v>1901</v>
+      </c>
+      <c r="B1552" s="3" t="s">
+        <v>2624</v>
+      </c>
+      <c r="C1552" t="s">
+        <v>3563</v>
+      </c>
+    </row>
+    <row r="1553" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1553" t="s">
+        <v>1901</v>
+      </c>
+      <c r="B1553" s="3" t="s">
+        <v>2624</v>
+      </c>
+      <c r="C1553">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1554" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1554" t="s">
+        <v>1901</v>
+      </c>
+      <c r="B1554" s="3" t="s">
+        <v>2624</v>
+      </c>
+      <c r="C1554">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1555" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1555" t="s">
+        <v>1901</v>
+      </c>
+      <c r="B1555" s="3" t="s">
+        <v>2624</v>
+      </c>
+      <c r="C1555">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1556" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1556" t="s">
+        <v>1901</v>
+      </c>
+      <c r="B1556" s="3" t="s">
+        <v>2624</v>
+      </c>
+      <c r="C1556">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1557" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1557" t="s">
+        <v>1901</v>
+      </c>
+      <c r="B1557" s="3" t="s">
+        <v>2624</v>
+      </c>
+      <c r="C1557">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1558" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1558" t="s">
+        <v>1901</v>
+      </c>
+      <c r="B1558" s="3" t="s">
+        <v>2625</v>
+      </c>
+      <c r="C1558" t="s">
+        <v>3560</v>
+      </c>
+      <c r="D1558" s="3" t="s">
+        <v>3559</v>
+      </c>
+    </row>
+    <row r="1559" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1559" t="s">
+        <v>1901</v>
+      </c>
+      <c r="B1559" s="3" t="s">
+        <v>2625</v>
+      </c>
+      <c r="C1559" t="s">
+        <v>3561</v>
+      </c>
+    </row>
+    <row r="1560" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1560" t="s">
+        <v>1901</v>
+      </c>
+      <c r="B1560" s="3" t="s">
+        <v>2625</v>
+      </c>
+      <c r="C1560" t="s">
+        <v>3562</v>
+      </c>
+    </row>
+    <row r="1561" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1561" t="s">
+        <v>1901</v>
+      </c>
+      <c r="B1561" s="3" t="s">
+        <v>2625</v>
+      </c>
+      <c r="C1561" t="s">
+        <v>3434</v>
+      </c>
+    </row>
+    <row r="1562" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1562" t="s">
+        <v>1901</v>
+      </c>
+      <c r="B1562" s="3" t="s">
+        <v>2625</v>
+      </c>
+      <c r="C1562" t="s">
+        <v>3563</v>
+      </c>
+    </row>
+    <row r="1563" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1563" t="s">
+        <v>1901</v>
+      </c>
+      <c r="B1563" s="3" t="s">
+        <v>2625</v>
+      </c>
+      <c r="C1563">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1564" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1564" t="s">
+        <v>1901</v>
+      </c>
+      <c r="B1564" s="3" t="s">
+        <v>2625</v>
+      </c>
+      <c r="C1564">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1565" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1565" t="s">
+        <v>1901</v>
+      </c>
+      <c r="B1565" s="3" t="s">
+        <v>2625</v>
+      </c>
+      <c r="C1565">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1566" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1566" t="s">
+        <v>1901</v>
+      </c>
+      <c r="B1566" s="3" t="s">
+        <v>2625</v>
+      </c>
+      <c r="C1566">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1567" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1567" t="s">
+        <v>1901</v>
+      </c>
+      <c r="B1567" s="3" t="s">
+        <v>2625</v>
+      </c>
+      <c r="C1567">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1568" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1568" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1568" s="3" t="s">
+        <v>2628</v>
+      </c>
+      <c r="C1568" t="s">
+        <v>3434</v>
+      </c>
+      <c r="D1568" s="3" t="s">
+        <v>3564</v>
+      </c>
+    </row>
+    <row r="1569" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1569" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1569" s="3" t="s">
+        <v>2628</v>
+      </c>
+      <c r="C1569" t="s">
+        <v>3565</v>
+      </c>
+    </row>
+    <row r="1570" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1570" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1570" s="3" t="s">
+        <v>2628</v>
+      </c>
+      <c r="C1570" t="s">
+        <v>3561</v>
+      </c>
+    </row>
+    <row r="1571" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1571" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1571" s="3" t="s">
+        <v>2628</v>
+      </c>
+      <c r="C1571" t="s">
+        <v>3437</v>
+      </c>
+    </row>
+    <row r="1572" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1572" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1572" s="3" t="s">
+        <v>2628</v>
+      </c>
+      <c r="C1572" t="s">
+        <v>3560</v>
+      </c>
+    </row>
+    <row r="1573" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1573" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1573" s="3" t="s">
+        <v>2628</v>
+      </c>
+      <c r="C1573">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1574" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1574" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1574" s="3" t="s">
+        <v>2628</v>
+      </c>
+      <c r="C1574">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1575" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1575" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1575" s="3" t="s">
+        <v>2628</v>
+      </c>
+      <c r="C1575">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1576" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1576" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1576" s="3" t="s">
+        <v>2628</v>
+      </c>
+      <c r="C1576">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1577" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1577" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1577" s="3" t="s">
+        <v>2628</v>
+      </c>
+      <c r="C1577">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1578" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1578" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1578" s="3" t="s">
+        <v>2629</v>
+      </c>
+      <c r="C1578" t="s">
+        <v>3434</v>
+      </c>
+      <c r="D1578" s="3" t="s">
+        <v>3564</v>
+      </c>
+    </row>
+    <row r="1579" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1579" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1579" s="3" t="s">
+        <v>2629</v>
+      </c>
+      <c r="C1579" t="s">
+        <v>3565</v>
+      </c>
+    </row>
+    <row r="1580" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1580" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1580" s="3" t="s">
+        <v>2629</v>
+      </c>
+      <c r="C1580" t="s">
+        <v>3561</v>
+      </c>
+    </row>
+    <row r="1581" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1581" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1581" s="3" t="s">
+        <v>2629</v>
+      </c>
+      <c r="C1581" t="s">
+        <v>3437</v>
+      </c>
+    </row>
+    <row r="1582" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1582" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1582" s="3" t="s">
+        <v>2629</v>
+      </c>
+      <c r="C1582" t="s">
+        <v>3560</v>
+      </c>
+    </row>
+    <row r="1583" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1583" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1583" s="3" t="s">
+        <v>2629</v>
+      </c>
+      <c r="C1583">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1584" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1584" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1584" s="3" t="s">
+        <v>2629</v>
+      </c>
+      <c r="C1584">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1585" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1585" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1585" s="3" t="s">
+        <v>2629</v>
+      </c>
+      <c r="C1585">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1586" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1586" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1586" s="3" t="s">
+        <v>2629</v>
+      </c>
+      <c r="C1586">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1587" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1587" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1587" s="3" t="s">
+        <v>2629</v>
+      </c>
+      <c r="C1587">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1588" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1588" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1588" s="3" t="s">
+        <v>2630</v>
+      </c>
+      <c r="C1588" t="s">
+        <v>3434</v>
+      </c>
+      <c r="D1588" s="3" t="s">
+        <v>3564</v>
+      </c>
+    </row>
+    <row r="1589" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1589" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1589" s="3" t="s">
+        <v>2630</v>
+      </c>
+      <c r="C1589" t="s">
+        <v>3565</v>
+      </c>
+    </row>
+    <row r="1590" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1590" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1590" s="3" t="s">
+        <v>2630</v>
+      </c>
+      <c r="C1590" t="s">
+        <v>3561</v>
+      </c>
+    </row>
+    <row r="1591" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1591" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1591" s="3" t="s">
+        <v>2630</v>
+      </c>
+      <c r="C1591" t="s">
+        <v>3437</v>
+      </c>
+    </row>
+    <row r="1592" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1592" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1592" s="3" t="s">
+        <v>2630</v>
+      </c>
+      <c r="C1592" t="s">
+        <v>3560</v>
+      </c>
+    </row>
+    <row r="1593" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1593" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1593" s="3" t="s">
+        <v>2630</v>
+      </c>
+      <c r="C1593">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1594" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1594" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1594" s="3" t="s">
+        <v>2630</v>
+      </c>
+      <c r="C1594">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1595" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1595" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1595" s="3" t="s">
+        <v>2630</v>
+      </c>
+      <c r="C1595">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1596" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1596" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1596" s="3" t="s">
+        <v>2630</v>
+      </c>
+      <c r="C1596">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1597" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1597" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1597" s="3" t="s">
+        <v>2630</v>
+      </c>
+      <c r="C1597">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1598" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1598" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1598" s="3" t="s">
+        <v>2631</v>
+      </c>
+      <c r="C1598" t="s">
+        <v>3434</v>
+      </c>
+      <c r="D1598" s="3" t="s">
+        <v>3564</v>
+      </c>
+    </row>
+    <row r="1599" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1599" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1599" s="3" t="s">
+        <v>2631</v>
+      </c>
+      <c r="C1599" t="s">
+        <v>3565</v>
+      </c>
+    </row>
+    <row r="1600" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1600" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1600" s="3" t="s">
+        <v>2631</v>
+      </c>
+      <c r="C1600" t="s">
+        <v>3561</v>
+      </c>
+    </row>
+    <row r="1601" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1601" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1601" s="3" t="s">
+        <v>2631</v>
+      </c>
+      <c r="C1601" t="s">
+        <v>3437</v>
+      </c>
+    </row>
+    <row r="1602" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1602" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1602" s="3" t="s">
+        <v>2631</v>
+      </c>
+      <c r="C1602" t="s">
+        <v>3560</v>
+      </c>
+    </row>
+    <row r="1603" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1603" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1603" s="3" t="s">
+        <v>2631</v>
+      </c>
+      <c r="C1603">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1604" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1604" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1604" s="3" t="s">
+        <v>2631</v>
+      </c>
+      <c r="C1604">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1605" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1605" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1605" s="3" t="s">
+        <v>2631</v>
+      </c>
+      <c r="C1605">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1606" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1606" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1606" s="3" t="s">
+        <v>2631</v>
+      </c>
+      <c r="C1606">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1607" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1607" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1607" s="3" t="s">
+        <v>2631</v>
+      </c>
+      <c r="C1607">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1608" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1608" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1608" s="3" t="s">
+        <v>2632</v>
+      </c>
+      <c r="C1608" t="s">
+        <v>3434</v>
+      </c>
+      <c r="D1608" s="3" t="s">
+        <v>3564</v>
+      </c>
+    </row>
+    <row r="1609" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1609" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1609" s="3" t="s">
+        <v>2632</v>
+      </c>
+      <c r="C1609" t="s">
+        <v>3565</v>
+      </c>
+    </row>
+    <row r="1610" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1610" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1610" s="3" t="s">
+        <v>2632</v>
+      </c>
+      <c r="C1610" t="s">
+        <v>3561</v>
+      </c>
+    </row>
+    <row r="1611" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1611" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1611" s="3" t="s">
+        <v>2632</v>
+      </c>
+      <c r="C1611" t="s">
+        <v>3437</v>
+      </c>
+    </row>
+    <row r="1612" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1612" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1612" s="3" t="s">
+        <v>2632</v>
+      </c>
+      <c r="C1612" t="s">
+        <v>3560</v>
+      </c>
+    </row>
+    <row r="1613" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1613" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1613" s="3" t="s">
+        <v>2632</v>
+      </c>
+      <c r="C1613">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1614" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1614" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1614" s="3" t="s">
+        <v>2632</v>
+      </c>
+      <c r="C1614">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1615" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1615" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1615" s="3" t="s">
+        <v>2632</v>
+      </c>
+      <c r="C1615">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1616" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1616" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1616" s="3" t="s">
+        <v>2632</v>
+      </c>
+      <c r="C1616">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1617" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1617" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1617" s="3" t="s">
+        <v>2632</v>
+      </c>
+      <c r="C1617">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1618" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1618" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1618" s="3" t="s">
+        <v>2633</v>
+      </c>
+      <c r="C1618" t="s">
+        <v>3434</v>
+      </c>
+      <c r="D1618" s="3" t="s">
+        <v>3564</v>
+      </c>
+    </row>
+    <row r="1619" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1619" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1619" s="3" t="s">
+        <v>2633</v>
+      </c>
+      <c r="C1619" t="s">
+        <v>3565</v>
+      </c>
+    </row>
+    <row r="1620" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1620" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1620" s="3" t="s">
+        <v>2633</v>
+      </c>
+      <c r="C1620" t="s">
+        <v>3561</v>
+      </c>
+    </row>
+    <row r="1621" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1621" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1621" s="3" t="s">
+        <v>2633</v>
+      </c>
+      <c r="C1621" t="s">
+        <v>3437</v>
+      </c>
+    </row>
+    <row r="1622" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1622" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1622" s="3" t="s">
+        <v>2633</v>
+      </c>
+      <c r="C1622" t="s">
+        <v>3560</v>
+      </c>
+    </row>
+    <row r="1623" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1623" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1623" s="3" t="s">
+        <v>2633</v>
+      </c>
+      <c r="C1623">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1624" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1624" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1624" s="3" t="s">
+        <v>2633</v>
+      </c>
+      <c r="C1624">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1625" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1625" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1625" s="3" t="s">
+        <v>2633</v>
+      </c>
+      <c r="C1625">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1626" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1626" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1626" s="3" t="s">
+        <v>2633</v>
+      </c>
+      <c r="C1626">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1627" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1627" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1627" s="3" t="s">
+        <v>2633</v>
+      </c>
+      <c r="C1627">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1628" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1628" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1628" s="3" t="s">
+        <v>2634</v>
+      </c>
+      <c r="C1628" t="s">
+        <v>3567</v>
+      </c>
+      <c r="D1628" s="3" t="s">
+        <v>3566</v>
+      </c>
+    </row>
+    <row r="1629" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1629" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1629" s="3" t="s">
+        <v>2634</v>
+      </c>
+      <c r="C1629" t="s">
+        <v>3568</v>
+      </c>
+    </row>
+    <row r="1630" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1630" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1630" s="3" t="s">
+        <v>2634</v>
+      </c>
+      <c r="C1630" t="s">
+        <v>3569</v>
+      </c>
+    </row>
+    <row r="1631" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1631" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1631" s="3" t="s">
+        <v>2634</v>
+      </c>
+      <c r="C1631" t="s">
+        <v>3570</v>
+      </c>
+    </row>
+    <row r="1632" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1632" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1632" s="3" t="s">
+        <v>2634</v>
+      </c>
+      <c r="C1632" t="s">
+        <v>3571</v>
+      </c>
+    </row>
+    <row r="1633" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1633" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1633" s="3" t="s">
+        <v>2634</v>
+      </c>
+      <c r="C1633">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1634" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1634" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1634" s="3" t="s">
+        <v>2634</v>
+      </c>
+      <c r="C1634">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1635" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1635" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1635" s="3" t="s">
+        <v>2634</v>
+      </c>
+      <c r="C1635">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1636" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1636" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1636" s="3" t="s">
+        <v>2634</v>
+      </c>
+      <c r="C1636">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1637" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1637" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1637" s="3" t="s">
+        <v>2634</v>
+      </c>
+      <c r="C1637">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1638" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1638" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1638" s="3" t="s">
+        <v>2635</v>
+      </c>
+      <c r="C1638" t="s">
+        <v>3567</v>
+      </c>
+      <c r="D1638" s="3" t="s">
+        <v>3566</v>
+      </c>
+    </row>
+    <row r="1639" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1639" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1639" s="3" t="s">
+        <v>2635</v>
+      </c>
+      <c r="C1639" t="s">
+        <v>3568</v>
+      </c>
+    </row>
+    <row r="1640" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1640" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1640" s="3" t="s">
+        <v>2635</v>
+      </c>
+      <c r="C1640" t="s">
+        <v>3569</v>
+      </c>
+    </row>
+    <row r="1641" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1641" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1641" s="3" t="s">
+        <v>2635</v>
+      </c>
+      <c r="C1641" t="s">
+        <v>3570</v>
+      </c>
+    </row>
+    <row r="1642" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1642" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1642" s="3" t="s">
+        <v>2635</v>
+      </c>
+      <c r="C1642" t="s">
+        <v>3571</v>
+      </c>
+    </row>
+    <row r="1643" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1643" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1643" s="3" t="s">
+        <v>2635</v>
+      </c>
+      <c r="C1643">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1644" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1644" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1644" s="3" t="s">
+        <v>2635</v>
+      </c>
+      <c r="C1644">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1645" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1645" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1645" s="3" t="s">
+        <v>2635</v>
+      </c>
+      <c r="C1645">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1646" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1646" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1646" s="3" t="s">
+        <v>2635</v>
+      </c>
+      <c r="C1646">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1647" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1647" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1647" s="3" t="s">
+        <v>2635</v>
+      </c>
+      <c r="C1647">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1648" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1648" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1648" s="3" t="s">
+        <v>2636</v>
+      </c>
+      <c r="C1648" t="s">
+        <v>3567</v>
+      </c>
+      <c r="D1648" s="3" t="s">
+        <v>3566</v>
+      </c>
+    </row>
+    <row r="1649" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1649" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1649" s="3" t="s">
+        <v>2636</v>
+      </c>
+      <c r="C1649" t="s">
+        <v>3568</v>
+      </c>
+    </row>
+    <row r="1650" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1650" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1650" s="3" t="s">
+        <v>2636</v>
+      </c>
+      <c r="C1650" t="s">
+        <v>3569</v>
+      </c>
+    </row>
+    <row r="1651" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1651" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1651" s="3" t="s">
+        <v>2636</v>
+      </c>
+      <c r="C1651" t="s">
+        <v>3570</v>
+      </c>
+    </row>
+    <row r="1652" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1652" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1652" s="3" t="s">
+        <v>2636</v>
+      </c>
+      <c r="C1652" t="s">
+        <v>3571</v>
+      </c>
+    </row>
+    <row r="1653" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1653" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1653" s="3" t="s">
+        <v>2636</v>
+      </c>
+      <c r="C1653">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1654" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1654" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1654" s="3" t="s">
+        <v>2636</v>
+      </c>
+      <c r="C1654">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1655" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1655" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1655" s="3" t="s">
+        <v>2636</v>
+      </c>
+      <c r="C1655">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1656" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1656" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1656" s="3" t="s">
+        <v>2636</v>
+      </c>
+      <c r="C1656">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1657" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1657" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1657" s="3" t="s">
+        <v>2636</v>
+      </c>
+      <c r="C1657">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1658" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1658" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1658" s="3" t="s">
+        <v>2637</v>
+      </c>
+      <c r="C1658" t="s">
+        <v>3567</v>
+      </c>
+      <c r="D1658" s="3" t="s">
+        <v>3566</v>
+      </c>
+    </row>
+    <row r="1659" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1659" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1659" s="3" t="s">
+        <v>2637</v>
+      </c>
+      <c r="C1659" t="s">
+        <v>3568</v>
+      </c>
+    </row>
+    <row r="1660" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1660" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1660" s="3" t="s">
+        <v>2637</v>
+      </c>
+      <c r="C1660" t="s">
+        <v>3569</v>
+      </c>
+    </row>
+    <row r="1661" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1661" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1661" s="3" t="s">
+        <v>2637</v>
+      </c>
+      <c r="C1661" t="s">
+        <v>3570</v>
+      </c>
+    </row>
+    <row r="1662" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1662" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1662" s="3" t="s">
+        <v>2637</v>
+      </c>
+      <c r="C1662" t="s">
+        <v>3571</v>
+      </c>
+    </row>
+    <row r="1663" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1663" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1663" s="3" t="s">
+        <v>2637</v>
+      </c>
+      <c r="C1663">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1664" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1664" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1664" s="3" t="s">
+        <v>2637</v>
+      </c>
+      <c r="C1664">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1665" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1665" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1665" s="3" t="s">
+        <v>2637</v>
+      </c>
+      <c r="C1665">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1666" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1666" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1666" s="3" t="s">
+        <v>2637</v>
+      </c>
+      <c r="C1666">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1667" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1667" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1667" s="3" t="s">
+        <v>2637</v>
+      </c>
+      <c r="C1667">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1668" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1668" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1668" s="3" t="s">
+        <v>2638</v>
+      </c>
+      <c r="C1668" t="s">
+        <v>3567</v>
+      </c>
+      <c r="D1668" s="3" t="s">
+        <v>3566</v>
+      </c>
+    </row>
+    <row r="1669" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1669" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1669" s="3" t="s">
+        <v>2638</v>
+      </c>
+      <c r="C1669" t="s">
+        <v>3568</v>
+      </c>
+    </row>
+    <row r="1670" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1670" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1670" s="3" t="s">
+        <v>2638</v>
+      </c>
+      <c r="C1670" t="s">
+        <v>3569</v>
+      </c>
+    </row>
+    <row r="1671" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1671" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1671" s="3" t="s">
+        <v>2638</v>
+      </c>
+      <c r="C1671" t="s">
+        <v>3570</v>
+      </c>
+    </row>
+    <row r="1672" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1672" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1672" s="3" t="s">
+        <v>2638</v>
+      </c>
+      <c r="C1672" t="s">
+        <v>3571</v>
+      </c>
+    </row>
+    <row r="1673" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1673" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1673" s="3" t="s">
+        <v>2638</v>
+      </c>
+      <c r="C1673">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1674" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1674" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1674" s="3" t="s">
+        <v>2638</v>
+      </c>
+      <c r="C1674">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1675" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1675" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1675" s="3" t="s">
+        <v>2638</v>
+      </c>
+      <c r="C1675">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1676" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1676" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1676" s="3" t="s">
+        <v>2638</v>
+      </c>
+      <c r="C1676">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1677" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1677" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1677" s="3" t="s">
+        <v>2638</v>
+      </c>
+      <c r="C1677">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1678" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1678" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1678" s="3" t="s">
+        <v>2639</v>
+      </c>
+      <c r="C1678" t="s">
+        <v>3567</v>
+      </c>
+      <c r="D1678" s="3" t="s">
+        <v>3566</v>
+      </c>
+    </row>
+    <row r="1679" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1679" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1679" s="3" t="s">
+        <v>2639</v>
+      </c>
+      <c r="C1679" t="s">
+        <v>3568</v>
+      </c>
+    </row>
+    <row r="1680" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1680" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1680" s="3" t="s">
+        <v>2639</v>
+      </c>
+      <c r="C1680" t="s">
+        <v>3569</v>
+      </c>
+    </row>
+    <row r="1681" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1681" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1681" s="3" t="s">
+        <v>2639</v>
+      </c>
+      <c r="C1681" t="s">
+        <v>3570</v>
+      </c>
+    </row>
+    <row r="1682" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1682" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1682" s="3" t="s">
+        <v>2639</v>
+      </c>
+      <c r="C1682" t="s">
+        <v>3571</v>
+      </c>
+    </row>
+    <row r="1683" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1683" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1683" s="3" t="s">
+        <v>2639</v>
+      </c>
+      <c r="C1683">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1684" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1684" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1684" s="3" t="s">
+        <v>2639</v>
+      </c>
+      <c r="C1684">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1685" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1685" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1685" s="3" t="s">
+        <v>2639</v>
+      </c>
+      <c r="C1685">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1686" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1686" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1686" s="3" t="s">
+        <v>2639</v>
+      </c>
+      <c r="C1686">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1687" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1687" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1687" s="3" t="s">
+        <v>2639</v>
+      </c>
+      <c r="C1687">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1688" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1688" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1688" s="3" t="s">
+        <v>2640</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/gdcdictionary/xlsx/nodes_schema_impowr.xlsx
+++ b/gdcdictionary/xlsx/nodes_schema_impowr.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vithal\Documents\GitHub\dcfdictionary\gdcdictionary\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{222F3C69-37DD-43E9-8EE8-57814D618F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02C5D3D2-8719-48E3-B307-9E931B7FB431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2025" yWindow="2130" windowWidth="25425" windowHeight="12435" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2040" yWindow="2340" windowWidth="25620" windowHeight="11940" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nodes_impowr" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12593" uniqueCount="3572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13065" uniqueCount="3589">
   <si>
     <t>&lt;$schema&gt;</t>
   </si>
@@ -10783,6 +10783,57 @@
   </si>
   <si>
     <t>Very likely</t>
+  </si>
+  <si>
+    <t>0, Strongly disagree | 1, Disagree | 2, Neither disagree nor agree | 3, Agree | 4, Strongly agree</t>
+  </si>
+  <si>
+    <t>Strongly disagree</t>
+  </si>
+  <si>
+    <t>Neither disagree nor agree</t>
+  </si>
+  <si>
+    <t>Strongly agree</t>
+  </si>
+  <si>
+    <t>0 = Not at all | 50 = About half due to chronic pain | 100 = Very much due to chronic pain</t>
+  </si>
+  <si>
+    <t>About half due to chronic pain</t>
+  </si>
+  <si>
+    <t>Very much due to chronic pain</t>
+  </si>
+  <si>
+    <t>0 = Not at all | 50 = About half due to alcohol/drugs | 100 = Very much due to alcohol/drugs</t>
+  </si>
+  <si>
+    <t>About half due to alcohol/drugs</t>
+  </si>
+  <si>
+    <t>Very much due to alcohol/drugs</t>
+  </si>
+  <si>
+    <t>1, Never or almost never | 2, Rarely | 3, Sometimes | 4, Often | 5, Very often</t>
+  </si>
+  <si>
+    <t>Never or almost never</t>
+  </si>
+  <si>
+    <t>1, Strongly agree | 2, Moderately agree | 3, Agree somewhat | 4, Agree a little | 5, Do not agree at all</t>
+  </si>
+  <si>
+    <t>Moderately agree</t>
+  </si>
+  <si>
+    <t>Agree somewhat</t>
+  </si>
+  <si>
+    <t>Agree a little</t>
+  </si>
+  <si>
+    <t>Do not agree at all</t>
   </si>
 </sst>
 </file>
@@ -19660,8 +19711,8 @@
   <dimension ref="A1:K1209"/>
   <sheetViews>
     <sheetView zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A810" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A815" sqref="A815:B815"/>
+      <pane ySplit="1" topLeftCell="A828" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A838" sqref="A838:B838"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31164,7 +31215,7 @@
         <v>2683</v>
       </c>
       <c r="E819" s="3" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="820" spans="1:5" x14ac:dyDescent="0.25">
@@ -31178,7 +31229,7 @@
         <v>2684</v>
       </c>
       <c r="E820" s="3" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="821" spans="1:5" x14ac:dyDescent="0.25">
@@ -36633,16 +36684,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E1688"/>
+  <dimension ref="A1:E1869"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1662" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1688" sqref="D1688"/>
+      <pane ySplit="1" topLeftCell="A1848" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1870" sqref="A1870"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30" customWidth="1"/>
     <col min="3" max="3" width="79.42578125" customWidth="1"/>
     <col min="4" max="4" width="101.7109375" style="9" customWidth="1"/>
@@ -55674,7 +55725,7 @@
         <v>3569</v>
       </c>
     </row>
-    <row r="1681" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1681" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1681" t="s">
         <v>1902</v>
       </c>
@@ -55685,7 +55736,7 @@
         <v>3570</v>
       </c>
     </row>
-    <row r="1682" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1682" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1682" t="s">
         <v>1902</v>
       </c>
@@ -55696,7 +55747,7 @@
         <v>3571</v>
       </c>
     </row>
-    <row r="1683" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1683" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1683" t="s">
         <v>1902</v>
       </c>
@@ -55707,7 +55758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1684" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1684" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1684" t="s">
         <v>1902</v>
       </c>
@@ -55718,7 +55769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1685" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1685" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1685" t="s">
         <v>1902</v>
       </c>
@@ -55729,7 +55780,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1686" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1686" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1686" t="s">
         <v>1902</v>
       </c>
@@ -55740,7 +55791,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1687" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1687" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1687" t="s">
         <v>1902</v>
       </c>
@@ -55751,12 +55802,2063 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1688" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1688" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1688" t="s">
         <v>1902</v>
       </c>
       <c r="B1688" s="3" t="s">
         <v>2640</v>
+      </c>
+      <c r="C1688" t="s">
+        <v>3573</v>
+      </c>
+      <c r="D1688" s="3" t="s">
+        <v>3572</v>
+      </c>
+    </row>
+    <row r="1689" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1689" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1689" s="3" t="s">
+        <v>2640</v>
+      </c>
+      <c r="C1689" t="s">
+        <v>3459</v>
+      </c>
+    </row>
+    <row r="1690" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1690" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1690" s="3" t="s">
+        <v>2640</v>
+      </c>
+      <c r="C1690" t="s">
+        <v>3574</v>
+      </c>
+    </row>
+    <row r="1691" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1691" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1691" s="3" t="s">
+        <v>2640</v>
+      </c>
+      <c r="C1691" t="s">
+        <v>3462</v>
+      </c>
+    </row>
+    <row r="1692" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1692" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1692" s="3" t="s">
+        <v>2640</v>
+      </c>
+      <c r="C1692" t="s">
+        <v>3575</v>
+      </c>
+    </row>
+    <row r="1693" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1693" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1693" s="3" t="s">
+        <v>2640</v>
+      </c>
+      <c r="C1693">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1694" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1694" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1694" s="3" t="s">
+        <v>2640</v>
+      </c>
+      <c r="C1694">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1695" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1695" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1695" s="3" t="s">
+        <v>2640</v>
+      </c>
+      <c r="C1695">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1696" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1696" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1696" s="3" t="s">
+        <v>2640</v>
+      </c>
+      <c r="C1696">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1697" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1697" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1697" s="3" t="s">
+        <v>2640</v>
+      </c>
+      <c r="C1697">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1698" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1698" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1698" s="3" t="s">
+        <v>2641</v>
+      </c>
+      <c r="C1698" t="s">
+        <v>3573</v>
+      </c>
+      <c r="D1698" s="3" t="s">
+        <v>3572</v>
+      </c>
+    </row>
+    <row r="1699" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1699" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1699" s="3" t="s">
+        <v>2641</v>
+      </c>
+      <c r="C1699" t="s">
+        <v>3459</v>
+      </c>
+    </row>
+    <row r="1700" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1700" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1700" s="3" t="s">
+        <v>2641</v>
+      </c>
+      <c r="C1700" t="s">
+        <v>3574</v>
+      </c>
+    </row>
+    <row r="1701" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1701" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1701" s="3" t="s">
+        <v>2641</v>
+      </c>
+      <c r="C1701" t="s">
+        <v>3462</v>
+      </c>
+    </row>
+    <row r="1702" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1702" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1702" s="3" t="s">
+        <v>2641</v>
+      </c>
+      <c r="C1702" t="s">
+        <v>3575</v>
+      </c>
+    </row>
+    <row r="1703" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1703" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1703" s="3" t="s">
+        <v>2641</v>
+      </c>
+      <c r="C1703">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1704" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1704" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1704" s="3" t="s">
+        <v>2641</v>
+      </c>
+      <c r="C1704">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1705" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1705" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1705" s="3" t="s">
+        <v>2641</v>
+      </c>
+      <c r="C1705">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1706" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1706" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1706" s="3" t="s">
+        <v>2641</v>
+      </c>
+      <c r="C1706">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1707" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1707" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1707" s="3" t="s">
+        <v>2641</v>
+      </c>
+      <c r="C1707">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1708" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1708" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1708" s="3" t="s">
+        <v>2642</v>
+      </c>
+      <c r="C1708" t="s">
+        <v>3573</v>
+      </c>
+      <c r="D1708" s="3" t="s">
+        <v>3572</v>
+      </c>
+    </row>
+    <row r="1709" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1709" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1709" s="3" t="s">
+        <v>2642</v>
+      </c>
+      <c r="C1709" t="s">
+        <v>3459</v>
+      </c>
+    </row>
+    <row r="1710" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1710" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1710" s="3" t="s">
+        <v>2642</v>
+      </c>
+      <c r="C1710" t="s">
+        <v>3574</v>
+      </c>
+    </row>
+    <row r="1711" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1711" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1711" s="3" t="s">
+        <v>2642</v>
+      </c>
+      <c r="C1711" t="s">
+        <v>3462</v>
+      </c>
+    </row>
+    <row r="1712" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1712" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1712" s="3" t="s">
+        <v>2642</v>
+      </c>
+      <c r="C1712" t="s">
+        <v>3575</v>
+      </c>
+    </row>
+    <row r="1713" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1713" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1713" s="3" t="s">
+        <v>2642</v>
+      </c>
+      <c r="C1713">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1714" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1714" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1714" s="3" t="s">
+        <v>2642</v>
+      </c>
+      <c r="C1714">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1715" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1715" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1715" s="3" t="s">
+        <v>2642</v>
+      </c>
+      <c r="C1715">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1716" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1716" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1716" s="3" t="s">
+        <v>2642</v>
+      </c>
+      <c r="C1716">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1717" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1717" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1717" s="3" t="s">
+        <v>2642</v>
+      </c>
+      <c r="C1717">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1718" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1718" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1718" s="3" t="s">
+        <v>2643</v>
+      </c>
+      <c r="C1718" t="s">
+        <v>3573</v>
+      </c>
+      <c r="D1718" s="3" t="s">
+        <v>3572</v>
+      </c>
+    </row>
+    <row r="1719" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1719" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1719" s="3" t="s">
+        <v>2643</v>
+      </c>
+      <c r="C1719" t="s">
+        <v>3459</v>
+      </c>
+    </row>
+    <row r="1720" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1720" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1720" s="3" t="s">
+        <v>2643</v>
+      </c>
+      <c r="C1720" t="s">
+        <v>3574</v>
+      </c>
+    </row>
+    <row r="1721" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1721" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1721" s="3" t="s">
+        <v>2643</v>
+      </c>
+      <c r="C1721" t="s">
+        <v>3462</v>
+      </c>
+    </row>
+    <row r="1722" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1722" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1722" s="3" t="s">
+        <v>2643</v>
+      </c>
+      <c r="C1722" t="s">
+        <v>3575</v>
+      </c>
+    </row>
+    <row r="1723" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1723" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1723" s="3" t="s">
+        <v>2643</v>
+      </c>
+      <c r="C1723">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1724" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1724" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1724" s="3" t="s">
+        <v>2643</v>
+      </c>
+      <c r="C1724">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1725" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1725" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1725" s="3" t="s">
+        <v>2643</v>
+      </c>
+      <c r="C1725">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1726" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1726" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1726" s="3" t="s">
+        <v>2643</v>
+      </c>
+      <c r="C1726">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1727" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1727" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1727" s="3" t="s">
+        <v>2643</v>
+      </c>
+      <c r="C1727">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1728" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1728" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1728" s="3" t="s">
+        <v>2644</v>
+      </c>
+      <c r="C1728" t="s">
+        <v>3410</v>
+      </c>
+      <c r="D1728" s="3" t="s">
+        <v>3576</v>
+      </c>
+    </row>
+    <row r="1729" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1729" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1729" s="3" t="s">
+        <v>2644</v>
+      </c>
+      <c r="C1729" t="s">
+        <v>3577</v>
+      </c>
+    </row>
+    <row r="1730" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1730" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1730" s="3" t="s">
+        <v>2644</v>
+      </c>
+      <c r="C1730" t="s">
+        <v>3578</v>
+      </c>
+    </row>
+    <row r="1731" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1731" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1731" s="3" t="s">
+        <v>2644</v>
+      </c>
+      <c r="C1731">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1732" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1732" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1732" s="3" t="s">
+        <v>2644</v>
+      </c>
+      <c r="C1732">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="1733" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1733" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1733" s="3" t="s">
+        <v>2644</v>
+      </c>
+      <c r="C1733">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="1734" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1734" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1734" s="3" t="s">
+        <v>2645</v>
+      </c>
+      <c r="C1734" t="s">
+        <v>3410</v>
+      </c>
+      <c r="D1734" s="3" t="s">
+        <v>3579</v>
+      </c>
+    </row>
+    <row r="1735" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1735" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1735" s="3" t="s">
+        <v>2645</v>
+      </c>
+      <c r="C1735" t="s">
+        <v>3580</v>
+      </c>
+    </row>
+    <row r="1736" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1736" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1736" s="3" t="s">
+        <v>2645</v>
+      </c>
+      <c r="C1736" t="s">
+        <v>3581</v>
+      </c>
+    </row>
+    <row r="1737" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1737" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1737" s="3" t="s">
+        <v>2645</v>
+      </c>
+      <c r="C1737">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1738" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1738" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1738" s="3" t="s">
+        <v>2645</v>
+      </c>
+      <c r="C1738">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="1739" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1739" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1739" s="3" t="s">
+        <v>2645</v>
+      </c>
+      <c r="C1739">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="1740" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1740" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1740" s="3" t="s">
+        <v>2650</v>
+      </c>
+      <c r="C1740" t="s">
+        <v>3583</v>
+      </c>
+      <c r="D1740" s="3" t="s">
+        <v>3582</v>
+      </c>
+    </row>
+    <row r="1741" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1741" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1741" s="3" t="s">
+        <v>2650</v>
+      </c>
+      <c r="C1741" t="s">
+        <v>3435</v>
+      </c>
+    </row>
+    <row r="1742" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1742" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1742" s="3" t="s">
+        <v>2650</v>
+      </c>
+      <c r="C1742" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="1743" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1743" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1743" s="3" t="s">
+        <v>2650</v>
+      </c>
+      <c r="C1743" t="s">
+        <v>3437</v>
+      </c>
+    </row>
+    <row r="1744" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1744" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1744" s="3" t="s">
+        <v>2650</v>
+      </c>
+      <c r="C1744" t="s">
+        <v>3560</v>
+      </c>
+    </row>
+    <row r="1745" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1745" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1745" s="3" t="s">
+        <v>2650</v>
+      </c>
+      <c r="C1745">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1746" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1746" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1746" s="3" t="s">
+        <v>2650</v>
+      </c>
+      <c r="C1746">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1747" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1747" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1747" s="3" t="s">
+        <v>2650</v>
+      </c>
+      <c r="C1747">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1748" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1748" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1748" s="3" t="s">
+        <v>2650</v>
+      </c>
+      <c r="C1748">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1749" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1749" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1749" s="3" t="s">
+        <v>2650</v>
+      </c>
+      <c r="C1749">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1750" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1750" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1750" s="3" t="s">
+        <v>2651</v>
+      </c>
+      <c r="C1750" t="s">
+        <v>3583</v>
+      </c>
+      <c r="D1750" s="3" t="s">
+        <v>3582</v>
+      </c>
+    </row>
+    <row r="1751" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1751" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1751" s="3" t="s">
+        <v>2651</v>
+      </c>
+      <c r="C1751" t="s">
+        <v>3435</v>
+      </c>
+    </row>
+    <row r="1752" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1752" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1752" s="3" t="s">
+        <v>2651</v>
+      </c>
+      <c r="C1752" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="1753" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1753" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1753" s="3" t="s">
+        <v>2651</v>
+      </c>
+      <c r="C1753" t="s">
+        <v>3437</v>
+      </c>
+    </row>
+    <row r="1754" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1754" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1754" s="3" t="s">
+        <v>2651</v>
+      </c>
+      <c r="C1754" t="s">
+        <v>3560</v>
+      </c>
+    </row>
+    <row r="1755" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1755" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1755" s="3" t="s">
+        <v>2651</v>
+      </c>
+      <c r="C1755">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1756" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1756" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1756" s="3" t="s">
+        <v>2651</v>
+      </c>
+      <c r="C1756">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1757" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1757" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1757" s="3" t="s">
+        <v>2651</v>
+      </c>
+      <c r="C1757">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1758" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1758" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1758" s="3" t="s">
+        <v>2651</v>
+      </c>
+      <c r="C1758">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1759" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1759" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1759" s="3" t="s">
+        <v>2651</v>
+      </c>
+      <c r="C1759">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1760" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1760" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1760" s="3" t="s">
+        <v>2652</v>
+      </c>
+      <c r="C1760" t="s">
+        <v>3583</v>
+      </c>
+      <c r="D1760" s="3" t="s">
+        <v>3582</v>
+      </c>
+    </row>
+    <row r="1761" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1761" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1761" s="3" t="s">
+        <v>2652</v>
+      </c>
+      <c r="C1761" t="s">
+        <v>3435</v>
+      </c>
+    </row>
+    <row r="1762" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1762" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1762" s="3" t="s">
+        <v>2652</v>
+      </c>
+      <c r="C1762" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="1763" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1763" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1763" s="3" t="s">
+        <v>2652</v>
+      </c>
+      <c r="C1763" t="s">
+        <v>3437</v>
+      </c>
+    </row>
+    <row r="1764" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1764" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1764" s="3" t="s">
+        <v>2652</v>
+      </c>
+      <c r="C1764" t="s">
+        <v>3560</v>
+      </c>
+    </row>
+    <row r="1765" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1765" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1765" s="3" t="s">
+        <v>2652</v>
+      </c>
+      <c r="C1765">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1766" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1766" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1766" s="3" t="s">
+        <v>2652</v>
+      </c>
+      <c r="C1766">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1767" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1767" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1767" s="3" t="s">
+        <v>2652</v>
+      </c>
+      <c r="C1767">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1768" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1768" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1768" s="3" t="s">
+        <v>2652</v>
+      </c>
+      <c r="C1768">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1769" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1769" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1769" s="3" t="s">
+        <v>2652</v>
+      </c>
+      <c r="C1769">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1770" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1770" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1770" s="3" t="s">
+        <v>2653</v>
+      </c>
+      <c r="C1770" t="s">
+        <v>3583</v>
+      </c>
+      <c r="D1770" s="3" t="s">
+        <v>3582</v>
+      </c>
+    </row>
+    <row r="1771" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1771" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1771" s="3" t="s">
+        <v>2653</v>
+      </c>
+      <c r="C1771" t="s">
+        <v>3435</v>
+      </c>
+    </row>
+    <row r="1772" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1772" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1772" s="3" t="s">
+        <v>2653</v>
+      </c>
+      <c r="C1772" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="1773" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1773" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1773" s="3" t="s">
+        <v>2653</v>
+      </c>
+      <c r="C1773" t="s">
+        <v>3437</v>
+      </c>
+    </row>
+    <row r="1774" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1774" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1774" s="3" t="s">
+        <v>2653</v>
+      </c>
+      <c r="C1774" t="s">
+        <v>3560</v>
+      </c>
+    </row>
+    <row r="1775" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1775" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1775" s="3" t="s">
+        <v>2653</v>
+      </c>
+      <c r="C1775">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1776" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1776" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1776" s="3" t="s">
+        <v>2653</v>
+      </c>
+      <c r="C1776">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1777" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1777" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1777" s="3" t="s">
+        <v>2653</v>
+      </c>
+      <c r="C1777">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1778" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1778" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1778" s="3" t="s">
+        <v>2653</v>
+      </c>
+      <c r="C1778">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1779" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1779" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1779" s="3" t="s">
+        <v>2653</v>
+      </c>
+      <c r="C1779">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1780" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1780" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1780" s="3" t="s">
+        <v>2654</v>
+      </c>
+      <c r="C1780" t="s">
+        <v>3583</v>
+      </c>
+      <c r="D1780" s="3" t="s">
+        <v>3582</v>
+      </c>
+    </row>
+    <row r="1781" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1781" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1781" s="3" t="s">
+        <v>2654</v>
+      </c>
+      <c r="C1781" t="s">
+        <v>3435</v>
+      </c>
+    </row>
+    <row r="1782" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1782" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1782" s="3" t="s">
+        <v>2654</v>
+      </c>
+      <c r="C1782" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="1783" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1783" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1783" s="3" t="s">
+        <v>2654</v>
+      </c>
+      <c r="C1783" t="s">
+        <v>3437</v>
+      </c>
+    </row>
+    <row r="1784" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1784" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1784" s="3" t="s">
+        <v>2654</v>
+      </c>
+      <c r="C1784" t="s">
+        <v>3560</v>
+      </c>
+    </row>
+    <row r="1785" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1785" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1785" s="3" t="s">
+        <v>2654</v>
+      </c>
+      <c r="C1785">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1786" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1786" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1786" s="3" t="s">
+        <v>2654</v>
+      </c>
+      <c r="C1786">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1787" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1787" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1787" s="3" t="s">
+        <v>2654</v>
+      </c>
+      <c r="C1787">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1788" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1788" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1788" s="3" t="s">
+        <v>2654</v>
+      </c>
+      <c r="C1788">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1789" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1789" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1789" s="3" t="s">
+        <v>2654</v>
+      </c>
+      <c r="C1789">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1790" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1790" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1790" s="3" t="s">
+        <v>2655</v>
+      </c>
+      <c r="C1790" t="s">
+        <v>3583</v>
+      </c>
+      <c r="D1790" s="3" t="s">
+        <v>3582</v>
+      </c>
+    </row>
+    <row r="1791" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1791" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1791" s="3" t="s">
+        <v>2655</v>
+      </c>
+      <c r="C1791" t="s">
+        <v>3435</v>
+      </c>
+    </row>
+    <row r="1792" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1792" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1792" s="3" t="s">
+        <v>2655</v>
+      </c>
+      <c r="C1792" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="1793" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1793" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1793" s="3" t="s">
+        <v>2655</v>
+      </c>
+      <c r="C1793" t="s">
+        <v>3437</v>
+      </c>
+    </row>
+    <row r="1794" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1794" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1794" s="3" t="s">
+        <v>2655</v>
+      </c>
+      <c r="C1794" t="s">
+        <v>3560</v>
+      </c>
+    </row>
+    <row r="1795" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1795" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1795" s="3" t="s">
+        <v>2655</v>
+      </c>
+      <c r="C1795">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1796" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1796" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1796" s="3" t="s">
+        <v>2655</v>
+      </c>
+      <c r="C1796">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1797" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1797" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1797" s="3" t="s">
+        <v>2655</v>
+      </c>
+      <c r="C1797">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1798" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1798" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1798" s="3" t="s">
+        <v>2655</v>
+      </c>
+      <c r="C1798">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1799" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1799" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1799" s="3" t="s">
+        <v>2655</v>
+      </c>
+      <c r="C1799">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1800" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1800" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1800" s="3" t="s">
+        <v>2656</v>
+      </c>
+      <c r="C1800" t="s">
+        <v>3583</v>
+      </c>
+      <c r="D1800" s="3" t="s">
+        <v>3582</v>
+      </c>
+    </row>
+    <row r="1801" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1801" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1801" s="3" t="s">
+        <v>2656</v>
+      </c>
+      <c r="C1801" t="s">
+        <v>3435</v>
+      </c>
+    </row>
+    <row r="1802" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1802" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1802" s="3" t="s">
+        <v>2656</v>
+      </c>
+      <c r="C1802" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="1803" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1803" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1803" s="3" t="s">
+        <v>2656</v>
+      </c>
+      <c r="C1803" t="s">
+        <v>3437</v>
+      </c>
+    </row>
+    <row r="1804" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1804" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1804" s="3" t="s">
+        <v>2656</v>
+      </c>
+      <c r="C1804" t="s">
+        <v>3560</v>
+      </c>
+    </row>
+    <row r="1805" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1805" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1805" s="3" t="s">
+        <v>2656</v>
+      </c>
+      <c r="C1805">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1806" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1806" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1806" s="3" t="s">
+        <v>2656</v>
+      </c>
+      <c r="C1806">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1807" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1807" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1807" s="3" t="s">
+        <v>2656</v>
+      </c>
+      <c r="C1807">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1808" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1808" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1808" s="3" t="s">
+        <v>2656</v>
+      </c>
+      <c r="C1808">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1809" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1809" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1809" s="3" t="s">
+        <v>2656</v>
+      </c>
+      <c r="C1809">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1810" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1810" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1810" s="3" t="s">
+        <v>2657</v>
+      </c>
+      <c r="C1810" t="s">
+        <v>3583</v>
+      </c>
+      <c r="D1810" s="3" t="s">
+        <v>3582</v>
+      </c>
+    </row>
+    <row r="1811" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1811" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1811" s="3" t="s">
+        <v>2657</v>
+      </c>
+      <c r="C1811" t="s">
+        <v>3435</v>
+      </c>
+    </row>
+    <row r="1812" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1812" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1812" s="3" t="s">
+        <v>2657</v>
+      </c>
+      <c r="C1812" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="1813" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1813" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1813" s="3" t="s">
+        <v>2657</v>
+      </c>
+      <c r="C1813" t="s">
+        <v>3437</v>
+      </c>
+    </row>
+    <row r="1814" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1814" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1814" s="3" t="s">
+        <v>2657</v>
+      </c>
+      <c r="C1814" t="s">
+        <v>3560</v>
+      </c>
+    </row>
+    <row r="1815" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1815" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1815" s="3" t="s">
+        <v>2657</v>
+      </c>
+      <c r="C1815">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1816" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1816" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1816" s="3" t="s">
+        <v>2657</v>
+      </c>
+      <c r="C1816">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1817" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1817" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1817" s="3" t="s">
+        <v>2657</v>
+      </c>
+      <c r="C1817">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1818" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1818" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1818" s="3" t="s">
+        <v>2657</v>
+      </c>
+      <c r="C1818">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1819" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1819" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1819" s="3" t="s">
+        <v>2657</v>
+      </c>
+      <c r="C1819">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1820" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1820" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1820" s="3" t="s">
+        <v>2659</v>
+      </c>
+      <c r="C1820" t="s">
+        <v>3575</v>
+      </c>
+      <c r="D1820" s="3" t="s">
+        <v>3584</v>
+      </c>
+    </row>
+    <row r="1821" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1821" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1821" s="3" t="s">
+        <v>2659</v>
+      </c>
+      <c r="C1821" t="s">
+        <v>3585</v>
+      </c>
+    </row>
+    <row r="1822" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1822" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1822" s="3" t="s">
+        <v>2659</v>
+      </c>
+      <c r="C1822" t="s">
+        <v>3586</v>
+      </c>
+    </row>
+    <row r="1823" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1823" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1823" s="3" t="s">
+        <v>2659</v>
+      </c>
+      <c r="C1823" t="s">
+        <v>3587</v>
+      </c>
+    </row>
+    <row r="1824" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1824" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1824" s="3" t="s">
+        <v>2659</v>
+      </c>
+      <c r="C1824" t="s">
+        <v>3588</v>
+      </c>
+    </row>
+    <row r="1825" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1825" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1825" s="3" t="s">
+        <v>2659</v>
+      </c>
+      <c r="C1825">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1826" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1826" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1826" s="3" t="s">
+        <v>2659</v>
+      </c>
+      <c r="C1826">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1827" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1827" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1827" s="3" t="s">
+        <v>2659</v>
+      </c>
+      <c r="C1827">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1828" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1828" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1828" s="3" t="s">
+        <v>2659</v>
+      </c>
+      <c r="C1828">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1829" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1829" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1829" s="3" t="s">
+        <v>2659</v>
+      </c>
+      <c r="C1829">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1830" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1830" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1830" s="3" t="s">
+        <v>2660</v>
+      </c>
+      <c r="C1830" t="s">
+        <v>3575</v>
+      </c>
+      <c r="D1830" s="3" t="s">
+        <v>3584</v>
+      </c>
+    </row>
+    <row r="1831" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1831" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1831" s="3" t="s">
+        <v>2660</v>
+      </c>
+      <c r="C1831" t="s">
+        <v>3585</v>
+      </c>
+    </row>
+    <row r="1832" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1832" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1832" s="3" t="s">
+        <v>2660</v>
+      </c>
+      <c r="C1832" t="s">
+        <v>3586</v>
+      </c>
+    </row>
+    <row r="1833" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1833" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1833" s="3" t="s">
+        <v>2660</v>
+      </c>
+      <c r="C1833" t="s">
+        <v>3587</v>
+      </c>
+    </row>
+    <row r="1834" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1834" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1834" s="3" t="s">
+        <v>2660</v>
+      </c>
+      <c r="C1834" t="s">
+        <v>3588</v>
+      </c>
+    </row>
+    <row r="1835" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1835" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1835" s="3" t="s">
+        <v>2660</v>
+      </c>
+      <c r="C1835">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1836" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1836" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1836" s="3" t="s">
+        <v>2660</v>
+      </c>
+      <c r="C1836">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1837" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1837" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1837" s="3" t="s">
+        <v>2660</v>
+      </c>
+      <c r="C1837">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1838" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1838" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1838" s="3" t="s">
+        <v>2660</v>
+      </c>
+      <c r="C1838">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1839" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1839" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1839" s="3" t="s">
+        <v>2660</v>
+      </c>
+      <c r="C1839">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1840" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1840" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1840" s="3" t="s">
+        <v>2661</v>
+      </c>
+      <c r="C1840" t="s">
+        <v>3575</v>
+      </c>
+      <c r="D1840" s="3" t="s">
+        <v>3584</v>
+      </c>
+    </row>
+    <row r="1841" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1841" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1841" s="3" t="s">
+        <v>2661</v>
+      </c>
+      <c r="C1841" t="s">
+        <v>3585</v>
+      </c>
+    </row>
+    <row r="1842" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1842" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1842" s="3" t="s">
+        <v>2661</v>
+      </c>
+      <c r="C1842" t="s">
+        <v>3586</v>
+      </c>
+    </row>
+    <row r="1843" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1843" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1843" s="3" t="s">
+        <v>2661</v>
+      </c>
+      <c r="C1843" t="s">
+        <v>3587</v>
+      </c>
+    </row>
+    <row r="1844" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1844" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1844" s="3" t="s">
+        <v>2661</v>
+      </c>
+      <c r="C1844" t="s">
+        <v>3588</v>
+      </c>
+    </row>
+    <row r="1845" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1845" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1845" s="3" t="s">
+        <v>2661</v>
+      </c>
+      <c r="C1845">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1846" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1846" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1846" s="3" t="s">
+        <v>2661</v>
+      </c>
+      <c r="C1846">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1847" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1847" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1847" s="3" t="s">
+        <v>2661</v>
+      </c>
+      <c r="C1847">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1848" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1848" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1848" s="3" t="s">
+        <v>2661</v>
+      </c>
+      <c r="C1848">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1849" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1849" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1849" s="3" t="s">
+        <v>2661</v>
+      </c>
+      <c r="C1849">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1850" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1850" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1850" s="3" t="s">
+        <v>2662</v>
+      </c>
+      <c r="C1850" t="s">
+        <v>3575</v>
+      </c>
+      <c r="D1850" s="3" t="s">
+        <v>3584</v>
+      </c>
+    </row>
+    <row r="1851" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1851" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1851" s="3" t="s">
+        <v>2662</v>
+      </c>
+      <c r="C1851" t="s">
+        <v>3585</v>
+      </c>
+    </row>
+    <row r="1852" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1852" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1852" s="3" t="s">
+        <v>2662</v>
+      </c>
+      <c r="C1852" t="s">
+        <v>3586</v>
+      </c>
+    </row>
+    <row r="1853" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1853" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1853" s="3" t="s">
+        <v>2662</v>
+      </c>
+      <c r="C1853" t="s">
+        <v>3587</v>
+      </c>
+    </row>
+    <row r="1854" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1854" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1854" s="3" t="s">
+        <v>2662</v>
+      </c>
+      <c r="C1854" t="s">
+        <v>3588</v>
+      </c>
+    </row>
+    <row r="1855" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1855" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1855" s="3" t="s">
+        <v>2662</v>
+      </c>
+      <c r="C1855">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1856" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1856" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1856" s="3" t="s">
+        <v>2662</v>
+      </c>
+      <c r="C1856">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1857" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1857" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1857" s="3" t="s">
+        <v>2662</v>
+      </c>
+      <c r="C1857">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1858" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1858" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1858" s="3" t="s">
+        <v>2662</v>
+      </c>
+      <c r="C1858">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1859" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1859" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1859" s="3" t="s">
+        <v>2662</v>
+      </c>
+      <c r="C1859">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1860" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1860" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1860" s="3" t="s">
+        <v>2663</v>
+      </c>
+      <c r="C1860" t="s">
+        <v>3575</v>
+      </c>
+      <c r="D1860" s="3" t="s">
+        <v>3584</v>
+      </c>
+    </row>
+    <row r="1861" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1861" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1861" s="3" t="s">
+        <v>2663</v>
+      </c>
+      <c r="C1861" t="s">
+        <v>3585</v>
+      </c>
+    </row>
+    <row r="1862" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1862" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1862" s="3" t="s">
+        <v>2663</v>
+      </c>
+      <c r="C1862" t="s">
+        <v>3586</v>
+      </c>
+    </row>
+    <row r="1863" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1863" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1863" s="3" t="s">
+        <v>2663</v>
+      </c>
+      <c r="C1863" t="s">
+        <v>3587</v>
+      </c>
+    </row>
+    <row r="1864" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1864" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1864" s="3" t="s">
+        <v>2663</v>
+      </c>
+      <c r="C1864" t="s">
+        <v>3588</v>
+      </c>
+    </row>
+    <row r="1865" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1865" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1865" s="3" t="s">
+        <v>2663</v>
+      </c>
+      <c r="C1865">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1866" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1866" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1866" s="3" t="s">
+        <v>2663</v>
+      </c>
+      <c r="C1866">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1867" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1867" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1867" s="3" t="s">
+        <v>2663</v>
+      </c>
+      <c r="C1867">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1868" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1868" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1868" s="3" t="s">
+        <v>2663</v>
+      </c>
+      <c r="C1868">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1869" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1869" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1869" s="3" t="s">
+        <v>2663</v>
+      </c>
+      <c r="C1869">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/gdcdictionary/xlsx/nodes_schema_impowr.xlsx
+++ b/gdcdictionary/xlsx/nodes_schema_impowr.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vithal\Documents\GitHub\dcfdictionary\gdcdictionary\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02C5D3D2-8719-48E3-B307-9E931B7FB431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93A425E8-23B9-41E9-8DEA-6413325FF1D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2040" yWindow="2340" windowWidth="25620" windowHeight="11940" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5475" yWindow="3150" windowWidth="21600" windowHeight="10365" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nodes_impowr" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13065" uniqueCount="3589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13521" uniqueCount="3641">
   <si>
     <t>&lt;$schema&gt;</t>
   </si>
@@ -10834,6 +10834,162 @@
   </si>
   <si>
     <t>Do not agree at all</t>
+  </si>
+  <si>
+    <t>1, Poor | 2, Fair | 3, Good | 4, Very good | 5, Excellent</t>
+  </si>
+  <si>
+    <t>Excellent</t>
+  </si>
+  <si>
+    <t>1, Do not understand at all | 2, Understand a little bit | 3, Somewhat understand | 4, Understand a lot | 5, Completely understand</t>
+  </si>
+  <si>
+    <t>Do not understand at all</t>
+  </si>
+  <si>
+    <t>Understand a little bit</t>
+  </si>
+  <si>
+    <t>Somewhat understand</t>
+  </si>
+  <si>
+    <t>Understand a lot</t>
+  </si>
+  <si>
+    <t>Completely understand</t>
+  </si>
+  <si>
+    <t>1, Don't know anything | 2, Know a little bit | 3, I'm not sure | 4, Know quite a lot | 5, Seem to know everything</t>
+  </si>
+  <si>
+    <t>Don't know anything</t>
+  </si>
+  <si>
+    <t>Know a little bit</t>
+  </si>
+  <si>
+    <t>I'm not sure</t>
+  </si>
+  <si>
+    <t>Know quite a lot</t>
+  </si>
+  <si>
+    <t>Seem to know everything</t>
+  </si>
+  <si>
+    <t>1, Very uninterested | 2, Uninterested | 3, Neither interested nor uninterested | 4, Interested | 5, Very interested</t>
+  </si>
+  <si>
+    <t>Very uninterested</t>
+  </si>
+  <si>
+    <t>Uninterested</t>
+  </si>
+  <si>
+    <t>Neither interested nor uninterested</t>
+  </si>
+  <si>
+    <t>Interested</t>
+  </si>
+  <si>
+    <t>Very interested</t>
+  </si>
+  <si>
+    <t>1, Definitely not | 2, Probably not | 3, I'm not sure | 4, Probably yes | 5, Definitely yes</t>
+  </si>
+  <si>
+    <t>Definitely not</t>
+  </si>
+  <si>
+    <t>Probably not</t>
+  </si>
+  <si>
+    <t>Probably yes</t>
+  </si>
+  <si>
+    <t>Definitely yes</t>
+  </si>
+  <si>
+    <t>1, No, made things worse | 2, No, didn't help | 3, I'm not sure | 4, Yes, helped a little | 5, Yes, helped a lot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, made things worse </t>
+  </si>
+  <si>
+    <t>No, didn't help</t>
+  </si>
+  <si>
+    <t>Yes, helped a little</t>
+  </si>
+  <si>
+    <t>Yes, helped a lot</t>
+  </si>
+  <si>
+    <t>1, Did not help at all | 2,  | 3, Somewhat helpful | 4,  | 5, Very helpful</t>
+  </si>
+  <si>
+    <t>Did not help at all</t>
+  </si>
+  <si>
+    <t>Somewhat helpful</t>
+  </si>
+  <si>
+    <t>Very helpful</t>
+  </si>
+  <si>
+    <t>1, Very unresponsive | 2, Somewhat unresponsive | 3, Neither responsive nor unresponsive | 4, Somewhat responsive | 5, Very responsive</t>
+  </si>
+  <si>
+    <t>Very unresponsive</t>
+  </si>
+  <si>
+    <t>Somewhat unresponsive</t>
+  </si>
+  <si>
+    <t>Neither responsive nor unresponsive</t>
+  </si>
+  <si>
+    <t>Somewhat responsive</t>
+  </si>
+  <si>
+    <t>Very responsive</t>
+  </si>
+  <si>
+    <t>1, Very unconcerned | 2, Somewhat Unconcerned | 3, Neither concerned nor unconcerned | 4, Somewhat concerned | 5, Very concerned</t>
+  </si>
+  <si>
+    <t>Very unconcerned</t>
+  </si>
+  <si>
+    <t>Somewhat Unconcerned</t>
+  </si>
+  <si>
+    <t>Neither concerned nor unconcerned</t>
+  </si>
+  <si>
+    <t>Somewhat concerned</t>
+  </si>
+  <si>
+    <t>Very concerned</t>
+  </si>
+  <si>
+    <t>1, Very dissatisfied | 2, Somewhat dissatisfied | 3, Neither satisfied nor dissatisfied | 4, Somewhat satisfied | 5, Very satisfied</t>
+  </si>
+  <si>
+    <t>Very dissatisfied</t>
+  </si>
+  <si>
+    <t>Somewhat dissatisfied</t>
+  </si>
+  <si>
+    <t>Neither satisfied nor dissatisfied</t>
+  </si>
+  <si>
+    <t>Somewhat satisfied</t>
+  </si>
+  <si>
+    <t>Very satisfied</t>
   </si>
 </sst>
 </file>
@@ -19711,8 +19867,8 @@
   <dimension ref="A1:K1209"/>
   <sheetViews>
     <sheetView zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A828" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A838" sqref="A838:B838"/>
+      <pane ySplit="1" topLeftCell="A846" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A859" sqref="A859:B859"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19720,7 +19876,7 @@
     <col min="1" max="1" width="49" customWidth="1"/>
     <col min="2" max="2" width="37.28515625" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="99.5703125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="57.28515625" style="9" customWidth="1"/>
     <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
@@ -32002,7 +32158,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="876" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A876" t="s">
         <v>1904</v>
       </c>
@@ -32016,7 +32172,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="877" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A877" t="s">
         <v>1904</v>
       </c>
@@ -32030,7 +32186,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="878" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A878" t="s">
         <v>1904</v>
       </c>
@@ -32044,7 +32200,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="879" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A879" t="s">
         <v>1904</v>
       </c>
@@ -32058,7 +32214,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="880" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A880" t="s">
         <v>1785</v>
       </c>
@@ -32111,7 +32267,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="884" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A884" t="s">
         <v>1785</v>
       </c>
@@ -32125,7 +32281,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="885" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A885" t="s">
         <v>1785</v>
       </c>
@@ -32153,7 +32309,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="887" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A887" t="s">
         <v>1785</v>
       </c>
@@ -32167,7 +32323,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="888" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A888" t="s">
         <v>1785</v>
       </c>
@@ -32195,7 +32351,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="890" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A890" t="s">
         <v>1785</v>
       </c>
@@ -32209,7 +32365,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="891" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A891" t="s">
         <v>1785</v>
       </c>
@@ -32223,7 +32379,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="892" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A892" t="s">
         <v>1785</v>
       </c>
@@ -32237,7 +32393,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="893" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A893" t="s">
         <v>1785</v>
       </c>
@@ -32265,7 +32421,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="895" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A895" t="s">
         <v>1785</v>
       </c>
@@ -32279,7 +32435,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="896" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A896" t="s">
         <v>1785</v>
       </c>
@@ -32293,7 +32449,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="897" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A897" t="s">
         <v>1785</v>
       </c>
@@ -32307,7 +32463,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="898" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A898" t="s">
         <v>1785</v>
       </c>
@@ -32335,7 +32491,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="900" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A900" t="s">
         <v>1785</v>
       </c>
@@ -32349,7 +32505,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="901" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A901" t="s">
         <v>1785</v>
       </c>
@@ -32363,7 +32519,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="902" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A902" t="s">
         <v>1785</v>
       </c>
@@ -32377,7 +32533,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="903" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A903" t="s">
         <v>1785</v>
       </c>
@@ -32475,7 +32631,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="910" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A910" t="s">
         <v>1785</v>
       </c>
@@ -32531,7 +32687,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="914" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A914" t="s">
         <v>1785</v>
       </c>
@@ -32629,7 +32785,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="921" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A921" t="s">
         <v>1785</v>
       </c>
@@ -32643,7 +32799,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="922" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A922" t="s">
         <v>1785</v>
       </c>
@@ -32727,7 +32883,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="928" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A928" t="s">
         <v>1869</v>
       </c>
@@ -32741,7 +32897,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="929" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A929" t="s">
         <v>1869</v>
       </c>
@@ -32755,7 +32911,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="930" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A930" t="s">
         <v>1869</v>
       </c>
@@ -33441,7 +33597,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="979" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A979" t="s">
         <v>1872</v>
       </c>
@@ -33455,7 +33611,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="980" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A980" t="s">
         <v>1872</v>
       </c>
@@ -33469,7 +33625,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="981" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A981" t="s">
         <v>1872</v>
       </c>
@@ -33483,7 +33639,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="982" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A982" t="s">
         <v>1872</v>
       </c>
@@ -33497,7 +33653,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="983" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A983" t="s">
         <v>1872</v>
       </c>
@@ -33525,7 +33681,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="985" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A985" t="s">
         <v>1872</v>
       </c>
@@ -33637,7 +33793,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="993" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A993" t="s">
         <v>1873</v>
       </c>
@@ -34225,7 +34381,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="1035" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1035" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A1035" t="s">
         <v>1812</v>
       </c>
@@ -34253,7 +34409,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="1037" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1037" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A1037" t="s">
         <v>1812</v>
       </c>
@@ -34365,7 +34521,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="1045" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1045" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A1045" t="s">
         <v>1824</v>
       </c>
@@ -34393,7 +34549,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="1047" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1047" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A1047" t="s">
         <v>1824</v>
       </c>
@@ -34421,7 +34577,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="1049" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="1049" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A1049" t="s">
         <v>1828</v>
       </c>
@@ -34435,7 +34591,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="1050" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1050" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A1050" t="s">
         <v>1828</v>
       </c>
@@ -34491,7 +34647,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="1054" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1054" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A1054" t="s">
         <v>1828</v>
       </c>
@@ -34505,7 +34661,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="1055" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="1055" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A1055" t="s">
         <v>1828</v>
       </c>
@@ -34519,7 +34675,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="1056" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1056" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A1056" t="s">
         <v>1828</v>
       </c>
@@ -34533,7 +34689,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="1057" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="1057" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A1057" t="s">
         <v>1828</v>
       </c>
@@ -34547,7 +34703,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="1058" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="1058" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A1058" t="s">
         <v>1828</v>
       </c>
@@ -34561,7 +34717,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="1059" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1059" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A1059" t="s">
         <v>1828</v>
       </c>
@@ -34575,7 +34731,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="1060" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1060" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A1060" t="s">
         <v>1828</v>
       </c>
@@ -34757,7 +34913,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="1073" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1073" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A1073" t="s">
         <v>1828</v>
       </c>
@@ -34813,7 +34969,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="1077" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1077" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A1077" t="s">
         <v>1828</v>
       </c>
@@ -34841,7 +34997,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="1079" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1079" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A1079" t="s">
         <v>1828</v>
       </c>
@@ -34855,7 +35011,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="1080" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1080" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A1080" t="s">
         <v>1828</v>
       </c>
@@ -34911,7 +35067,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="1084" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1084" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A1084" t="s">
         <v>1877</v>
       </c>
@@ -34925,7 +35081,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="1085" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="1085" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A1085" t="s">
         <v>1877</v>
       </c>
@@ -34953,7 +35109,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="1087" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="1087" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A1087" t="s">
         <v>1877</v>
       </c>
@@ -34981,7 +35137,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="1089" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1089" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A1089" t="s">
         <v>1874</v>
       </c>
@@ -35023,7 +35179,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="1092" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="1092" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A1092" t="s">
         <v>1875</v>
       </c>
@@ -35037,7 +35193,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="1093" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1093" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A1093" t="s">
         <v>1875</v>
       </c>
@@ -35121,7 +35277,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="1099" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="1099" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A1099" t="s">
         <v>1876</v>
       </c>
@@ -35135,7 +35291,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="1100" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="1100" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A1100" t="s">
         <v>1876</v>
       </c>
@@ -35149,7 +35305,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="1101" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="1101" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A1101" t="s">
         <v>1876</v>
       </c>
@@ -35163,7 +35319,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="1102" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="1102" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A1102" t="s">
         <v>1876</v>
       </c>
@@ -35177,7 +35333,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="1103" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="1103" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A1103" t="s">
         <v>1876</v>
       </c>
@@ -35191,7 +35347,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="1104" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="1104" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A1104" t="s">
         <v>1876</v>
       </c>
@@ -35205,7 +35361,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="1105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1105" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A1105" t="s">
         <v>1876</v>
       </c>
@@ -35219,7 +35375,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="1106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1106" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A1106" t="s">
         <v>1876</v>
       </c>
@@ -35233,7 +35389,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="1107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1107" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A1107" t="s">
         <v>1876</v>
       </c>
@@ -35247,7 +35403,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="1108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1108" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A1108" t="s">
         <v>1876</v>
       </c>
@@ -35261,7 +35417,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="1109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1109" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A1109" t="s">
         <v>1876</v>
       </c>
@@ -35289,7 +35445,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="1111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1111" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A1111" t="s">
         <v>1876</v>
       </c>
@@ -35303,7 +35459,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="1112" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="1112" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A1112" t="s">
         <v>1876</v>
       </c>
@@ -35317,7 +35473,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="1113" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="1113" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A1113" t="s">
         <v>1876</v>
       </c>
@@ -35345,7 +35501,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="1115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1115" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A1115" t="s">
         <v>1844</v>
       </c>
@@ -35373,7 +35529,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="1117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1117" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A1117" t="s">
         <v>1848</v>
       </c>
@@ -35387,7 +35543,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="1118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1118" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A1118" t="s">
         <v>1848</v>
       </c>
@@ -35401,7 +35557,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="1119" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="1119" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A1119" t="s">
         <v>1848</v>
       </c>
@@ -35415,7 +35571,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="1120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1120" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A1120" t="s">
         <v>1848</v>
       </c>
@@ -35527,7 +35683,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="1128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1128" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A1128" t="s">
         <v>1878</v>
       </c>
@@ -35653,7 +35809,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="1137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1137" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A1137" t="s">
         <v>1879</v>
       </c>
@@ -35793,7 +35949,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="1147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1147" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A1147" t="s">
         <v>1880</v>
       </c>
@@ -35807,7 +35963,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="1148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1148" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A1148" t="s">
         <v>1880</v>
       </c>
@@ -35821,7 +35977,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="1149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1149" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A1149" t="s">
         <v>1880</v>
       </c>
@@ -35849,7 +36005,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="1151" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="1151" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A1151" t="s">
         <v>1880</v>
       </c>
@@ -35863,7 +36019,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="1152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1152" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A1152" t="s">
         <v>1880</v>
       </c>
@@ -35877,7 +36033,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="1153" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="1153" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A1153" t="s">
         <v>1880</v>
       </c>
@@ -35891,7 +36047,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="1154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1154" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A1154" t="s">
         <v>1880</v>
       </c>
@@ -35933,7 +36089,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="1157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1157" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A1157" t="s">
         <v>1864</v>
       </c>
@@ -36619,7 +36775,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="1206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1206" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A1206" t="s">
         <v>1868</v>
       </c>
@@ -36633,7 +36789,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="1207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1207" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A1207" t="s">
         <v>1868</v>
       </c>
@@ -36647,7 +36803,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="1208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1208" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A1208" t="s">
         <v>1868</v>
       </c>
@@ -36661,7 +36817,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="1209" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="1209" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A1209" t="s">
         <v>1868</v>
       </c>
@@ -36684,11 +36840,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E1869"/>
+  <dimension ref="A1:E2049"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1848" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1870" sqref="A1870"/>
+      <pane ySplit="1" topLeftCell="A2033" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2050" sqref="A2050"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -57861,6 +58017,2004 @@
         <v>5</v>
       </c>
     </row>
+    <row r="1870" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1870" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1870" s="3" t="s">
+        <v>2706</v>
+      </c>
+      <c r="C1870" t="s">
+        <v>3415</v>
+      </c>
+      <c r="D1870" s="3" t="s">
+        <v>3589</v>
+      </c>
+    </row>
+    <row r="1871" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1871" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1871" s="3" t="s">
+        <v>2706</v>
+      </c>
+      <c r="C1871" t="s">
+        <v>3414</v>
+      </c>
+    </row>
+    <row r="1872" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1872" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1872" s="3" t="s">
+        <v>2706</v>
+      </c>
+      <c r="C1872" t="s">
+        <v>3413</v>
+      </c>
+    </row>
+    <row r="1873" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1873" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1873" s="3" t="s">
+        <v>2706</v>
+      </c>
+      <c r="C1873" t="s">
+        <v>3412</v>
+      </c>
+    </row>
+    <row r="1874" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1874" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1874" s="3" t="s">
+        <v>2706</v>
+      </c>
+      <c r="C1874" t="s">
+        <v>3590</v>
+      </c>
+    </row>
+    <row r="1875" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1875" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1875" s="3" t="s">
+        <v>2706</v>
+      </c>
+      <c r="C1875">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1876" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1876" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1876" s="3" t="s">
+        <v>2706</v>
+      </c>
+      <c r="C1876">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1877" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1877" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1877" s="3" t="s">
+        <v>2706</v>
+      </c>
+      <c r="C1877">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1878" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1878" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1878" s="3" t="s">
+        <v>2706</v>
+      </c>
+      <c r="C1878">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1879" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1879" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1879" s="3" t="s">
+        <v>2706</v>
+      </c>
+      <c r="C1879">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1880" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1880" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1880" s="3" t="s">
+        <v>2707</v>
+      </c>
+      <c r="C1880" t="s">
+        <v>3415</v>
+      </c>
+      <c r="D1880" s="3" t="s">
+        <v>3589</v>
+      </c>
+    </row>
+    <row r="1881" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1881" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1881" s="3" t="s">
+        <v>2707</v>
+      </c>
+      <c r="C1881" t="s">
+        <v>3414</v>
+      </c>
+    </row>
+    <row r="1882" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1882" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1882" s="3" t="s">
+        <v>2707</v>
+      </c>
+      <c r="C1882" t="s">
+        <v>3413</v>
+      </c>
+    </row>
+    <row r="1883" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1883" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1883" s="3" t="s">
+        <v>2707</v>
+      </c>
+      <c r="C1883" t="s">
+        <v>3412</v>
+      </c>
+    </row>
+    <row r="1884" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1884" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1884" s="3" t="s">
+        <v>2707</v>
+      </c>
+      <c r="C1884" t="s">
+        <v>3590</v>
+      </c>
+    </row>
+    <row r="1885" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1885" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1885" s="3" t="s">
+        <v>2707</v>
+      </c>
+      <c r="C1885">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1886" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1886" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1886" s="3" t="s">
+        <v>2707</v>
+      </c>
+      <c r="C1886">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1887" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1887" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1887" s="3" t="s">
+        <v>2707</v>
+      </c>
+      <c r="C1887">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1888" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1888" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1888" s="3" t="s">
+        <v>2707</v>
+      </c>
+      <c r="C1888">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1889" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1889" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1889" s="3" t="s">
+        <v>2707</v>
+      </c>
+      <c r="C1889">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1890" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1890" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1890" s="3" t="s">
+        <v>2708</v>
+      </c>
+      <c r="C1890" t="s">
+        <v>3415</v>
+      </c>
+      <c r="D1890" s="3" t="s">
+        <v>3589</v>
+      </c>
+    </row>
+    <row r="1891" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1891" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1891" s="3" t="s">
+        <v>2708</v>
+      </c>
+      <c r="C1891" t="s">
+        <v>3414</v>
+      </c>
+    </row>
+    <row r="1892" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1892" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1892" s="3" t="s">
+        <v>2708</v>
+      </c>
+      <c r="C1892" t="s">
+        <v>3413</v>
+      </c>
+    </row>
+    <row r="1893" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1893" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1893" s="3" t="s">
+        <v>2708</v>
+      </c>
+      <c r="C1893" t="s">
+        <v>3412</v>
+      </c>
+    </row>
+    <row r="1894" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1894" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1894" s="3" t="s">
+        <v>2708</v>
+      </c>
+      <c r="C1894" t="s">
+        <v>3590</v>
+      </c>
+    </row>
+    <row r="1895" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1895" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1895" s="3" t="s">
+        <v>2708</v>
+      </c>
+      <c r="C1895">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1896" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1896" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1896" s="3" t="s">
+        <v>2708</v>
+      </c>
+      <c r="C1896">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1897" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1897" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1897" s="3" t="s">
+        <v>2708</v>
+      </c>
+      <c r="C1897">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1898" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1898" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1898" s="3" t="s">
+        <v>2708</v>
+      </c>
+      <c r="C1898">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1899" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1899" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1899" s="3" t="s">
+        <v>2708</v>
+      </c>
+      <c r="C1899">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1900" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1900" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1900" s="3" t="s">
+        <v>2709</v>
+      </c>
+      <c r="C1900" t="s">
+        <v>3592</v>
+      </c>
+      <c r="D1900" s="3" t="s">
+        <v>3591</v>
+      </c>
+    </row>
+    <row r="1901" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1901" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1901" s="3" t="s">
+        <v>2709</v>
+      </c>
+      <c r="C1901" t="s">
+        <v>3593</v>
+      </c>
+    </row>
+    <row r="1902" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1902" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1902" s="3" t="s">
+        <v>2709</v>
+      </c>
+      <c r="C1902" t="s">
+        <v>3594</v>
+      </c>
+    </row>
+    <row r="1903" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1903" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1903" s="3" t="s">
+        <v>2709</v>
+      </c>
+      <c r="C1903" t="s">
+        <v>3595</v>
+      </c>
+    </row>
+    <row r="1904" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1904" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1904" s="3" t="s">
+        <v>2709</v>
+      </c>
+      <c r="C1904" t="s">
+        <v>3596</v>
+      </c>
+    </row>
+    <row r="1905" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1905" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1905" s="3" t="s">
+        <v>2709</v>
+      </c>
+      <c r="C1905">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1906" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1906" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1906" s="3" t="s">
+        <v>2709</v>
+      </c>
+      <c r="C1906">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1907" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1907" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1907" s="3" t="s">
+        <v>2709</v>
+      </c>
+      <c r="C1907">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1908" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1908" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1908" s="3" t="s">
+        <v>2709</v>
+      </c>
+      <c r="C1908">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1909" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1909" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1909" s="3" t="s">
+        <v>2709</v>
+      </c>
+      <c r="C1909">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1910" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1910" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1910" s="3" t="s">
+        <v>2710</v>
+      </c>
+      <c r="C1910" t="s">
+        <v>3598</v>
+      </c>
+      <c r="D1910" s="3" t="s">
+        <v>3597</v>
+      </c>
+    </row>
+    <row r="1911" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1911" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1911" s="3" t="s">
+        <v>2710</v>
+      </c>
+      <c r="C1911" t="s">
+        <v>3599</v>
+      </c>
+    </row>
+    <row r="1912" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1912" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1912" s="3" t="s">
+        <v>2710</v>
+      </c>
+      <c r="C1912" t="s">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="1913" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1913" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1913" s="3" t="s">
+        <v>2710</v>
+      </c>
+      <c r="C1913" t="s">
+        <v>3601</v>
+      </c>
+    </row>
+    <row r="1914" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1914" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1914" s="3" t="s">
+        <v>2710</v>
+      </c>
+      <c r="C1914" t="s">
+        <v>3602</v>
+      </c>
+    </row>
+    <row r="1915" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1915" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1915" s="3" t="s">
+        <v>2710</v>
+      </c>
+      <c r="C1915">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1916" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1916" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1916" s="3" t="s">
+        <v>2710</v>
+      </c>
+      <c r="C1916">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1917" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1917" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1917" s="3" t="s">
+        <v>2710</v>
+      </c>
+      <c r="C1917">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1918" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1918" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1918" s="3" t="s">
+        <v>2710</v>
+      </c>
+      <c r="C1918">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1919" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1919" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1919" s="3" t="s">
+        <v>2710</v>
+      </c>
+      <c r="C1919">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1920" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1920" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1920" s="3" t="s">
+        <v>2711</v>
+      </c>
+      <c r="C1920" t="s">
+        <v>3604</v>
+      </c>
+      <c r="D1920" s="3" t="s">
+        <v>3603</v>
+      </c>
+    </row>
+    <row r="1921" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1921" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1921" s="3" t="s">
+        <v>2711</v>
+      </c>
+      <c r="C1921" t="s">
+        <v>3605</v>
+      </c>
+    </row>
+    <row r="1922" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1922" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1922" s="3" t="s">
+        <v>2711</v>
+      </c>
+      <c r="C1922" t="s">
+        <v>3606</v>
+      </c>
+    </row>
+    <row r="1923" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1923" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1923" s="3" t="s">
+        <v>2711</v>
+      </c>
+      <c r="C1923" t="s">
+        <v>3607</v>
+      </c>
+    </row>
+    <row r="1924" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1924" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1924" s="3" t="s">
+        <v>2711</v>
+      </c>
+      <c r="C1924" t="s">
+        <v>3608</v>
+      </c>
+    </row>
+    <row r="1925" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1925" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1925" s="3" t="s">
+        <v>2711</v>
+      </c>
+      <c r="C1925">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1926" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1926" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1926" s="3" t="s">
+        <v>2711</v>
+      </c>
+      <c r="C1926">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1927" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1927" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1927" s="3" t="s">
+        <v>2711</v>
+      </c>
+      <c r="C1927">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1928" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1928" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1928" s="3" t="s">
+        <v>2711</v>
+      </c>
+      <c r="C1928">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1929" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1929" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1929" s="3" t="s">
+        <v>2711</v>
+      </c>
+      <c r="C1929">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1930" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1930" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1930" s="3" t="s">
+        <v>2712</v>
+      </c>
+      <c r="C1930" t="s">
+        <v>3610</v>
+      </c>
+      <c r="D1930" s="3" t="s">
+        <v>3609</v>
+      </c>
+    </row>
+    <row r="1931" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1931" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1931" s="3" t="s">
+        <v>2712</v>
+      </c>
+      <c r="C1931" t="s">
+        <v>3611</v>
+      </c>
+    </row>
+    <row r="1932" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1932" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1932" s="3" t="s">
+        <v>2712</v>
+      </c>
+      <c r="C1932" t="s">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="1933" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1933" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1933" s="3" t="s">
+        <v>2712</v>
+      </c>
+      <c r="C1933" t="s">
+        <v>3612</v>
+      </c>
+    </row>
+    <row r="1934" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1934" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1934" s="3" t="s">
+        <v>2712</v>
+      </c>
+      <c r="C1934" t="s">
+        <v>3613</v>
+      </c>
+    </row>
+    <row r="1935" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1935" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1935" s="3" t="s">
+        <v>2712</v>
+      </c>
+      <c r="C1935">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1936" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1936" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1936" s="3" t="s">
+        <v>2712</v>
+      </c>
+      <c r="C1936">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1937" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1937" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1937" s="3" t="s">
+        <v>2712</v>
+      </c>
+      <c r="C1937">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1938" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1938" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1938" s="3" t="s">
+        <v>2712</v>
+      </c>
+      <c r="C1938">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1939" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1939" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1939" s="3" t="s">
+        <v>2712</v>
+      </c>
+      <c r="C1939">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1940" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1940" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1940" s="3" t="s">
+        <v>2713</v>
+      </c>
+      <c r="C1940" t="s">
+        <v>3615</v>
+      </c>
+      <c r="D1940" s="3" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1941" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1941" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1941" s="3" t="s">
+        <v>2713</v>
+      </c>
+      <c r="C1941" t="s">
+        <v>3616</v>
+      </c>
+    </row>
+    <row r="1942" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1942" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1942" s="3" t="s">
+        <v>2713</v>
+      </c>
+      <c r="C1942" t="s">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="1943" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1943" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1943" s="3" t="s">
+        <v>2713</v>
+      </c>
+      <c r="C1943" t="s">
+        <v>3617</v>
+      </c>
+    </row>
+    <row r="1944" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1944" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1944" s="3" t="s">
+        <v>2713</v>
+      </c>
+      <c r="C1944" t="s">
+        <v>3618</v>
+      </c>
+    </row>
+    <row r="1945" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1945" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1945" s="3" t="s">
+        <v>2713</v>
+      </c>
+      <c r="C1945">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1946" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1946" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1946" s="3" t="s">
+        <v>2713</v>
+      </c>
+      <c r="C1946">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1947" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1947" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1947" s="3" t="s">
+        <v>2713</v>
+      </c>
+      <c r="C1947">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1948" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1948" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1948" s="3" t="s">
+        <v>2713</v>
+      </c>
+      <c r="C1948">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1949" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1949" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1949" s="3" t="s">
+        <v>2713</v>
+      </c>
+      <c r="C1949">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1950" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1950" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1950" s="3" t="s">
+        <v>2714</v>
+      </c>
+      <c r="C1950" t="s">
+        <v>3620</v>
+      </c>
+      <c r="D1950" s="3" t="s">
+        <v>3619</v>
+      </c>
+    </row>
+    <row r="1951" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1951" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1951" s="3" t="s">
+        <v>2714</v>
+      </c>
+    </row>
+    <row r="1952" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1952" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1952" s="3" t="s">
+        <v>2714</v>
+      </c>
+      <c r="C1952" t="s">
+        <v>3621</v>
+      </c>
+    </row>
+    <row r="1953" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1953" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1953" s="3" t="s">
+        <v>2714</v>
+      </c>
+    </row>
+    <row r="1954" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1954" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1954" s="3" t="s">
+        <v>2714</v>
+      </c>
+      <c r="C1954" t="s">
+        <v>3622</v>
+      </c>
+    </row>
+    <row r="1955" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1955" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1955" s="3" t="s">
+        <v>2714</v>
+      </c>
+      <c r="C1955">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1956" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1956" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1956" s="3" t="s">
+        <v>2714</v>
+      </c>
+      <c r="C1956">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1957" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1957" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1957" s="3" t="s">
+        <v>2714</v>
+      </c>
+      <c r="C1957">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1958" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1958" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1958" s="3" t="s">
+        <v>2714</v>
+      </c>
+      <c r="C1958">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1959" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1959" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1959" s="3" t="s">
+        <v>2714</v>
+      </c>
+      <c r="C1959">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1960" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1960" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1960" s="3" t="s">
+        <v>2715</v>
+      </c>
+      <c r="C1960" t="s">
+        <v>3620</v>
+      </c>
+      <c r="D1960" s="3" t="s">
+        <v>3619</v>
+      </c>
+    </row>
+    <row r="1961" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1961" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1961" s="3" t="s">
+        <v>2715</v>
+      </c>
+    </row>
+    <row r="1962" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1962" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1962" s="3" t="s">
+        <v>2715</v>
+      </c>
+      <c r="C1962" t="s">
+        <v>3621</v>
+      </c>
+    </row>
+    <row r="1963" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1963" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1963" s="3" t="s">
+        <v>2715</v>
+      </c>
+    </row>
+    <row r="1964" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1964" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1964" s="3" t="s">
+        <v>2715</v>
+      </c>
+      <c r="C1964" t="s">
+        <v>3622</v>
+      </c>
+    </row>
+    <row r="1965" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1965" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1965" s="3" t="s">
+        <v>2715</v>
+      </c>
+      <c r="C1965">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1966" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1966" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1966" s="3" t="s">
+        <v>2715</v>
+      </c>
+      <c r="C1966">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1967" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1967" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1967" s="3" t="s">
+        <v>2715</v>
+      </c>
+      <c r="C1967">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1968" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1968" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1968" s="3" t="s">
+        <v>2715</v>
+      </c>
+      <c r="C1968">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1969" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1969" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1969" s="3" t="s">
+        <v>2715</v>
+      </c>
+      <c r="C1969">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1970" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1970" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1970" s="3" t="s">
+        <v>2716</v>
+      </c>
+      <c r="C1970" t="s">
+        <v>3620</v>
+      </c>
+      <c r="D1970" s="3" t="s">
+        <v>3619</v>
+      </c>
+    </row>
+    <row r="1971" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1971" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1971" s="3" t="s">
+        <v>2716</v>
+      </c>
+    </row>
+    <row r="1972" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1972" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1972" s="3" t="s">
+        <v>2716</v>
+      </c>
+      <c r="C1972" t="s">
+        <v>3621</v>
+      </c>
+    </row>
+    <row r="1973" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1973" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1973" s="3" t="s">
+        <v>2716</v>
+      </c>
+    </row>
+    <row r="1974" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1974" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1974" s="3" t="s">
+        <v>2716</v>
+      </c>
+      <c r="C1974" t="s">
+        <v>3622</v>
+      </c>
+    </row>
+    <row r="1975" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1975" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1975" s="3" t="s">
+        <v>2716</v>
+      </c>
+      <c r="C1975">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1976" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1976" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1976" s="3" t="s">
+        <v>2716</v>
+      </c>
+      <c r="C1976">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1977" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1977" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1977" s="3" t="s">
+        <v>2716</v>
+      </c>
+      <c r="C1977">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1978" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1978" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1978" s="3" t="s">
+        <v>2716</v>
+      </c>
+      <c r="C1978">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1979" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1979" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1979" s="3" t="s">
+        <v>2716</v>
+      </c>
+      <c r="C1979">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1980" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1980" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1980" s="3" t="s">
+        <v>2717</v>
+      </c>
+      <c r="C1980" t="s">
+        <v>3620</v>
+      </c>
+      <c r="D1980" s="3" t="s">
+        <v>3619</v>
+      </c>
+    </row>
+    <row r="1981" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1981" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1981" s="3" t="s">
+        <v>2717</v>
+      </c>
+    </row>
+    <row r="1982" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1982" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1982" s="3" t="s">
+        <v>2717</v>
+      </c>
+      <c r="C1982" t="s">
+        <v>3621</v>
+      </c>
+    </row>
+    <row r="1983" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1983" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1983" s="3" t="s">
+        <v>2717</v>
+      </c>
+    </row>
+    <row r="1984" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1984" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1984" s="3" t="s">
+        <v>2717</v>
+      </c>
+      <c r="C1984" t="s">
+        <v>3622</v>
+      </c>
+    </row>
+    <row r="1985" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1985" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1985" s="3" t="s">
+        <v>2717</v>
+      </c>
+      <c r="C1985">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1986" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1986" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1986" s="3" t="s">
+        <v>2717</v>
+      </c>
+      <c r="C1986">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1987" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1987" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1987" s="3" t="s">
+        <v>2717</v>
+      </c>
+      <c r="C1987">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1988" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1988" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1988" s="3" t="s">
+        <v>2717</v>
+      </c>
+      <c r="C1988">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1989" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1989" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1989" s="3" t="s">
+        <v>2717</v>
+      </c>
+      <c r="C1989">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1990" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1990" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1990" s="3" t="s">
+        <v>2718</v>
+      </c>
+      <c r="C1990" t="s">
+        <v>3620</v>
+      </c>
+      <c r="D1990" s="3" t="s">
+        <v>3619</v>
+      </c>
+    </row>
+    <row r="1991" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1991" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1991" s="3" t="s">
+        <v>2718</v>
+      </c>
+    </row>
+    <row r="1992" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1992" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1992" s="3" t="s">
+        <v>2718</v>
+      </c>
+      <c r="C1992" t="s">
+        <v>3621</v>
+      </c>
+    </row>
+    <row r="1993" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1993" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1993" s="3" t="s">
+        <v>2718</v>
+      </c>
+    </row>
+    <row r="1994" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1994" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1994" s="3" t="s">
+        <v>2718</v>
+      </c>
+      <c r="C1994" t="s">
+        <v>3622</v>
+      </c>
+    </row>
+    <row r="1995" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1995" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1995" s="3" t="s">
+        <v>2718</v>
+      </c>
+      <c r="C1995">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1996" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1996" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1996" s="3" t="s">
+        <v>2718</v>
+      </c>
+      <c r="C1996">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1997" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1997" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1997" s="3" t="s">
+        <v>2718</v>
+      </c>
+      <c r="C1997">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1998" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1998" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1998" s="3" t="s">
+        <v>2718</v>
+      </c>
+      <c r="C1998">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1999" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1999" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1999" s="3" t="s">
+        <v>2718</v>
+      </c>
+      <c r="C1999">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2000" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2000" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B2000" s="3" t="s">
+        <v>2719</v>
+      </c>
+      <c r="C2000" t="s">
+        <v>3620</v>
+      </c>
+      <c r="D2000" s="3" t="s">
+        <v>3619</v>
+      </c>
+    </row>
+    <row r="2001" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2001" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B2001" s="3" t="s">
+        <v>2719</v>
+      </c>
+    </row>
+    <row r="2002" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2002" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B2002" s="3" t="s">
+        <v>2719</v>
+      </c>
+      <c r="C2002" t="s">
+        <v>3621</v>
+      </c>
+    </row>
+    <row r="2003" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2003" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B2003" s="3" t="s">
+        <v>2719</v>
+      </c>
+    </row>
+    <row r="2004" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2004" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B2004" s="3" t="s">
+        <v>2719</v>
+      </c>
+      <c r="C2004" t="s">
+        <v>3622</v>
+      </c>
+    </row>
+    <row r="2005" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2005" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B2005" s="3" t="s">
+        <v>2719</v>
+      </c>
+      <c r="C2005">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2006" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2006" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B2006" s="3" t="s">
+        <v>2719</v>
+      </c>
+      <c r="C2006">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2007" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2007" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B2007" s="3" t="s">
+        <v>2719</v>
+      </c>
+      <c r="C2007">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2008" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2008" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B2008" s="3" t="s">
+        <v>2719</v>
+      </c>
+      <c r="C2008">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2009" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2009" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B2009" s="3" t="s">
+        <v>2719</v>
+      </c>
+      <c r="C2009">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2010" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2010" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B2010" s="3" t="s">
+        <v>2720</v>
+      </c>
+      <c r="C2010" t="s">
+        <v>3624</v>
+      </c>
+      <c r="D2010" s="3" t="s">
+        <v>3623</v>
+      </c>
+    </row>
+    <row r="2011" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2011" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B2011" s="3" t="s">
+        <v>2720</v>
+      </c>
+      <c r="C2011" t="s">
+        <v>3625</v>
+      </c>
+    </row>
+    <row r="2012" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2012" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B2012" s="3" t="s">
+        <v>2720</v>
+      </c>
+      <c r="C2012" t="s">
+        <v>3626</v>
+      </c>
+    </row>
+    <row r="2013" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2013" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B2013" s="3" t="s">
+        <v>2720</v>
+      </c>
+      <c r="C2013" t="s">
+        <v>3627</v>
+      </c>
+    </row>
+    <row r="2014" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2014" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B2014" s="3" t="s">
+        <v>2720</v>
+      </c>
+      <c r="C2014" t="s">
+        <v>3628</v>
+      </c>
+    </row>
+    <row r="2015" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2015" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B2015" s="3" t="s">
+        <v>2720</v>
+      </c>
+      <c r="C2015">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2016" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2016" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B2016" s="3" t="s">
+        <v>2720</v>
+      </c>
+      <c r="C2016">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2017" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2017" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B2017" s="3" t="s">
+        <v>2720</v>
+      </c>
+      <c r="C2017">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2018" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2018" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B2018" s="3" t="s">
+        <v>2720</v>
+      </c>
+      <c r="C2018">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2019" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2019" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B2019" s="3" t="s">
+        <v>2720</v>
+      </c>
+      <c r="C2019">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2020" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2020" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B2020" s="3" t="s">
+        <v>2721</v>
+      </c>
+      <c r="C2020" t="s">
+        <v>3630</v>
+      </c>
+      <c r="D2020" s="3" t="s">
+        <v>3629</v>
+      </c>
+    </row>
+    <row r="2021" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2021" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B2021" s="3" t="s">
+        <v>2721</v>
+      </c>
+      <c r="C2021" t="s">
+        <v>3631</v>
+      </c>
+    </row>
+    <row r="2022" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2022" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B2022" s="3" t="s">
+        <v>2721</v>
+      </c>
+      <c r="C2022" t="s">
+        <v>3632</v>
+      </c>
+    </row>
+    <row r="2023" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2023" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B2023" s="3" t="s">
+        <v>2721</v>
+      </c>
+      <c r="C2023" t="s">
+        <v>3633</v>
+      </c>
+    </row>
+    <row r="2024" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2024" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B2024" s="3" t="s">
+        <v>2721</v>
+      </c>
+      <c r="C2024" t="s">
+        <v>3634</v>
+      </c>
+    </row>
+    <row r="2025" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2025" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B2025" s="3" t="s">
+        <v>2721</v>
+      </c>
+      <c r="C2025">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2026" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2026" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B2026" s="3" t="s">
+        <v>2721</v>
+      </c>
+      <c r="C2026">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2027" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2027" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B2027" s="3" t="s">
+        <v>2721</v>
+      </c>
+      <c r="C2027">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2028" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2028" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B2028" s="3" t="s">
+        <v>2721</v>
+      </c>
+      <c r="C2028">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2029" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2029" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B2029" s="3" t="s">
+        <v>2721</v>
+      </c>
+      <c r="C2029">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2030" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2030" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B2030" s="3" t="s">
+        <v>2724</v>
+      </c>
+      <c r="C2030" t="s">
+        <v>3636</v>
+      </c>
+      <c r="D2030" s="3" t="s">
+        <v>3635</v>
+      </c>
+    </row>
+    <row r="2031" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2031" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B2031" s="3" t="s">
+        <v>2724</v>
+      </c>
+      <c r="C2031" t="s">
+        <v>3637</v>
+      </c>
+    </row>
+    <row r="2032" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2032" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B2032" s="3" t="s">
+        <v>2724</v>
+      </c>
+      <c r="C2032" t="s">
+        <v>3638</v>
+      </c>
+    </row>
+    <row r="2033" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2033" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B2033" s="3" t="s">
+        <v>2724</v>
+      </c>
+      <c r="C2033" t="s">
+        <v>3639</v>
+      </c>
+    </row>
+    <row r="2034" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2034" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B2034" s="3" t="s">
+        <v>2724</v>
+      </c>
+      <c r="C2034" t="s">
+        <v>3640</v>
+      </c>
+    </row>
+    <row r="2035" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2035" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B2035" s="3" t="s">
+        <v>2724</v>
+      </c>
+      <c r="C2035">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2036" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2036" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B2036" s="3" t="s">
+        <v>2724</v>
+      </c>
+      <c r="C2036">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2037" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2037" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B2037" s="3" t="s">
+        <v>2724</v>
+      </c>
+      <c r="C2037">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2038" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2038" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B2038" s="3" t="s">
+        <v>2724</v>
+      </c>
+      <c r="C2038">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2039" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2039" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B2039" s="3" t="s">
+        <v>2724</v>
+      </c>
+      <c r="C2039">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2040" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2040" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B2040" s="3" t="s">
+        <v>2725</v>
+      </c>
+      <c r="C2040" t="s">
+        <v>3415</v>
+      </c>
+      <c r="D2040" s="3" t="s">
+        <v>3589</v>
+      </c>
+    </row>
+    <row r="2041" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2041" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B2041" s="3" t="s">
+        <v>2725</v>
+      </c>
+      <c r="C2041" t="s">
+        <v>3414</v>
+      </c>
+    </row>
+    <row r="2042" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2042" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B2042" s="3" t="s">
+        <v>2725</v>
+      </c>
+      <c r="C2042" t="s">
+        <v>3413</v>
+      </c>
+    </row>
+    <row r="2043" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2043" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B2043" s="3" t="s">
+        <v>2725</v>
+      </c>
+      <c r="C2043" t="s">
+        <v>3412</v>
+      </c>
+    </row>
+    <row r="2044" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2044" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B2044" s="3" t="s">
+        <v>2725</v>
+      </c>
+      <c r="C2044" t="s">
+        <v>3590</v>
+      </c>
+    </row>
+    <row r="2045" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2045" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B2045" s="3" t="s">
+        <v>2725</v>
+      </c>
+      <c r="C2045">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2046" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2046" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B2046" s="3" t="s">
+        <v>2725</v>
+      </c>
+      <c r="C2046">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2047" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2047" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B2047" s="3" t="s">
+        <v>2725</v>
+      </c>
+      <c r="C2047">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2048" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2048" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B2048" s="3" t="s">
+        <v>2725</v>
+      </c>
+      <c r="C2048">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2049" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2049" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B2049" s="3" t="s">
+        <v>2725</v>
+      </c>
+      <c r="C2049">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/gdcdictionary/xlsx/nodes_schema_impowr.xlsx
+++ b/gdcdictionary/xlsx/nodes_schema_impowr.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vithal\Documents\GitHub\dcfdictionary\gdcdictionary\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93A425E8-23B9-41E9-8DEA-6413325FF1D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA2CA98B-3347-4382-B058-24C068210F47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5475" yWindow="3150" windowWidth="21600" windowHeight="10365" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5145" yWindow="6390" windowWidth="20550" windowHeight="8520" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nodes_impowr" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13521" uniqueCount="3641">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13911" uniqueCount="3651">
   <si>
     <t>&lt;$schema&gt;</t>
   </si>
@@ -10990,6 +10990,36 @@
   </si>
   <si>
     <t>Very satisfied</t>
+  </si>
+  <si>
+    <t>1, Completely Disagree | 2, Disagree | 3, Neither agree nor disagree | 4, Agree | 5, Completely Agree</t>
+  </si>
+  <si>
+    <t>Completely Disagree</t>
+  </si>
+  <si>
+    <t>Neither agree nor disagree</t>
+  </si>
+  <si>
+    <t>Completely Agree</t>
+  </si>
+  <si>
+    <t>1, No effort was made | 2, A little effort was made | 3, Some effort was made | 4, A lot effort was made | 5, Every effort was made</t>
+  </si>
+  <si>
+    <t>No effort was made</t>
+  </si>
+  <si>
+    <t>A little effort was made</t>
+  </si>
+  <si>
+    <t>Some effort was made</t>
+  </si>
+  <si>
+    <t>A lot effort was made</t>
+  </si>
+  <si>
+    <t>Every effort was made</t>
   </si>
 </sst>
 </file>
@@ -19867,8 +19897,8 @@
   <dimension ref="A1:K1209"/>
   <sheetViews>
     <sheetView zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A846" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A859" sqref="A859:B859"/>
+      <pane ySplit="1" topLeftCell="A873" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A878" sqref="A878:B878"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20640,7 +20670,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>37</v>
       </c>
@@ -20660,7 +20690,7 @@
         <v>-32872</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>37</v>
       </c>
@@ -20862,7 +20892,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>38</v>
       </c>
@@ -20904,7 +20934,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>38</v>
       </c>
@@ -20918,7 +20948,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>38</v>
       </c>
@@ -20946,7 +20976,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>38</v>
       </c>
@@ -21044,7 +21074,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>38</v>
       </c>
@@ -21058,7 +21088,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>38</v>
       </c>
@@ -21078,7 +21108,7 @@
         <v>-32872</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>38</v>
       </c>
@@ -21274,7 +21304,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>38</v>
       </c>
@@ -21358,7 +21388,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>38</v>
       </c>
@@ -21414,7 +21444,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>38</v>
       </c>
@@ -21456,7 +21486,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>38</v>
       </c>
@@ -21624,7 +21654,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>38</v>
       </c>
@@ -22268,7 +22298,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>48</v>
       </c>
@@ -22534,7 +22564,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>49</v>
       </c>
@@ -23859,7 +23889,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="282" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>58</v>
       </c>
@@ -23879,7 +23909,7 @@
         <v>-32872</v>
       </c>
     </row>
-    <row r="283" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>58</v>
       </c>
@@ -25316,7 +25346,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="388" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>66</v>
       </c>
@@ -25336,7 +25366,7 @@
         <v>-32872</v>
       </c>
     </row>
-    <row r="389" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>66</v>
       </c>
@@ -27538,7 +27568,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="546" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>1882</v>
       </c>
@@ -27566,7 +27596,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="548" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>1882</v>
       </c>
@@ -27706,7 +27736,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="558" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>1884</v>
       </c>
@@ -28168,7 +28198,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="591" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>1891</v>
       </c>
@@ -28182,7 +28212,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="592" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>1891</v>
       </c>
@@ -28196,7 +28226,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="593" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>1891</v>
       </c>
@@ -28210,7 +28240,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="594" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>1891</v>
       </c>
@@ -28224,7 +28254,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="595" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>1891</v>
       </c>
@@ -28238,7 +28268,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="596" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
         <v>1891</v>
       </c>
@@ -28546,7 +28576,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="618" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
         <v>1738</v>
       </c>
@@ -28560,7 +28590,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="619" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
         <v>1738</v>
       </c>
@@ -28574,7 +28604,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="620" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
         <v>1738</v>
       </c>
@@ -28588,7 +28618,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="621" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
         <v>1738</v>
       </c>
@@ -28602,7 +28632,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="622" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
         <v>1738</v>
       </c>
@@ -28616,7 +28646,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="623" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
         <v>1738</v>
       </c>
@@ -28644,7 +28674,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="625" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
         <v>1738</v>
       </c>
@@ -28658,7 +28688,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="626" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
         <v>1738</v>
       </c>
@@ -30982,7 +31012,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="792" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A792" t="s">
         <v>1900</v>
       </c>
@@ -31052,7 +31082,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="797" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A797" t="s">
         <v>1901</v>
       </c>
@@ -31444,7 +31474,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="825" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A825" t="s">
         <v>1903</v>
       </c>
@@ -31570,7 +31600,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="834" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A834" t="s">
         <v>1903</v>
       </c>
@@ -31892,7 +31922,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="857" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A857" t="s">
         <v>1778</v>
       </c>
@@ -31906,7 +31936,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="858" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A858" t="s">
         <v>1778</v>
       </c>
@@ -31920,7 +31950,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="859" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A859" t="s">
         <v>1778</v>
       </c>
@@ -36840,11 +36870,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E2049"/>
+  <dimension ref="A1:E2199"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2033" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2050" sqref="A2050"/>
+      <pane ySplit="1" topLeftCell="A2192" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2200" sqref="C2200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -60004,7 +60034,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2049" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2049" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2049" t="s">
         <v>1778</v>
       </c>
@@ -60012,6 +60042,1701 @@
         <v>2725</v>
       </c>
       <c r="C2049">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2050" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2050" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2050" s="3" t="s">
+        <v>2727</v>
+      </c>
+      <c r="C2050" t="s">
+        <v>3642</v>
+      </c>
+      <c r="D2050" s="3" t="s">
+        <v>3641</v>
+      </c>
+    </row>
+    <row r="2051" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2051" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2051" s="3" t="s">
+        <v>2727</v>
+      </c>
+      <c r="C2051" t="s">
+        <v>3459</v>
+      </c>
+    </row>
+    <row r="2052" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2052" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2052" s="3" t="s">
+        <v>2727</v>
+      </c>
+      <c r="C2052" t="s">
+        <v>3643</v>
+      </c>
+    </row>
+    <row r="2053" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2053" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2053" s="3" t="s">
+        <v>2727</v>
+      </c>
+      <c r="C2053" t="s">
+        <v>3462</v>
+      </c>
+    </row>
+    <row r="2054" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2054" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2054" s="3" t="s">
+        <v>2727</v>
+      </c>
+      <c r="C2054" t="s">
+        <v>3644</v>
+      </c>
+    </row>
+    <row r="2055" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2055" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2055" s="3" t="s">
+        <v>2727</v>
+      </c>
+      <c r="C2055">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2056" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2056" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2056" s="3" t="s">
+        <v>2727</v>
+      </c>
+      <c r="C2056">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2057" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2057" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2057" s="3" t="s">
+        <v>2727</v>
+      </c>
+      <c r="C2057">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2058" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2058" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2058" s="3" t="s">
+        <v>2727</v>
+      </c>
+      <c r="C2058">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2059" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2059" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2059" s="3" t="s">
+        <v>2727</v>
+      </c>
+      <c r="C2059">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2060" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2060" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2060" s="3" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C2060" t="s">
+        <v>3642</v>
+      </c>
+      <c r="D2060" s="3" t="s">
+        <v>3641</v>
+      </c>
+    </row>
+    <row r="2061" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2061" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2061" s="3" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C2061" t="s">
+        <v>3459</v>
+      </c>
+    </row>
+    <row r="2062" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2062" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2062" s="3" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C2062" t="s">
+        <v>3643</v>
+      </c>
+    </row>
+    <row r="2063" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2063" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2063" s="3" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C2063" t="s">
+        <v>3462</v>
+      </c>
+    </row>
+    <row r="2064" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2064" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2064" s="3" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C2064" t="s">
+        <v>3644</v>
+      </c>
+    </row>
+    <row r="2065" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2065" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2065" s="3" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C2065">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2066" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2066" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2066" s="3" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C2066">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2067" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2067" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2067" s="3" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C2067">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2068" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2068" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2068" s="3" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C2068">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2069" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2069" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2069" s="3" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C2069">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2070" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2070" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2070" s="3" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C2070" t="s">
+        <v>3642</v>
+      </c>
+      <c r="D2070" s="3" t="s">
+        <v>3641</v>
+      </c>
+    </row>
+    <row r="2071" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2071" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2071" s="3" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C2071" t="s">
+        <v>3459</v>
+      </c>
+    </row>
+    <row r="2072" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2072" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2072" s="3" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C2072" t="s">
+        <v>3643</v>
+      </c>
+    </row>
+    <row r="2073" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2073" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2073" s="3" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C2073" t="s">
+        <v>3462</v>
+      </c>
+    </row>
+    <row r="2074" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2074" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2074" s="3" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C2074" t="s">
+        <v>3644</v>
+      </c>
+    </row>
+    <row r="2075" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2075" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2075" s="3" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C2075">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2076" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2076" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2076" s="3" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C2076">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2077" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2077" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2077" s="3" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C2077">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2078" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2078" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2078" s="3" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C2078">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2079" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2079" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2079" s="3" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C2079">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2080" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2080" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2080" s="3" t="s">
+        <v>2730</v>
+      </c>
+      <c r="C2080" t="s">
+        <v>3642</v>
+      </c>
+      <c r="D2080" s="3" t="s">
+        <v>3641</v>
+      </c>
+    </row>
+    <row r="2081" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2081" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2081" s="3" t="s">
+        <v>2730</v>
+      </c>
+      <c r="C2081" t="s">
+        <v>3459</v>
+      </c>
+    </row>
+    <row r="2082" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2082" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2082" s="3" t="s">
+        <v>2730</v>
+      </c>
+      <c r="C2082" t="s">
+        <v>3643</v>
+      </c>
+    </row>
+    <row r="2083" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2083" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2083" s="3" t="s">
+        <v>2730</v>
+      </c>
+      <c r="C2083" t="s">
+        <v>3462</v>
+      </c>
+    </row>
+    <row r="2084" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2084" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2084" s="3" t="s">
+        <v>2730</v>
+      </c>
+      <c r="C2084" t="s">
+        <v>3644</v>
+      </c>
+    </row>
+    <row r="2085" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2085" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2085" s="3" t="s">
+        <v>2730</v>
+      </c>
+      <c r="C2085">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2086" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2086" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2086" s="3" t="s">
+        <v>2730</v>
+      </c>
+      <c r="C2086">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2087" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2087" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2087" s="3" t="s">
+        <v>2730</v>
+      </c>
+      <c r="C2087">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2088" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2088" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2088" s="3" t="s">
+        <v>2730</v>
+      </c>
+      <c r="C2088">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2089" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2089" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2089" s="3" t="s">
+        <v>2730</v>
+      </c>
+      <c r="C2089">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2090" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2090" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2090" s="3" t="s">
+        <v>2731</v>
+      </c>
+      <c r="C2090" t="s">
+        <v>3642</v>
+      </c>
+      <c r="D2090" s="3" t="s">
+        <v>3641</v>
+      </c>
+    </row>
+    <row r="2091" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2091" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2091" s="3" t="s">
+        <v>2731</v>
+      </c>
+      <c r="C2091" t="s">
+        <v>3459</v>
+      </c>
+    </row>
+    <row r="2092" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2092" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2092" s="3" t="s">
+        <v>2731</v>
+      </c>
+      <c r="C2092" t="s">
+        <v>3643</v>
+      </c>
+    </row>
+    <row r="2093" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2093" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2093" s="3" t="s">
+        <v>2731</v>
+      </c>
+      <c r="C2093" t="s">
+        <v>3462</v>
+      </c>
+    </row>
+    <row r="2094" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2094" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2094" s="3" t="s">
+        <v>2731</v>
+      </c>
+      <c r="C2094" t="s">
+        <v>3644</v>
+      </c>
+    </row>
+    <row r="2095" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2095" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2095" s="3" t="s">
+        <v>2731</v>
+      </c>
+      <c r="C2095">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2096" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2096" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2096" s="3" t="s">
+        <v>2731</v>
+      </c>
+      <c r="C2096">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2097" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2097" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2097" s="3" t="s">
+        <v>2731</v>
+      </c>
+      <c r="C2097">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2098" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2098" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2098" s="3" t="s">
+        <v>2731</v>
+      </c>
+      <c r="C2098">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2099" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2099" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2099" s="3" t="s">
+        <v>2731</v>
+      </c>
+      <c r="C2099">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2100" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2100" s="3" t="s">
+        <v>2732</v>
+      </c>
+      <c r="C2100" t="s">
+        <v>3642</v>
+      </c>
+      <c r="D2100" s="3" t="s">
+        <v>3641</v>
+      </c>
+    </row>
+    <row r="2101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2101" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2101" s="3" t="s">
+        <v>2732</v>
+      </c>
+      <c r="C2101" t="s">
+        <v>3459</v>
+      </c>
+    </row>
+    <row r="2102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2102" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2102" s="3" t="s">
+        <v>2732</v>
+      </c>
+      <c r="C2102" t="s">
+        <v>3643</v>
+      </c>
+    </row>
+    <row r="2103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2103" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2103" s="3" t="s">
+        <v>2732</v>
+      </c>
+      <c r="C2103" t="s">
+        <v>3462</v>
+      </c>
+    </row>
+    <row r="2104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2104" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2104" s="3" t="s">
+        <v>2732</v>
+      </c>
+      <c r="C2104" t="s">
+        <v>3644</v>
+      </c>
+    </row>
+    <row r="2105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2105" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2105" s="3" t="s">
+        <v>2732</v>
+      </c>
+      <c r="C2105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2106" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2106" s="3" t="s">
+        <v>2732</v>
+      </c>
+      <c r="C2106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2107" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2107" s="3" t="s">
+        <v>2732</v>
+      </c>
+      <c r="C2107">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2108" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2108" s="3" t="s">
+        <v>2732</v>
+      </c>
+      <c r="C2108">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2109" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2109" s="3" t="s">
+        <v>2732</v>
+      </c>
+      <c r="C2109">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2110" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2110" s="3" t="s">
+        <v>2733</v>
+      </c>
+      <c r="C2110" t="s">
+        <v>3642</v>
+      </c>
+      <c r="D2110" s="3" t="s">
+        <v>3641</v>
+      </c>
+    </row>
+    <row r="2111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2111" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2111" s="3" t="s">
+        <v>2733</v>
+      </c>
+      <c r="C2111" t="s">
+        <v>3459</v>
+      </c>
+    </row>
+    <row r="2112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2112" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2112" s="3" t="s">
+        <v>2733</v>
+      </c>
+      <c r="C2112" t="s">
+        <v>3643</v>
+      </c>
+    </row>
+    <row r="2113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2113" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2113" s="3" t="s">
+        <v>2733</v>
+      </c>
+      <c r="C2113" t="s">
+        <v>3462</v>
+      </c>
+    </row>
+    <row r="2114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2114" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2114" s="3" t="s">
+        <v>2733</v>
+      </c>
+      <c r="C2114" t="s">
+        <v>3644</v>
+      </c>
+    </row>
+    <row r="2115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2115" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2115" s="3" t="s">
+        <v>2733</v>
+      </c>
+      <c r="C2115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2116" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2116" s="3" t="s">
+        <v>2733</v>
+      </c>
+      <c r="C2116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2117" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2117" s="3" t="s">
+        <v>2733</v>
+      </c>
+      <c r="C2117">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2118" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2118" s="3" t="s">
+        <v>2733</v>
+      </c>
+      <c r="C2118">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2119" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2119" s="3" t="s">
+        <v>2733</v>
+      </c>
+      <c r="C2119">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2120" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2120" s="3" t="s">
+        <v>2734</v>
+      </c>
+      <c r="C2120" t="s">
+        <v>3642</v>
+      </c>
+      <c r="D2120" s="3" t="s">
+        <v>3641</v>
+      </c>
+    </row>
+    <row r="2121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2121" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2121" s="3" t="s">
+        <v>2734</v>
+      </c>
+      <c r="C2121" t="s">
+        <v>3459</v>
+      </c>
+    </row>
+    <row r="2122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2122" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2122" s="3" t="s">
+        <v>2734</v>
+      </c>
+      <c r="C2122" t="s">
+        <v>3643</v>
+      </c>
+    </row>
+    <row r="2123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2123" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2123" s="3" t="s">
+        <v>2734</v>
+      </c>
+      <c r="C2123" t="s">
+        <v>3462</v>
+      </c>
+    </row>
+    <row r="2124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2124" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2124" s="3" t="s">
+        <v>2734</v>
+      </c>
+      <c r="C2124" t="s">
+        <v>3644</v>
+      </c>
+    </row>
+    <row r="2125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2125" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2125" s="3" t="s">
+        <v>2734</v>
+      </c>
+      <c r="C2125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2126" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2126" s="3" t="s">
+        <v>2734</v>
+      </c>
+      <c r="C2126">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2127" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2127" s="3" t="s">
+        <v>2734</v>
+      </c>
+      <c r="C2127">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2128" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2128" s="3" t="s">
+        <v>2734</v>
+      </c>
+      <c r="C2128">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2129" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2129" s="3" t="s">
+        <v>2734</v>
+      </c>
+      <c r="C2129">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2130" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2130" s="3" t="s">
+        <v>2735</v>
+      </c>
+      <c r="C2130" t="s">
+        <v>3642</v>
+      </c>
+      <c r="D2130" s="3" t="s">
+        <v>3641</v>
+      </c>
+    </row>
+    <row r="2131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2131" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2131" s="3" t="s">
+        <v>2735</v>
+      </c>
+      <c r="C2131" t="s">
+        <v>3459</v>
+      </c>
+    </row>
+    <row r="2132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2132" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2132" s="3" t="s">
+        <v>2735</v>
+      </c>
+      <c r="C2132" t="s">
+        <v>3643</v>
+      </c>
+    </row>
+    <row r="2133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2133" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2133" s="3" t="s">
+        <v>2735</v>
+      </c>
+      <c r="C2133" t="s">
+        <v>3462</v>
+      </c>
+    </row>
+    <row r="2134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2134" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2134" s="3" t="s">
+        <v>2735</v>
+      </c>
+      <c r="C2134" t="s">
+        <v>3644</v>
+      </c>
+    </row>
+    <row r="2135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2135" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2135" s="3" t="s">
+        <v>2735</v>
+      </c>
+      <c r="C2135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2136" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2136" s="3" t="s">
+        <v>2735</v>
+      </c>
+      <c r="C2136">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2137" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2137" s="3" t="s">
+        <v>2735</v>
+      </c>
+      <c r="C2137">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2138" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2138" s="3" t="s">
+        <v>2735</v>
+      </c>
+      <c r="C2138">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2139" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2139" s="3" t="s">
+        <v>2735</v>
+      </c>
+      <c r="C2139">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2140" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2140" s="3" t="s">
+        <v>2736</v>
+      </c>
+      <c r="C2140" t="s">
+        <v>3642</v>
+      </c>
+      <c r="D2140" s="3" t="s">
+        <v>3641</v>
+      </c>
+    </row>
+    <row r="2141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2141" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2141" s="3" t="s">
+        <v>2736</v>
+      </c>
+      <c r="C2141" t="s">
+        <v>3459</v>
+      </c>
+    </row>
+    <row r="2142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2142" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2142" s="3" t="s">
+        <v>2736</v>
+      </c>
+      <c r="C2142" t="s">
+        <v>3643</v>
+      </c>
+    </row>
+    <row r="2143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2143" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2143" s="3" t="s">
+        <v>2736</v>
+      </c>
+      <c r="C2143" t="s">
+        <v>3462</v>
+      </c>
+    </row>
+    <row r="2144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2144" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2144" s="3" t="s">
+        <v>2736</v>
+      </c>
+      <c r="C2144" t="s">
+        <v>3644</v>
+      </c>
+    </row>
+    <row r="2145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2145" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2145" s="3" t="s">
+        <v>2736</v>
+      </c>
+      <c r="C2145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2146" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2146" s="3" t="s">
+        <v>2736</v>
+      </c>
+      <c r="C2146">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2147" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2147" s="3" t="s">
+        <v>2736</v>
+      </c>
+      <c r="C2147">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2148" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2148" s="3" t="s">
+        <v>2736</v>
+      </c>
+      <c r="C2148">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2149" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2149" s="3" t="s">
+        <v>2736</v>
+      </c>
+      <c r="C2149">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2150" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2150" s="3" t="s">
+        <v>2737</v>
+      </c>
+      <c r="C2150" t="s">
+        <v>3642</v>
+      </c>
+      <c r="D2150" s="3" t="s">
+        <v>3641</v>
+      </c>
+    </row>
+    <row r="2151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2151" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2151" s="3" t="s">
+        <v>2737</v>
+      </c>
+      <c r="C2151" t="s">
+        <v>3459</v>
+      </c>
+    </row>
+    <row r="2152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2152" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2152" s="3" t="s">
+        <v>2737</v>
+      </c>
+      <c r="C2152" t="s">
+        <v>3643</v>
+      </c>
+    </row>
+    <row r="2153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2153" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2153" s="3" t="s">
+        <v>2737</v>
+      </c>
+      <c r="C2153" t="s">
+        <v>3462</v>
+      </c>
+    </row>
+    <row r="2154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2154" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2154" s="3" t="s">
+        <v>2737</v>
+      </c>
+      <c r="C2154" t="s">
+        <v>3644</v>
+      </c>
+    </row>
+    <row r="2155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2155" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2155" s="3" t="s">
+        <v>2737</v>
+      </c>
+      <c r="C2155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2156" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2156" s="3" t="s">
+        <v>2737</v>
+      </c>
+      <c r="C2156">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2157" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2157" s="3" t="s">
+        <v>2737</v>
+      </c>
+      <c r="C2157">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2158" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2158" s="3" t="s">
+        <v>2737</v>
+      </c>
+      <c r="C2158">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2159" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2159" s="3" t="s">
+        <v>2737</v>
+      </c>
+      <c r="C2159">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2160" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2160" s="3" t="s">
+        <v>2738</v>
+      </c>
+      <c r="C2160" t="s">
+        <v>3642</v>
+      </c>
+      <c r="D2160" s="3" t="s">
+        <v>3641</v>
+      </c>
+    </row>
+    <row r="2161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2161" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2161" s="3" t="s">
+        <v>2738</v>
+      </c>
+      <c r="C2161" t="s">
+        <v>3459</v>
+      </c>
+    </row>
+    <row r="2162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2162" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2162" s="3" t="s">
+        <v>2738</v>
+      </c>
+      <c r="C2162" t="s">
+        <v>3643</v>
+      </c>
+    </row>
+    <row r="2163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2163" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2163" s="3" t="s">
+        <v>2738</v>
+      </c>
+      <c r="C2163" t="s">
+        <v>3462</v>
+      </c>
+    </row>
+    <row r="2164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2164" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2164" s="3" t="s">
+        <v>2738</v>
+      </c>
+      <c r="C2164" t="s">
+        <v>3644</v>
+      </c>
+    </row>
+    <row r="2165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2165" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2165" s="3" t="s">
+        <v>2738</v>
+      </c>
+      <c r="C2165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2166" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2166" s="3" t="s">
+        <v>2738</v>
+      </c>
+      <c r="C2166">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2167" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2167" s="3" t="s">
+        <v>2738</v>
+      </c>
+      <c r="C2167">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2168" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2168" s="3" t="s">
+        <v>2738</v>
+      </c>
+      <c r="C2168">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2169" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2169" s="3" t="s">
+        <v>2738</v>
+      </c>
+      <c r="C2169">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2170" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2170" s="3" t="s">
+        <v>2742</v>
+      </c>
+      <c r="C2170" t="s">
+        <v>3646</v>
+      </c>
+      <c r="D2170" s="3" t="s">
+        <v>3645</v>
+      </c>
+    </row>
+    <row r="2171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2171" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2171" s="3" t="s">
+        <v>2742</v>
+      </c>
+      <c r="C2171" t="s">
+        <v>3647</v>
+      </c>
+    </row>
+    <row r="2172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2172" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2172" s="3" t="s">
+        <v>2742</v>
+      </c>
+      <c r="C2172" t="s">
+        <v>3648</v>
+      </c>
+    </row>
+    <row r="2173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2173" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2173" s="3" t="s">
+        <v>2742</v>
+      </c>
+      <c r="C2173" t="s">
+        <v>3649</v>
+      </c>
+    </row>
+    <row r="2174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2174" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2174" s="3" t="s">
+        <v>2742</v>
+      </c>
+      <c r="C2174" t="s">
+        <v>3650</v>
+      </c>
+    </row>
+    <row r="2175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2175" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2175" s="3" t="s">
+        <v>2742</v>
+      </c>
+      <c r="C2175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2176" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2176" s="3" t="s">
+        <v>2742</v>
+      </c>
+      <c r="C2176">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2177" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2177" s="3" t="s">
+        <v>2742</v>
+      </c>
+      <c r="C2177">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2178" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2178" s="3" t="s">
+        <v>2742</v>
+      </c>
+      <c r="C2178">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2179" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2179" s="3" t="s">
+        <v>2742</v>
+      </c>
+      <c r="C2179">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2180" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2180" s="3" t="s">
+        <v>2743</v>
+      </c>
+      <c r="C2180" t="s">
+        <v>3646</v>
+      </c>
+      <c r="D2180" s="3" t="s">
+        <v>3645</v>
+      </c>
+    </row>
+    <row r="2181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2181" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2181" s="3" t="s">
+        <v>2743</v>
+      </c>
+      <c r="C2181" t="s">
+        <v>3647</v>
+      </c>
+    </row>
+    <row r="2182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2182" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2182" s="3" t="s">
+        <v>2743</v>
+      </c>
+      <c r="C2182" t="s">
+        <v>3648</v>
+      </c>
+    </row>
+    <row r="2183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2183" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2183" s="3" t="s">
+        <v>2743</v>
+      </c>
+      <c r="C2183" t="s">
+        <v>3649</v>
+      </c>
+    </row>
+    <row r="2184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2184" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2184" s="3" t="s">
+        <v>2743</v>
+      </c>
+      <c r="C2184" t="s">
+        <v>3650</v>
+      </c>
+    </row>
+    <row r="2185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2185" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2185" s="3" t="s">
+        <v>2743</v>
+      </c>
+      <c r="C2185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2186" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2186" s="3" t="s">
+        <v>2743</v>
+      </c>
+      <c r="C2186">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2187" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2187" s="3" t="s">
+        <v>2743</v>
+      </c>
+      <c r="C2187">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2188" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2188" s="3" t="s">
+        <v>2743</v>
+      </c>
+      <c r="C2188">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2189" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2189" s="3" t="s">
+        <v>2743</v>
+      </c>
+      <c r="C2189">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2190" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2190" s="3" t="s">
+        <v>2744</v>
+      </c>
+      <c r="C2190" t="s">
+        <v>3646</v>
+      </c>
+      <c r="D2190" s="3" t="s">
+        <v>3645</v>
+      </c>
+    </row>
+    <row r="2191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2191" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2191" s="3" t="s">
+        <v>2744</v>
+      </c>
+      <c r="C2191" t="s">
+        <v>3647</v>
+      </c>
+    </row>
+    <row r="2192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2192" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2192" s="3" t="s">
+        <v>2744</v>
+      </c>
+      <c r="C2192" t="s">
+        <v>3648</v>
+      </c>
+    </row>
+    <row r="2193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2193" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2193" s="3" t="s">
+        <v>2744</v>
+      </c>
+      <c r="C2193" t="s">
+        <v>3649</v>
+      </c>
+    </row>
+    <row r="2194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2194" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2194" s="3" t="s">
+        <v>2744</v>
+      </c>
+      <c r="C2194" t="s">
+        <v>3650</v>
+      </c>
+    </row>
+    <row r="2195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2195" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2195" s="3" t="s">
+        <v>2744</v>
+      </c>
+      <c r="C2195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2196" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2196" s="3" t="s">
+        <v>2744</v>
+      </c>
+      <c r="C2196">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2197" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2197" s="3" t="s">
+        <v>2744</v>
+      </c>
+      <c r="C2197">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2198" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2198" s="3" t="s">
+        <v>2744</v>
+      </c>
+      <c r="C2198">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2199" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2199" s="3" t="s">
+        <v>2744</v>
+      </c>
+      <c r="C2199">
         <v>5</v>
       </c>
     </row>

--- a/gdcdictionary/xlsx/nodes_schema_impowr.xlsx
+++ b/gdcdictionary/xlsx/nodes_schema_impowr.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vithal\Documents\GitHub\dcfdictionary\gdcdictionary\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF93376-BAB6-4EFB-8151-48C6FE417D41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9443F19-8D4C-47DE-A847-0A8C382F2126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4470" yWindow="2295" windowWidth="20940" windowHeight="13080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4170" yWindow="3645" windowWidth="15765" windowHeight="10890" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nodes_impowr" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13976" uniqueCount="3671">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14457" uniqueCount="3870">
   <si>
     <t>&lt;$schema&gt;</t>
   </si>
@@ -11081,6 +11081,605 @@
   </si>
   <si>
     <t>if you have a patient panel, what percentage of your patients have chronic pain?</t>
+  </si>
+  <si>
+    <t>imp_me_studyname</t>
+  </si>
+  <si>
+    <t>imp_bstrong_pop</t>
+  </si>
+  <si>
+    <t>imp_bstrong_inter</t>
+  </si>
+  <si>
+    <t>imp_bstrong_sd</t>
+  </si>
+  <si>
+    <t>imp_bstrong_if</t>
+  </si>
+  <si>
+    <t>imp_bstrong_econ</t>
+  </si>
+  <si>
+    <t>imp_bstrong_moud</t>
+  </si>
+  <si>
+    <t>imp_bstrong_setting</t>
+  </si>
+  <si>
+    <t>imp_bstrong_sample</t>
+  </si>
+  <si>
+    <t>imp_bstrong_followup</t>
+  </si>
+  <si>
+    <t>impowr_ime2_pop</t>
+  </si>
+  <si>
+    <t>impowr_ime2_inter</t>
+  </si>
+  <si>
+    <t>impowr_ime2_sd</t>
+  </si>
+  <si>
+    <t>impowr_ime2_if</t>
+  </si>
+  <si>
+    <t>impowr_ime2_econ</t>
+  </si>
+  <si>
+    <t>impowr_ime2_moud</t>
+  </si>
+  <si>
+    <t>impowr_ime2_setting</t>
+  </si>
+  <si>
+    <t>impowr_ime2_sample</t>
+  </si>
+  <si>
+    <t>impowr_ime2_followup</t>
+  </si>
+  <si>
+    <t>imp_bup_pop</t>
+  </si>
+  <si>
+    <t>imp_bup_inter</t>
+  </si>
+  <si>
+    <t>imp_bup_sd</t>
+  </si>
+  <si>
+    <t>imp_bup_if</t>
+  </si>
+  <si>
+    <t>imp_bup_econ</t>
+  </si>
+  <si>
+    <t>imp_bup_moud</t>
+  </si>
+  <si>
+    <t>imp_bup_setting</t>
+  </si>
+  <si>
+    <t>imp_bup_sample</t>
+  </si>
+  <si>
+    <t>imp_bup_followup</t>
+  </si>
+  <si>
+    <t>imp_you_studyname</t>
+  </si>
+  <si>
+    <t>imp_champ_pop</t>
+  </si>
+  <si>
+    <t>imp_champ_inter</t>
+  </si>
+  <si>
+    <t>imp_champ_sd</t>
+  </si>
+  <si>
+    <t>imp_champ_if</t>
+  </si>
+  <si>
+    <t>imp_champ_econ</t>
+  </si>
+  <si>
+    <t>imp_champ_moud</t>
+  </si>
+  <si>
+    <t>imp_champ_setting</t>
+  </si>
+  <si>
+    <t>imp_champ_sample</t>
+  </si>
+  <si>
+    <t>imp_champ_followup</t>
+  </si>
+  <si>
+    <t>imp_scpowr_pop</t>
+  </si>
+  <si>
+    <t>imp_scpowr_inter</t>
+  </si>
+  <si>
+    <t>imp_scpowr_sd</t>
+  </si>
+  <si>
+    <t>imp_scpowr_if</t>
+  </si>
+  <si>
+    <t>imp_scpowr_econ</t>
+  </si>
+  <si>
+    <t>imp_scpowr_moud</t>
+  </si>
+  <si>
+    <t>imp_scpowr_setting</t>
+  </si>
+  <si>
+    <t>imp_scpowr_sample</t>
+  </si>
+  <si>
+    <t>imp_scpowr_follow</t>
+  </si>
+  <si>
+    <t>imp_tree_studyname</t>
+  </si>
+  <si>
+    <t>imp_eng_pop</t>
+  </si>
+  <si>
+    <t>imp_eng_inter</t>
+  </si>
+  <si>
+    <t>imp_eng_sd</t>
+  </si>
+  <si>
+    <t>imp_eng_moud</t>
+  </si>
+  <si>
+    <t>imp_eng_if</t>
+  </si>
+  <si>
+    <t>imp_eng_econ</t>
+  </si>
+  <si>
+    <t>imp_eng_setting</t>
+  </si>
+  <si>
+    <t>imp_eng_sample</t>
+  </si>
+  <si>
+    <t>imp_eng_followup</t>
+  </si>
+  <si>
+    <t>imp_ret_pop</t>
+  </si>
+  <si>
+    <t>imp_ret_inter</t>
+  </si>
+  <si>
+    <t>imp_ret_sd</t>
+  </si>
+  <si>
+    <t>imp_ret_moud</t>
+  </si>
+  <si>
+    <t>imp_ret_if</t>
+  </si>
+  <si>
+    <t>imp_ret_econ</t>
+  </si>
+  <si>
+    <t>imp_ret_setting</t>
+  </si>
+  <si>
+    <t>imp_ret_sample</t>
+  </si>
+  <si>
+    <t>imp_ret_followup</t>
+  </si>
+  <si>
+    <t>imp_nm_studyname</t>
+  </si>
+  <si>
+    <t>imp_hope_pop</t>
+  </si>
+  <si>
+    <t>imp_hope_inter</t>
+  </si>
+  <si>
+    <t>imp_hope_sd</t>
+  </si>
+  <si>
+    <t>imp_hope_if</t>
+  </si>
+  <si>
+    <t>imp_hope_econ</t>
+  </si>
+  <si>
+    <t>imp_hope_moud</t>
+  </si>
+  <si>
+    <t>imp_hope_setting</t>
+  </si>
+  <si>
+    <t>imp_hope_sample</t>
+  </si>
+  <si>
+    <t>imp_hope_followup</t>
+  </si>
+  <si>
+    <t>impowr_optic_pop</t>
+  </si>
+  <si>
+    <t>impowr_optic_inter</t>
+  </si>
+  <si>
+    <t>impowr_optic_sd</t>
+  </si>
+  <si>
+    <t>impowr_optic_if</t>
+  </si>
+  <si>
+    <t>impowr_optic_econ</t>
+  </si>
+  <si>
+    <t>impowr_optic_moud</t>
+  </si>
+  <si>
+    <t>impowr_optic_setting</t>
+  </si>
+  <si>
+    <t>impowr_optic_sample</t>
+  </si>
+  <si>
+    <t>impowr_optic_followup</t>
+  </si>
+  <si>
+    <t>imp_jh_studysite</t>
+  </si>
+  <si>
+    <t>imp_jh_pop</t>
+  </si>
+  <si>
+    <t>imp_jh_inter</t>
+  </si>
+  <si>
+    <t>imp_jh_sd</t>
+  </si>
+  <si>
+    <t>imp_jh_if</t>
+  </si>
+  <si>
+    <t>imp_jh_econ</t>
+  </si>
+  <si>
+    <t>imp_jh_moud</t>
+  </si>
+  <si>
+    <t>imp_jh_setting</t>
+  </si>
+  <si>
+    <t>imp_jh_sample</t>
+  </si>
+  <si>
+    <t>imp_jh_followup</t>
+  </si>
+  <si>
+    <t>imp_rutgers_studysite</t>
+  </si>
+  <si>
+    <t>imp_rutgers_pop</t>
+  </si>
+  <si>
+    <t>imp_rutgers_inter</t>
+  </si>
+  <si>
+    <t>imp_rutgers_sd</t>
+  </si>
+  <si>
+    <t>imp_rutgers_if</t>
+  </si>
+  <si>
+    <t>imp_rutgers_econ</t>
+  </si>
+  <si>
+    <t>imp_rutgers_moud</t>
+  </si>
+  <si>
+    <t>imp_rutgers_setting</t>
+  </si>
+  <si>
+    <t>imp_rutgers_sample</t>
+  </si>
+  <si>
+    <t>imp_rutgers_followup</t>
+  </si>
+  <si>
+    <t>Which study is the patient participating in?</t>
+  </si>
+  <si>
+    <t>Population: Opioid use disorder and low back pain</t>
+  </si>
+  <si>
+    <t>Intervention: Yoga vs Physical Therapy vs Treatment as usual (TAU)</t>
+  </si>
+  <si>
+    <t>Study Design: 3 Arm RCT; Type I</t>
+  </si>
+  <si>
+    <t>Implementation Framework: RE-AIM &amp; CFIR</t>
+  </si>
+  <si>
+    <t>Economic analysis: Yes</t>
+  </si>
+  <si>
+    <t>MOUD: Methadone</t>
+  </si>
+  <si>
+    <t>Health Setting: Methadone Clinic</t>
+  </si>
+  <si>
+    <t>Sample size: 345</t>
+  </si>
+  <si>
+    <t>Follow-up: 1, 2, 3, 6, 9 months</t>
+  </si>
+  <si>
+    <t>Population: OUD and nonspecific pain</t>
+  </si>
+  <si>
+    <t>Intervention: ACT vs care management vs ACT + care management vs Treatment as usual (TAU)</t>
+  </si>
+  <si>
+    <t>Study Design: 2x2 Factorial Design; Type I</t>
+  </si>
+  <si>
+    <t>Economic analysis: yes</t>
+  </si>
+  <si>
+    <t>MOUD: Buprenorphine</t>
+  </si>
+  <si>
+    <t>Health Setting: Primary Care (FQHCs)</t>
+  </si>
+  <si>
+    <t>Sample size: 980</t>
+  </si>
+  <si>
+    <t>Follow ups: 0, 1.5, 3, 6, 9 months</t>
+  </si>
+  <si>
+    <t>Population: OUD and nonspecific chronic pain</t>
+  </si>
+  <si>
+    <t>Intervention: Buprenorphine standard induction vs microdosing</t>
+  </si>
+  <si>
+    <t>Study Design: 2 Arm RCT; Type I</t>
+  </si>
+  <si>
+    <t>Implementation framework: RE-AIM &amp; CFIR</t>
+  </si>
+  <si>
+    <t>Economic Analysis: yes</t>
+  </si>
+  <si>
+    <t>Health Setting: Hospitals</t>
+  </si>
+  <si>
+    <t>Sample size: 270</t>
+  </si>
+  <si>
+    <t>Follow-up: 0, 0.25, 1, 3, 6 months</t>
+  </si>
+  <si>
+    <t>Population: OUD/misuse; nonspecific CP</t>
+  </si>
+  <si>
+    <t>Intervention: Pharmacist + physician tele-consulting (TCM) vs TCM + CBT (COPES)</t>
+  </si>
+  <si>
+    <t>Study design: 2 Arm RCT; Type II</t>
+  </si>
+  <si>
+    <t>Implementation Framework: i-PARIHS</t>
+  </si>
+  <si>
+    <t>Setting: Primary Care</t>
+  </si>
+  <si>
+    <t>Sample size: 1600</t>
+  </si>
+  <si>
+    <t>Follow-up: 12 months</t>
+  </si>
+  <si>
+    <t>Population: OUD; nonspecific CP</t>
+  </si>
+  <si>
+    <t>Intervention: Multimodal stepped care interdisciplinary (CBT 🡪 exercise 🡪 stress mgmt) vs TAU</t>
+  </si>
+  <si>
+    <t>Study design: Stage II Stepped Care</t>
+  </si>
+  <si>
+    <t>Implementation framework: N/A</t>
+  </si>
+  <si>
+    <t>Economic analysisL Yes, as exploratory aim</t>
+  </si>
+  <si>
+    <t>MOUD: Methadone &amp; Buprenorphine</t>
+  </si>
+  <si>
+    <t>Health Setting: OTP</t>
+  </si>
+  <si>
+    <t>Study size: 328</t>
+  </si>
+  <si>
+    <t>Follow-up: 6, 9, 12 months</t>
+  </si>
+  <si>
+    <t>Intervention: PSM + MOUD vs Enhanced Treatment as usual</t>
+  </si>
+  <si>
+    <t>Study design: 2 Arm RCT; Hybrid Type I</t>
+  </si>
+  <si>
+    <t>MOUD: Buprenorphine/naloxone</t>
+  </si>
+  <si>
+    <t>Implementation framework: Health Equity Implementation Framework</t>
+  </si>
+  <si>
+    <t>Health setting: primary care</t>
+  </si>
+  <si>
+    <t>Sample size: 378</t>
+  </si>
+  <si>
+    <t>Follow-up: 0, 1, 2, 3, 6, 12 months</t>
+  </si>
+  <si>
+    <t>Intervention: PSM vs Flexible bup vs PSM + Flexible bup vs TAU</t>
+  </si>
+  <si>
+    <t>Study design: 2x2 Factorial Design; Hybrid Type I</t>
+  </si>
+  <si>
+    <t>Setting: office-based opioid treatment programs (OBOTs)</t>
+  </si>
+  <si>
+    <t>Sample size: 458</t>
+  </si>
+  <si>
+    <t>Follow-up: 0, 1, 2, 3, 6, 9, 12 months</t>
+  </si>
+  <si>
+    <t>Population: Opioid use disorder and nonspecific chronic pain</t>
+  </si>
+  <si>
+    <t>Study Design: Type I</t>
+  </si>
+  <si>
+    <t>Implementation Framework:CFIR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample size: 45 providers/160 clients
+</t>
+  </si>
+  <si>
+    <t>Follow-up: End of treatment, 6- and 12-months post-treatment</t>
+  </si>
+  <si>
+    <t>Intervention: AI/AN culturally-adapted MI to increase screening/treatment initiation via academic detailing implementation strategy</t>
+  </si>
+  <si>
+    <t>Study Design: Step Wedge Clustered RCT; Type III</t>
+  </si>
+  <si>
+    <t>MOUD: Dependent on access</t>
+  </si>
+  <si>
+    <t>Health Setting: Primary Care</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample size: 45 providers/225 clients
+</t>
+  </si>
+  <si>
+    <t>Follow ups: 4-, 8- and 12-months post-baseline</t>
+  </si>
+  <si>
+    <t>The patient is enrolled in  "Randomized Clinical Trial Intervention to Treat Chronic Pain Among Persons Maintained on Methadone for Opioid Use Disorder"</t>
+  </si>
+  <si>
+    <t>Intervention: Standard vs split (2x/day) methadone dosing</t>
+  </si>
+  <si>
+    <t>Study design: 2 Arm RCT</t>
+  </si>
+  <si>
+    <t>Implementation framework: none</t>
+  </si>
+  <si>
+    <t>Economic analysis: none</t>
+  </si>
+  <si>
+    <t>Setting: OTP</t>
+  </si>
+  <si>
+    <t>Sample size: 150</t>
+  </si>
+  <si>
+    <t>Follow-up: 6 months</t>
+  </si>
+  <si>
+    <t>The patient is enrolled in  "Implementation and Effectiveness of Mindfulness Oriented Recovery Enhancement as an Adjunct to Methadone Treatment for Opioid Use Disorder"</t>
+  </si>
+  <si>
+    <t>Intervention: Mindfulness-Oriented Recovery Enhancement (MORE) vs scripted mindfulness practice vs TAU; implementation strategy is train the trainer vs LCSW</t>
+  </si>
+  <si>
+    <t>Stage 2 3arm RCT</t>
+  </si>
+  <si>
+    <t>Implementation framework: RE-AIM (Hybrid Type II trial)</t>
+  </si>
+  <si>
+    <t>Sample size: 420</t>
+  </si>
+  <si>
+    <t>Follow-up: 8, 16, 24, and 52 weeks</t>
+  </si>
+  <si>
+    <t>sup_spirituality</t>
+  </si>
+  <si>
+    <t>Patient Baseline supplimental spirituality</t>
+  </si>
+  <si>
+    <t>Data describing patient baseline, each  of the variables / items below may be something you have or have not experienced. Think about how often you have had each experience rather than whether you should or should not have had these experiences.</t>
+  </si>
+  <si>
+    <t>patients_baseline_supplimental_spirituality</t>
+  </si>
+  <si>
+    <t>sup_sprituality</t>
+  </si>
+  <si>
+    <t>I believe life is sacred</t>
+  </si>
+  <si>
+    <t>I value my life and everyone's around me</t>
+  </si>
+  <si>
+    <t>All things are related to one another</t>
+  </si>
+  <si>
+    <t>I pray to Creator/ancestors/higher power</t>
+  </si>
+  <si>
+    <t>In the evening, I express thanks</t>
+  </si>
+  <si>
+    <t>I find strength in my faith and spirituality</t>
+  </si>
+  <si>
+    <t>I participate in cultural/faith related activities</t>
+  </si>
+  <si>
+    <t>I am spiritually touched by participating in my faith</t>
+  </si>
+  <si>
+    <t>I believe everything is alive with a spirit</t>
+  </si>
+  <si>
+    <t>I feel thankful for my understanding of my faith and beliefs</t>
   </si>
 </sst>
 </file>
@@ -11561,11 +12160,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y124"/>
+  <dimension ref="A1:Y125"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G43" sqref="A43:XFD43"/>
+    <sheetView zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Y125" sqref="Y125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="89" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14417,7 +15016,7 @@
         <v>3620</v>
       </c>
       <c r="C43" t="s">
-        <v>3620</v>
+        <v>3621</v>
       </c>
       <c r="D43" t="s">
         <v>125</v>
@@ -19772,6 +20371,71 @@
         <v>186</v>
       </c>
       <c r="Y124" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="125" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A125" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B125" t="s">
+        <v>3855</v>
+      </c>
+      <c r="C125" t="s">
+        <v>3856</v>
+      </c>
+      <c r="D125" t="s">
+        <v>125</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G125" t="s">
+        <v>133</v>
+      </c>
+      <c r="H125" t="s">
+        <v>135</v>
+      </c>
+      <c r="I125" t="s">
+        <v>135</v>
+      </c>
+      <c r="J125" t="s">
+        <v>3857</v>
+      </c>
+      <c r="K125" t="s">
+        <v>185</v>
+      </c>
+      <c r="L125" t="s">
+        <v>186</v>
+      </c>
+      <c r="N125" t="s">
+        <v>187</v>
+      </c>
+      <c r="O125" t="s">
+        <v>208</v>
+      </c>
+      <c r="P125" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q125" t="s">
+        <v>3858</v>
+      </c>
+      <c r="R125" t="s">
+        <v>3859</v>
+      </c>
+      <c r="S125" t="s">
+        <v>292</v>
+      </c>
+      <c r="T125" t="s">
+        <v>1581</v>
+      </c>
+      <c r="U125" t="s">
+        <v>332</v>
+      </c>
+      <c r="V125" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y125" t="s">
         <v>356</v>
       </c>
     </row>
@@ -20022,6 +20686,8 @@
     <hyperlink ref="F106" r:id="rId242" xr:uid="{8A372CC9-FF44-4BBA-AED3-E826417F5AE9}"/>
     <hyperlink ref="A73" r:id="rId243" xr:uid="{89E79C40-CC25-49F5-A2B0-D1ECC907D566}"/>
     <hyperlink ref="F73" r:id="rId244" xr:uid="{18C21759-40A8-4904-A03A-CA6CEB173E48}"/>
+    <hyperlink ref="A125" r:id="rId245" xr:uid="{CEC4CC73-7AEE-4FAD-A491-C973E781E4CB}"/>
+    <hyperlink ref="F125" r:id="rId246" xr:uid="{E0FFAD3C-5311-4B59-A562-D49937B192E9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20029,11 +20695,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K1216"/>
+  <dimension ref="A1:K1331"/>
   <sheetViews>
-    <sheetView zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1211" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1217" sqref="A1217"/>
+    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1244" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1322" sqref="A1322:A1331"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37086,6 +37752,1616 @@
       </c>
       <c r="E1216" s="3" t="s">
         <v>1962</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1217" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1217" s="3" t="s">
+        <v>3671</v>
+      </c>
+      <c r="D1217" s="3" t="s">
+        <v>3776</v>
+      </c>
+      <c r="E1217" s="3" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1218" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1218" s="3" t="s">
+        <v>3672</v>
+      </c>
+      <c r="D1218" s="3" t="s">
+        <v>3777</v>
+      </c>
+      <c r="E1218" s="3" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1219" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1219" s="3" t="s">
+        <v>3673</v>
+      </c>
+      <c r="D1219" s="3" t="s">
+        <v>3778</v>
+      </c>
+      <c r="E1219" s="3" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1220" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1220" s="3" t="s">
+        <v>3674</v>
+      </c>
+      <c r="D1220" s="3" t="s">
+        <v>3779</v>
+      </c>
+      <c r="E1220" s="3" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1221" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1221" s="3" t="s">
+        <v>3675</v>
+      </c>
+      <c r="D1221" s="3" t="s">
+        <v>3780</v>
+      </c>
+      <c r="E1221" s="3" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1222" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1222" s="3" t="s">
+        <v>3676</v>
+      </c>
+      <c r="D1222" s="3" t="s">
+        <v>3781</v>
+      </c>
+      <c r="E1222" s="3" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1223" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1223" s="3" t="s">
+        <v>3677</v>
+      </c>
+      <c r="D1223" s="3" t="s">
+        <v>3782</v>
+      </c>
+      <c r="E1223" s="3" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1224" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1224" s="3" t="s">
+        <v>3678</v>
+      </c>
+      <c r="D1224" s="3" t="s">
+        <v>3783</v>
+      </c>
+      <c r="E1224" s="3" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1225" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1225" s="3" t="s">
+        <v>3679</v>
+      </c>
+      <c r="D1225" s="3" t="s">
+        <v>3784</v>
+      </c>
+      <c r="E1225" s="3" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1226" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1226" s="3" t="s">
+        <v>3680</v>
+      </c>
+      <c r="D1226" s="3" t="s">
+        <v>3785</v>
+      </c>
+      <c r="E1226" s="3" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1227" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1227" s="3" t="s">
+        <v>3681</v>
+      </c>
+      <c r="D1227" s="3" t="s">
+        <v>3786</v>
+      </c>
+      <c r="E1227" s="3" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1228" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1228" s="3" t="s">
+        <v>3682</v>
+      </c>
+      <c r="D1228" s="3" t="s">
+        <v>3787</v>
+      </c>
+      <c r="E1228" s="3" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1229" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1229" s="3" t="s">
+        <v>3683</v>
+      </c>
+      <c r="D1229" s="3" t="s">
+        <v>3788</v>
+      </c>
+      <c r="E1229" s="3" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1230" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1230" s="3" t="s">
+        <v>3684</v>
+      </c>
+      <c r="D1230" s="3" t="s">
+        <v>3780</v>
+      </c>
+      <c r="E1230" s="3" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1231" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1231" s="3" t="s">
+        <v>3685</v>
+      </c>
+      <c r="D1231" s="3" t="s">
+        <v>3789</v>
+      </c>
+      <c r="E1231" s="3" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1232" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1232" s="3" t="s">
+        <v>3686</v>
+      </c>
+      <c r="D1232" s="3" t="s">
+        <v>3790</v>
+      </c>
+      <c r="E1232" s="3" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1233" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1233" s="3" t="s">
+        <v>3687</v>
+      </c>
+      <c r="D1233" s="3" t="s">
+        <v>3791</v>
+      </c>
+      <c r="E1233" s="3" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1234" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1234" s="3" t="s">
+        <v>3688</v>
+      </c>
+      <c r="D1234" s="3" t="s">
+        <v>3792</v>
+      </c>
+      <c r="E1234" s="3" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1235" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1235" s="3" t="s">
+        <v>3689</v>
+      </c>
+      <c r="D1235" s="3" t="s">
+        <v>3793</v>
+      </c>
+      <c r="E1235" s="3" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1236" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1236" s="3" t="s">
+        <v>3690</v>
+      </c>
+      <c r="D1236" s="3" t="s">
+        <v>3794</v>
+      </c>
+      <c r="E1236" s="3" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1237" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1237" s="3" t="s">
+        <v>3691</v>
+      </c>
+      <c r="D1237" s="3" t="s">
+        <v>3795</v>
+      </c>
+      <c r="E1237" s="3" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1238" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1238" s="3" t="s">
+        <v>3692</v>
+      </c>
+      <c r="D1238" s="3" t="s">
+        <v>3796</v>
+      </c>
+      <c r="E1238" s="3" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1239" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1239" s="3" t="s">
+        <v>3693</v>
+      </c>
+      <c r="D1239" s="3" t="s">
+        <v>3797</v>
+      </c>
+      <c r="E1239" s="3" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1240" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1240" s="3" t="s">
+        <v>3694</v>
+      </c>
+      <c r="D1240" s="3" t="s">
+        <v>3798</v>
+      </c>
+      <c r="E1240" s="3" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1241" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1241" s="3" t="s">
+        <v>3695</v>
+      </c>
+      <c r="D1241" s="3" t="s">
+        <v>3790</v>
+      </c>
+      <c r="E1241" s="3" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1242" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1242" s="3" t="s">
+        <v>3696</v>
+      </c>
+      <c r="D1242" s="3" t="s">
+        <v>3799</v>
+      </c>
+      <c r="E1242" s="3" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1243" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1243" s="3" t="s">
+        <v>3697</v>
+      </c>
+      <c r="D1243" s="3" t="s">
+        <v>3800</v>
+      </c>
+      <c r="E1243" s="3" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1244" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1244" s="3" t="s">
+        <v>3698</v>
+      </c>
+      <c r="D1244" s="3" t="s">
+        <v>3801</v>
+      </c>
+      <c r="E1244" s="3" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1245" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1245" s="3" t="s">
+        <v>3699</v>
+      </c>
+      <c r="D1245" s="3" t="s">
+        <v>3776</v>
+      </c>
+      <c r="E1245" s="3" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1246" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1246" s="3" t="s">
+        <v>3700</v>
+      </c>
+      <c r="D1246" s="3" t="s">
+        <v>3802</v>
+      </c>
+      <c r="E1246" s="3" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1247" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1247" s="3" t="s">
+        <v>3701</v>
+      </c>
+      <c r="D1247" s="3" t="s">
+        <v>3803</v>
+      </c>
+      <c r="E1247" s="3" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1248" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1248" s="3" t="s">
+        <v>3702</v>
+      </c>
+      <c r="D1248" s="3" t="s">
+        <v>3804</v>
+      </c>
+      <c r="E1248" s="3" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1249" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1249" s="3" t="s">
+        <v>3703</v>
+      </c>
+      <c r="D1249" s="3" t="s">
+        <v>3805</v>
+      </c>
+      <c r="E1249" s="3" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1250" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1250" s="3" t="s">
+        <v>3704</v>
+      </c>
+      <c r="D1250" s="3" t="s">
+        <v>3781</v>
+      </c>
+      <c r="E1250" s="3" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1251" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1251" s="3" t="s">
+        <v>3705</v>
+      </c>
+      <c r="D1251" s="3" t="s">
+        <v>3790</v>
+      </c>
+      <c r="E1251" s="3" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1252" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1252" s="3" t="s">
+        <v>3706</v>
+      </c>
+      <c r="D1252" s="3" t="s">
+        <v>3806</v>
+      </c>
+      <c r="E1252" s="3" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1253" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1253" s="3" t="s">
+        <v>3707</v>
+      </c>
+      <c r="D1253" s="3" t="s">
+        <v>3807</v>
+      </c>
+      <c r="E1253" s="3" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1254" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1254" s="3" t="s">
+        <v>3708</v>
+      </c>
+      <c r="D1254" s="3" t="s">
+        <v>3808</v>
+      </c>
+      <c r="E1254" s="3" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1255" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1255" s="3" t="s">
+        <v>3709</v>
+      </c>
+      <c r="D1255" s="3" t="s">
+        <v>3809</v>
+      </c>
+      <c r="E1255" s="3" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1256" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1256" s="3" t="s">
+        <v>3710</v>
+      </c>
+      <c r="D1256" s="3" t="s">
+        <v>3810</v>
+      </c>
+      <c r="E1256" s="3" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1257" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1257" s="3" t="s">
+        <v>3711</v>
+      </c>
+      <c r="D1257" s="3" t="s">
+        <v>3811</v>
+      </c>
+      <c r="E1257" s="3" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1258" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1258" s="3" t="s">
+        <v>3712</v>
+      </c>
+      <c r="D1258" s="3" t="s">
+        <v>3812</v>
+      </c>
+      <c r="E1258" s="3" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1259" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1259" s="3" t="s">
+        <v>3713</v>
+      </c>
+      <c r="D1259" s="3" t="s">
+        <v>3813</v>
+      </c>
+      <c r="E1259" s="3" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1260" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1260" s="3" t="s">
+        <v>3714</v>
+      </c>
+      <c r="D1260" s="3" t="s">
+        <v>3814</v>
+      </c>
+      <c r="E1260" s="3" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1261" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1261" s="3" t="s">
+        <v>3715</v>
+      </c>
+      <c r="D1261" s="3" t="s">
+        <v>3815</v>
+      </c>
+      <c r="E1261" s="3" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1262" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1262" s="3" t="s">
+        <v>3716</v>
+      </c>
+      <c r="D1262" s="3" t="s">
+        <v>3816</v>
+      </c>
+      <c r="E1262" s="3" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1263" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1263" s="3" t="s">
+        <v>3717</v>
+      </c>
+      <c r="D1263" s="3" t="s">
+        <v>3817</v>
+      </c>
+      <c r="E1263" s="3" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1264" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1264" s="3" t="s">
+        <v>3718</v>
+      </c>
+      <c r="D1264" s="3" t="s">
+        <v>3776</v>
+      </c>
+      <c r="E1264" s="3" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1265" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1265" s="3" t="s">
+        <v>3719</v>
+      </c>
+      <c r="D1265" s="3" t="s">
+        <v>3809</v>
+      </c>
+      <c r="E1265" s="3" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1266" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1266" s="3" t="s">
+        <v>3720</v>
+      </c>
+      <c r="D1266" s="3" t="s">
+        <v>3818</v>
+      </c>
+      <c r="E1266" s="3" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1267" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1267" s="3" t="s">
+        <v>3721</v>
+      </c>
+      <c r="D1267" s="3" t="s">
+        <v>3819</v>
+      </c>
+      <c r="E1267" s="3" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1268" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1268" s="3" t="s">
+        <v>3722</v>
+      </c>
+      <c r="D1268" s="3" t="s">
+        <v>3820</v>
+      </c>
+      <c r="E1268" s="3" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1269" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1269" s="3" t="s">
+        <v>3723</v>
+      </c>
+      <c r="D1269" s="3" t="s">
+        <v>3821</v>
+      </c>
+      <c r="E1269" s="3" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1270" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1270" s="3" t="s">
+        <v>3724</v>
+      </c>
+      <c r="D1270" s="3" t="s">
+        <v>3789</v>
+      </c>
+      <c r="E1270" s="3" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1271" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1271" s="3" t="s">
+        <v>3725</v>
+      </c>
+      <c r="D1271" s="3" t="s">
+        <v>3822</v>
+      </c>
+      <c r="E1271" s="3" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1272" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1272" s="3" t="s">
+        <v>3726</v>
+      </c>
+      <c r="D1272" s="3" t="s">
+        <v>3823</v>
+      </c>
+      <c r="E1272" s="3" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1273" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1273" s="3" t="s">
+        <v>3727</v>
+      </c>
+      <c r="D1273" s="3" t="s">
+        <v>3824</v>
+      </c>
+      <c r="E1273" s="3" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1274" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1274" s="3" t="s">
+        <v>3728</v>
+      </c>
+      <c r="D1274" s="3" t="s">
+        <v>3809</v>
+      </c>
+      <c r="E1274" s="3" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1275" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1275" s="3" t="s">
+        <v>3729</v>
+      </c>
+      <c r="D1275" s="3" t="s">
+        <v>3825</v>
+      </c>
+      <c r="E1275" s="3" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1276" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1276" s="3" t="s">
+        <v>3730</v>
+      </c>
+      <c r="D1276" s="3" t="s">
+        <v>3826</v>
+      </c>
+      <c r="E1276" s="3" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1277" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1277" s="3" t="s">
+        <v>3731</v>
+      </c>
+      <c r="D1277" s="3" t="s">
+        <v>3820</v>
+      </c>
+      <c r="E1277" s="3" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1278" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1278" s="3" t="s">
+        <v>3732</v>
+      </c>
+      <c r="D1278" s="3" t="s">
+        <v>3821</v>
+      </c>
+      <c r="E1278" s="3" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1279" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1279" s="3" t="s">
+        <v>3733</v>
+      </c>
+      <c r="D1279" s="3" t="s">
+        <v>3789</v>
+      </c>
+      <c r="E1279" s="3" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1280" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1280" s="3" t="s">
+        <v>3734</v>
+      </c>
+      <c r="D1280" s="3" t="s">
+        <v>3827</v>
+      </c>
+      <c r="E1280" s="3" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1281" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1281" s="3" t="s">
+        <v>3735</v>
+      </c>
+      <c r="D1281" s="3" t="s">
+        <v>3828</v>
+      </c>
+      <c r="E1281" s="3" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1282" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1282" s="3" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D1282" s="3" t="s">
+        <v>3829</v>
+      </c>
+      <c r="E1282" s="3" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1283" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1283" s="3" t="s">
+        <v>3737</v>
+      </c>
+      <c r="D1283" s="3" t="s">
+        <v>3776</v>
+      </c>
+      <c r="E1283" s="3" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1284" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1284" s="3" t="s">
+        <v>3738</v>
+      </c>
+      <c r="D1284" s="3" t="s">
+        <v>3830</v>
+      </c>
+      <c r="E1284" s="3" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1285" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1285" s="3" t="s">
+        <v>3739</v>
+      </c>
+      <c r="D1285" s="3" t="s">
+        <v>3778</v>
+      </c>
+      <c r="E1285" s="3" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1286" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1286" s="3" t="s">
+        <v>3740</v>
+      </c>
+      <c r="D1286" s="3" t="s">
+        <v>3831</v>
+      </c>
+      <c r="E1286" s="3" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1287" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1287" s="3" t="s">
+        <v>3741</v>
+      </c>
+      <c r="D1287" s="3" t="s">
+        <v>3832</v>
+      </c>
+      <c r="E1287" s="3" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1288" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1288" s="3" t="s">
+        <v>3742</v>
+      </c>
+      <c r="D1288" s="3" t="s">
+        <v>3781</v>
+      </c>
+      <c r="E1288" s="3" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1289" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1289" s="3" t="s">
+        <v>3743</v>
+      </c>
+      <c r="D1289" s="3" t="s">
+        <v>3790</v>
+      </c>
+      <c r="E1289" s="3" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1290" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1290" s="3" t="s">
+        <v>3744</v>
+      </c>
+      <c r="D1290" s="3" t="s">
+        <v>3815</v>
+      </c>
+      <c r="E1290" s="3" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1291" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1291" s="3" t="s">
+        <v>3745</v>
+      </c>
+      <c r="D1291" s="3" t="s">
+        <v>3833</v>
+      </c>
+      <c r="E1291" s="3" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1292" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1292" s="3" t="s">
+        <v>3746</v>
+      </c>
+      <c r="D1292" s="3" t="s">
+        <v>3834</v>
+      </c>
+      <c r="E1292" s="3" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1293" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1293" s="3" t="s">
+        <v>3747</v>
+      </c>
+      <c r="D1293" s="3" t="s">
+        <v>3802</v>
+      </c>
+      <c r="E1293" s="3" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1294" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1294" s="3" t="s">
+        <v>3748</v>
+      </c>
+      <c r="D1294" s="3" t="s">
+        <v>3835</v>
+      </c>
+      <c r="E1294" s="3" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1295" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1295" s="3" t="s">
+        <v>3749</v>
+      </c>
+      <c r="D1295" s="3" t="s">
+        <v>3836</v>
+      </c>
+      <c r="E1295" s="3" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1296" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1296" s="3" t="s">
+        <v>3750</v>
+      </c>
+      <c r="D1296" s="3" t="s">
+        <v>3780</v>
+      </c>
+      <c r="E1296" s="3" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1297" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1297" s="3" t="s">
+        <v>3751</v>
+      </c>
+      <c r="D1297" s="3" t="s">
+        <v>3789</v>
+      </c>
+      <c r="E1297" s="3" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1298" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1298" s="3" t="s">
+        <v>3752</v>
+      </c>
+      <c r="D1298" s="3" t="s">
+        <v>3837</v>
+      </c>
+      <c r="E1298" s="3" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1299" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1299" s="3" t="s">
+        <v>3753</v>
+      </c>
+      <c r="D1299" s="3" t="s">
+        <v>3838</v>
+      </c>
+      <c r="E1299" s="3" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1300" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1300" s="3" t="s">
+        <v>3754</v>
+      </c>
+      <c r="D1300" s="3" t="s">
+        <v>3839</v>
+      </c>
+      <c r="E1300" s="3" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1301" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1301" s="3" t="s">
+        <v>3755</v>
+      </c>
+      <c r="D1301" s="3" t="s">
+        <v>3840</v>
+      </c>
+      <c r="E1301" s="3" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1302" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1302" s="3" t="s">
+        <v>3756</v>
+      </c>
+      <c r="D1302" s="3" t="s">
+        <v>3841</v>
+      </c>
+      <c r="E1302" s="3" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1303" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1303" s="3" t="s">
+        <v>3757</v>
+      </c>
+      <c r="D1303" s="3" t="s">
+        <v>3809</v>
+      </c>
+      <c r="E1303" s="3" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1304" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1304" s="3" t="s">
+        <v>3758</v>
+      </c>
+      <c r="D1304" s="3" t="s">
+        <v>3842</v>
+      </c>
+      <c r="E1304" s="3" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1305" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1305" s="3" t="s">
+        <v>3759</v>
+      </c>
+      <c r="D1305" s="3" t="s">
+        <v>3843</v>
+      </c>
+      <c r="E1305" s="3" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1306" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1306" s="3" t="s">
+        <v>3760</v>
+      </c>
+      <c r="D1306" s="3" t="s">
+        <v>3844</v>
+      </c>
+      <c r="E1306" s="3" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1307" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1307" s="3" t="s">
+        <v>3761</v>
+      </c>
+      <c r="D1307" s="3" t="s">
+        <v>3845</v>
+      </c>
+      <c r="E1307" s="3" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1308" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1308" s="3" t="s">
+        <v>3762</v>
+      </c>
+      <c r="D1308" s="3" t="s">
+        <v>3782</v>
+      </c>
+      <c r="E1308" s="3" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1309" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1309" s="3" t="s">
+        <v>3763</v>
+      </c>
+      <c r="D1309" s="3" t="s">
+        <v>3846</v>
+      </c>
+      <c r="E1309" s="3" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1310" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1310" s="3" t="s">
+        <v>3764</v>
+      </c>
+      <c r="D1310" s="3" t="s">
+        <v>3847</v>
+      </c>
+      <c r="E1310" s="3" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1311" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1311" s="3" t="s">
+        <v>3765</v>
+      </c>
+      <c r="D1311" s="3" t="s">
+        <v>3848</v>
+      </c>
+      <c r="E1311" s="3" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1312" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1312" s="3" t="s">
+        <v>3766</v>
+      </c>
+      <c r="D1312" s="3" t="s">
+        <v>3849</v>
+      </c>
+      <c r="E1312" s="3" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1313" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1313" s="3" t="s">
+        <v>3767</v>
+      </c>
+      <c r="D1313" s="3" t="s">
+        <v>3809</v>
+      </c>
+      <c r="E1313" s="3" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1314" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1314" s="3" t="s">
+        <v>3768</v>
+      </c>
+      <c r="D1314" s="3" t="s">
+        <v>3850</v>
+      </c>
+      <c r="E1314" s="3" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1315" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1315" s="3" t="s">
+        <v>3769</v>
+      </c>
+      <c r="D1315" s="3" t="s">
+        <v>3851</v>
+      </c>
+      <c r="E1315" s="3" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1316" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1316" s="3" t="s">
+        <v>3770</v>
+      </c>
+      <c r="D1316" s="3" t="s">
+        <v>3852</v>
+      </c>
+      <c r="E1316" s="3" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1317" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1317" s="3" t="s">
+        <v>3771</v>
+      </c>
+      <c r="D1317" s="3" t="s">
+        <v>3845</v>
+      </c>
+      <c r="E1317" s="3" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1318" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1318" s="3" t="s">
+        <v>3772</v>
+      </c>
+      <c r="D1318" s="3" t="s">
+        <v>3782</v>
+      </c>
+      <c r="E1318" s="3" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1319" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1319" s="3" t="s">
+        <v>3773</v>
+      </c>
+      <c r="D1319" s="3" t="s">
+        <v>3846</v>
+      </c>
+      <c r="E1319" s="3" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1320" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1320" s="3" t="s">
+        <v>3774</v>
+      </c>
+      <c r="D1320" s="3" t="s">
+        <v>3853</v>
+      </c>
+      <c r="E1320" s="3" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1321" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1321" s="3" t="s">
+        <v>3775</v>
+      </c>
+      <c r="D1321" s="3" t="s">
+        <v>3854</v>
+      </c>
+      <c r="E1321" s="3" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1322" t="s">
+        <v>3855</v>
+      </c>
+      <c r="B1322" s="3" t="s">
+        <v>2225</v>
+      </c>
+      <c r="D1322" s="3" t="s">
+        <v>3860</v>
+      </c>
+      <c r="E1322" s="3" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1323" t="s">
+        <v>3855</v>
+      </c>
+      <c r="B1323" s="3" t="s">
+        <v>2226</v>
+      </c>
+      <c r="D1323" s="3" t="s">
+        <v>3861</v>
+      </c>
+      <c r="E1323" s="3" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1324" t="s">
+        <v>3855</v>
+      </c>
+      <c r="B1324" s="3" t="s">
+        <v>2227</v>
+      </c>
+      <c r="D1324" s="3" t="s">
+        <v>3862</v>
+      </c>
+      <c r="E1324" s="3" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1325" t="s">
+        <v>3855</v>
+      </c>
+      <c r="B1325" s="3" t="s">
+        <v>2228</v>
+      </c>
+      <c r="D1325" s="3" t="s">
+        <v>3863</v>
+      </c>
+      <c r="E1325" s="3" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1326" t="s">
+        <v>3855</v>
+      </c>
+      <c r="B1326" s="3" t="s">
+        <v>2229</v>
+      </c>
+      <c r="D1326" s="3" t="s">
+        <v>3864</v>
+      </c>
+      <c r="E1326" s="3" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1327" t="s">
+        <v>3855</v>
+      </c>
+      <c r="B1327" s="3" t="s">
+        <v>2230</v>
+      </c>
+      <c r="D1327" s="3" t="s">
+        <v>3865</v>
+      </c>
+      <c r="E1327" s="3" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1328" t="s">
+        <v>3855</v>
+      </c>
+      <c r="B1328" s="3" t="s">
+        <v>2231</v>
+      </c>
+      <c r="D1328" s="3" t="s">
+        <v>3866</v>
+      </c>
+      <c r="E1328" s="3" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1329" t="s">
+        <v>3855</v>
+      </c>
+      <c r="B1329" s="3" t="s">
+        <v>2232</v>
+      </c>
+      <c r="D1329" s="3" t="s">
+        <v>3867</v>
+      </c>
+      <c r="E1329" s="3" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1330" t="s">
+        <v>3855</v>
+      </c>
+      <c r="B1330" s="3" t="s">
+        <v>2233</v>
+      </c>
+      <c r="D1330" s="3" t="s">
+        <v>3868</v>
+      </c>
+      <c r="E1330" s="3" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1331" t="s">
+        <v>3855</v>
+      </c>
+      <c r="B1331" s="3" t="s">
+        <v>2234</v>
+      </c>
+      <c r="D1331" s="3" t="s">
+        <v>3869</v>
+      </c>
+      <c r="E1331" s="3" t="s">
+        <v>994</v>
       </c>
     </row>
   </sheetData>

--- a/gdcdictionary/xlsx/nodes_schema_impowr.xlsx
+++ b/gdcdictionary/xlsx/nodes_schema_impowr.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vitha\OneDrive\Documents\GitHub\dcfdictionary\gdcdictionary\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D639968-004C-4528-9812-3D9E7B4D101E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8939A51-0243-48FC-B022-0F6EF7799C0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="765" yWindow="1140" windowWidth="26685" windowHeight="13440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1110" yWindow="1485" windowWidth="26685" windowHeight="13440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nodes_impowr" sheetId="1" r:id="rId1"/>
@@ -7693,12 +7693,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:Y88"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K1" sqref="J1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="89" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7711,7 +7710,7 @@
     <col min="6" max="6" width="38.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="16" customWidth="1"/>
     <col min="9" max="9" width="14.7109375" customWidth="1"/>
-    <col min="10" max="10" width="255.7109375" customWidth="1"/>
+    <col min="10" max="10" width="116" customWidth="1"/>
     <col min="11" max="11" width="27.140625" customWidth="1"/>
     <col min="12" max="12" width="19.140625" customWidth="1"/>
     <col min="13" max="13" width="17" customWidth="1"/>
@@ -7806,7 +7805,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -7936,7 +7935,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>25</v>
       </c>
@@ -7980,7 +7979,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>25</v>
       </c>
@@ -8042,7 +8041,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>25</v>
       </c>
@@ -8107,7 +8106,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>25</v>
       </c>
@@ -8172,7 +8171,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
@@ -8302,7 +8301,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>25</v>
       </c>
@@ -8367,7 +8366,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="11" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>25</v>
       </c>
@@ -8432,7 +8431,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>25</v>
       </c>
@@ -8562,7 +8561,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>25</v>
       </c>
@@ -8627,7 +8626,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="15" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>25</v>
       </c>
@@ -8887,7 +8886,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="19" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>25</v>
       </c>
@@ -8952,7 +8951,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="20" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>25</v>
       </c>
@@ -9017,7 +9016,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="21" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>25</v>
       </c>
@@ -9082,7 +9081,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="22" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>25</v>
       </c>
@@ -9147,7 +9146,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="23" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>25</v>
       </c>
@@ -9212,7 +9211,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>25</v>
       </c>
@@ -9277,7 +9276,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="25" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>25</v>
       </c>
@@ -9342,7 +9341,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
@@ -9407,7 +9406,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="27" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>25</v>
       </c>
@@ -9472,7 +9471,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>25</v>
       </c>
@@ -9537,7 +9536,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="29" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>25</v>
       </c>
@@ -9602,7 +9601,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="30" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>25</v>
       </c>
@@ -9667,7 +9666,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="31" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>25</v>
       </c>
@@ -9732,7 +9731,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="32" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>25</v>
       </c>
@@ -9797,7 +9796,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="33" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>25</v>
       </c>
@@ -9862,7 +9861,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="34" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>25</v>
       </c>
@@ -9927,7 +9926,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="35" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>25</v>
       </c>
@@ -9992,7 +9991,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="36" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>25</v>
       </c>
@@ -10057,7 +10056,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="37" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>25</v>
       </c>
@@ -10122,7 +10121,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="38" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>25</v>
       </c>
@@ -10187,7 +10186,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="39" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>25</v>
       </c>
@@ -10252,7 +10251,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="40" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>25</v>
       </c>
@@ -10317,7 +10316,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="41" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>25</v>
       </c>
@@ -10382,7 +10381,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="42" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>25</v>
       </c>
@@ -10447,7 +10446,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="43" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>25</v>
       </c>
@@ -10512,7 +10511,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="44" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>25</v>
       </c>
@@ -10577,7 +10576,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="45" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>25</v>
       </c>
@@ -10642,7 +10641,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="46" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>25</v>
       </c>
@@ -10707,7 +10706,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="47" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>25</v>
       </c>
@@ -10772,7 +10771,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>25</v>
       </c>
@@ -10837,7 +10836,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="49" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>25</v>
       </c>
@@ -10902,7 +10901,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="50" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>25</v>
       </c>
@@ -10967,7 +10966,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="51" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>25</v>
       </c>
@@ -11032,7 +11031,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="52" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>25</v>
       </c>
@@ -11097,7 +11096,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="53" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>25</v>
       </c>
@@ -11162,7 +11161,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="54" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>25</v>
       </c>
@@ -11227,7 +11226,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="55" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>25</v>
       </c>
@@ -11292,7 +11291,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="56" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>25</v>
       </c>
@@ -11357,7 +11356,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="57" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>25</v>
       </c>
@@ -11422,7 +11421,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="58" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>25</v>
       </c>
@@ -11487,7 +11486,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="59" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>25</v>
       </c>
@@ -11552,7 +11551,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="60" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>25</v>
       </c>
@@ -11617,7 +11616,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="61" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>25</v>
       </c>
@@ -11682,7 +11681,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="62" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>25</v>
       </c>
@@ -11747,7 +11746,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="63" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>25</v>
       </c>
@@ -11812,7 +11811,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="64" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>25</v>
       </c>
@@ -11877,7 +11876,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="65" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>25</v>
       </c>
@@ -11942,7 +11941,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="66" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>25</v>
       </c>
@@ -12007,7 +12006,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="67" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>25</v>
       </c>
@@ -12072,7 +12071,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="68" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>25</v>
       </c>
@@ -12137,7 +12136,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="69" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>25</v>
       </c>
@@ -12202,7 +12201,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="70" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>25</v>
       </c>
@@ -12267,7 +12266,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="71" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>25</v>
       </c>
@@ -12332,7 +12331,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="72" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>25</v>
       </c>
@@ -12397,7 +12396,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="73" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>25</v>
       </c>
@@ -12462,7 +12461,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="74" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>25</v>
       </c>
@@ -12527,7 +12526,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="75" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>25</v>
       </c>
@@ -12592,7 +12591,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="76" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>25</v>
       </c>
@@ -12657,7 +12656,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="77" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>25</v>
       </c>
@@ -12722,7 +12721,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="78" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>25</v>
       </c>
@@ -12787,7 +12786,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="79" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>25</v>
       </c>
@@ -12852,7 +12851,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="80" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>25</v>
       </c>
@@ -12917,7 +12916,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="81" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>25</v>
       </c>
@@ -12982,7 +12981,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="82" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>25</v>
       </c>
@@ -13047,7 +13046,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="83" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>25</v>
       </c>
@@ -13112,7 +13111,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="84" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>25</v>
       </c>
@@ -13177,7 +13176,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="85" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>25</v>
       </c>
@@ -13242,7 +13241,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="86" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>25</v>
       </c>
@@ -13307,7 +13306,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="87" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>25</v>
       </c>
@@ -13372,7 +13371,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="88" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>25</v>
       </c>
@@ -13438,18 +13437,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Y88" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="participant"/>
-        <filter val="patient"/>
-        <filter val="pb_demographics"/>
-        <filter val="pb_impowr_demographics"/>
-        <filter val="pb_supplemental_demographics"/>
-        <filter val="provider_demographic"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:Y88" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
     <hyperlink ref="F2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000015000000}"/>

--- a/gdcdictionary/xlsx/nodes_schema_impowr.xlsx
+++ b/gdcdictionary/xlsx/nodes_schema_impowr.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vitha\OneDrive\Documents\GitHub\dcfdictionary\gdcdictionary\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8939A51-0243-48FC-B022-0F6EF7799C0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EAACF68-7455-4CC5-A7B7-5EF5C56FF73E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1110" yWindow="1485" windowWidth="26685" windowHeight="13440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1110" yWindow="1485" windowWidth="26685" windowHeight="13440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nodes_impowr" sheetId="1" r:id="rId1"/>
@@ -7695,7 +7695,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+    <sheetView zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K1" sqref="J1:K1"/>
     </sheetView>
@@ -13620,12 +13620,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:K980"/>
   <sheetViews>
-    <sheetView zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A903" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B934" sqref="B934"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13678,7 +13677,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -13692,7 +13691,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -13706,7 +13705,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -13720,7 +13719,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -13734,7 +13733,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -13748,7 +13747,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -13762,7 +13761,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -13776,7 +13775,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -13790,7 +13789,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -13801,7 +13800,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -13815,7 +13814,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -13829,7 +13828,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -13843,7 +13842,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -13857,7 +13856,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -13871,7 +13870,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -13882,7 +13881,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -13896,7 +13895,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -13910,7 +13909,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -13924,7 +13923,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -13938,7 +13937,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -13952,7 +13951,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -13966,7 +13965,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -13980,7 +13979,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -13994,7 +13993,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -14022,7 +14021,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -14033,7 +14032,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -14047,7 +14046,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -14061,7 +14060,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -14072,7 +14071,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -14089,7 +14088,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -14103,7 +14102,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -14117,7 +14116,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>31</v>
       </c>
@@ -14131,7 +14130,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>31</v>
       </c>
@@ -14145,7 +14144,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>31</v>
       </c>
@@ -14159,7 +14158,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>31</v>
       </c>
@@ -14173,7 +14172,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>31</v>
       </c>
@@ -14187,7 +14186,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>31</v>
       </c>
@@ -14201,7 +14200,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>31</v>
       </c>
@@ -14215,7 +14214,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>31</v>
       </c>
@@ -14232,7 +14231,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>31</v>
       </c>
@@ -14249,7 +14248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>31</v>
       </c>
@@ -14266,7 +14265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>31</v>
       </c>
@@ -14283,7 +14282,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>32</v>
       </c>
@@ -14297,7 +14296,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>32</v>
       </c>
@@ -14311,7 +14310,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>32</v>
       </c>
@@ -14325,7 +14324,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>33</v>
       </c>
@@ -14339,7 +14338,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>34</v>
       </c>
@@ -14499,7 +14498,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>36</v>
       </c>
@@ -14510,7 +14509,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>36</v>
       </c>
@@ -14521,7 +14520,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>39</v>
       </c>
@@ -14535,7 +14534,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>39</v>
       </c>
@@ -14549,7 +14548,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>39</v>
       </c>
@@ -14563,7 +14562,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>39</v>
       </c>
@@ -14577,7 +14576,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>39</v>
       </c>
@@ -14591,7 +14590,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>39</v>
       </c>
@@ -14605,7 +14604,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>39</v>
       </c>
@@ -14619,7 +14618,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>39</v>
       </c>
@@ -15743,7 +15742,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="149" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>354</v>
       </c>
@@ -15757,7 +15756,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>354</v>
       </c>
@@ -15771,7 +15770,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>354</v>
       </c>
@@ -15785,7 +15784,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="152" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>529</v>
       </c>
@@ -15799,7 +15798,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>529</v>
       </c>
@@ -15813,7 +15812,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="154" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>529</v>
       </c>
@@ -15827,7 +15826,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="155" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>529</v>
       </c>
@@ -15841,7 +15840,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="156" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>529</v>
       </c>
@@ -15855,7 +15854,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>529</v>
       </c>
@@ -15869,7 +15868,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>529</v>
       </c>
@@ -15883,7 +15882,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="159" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>530</v>
       </c>
@@ -15897,7 +15896,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="160" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>530</v>
       </c>
@@ -15911,7 +15910,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>530</v>
       </c>
@@ -15925,7 +15924,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="162" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>530</v>
       </c>
@@ -15939,7 +15938,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>530</v>
       </c>
@@ -15953,7 +15952,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>531</v>
       </c>
@@ -15967,7 +15966,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>531</v>
       </c>
@@ -15981,7 +15980,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>531</v>
       </c>
@@ -15995,7 +15994,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>531</v>
       </c>
@@ -16009,7 +16008,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="168" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>531</v>
       </c>
@@ -16023,7 +16022,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="169" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>531</v>
       </c>
@@ -16037,7 +16036,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="170" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>531</v>
       </c>
@@ -16051,7 +16050,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="171" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>532</v>
       </c>
@@ -16065,7 +16064,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="172" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>532</v>
       </c>
@@ -16079,7 +16078,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="173" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>532</v>
       </c>
@@ -16093,7 +16092,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="174" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>532</v>
       </c>
@@ -16107,7 +16106,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="175" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>532</v>
       </c>
@@ -16121,7 +16120,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="176" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>533</v>
       </c>
@@ -16135,7 +16134,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="177" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>533</v>
       </c>
@@ -16149,7 +16148,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="178" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>533</v>
       </c>
@@ -16163,7 +16162,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="179" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>534</v>
       </c>
@@ -16177,7 +16176,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="180" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>534</v>
       </c>
@@ -16191,7 +16190,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="181" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>534</v>
       </c>
@@ -16205,7 +16204,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="182" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>534</v>
       </c>
@@ -16219,7 +16218,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="183" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>534</v>
       </c>
@@ -16233,7 +16232,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="184" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>534</v>
       </c>
@@ -16247,7 +16246,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="185" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>535</v>
       </c>
@@ -16261,7 +16260,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="186" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>535</v>
       </c>
@@ -16275,7 +16274,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="187" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>535</v>
       </c>
@@ -16289,7 +16288,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="188" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>535</v>
       </c>
@@ -16303,7 +16302,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="189" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>535</v>
       </c>
@@ -16317,7 +16316,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="190" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>536</v>
       </c>
@@ -16331,7 +16330,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="191" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>536</v>
       </c>
@@ -16345,7 +16344,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="192" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>536</v>
       </c>
@@ -16359,7 +16358,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="193" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>537</v>
       </c>
@@ -16373,7 +16372,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="194" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>537</v>
       </c>
@@ -16387,7 +16386,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="195" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>537</v>
       </c>
@@ -16401,7 +16400,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="196" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>537</v>
       </c>
@@ -16415,7 +16414,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="197" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>537</v>
       </c>
@@ -16429,7 +16428,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="198" spans="1:5" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>537</v>
       </c>
@@ -16443,7 +16442,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="199" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>537</v>
       </c>
@@ -16457,7 +16456,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="200" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>538</v>
       </c>
@@ -16471,7 +16470,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="201" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>538</v>
       </c>
@@ -16485,7 +16484,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="202" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>538</v>
       </c>
@@ -16499,7 +16498,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="203" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>538</v>
       </c>
@@ -16513,7 +16512,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="204" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>538</v>
       </c>
@@ -16527,7 +16526,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="205" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>539</v>
       </c>
@@ -16541,7 +16540,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="206" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>539</v>
       </c>
@@ -16555,7 +16554,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="207" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>539</v>
       </c>
@@ -16569,7 +16568,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="208" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>539</v>
       </c>
@@ -16583,7 +16582,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="209" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>539</v>
       </c>
@@ -16597,7 +16596,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="210" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>539</v>
       </c>
@@ -16611,7 +16610,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="211" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>539</v>
       </c>
@@ -16625,7 +16624,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="212" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>540</v>
       </c>
@@ -16639,7 +16638,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="213" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>540</v>
       </c>
@@ -16653,7 +16652,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="214" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>540</v>
       </c>
@@ -16667,7 +16666,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="215" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>540</v>
       </c>
@@ -16681,7 +16680,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="216" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>540</v>
       </c>
@@ -16695,7 +16694,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="217" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>540</v>
       </c>
@@ -16709,7 +16708,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="218" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>540</v>
       </c>
@@ -16723,7 +16722,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="219" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>540</v>
       </c>
@@ -16737,7 +16736,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="220" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>540</v>
       </c>
@@ -16751,7 +16750,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="221" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>540</v>
       </c>
@@ -16765,7 +16764,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="222" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>540</v>
       </c>
@@ -16779,7 +16778,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="223" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>540</v>
       </c>
@@ -16793,7 +16792,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="224" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>540</v>
       </c>
@@ -16807,7 +16806,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="225" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>540</v>
       </c>
@@ -16821,7 +16820,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="226" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>540</v>
       </c>
@@ -16835,7 +16834,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="227" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>540</v>
       </c>
@@ -16849,7 +16848,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="228" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>541</v>
       </c>
@@ -16863,7 +16862,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="229" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>541</v>
       </c>
@@ -16877,7 +16876,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="230" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>541</v>
       </c>
@@ -16891,7 +16890,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="231" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>394</v>
       </c>
@@ -16905,7 +16904,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="232" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>394</v>
       </c>
@@ -16919,7 +16918,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="233" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>394</v>
       </c>
@@ -16933,7 +16932,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="234" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>394</v>
       </c>
@@ -16947,7 +16946,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="235" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>394</v>
       </c>
@@ -16961,7 +16960,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="236" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>394</v>
       </c>
@@ -16975,7 +16974,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="237" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>394</v>
       </c>
@@ -16989,7 +16988,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="238" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>394</v>
       </c>
@@ -17003,7 +17002,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="239" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>394</v>
       </c>
@@ -17017,7 +17016,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="240" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>394</v>
       </c>
@@ -17031,7 +17030,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="241" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>394</v>
       </c>
@@ -17045,7 +17044,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="242" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>394</v>
       </c>
@@ -17059,7 +17058,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="243" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>394</v>
       </c>
@@ -17073,7 +17072,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="244" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>394</v>
       </c>
@@ -17087,7 +17086,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="245" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>394</v>
       </c>
@@ -17101,7 +17100,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="246" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>394</v>
       </c>
@@ -17115,7 +17114,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="247" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>394</v>
       </c>
@@ -17129,7 +17128,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="248" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>394</v>
       </c>
@@ -17143,7 +17142,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="249" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>394</v>
       </c>
@@ -17157,7 +17156,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="250" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>394</v>
       </c>
@@ -17171,7 +17170,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="251" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>394</v>
       </c>
@@ -17185,7 +17184,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="252" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>542</v>
       </c>
@@ -17199,7 +17198,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="253" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>542</v>
       </c>
@@ -17213,7 +17212,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="254" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>401</v>
       </c>
@@ -17227,7 +17226,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="255" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>401</v>
       </c>
@@ -17241,7 +17240,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="256" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>401</v>
       </c>
@@ -17255,7 +17254,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="257" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>401</v>
       </c>
@@ -17269,7 +17268,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="258" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>401</v>
       </c>
@@ -17283,7 +17282,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="259" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>401</v>
       </c>
@@ -17297,7 +17296,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="260" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>401</v>
       </c>
@@ -17311,7 +17310,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="261" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>401</v>
       </c>
@@ -17325,7 +17324,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="262" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>401</v>
       </c>
@@ -17339,7 +17338,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="263" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>401</v>
       </c>
@@ -17353,7 +17352,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="264" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>401</v>
       </c>
@@ -17367,7 +17366,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="265" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>2070</v>
       </c>
@@ -17381,7 +17380,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="266" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>405</v>
       </c>
@@ -17395,7 +17394,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="267" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>405</v>
       </c>
@@ -17409,7 +17408,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="268" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>405</v>
       </c>
@@ -17423,7 +17422,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="269" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>405</v>
       </c>
@@ -17437,7 +17436,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="270" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>405</v>
       </c>
@@ -17451,7 +17450,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="271" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>405</v>
       </c>
@@ -17465,7 +17464,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="272" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>405</v>
       </c>
@@ -17479,7 +17478,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="273" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>405</v>
       </c>
@@ -17493,7 +17492,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="274" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>405</v>
       </c>
@@ -17507,7 +17506,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="275" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>405</v>
       </c>
@@ -17521,7 +17520,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="276" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>405</v>
       </c>
@@ -17535,7 +17534,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="277" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>405</v>
       </c>
@@ -17549,7 +17548,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="278" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>405</v>
       </c>
@@ -17563,7 +17562,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="279" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>405</v>
       </c>
@@ -17577,7 +17576,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="280" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>405</v>
       </c>
@@ -17591,7 +17590,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="281" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>405</v>
       </c>
@@ -17605,7 +17604,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="282" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>405</v>
       </c>
@@ -17619,7 +17618,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="283" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>405</v>
       </c>
@@ -17633,7 +17632,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="284" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>405</v>
       </c>
@@ -17647,7 +17646,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="285" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>405</v>
       </c>
@@ -17661,7 +17660,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="286" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>405</v>
       </c>
@@ -17675,7 +17674,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="287" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>405</v>
       </c>
@@ -17689,7 +17688,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="288" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>405</v>
       </c>
@@ -17703,7 +17702,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="289" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>405</v>
       </c>
@@ -17717,7 +17716,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="290" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>405</v>
       </c>
@@ -17731,7 +17730,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="291" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>405</v>
       </c>
@@ -17745,7 +17744,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="292" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>405</v>
       </c>
@@ -17759,7 +17758,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="293" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>405</v>
       </c>
@@ -17773,7 +17772,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="294" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>405</v>
       </c>
@@ -17787,7 +17786,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="295" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>405</v>
       </c>
@@ -17801,7 +17800,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="296" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>405</v>
       </c>
@@ -17815,7 +17814,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="297" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>405</v>
       </c>
@@ -17829,7 +17828,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="298" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>405</v>
       </c>
@@ -17843,7 +17842,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="299" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>405</v>
       </c>
@@ -17857,7 +17856,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="300" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>405</v>
       </c>
@@ -17871,7 +17870,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="301" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>405</v>
       </c>
@@ -17885,7 +17884,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="302" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>405</v>
       </c>
@@ -17899,7 +17898,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="303" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>405</v>
       </c>
@@ -17913,7 +17912,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="304" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>405</v>
       </c>
@@ -17927,7 +17926,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="305" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>405</v>
       </c>
@@ -17941,7 +17940,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="306" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>405</v>
       </c>
@@ -17955,7 +17954,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="307" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>405</v>
       </c>
@@ -17969,7 +17968,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="308" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>405</v>
       </c>
@@ -17983,7 +17982,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="309" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>405</v>
       </c>
@@ -17997,7 +17996,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="310" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>405</v>
       </c>
@@ -18011,7 +18010,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="311" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>405</v>
       </c>
@@ -18025,7 +18024,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="312" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>405</v>
       </c>
@@ -18039,7 +18038,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="313" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>405</v>
       </c>
@@ -18053,7 +18052,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="314" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>405</v>
       </c>
@@ -18067,7 +18066,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="315" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>405</v>
       </c>
@@ -18081,7 +18080,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="316" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>409</v>
       </c>
@@ -18095,7 +18094,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="317" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>409</v>
       </c>
@@ -18109,7 +18108,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="318" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>409</v>
       </c>
@@ -18123,7 +18122,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="319" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>409</v>
       </c>
@@ -18137,7 +18136,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="320" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>409</v>
       </c>
@@ -18151,7 +18150,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="321" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>409</v>
       </c>
@@ -18165,7 +18164,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="322" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>409</v>
       </c>
@@ -18179,7 +18178,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="323" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>409</v>
       </c>
@@ -18193,7 +18192,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="324" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>409</v>
       </c>
@@ -18207,7 +18206,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="325" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>409</v>
       </c>
@@ -18221,7 +18220,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="326" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>409</v>
       </c>
@@ -18235,7 +18234,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="327" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>409</v>
       </c>
@@ -18249,7 +18248,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="328" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>409</v>
       </c>
@@ -18263,7 +18262,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="329" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>409</v>
       </c>
@@ -18277,7 +18276,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="330" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>409</v>
       </c>
@@ -18291,7 +18290,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="331" spans="1:5" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>409</v>
       </c>
@@ -18305,7 +18304,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="332" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>409</v>
       </c>
@@ -18319,7 +18318,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="333" spans="1:5" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>409</v>
       </c>
@@ -18333,7 +18332,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="334" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>409</v>
       </c>
@@ -18347,7 +18346,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="335" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>409</v>
       </c>
@@ -18361,7 +18360,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="336" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>409</v>
       </c>
@@ -18375,7 +18374,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="337" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>409</v>
       </c>
@@ -18389,7 +18388,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="338" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>409</v>
       </c>
@@ -18403,7 +18402,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="339" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>409</v>
       </c>
@@ -18417,7 +18416,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="340" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>409</v>
       </c>
@@ -18431,7 +18430,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="341" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>409</v>
       </c>
@@ -18445,7 +18444,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="342" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>409</v>
       </c>
@@ -18459,7 +18458,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="343" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>409</v>
       </c>
@@ -18473,7 +18472,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="344" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>409</v>
       </c>
@@ -18487,7 +18486,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="345" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>409</v>
       </c>
@@ -18501,7 +18500,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="346" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>409</v>
       </c>
@@ -18515,7 +18514,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="347" spans="1:5" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>409</v>
       </c>
@@ -18529,7 +18528,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="348" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>409</v>
       </c>
@@ -18543,7 +18542,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="349" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>409</v>
       </c>
@@ -18557,7 +18556,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="350" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>409</v>
       </c>
@@ -18571,7 +18570,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="351" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>409</v>
       </c>
@@ -18585,7 +18584,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="352" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>409</v>
       </c>
@@ -18599,7 +18598,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="353" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>409</v>
       </c>
@@ -18613,7 +18612,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="354" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>409</v>
       </c>
@@ -18627,7 +18626,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="355" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>409</v>
       </c>
@@ -18641,7 +18640,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="356" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>409</v>
       </c>
@@ -18655,7 +18654,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="357" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>409</v>
       </c>
@@ -18669,7 +18668,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="358" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>409</v>
       </c>
@@ -18683,7 +18682,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="359" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>409</v>
       </c>
@@ -18697,7 +18696,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="360" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>409</v>
       </c>
@@ -18711,7 +18710,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="361" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>409</v>
       </c>
@@ -18725,7 +18724,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="362" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>409</v>
       </c>
@@ -18739,7 +18738,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="363" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>409</v>
       </c>
@@ -18753,7 +18752,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="364" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>409</v>
       </c>
@@ -18767,7 +18766,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="365" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>409</v>
       </c>
@@ -18781,7 +18780,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="366" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>409</v>
       </c>
@@ -18795,7 +18794,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="367" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>409</v>
       </c>
@@ -18809,7 +18808,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="368" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>409</v>
       </c>
@@ -18823,7 +18822,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="369" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>544</v>
       </c>
@@ -18837,7 +18836,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="370" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>544</v>
       </c>
@@ -18851,7 +18850,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="371" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>544</v>
       </c>
@@ -18865,7 +18864,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="372" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>544</v>
       </c>
@@ -18879,7 +18878,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="373" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>544</v>
       </c>
@@ -18893,7 +18892,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="374" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>544</v>
       </c>
@@ -18907,7 +18906,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="375" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>544</v>
       </c>
@@ -18921,7 +18920,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="376" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>545</v>
       </c>
@@ -18935,7 +18934,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="377" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>545</v>
       </c>
@@ -18949,7 +18948,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="378" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>545</v>
       </c>
@@ -18963,7 +18962,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="379" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>545</v>
       </c>
@@ -18977,7 +18976,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="380" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>545</v>
       </c>
@@ -18991,7 +18990,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="381" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>545</v>
       </c>
@@ -19005,7 +19004,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="382" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>545</v>
       </c>
@@ -19019,7 +19018,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="383" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>545</v>
       </c>
@@ -19033,7 +19032,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="384" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>545</v>
       </c>
@@ -19047,7 +19046,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="385" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>545</v>
       </c>
@@ -19061,7 +19060,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="386" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>545</v>
       </c>
@@ -19075,7 +19074,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="387" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>545</v>
       </c>
@@ -19089,7 +19088,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="388" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>545</v>
       </c>
@@ -19103,7 +19102,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="389" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>545</v>
       </c>
@@ -19117,7 +19116,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="390" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>545</v>
       </c>
@@ -19131,7 +19130,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="391" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>545</v>
       </c>
@@ -19145,7 +19144,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="392" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>545</v>
       </c>
@@ -19159,7 +19158,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="393" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>545</v>
       </c>
@@ -19173,7 +19172,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="394" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>545</v>
       </c>
@@ -19187,7 +19186,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="395" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>545</v>
       </c>
@@ -19201,7 +19200,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="396" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>545</v>
       </c>
@@ -19215,7 +19214,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="397" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>545</v>
       </c>
@@ -19229,7 +19228,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="398" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>545</v>
       </c>
@@ -19243,7 +19242,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="399" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>545</v>
       </c>
@@ -19257,7 +19256,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="400" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>545</v>
       </c>
@@ -19271,7 +19270,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="401" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>547</v>
       </c>
@@ -19285,7 +19284,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="402" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>547</v>
       </c>
@@ -19299,7 +19298,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="403" spans="1:5" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>547</v>
       </c>
@@ -19313,7 +19312,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="404" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>547</v>
       </c>
@@ -19327,7 +19326,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="405" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>547</v>
       </c>
@@ -19341,7 +19340,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="406" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>547</v>
       </c>
@@ -19355,7 +19354,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="407" spans="1:5" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>548</v>
       </c>
@@ -19369,7 +19368,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="408" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>548</v>
       </c>
@@ -19383,7 +19382,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="409" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>548</v>
       </c>
@@ -19397,7 +19396,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="410" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>548</v>
       </c>
@@ -19411,7 +19410,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="411" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>548</v>
       </c>
@@ -19425,7 +19424,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="412" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>549</v>
       </c>
@@ -19439,7 +19438,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="413" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>549</v>
       </c>
@@ -19453,7 +19452,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="414" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>549</v>
       </c>
@@ -19467,7 +19466,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="415" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>549</v>
       </c>
@@ -19481,7 +19480,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="416" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>550</v>
       </c>
@@ -19495,7 +19494,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="417" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>550</v>
       </c>
@@ -19509,7 +19508,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="418" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>550</v>
       </c>
@@ -19523,7 +19522,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="419" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>550</v>
       </c>
@@ -19537,7 +19536,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="420" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>550</v>
       </c>
@@ -19551,7 +19550,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="421" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>550</v>
       </c>
@@ -19565,7 +19564,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="422" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>550</v>
       </c>
@@ -19579,7 +19578,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="423" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>550</v>
       </c>
@@ -19593,7 +19592,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="424" spans="1:5" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>550</v>
       </c>
@@ -19607,7 +19606,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="425" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>550</v>
       </c>
@@ -19621,7 +19620,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="426" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>550</v>
       </c>
@@ -19635,7 +19634,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="427" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>550</v>
       </c>
@@ -19649,7 +19648,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="428" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>550</v>
       </c>
@@ -19663,7 +19662,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="429" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>550</v>
       </c>
@@ -19677,7 +19676,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="430" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>550</v>
       </c>
@@ -19691,7 +19690,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="431" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>550</v>
       </c>
@@ -19705,7 +19704,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="432" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>550</v>
       </c>
@@ -19719,7 +19718,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="433" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>550</v>
       </c>
@@ -19733,7 +19732,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="434" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>550</v>
       </c>
@@ -19747,7 +19746,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="435" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>550</v>
       </c>
@@ -19761,7 +19760,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="436" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>550</v>
       </c>
@@ -19775,7 +19774,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="437" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>550</v>
       </c>
@@ -19789,7 +19788,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="438" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>550</v>
       </c>
@@ -19803,7 +19802,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="439" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>550</v>
       </c>
@@ -19817,7 +19816,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="440" spans="1:5" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>551</v>
       </c>
@@ -19831,7 +19830,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="441" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>551</v>
       </c>
@@ -19845,7 +19844,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="442" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>551</v>
       </c>
@@ -19859,7 +19858,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="443" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>551</v>
       </c>
@@ -19873,7 +19872,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="444" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>551</v>
       </c>
@@ -19887,7 +19886,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="445" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>551</v>
       </c>
@@ -19901,7 +19900,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="446" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>551</v>
       </c>
@@ -19915,7 +19914,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="447" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>551</v>
       </c>
@@ -19929,7 +19928,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="448" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>551</v>
       </c>
@@ -19943,7 +19942,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="449" spans="1:5" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>551</v>
       </c>
@@ -19957,7 +19956,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="450" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>551</v>
       </c>
@@ -19971,7 +19970,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="451" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>551</v>
       </c>
@@ -19985,7 +19984,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="452" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>551</v>
       </c>
@@ -19999,7 +19998,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="453" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>551</v>
       </c>
@@ -20013,7 +20012,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="454" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>551</v>
       </c>
@@ -20027,7 +20026,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="455" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>434</v>
       </c>
@@ -20041,7 +20040,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="456" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>434</v>
       </c>
@@ -20055,7 +20054,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="457" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>434</v>
       </c>
@@ -20069,7 +20068,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="458" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>434</v>
       </c>
@@ -20083,7 +20082,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="459" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>434</v>
       </c>
@@ -20097,7 +20096,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="460" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>434</v>
       </c>
@@ -20111,7 +20110,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="461" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>434</v>
       </c>
@@ -20125,7 +20124,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="462" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>434</v>
       </c>
@@ -20139,7 +20138,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="463" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>434</v>
       </c>
@@ -20153,7 +20152,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="464" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>434</v>
       </c>
@@ -20167,7 +20166,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="465" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>434</v>
       </c>
@@ -20181,7 +20180,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="466" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>434</v>
       </c>
@@ -20195,7 +20194,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="467" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>434</v>
       </c>
@@ -20209,7 +20208,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="468" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>434</v>
       </c>
@@ -20223,7 +20222,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="469" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>434</v>
       </c>
@@ -20237,7 +20236,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="470" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>434</v>
       </c>
@@ -20251,7 +20250,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="471" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>434</v>
       </c>
@@ -20265,7 +20264,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="472" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>434</v>
       </c>
@@ -20279,7 +20278,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="473" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>434</v>
       </c>
@@ -20293,7 +20292,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="474" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>434</v>
       </c>
@@ -20307,7 +20306,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="475" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>434</v>
       </c>
@@ -20321,7 +20320,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="476" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>552</v>
       </c>
@@ -20335,7 +20334,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="477" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>552</v>
       </c>
@@ -20349,7 +20348,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="478" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>552</v>
       </c>
@@ -20363,7 +20362,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="479" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>552</v>
       </c>
@@ -20377,7 +20376,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="480" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>552</v>
       </c>
@@ -20391,7 +20390,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="481" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>552</v>
       </c>
@@ -20405,7 +20404,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="482" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>552</v>
       </c>
@@ -20419,7 +20418,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="483" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>552</v>
       </c>
@@ -20433,7 +20432,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="484" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>552</v>
       </c>
@@ -20447,7 +20446,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="485" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>552</v>
       </c>
@@ -20461,7 +20460,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="486" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>552</v>
       </c>
@@ -20475,7 +20474,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="487" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>552</v>
       </c>
@@ -20489,7 +20488,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="488" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>552</v>
       </c>
@@ -20503,7 +20502,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="489" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>552</v>
       </c>
@@ -20517,7 +20516,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="490" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>552</v>
       </c>
@@ -20531,7 +20530,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="491" spans="1:5" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>552</v>
       </c>
@@ -20545,7 +20544,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="492" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>552</v>
       </c>
@@ -20559,7 +20558,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="493" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>552</v>
       </c>
@@ -20573,7 +20572,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="494" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>552</v>
       </c>
@@ -20587,7 +20586,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="495" spans="1:5" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>441</v>
       </c>
@@ -20601,7 +20600,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="496" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>441</v>
       </c>
@@ -20615,7 +20614,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="497" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>441</v>
       </c>
@@ -20629,7 +20628,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="498" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>441</v>
       </c>
@@ -20643,7 +20642,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="499" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>441</v>
       </c>
@@ -20657,7 +20656,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="500" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>441</v>
       </c>
@@ -20671,7 +20670,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="501" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>441</v>
       </c>
@@ -20685,7 +20684,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="502" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>441</v>
       </c>
@@ -20699,7 +20698,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="503" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>441</v>
       </c>
@@ -20713,7 +20712,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="504" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>441</v>
       </c>
@@ -20727,7 +20726,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="505" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>441</v>
       </c>
@@ -20741,7 +20740,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="506" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>441</v>
       </c>
@@ -20755,7 +20754,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="507" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>441</v>
       </c>
@@ -20769,7 +20768,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="508" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>441</v>
       </c>
@@ -20783,7 +20782,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="509" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>441</v>
       </c>
@@ -20797,7 +20796,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="510" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>441</v>
       </c>
@@ -20811,7 +20810,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="511" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>441</v>
       </c>
@@ -20825,7 +20824,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="512" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>441</v>
       </c>
@@ -20839,7 +20838,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="513" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>441</v>
       </c>
@@ -20853,7 +20852,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="514" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>441</v>
       </c>
@@ -20867,7 +20866,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="515" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>441</v>
       </c>
@@ -20881,7 +20880,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="516" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>441</v>
       </c>
@@ -20895,7 +20894,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="517" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>441</v>
       </c>
@@ -20909,7 +20908,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="518" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>441</v>
       </c>
@@ -20923,7 +20922,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="519" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>441</v>
       </c>
@@ -20937,7 +20936,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="520" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>441</v>
       </c>
@@ -20951,7 +20950,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="521" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>441</v>
       </c>
@@ -20965,7 +20964,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="522" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>441</v>
       </c>
@@ -20979,7 +20978,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="523" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>441</v>
       </c>
@@ -20993,7 +20992,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="524" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>441</v>
       </c>
@@ -21007,7 +21006,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="525" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>445</v>
       </c>
@@ -21021,7 +21020,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="526" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>445</v>
       </c>
@@ -21035,7 +21034,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="527" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>445</v>
       </c>
@@ -21049,7 +21048,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="528" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>445</v>
       </c>
@@ -21063,7 +21062,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="529" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>445</v>
       </c>
@@ -21077,7 +21076,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="530" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>518</v>
       </c>
@@ -21091,7 +21090,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="531" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>518</v>
       </c>
@@ -21105,7 +21104,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="532" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>518</v>
       </c>
@@ -21119,7 +21118,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="533" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>518</v>
       </c>
@@ -21133,7 +21132,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="534" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>454</v>
       </c>
@@ -21147,7 +21146,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="535" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>454</v>
       </c>
@@ -21161,7 +21160,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="536" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>454</v>
       </c>
@@ -21175,7 +21174,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="537" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>454</v>
       </c>
@@ -21189,7 +21188,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="538" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>454</v>
       </c>
@@ -21203,7 +21202,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="539" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>454</v>
       </c>
@@ -21217,7 +21216,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="540" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>454</v>
       </c>
@@ -21231,7 +21230,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="541" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>454</v>
       </c>
@@ -21245,7 +21244,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="542" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>454</v>
       </c>
@@ -21259,7 +21258,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="543" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>454</v>
       </c>
@@ -21273,7 +21272,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="544" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>454</v>
       </c>
@@ -21287,7 +21286,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="545" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>454</v>
       </c>
@@ -21301,7 +21300,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="546" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>454</v>
       </c>
@@ -21315,7 +21314,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="547" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>454</v>
       </c>
@@ -21329,7 +21328,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="548" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>454</v>
       </c>
@@ -21343,7 +21342,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="549" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>454</v>
       </c>
@@ -21357,7 +21356,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="550" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>454</v>
       </c>
@@ -21371,7 +21370,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="551" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>454</v>
       </c>
@@ -21385,7 +21384,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="552" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>454</v>
       </c>
@@ -21399,7 +21398,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="553" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>454</v>
       </c>
@@ -21413,7 +21412,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="554" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>454</v>
       </c>
@@ -21427,7 +21426,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="555" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>454</v>
       </c>
@@ -21441,7 +21440,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="556" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>454</v>
       </c>
@@ -21455,7 +21454,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="557" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>454</v>
       </c>
@@ -21469,7 +21468,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="558" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>454</v>
       </c>
@@ -21483,7 +21482,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="559" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>454</v>
       </c>
@@ -21497,7 +21496,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="560" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>454</v>
       </c>
@@ -21511,7 +21510,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="561" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>454</v>
       </c>
@@ -21525,7 +21524,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="562" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>454</v>
       </c>
@@ -21539,7 +21538,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="563" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>454</v>
       </c>
@@ -21553,7 +21552,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="564" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>454</v>
       </c>
@@ -21567,7 +21566,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="565" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>454</v>
       </c>
@@ -21581,7 +21580,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="566" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>454</v>
       </c>
@@ -21595,7 +21594,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="567" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>454</v>
       </c>
@@ -21609,7 +21608,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="568" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>454</v>
       </c>
@@ -21623,7 +21622,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="569" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>454</v>
       </c>
@@ -21637,7 +21636,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="570" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>454</v>
       </c>
@@ -21651,7 +21650,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="571" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>454</v>
       </c>
@@ -21665,7 +21664,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="572" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>454</v>
       </c>
@@ -21679,7 +21678,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="573" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>454</v>
       </c>
@@ -21693,7 +21692,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="574" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>454</v>
       </c>
@@ -21707,7 +21706,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="575" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>454</v>
       </c>
@@ -21721,7 +21720,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="576" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>454</v>
       </c>
@@ -21735,7 +21734,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="577" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>454</v>
       </c>
@@ -21749,7 +21748,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="578" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>454</v>
       </c>
@@ -21763,7 +21762,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="579" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>519</v>
       </c>
@@ -21777,7 +21776,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="580" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>519</v>
       </c>
@@ -21791,7 +21790,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="581" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>520</v>
       </c>
@@ -21805,7 +21804,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="582" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>520</v>
       </c>
@@ -21819,7 +21818,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="583" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>520</v>
       </c>
@@ -21833,7 +21832,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="584" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>520</v>
       </c>
@@ -21847,7 +21846,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="585" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>520</v>
       </c>
@@ -21861,7 +21860,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="586" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>520</v>
       </c>
@@ -21875,7 +21874,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="587" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>520</v>
       </c>
@@ -21889,7 +21888,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="588" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>520</v>
       </c>
@@ -21903,7 +21902,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="589" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>520</v>
       </c>
@@ -21917,7 +21916,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="590" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>520</v>
       </c>
@@ -21931,7 +21930,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="591" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>520</v>
       </c>
@@ -21945,7 +21944,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="592" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>520</v>
       </c>
@@ -21959,7 +21958,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="593" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>520</v>
       </c>
@@ -21973,7 +21972,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="594" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>520</v>
       </c>
@@ -21987,7 +21986,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="595" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A595" s="3" t="s">
         <v>2364</v>
       </c>
@@ -22001,7 +22000,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="596" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A596" s="3" t="s">
         <v>2364</v>
       </c>
@@ -22015,7 +22014,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="597" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A597" s="3" t="s">
         <v>2364</v>
       </c>
@@ -22029,7 +22028,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="598" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A598" s="3" t="s">
         <v>2364</v>
       </c>
@@ -22043,7 +22042,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="599" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A599" s="3" t="s">
         <v>2364</v>
       </c>
@@ -22057,7 +22056,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="600" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A600" s="3" t="s">
         <v>2364</v>
       </c>
@@ -22071,7 +22070,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="601" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A601" s="3" t="s">
         <v>2364</v>
       </c>
@@ -22085,7 +22084,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="602" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A602" s="3" t="s">
         <v>2364</v>
       </c>
@@ -22099,7 +22098,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="603" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A603" s="3" t="s">
         <v>2364</v>
       </c>
@@ -22113,7 +22112,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="604" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A604" s="3" t="s">
         <v>2364</v>
       </c>
@@ -22127,7 +22126,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="605" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A605" s="3" t="s">
         <v>2364</v>
       </c>
@@ -22141,7 +22140,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="606" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A606" s="3" t="s">
         <v>2364</v>
       </c>
@@ -22155,7 +22154,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="607" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A607" s="3" t="s">
         <v>2364</v>
       </c>
@@ -22169,7 +22168,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="608" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A608" s="3" t="s">
         <v>2364</v>
       </c>
@@ -22183,7 +22182,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="609" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A609" s="3" t="s">
         <v>2364</v>
       </c>
@@ -22197,7 +22196,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="610" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A610" s="3" t="s">
         <v>2364</v>
       </c>
@@ -22211,7 +22210,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="611" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A611" s="3" t="s">
         <v>2364</v>
       </c>
@@ -22225,7 +22224,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="612" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A612" s="3" t="s">
         <v>2364</v>
       </c>
@@ -22239,7 +22238,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="613" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A613" s="3" t="s">
         <v>2364</v>
       </c>
@@ -22253,7 +22252,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="614" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A614" s="3" t="s">
         <v>2364</v>
       </c>
@@ -22267,7 +22266,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="615" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A615" s="3" t="s">
         <v>2364</v>
       </c>
@@ -22281,7 +22280,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="616" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A616" s="3" t="s">
         <v>2364</v>
       </c>
@@ -22295,7 +22294,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="617" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A617" s="3" t="s">
         <v>2364</v>
       </c>
@@ -22309,7 +22308,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="618" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A618" s="3" t="s">
         <v>2364</v>
       </c>
@@ -22323,7 +22322,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="619" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A619" s="3" t="s">
         <v>2364</v>
       </c>
@@ -22337,7 +22336,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="620" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A620" s="3" t="s">
         <v>2364</v>
       </c>
@@ -22351,7 +22350,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="621" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A621" s="3" t="s">
         <v>2364</v>
       </c>
@@ -22365,7 +22364,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="622" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A622" s="3" t="s">
         <v>2364</v>
       </c>
@@ -22379,7 +22378,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="623" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A623" s="3" t="s">
         <v>2364</v>
       </c>
@@ -22393,7 +22392,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="624" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A624" s="3" t="s">
         <v>2364</v>
       </c>
@@ -22407,7 +22406,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="625" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A625" s="3" t="s">
         <v>2364</v>
       </c>
@@ -22421,7 +22420,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="626" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A626" s="3" t="s">
         <v>2364</v>
       </c>
@@ -22435,7 +22434,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="627" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A627" s="3" t="s">
         <v>2364</v>
       </c>
@@ -22449,7 +22448,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="628" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A628" s="3" t="s">
         <v>2364</v>
       </c>
@@ -22463,7 +22462,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="629" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A629" s="3" t="s">
         <v>2364</v>
       </c>
@@ -22477,7 +22476,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="630" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A630" s="3" t="s">
         <v>2364</v>
       </c>
@@ -22491,7 +22490,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="631" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A631" s="3" t="s">
         <v>2364</v>
       </c>
@@ -22505,7 +22504,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="632" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A632" s="3" t="s">
         <v>2364</v>
       </c>
@@ -22519,7 +22518,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="633" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A633" s="3" t="s">
         <v>2364</v>
       </c>
@@ -22533,7 +22532,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="634" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A634" s="3" t="s">
         <v>2364</v>
       </c>
@@ -22547,7 +22546,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="635" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
         <v>465</v>
       </c>
@@ -22561,7 +22560,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="636" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
         <v>465</v>
       </c>
@@ -22575,7 +22574,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="637" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
         <v>465</v>
       </c>
@@ -22589,7 +22588,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="638" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
         <v>465</v>
       </c>
@@ -22603,7 +22602,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="639" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
         <v>465</v>
       </c>
@@ -22617,7 +22616,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="640" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
         <v>469</v>
       </c>
@@ -22631,7 +22630,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="641" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
         <v>473</v>
       </c>
@@ -22645,7 +22644,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="642" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
         <v>473</v>
       </c>
@@ -22659,7 +22658,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="643" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
         <v>473</v>
       </c>
@@ -22673,7 +22672,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="644" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
         <v>473</v>
       </c>
@@ -22687,7 +22686,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="645" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
         <v>473</v>
       </c>
@@ -22701,7 +22700,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="646" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
         <v>473</v>
       </c>
@@ -22715,7 +22714,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="647" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
         <v>477</v>
       </c>
@@ -22729,7 +22728,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="648" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
         <v>477</v>
       </c>
@@ -22743,7 +22742,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="649" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
         <v>477</v>
       </c>
@@ -22757,7 +22756,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="650" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
         <v>477</v>
       </c>
@@ -22771,7 +22770,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="651" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
         <v>480</v>
       </c>
@@ -22785,7 +22784,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="652" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
         <v>480</v>
       </c>
@@ -22799,7 +22798,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="653" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
         <v>480</v>
       </c>
@@ -22813,7 +22812,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="654" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
         <v>480</v>
       </c>
@@ -22827,7 +22826,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="655" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
         <v>480</v>
       </c>
@@ -22841,7 +22840,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="656" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
         <v>480</v>
       </c>
@@ -22855,7 +22854,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="657" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
         <v>480</v>
       </c>
@@ -22869,7 +22868,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="658" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
         <v>480</v>
       </c>
@@ -22883,7 +22882,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="659" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
         <v>480</v>
       </c>
@@ -22897,7 +22896,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="660" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
         <v>480</v>
       </c>
@@ -22911,7 +22910,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="661" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
         <v>480</v>
       </c>
@@ -22925,7 +22924,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="662" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
         <v>480</v>
       </c>
@@ -22939,7 +22938,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="663" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
         <v>480</v>
       </c>
@@ -22953,7 +22952,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="664" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
         <v>480</v>
       </c>
@@ -22967,7 +22966,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="665" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
         <v>480</v>
       </c>
@@ -22981,7 +22980,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="666" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
         <v>480</v>
       </c>
@@ -22995,7 +22994,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="667" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
         <v>480</v>
       </c>
@@ -23009,7 +23008,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="668" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
         <v>480</v>
       </c>
@@ -23023,7 +23022,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="669" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A669" t="s">
         <v>480</v>
       </c>
@@ -23037,7 +23036,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="670" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A670" t="s">
         <v>480</v>
       </c>
@@ -23051,7 +23050,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="671" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
         <v>480</v>
       </c>
@@ -23065,7 +23064,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="672" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
         <v>480</v>
       </c>
@@ -23079,7 +23078,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="673" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
         <v>480</v>
       </c>
@@ -23093,7 +23092,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="674" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
         <v>480</v>
       </c>
@@ -23107,7 +23106,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="675" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
         <v>480</v>
       </c>
@@ -23121,7 +23120,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="676" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
         <v>480</v>
       </c>
@@ -23135,7 +23134,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="677" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
         <v>480</v>
       </c>
@@ -23149,7 +23148,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="678" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
         <v>480</v>
       </c>
@@ -23163,7 +23162,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="679" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
         <v>480</v>
       </c>
@@ -23177,7 +23176,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="680" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
         <v>480</v>
       </c>
@@ -23191,7 +23190,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="681" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
         <v>480</v>
       </c>
@@ -23205,7 +23204,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="682" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
         <v>480</v>
       </c>
@@ -23219,7 +23218,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="683" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
         <v>480</v>
       </c>
@@ -23233,7 +23232,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="684" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
         <v>480</v>
       </c>
@@ -23247,7 +23246,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="685" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A685" t="s">
         <v>480</v>
       </c>
@@ -23261,7 +23260,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="686" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A686" t="s">
         <v>525</v>
       </c>
@@ -23275,7 +23274,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="687" spans="1:5" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
         <v>525</v>
       </c>
@@ -23289,7 +23288,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="688" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
         <v>525</v>
       </c>
@@ -23303,7 +23302,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="689" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A689" t="s">
         <v>525</v>
       </c>
@@ -23317,7 +23316,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="690" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A690" t="s">
         <v>2077</v>
       </c>
@@ -23331,7 +23330,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="691" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A691" t="s">
         <v>2077</v>
       </c>
@@ -23345,7 +23344,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="692" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
         <v>522</v>
       </c>
@@ -23359,7 +23358,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="693" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A693" t="s">
         <v>522</v>
       </c>
@@ -23373,7 +23372,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="694" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A694" t="s">
         <v>522</v>
       </c>
@@ -23387,7 +23386,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="695" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A695" t="s">
         <v>522</v>
       </c>
@@ -23401,7 +23400,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="696" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A696" t="s">
         <v>523</v>
       </c>
@@ -23415,7 +23414,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="697" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A697" t="s">
         <v>523</v>
       </c>
@@ -23429,7 +23428,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="698" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A698" t="s">
         <v>524</v>
       </c>
@@ -23443,7 +23442,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="699" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A699" t="s">
         <v>524</v>
       </c>
@@ -23457,7 +23456,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="700" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
         <v>524</v>
       </c>
@@ -23471,7 +23470,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="701" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
         <v>524</v>
       </c>
@@ -23485,7 +23484,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="702" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A702" t="s">
         <v>524</v>
       </c>
@@ -23499,7 +23498,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="703" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A703" t="s">
         <v>524</v>
       </c>
@@ -23513,7 +23512,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="704" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A704" t="s">
         <v>524</v>
       </c>
@@ -23527,7 +23526,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="705" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A705" t="s">
         <v>524</v>
       </c>
@@ -23541,7 +23540,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="706" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A706" t="s">
         <v>524</v>
       </c>
@@ -23555,7 +23554,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="707" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A707" t="s">
         <v>524</v>
       </c>
@@ -23569,7 +23568,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="708" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A708" t="s">
         <v>524</v>
       </c>
@@ -23583,7 +23582,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="709" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A709" t="s">
         <v>524</v>
       </c>
@@ -23597,7 +23596,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="710" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A710" t="s">
         <v>524</v>
       </c>
@@ -23611,7 +23610,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="711" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A711" t="s">
         <v>524</v>
       </c>
@@ -23625,7 +23624,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="712" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A712" t="s">
         <v>524</v>
       </c>
@@ -23639,7 +23638,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="713" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A713" t="s">
         <v>524</v>
       </c>
@@ -23653,7 +23652,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="714" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A714" t="s">
         <v>524</v>
       </c>
@@ -23667,7 +23666,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="715" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A715" t="s">
         <v>524</v>
       </c>
@@ -23681,7 +23680,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="716" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A716" t="s">
         <v>524</v>
       </c>
@@ -23695,7 +23694,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="717" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
         <v>524</v>
       </c>
@@ -23709,7 +23708,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="718" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A718" t="s">
         <v>496</v>
       </c>
@@ -23723,7 +23722,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="719" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
         <v>496</v>
       </c>
@@ -23737,7 +23736,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="720" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A720" t="s">
         <v>500</v>
       </c>
@@ -23751,7 +23750,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="721" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A721" t="s">
         <v>500</v>
       </c>
@@ -23765,7 +23764,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="722" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A722" t="s">
         <v>500</v>
       </c>
@@ -23779,7 +23778,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="723" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A723" t="s">
         <v>500</v>
       </c>
@@ -23793,7 +23792,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="724" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A724" t="s">
         <v>500</v>
       </c>
@@ -23807,7 +23806,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="725" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A725" t="s">
         <v>500</v>
       </c>
@@ -23821,7 +23820,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="726" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A726" t="s">
         <v>500</v>
       </c>
@@ -23835,7 +23834,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="727" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A727" t="s">
         <v>500</v>
       </c>
@@ -23849,7 +23848,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="728" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A728" t="s">
         <v>500</v>
       </c>
@@ -23863,7 +23862,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="729" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A729" t="s">
         <v>500</v>
       </c>
@@ -23877,7 +23876,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="730" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A730" t="s">
         <v>500</v>
       </c>
@@ -23891,7 +23890,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="731" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A731" t="s">
         <v>500</v>
       </c>
@@ -23905,7 +23904,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="732" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A732" t="s">
         <v>526</v>
       </c>
@@ -23919,7 +23918,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="733" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A733" t="s">
         <v>526</v>
       </c>
@@ -23933,7 +23932,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="734" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A734" t="s">
         <v>526</v>
       </c>
@@ -23947,7 +23946,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="735" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A735" t="s">
         <v>526</v>
       </c>
@@ -23961,7 +23960,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="736" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A736" t="s">
         <v>526</v>
       </c>
@@ -23975,7 +23974,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="737" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A737" t="s">
         <v>526</v>
       </c>
@@ -23989,7 +23988,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="738" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A738" t="s">
         <v>526</v>
       </c>
@@ -24003,7 +24002,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="739" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A739" t="s">
         <v>526</v>
       </c>
@@ -24017,7 +24016,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="740" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A740" t="s">
         <v>526</v>
       </c>
@@ -24031,7 +24030,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="741" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A741" t="s">
         <v>527</v>
       </c>
@@ -24045,7 +24044,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="742" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A742" t="s">
         <v>527</v>
       </c>
@@ -24059,7 +24058,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="743" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A743" t="s">
         <v>527</v>
       </c>
@@ -24073,7 +24072,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="744" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A744" t="s">
         <v>527</v>
       </c>
@@ -24087,7 +24086,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="745" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A745" t="s">
         <v>527</v>
       </c>
@@ -24101,7 +24100,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="746" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A746" t="s">
         <v>527</v>
       </c>
@@ -24115,7 +24114,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="747" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A747" t="s">
         <v>527</v>
       </c>
@@ -24129,7 +24128,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="748" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A748" t="s">
         <v>527</v>
       </c>
@@ -24143,7 +24142,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="749" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A749" t="s">
         <v>527</v>
       </c>
@@ -24157,7 +24156,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="750" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A750" t="s">
         <v>528</v>
       </c>
@@ -24171,7 +24170,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="751" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A751" t="s">
         <v>528</v>
       </c>
@@ -24185,7 +24184,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="752" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A752" t="s">
         <v>528</v>
       </c>
@@ -24199,7 +24198,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="753" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A753" t="s">
         <v>528</v>
       </c>
@@ -24213,7 +24212,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="754" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A754" t="s">
         <v>528</v>
       </c>
@@ -24227,7 +24226,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="755" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A755" t="s">
         <v>528</v>
       </c>
@@ -24241,7 +24240,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="756" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A756" t="s">
         <v>528</v>
       </c>
@@ -24255,7 +24254,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="757" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A757" t="s">
         <v>528</v>
       </c>
@@ -24269,7 +24268,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="758" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A758" t="s">
         <v>528</v>
       </c>
@@ -24283,7 +24282,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="759" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A759" t="s">
         <v>528</v>
       </c>
@@ -24297,7 +24296,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="760" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A760" t="s">
         <v>528</v>
       </c>
@@ -24311,7 +24310,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="761" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A761" t="s">
         <v>514</v>
       </c>
@@ -24325,7 +24324,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="762" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A762" t="s">
         <v>514</v>
       </c>
@@ -24339,7 +24338,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="763" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A763" t="s">
         <v>514</v>
       </c>
@@ -24353,7 +24352,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="764" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A764" t="s">
         <v>514</v>
       </c>
@@ -24367,7 +24366,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="765" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A765" t="s">
         <v>514</v>
       </c>
@@ -24381,7 +24380,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="766" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A766" t="s">
         <v>514</v>
       </c>
@@ -24395,7 +24394,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="767" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A767" t="s">
         <v>514</v>
       </c>
@@ -24409,7 +24408,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="768" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A768" t="s">
         <v>514</v>
       </c>
@@ -24423,7 +24422,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="769" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A769" t="s">
         <v>514</v>
       </c>
@@ -24437,7 +24436,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="770" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A770" t="s">
         <v>514</v>
       </c>
@@ -24451,7 +24450,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="771" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A771" t="s">
         <v>514</v>
       </c>
@@ -24465,7 +24464,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="772" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A772" t="s">
         <v>514</v>
       </c>
@@ -24479,7 +24478,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="773" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A773" t="s">
         <v>514</v>
       </c>
@@ -24493,7 +24492,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="774" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A774" t="s">
         <v>514</v>
       </c>
@@ -24507,7 +24506,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="775" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A775" t="s">
         <v>514</v>
       </c>
@@ -24521,7 +24520,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="776" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A776" t="s">
         <v>514</v>
       </c>
@@ -24535,7 +24534,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="777" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A777" t="s">
         <v>514</v>
       </c>
@@ -24549,7 +24548,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="778" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A778" t="s">
         <v>514</v>
       </c>
@@ -24563,7 +24562,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="779" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A779" t="s">
         <v>514</v>
       </c>
@@ -24577,7 +24576,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="780" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A780" t="s">
         <v>514</v>
       </c>
@@ -24591,7 +24590,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="781" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A781" t="s">
         <v>514</v>
       </c>
@@ -24605,7 +24604,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="782" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A782" t="s">
         <v>514</v>
       </c>
@@ -24619,7 +24618,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="783" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A783" t="s">
         <v>514</v>
       </c>
@@ -24633,7 +24632,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="784" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A784" t="s">
         <v>514</v>
       </c>
@@ -24647,7 +24646,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="785" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A785" t="s">
         <v>517</v>
       </c>
@@ -24661,7 +24660,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="786" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A786" t="s">
         <v>517</v>
       </c>
@@ -24675,7 +24674,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="787" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A787" t="s">
         <v>517</v>
       </c>
@@ -24689,7 +24688,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="788" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A788" t="s">
         <v>517</v>
       </c>
@@ -24703,7 +24702,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="789" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A789" t="s">
         <v>517</v>
       </c>
@@ -24717,7 +24716,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="790" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A790" t="s">
         <v>517</v>
       </c>
@@ -24731,7 +24730,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="791" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A791" t="s">
         <v>517</v>
       </c>
@@ -24745,7 +24744,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="792" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A792" t="s">
         <v>517</v>
       </c>
@@ -24759,7 +24758,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="793" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A793" t="s">
         <v>517</v>
       </c>
@@ -24773,7 +24772,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="794" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A794" t="s">
         <v>517</v>
       </c>
@@ -24787,7 +24786,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="795" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A795" t="s">
         <v>517</v>
       </c>
@@ -24801,7 +24800,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="796" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A796" t="s">
         <v>517</v>
       </c>
@@ -24815,7 +24814,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="797" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A797" t="s">
         <v>517</v>
       </c>
@@ -24829,7 +24828,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="798" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A798" t="s">
         <v>517</v>
       </c>
@@ -24843,7 +24842,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="799" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A799" t="s">
         <v>517</v>
       </c>
@@ -24857,7 +24856,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="800" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A800" t="s">
         <v>517</v>
       </c>
@@ -24871,7 +24870,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="801" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A801" t="s">
         <v>517</v>
       </c>
@@ -24885,7 +24884,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="802" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A802" t="s">
         <v>517</v>
       </c>
@@ -24899,7 +24898,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="803" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A803" t="s">
         <v>517</v>
       </c>
@@ -24913,7 +24912,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="804" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A804" t="s">
         <v>517</v>
       </c>
@@ -24927,7 +24926,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="805" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A805" t="s">
         <v>517</v>
       </c>
@@ -24941,7 +24940,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="806" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A806" t="s">
         <v>517</v>
       </c>
@@ -24955,7 +24954,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="807" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A807" t="s">
         <v>517</v>
       </c>
@@ -24969,7 +24968,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="808" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A808" t="s">
         <v>517</v>
       </c>
@@ -24983,7 +24982,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="809" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A809" t="s">
         <v>517</v>
       </c>
@@ -24997,7 +24996,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="810" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A810" t="s">
         <v>517</v>
       </c>
@@ -25011,7 +25010,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="811" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A811" t="s">
         <v>517</v>
       </c>
@@ -25025,7 +25024,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="812" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A812" t="s">
         <v>517</v>
       </c>
@@ -25039,7 +25038,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="813" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A813" t="s">
         <v>517</v>
       </c>
@@ -25053,7 +25052,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="814" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A814" t="s">
         <v>2081</v>
       </c>
@@ -25067,7 +25066,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="815" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A815" t="s">
         <v>2081</v>
       </c>
@@ -25081,7 +25080,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="816" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A816" t="s">
         <v>2081</v>
       </c>
@@ -25095,7 +25094,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="817" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A817" t="s">
         <v>2081</v>
       </c>
@@ -25109,7 +25108,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="818" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A818" t="s">
         <v>2081</v>
       </c>
@@ -25123,7 +25122,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="819" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A819" t="s">
         <v>2081</v>
       </c>
@@ -25137,7 +25136,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="820" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A820" t="s">
         <v>2081</v>
       </c>
@@ -25151,7 +25150,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="821" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A821" t="s">
         <v>2081</v>
       </c>
@@ -25165,7 +25164,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="822" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A822" t="s">
         <v>2081</v>
       </c>
@@ -25179,7 +25178,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="823" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A823" t="s">
         <v>2081</v>
       </c>
@@ -25193,7 +25192,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="824" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A824" t="s">
         <v>2081</v>
       </c>
@@ -25207,7 +25206,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="825" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A825" t="s">
         <v>2081</v>
       </c>
@@ -25221,7 +25220,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="826" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A826" t="s">
         <v>2081</v>
       </c>
@@ -25235,7 +25234,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="827" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A827" t="s">
         <v>2081</v>
       </c>
@@ -25249,7 +25248,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="828" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A828" t="s">
         <v>2081</v>
       </c>
@@ -25263,7 +25262,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="829" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A829" t="s">
         <v>2081</v>
       </c>
@@ -25277,7 +25276,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="830" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A830" t="s">
         <v>2081</v>
       </c>
@@ -25291,7 +25290,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="831" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A831" t="s">
         <v>2081</v>
       </c>
@@ -25305,7 +25304,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="832" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A832" t="s">
         <v>2081</v>
       </c>
@@ -25319,7 +25318,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="833" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A833" t="s">
         <v>2081</v>
       </c>
@@ -25333,7 +25332,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="834" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A834" t="s">
         <v>2081</v>
       </c>
@@ -25347,7 +25346,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="835" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A835" t="s">
         <v>2081</v>
       </c>
@@ -25361,7 +25360,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="836" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A836" t="s">
         <v>2081</v>
       </c>
@@ -25375,7 +25374,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="837" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A837" t="s">
         <v>2081</v>
       </c>
@@ -25389,7 +25388,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="838" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A838" t="s">
         <v>2081</v>
       </c>
@@ -25403,7 +25402,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="839" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A839" t="s">
         <v>2081</v>
       </c>
@@ -25417,7 +25416,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="840" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A840" t="s">
         <v>2081</v>
       </c>
@@ -25431,7 +25430,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="841" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A841" t="s">
         <v>2081</v>
       </c>
@@ -25445,7 +25444,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="842" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A842" t="s">
         <v>2081</v>
       </c>
@@ -25459,7 +25458,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="843" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A843" t="s">
         <v>2081</v>
       </c>
@@ -25473,7 +25472,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="844" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A844" t="s">
         <v>2081</v>
       </c>
@@ -25487,7 +25486,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="845" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A845" t="s">
         <v>2081</v>
       </c>
@@ -25501,7 +25500,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="846" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A846" t="s">
         <v>2081</v>
       </c>
@@ -25515,7 +25514,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="847" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A847" t="s">
         <v>2081</v>
       </c>
@@ -25529,7 +25528,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="848" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A848" t="s">
         <v>2081</v>
       </c>
@@ -25543,7 +25542,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="849" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A849" t="s">
         <v>2081</v>
       </c>
@@ -25557,7 +25556,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="850" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A850" t="s">
         <v>38</v>
       </c>
@@ -25571,7 +25570,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="851" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A851" t="s">
         <v>38</v>
       </c>
@@ -25585,7 +25584,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="852" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A852" t="s">
         <v>38</v>
       </c>
@@ -25599,7 +25598,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="853" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A853" t="s">
         <v>38</v>
       </c>
@@ -25613,7 +25612,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="854" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A854" t="s">
         <v>38</v>
       </c>
@@ -25627,7 +25626,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="855" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A855" t="s">
         <v>38</v>
       </c>
@@ -25641,7 +25640,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="856" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A856" t="s">
         <v>38</v>
       </c>
@@ -25655,7 +25654,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="857" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A857" t="s">
         <v>38</v>
       </c>
@@ -25669,7 +25668,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="858" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A858" t="s">
         <v>38</v>
       </c>
@@ -25683,7 +25682,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="859" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A859" t="s">
         <v>38</v>
       </c>
@@ -25697,7 +25696,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="860" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A860" t="s">
         <v>38</v>
       </c>
@@ -25711,7 +25710,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="861" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A861" t="s">
         <v>38</v>
       </c>
@@ -25725,7 +25724,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="862" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A862" t="s">
         <v>38</v>
       </c>
@@ -25739,7 +25738,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="863" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A863" t="s">
         <v>38</v>
       </c>
@@ -25753,7 +25752,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="864" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A864" t="s">
         <v>38</v>
       </c>
@@ -25767,7 +25766,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="865" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A865" t="s">
         <v>38</v>
       </c>
@@ -25781,7 +25780,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="866" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A866" t="s">
         <v>38</v>
       </c>
@@ -25795,7 +25794,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="867" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A867" t="s">
         <v>38</v>
       </c>
@@ -25809,7 +25808,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="868" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A868" t="s">
         <v>38</v>
       </c>
@@ -25823,7 +25822,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="869" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A869" t="s">
         <v>38</v>
       </c>
@@ -25837,7 +25836,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="870" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A870" t="s">
         <v>38</v>
       </c>
@@ -25851,7 +25850,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="871" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A871" t="s">
         <v>38</v>
       </c>
@@ -25865,7 +25864,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="872" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A872" t="s">
         <v>38</v>
       </c>
@@ -25879,7 +25878,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="873" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A873" t="s">
         <v>38</v>
       </c>
@@ -25893,7 +25892,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="874" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A874" t="s">
         <v>38</v>
       </c>
@@ -25907,7 +25906,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="875" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A875" t="s">
         <v>38</v>
       </c>
@@ -25921,7 +25920,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="876" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A876" t="s">
         <v>38</v>
       </c>
@@ -25935,7 +25934,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="877" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A877" t="s">
         <v>38</v>
       </c>
@@ -25949,7 +25948,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="878" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A878" t="s">
         <v>38</v>
       </c>
@@ -25963,7 +25962,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="879" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A879" t="s">
         <v>38</v>
       </c>
@@ -25977,7 +25976,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="880" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A880" t="s">
         <v>38</v>
       </c>
@@ -25991,7 +25990,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="881" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A881" t="s">
         <v>38</v>
       </c>
@@ -26005,7 +26004,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="882" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A882" t="s">
         <v>38</v>
       </c>
@@ -26019,7 +26018,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="883" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A883" t="s">
         <v>38</v>
       </c>
@@ -26033,7 +26032,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="884" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A884" t="s">
         <v>38</v>
       </c>
@@ -26047,7 +26046,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="885" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A885" t="s">
         <v>38</v>
       </c>
@@ -26061,7 +26060,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="886" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A886" t="s">
         <v>38</v>
       </c>
@@ -26075,7 +26074,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="887" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A887" t="s">
         <v>38</v>
       </c>
@@ -26089,7 +26088,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="888" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A888" t="s">
         <v>38</v>
       </c>
@@ -26103,7 +26102,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="889" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A889" t="s">
         <v>38</v>
       </c>
@@ -26117,7 +26116,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="890" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A890" t="s">
         <v>38</v>
       </c>
@@ -26131,7 +26130,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="891" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A891" t="s">
         <v>38</v>
       </c>
@@ -26145,7 +26144,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="892" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A892" t="s">
         <v>38</v>
       </c>
@@ -26159,7 +26158,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="893" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A893" t="s">
         <v>38</v>
       </c>
@@ -26173,7 +26172,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="894" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A894" t="s">
         <v>38</v>
       </c>
@@ -26187,7 +26186,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="895" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A895" t="s">
         <v>38</v>
       </c>
@@ -26201,7 +26200,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="896" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A896" t="s">
         <v>38</v>
       </c>
@@ -26215,7 +26214,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="897" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A897" t="s">
         <v>38</v>
       </c>
@@ -26229,7 +26228,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="898" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A898" t="s">
         <v>38</v>
       </c>
@@ -26243,7 +26242,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="899" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A899" t="s">
         <v>38</v>
       </c>
@@ -26257,7 +26256,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="900" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A900" t="s">
         <v>38</v>
       </c>
@@ -26271,7 +26270,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="901" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A901" t="s">
         <v>38</v>
       </c>
@@ -26285,7 +26284,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="902" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A902" t="s">
         <v>38</v>
       </c>
@@ -26299,7 +26298,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="903" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A903" t="s">
         <v>38</v>
       </c>
@@ -26313,7 +26312,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="904" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A904" t="s">
         <v>38</v>
       </c>
@@ -26327,7 +26326,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="905" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A905" t="s">
         <v>38</v>
       </c>
@@ -26341,7 +26340,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="906" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A906" t="s">
         <v>38</v>
       </c>
@@ -26355,7 +26354,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="907" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A907" t="s">
         <v>38</v>
       </c>
@@ -26369,7 +26368,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="908" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A908" t="s">
         <v>38</v>
       </c>
@@ -26383,7 +26382,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="909" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A909" t="s">
         <v>38</v>
       </c>
@@ -26397,7 +26396,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="910" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A910" t="s">
         <v>38</v>
       </c>
@@ -26411,7 +26410,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="911" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A911" t="s">
         <v>38</v>
       </c>
@@ -26425,7 +26424,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="912" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A912" t="s">
         <v>38</v>
       </c>
@@ -26439,7 +26438,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="913" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A913" t="s">
         <v>38</v>
       </c>
@@ -26453,7 +26452,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="914" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A914" t="s">
         <v>38</v>
       </c>
@@ -26467,7 +26466,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="915" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A915" t="s">
         <v>38</v>
       </c>
@@ -26481,7 +26480,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="916" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A916" t="s">
         <v>38</v>
       </c>
@@ -26495,7 +26494,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="917" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A917" t="s">
         <v>38</v>
       </c>
@@ -26509,7 +26508,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="918" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A918" t="s">
         <v>38</v>
       </c>
@@ -26523,7 +26522,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="919" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A919" t="s">
         <v>38</v>
       </c>
@@ -26537,7 +26536,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="920" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A920" t="s">
         <v>38</v>
       </c>
@@ -26551,7 +26550,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="921" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A921" t="s">
         <v>38</v>
       </c>
@@ -26565,7 +26564,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="922" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A922" t="s">
         <v>38</v>
       </c>
@@ -26579,7 +26578,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="923" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A923" t="s">
         <v>38</v>
       </c>
@@ -26593,7 +26592,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="924" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A924" t="s">
         <v>38</v>
       </c>
@@ -26607,7 +26606,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="925" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A925" t="s">
         <v>38</v>
       </c>
@@ -26621,7 +26620,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="926" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A926" t="s">
         <v>38</v>
       </c>
@@ -26635,7 +26634,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="927" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A927" t="s">
         <v>38</v>
       </c>
@@ -26649,7 +26648,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="928" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A928" t="s">
         <v>38</v>
       </c>
@@ -26663,7 +26662,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="929" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A929" t="s">
         <v>38</v>
       </c>
@@ -26677,7 +26676,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="930" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A930" t="s">
         <v>38</v>
       </c>
@@ -26691,7 +26690,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="931" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A931" t="s">
         <v>38</v>
       </c>
@@ -26705,7 +26704,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="932" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A932" t="s">
         <v>38</v>
       </c>
@@ -26719,7 +26718,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="933" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A933" t="s">
         <v>38</v>
       </c>
@@ -26733,7 +26732,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="934" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A934" t="s">
         <v>38</v>
       </c>
@@ -26747,7 +26746,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="935" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A935" t="s">
         <v>38</v>
       </c>
@@ -26761,7 +26760,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="936" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A936" t="s">
         <v>38</v>
       </c>
@@ -26775,7 +26774,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="937" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A937" t="s">
         <v>38</v>
       </c>
@@ -26789,7 +26788,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="938" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A938" t="s">
         <v>38</v>
       </c>
@@ -26803,7 +26802,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="939" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A939" t="s">
         <v>38</v>
       </c>
@@ -26817,7 +26816,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="940" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A940" t="s">
         <v>38</v>
       </c>
@@ -26831,7 +26830,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="941" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A941" t="s">
         <v>38</v>
       </c>
@@ -26845,7 +26844,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="942" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A942" t="s">
         <v>38</v>
       </c>
@@ -26859,7 +26858,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="943" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A943" t="s">
         <v>38</v>
       </c>
@@ -26873,7 +26872,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="944" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A944" t="s">
         <v>38</v>
       </c>
@@ -26887,7 +26886,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="945" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A945" t="s">
         <v>38</v>
       </c>
@@ -26901,7 +26900,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="946" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A946" t="s">
         <v>38</v>
       </c>
@@ -26915,7 +26914,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="947" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A947" t="s">
         <v>38</v>
       </c>
@@ -26929,7 +26928,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="948" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A948" t="s">
         <v>38</v>
       </c>
@@ -26943,7 +26942,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="949" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A949" t="s">
         <v>38</v>
       </c>
@@ -26957,7 +26956,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="950" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A950" t="s">
         <v>38</v>
       </c>
@@ -26971,7 +26970,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="951" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A951" t="s">
         <v>38</v>
       </c>
@@ -26985,7 +26984,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="952" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A952" t="s">
         <v>38</v>
       </c>
@@ -26999,7 +26998,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="953" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A953" t="s">
         <v>38</v>
       </c>
@@ -27013,7 +27012,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="954" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A954" t="s">
         <v>38</v>
       </c>
@@ -27027,7 +27026,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="955" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A955" t="s">
         <v>2316</v>
       </c>
@@ -27041,7 +27040,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="956" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A956" t="s">
         <v>2316</v>
       </c>
@@ -27055,7 +27054,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="957" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A957" t="s">
         <v>2316</v>
       </c>
@@ -27069,7 +27068,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="958" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A958" t="s">
         <v>2316</v>
       </c>
@@ -27083,7 +27082,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="959" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A959" t="s">
         <v>2316</v>
       </c>
@@ -27097,7 +27096,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="960" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A960" t="s">
         <v>2316</v>
       </c>
@@ -27111,7 +27110,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="961" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A961" t="s">
         <v>2316</v>
       </c>
@@ -27125,7 +27124,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="962" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A962" t="s">
         <v>2316</v>
       </c>
@@ -27139,7 +27138,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="963" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A963" t="s">
         <v>2316</v>
       </c>
@@ -27153,7 +27152,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="964" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A964" t="s">
         <v>2316</v>
       </c>
@@ -27167,7 +27166,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="965" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A965" t="s">
         <v>2330</v>
       </c>
@@ -27181,7 +27180,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="966" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A966" t="s">
         <v>2330</v>
       </c>
@@ -27195,7 +27194,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="967" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A967" t="s">
         <v>2337</v>
       </c>
@@ -27209,7 +27208,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="968" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A968" t="s">
         <v>2337</v>
       </c>
@@ -27223,7 +27222,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="969" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A969" t="s">
         <v>2337</v>
       </c>
@@ -27237,7 +27236,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="970" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A970" t="s">
         <v>2337</v>
       </c>
@@ -27251,7 +27250,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="971" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A971" t="s">
         <v>2337</v>
       </c>
@@ -27265,7 +27264,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="972" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A972" t="s">
         <v>2337</v>
       </c>
@@ -27279,7 +27278,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="973" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A973" t="s">
         <v>2337</v>
       </c>
@@ -27293,7 +27292,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="974" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A974" s="3" t="s">
         <v>2343</v>
       </c>
@@ -27307,7 +27306,7 @@
         <v>2341</v>
       </c>
     </row>
-    <row r="975" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A975" s="3" t="s">
         <v>2343</v>
       </c>
@@ -27321,7 +27320,7 @@
         <v>2341</v>
       </c>
     </row>
-    <row r="976" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A976" s="3" t="s">
         <v>2343</v>
       </c>
@@ -27335,7 +27334,7 @@
         <v>2341</v>
       </c>
     </row>
-    <row r="977" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A977" s="3" t="s">
         <v>2343</v>
       </c>
@@ -27349,7 +27348,7 @@
         <v>2342</v>
       </c>
     </row>
-    <row r="978" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A978" t="s">
         <v>2347</v>
       </c>
@@ -27363,7 +27362,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="979" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A979" t="s">
         <v>2347</v>
       </c>
@@ -27377,7 +27376,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="980" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A980" t="s">
         <v>2347</v>
       </c>
@@ -27392,16 +27391,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K980" xr:uid="{00000000-0001-0000-0100-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="participant"/>
-        <filter val="pb_impowr_demographics"/>
-        <filter val="pb_supplemental_demographics"/>
-        <filter val="provider_demographic"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:K980" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
